--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G32" t="n">
         <v>12</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -1659,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -1694,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -1729,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -1764,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -1799,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G41" t="n">
         <v>26</v>
@@ -1834,7 +1834,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G42" t="n">
         <v>31</v>
@@ -1869,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G43" t="n">
         <v>37</v>
@@ -1904,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="G44" t="n">
         <v>218</v>
@@ -1939,7 +1939,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="G45" t="n">
         <v>229</v>
@@ -1974,7 +1974,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="G46" t="n">
         <v>317</v>
@@ -2009,7 +2009,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="G47" t="n">
         <v>345</v>
@@ -2044,7 +2044,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="G48" t="n">
         <v>481</v>
@@ -2056,7 +2056,7 @@
         <v>17583</v>
       </c>
       <c r="J48" t="n">
-        <v>14243</v>
+        <v>14244</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -2079,7 +2079,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="G49" t="n">
         <v>680</v>
@@ -2091,7 +2091,7 @@
         <v>20761</v>
       </c>
       <c r="J49" t="n">
-        <v>17323</v>
+        <v>17324</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -2114,7 +2114,7 @@
         <v>3103</v>
       </c>
       <c r="F50" t="n">
-        <v>6987</v>
+        <v>6988</v>
       </c>
       <c r="G50" t="n">
         <v>830</v>
@@ -2126,7 +2126,7 @@
         <v>26438</v>
       </c>
       <c r="J50" t="n">
-        <v>21077</v>
+        <v>21079</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -2140,7 +2140,7 @@
         <v>2285</v>
       </c>
       <c r="C51" t="n">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>3956</v>
       </c>
       <c r="F51" t="n">
-        <v>8573</v>
+        <v>8574</v>
       </c>
       <c r="G51" t="n">
         <v>976</v>
@@ -2158,10 +2158,10 @@
         <v>1696</v>
       </c>
       <c r="I51" t="n">
-        <v>32043</v>
+        <v>32044</v>
       </c>
       <c r="J51" t="n">
-        <v>25317</v>
+        <v>25320</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -2184,7 +2184,7 @@
         <v>4713</v>
       </c>
       <c r="F52" t="n">
-        <v>10121</v>
+        <v>10122</v>
       </c>
       <c r="G52" t="n">
         <v>1124</v>
@@ -2193,10 +2193,10 @@
         <v>2127</v>
       </c>
       <c r="I52" t="n">
-        <v>36738</v>
+        <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28692</v>
+        <v>28693</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -2219,7 +2219,7 @@
         <v>5164</v>
       </c>
       <c r="F53" t="n">
-        <v>11723</v>
+        <v>11724</v>
       </c>
       <c r="G53" t="n">
         <v>1285</v>
@@ -2228,10 +2228,10 @@
         <v>2625</v>
       </c>
       <c r="I53" t="n">
-        <v>40705</v>
+        <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31646</v>
+        <v>31647</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -2254,7 +2254,7 @@
         <v>5942</v>
       </c>
       <c r="F54" t="n">
-        <v>13363</v>
+        <v>13364</v>
       </c>
       <c r="G54" t="n">
         <v>1489</v>
@@ -2263,10 +2263,10 @@
         <v>3217</v>
       </c>
       <c r="I54" t="n">
-        <v>47099</v>
+        <v>47100</v>
       </c>
       <c r="J54" t="n">
-        <v>36445</v>
+        <v>36446</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -2289,7 +2289,7 @@
         <v>6463</v>
       </c>
       <c r="F55" t="n">
-        <v>15343</v>
+        <v>15344</v>
       </c>
       <c r="G55" t="n">
         <v>1808</v>
@@ -2298,7 +2298,7 @@
         <v>3973</v>
       </c>
       <c r="I55" t="n">
-        <v>52406</v>
+        <v>52407</v>
       </c>
       <c r="J55" t="n">
         <v>41979</v>
@@ -2324,7 +2324,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17033</v>
+        <v>17034</v>
       </c>
       <c r="G56" t="n">
         <v>2051</v>
@@ -2333,7 +2333,7 @@
         <v>4728</v>
       </c>
       <c r="I56" t="n">
-        <v>63098</v>
+        <v>63099</v>
       </c>
       <c r="J56" t="n">
         <v>46855</v>
@@ -2368,7 +2368,7 @@
         <v>5591</v>
       </c>
       <c r="I57" t="n">
-        <v>72675</v>
+        <v>72676</v>
       </c>
       <c r="J57" t="n">
         <v>54309</v>
@@ -2403,10 +2403,10 @@
         <v>6575</v>
       </c>
       <c r="I58" t="n">
-        <v>81187</v>
+        <v>81188</v>
       </c>
       <c r="J58" t="n">
-        <v>59282</v>
+        <v>59281</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -2438,10 +2438,10 @@
         <v>7628</v>
       </c>
       <c r="I59" t="n">
-        <v>89779</v>
+        <v>89780</v>
       </c>
       <c r="J59" t="n">
-        <v>62626</v>
+        <v>62627</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -2473,10 +2473,10 @@
         <v>8602</v>
       </c>
       <c r="I60" t="n">
-        <v>96083</v>
+        <v>96084</v>
       </c>
       <c r="J60" t="n">
-        <v>65300</v>
+        <v>65301</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -2508,7 +2508,7 @@
         <v>9548</v>
       </c>
       <c r="I61" t="n">
-        <v>103275</v>
+        <v>103276</v>
       </c>
       <c r="J61" t="n">
         <v>70156</v>
@@ -2543,7 +2543,7 @@
         <v>10614</v>
       </c>
       <c r="I62" t="n">
-        <v>108823</v>
+        <v>108824</v>
       </c>
       <c r="J62" t="n">
         <v>74422</v>
@@ -2578,10 +2578,10 @@
         <v>11637</v>
       </c>
       <c r="I63" t="n">
-        <v>117175</v>
+        <v>117176</v>
       </c>
       <c r="J63" t="n">
-        <v>78243</v>
+        <v>78245</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -2595,7 +2595,7 @@
         <v>5257</v>
       </c>
       <c r="C64" t="n">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>12719</v>
       </c>
       <c r="I64" t="n">
-        <v>123949</v>
+        <v>123951</v>
       </c>
       <c r="J64" t="n">
-        <v>82058</v>
+        <v>82060</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -2648,10 +2648,10 @@
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130637</v>
+        <v>130639</v>
       </c>
       <c r="J65" t="n">
-        <v>85926</v>
+        <v>85929</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -2683,10 +2683,10 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135946</v>
+        <v>135948</v>
       </c>
       <c r="J66" t="n">
-        <v>88355</v>
+        <v>88359</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -2718,10 +2718,10 @@
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139708</v>
+        <v>139710</v>
       </c>
       <c r="J67" t="n">
-        <v>90012</v>
+        <v>90016</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -2753,10 +2753,10 @@
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144594</v>
+        <v>144596</v>
       </c>
       <c r="J68" t="n">
-        <v>93223</v>
+        <v>93228</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -2779,7 +2779,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>28789</v>
+        <v>28790</v>
       </c>
       <c r="G69" t="n">
         <v>3409</v>
@@ -2788,10 +2788,10 @@
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149514</v>
+        <v>149516</v>
       </c>
       <c r="J69" t="n">
-        <v>96280</v>
+        <v>96288</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -2805,7 +2805,7 @@
         <v>2507</v>
       </c>
       <c r="C70" t="n">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D70" t="n">
         <v>119</v>
@@ -2814,7 +2814,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>27695</v>
+        <v>27696</v>
       </c>
       <c r="G70" t="n">
         <v>3324</v>
@@ -2823,10 +2823,10 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154913</v>
+        <v>154914</v>
       </c>
       <c r="J70" t="n">
-        <v>99401</v>
+        <v>99408</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -2849,7 +2849,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>26327</v>
+        <v>26328</v>
       </c>
       <c r="G71" t="n">
         <v>3283</v>
@@ -2858,10 +2858,10 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159905</v>
+        <v>159906</v>
       </c>
       <c r="J71" t="n">
-        <v>102014</v>
+        <v>102022</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -2884,7 +2884,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>25943</v>
+        <v>25944</v>
       </c>
       <c r="G72" t="n">
         <v>3202</v>
@@ -2893,10 +2893,10 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165060</v>
+        <v>165061</v>
       </c>
       <c r="J72" t="n">
-        <v>104298</v>
+        <v>104306</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -2919,7 +2919,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25140</v>
+        <v>25141</v>
       </c>
       <c r="G73" t="n">
         <v>3158</v>
@@ -2928,10 +2928,10 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168829</v>
+        <v>168830</v>
       </c>
       <c r="J73" t="n">
-        <v>106067</v>
+        <v>106075</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -2945,7 +2945,7 @@
         <v>2259</v>
       </c>
       <c r="C74" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D74" t="n">
         <v>485</v>
@@ -2954,7 +2954,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24499</v>
+        <v>24500</v>
       </c>
       <c r="G74" t="n">
         <v>3092</v>
@@ -2963,10 +2963,10 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171872</v>
+        <v>171874</v>
       </c>
       <c r="J74" t="n">
-        <v>107318</v>
+        <v>107327</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -2989,7 +2989,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24210</v>
+        <v>24211</v>
       </c>
       <c r="G75" t="n">
         <v>3054</v>
@@ -2998,10 +2998,10 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175374</v>
+        <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109243</v>
+        <v>109253</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -3033,10 +3033,10 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179702</v>
+        <v>179704</v>
       </c>
       <c r="J76" t="n">
-        <v>111774</v>
+        <v>111784</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -3068,10 +3068,10 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184103</v>
+        <v>184105</v>
       </c>
       <c r="J77" t="n">
-        <v>116797</v>
+        <v>116807</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -3103,10 +3103,10 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188812</v>
+        <v>188814</v>
       </c>
       <c r="J78" t="n">
-        <v>119149</v>
+        <v>119159</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -3120,10 +3120,10 @@
         <v>3676</v>
       </c>
       <c r="C79" t="n">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D79" t="n">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E79" t="n">
         <v>5378</v>
@@ -3138,10 +3138,10 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193917</v>
+        <v>193916</v>
       </c>
       <c r="J79" t="n">
-        <v>121434</v>
+        <v>121445</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -3164,7 +3164,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19643</v>
+        <v>19644</v>
       </c>
       <c r="G80" t="n">
         <v>2522</v>
@@ -3173,10 +3173,10 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199799</v>
+        <v>199798</v>
       </c>
       <c r="J80" t="n">
-        <v>122903</v>
+        <v>122915</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
@@ -3199,7 +3199,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19205</v>
+        <v>19206</v>
       </c>
       <c r="G81" t="n">
         <v>2536</v>
@@ -3208,10 +3208,10 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202026</v>
+        <v>202025</v>
       </c>
       <c r="J81" t="n">
-        <v>123773</v>
+        <v>123785</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
@@ -3234,7 +3234,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19024</v>
+        <v>19025</v>
       </c>
       <c r="G82" t="n">
         <v>2481</v>
@@ -3243,10 +3243,10 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204949</v>
+        <v>204948</v>
       </c>
       <c r="J82" t="n">
-        <v>125485</v>
+        <v>125499</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
@@ -3269,7 +3269,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18579</v>
+        <v>18580</v>
       </c>
       <c r="G83" t="n">
         <v>2408</v>
@@ -3278,10 +3278,10 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208702</v>
+        <v>208701</v>
       </c>
       <c r="J83" t="n">
-        <v>127270</v>
+        <v>127285</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -3304,7 +3304,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>17873</v>
+        <v>17877</v>
       </c>
       <c r="G84" t="n">
         <v>2316</v>
@@ -3313,10 +3313,10 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213319</v>
+        <v>213318</v>
       </c>
       <c r="J84" t="n">
-        <v>126501</v>
+        <v>126517</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -3339,7 +3339,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17133</v>
+        <v>17137</v>
       </c>
       <c r="G85" t="n">
         <v>2261</v>
@@ -3348,10 +3348,10 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217041</v>
+        <v>217040</v>
       </c>
       <c r="J85" t="n">
-        <v>127839</v>
+        <v>127857</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -3374,7 +3374,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16360</v>
+        <v>16364</v>
       </c>
       <c r="G86" t="n">
         <v>2177</v>
@@ -3383,10 +3383,10 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220702</v>
+        <v>220701</v>
       </c>
       <c r="J86" t="n">
-        <v>129294</v>
+        <v>129319</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
@@ -3409,7 +3409,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16659</v>
+        <v>16663</v>
       </c>
       <c r="G87" t="n">
         <v>2304</v>
@@ -3418,10 +3418,10 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223316</v>
+        <v>223315</v>
       </c>
       <c r="J87" t="n">
-        <v>130071</v>
+        <v>130097</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
@@ -3438,13 +3438,13 @@
         <v>303</v>
       </c>
       <c r="D88" t="n">
-        <v>6988</v>
+        <v>6987</v>
       </c>
       <c r="E88" t="n">
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16174</v>
+        <v>16177</v>
       </c>
       <c r="G88" t="n">
         <v>2254</v>
@@ -3453,10 +3453,10 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225695</v>
+        <v>225693</v>
       </c>
       <c r="J88" t="n">
-        <v>130582</v>
+        <v>130608</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
@@ -3479,7 +3479,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16061</v>
+        <v>16064</v>
       </c>
       <c r="G89" t="n">
         <v>2258</v>
@@ -3488,10 +3488,10 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228391</v>
+        <v>228389</v>
       </c>
       <c r="J89" t="n">
-        <v>131628</v>
+        <v>131668</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
@@ -3514,7 +3514,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15543</v>
+        <v>15546</v>
       </c>
       <c r="G90" t="n">
         <v>2112</v>
@@ -3523,10 +3523,10 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228193</v>
+        <v>228191</v>
       </c>
       <c r="J90" t="n">
-        <v>135579</v>
+        <v>135621</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -3549,7 +3549,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14967</v>
+        <v>14970</v>
       </c>
       <c r="G91" t="n">
         <v>2048</v>
@@ -3558,10 +3558,10 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231083</v>
+        <v>231081</v>
       </c>
       <c r="J91" t="n">
-        <v>136521</v>
+        <v>136565</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -3584,7 +3584,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14348</v>
+        <v>14351</v>
       </c>
       <c r="G92" t="n">
         <v>1941</v>
@@ -3593,10 +3593,10 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234305</v>
+        <v>234303</v>
       </c>
       <c r="J92" t="n">
-        <v>137364</v>
+        <v>137412</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -3619,7 +3619,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15160</v>
+        <v>15163</v>
       </c>
       <c r="G93" t="n">
         <v>2267</v>
@@ -3628,10 +3628,10 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236456</v>
+        <v>236454</v>
       </c>
       <c r="J93" t="n">
-        <v>137867</v>
+        <v>137917</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
@@ -3654,7 +3654,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>14913</v>
+        <v>14916</v>
       </c>
       <c r="G94" t="n">
         <v>2277</v>
@@ -3663,10 +3663,10 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238115</v>
+        <v>238113</v>
       </c>
       <c r="J94" t="n">
-        <v>138199</v>
+        <v>138249</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
@@ -3689,7 +3689,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14827</v>
+        <v>14830</v>
       </c>
       <c r="G95" t="n">
         <v>2228</v>
@@ -3698,10 +3698,10 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239210</v>
+        <v>239208</v>
       </c>
       <c r="J95" t="n">
-        <v>138455</v>
+        <v>138505</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
@@ -3724,7 +3724,7 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14552</v>
+        <v>14555</v>
       </c>
       <c r="G96" t="n">
         <v>2135</v>
@@ -3733,10 +3733,10 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>240960</v>
+        <v>240958</v>
       </c>
       <c r="J96" t="n">
-        <v>139220</v>
+        <v>139270</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
@@ -3759,7 +3759,7 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14228</v>
+        <v>14231</v>
       </c>
       <c r="G97" t="n">
         <v>2085</v>
@@ -3768,10 +3768,10 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243015</v>
+        <v>243013</v>
       </c>
       <c r="J97" t="n">
-        <v>152214</v>
+        <v>152268</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
@@ -3794,7 +3794,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13671</v>
+        <v>13673</v>
       </c>
       <c r="G98" t="n">
         <v>1977</v>
@@ -3803,10 +3803,10 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>245962</v>
+        <v>245960</v>
       </c>
       <c r="J98" t="n">
-        <v>153010</v>
+        <v>153064</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
@@ -3829,7 +3829,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13076</v>
+        <v>13079</v>
       </c>
       <c r="G99" t="n">
         <v>1901</v>
@@ -3838,10 +3838,10 @@
         <v>31768</v>
       </c>
       <c r="I99" t="n">
-        <v>246338</v>
+        <v>246336</v>
       </c>
       <c r="J99" t="n">
-        <v>151457</v>
+        <v>151514</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
@@ -3864,7 +3864,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12195</v>
+        <v>12197</v>
       </c>
       <c r="G100" t="n">
         <v>1837</v>
@@ -3873,10 +3873,10 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250875</v>
+        <v>250873</v>
       </c>
       <c r="J100" t="n">
-        <v>154335</v>
+        <v>154393</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
@@ -3899,7 +3899,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12054</v>
+        <v>12056</v>
       </c>
       <c r="G101" t="n">
         <v>1760</v>
@@ -3908,10 +3908,10 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252693</v>
+        <v>252691</v>
       </c>
       <c r="J101" t="n">
-        <v>154625</v>
+        <v>154683</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
@@ -3934,7 +3934,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11676</v>
+        <v>11678</v>
       </c>
       <c r="G102" t="n">
         <v>1699</v>
@@ -3943,10 +3943,10 @@
         <v>32293</v>
       </c>
       <c r="I102" t="n">
-        <v>251651</v>
+        <v>251649</v>
       </c>
       <c r="J102" t="n">
-        <v>152592</v>
+        <v>152650</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
@@ -3969,7 +3969,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11595</v>
+        <v>11597</v>
       </c>
       <c r="G103" t="n">
         <v>1642</v>
@@ -3978,10 +3978,10 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255277</v>
+        <v>255275</v>
       </c>
       <c r="J103" t="n">
-        <v>155405</v>
+        <v>155464</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
@@ -4004,7 +4004,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11254</v>
+        <v>11255</v>
       </c>
       <c r="G104" t="n">
         <v>1574</v>
@@ -4013,10 +4013,10 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>256957</v>
+        <v>256955</v>
       </c>
       <c r="J104" t="n">
-        <v>156046</v>
+        <v>156106</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -4039,7 +4039,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10849</v>
+        <v>10850</v>
       </c>
       <c r="G105" t="n">
         <v>1495</v>
@@ -4048,10 +4048,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258557</v>
+        <v>258555</v>
       </c>
       <c r="J105" t="n">
-        <v>156715</v>
+        <v>156777</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -4074,7 +4074,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10433</v>
+        <v>10434</v>
       </c>
       <c r="G106" t="n">
         <v>1459</v>
@@ -4083,10 +4083,10 @@
         <v>31536</v>
       </c>
       <c r="I106" t="n">
-        <v>203341</v>
+        <v>203339</v>
       </c>
       <c r="J106" t="n">
-        <v>184620</v>
+        <v>184683</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -4109,7 +4109,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10014</v>
+        <v>10016</v>
       </c>
       <c r="G107" t="n">
         <v>1469</v>
@@ -4118,10 +4118,10 @@
         <v>31649</v>
       </c>
       <c r="I107" t="n">
-        <v>204636</v>
+        <v>204634</v>
       </c>
       <c r="J107" t="n">
-        <v>198026</v>
+        <v>198089</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
@@ -4144,7 +4144,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9734</v>
+        <v>9736</v>
       </c>
       <c r="G108" t="n">
         <v>1432</v>
@@ -4153,10 +4153,10 @@
         <v>31739</v>
       </c>
       <c r="I108" t="n">
-        <v>205249</v>
+        <v>205247</v>
       </c>
       <c r="J108" t="n">
-        <v>198342</v>
+        <v>198407</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
@@ -4179,7 +4179,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9605</v>
+        <v>9607</v>
       </c>
       <c r="G109" t="n">
         <v>1397</v>
@@ -4188,10 +4188,10 @@
         <v>31810</v>
       </c>
       <c r="I109" t="n">
-        <v>205599</v>
+        <v>205597</v>
       </c>
       <c r="J109" t="n">
-        <v>198585</v>
+        <v>198651</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
@@ -4214,7 +4214,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9523</v>
+        <v>9524</v>
       </c>
       <c r="G110" t="n">
         <v>1379</v>
@@ -4223,10 +4223,10 @@
         <v>31728</v>
       </c>
       <c r="I110" t="n">
-        <v>179083</v>
+        <v>179081</v>
       </c>
       <c r="J110" t="n">
-        <v>221589</v>
+        <v>221658</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
@@ -4249,7 +4249,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9230</v>
+        <v>9231</v>
       </c>
       <c r="G111" t="n">
         <v>1308</v>
@@ -4258,10 +4258,10 @@
         <v>31961</v>
       </c>
       <c r="I111" t="n">
-        <v>174988</v>
+        <v>174986</v>
       </c>
       <c r="J111" t="n">
-        <v>230117</v>
+        <v>230186</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
@@ -4275,7 +4275,7 @@
         <v>53</v>
       </c>
       <c r="C112" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D112" t="n">
         <v>12514</v>
@@ -4284,7 +4284,7 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8929</v>
+        <v>8930</v>
       </c>
       <c r="G112" t="n">
         <v>1241</v>
@@ -4293,10 +4293,10 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175551</v>
+        <v>175550</v>
       </c>
       <c r="J112" t="n">
-        <v>230859</v>
+        <v>230933</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
@@ -4319,7 +4319,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="G113" t="n">
         <v>762</v>
@@ -4328,10 +4328,10 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83722</v>
+        <v>83721</v>
       </c>
       <c r="J113" t="n">
-        <v>231704</v>
+        <v>231780</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
@@ -4354,7 +4354,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>3744</v>
+        <v>3746</v>
       </c>
       <c r="G114" t="n">
         <v>695</v>
@@ -4363,10 +4363,10 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84209</v>
+        <v>84208</v>
       </c>
       <c r="J114" t="n">
-        <v>232545</v>
+        <v>232622</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -4389,7 +4389,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>3756</v>
+        <v>3758</v>
       </c>
       <c r="G115" t="n">
         <v>703</v>
@@ -4398,10 +4398,10 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84424</v>
+        <v>84423</v>
       </c>
       <c r="J115" t="n">
-        <v>232869</v>
+        <v>232946</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -4424,7 +4424,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="G116" t="n">
         <v>681</v>
@@ -4433,10 +4433,10 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84586</v>
+        <v>84585</v>
       </c>
       <c r="J116" t="n">
-        <v>233156</v>
+        <v>233234</v>
       </c>
       <c r="K116" t="n">
         <v>40488</v>
@@ -4459,7 +4459,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>3566</v>
+        <v>3568</v>
       </c>
       <c r="G117" t="n">
         <v>652</v>
@@ -4468,10 +4468,10 @@
         <v>29426</v>
       </c>
       <c r="I117" t="n">
-        <v>84932</v>
+        <v>84931</v>
       </c>
       <c r="J117" t="n">
-        <v>216783</v>
+        <v>216863</v>
       </c>
       <c r="K117" t="n">
         <v>40512</v>
@@ -4494,7 +4494,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="G118" t="n">
         <v>643</v>
@@ -4503,10 +4503,10 @@
         <v>29486</v>
       </c>
       <c r="I118" t="n">
-        <v>85309</v>
+        <v>85308</v>
       </c>
       <c r="J118" t="n">
-        <v>217444</v>
+        <v>217527</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
@@ -4529,7 +4529,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="G119" t="n">
         <v>596</v>
@@ -4538,10 +4538,10 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85703</v>
+        <v>85702</v>
       </c>
       <c r="J119" t="n">
-        <v>235060</v>
+        <v>235146</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -4564,7 +4564,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="G120" t="n">
         <v>532</v>
@@ -4573,10 +4573,10 @@
         <v>32304</v>
       </c>
       <c r="I120" t="n">
-        <v>83919</v>
+        <v>83918</v>
       </c>
       <c r="J120" t="n">
-        <v>235706</v>
+        <v>235797</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -4590,7 +4590,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D121" t="n">
         <v>26</v>
@@ -4599,10 +4599,10 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="G121" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H121" t="n">
         <v>32742</v>
@@ -4611,7 +4611,7 @@
         <v>86303</v>
       </c>
       <c r="J121" t="n">
-        <v>236388</v>
+        <v>236487</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -4634,10 +4634,10 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="G122" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H122" t="n">
         <v>32783</v>
@@ -4646,7 +4646,7 @@
         <v>86445</v>
       </c>
       <c r="J122" t="n">
-        <v>236735</v>
+        <v>236835</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -4669,7 +4669,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="G123" t="n">
         <v>512</v>
@@ -4681,7 +4681,7 @@
         <v>86492</v>
       </c>
       <c r="J123" t="n">
-        <v>236997</v>
+        <v>237101</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -4704,7 +4704,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="G124" t="n">
         <v>507</v>
@@ -4716,7 +4716,7 @@
         <v>86568</v>
       </c>
       <c r="J124" t="n">
-        <v>237331</v>
+        <v>237436</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -4739,7 +4739,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="G125" t="n">
         <v>469</v>
@@ -4751,7 +4751,7 @@
         <v>84747</v>
       </c>
       <c r="J125" t="n">
-        <v>237894</v>
+        <v>238003</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -4774,7 +4774,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="G126" t="n">
         <v>443</v>
@@ -4786,7 +4786,7 @@
         <v>87079</v>
       </c>
       <c r="J126" t="n">
-        <v>238503</v>
+        <v>238615</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -4809,7 +4809,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="G127" t="n">
         <v>421</v>
@@ -4821,7 +4821,7 @@
         <v>94549</v>
       </c>
       <c r="J127" t="n">
-        <v>239038</v>
+        <v>239153</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -4844,7 +4844,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="G128" t="n">
         <v>399</v>
@@ -4856,7 +4856,7 @@
         <v>97061</v>
       </c>
       <c r="J128" t="n">
-        <v>241714</v>
+        <v>241832</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -4879,7 +4879,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G129" t="n">
         <v>400</v>
@@ -4891,7 +4891,7 @@
         <v>97053</v>
       </c>
       <c r="J129" t="n">
-        <v>242048</v>
+        <v>242168</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -4914,7 +4914,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="G130" t="n">
         <v>398</v>
@@ -4926,7 +4926,7 @@
         <v>97210</v>
       </c>
       <c r="J130" t="n">
-        <v>242638</v>
+        <v>242759</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -4961,7 +4961,7 @@
         <v>97355</v>
       </c>
       <c r="J131" t="n">
-        <v>242944</v>
+        <v>243068</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
@@ -4984,7 +4984,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="G132" t="n">
         <v>370</v>
@@ -4996,7 +4996,7 @@
         <v>97527</v>
       </c>
       <c r="J132" t="n">
-        <v>243347</v>
+        <v>243472</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -5019,7 +5019,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="G133" t="n">
         <v>332</v>
@@ -5031,7 +5031,7 @@
         <v>97733</v>
       </c>
       <c r="J133" t="n">
-        <v>241638</v>
+        <v>241765</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -5054,7 +5054,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="G134" t="n">
         <v>331</v>
@@ -5066,7 +5066,7 @@
         <v>97886</v>
       </c>
       <c r="J134" t="n">
-        <v>242043</v>
+        <v>242174</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -5089,7 +5089,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G135" t="n">
         <v>321</v>
@@ -5101,7 +5101,7 @@
         <v>98094</v>
       </c>
       <c r="J135" t="n">
-        <v>242506</v>
+        <v>242637</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -5124,7 +5124,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G136" t="n">
         <v>290</v>
@@ -5136,7 +5136,7 @@
         <v>98151</v>
       </c>
       <c r="J136" t="n">
-        <v>216584</v>
+        <v>216716</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -5159,7 +5159,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G137" t="n">
         <v>282</v>
@@ -5171,7 +5171,7 @@
         <v>98187</v>
       </c>
       <c r="J137" t="n">
-        <v>216682</v>
+        <v>216815</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -5194,7 +5194,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G138" t="n">
         <v>297</v>
@@ -5206,7 +5206,7 @@
         <v>98299</v>
       </c>
       <c r="J138" t="n">
-        <v>243067</v>
+        <v>243202</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -5229,7 +5229,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G139" t="n">
         <v>287</v>
@@ -5241,7 +5241,7 @@
         <v>98475</v>
       </c>
       <c r="J139" t="n">
-        <v>243362</v>
+        <v>243497</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -5264,7 +5264,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G140" t="n">
         <v>275</v>
@@ -5276,7 +5276,7 @@
         <v>98615</v>
       </c>
       <c r="J140" t="n">
-        <v>243693</v>
+        <v>243829</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -5299,7 +5299,7 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G141" t="n">
         <v>260</v>
@@ -5311,7 +5311,7 @@
         <v>98828</v>
       </c>
       <c r="J141" t="n">
-        <v>244188</v>
+        <v>244325</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -5334,7 +5334,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G142" t="n">
         <v>237</v>
@@ -5346,7 +5346,7 @@
         <v>99014</v>
       </c>
       <c r="J142" t="n">
-        <v>244559</v>
+        <v>244698</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -5369,7 +5369,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G143" t="n">
         <v>225</v>
@@ -5381,7 +5381,7 @@
         <v>99097</v>
       </c>
       <c r="J143" t="n">
-        <v>244783</v>
+        <v>244923</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -5404,10 +5404,10 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G144" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H144" t="n">
         <v>33417</v>
@@ -5416,7 +5416,7 @@
         <v>99153</v>
       </c>
       <c r="J144" t="n">
-        <v>244974</v>
+        <v>245115</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -5439,10 +5439,10 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G145" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H145" t="n">
         <v>33640</v>
@@ -5451,7 +5451,7 @@
         <v>99277</v>
       </c>
       <c r="J145" t="n">
-        <v>245204</v>
+        <v>245346</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -5474,10 +5474,10 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G146" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H146" t="n">
         <v>33652</v>
@@ -5486,7 +5486,7 @@
         <v>99346</v>
       </c>
       <c r="J146" t="n">
-        <v>245560</v>
+        <v>245705</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -5509,10 +5509,10 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="G147" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H147" t="n">
         <v>33230</v>
@@ -5521,7 +5521,7 @@
         <v>97269</v>
       </c>
       <c r="J147" t="n">
-        <v>245874</v>
+        <v>246023</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -5544,7 +5544,7 @@
         <v>896</v>
       </c>
       <c r="F148" t="n">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="G148" t="n">
         <v>204</v>
@@ -5556,7 +5556,7 @@
         <v>99723</v>
       </c>
       <c r="J148" t="n">
-        <v>246257</v>
+        <v>246407</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -5570,7 +5570,7 @@
         <v>23</v>
       </c>
       <c r="C149" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D149" t="n">
         <v>31</v>
@@ -5579,7 +5579,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="G149" t="n">
         <v>188</v>
@@ -5588,10 +5588,10 @@
         <v>33480</v>
       </c>
       <c r="I149" t="n">
-        <v>100011</v>
+        <v>100012</v>
       </c>
       <c r="J149" t="n">
-        <v>246803</v>
+        <v>246955</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -5614,7 +5614,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="G150" t="n">
         <v>179</v>
@@ -5623,10 +5623,10 @@
         <v>33264</v>
       </c>
       <c r="I150" t="n">
-        <v>97841</v>
+        <v>97842</v>
       </c>
       <c r="J150" t="n">
-        <v>247059</v>
+        <v>247211</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -5649,7 +5649,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G151" t="n">
         <v>146</v>
@@ -5658,10 +5658,10 @@
         <v>33271</v>
       </c>
       <c r="I151" t="n">
-        <v>97936</v>
+        <v>97937</v>
       </c>
       <c r="J151" t="n">
-        <v>247252</v>
+        <v>247405</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -5684,19 +5684,19 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G152" t="n">
         <v>177</v>
       </c>
       <c r="H152" t="n">
-        <v>33455</v>
+        <v>33503</v>
       </c>
       <c r="I152" t="n">
-        <v>100430</v>
+        <v>100431</v>
       </c>
       <c r="J152" t="n">
-        <v>247499</v>
+        <v>247654</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -5719,7 +5719,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G153" t="n">
         <v>174</v>
@@ -5728,10 +5728,10 @@
         <v>33522</v>
       </c>
       <c r="I153" t="n">
-        <v>100737</v>
+        <v>100738</v>
       </c>
       <c r="J153" t="n">
-        <v>247916</v>
+        <v>248072</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -5754,7 +5754,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G154" t="n">
         <v>170</v>
@@ -5763,10 +5763,10 @@
         <v>33536</v>
       </c>
       <c r="I154" t="n">
-        <v>101135</v>
+        <v>101136</v>
       </c>
       <c r="J154" t="n">
-        <v>248332</v>
+        <v>248492</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -5789,7 +5789,7 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G155" t="n">
         <v>159</v>
@@ -5798,10 +5798,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101537</v>
+        <v>101538</v>
       </c>
       <c r="J155" t="n">
-        <v>248790</v>
+        <v>248955</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -5824,7 +5824,7 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G156" t="n">
         <v>153</v>
@@ -5833,10 +5833,10 @@
         <v>33551</v>
       </c>
       <c r="I156" t="n">
-        <v>101985</v>
+        <v>101986</v>
       </c>
       <c r="J156" t="n">
-        <v>243003</v>
+        <v>243172</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -5859,7 +5859,7 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G157" t="n">
         <v>73</v>
@@ -5868,10 +5868,10 @@
         <v>28096</v>
       </c>
       <c r="I157" t="n">
-        <v>99815</v>
+        <v>99816</v>
       </c>
       <c r="J157" t="n">
-        <v>213337</v>
+        <v>213506</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -5894,7 +5894,7 @@
         <v>63</v>
       </c>
       <c r="F158" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G158" t="n">
         <v>61</v>
@@ -5903,10 +5903,10 @@
         <v>28102</v>
       </c>
       <c r="I158" t="n">
-        <v>99996</v>
+        <v>99997</v>
       </c>
       <c r="J158" t="n">
-        <v>213493</v>
+        <v>213663</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -5929,7 +5929,7 @@
         <v>205</v>
       </c>
       <c r="F159" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G159" t="n">
         <v>150</v>
@@ -5938,10 +5938,10 @@
         <v>32864</v>
       </c>
       <c r="I159" t="n">
-        <v>102633</v>
+        <v>102634</v>
       </c>
       <c r="J159" t="n">
-        <v>239598</v>
+        <v>239768</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
@@ -5964,7 +5964,7 @@
         <v>200</v>
       </c>
       <c r="F160" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G160" t="n">
         <v>144</v>
@@ -5973,10 +5973,10 @@
         <v>33588</v>
       </c>
       <c r="I160" t="n">
-        <v>103193</v>
+        <v>103194</v>
       </c>
       <c r="J160" t="n">
-        <v>240206</v>
+        <v>240379</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
@@ -5999,7 +5999,7 @@
         <v>198</v>
       </c>
       <c r="F161" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G161" t="n">
         <v>131</v>
@@ -6008,10 +6008,10 @@
         <v>33597</v>
       </c>
       <c r="I161" t="n">
-        <v>103871</v>
+        <v>103872</v>
       </c>
       <c r="J161" t="n">
-        <v>233563</v>
+        <v>233738</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
@@ -6034,7 +6034,7 @@
         <v>1091</v>
       </c>
       <c r="F162" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G162" t="n">
         <v>128</v>
@@ -6043,10 +6043,10 @@
         <v>33822</v>
       </c>
       <c r="I162" t="n">
-        <v>104643</v>
+        <v>104644</v>
       </c>
       <c r="J162" t="n">
-        <v>248034</v>
+        <v>248214</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
@@ -6069,7 +6069,7 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G163" t="n">
         <v>123</v>
@@ -6078,10 +6078,10 @@
         <v>32931</v>
       </c>
       <c r="I163" t="n">
-        <v>105647</v>
+        <v>105648</v>
       </c>
       <c r="J163" t="n">
-        <v>234988</v>
+        <v>235169</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -6104,7 +6104,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G164" t="n">
         <v>65</v>
@@ -6113,10 +6113,10 @@
         <v>28849</v>
       </c>
       <c r="I164" t="n">
-        <v>103626</v>
+        <v>103627</v>
       </c>
       <c r="J164" t="n">
-        <v>215193</v>
+        <v>215374</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
@@ -6130,7 +6130,7 @@
         <v>18</v>
       </c>
       <c r="C165" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -6139,7 +6139,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G165" t="n">
         <v>65</v>
@@ -6148,10 +6148,10 @@
         <v>27008</v>
       </c>
       <c r="I165" t="n">
-        <v>110633</v>
+        <v>110635</v>
       </c>
       <c r="J165" t="n">
-        <v>224021</v>
+        <v>224202</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
@@ -6174,7 +6174,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="G166" t="n">
         <v>135</v>
@@ -6183,10 +6183,10 @@
         <v>33852</v>
       </c>
       <c r="I166" t="n">
-        <v>114036</v>
+        <v>114038</v>
       </c>
       <c r="J166" t="n">
-        <v>254924</v>
+        <v>255107</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
@@ -6209,7 +6209,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -6218,10 +6218,10 @@
         <v>33858</v>
       </c>
       <c r="I167" t="n">
-        <v>115321</v>
+        <v>115323</v>
       </c>
       <c r="J167" t="n">
-        <v>256062</v>
+        <v>256244</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
@@ -6235,7 +6235,7 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D168" t="n">
         <v>523</v>
@@ -6244,7 +6244,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G168" t="n">
         <v>132</v>
@@ -6253,10 +6253,10 @@
         <v>33864</v>
       </c>
       <c r="I168" t="n">
-        <v>109686</v>
+        <v>109689</v>
       </c>
       <c r="J168" t="n">
-        <v>257398</v>
+        <v>257582</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
@@ -6279,7 +6279,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G169" t="n">
         <v>129</v>
@@ -6288,10 +6288,10 @@
         <v>33657</v>
       </c>
       <c r="I169" t="n">
-        <v>111003</v>
+        <v>111006</v>
       </c>
       <c r="J169" t="n">
-        <v>258934</v>
+        <v>259120</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -6308,13 +6308,13 @@
         <v>1554</v>
       </c>
       <c r="D170" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E170" t="n">
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
@@ -6323,10 +6323,10 @@
         <v>33298</v>
       </c>
       <c r="I170" t="n">
-        <v>116101</v>
+        <v>116103</v>
       </c>
       <c r="J170" t="n">
-        <v>256707</v>
+        <v>256896</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -6349,7 +6349,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -6358,10 +6358,10 @@
         <v>19297</v>
       </c>
       <c r="I171" t="n">
-        <v>114410</v>
+        <v>114412</v>
       </c>
       <c r="J171" t="n">
-        <v>227562</v>
+        <v>227752</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -6384,7 +6384,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G172" t="n">
         <v>78</v>
@@ -6393,10 +6393,10 @@
         <v>26675</v>
       </c>
       <c r="I172" t="n">
-        <v>123311</v>
+        <v>123313</v>
       </c>
       <c r="J172" t="n">
-        <v>228606</v>
+        <v>228797</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -6419,7 +6419,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
@@ -6428,10 +6428,10 @@
         <v>33899</v>
       </c>
       <c r="I173" t="n">
-        <v>127462</v>
+        <v>127464</v>
       </c>
       <c r="J173" t="n">
-        <v>262467</v>
+        <v>262661</v>
       </c>
       <c r="K173" t="n">
         <v>65273</v>
@@ -6445,7 +6445,7 @@
         <v>69</v>
       </c>
       <c r="C174" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D174" t="n">
         <v>350</v>
@@ -6454,7 +6454,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G174" t="n">
         <v>143</v>
@@ -6463,10 +6463,10 @@
         <v>33915</v>
       </c>
       <c r="I174" t="n">
-        <v>129221</v>
+        <v>129224</v>
       </c>
       <c r="J174" t="n">
-        <v>264545</v>
+        <v>264742</v>
       </c>
       <c r="K174" t="n">
         <v>63702</v>
@@ -6489,7 +6489,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G175" t="n">
         <v>156</v>
@@ -6498,10 +6498,10 @@
         <v>33923</v>
       </c>
       <c r="I175" t="n">
-        <v>131487</v>
+        <v>131490</v>
       </c>
       <c r="J175" t="n">
-        <v>266936</v>
+        <v>267137</v>
       </c>
       <c r="K175" t="n">
         <v>71182</v>
@@ -6524,7 +6524,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G176" t="n">
         <v>157</v>
@@ -6533,10 +6533,10 @@
         <v>30850</v>
       </c>
       <c r="I176" t="n">
-        <v>133397</v>
+        <v>133400</v>
       </c>
       <c r="J176" t="n">
-        <v>250505</v>
+        <v>250708</v>
       </c>
       <c r="K176" t="n">
         <v>63993</v>
@@ -6559,7 +6559,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="G177" t="n">
         <v>175</v>
@@ -6568,10 +6568,10 @@
         <v>33725</v>
       </c>
       <c r="I177" t="n">
-        <v>125390</v>
+        <v>125393</v>
       </c>
       <c r="J177" t="n">
-        <v>271672</v>
+        <v>271879</v>
       </c>
       <c r="K177" t="n">
         <v>66390</v>
@@ -6594,7 +6594,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G178" t="n">
         <v>114</v>
@@ -6603,10 +6603,10 @@
         <v>19378</v>
       </c>
       <c r="I178" t="n">
-        <v>104392</v>
+        <v>104395</v>
       </c>
       <c r="J178" t="n">
-        <v>239612</v>
+        <v>239819</v>
       </c>
       <c r="K178" t="n">
         <v>37038</v>
@@ -6629,19 +6629,19 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G179" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H179" t="n">
         <v>19607</v>
       </c>
       <c r="I179" t="n">
-        <v>115724</v>
+        <v>115727</v>
       </c>
       <c r="J179" t="n">
-        <v>240935</v>
+        <v>241142</v>
       </c>
       <c r="K179" t="n">
         <v>38920</v>
@@ -6655,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D180" t="n">
         <v>151</v>
@@ -6664,19 +6664,19 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G180" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H180" t="n">
         <v>33832</v>
       </c>
       <c r="I180" t="n">
-        <v>115714</v>
+        <v>115718</v>
       </c>
       <c r="J180" t="n">
-        <v>274335</v>
+        <v>274546</v>
       </c>
       <c r="K180" t="n">
         <v>68557</v>
@@ -6699,19 +6699,19 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G181" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H181" t="n">
         <v>33779</v>
       </c>
       <c r="I181" t="n">
-        <v>110031</v>
+        <v>110035</v>
       </c>
       <c r="J181" t="n">
-        <v>272737</v>
+        <v>272949</v>
       </c>
       <c r="K181" t="n">
         <v>66832</v>
@@ -6734,19 +6734,19 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="G182" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H182" t="n">
         <v>34012</v>
       </c>
       <c r="I182" t="n">
-        <v>123586</v>
+        <v>123590</v>
       </c>
       <c r="J182" t="n">
-        <v>282012</v>
+        <v>282227</v>
       </c>
       <c r="K182" t="n">
         <v>72283</v>
@@ -6769,19 +6769,19 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G183" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H183" t="n">
         <v>33813</v>
       </c>
       <c r="I183" t="n">
-        <v>113121</v>
+        <v>113125</v>
       </c>
       <c r="J183" t="n">
-        <v>287700</v>
+        <v>287920</v>
       </c>
       <c r="K183" t="n">
         <v>67291</v>
@@ -6804,19 +6804,19 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="G184" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H184" t="n">
         <v>33826</v>
       </c>
       <c r="I184" t="n">
-        <v>114766</v>
+        <v>114770</v>
       </c>
       <c r="J184" t="n">
-        <v>291186</v>
+        <v>291411</v>
       </c>
       <c r="K184" t="n">
         <v>67449</v>
@@ -6839,19 +6839,19 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G185" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H185" t="n">
         <v>19303</v>
       </c>
       <c r="I185" t="n">
-        <v>110215</v>
+        <v>110219</v>
       </c>
       <c r="J185" t="n">
-        <v>254041</v>
+        <v>254269</v>
       </c>
       <c r="K185" t="n">
         <v>31834</v>
@@ -6874,19 +6874,19 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G186" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H186" t="n">
         <v>19553</v>
       </c>
       <c r="I186" t="n">
-        <v>123742</v>
+        <v>123746</v>
       </c>
       <c r="J186" t="n">
-        <v>255671</v>
+        <v>255899</v>
       </c>
       <c r="K186" t="n">
         <v>39603</v>
@@ -6903,25 +6903,25 @@
         <v>2162</v>
       </c>
       <c r="D187" t="n">
-        <v>63873</v>
+        <v>63872</v>
       </c>
       <c r="E187" t="n">
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="G187" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H187" t="n">
         <v>31009</v>
       </c>
       <c r="I187" t="n">
-        <v>132176</v>
+        <v>132179</v>
       </c>
       <c r="J187" t="n">
-        <v>298316</v>
+        <v>298549</v>
       </c>
       <c r="K187" t="n">
         <v>73439</v>
@@ -6944,19 +6944,19 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="G188" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H188" t="n">
         <v>34118</v>
       </c>
       <c r="I188" t="n">
-        <v>134092</v>
+        <v>134095</v>
       </c>
       <c r="J188" t="n">
-        <v>302038</v>
+        <v>302280</v>
       </c>
       <c r="K188" t="n">
         <v>73686</v>
@@ -6970,7 +6970,7 @@
         <v>230</v>
       </c>
       <c r="C189" t="n">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="D189" t="n">
         <v>63930</v>
@@ -6979,19 +6979,19 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="G189" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H189" t="n">
         <v>34135</v>
       </c>
       <c r="I189" t="n">
-        <v>136044</v>
+        <v>136048</v>
       </c>
       <c r="J189" t="n">
-        <v>305955</v>
+        <v>306199</v>
       </c>
       <c r="K189" t="n">
         <v>74403</v>
@@ -7014,19 +7014,19 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="G190" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H190" t="n">
         <v>34155</v>
       </c>
       <c r="I190" t="n">
-        <v>138075</v>
+        <v>138079</v>
       </c>
       <c r="J190" t="n">
-        <v>310293</v>
+        <v>310541</v>
       </c>
       <c r="K190" t="n">
         <v>74743</v>
@@ -7040,7 +7040,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -7049,19 +7049,19 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="G191" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H191" t="n">
         <v>33933</v>
       </c>
       <c r="I191" t="n">
-        <v>122584</v>
+        <v>122589</v>
       </c>
       <c r="J191" t="n">
-        <v>315201</v>
+        <v>315463</v>
       </c>
       <c r="K191" t="n">
         <v>68675</v>
@@ -7075,7 +7075,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="n">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D192" t="n">
         <v>64006</v>
@@ -7084,19 +7084,19 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H192" t="n">
         <v>19557</v>
       </c>
       <c r="I192" t="n">
-        <v>120519</v>
+        <v>120525</v>
       </c>
       <c r="J192" t="n">
-        <v>281080</v>
+        <v>281345</v>
       </c>
       <c r="K192" t="n">
         <v>34613</v>
@@ -7119,19 +7119,19 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="G193" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H193" t="n">
         <v>19826</v>
       </c>
       <c r="I193" t="n">
-        <v>139285</v>
+        <v>139291</v>
       </c>
       <c r="J193" t="n">
-        <v>280213</v>
+        <v>280480</v>
       </c>
       <c r="K193" t="n">
         <v>41061</v>
@@ -7145,28 +7145,28 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="D194" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E194" t="n">
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="G194" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H194" t="n">
         <v>33749</v>
       </c>
       <c r="I194" t="n">
-        <v>139732</v>
+        <v>139738</v>
       </c>
       <c r="J194" t="n">
-        <v>321040</v>
+        <v>321325</v>
       </c>
       <c r="K194" t="n">
         <v>65579</v>
@@ -7180,7 +7180,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -7189,19 +7189,19 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="G195" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H195" t="n">
         <v>34294</v>
       </c>
       <c r="I195" t="n">
-        <v>146395</v>
+        <v>146402</v>
       </c>
       <c r="J195" t="n">
-        <v>329543</v>
+        <v>329858</v>
       </c>
       <c r="K195" t="n">
         <v>69652</v>
@@ -7215,7 +7215,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -7224,19 +7224,19 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="G196" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H196" t="n">
-        <v>34325</v>
+        <v>34324</v>
       </c>
       <c r="I196" t="n">
-        <v>148527</v>
+        <v>148533</v>
       </c>
       <c r="J196" t="n">
-        <v>334860</v>
+        <v>335198</v>
       </c>
       <c r="K196" t="n">
         <v>70569</v>
@@ -7250,7 +7250,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D197" t="n">
         <v>64225</v>
@@ -7259,19 +7259,19 @@
         <v>14874</v>
       </c>
       <c r="F197" t="n">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="G197" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H197" t="n">
-        <v>34351</v>
+        <v>34349</v>
       </c>
       <c r="I197" t="n">
-        <v>150807</v>
+        <v>150812</v>
       </c>
       <c r="J197" t="n">
-        <v>340781</v>
+        <v>341141</v>
       </c>
       <c r="K197" t="n">
         <v>71202</v>
@@ -7285,28 +7285,28 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3459</v>
+        <v>3449</v>
       </c>
       <c r="D198" t="n">
-        <v>64232</v>
+        <v>64231</v>
       </c>
       <c r="E198" t="n">
         <v>3729</v>
       </c>
       <c r="F198" t="n">
-        <v>2957</v>
+        <v>2419</v>
       </c>
       <c r="G198" t="n">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="H198" t="n">
-        <v>33313</v>
+        <v>20542</v>
       </c>
       <c r="I198" t="n">
-        <v>132450</v>
+        <v>132444</v>
       </c>
       <c r="J198" t="n">
-        <v>347465</v>
+        <v>347945</v>
       </c>
       <c r="K198" t="n">
         <v>63953</v>
@@ -7320,7 +7320,7 @@
         <v>539</v>
       </c>
       <c r="C199" t="n">
-        <v>1942</v>
+        <v>1907</v>
       </c>
       <c r="D199" t="n">
         <v>64260</v>
@@ -7329,19 +7329,19 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>1876</v>
+        <v>1301</v>
       </c>
       <c r="G199" t="n">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="H199" t="n">
-        <v>18898</v>
+        <v>6120</v>
       </c>
       <c r="I199" t="n">
-        <v>129347</v>
+        <v>129306</v>
       </c>
       <c r="J199" t="n">
-        <v>307218</v>
+        <v>307722</v>
       </c>
       <c r="K199" t="n">
         <v>35129</v>
@@ -7355,7 +7355,7 @@
         <v>273</v>
       </c>
       <c r="C200" t="n">
-        <v>1288</v>
+        <v>1265</v>
       </c>
       <c r="D200" t="n">
         <v>64261</v>
@@ -7364,19 +7364,19 @@
         <v>1103</v>
       </c>
       <c r="F200" t="n">
-        <v>1987</v>
+        <v>1370</v>
       </c>
       <c r="G200" t="n">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="H200" t="n">
-        <v>18907</v>
+        <v>6126</v>
       </c>
       <c r="I200" t="n">
-        <v>130170</v>
+        <v>130106</v>
       </c>
       <c r="J200" t="n">
-        <v>309636</v>
+        <v>310128</v>
       </c>
       <c r="K200" t="n">
         <v>35293</v>
@@ -7390,7 +7390,7 @@
         <v>415</v>
       </c>
       <c r="C201" t="n">
-        <v>3054</v>
+        <v>3306</v>
       </c>
       <c r="D201" t="n">
         <v>64345</v>
@@ -7399,19 +7399,19 @@
         <v>16406</v>
       </c>
       <c r="F201" t="n">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="G201" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H201" t="n">
         <v>21147</v>
       </c>
       <c r="I201" t="n">
-        <v>157930</v>
+        <v>158118</v>
       </c>
       <c r="J201" t="n">
-        <v>354547</v>
+        <v>355332</v>
       </c>
       <c r="K201" t="n">
         <v>69386</v>
@@ -7425,31 +7425,31 @@
         <v>912</v>
       </c>
       <c r="C202" t="n">
-        <v>1779</v>
+        <v>2710</v>
       </c>
       <c r="D202" t="n">
-        <v>58</v>
+        <v>64395</v>
       </c>
       <c r="E202" t="n">
-        <v>2753</v>
+        <v>4479</v>
       </c>
       <c r="F202" t="n">
-        <v>2784</v>
+        <v>3008</v>
       </c>
       <c r="G202" t="n">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="H202" t="n">
-        <v>16611</v>
+        <v>20078</v>
       </c>
       <c r="I202" t="n">
-        <v>126856</v>
+        <v>137552</v>
       </c>
       <c r="J202" t="n">
-        <v>311038</v>
+        <v>338889</v>
       </c>
       <c r="K202" t="n">
-        <v>57258</v>
+        <v>61111</v>
       </c>
     </row>
     <row r="203">
@@ -7460,31 +7460,66 @@
         <v>670</v>
       </c>
       <c r="C203" t="n">
-        <v>932</v>
+        <v>1678</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>64473</v>
       </c>
       <c r="E203" t="n">
         <v>2978</v>
       </c>
       <c r="F203" t="n">
-        <v>2526</v>
+        <v>3166</v>
       </c>
       <c r="G203" t="n">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="H203" t="n">
-        <v>16084</v>
+        <v>20092</v>
       </c>
       <c r="I203" t="n">
-        <v>22904</v>
+        <v>138343</v>
       </c>
       <c r="J203" t="n">
-        <v>86672</v>
+        <v>319449</v>
       </c>
       <c r="K203" t="n">
-        <v>57259</v>
+        <v>57789</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>44063</v>
+      </c>
+      <c r="B204" t="n">
+        <v>781</v>
+      </c>
+      <c r="C204" t="n">
+        <v>544</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2343</v>
+      </c>
+      <c r="G204" t="n">
+        <v>261</v>
+      </c>
+      <c r="H204" t="n">
+        <v>15477</v>
+      </c>
+      <c r="I204" t="n">
+        <v>9590</v>
+      </c>
+      <c r="J204" t="n">
+        <v>89275</v>
+      </c>
+      <c r="K204" t="n">
+        <v>56406</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1729,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -1799,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G41" t="n">
         <v>26</v>
@@ -1834,7 +1834,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G42" t="n">
         <v>31</v>
@@ -1869,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G43" t="n">
         <v>37</v>
@@ -1939,7 +1939,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G45" t="n">
         <v>229</v>
@@ -1974,7 +1974,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="G46" t="n">
         <v>317</v>
@@ -2009,7 +2009,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G47" t="n">
         <v>345</v>
@@ -2044,7 +2044,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="G48" t="n">
         <v>481</v>
@@ -2079,7 +2079,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5276</v>
+        <v>5277</v>
       </c>
       <c r="G49" t="n">
         <v>680</v>
@@ -2595,7 +2595,7 @@
         <v>5257</v>
       </c>
       <c r="C64" t="n">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>12719</v>
       </c>
       <c r="I64" t="n">
-        <v>123951</v>
+        <v>123950</v>
       </c>
       <c r="J64" t="n">
-        <v>82060</v>
+        <v>82059</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -2648,10 +2648,10 @@
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130639</v>
+        <v>130638</v>
       </c>
       <c r="J65" t="n">
-        <v>85929</v>
+        <v>85928</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -2683,10 +2683,10 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135948</v>
+        <v>135947</v>
       </c>
       <c r="J66" t="n">
-        <v>88359</v>
+        <v>88358</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -2718,10 +2718,10 @@
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139710</v>
+        <v>139709</v>
       </c>
       <c r="J67" t="n">
-        <v>90016</v>
+        <v>90015</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -2753,10 +2753,10 @@
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144596</v>
+        <v>144595</v>
       </c>
       <c r="J68" t="n">
-        <v>93228</v>
+        <v>93227</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -2788,10 +2788,10 @@
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149516</v>
+        <v>149515</v>
       </c>
       <c r="J69" t="n">
-        <v>96288</v>
+        <v>96287</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -2823,10 +2823,10 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154914</v>
+        <v>154913</v>
       </c>
       <c r="J70" t="n">
-        <v>99408</v>
+        <v>99407</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -2858,10 +2858,10 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159906</v>
+        <v>159905</v>
       </c>
       <c r="J71" t="n">
-        <v>102022</v>
+        <v>102021</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -2893,10 +2893,10 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165061</v>
+        <v>165060</v>
       </c>
       <c r="J72" t="n">
-        <v>104306</v>
+        <v>104305</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -2928,10 +2928,10 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168830</v>
+        <v>168829</v>
       </c>
       <c r="J73" t="n">
-        <v>106075</v>
+        <v>106074</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -2945,7 +2945,7 @@
         <v>2259</v>
       </c>
       <c r="C74" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D74" t="n">
         <v>485</v>
@@ -2963,10 +2963,10 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171874</v>
+        <v>171872</v>
       </c>
       <c r="J74" t="n">
-        <v>107327</v>
+        <v>107325</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -2998,10 +2998,10 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175376</v>
+        <v>175374</v>
       </c>
       <c r="J75" t="n">
-        <v>109253</v>
+        <v>109251</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -3033,10 +3033,10 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179704</v>
+        <v>179702</v>
       </c>
       <c r="J76" t="n">
-        <v>111784</v>
+        <v>111782</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -3059,7 +3059,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22335</v>
+        <v>22336</v>
       </c>
       <c r="G77" t="n">
         <v>2887</v>
@@ -3068,10 +3068,10 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184105</v>
+        <v>184103</v>
       </c>
       <c r="J77" t="n">
-        <v>116807</v>
+        <v>116805</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -3094,7 +3094,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>20879</v>
+        <v>20880</v>
       </c>
       <c r="G78" t="n">
         <v>2666</v>
@@ -3103,10 +3103,10 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188814</v>
+        <v>188812</v>
       </c>
       <c r="J78" t="n">
-        <v>119159</v>
+        <v>119157</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -3129,7 +3129,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>19825</v>
+        <v>19826</v>
       </c>
       <c r="G79" t="n">
         <v>2588</v>
@@ -3138,10 +3138,10 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193916</v>
+        <v>193914</v>
       </c>
       <c r="J79" t="n">
-        <v>121445</v>
+        <v>121443</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -3173,10 +3173,10 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199798</v>
+        <v>199796</v>
       </c>
       <c r="J80" t="n">
-        <v>122915</v>
+        <v>122913</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
@@ -3208,10 +3208,10 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202025</v>
+        <v>202023</v>
       </c>
       <c r="J81" t="n">
-        <v>123785</v>
+        <v>123783</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
@@ -3243,10 +3243,10 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204948</v>
+        <v>204946</v>
       </c>
       <c r="J82" t="n">
-        <v>125499</v>
+        <v>125497</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
@@ -3278,10 +3278,10 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208701</v>
+        <v>208699</v>
       </c>
       <c r="J83" t="n">
-        <v>127285</v>
+        <v>127283</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -3313,10 +3313,10 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213318</v>
+        <v>213316</v>
       </c>
       <c r="J84" t="n">
-        <v>126517</v>
+        <v>126515</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -3348,10 +3348,10 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217040</v>
+        <v>217038</v>
       </c>
       <c r="J85" t="n">
-        <v>127857</v>
+        <v>127855</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -3374,7 +3374,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16364</v>
+        <v>16365</v>
       </c>
       <c r="G86" t="n">
         <v>2177</v>
@@ -3383,10 +3383,10 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220701</v>
+        <v>220699</v>
       </c>
       <c r="J86" t="n">
-        <v>129319</v>
+        <v>129317</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
@@ -3400,7 +3400,7 @@
         <v>5572</v>
       </c>
       <c r="C87" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D87" t="n">
         <v>6607</v>
@@ -3409,7 +3409,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16663</v>
+        <v>16664</v>
       </c>
       <c r="G87" t="n">
         <v>2304</v>
@@ -3418,10 +3418,10 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223315</v>
+        <v>223312</v>
       </c>
       <c r="J87" t="n">
-        <v>130097</v>
+        <v>130094</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
@@ -3444,7 +3444,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16177</v>
+        <v>16178</v>
       </c>
       <c r="G88" t="n">
         <v>2254</v>
@@ -3453,10 +3453,10 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225693</v>
+        <v>225690</v>
       </c>
       <c r="J88" t="n">
-        <v>130608</v>
+        <v>130605</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
@@ -3470,7 +3470,7 @@
         <v>5145</v>
       </c>
       <c r="C89" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D89" t="n">
         <v>7557</v>
@@ -3479,7 +3479,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16064</v>
+        <v>16066</v>
       </c>
       <c r="G89" t="n">
         <v>2258</v>
@@ -3488,10 +3488,10 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228389</v>
+        <v>228387</v>
       </c>
       <c r="J89" t="n">
-        <v>131668</v>
+        <v>131666</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
@@ -3514,7 +3514,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15546</v>
+        <v>15547</v>
       </c>
       <c r="G90" t="n">
         <v>2112</v>
@@ -3523,10 +3523,10 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228191</v>
+        <v>228189</v>
       </c>
       <c r="J90" t="n">
-        <v>135621</v>
+        <v>135619</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -3549,7 +3549,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14970</v>
+        <v>14971</v>
       </c>
       <c r="G91" t="n">
         <v>2048</v>
@@ -3558,10 +3558,10 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231081</v>
+        <v>231079</v>
       </c>
       <c r="J91" t="n">
-        <v>136565</v>
+        <v>136563</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -3593,10 +3593,10 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234303</v>
+        <v>234301</v>
       </c>
       <c r="J92" t="n">
-        <v>137412</v>
+        <v>137410</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -3628,10 +3628,10 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236454</v>
+        <v>236452</v>
       </c>
       <c r="J93" t="n">
-        <v>137917</v>
+        <v>137915</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
@@ -3663,10 +3663,10 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238113</v>
+        <v>238111</v>
       </c>
       <c r="J94" t="n">
-        <v>138249</v>
+        <v>138247</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
@@ -3698,10 +3698,10 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239208</v>
+        <v>239206</v>
       </c>
       <c r="J95" t="n">
-        <v>138505</v>
+        <v>138503</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
@@ -3733,10 +3733,10 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>240958</v>
+        <v>240956</v>
       </c>
       <c r="J96" t="n">
-        <v>139270</v>
+        <v>139268</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
@@ -3768,10 +3768,10 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243013</v>
+        <v>243011</v>
       </c>
       <c r="J97" t="n">
-        <v>152268</v>
+        <v>152266</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
@@ -3794,7 +3794,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13673</v>
+        <v>13674</v>
       </c>
       <c r="G98" t="n">
         <v>1977</v>
@@ -3803,10 +3803,10 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>245960</v>
+        <v>245958</v>
       </c>
       <c r="J98" t="n">
-        <v>153064</v>
+        <v>153062</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
@@ -3829,7 +3829,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13079</v>
+        <v>13081</v>
       </c>
       <c r="G99" t="n">
         <v>1901</v>
@@ -3838,10 +3838,10 @@
         <v>31768</v>
       </c>
       <c r="I99" t="n">
-        <v>246336</v>
+        <v>246334</v>
       </c>
       <c r="J99" t="n">
-        <v>151514</v>
+        <v>151512</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
@@ -3855,7 +3855,7 @@
         <v>6191</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" t="n">
         <v>10814</v>
@@ -3864,7 +3864,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12197</v>
+        <v>12198</v>
       </c>
       <c r="G100" t="n">
         <v>1837</v>
@@ -3873,10 +3873,10 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250873</v>
+        <v>250870</v>
       </c>
       <c r="J100" t="n">
-        <v>154393</v>
+        <v>154390</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
@@ -3899,7 +3899,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12056</v>
+        <v>12057</v>
       </c>
       <c r="G101" t="n">
         <v>1760</v>
@@ -3908,10 +3908,10 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252691</v>
+        <v>252688</v>
       </c>
       <c r="J101" t="n">
-        <v>154683</v>
+        <v>154680</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
@@ -3934,7 +3934,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11678</v>
+        <v>11679</v>
       </c>
       <c r="G102" t="n">
         <v>1699</v>
@@ -3943,10 +3943,10 @@
         <v>32293</v>
       </c>
       <c r="I102" t="n">
-        <v>251649</v>
+        <v>251646</v>
       </c>
       <c r="J102" t="n">
-        <v>152650</v>
+        <v>152647</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
@@ -3978,10 +3978,10 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255275</v>
+        <v>255272</v>
       </c>
       <c r="J103" t="n">
-        <v>155464</v>
+        <v>155461</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
@@ -4013,10 +4013,10 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>256955</v>
+        <v>256952</v>
       </c>
       <c r="J104" t="n">
-        <v>156106</v>
+        <v>156103</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -4048,10 +4048,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258555</v>
+        <v>258552</v>
       </c>
       <c r="J105" t="n">
-        <v>156777</v>
+        <v>156774</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -4083,10 +4083,10 @@
         <v>31536</v>
       </c>
       <c r="I106" t="n">
-        <v>203339</v>
+        <v>203336</v>
       </c>
       <c r="J106" t="n">
-        <v>184683</v>
+        <v>184680</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -4118,10 +4118,10 @@
         <v>31649</v>
       </c>
       <c r="I107" t="n">
-        <v>204634</v>
+        <v>204631</v>
       </c>
       <c r="J107" t="n">
-        <v>198089</v>
+        <v>198086</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
@@ -4153,10 +4153,10 @@
         <v>31739</v>
       </c>
       <c r="I108" t="n">
-        <v>205247</v>
+        <v>205244</v>
       </c>
       <c r="J108" t="n">
-        <v>198407</v>
+        <v>198404</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
@@ -4188,10 +4188,10 @@
         <v>31810</v>
       </c>
       <c r="I109" t="n">
-        <v>205597</v>
+        <v>205594</v>
       </c>
       <c r="J109" t="n">
-        <v>198651</v>
+        <v>198648</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
@@ -4214,7 +4214,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9524</v>
+        <v>9525</v>
       </c>
       <c r="G110" t="n">
         <v>1379</v>
@@ -4223,10 +4223,10 @@
         <v>31728</v>
       </c>
       <c r="I110" t="n">
-        <v>179081</v>
+        <v>179078</v>
       </c>
       <c r="J110" t="n">
-        <v>221658</v>
+        <v>221655</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
@@ -4249,7 +4249,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9231</v>
+        <v>9232</v>
       </c>
       <c r="G111" t="n">
         <v>1308</v>
@@ -4258,10 +4258,10 @@
         <v>31961</v>
       </c>
       <c r="I111" t="n">
-        <v>174986</v>
+        <v>174983</v>
       </c>
       <c r="J111" t="n">
-        <v>230186</v>
+        <v>230183</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
@@ -4275,7 +4275,7 @@
         <v>53</v>
       </c>
       <c r="C112" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D112" t="n">
         <v>12514</v>
@@ -4284,7 +4284,7 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8930</v>
+        <v>8931</v>
       </c>
       <c r="G112" t="n">
         <v>1241</v>
@@ -4293,10 +4293,10 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175550</v>
+        <v>175546</v>
       </c>
       <c r="J112" t="n">
-        <v>230933</v>
+        <v>230929</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
@@ -4319,7 +4319,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="G113" t="n">
         <v>762</v>
@@ -4328,10 +4328,10 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83721</v>
+        <v>83717</v>
       </c>
       <c r="J113" t="n">
-        <v>231780</v>
+        <v>231776</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
@@ -4363,10 +4363,10 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84208</v>
+        <v>84204</v>
       </c>
       <c r="J114" t="n">
-        <v>232622</v>
+        <v>232618</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -4389,7 +4389,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="G115" t="n">
         <v>703</v>
@@ -4398,10 +4398,10 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84423</v>
+        <v>84419</v>
       </c>
       <c r="J115" t="n">
-        <v>232946</v>
+        <v>232942</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -4424,7 +4424,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="G116" t="n">
         <v>681</v>
@@ -4433,10 +4433,10 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84585</v>
+        <v>84581</v>
       </c>
       <c r="J116" t="n">
-        <v>233234</v>
+        <v>233230</v>
       </c>
       <c r="K116" t="n">
         <v>40488</v>
@@ -4468,10 +4468,10 @@
         <v>29426</v>
       </c>
       <c r="I117" t="n">
-        <v>84931</v>
+        <v>84927</v>
       </c>
       <c r="J117" t="n">
-        <v>216863</v>
+        <v>216859</v>
       </c>
       <c r="K117" t="n">
         <v>40512</v>
@@ -4503,10 +4503,10 @@
         <v>29486</v>
       </c>
       <c r="I118" t="n">
-        <v>85308</v>
+        <v>85304</v>
       </c>
       <c r="J118" t="n">
-        <v>217527</v>
+        <v>217523</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
@@ -4520,7 +4520,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -4538,10 +4538,10 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85702</v>
+        <v>85697</v>
       </c>
       <c r="J119" t="n">
-        <v>235146</v>
+        <v>235141</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -4555,7 +4555,7 @@
         <v>66</v>
       </c>
       <c r="C120" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D120" t="n">
         <v>36</v>
@@ -4573,10 +4573,10 @@
         <v>32304</v>
       </c>
       <c r="I120" t="n">
-        <v>83918</v>
+        <v>83914</v>
       </c>
       <c r="J120" t="n">
-        <v>235797</v>
+        <v>235793</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -4590,7 +4590,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D121" t="n">
         <v>26</v>
@@ -4608,10 +4608,10 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86303</v>
+        <v>86298</v>
       </c>
       <c r="J121" t="n">
-        <v>236487</v>
+        <v>236482</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -4625,7 +4625,7 @@
         <v>73</v>
       </c>
       <c r="C122" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D122" t="n">
         <v>5</v>
@@ -4643,10 +4643,10 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86445</v>
+        <v>86439</v>
       </c>
       <c r="J122" t="n">
-        <v>236835</v>
+        <v>236829</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -4678,10 +4678,10 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86492</v>
+        <v>86486</v>
       </c>
       <c r="J123" t="n">
-        <v>237101</v>
+        <v>237095</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="C124" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D124" t="n">
         <v>11</v>
@@ -4704,7 +4704,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="G124" t="n">
         <v>507</v>
@@ -4713,10 +4713,10 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86568</v>
+        <v>86563</v>
       </c>
       <c r="J124" t="n">
-        <v>237436</v>
+        <v>237431</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -4739,7 +4739,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="G125" t="n">
         <v>469</v>
@@ -4748,10 +4748,10 @@
         <v>32630</v>
       </c>
       <c r="I125" t="n">
-        <v>84747</v>
+        <v>84742</v>
       </c>
       <c r="J125" t="n">
-        <v>238003</v>
+        <v>237998</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -4774,7 +4774,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="G126" t="n">
         <v>443</v>
@@ -4783,10 +4783,10 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87079</v>
+        <v>87074</v>
       </c>
       <c r="J126" t="n">
-        <v>238615</v>
+        <v>238610</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -4809,7 +4809,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G127" t="n">
         <v>421</v>
@@ -4818,10 +4818,10 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94549</v>
+        <v>94544</v>
       </c>
       <c r="J127" t="n">
-        <v>239153</v>
+        <v>239148</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -4844,7 +4844,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G128" t="n">
         <v>399</v>
@@ -4853,10 +4853,10 @@
         <v>33118</v>
       </c>
       <c r="I128" t="n">
-        <v>97061</v>
+        <v>97056</v>
       </c>
       <c r="J128" t="n">
-        <v>241832</v>
+        <v>241827</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -4879,7 +4879,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G129" t="n">
         <v>400</v>
@@ -4888,10 +4888,10 @@
         <v>33146</v>
       </c>
       <c r="I129" t="n">
-        <v>97053</v>
+        <v>97048</v>
       </c>
       <c r="J129" t="n">
-        <v>242168</v>
+        <v>242163</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -4914,7 +4914,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G130" t="n">
         <v>398</v>
@@ -4923,10 +4923,10 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97210</v>
+        <v>97205</v>
       </c>
       <c r="J130" t="n">
-        <v>242759</v>
+        <v>242754</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -4958,10 +4958,10 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97355</v>
+        <v>97350</v>
       </c>
       <c r="J131" t="n">
-        <v>243068</v>
+        <v>243063</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
@@ -4993,10 +4993,10 @@
         <v>33191</v>
       </c>
       <c r="I132" t="n">
-        <v>97527</v>
+        <v>97522</v>
       </c>
       <c r="J132" t="n">
-        <v>243472</v>
+        <v>243467</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -5028,10 +5028,10 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97733</v>
+        <v>97728</v>
       </c>
       <c r="J133" t="n">
-        <v>241765</v>
+        <v>241760</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -5063,10 +5063,10 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97886</v>
+        <v>97881</v>
       </c>
       <c r="J134" t="n">
-        <v>242174</v>
+        <v>242169</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -5098,10 +5098,10 @@
         <v>33276</v>
       </c>
       <c r="I135" t="n">
-        <v>98094</v>
+        <v>98089</v>
       </c>
       <c r="J135" t="n">
-        <v>242637</v>
+        <v>242632</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -5133,10 +5133,10 @@
         <v>31251</v>
       </c>
       <c r="I136" t="n">
-        <v>98151</v>
+        <v>98146</v>
       </c>
       <c r="J136" t="n">
-        <v>216716</v>
+        <v>216711</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -5168,10 +5168,10 @@
         <v>31270</v>
       </c>
       <c r="I137" t="n">
-        <v>98187</v>
+        <v>98182</v>
       </c>
       <c r="J137" t="n">
-        <v>216815</v>
+        <v>216810</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -5203,10 +5203,10 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98299</v>
+        <v>98294</v>
       </c>
       <c r="J138" t="n">
-        <v>243202</v>
+        <v>243197</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -5229,7 +5229,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G139" t="n">
         <v>287</v>
@@ -5238,10 +5238,10 @@
         <v>33342</v>
       </c>
       <c r="I139" t="n">
-        <v>98475</v>
+        <v>98470</v>
       </c>
       <c r="J139" t="n">
-        <v>243497</v>
+        <v>243492</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -5264,7 +5264,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G140" t="n">
         <v>275</v>
@@ -5273,10 +5273,10 @@
         <v>33352</v>
       </c>
       <c r="I140" t="n">
-        <v>98615</v>
+        <v>98610</v>
       </c>
       <c r="J140" t="n">
-        <v>243829</v>
+        <v>243824</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -5299,7 +5299,7 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G141" t="n">
         <v>260</v>
@@ -5308,10 +5308,10 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98828</v>
+        <v>98823</v>
       </c>
       <c r="J141" t="n">
-        <v>244325</v>
+        <v>244320</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -5334,7 +5334,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G142" t="n">
         <v>237</v>
@@ -5343,10 +5343,10 @@
         <v>33394</v>
       </c>
       <c r="I142" t="n">
-        <v>99014</v>
+        <v>99009</v>
       </c>
       <c r="J142" t="n">
-        <v>244698</v>
+        <v>244693</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -5369,7 +5369,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G143" t="n">
         <v>225</v>
@@ -5378,10 +5378,10 @@
         <v>33408</v>
       </c>
       <c r="I143" t="n">
-        <v>99097</v>
+        <v>99092</v>
       </c>
       <c r="J143" t="n">
-        <v>244923</v>
+        <v>244918</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -5404,7 +5404,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G144" t="n">
         <v>230</v>
@@ -5413,10 +5413,10 @@
         <v>33417</v>
       </c>
       <c r="I144" t="n">
-        <v>99153</v>
+        <v>99148</v>
       </c>
       <c r="J144" t="n">
-        <v>245115</v>
+        <v>245110</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -5448,10 +5448,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99277</v>
+        <v>99272</v>
       </c>
       <c r="J145" t="n">
-        <v>245346</v>
+        <v>245341</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -5474,7 +5474,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="G146" t="n">
         <v>203</v>
@@ -5483,10 +5483,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99346</v>
+        <v>99341</v>
       </c>
       <c r="J146" t="n">
-        <v>245705</v>
+        <v>245700</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -5509,7 +5509,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G147" t="n">
         <v>203</v>
@@ -5518,10 +5518,10 @@
         <v>33230</v>
       </c>
       <c r="I147" t="n">
-        <v>97269</v>
+        <v>97264</v>
       </c>
       <c r="J147" t="n">
-        <v>246023</v>
+        <v>246018</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -5538,7 +5538,7 @@
         <v>171</v>
       </c>
       <c r="D148" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E148" t="n">
         <v>896</v>
@@ -5553,10 +5553,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99723</v>
+        <v>99717</v>
       </c>
       <c r="J148" t="n">
-        <v>246407</v>
+        <v>246402</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -5570,7 +5570,7 @@
         <v>23</v>
       </c>
       <c r="C149" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D149" t="n">
         <v>31</v>
@@ -5588,10 +5588,10 @@
         <v>33480</v>
       </c>
       <c r="I149" t="n">
-        <v>100012</v>
+        <v>100005</v>
       </c>
       <c r="J149" t="n">
-        <v>246955</v>
+        <v>246949</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -5623,10 +5623,10 @@
         <v>33264</v>
       </c>
       <c r="I150" t="n">
-        <v>97842</v>
+        <v>97835</v>
       </c>
       <c r="J150" t="n">
-        <v>247211</v>
+        <v>247205</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -5658,10 +5658,10 @@
         <v>33271</v>
       </c>
       <c r="I151" t="n">
-        <v>97937</v>
+        <v>97930</v>
       </c>
       <c r="J151" t="n">
-        <v>247405</v>
+        <v>247399</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -5693,10 +5693,10 @@
         <v>33503</v>
       </c>
       <c r="I152" t="n">
-        <v>100431</v>
+        <v>100424</v>
       </c>
       <c r="J152" t="n">
-        <v>247654</v>
+        <v>247648</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -5713,13 +5713,13 @@
         <v>280</v>
       </c>
       <c r="D153" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E153" t="n">
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G153" t="n">
         <v>174</v>
@@ -5728,10 +5728,10 @@
         <v>33522</v>
       </c>
       <c r="I153" t="n">
-        <v>100738</v>
+        <v>100730</v>
       </c>
       <c r="J153" t="n">
-        <v>248072</v>
+        <v>248066</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -5754,7 +5754,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G154" t="n">
         <v>170</v>
@@ -5763,10 +5763,10 @@
         <v>33536</v>
       </c>
       <c r="I154" t="n">
-        <v>101136</v>
+        <v>101128</v>
       </c>
       <c r="J154" t="n">
-        <v>248492</v>
+        <v>248486</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -5789,7 +5789,7 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G155" t="n">
         <v>159</v>
@@ -5798,10 +5798,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101538</v>
+        <v>101530</v>
       </c>
       <c r="J155" t="n">
-        <v>248955</v>
+        <v>248949</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -5824,19 +5824,19 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G156" t="n">
         <v>153</v>
       </c>
       <c r="H156" t="n">
-        <v>33551</v>
+        <v>33552</v>
       </c>
       <c r="I156" t="n">
-        <v>101986</v>
+        <v>101978</v>
       </c>
       <c r="J156" t="n">
-        <v>243172</v>
+        <v>243166</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -5859,19 +5859,19 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G157" t="n">
         <v>73</v>
       </c>
       <c r="H157" t="n">
-        <v>28096</v>
+        <v>28097</v>
       </c>
       <c r="I157" t="n">
-        <v>99816</v>
+        <v>99808</v>
       </c>
       <c r="J157" t="n">
-        <v>213506</v>
+        <v>213500</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -5894,19 +5894,19 @@
         <v>63</v>
       </c>
       <c r="F158" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G158" t="n">
         <v>61</v>
       </c>
       <c r="H158" t="n">
-        <v>28102</v>
+        <v>28103</v>
       </c>
       <c r="I158" t="n">
-        <v>99997</v>
+        <v>99989</v>
       </c>
       <c r="J158" t="n">
-        <v>213663</v>
+        <v>213657</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -5935,13 +5935,13 @@
         <v>150</v>
       </c>
       <c r="H159" t="n">
-        <v>32864</v>
+        <v>32865</v>
       </c>
       <c r="I159" t="n">
-        <v>102634</v>
+        <v>102626</v>
       </c>
       <c r="J159" t="n">
-        <v>239768</v>
+        <v>239762</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
@@ -5970,13 +5970,13 @@
         <v>144</v>
       </c>
       <c r="H160" t="n">
-        <v>33588</v>
+        <v>33589</v>
       </c>
       <c r="I160" t="n">
-        <v>103194</v>
+        <v>103186</v>
       </c>
       <c r="J160" t="n">
-        <v>240379</v>
+        <v>240373</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
@@ -6002,16 +6002,16 @@
         <v>846</v>
       </c>
       <c r="G161" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H161" t="n">
-        <v>33597</v>
+        <v>33598</v>
       </c>
       <c r="I161" t="n">
-        <v>103872</v>
+        <v>103864</v>
       </c>
       <c r="J161" t="n">
-        <v>233738</v>
+        <v>233732</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="H162" t="n">
-        <v>33822</v>
+        <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104644</v>
+        <v>104636</v>
       </c>
       <c r="J162" t="n">
-        <v>248214</v>
+        <v>248208</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
@@ -6075,13 +6075,13 @@
         <v>123</v>
       </c>
       <c r="H163" t="n">
-        <v>32931</v>
+        <v>32932</v>
       </c>
       <c r="I163" t="n">
-        <v>105648</v>
+        <v>105640</v>
       </c>
       <c r="J163" t="n">
-        <v>235169</v>
+        <v>235163</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -6110,13 +6110,13 @@
         <v>65</v>
       </c>
       <c r="H164" t="n">
-        <v>28849</v>
+        <v>28850</v>
       </c>
       <c r="I164" t="n">
-        <v>103627</v>
+        <v>103619</v>
       </c>
       <c r="J164" t="n">
-        <v>215374</v>
+        <v>215368</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
@@ -6145,13 +6145,13 @@
         <v>65</v>
       </c>
       <c r="H165" t="n">
-        <v>27008</v>
+        <v>27009</v>
       </c>
       <c r="I165" t="n">
-        <v>110635</v>
+        <v>110627</v>
       </c>
       <c r="J165" t="n">
-        <v>224202</v>
+        <v>224196</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
@@ -6174,19 +6174,19 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G166" t="n">
         <v>135</v>
       </c>
       <c r="H166" t="n">
-        <v>33852</v>
+        <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114038</v>
+        <v>114030</v>
       </c>
       <c r="J166" t="n">
-        <v>255107</v>
+        <v>255101</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
@@ -6209,19 +6209,19 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
       </c>
       <c r="H167" t="n">
-        <v>33858</v>
+        <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115323</v>
+        <v>115315</v>
       </c>
       <c r="J167" t="n">
-        <v>256244</v>
+        <v>256238</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
@@ -6244,19 +6244,19 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G168" t="n">
         <v>132</v>
       </c>
       <c r="H168" t="n">
-        <v>33864</v>
+        <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109689</v>
+        <v>109681</v>
       </c>
       <c r="J168" t="n">
-        <v>257582</v>
+        <v>257576</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
@@ -6270,7 +6270,7 @@
         <v>61</v>
       </c>
       <c r="C169" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D169" t="n">
         <v>387</v>
@@ -6279,19 +6279,19 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G169" t="n">
         <v>129</v>
       </c>
       <c r="H169" t="n">
-        <v>33657</v>
+        <v>33658</v>
       </c>
       <c r="I169" t="n">
-        <v>111006</v>
+        <v>110999</v>
       </c>
       <c r="J169" t="n">
-        <v>259120</v>
+        <v>259115</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -6305,7 +6305,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D170" t="n">
         <v>456</v>
@@ -6314,19 +6314,19 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
       </c>
       <c r="H170" t="n">
-        <v>33298</v>
+        <v>33299</v>
       </c>
       <c r="I170" t="n">
-        <v>116103</v>
+        <v>116097</v>
       </c>
       <c r="J170" t="n">
-        <v>256896</v>
+        <v>256892</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -6349,19 +6349,19 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
       </c>
       <c r="H171" t="n">
-        <v>19297</v>
+        <v>19298</v>
       </c>
       <c r="I171" t="n">
-        <v>114412</v>
+        <v>114406</v>
       </c>
       <c r="J171" t="n">
-        <v>227752</v>
+        <v>227748</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -6384,19 +6384,19 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G172" t="n">
         <v>78</v>
       </c>
       <c r="H172" t="n">
-        <v>26675</v>
+        <v>26676</v>
       </c>
       <c r="I172" t="n">
-        <v>123313</v>
+        <v>123307</v>
       </c>
       <c r="J172" t="n">
-        <v>228797</v>
+        <v>228793</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -6410,7 +6410,7 @@
         <v>61</v>
       </c>
       <c r="C173" t="n">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D173" t="n">
         <v>306</v>
@@ -6419,19 +6419,19 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
       </c>
       <c r="H173" t="n">
-        <v>33899</v>
+        <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127464</v>
+        <v>127460</v>
       </c>
       <c r="J173" t="n">
-        <v>262661</v>
+        <v>262659</v>
       </c>
       <c r="K173" t="n">
         <v>65273</v>
@@ -6454,19 +6454,19 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G174" t="n">
         <v>143</v>
       </c>
       <c r="H174" t="n">
-        <v>33915</v>
+        <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129224</v>
+        <v>129220</v>
       </c>
       <c r="J174" t="n">
-        <v>264742</v>
+        <v>264740</v>
       </c>
       <c r="K174" t="n">
         <v>63702</v>
@@ -6489,19 +6489,19 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G175" t="n">
         <v>156</v>
       </c>
       <c r="H175" t="n">
-        <v>33923</v>
+        <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131490</v>
+        <v>131486</v>
       </c>
       <c r="J175" t="n">
-        <v>267137</v>
+        <v>267135</v>
       </c>
       <c r="K175" t="n">
         <v>71182</v>
@@ -6515,7 +6515,7 @@
         <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D176" t="n">
         <v>297</v>
@@ -6524,19 +6524,19 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G176" t="n">
         <v>157</v>
       </c>
       <c r="H176" t="n">
-        <v>30850</v>
+        <v>30851</v>
       </c>
       <c r="I176" t="n">
-        <v>133400</v>
+        <v>133397</v>
       </c>
       <c r="J176" t="n">
-        <v>250708</v>
+        <v>250707</v>
       </c>
       <c r="K176" t="n">
         <v>63993</v>
@@ -6559,19 +6559,19 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="G177" t="n">
         <v>175</v>
       </c>
       <c r="H177" t="n">
-        <v>33725</v>
+        <v>33726</v>
       </c>
       <c r="I177" t="n">
-        <v>125393</v>
+        <v>125390</v>
       </c>
       <c r="J177" t="n">
-        <v>271879</v>
+        <v>271878</v>
       </c>
       <c r="K177" t="n">
         <v>66390</v>
@@ -6594,19 +6594,19 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G178" t="n">
         <v>114</v>
       </c>
       <c r="H178" t="n">
-        <v>19378</v>
+        <v>19379</v>
       </c>
       <c r="I178" t="n">
-        <v>104395</v>
+        <v>104392</v>
       </c>
       <c r="J178" t="n">
-        <v>239819</v>
+        <v>239818</v>
       </c>
       <c r="K178" t="n">
         <v>37038</v>
@@ -6629,19 +6629,19 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G179" t="n">
         <v>106</v>
       </c>
       <c r="H179" t="n">
-        <v>19607</v>
+        <v>19608</v>
       </c>
       <c r="I179" t="n">
-        <v>115727</v>
+        <v>115724</v>
       </c>
       <c r="J179" t="n">
-        <v>241142</v>
+        <v>241141</v>
       </c>
       <c r="K179" t="n">
         <v>38920</v>
@@ -6655,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D180" t="n">
         <v>151</v>
@@ -6664,16 +6664,16 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G180" t="n">
         <v>197</v>
       </c>
       <c r="H180" t="n">
-        <v>33832</v>
+        <v>33833</v>
       </c>
       <c r="I180" t="n">
-        <v>115718</v>
+        <v>115716</v>
       </c>
       <c r="J180" t="n">
         <v>274546</v>
@@ -6699,16 +6699,16 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G181" t="n">
         <v>213</v>
       </c>
       <c r="H181" t="n">
-        <v>33779</v>
+        <v>33780</v>
       </c>
       <c r="I181" t="n">
-        <v>110035</v>
+        <v>110033</v>
       </c>
       <c r="J181" t="n">
         <v>272949</v>
@@ -6737,13 +6737,13 @@
         <v>1534</v>
       </c>
       <c r="G182" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H182" t="n">
-        <v>34012</v>
+        <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123590</v>
+        <v>123588</v>
       </c>
       <c r="J182" t="n">
         <v>282227</v>
@@ -6769,16 +6769,16 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G183" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H183" t="n">
-        <v>33813</v>
+        <v>33814</v>
       </c>
       <c r="I183" t="n">
-        <v>113125</v>
+        <v>113123</v>
       </c>
       <c r="J183" t="n">
         <v>287920</v>
@@ -6804,16 +6804,16 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="G184" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H184" t="n">
-        <v>33826</v>
+        <v>33827</v>
       </c>
       <c r="I184" t="n">
-        <v>114770</v>
+        <v>114768</v>
       </c>
       <c r="J184" t="n">
         <v>291411</v>
@@ -6842,13 +6842,13 @@
         <v>1356</v>
       </c>
       <c r="G185" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H185" t="n">
-        <v>19303</v>
+        <v>19304</v>
       </c>
       <c r="I185" t="n">
-        <v>110219</v>
+        <v>110217</v>
       </c>
       <c r="J185" t="n">
         <v>254269</v>
@@ -6877,13 +6877,13 @@
         <v>987</v>
       </c>
       <c r="G186" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H186" t="n">
-        <v>19553</v>
+        <v>19554</v>
       </c>
       <c r="I186" t="n">
-        <v>123746</v>
+        <v>123744</v>
       </c>
       <c r="J186" t="n">
         <v>255899</v>
@@ -6909,16 +6909,16 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="G187" t="n">
         <v>254</v>
       </c>
       <c r="H187" t="n">
-        <v>31009</v>
+        <v>31010</v>
       </c>
       <c r="I187" t="n">
-        <v>132179</v>
+        <v>132177</v>
       </c>
       <c r="J187" t="n">
         <v>298549</v>
@@ -6944,16 +6944,16 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G188" t="n">
         <v>257</v>
       </c>
       <c r="H188" t="n">
-        <v>34118</v>
+        <v>34119</v>
       </c>
       <c r="I188" t="n">
-        <v>134095</v>
+        <v>134093</v>
       </c>
       <c r="J188" t="n">
         <v>302280</v>
@@ -6979,16 +6979,16 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G189" t="n">
         <v>261</v>
       </c>
       <c r="H189" t="n">
-        <v>34135</v>
+        <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136048</v>
+        <v>136046</v>
       </c>
       <c r="J189" t="n">
         <v>306199</v>
@@ -7014,16 +7014,16 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="G190" t="n">
         <v>265</v>
       </c>
       <c r="H190" t="n">
-        <v>34155</v>
+        <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138079</v>
+        <v>138077</v>
       </c>
       <c r="J190" t="n">
         <v>310541</v>
@@ -7040,7 +7040,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -7049,19 +7049,19 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="G191" t="n">
         <v>276</v>
       </c>
       <c r="H191" t="n">
-        <v>33933</v>
+        <v>33934</v>
       </c>
       <c r="I191" t="n">
-        <v>122589</v>
+        <v>122586</v>
       </c>
       <c r="J191" t="n">
-        <v>315463</v>
+        <v>315462</v>
       </c>
       <c r="K191" t="n">
         <v>68675</v>
@@ -7075,7 +7075,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="n">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D192" t="n">
         <v>64006</v>
@@ -7084,19 +7084,19 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G192" t="n">
         <v>188</v>
       </c>
       <c r="H192" t="n">
-        <v>19557</v>
+        <v>19558</v>
       </c>
       <c r="I192" t="n">
-        <v>120525</v>
+        <v>120521</v>
       </c>
       <c r="J192" t="n">
-        <v>281345</v>
+        <v>281343</v>
       </c>
       <c r="K192" t="n">
         <v>34613</v>
@@ -7119,19 +7119,19 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="G193" t="n">
         <v>218</v>
       </c>
       <c r="H193" t="n">
-        <v>19826</v>
+        <v>19827</v>
       </c>
       <c r="I193" t="n">
-        <v>139291</v>
+        <v>139287</v>
       </c>
       <c r="J193" t="n">
-        <v>280480</v>
+        <v>280478</v>
       </c>
       <c r="K193" t="n">
         <v>41061</v>
@@ -7145,7 +7145,7 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>2983</v>
+        <v>2992</v>
       </c>
       <c r="D194" t="n">
         <v>48</v>
@@ -7154,19 +7154,19 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="G194" t="n">
         <v>317</v>
       </c>
       <c r="H194" t="n">
-        <v>33749</v>
+        <v>33750</v>
       </c>
       <c r="I194" t="n">
-        <v>139738</v>
+        <v>139743</v>
       </c>
       <c r="J194" t="n">
-        <v>321325</v>
+        <v>321332</v>
       </c>
       <c r="K194" t="n">
         <v>65579</v>
@@ -7180,7 +7180,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -7189,19 +7189,19 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="G195" t="n">
         <v>340</v>
       </c>
       <c r="H195" t="n">
-        <v>34294</v>
+        <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146402</v>
+        <v>146410</v>
       </c>
       <c r="J195" t="n">
-        <v>329858</v>
+        <v>329868</v>
       </c>
       <c r="K195" t="n">
         <v>69652</v>
@@ -7215,7 +7215,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -7224,19 +7224,19 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="G196" t="n">
         <v>349</v>
       </c>
       <c r="H196" t="n">
-        <v>34324</v>
+        <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>148533</v>
+        <v>148542</v>
       </c>
       <c r="J196" t="n">
-        <v>335198</v>
+        <v>335209</v>
       </c>
       <c r="K196" t="n">
         <v>70569</v>
@@ -7250,7 +7250,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D197" t="n">
         <v>64225</v>
@@ -7259,19 +7259,19 @@
         <v>14874</v>
       </c>
       <c r="F197" t="n">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="G197" t="n">
         <v>367</v>
       </c>
       <c r="H197" t="n">
-        <v>34349</v>
+        <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>150812</v>
+        <v>150820</v>
       </c>
       <c r="J197" t="n">
-        <v>341141</v>
+        <v>341151</v>
       </c>
       <c r="K197" t="n">
         <v>71202</v>
@@ -7285,7 +7285,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -7294,19 +7294,19 @@
         <v>3729</v>
       </c>
       <c r="F198" t="n">
-        <v>2419</v>
+        <v>2961</v>
       </c>
       <c r="G198" t="n">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="H198" t="n">
-        <v>20542</v>
+        <v>33315</v>
       </c>
       <c r="I198" t="n">
-        <v>132444</v>
+        <v>132455</v>
       </c>
       <c r="J198" t="n">
-        <v>347945</v>
+        <v>347958</v>
       </c>
       <c r="K198" t="n">
         <v>63953</v>
@@ -7320,7 +7320,7 @@
         <v>539</v>
       </c>
       <c r="C199" t="n">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="D199" t="n">
         <v>64260</v>
@@ -7329,19 +7329,19 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>1301</v>
+        <v>1880</v>
       </c>
       <c r="G199" t="n">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="H199" t="n">
-        <v>6120</v>
+        <v>18900</v>
       </c>
       <c r="I199" t="n">
-        <v>129306</v>
+        <v>129314</v>
       </c>
       <c r="J199" t="n">
-        <v>307722</v>
+        <v>307732</v>
       </c>
       <c r="K199" t="n">
         <v>35129</v>
@@ -7355,7 +7355,7 @@
         <v>273</v>
       </c>
       <c r="C200" t="n">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D200" t="n">
         <v>64261</v>
@@ -7364,19 +7364,19 @@
         <v>1103</v>
       </c>
       <c r="F200" t="n">
-        <v>1370</v>
+        <v>1992</v>
       </c>
       <c r="G200" t="n">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="H200" t="n">
-        <v>6126</v>
+        <v>18909</v>
       </c>
       <c r="I200" t="n">
-        <v>130106</v>
+        <v>130116</v>
       </c>
       <c r="J200" t="n">
-        <v>310128</v>
+        <v>309928</v>
       </c>
       <c r="K200" t="n">
         <v>35293</v>
@@ -7390,28 +7390,28 @@
         <v>415</v>
       </c>
       <c r="C201" t="n">
-        <v>3306</v>
+        <v>3325</v>
       </c>
       <c r="D201" t="n">
-        <v>64345</v>
+        <v>64343</v>
       </c>
       <c r="E201" t="n">
         <v>16406</v>
       </c>
       <c r="F201" t="n">
-        <v>2888</v>
+        <v>3519</v>
       </c>
       <c r="G201" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="H201" t="n">
-        <v>21147</v>
+        <v>33939</v>
       </c>
       <c r="I201" t="n">
-        <v>158118</v>
+        <v>158145</v>
       </c>
       <c r="J201" t="n">
-        <v>355332</v>
+        <v>355151</v>
       </c>
       <c r="K201" t="n">
         <v>69386</v>
@@ -7425,31 +7425,31 @@
         <v>912</v>
       </c>
       <c r="C202" t="n">
-        <v>2710</v>
+        <v>3156</v>
       </c>
       <c r="D202" t="n">
-        <v>64395</v>
+        <v>64396</v>
       </c>
       <c r="E202" t="n">
-        <v>4479</v>
+        <v>16566</v>
       </c>
       <c r="F202" t="n">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="G202" t="n">
         <v>334</v>
       </c>
       <c r="H202" t="n">
-        <v>20078</v>
+        <v>21181</v>
       </c>
       <c r="I202" t="n">
-        <v>137552</v>
+        <v>160564</v>
       </c>
       <c r="J202" t="n">
-        <v>338889</v>
+        <v>361836</v>
       </c>
       <c r="K202" t="n">
-        <v>61111</v>
+        <v>70460</v>
       </c>
     </row>
     <row r="203">
@@ -7460,31 +7460,31 @@
         <v>670</v>
       </c>
       <c r="C203" t="n">
-        <v>1678</v>
+        <v>2695</v>
       </c>
       <c r="D203" t="n">
-        <v>64473</v>
+        <v>64477</v>
       </c>
       <c r="E203" t="n">
-        <v>2978</v>
+        <v>14913</v>
       </c>
       <c r="F203" t="n">
-        <v>3166</v>
+        <v>3171</v>
       </c>
       <c r="G203" t="n">
         <v>338</v>
       </c>
       <c r="H203" t="n">
-        <v>20092</v>
+        <v>21208</v>
       </c>
       <c r="I203" t="n">
-        <v>138343</v>
+        <v>162752</v>
       </c>
       <c r="J203" t="n">
-        <v>319449</v>
+        <v>343628</v>
       </c>
       <c r="K203" t="n">
-        <v>57789</v>
+        <v>67997</v>
       </c>
     </row>
     <row r="204">
@@ -7495,31 +7495,66 @@
         <v>781</v>
       </c>
       <c r="C204" t="n">
-        <v>544</v>
+        <v>1374</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E204" t="n">
         <v>3160</v>
       </c>
       <c r="F204" t="n">
-        <v>2343</v>
+        <v>2821</v>
       </c>
       <c r="G204" t="n">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="H204" t="n">
-        <v>15477</v>
+        <v>16634</v>
       </c>
       <c r="I204" t="n">
-        <v>9590</v>
+        <v>130266</v>
       </c>
       <c r="J204" t="n">
-        <v>89275</v>
+        <v>217528</v>
       </c>
       <c r="K204" t="n">
-        <v>56406</v>
+        <v>58318</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="B205" t="n">
+        <v>414</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>237</v>
+      </c>
+      <c r="G205" t="n">
+        <v>23</v>
+      </c>
+      <c r="H205" t="n">
+        <v>4183</v>
+      </c>
+      <c r="I205" t="n">
+        <v>14360</v>
+      </c>
+      <c r="J205" t="n">
+        <v>54408</v>
+      </c>
+      <c r="K205" t="n">
+        <v>28044</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -4431,7 +4431,7 @@
         <v>5066</v>
       </c>
       <c r="C57" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4449,37 +4449,37 @@
         <v>5602</v>
       </c>
       <c r="I57" t="n">
-        <v>72677</v>
+        <v>72678</v>
       </c>
       <c r="J57" t="n">
-        <v>54324</v>
+        <v>54325</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
       </c>
       <c r="L57" t="n">
-        <v>65278</v>
+        <v>65279</v>
       </c>
       <c r="M57" t="n">
-        <v>40633</v>
+        <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48119</v>
+        <v>48120</v>
       </c>
       <c r="O57" t="n">
-        <v>28994</v>
+        <v>28995</v>
       </c>
       <c r="P57" t="n">
-        <v>9577</v>
+        <v>9578</v>
       </c>
       <c r="Q57" t="n">
-        <v>6605.6</v>
+        <v>6605.7</v>
       </c>
       <c r="R57" t="n">
-        <v>6797</v>
+        <v>6798</v>
       </c>
       <c r="S57" t="n">
-        <v>4748</v>
+        <v>4748.1</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4523,37 +4523,37 @@
         <v>6575</v>
       </c>
       <c r="I58" t="n">
-        <v>81189</v>
+        <v>81190</v>
       </c>
       <c r="J58" t="n">
-        <v>59296</v>
+        <v>59297</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
       </c>
       <c r="L58" t="n">
-        <v>71861</v>
+        <v>71862</v>
       </c>
       <c r="M58" t="n">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="N58" t="n">
-        <v>51716</v>
+        <v>51717</v>
       </c>
       <c r="O58" t="n">
-        <v>30591</v>
+        <v>30592</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
       </c>
       <c r="Q58" t="n">
-        <v>7020.7</v>
+        <v>7020.9</v>
       </c>
       <c r="R58" t="n">
         <v>4972</v>
       </c>
       <c r="S58" t="n">
-        <v>4852.3</v>
+        <v>4852.4</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4597,37 +4597,37 @@
         <v>7628</v>
       </c>
       <c r="I59" t="n">
-        <v>89781</v>
+        <v>89782</v>
       </c>
       <c r="J59" t="n">
-        <v>62642</v>
+        <v>62643</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
       </c>
       <c r="L59" t="n">
-        <v>78390</v>
+        <v>78391</v>
       </c>
       <c r="M59" t="n">
-        <v>49075</v>
+        <v>49076</v>
       </c>
       <c r="N59" t="n">
-        <v>53602</v>
+        <v>53603</v>
       </c>
       <c r="O59" t="n">
-        <v>30982</v>
+        <v>30983</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
       </c>
       <c r="Q59" t="n">
-        <v>7577.4</v>
+        <v>7577.6</v>
       </c>
       <c r="R59" t="n">
         <v>3346</v>
       </c>
       <c r="S59" t="n">
-        <v>4848.1</v>
+        <v>4848.3</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4671,37 +4671,37 @@
         <v>8602</v>
       </c>
       <c r="I60" t="n">
-        <v>96085</v>
+        <v>96086</v>
       </c>
       <c r="J60" t="n">
-        <v>65316</v>
+        <v>65317</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
       </c>
       <c r="L60" t="n">
-        <v>82251</v>
+        <v>82252</v>
       </c>
       <c r="M60" t="n">
-        <v>48984</v>
+        <v>48985</v>
       </c>
       <c r="N60" t="n">
-        <v>54111</v>
+        <v>54112</v>
       </c>
       <c r="O60" t="n">
-        <v>28856</v>
+        <v>28857</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
       </c>
       <c r="Q60" t="n">
-        <v>7911.3</v>
+        <v>7911.4</v>
       </c>
       <c r="R60" t="n">
         <v>2674</v>
       </c>
       <c r="S60" t="n">
-        <v>4808</v>
+        <v>4808.1</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4745,37 +4745,37 @@
         <v>9548</v>
       </c>
       <c r="I61" t="n">
-        <v>103277</v>
+        <v>103278</v>
       </c>
       <c r="J61" t="n">
-        <v>70172</v>
+        <v>70173</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
       </c>
       <c r="L61" t="n">
-        <v>85694</v>
+        <v>85695</v>
       </c>
       <c r="M61" t="n">
-        <v>50869</v>
+        <v>50870</v>
       </c>
       <c r="N61" t="n">
-        <v>55920</v>
+        <v>55921</v>
       </c>
       <c r="O61" t="n">
-        <v>28179</v>
+        <v>28180</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
       </c>
       <c r="Q61" t="n">
-        <v>8025.1</v>
+        <v>8025.3</v>
       </c>
       <c r="R61" t="n">
         <v>4856</v>
       </c>
       <c r="S61" t="n">
-        <v>4816</v>
+        <v>4816.1</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4819,37 +4819,37 @@
         <v>10614</v>
       </c>
       <c r="I62" t="n">
-        <v>108825</v>
+        <v>108826</v>
       </c>
       <c r="J62" t="n">
-        <v>74440</v>
+        <v>74441</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
       </c>
       <c r="L62" t="n">
-        <v>88064</v>
+        <v>88065</v>
       </c>
       <c r="M62" t="n">
-        <v>45725</v>
+        <v>45726</v>
       </c>
       <c r="N62" t="n">
-        <v>57108</v>
+        <v>57109</v>
       </c>
       <c r="O62" t="n">
-        <v>26913</v>
+        <v>26914</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
       </c>
       <c r="Q62" t="n">
-        <v>8059.6</v>
+        <v>8059.7</v>
       </c>
       <c r="R62" t="n">
         <v>4268</v>
       </c>
       <c r="S62" t="n">
-        <v>4635.3</v>
+        <v>4635.4</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4893,22 +4893,22 @@
         <v>11637</v>
       </c>
       <c r="I63" t="n">
-        <v>117177</v>
+        <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78263</v>
+        <v>78264</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
       </c>
       <c r="L63" t="n">
-        <v>90739</v>
+        <v>90740</v>
       </c>
       <c r="M63" t="n">
         <v>44500</v>
       </c>
       <c r="N63" t="n">
-        <v>57175</v>
+        <v>57176</v>
       </c>
       <c r="O63" t="n">
         <v>23939</v>
@@ -4917,13 +4917,13 @@
         <v>8352</v>
       </c>
       <c r="Q63" t="n">
-        <v>7725.3</v>
+        <v>7725.4</v>
       </c>
       <c r="R63" t="n">
         <v>3823</v>
       </c>
       <c r="S63" t="n">
-        <v>4390.9</v>
+        <v>4391</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4967,22 +4967,22 @@
         <v>12719</v>
       </c>
       <c r="I64" t="n">
-        <v>123951</v>
+        <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82079</v>
+        <v>82080</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
       </c>
       <c r="L64" t="n">
-        <v>91907</v>
+        <v>91908</v>
       </c>
       <c r="M64" t="n">
         <v>42762</v>
       </c>
       <c r="N64" t="n">
-        <v>56749</v>
+        <v>56750</v>
       </c>
       <c r="O64" t="n">
         <v>22783</v>
@@ -5041,22 +5041,22 @@
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130639</v>
+        <v>130640</v>
       </c>
       <c r="J65" t="n">
-        <v>85949</v>
+        <v>85950</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
       </c>
       <c r="L65" t="n">
-        <v>93900</v>
+        <v>93901</v>
       </c>
       <c r="M65" t="n">
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57244</v>
+        <v>57245</v>
       </c>
       <c r="O65" t="n">
         <v>23307</v>
@@ -5115,22 +5115,22 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135948</v>
+        <v>135949</v>
       </c>
       <c r="J66" t="n">
-        <v>88379</v>
+        <v>88380</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95242</v>
+        <v>95243</v>
       </c>
       <c r="M66" t="n">
         <v>39863</v>
       </c>
       <c r="N66" t="n">
-        <v>56719</v>
+        <v>56720</v>
       </c>
       <c r="O66" t="n">
         <v>23063</v>
@@ -5189,22 +5189,22 @@
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139710</v>
+        <v>139711</v>
       </c>
       <c r="J67" t="n">
-        <v>90035</v>
+        <v>90036</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
       </c>
       <c r="L67" t="n">
-        <v>92609</v>
+        <v>92610</v>
       </c>
       <c r="M67" t="n">
         <v>36433</v>
       </c>
       <c r="N67" t="n">
-        <v>53575</v>
+        <v>53576</v>
       </c>
       <c r="O67" t="n">
         <v>19863</v>
@@ -5263,22 +5263,22 @@
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144596</v>
+        <v>144597</v>
       </c>
       <c r="J68" t="n">
-        <v>93249</v>
+        <v>93250</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
       </c>
       <c r="L68" t="n">
-        <v>92188</v>
+        <v>92189</v>
       </c>
       <c r="M68" t="n">
         <v>35771</v>
       </c>
       <c r="N68" t="n">
-        <v>51256</v>
+        <v>51257</v>
       </c>
       <c r="O68" t="n">
         <v>18809</v>
@@ -5337,22 +5337,22 @@
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149516</v>
+        <v>149517</v>
       </c>
       <c r="J69" t="n">
-        <v>96310</v>
+        <v>96311</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
       </c>
       <c r="L69" t="n">
-        <v>86416</v>
+        <v>86417</v>
       </c>
       <c r="M69" t="n">
         <v>32339</v>
       </c>
       <c r="N69" t="n">
-        <v>48783</v>
+        <v>48784</v>
       </c>
       <c r="O69" t="n">
         <v>18047</v>
@@ -5411,10 +5411,10 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154914</v>
+        <v>154915</v>
       </c>
       <c r="J70" t="n">
-        <v>99431</v>
+        <v>99432</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5485,10 +5485,10 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159906</v>
+        <v>159907</v>
       </c>
       <c r="J71" t="n">
-        <v>102045</v>
+        <v>102046</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5559,10 +5559,10 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165061</v>
+        <v>165062</v>
       </c>
       <c r="J72" t="n">
-        <v>104331</v>
+        <v>104332</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5633,10 +5633,10 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168830</v>
+        <v>168831</v>
       </c>
       <c r="J73" t="n">
-        <v>106101</v>
+        <v>106102</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5707,10 +5707,10 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171873</v>
+        <v>171874</v>
       </c>
       <c r="J74" t="n">
-        <v>107352</v>
+        <v>107353</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -5781,10 +5781,10 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175375</v>
+        <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109278</v>
+        <v>109279</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -5855,10 +5855,10 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179703</v>
+        <v>179704</v>
       </c>
       <c r="J76" t="n">
-        <v>111811</v>
+        <v>111812</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5929,10 +5929,10 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184104</v>
+        <v>184105</v>
       </c>
       <c r="J77" t="n">
-        <v>116835</v>
+        <v>116836</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -6003,10 +6003,10 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188813</v>
+        <v>188814</v>
       </c>
       <c r="J78" t="n">
-        <v>119188</v>
+        <v>119189</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -6077,10 +6077,10 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193913</v>
+        <v>193914</v>
       </c>
       <c r="J79" t="n">
-        <v>121477</v>
+        <v>121478</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -6151,10 +6151,10 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199795</v>
+        <v>199796</v>
       </c>
       <c r="J80" t="n">
-        <v>122948</v>
+        <v>122949</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
@@ -6225,10 +6225,10 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202022</v>
+        <v>202023</v>
       </c>
       <c r="J81" t="n">
-        <v>123818</v>
+        <v>123819</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
@@ -6299,10 +6299,10 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204945</v>
+        <v>204946</v>
       </c>
       <c r="J82" t="n">
-        <v>125534</v>
+        <v>125535</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
@@ -6373,10 +6373,10 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208698</v>
+        <v>208699</v>
       </c>
       <c r="J83" t="n">
-        <v>127323</v>
+        <v>127324</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -6447,10 +6447,10 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213315</v>
+        <v>213316</v>
       </c>
       <c r="J84" t="n">
-        <v>129264</v>
+        <v>129265</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -6521,10 +6521,10 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217031</v>
+        <v>217032</v>
       </c>
       <c r="J85" t="n">
-        <v>130604</v>
+        <v>130605</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -6595,10 +6595,10 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220692</v>
+        <v>220693</v>
       </c>
       <c r="J86" t="n">
-        <v>132071</v>
+        <v>132072</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
@@ -6669,10 +6669,10 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223305</v>
+        <v>223306</v>
       </c>
       <c r="J87" t="n">
-        <v>132849</v>
+        <v>132850</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
@@ -6743,10 +6743,10 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225683</v>
+        <v>225684</v>
       </c>
       <c r="J88" t="n">
-        <v>133361</v>
+        <v>133362</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
@@ -6817,10 +6817,10 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228380</v>
+        <v>228381</v>
       </c>
       <c r="J89" t="n">
-        <v>134422</v>
+        <v>134423</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
@@ -6891,10 +6891,10 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228182</v>
+        <v>228183</v>
       </c>
       <c r="J90" t="n">
-        <v>135672</v>
+        <v>135673</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -6965,10 +6965,10 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231072</v>
+        <v>231073</v>
       </c>
       <c r="J91" t="n">
-        <v>136619</v>
+        <v>136620</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -7039,10 +7039,10 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234294</v>
+        <v>234295</v>
       </c>
       <c r="J92" t="n">
-        <v>137469</v>
+        <v>137470</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -7113,10 +7113,10 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236444</v>
+        <v>236445</v>
       </c>
       <c r="J93" t="n">
-        <v>137974</v>
+        <v>137975</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
@@ -7187,10 +7187,10 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238103</v>
+        <v>238104</v>
       </c>
       <c r="J94" t="n">
-        <v>138307</v>
+        <v>138308</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
@@ -7261,10 +7261,10 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239198</v>
+        <v>239199</v>
       </c>
       <c r="J95" t="n">
-        <v>138563</v>
+        <v>138564</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
@@ -7317,7 +7317,7 @@
         <v>4614</v>
       </c>
       <c r="C96" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D96" t="n">
         <v>9482</v>
@@ -7344,28 +7344,28 @@
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32250</v>
+        <v>32249</v>
       </c>
       <c r="M96" t="n">
-        <v>12766</v>
+        <v>12765</v>
       </c>
       <c r="N96" t="n">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="O96" t="n">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="P96" t="n">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q96" t="n">
-        <v>1795.4</v>
+        <v>1795.3</v>
       </c>
       <c r="R96" t="n">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S96" t="n">
-        <v>701.1</v>
+        <v>701</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7418,28 +7418,28 @@
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29688</v>
+        <v>29687</v>
       </c>
       <c r="M97" t="n">
-        <v>11931</v>
+        <v>11930</v>
       </c>
       <c r="N97" t="n">
-        <v>23068</v>
+        <v>23067</v>
       </c>
       <c r="O97" t="n">
-        <v>15713</v>
+        <v>15712</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2117.3</v>
+        <v>2117.1</v>
       </c>
       <c r="R97" t="n">
         <v>13002</v>
       </c>
       <c r="S97" t="n">
-        <v>2380</v>
+        <v>2379.9</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7492,28 +7492,28 @@
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28919</v>
+        <v>28918</v>
       </c>
       <c r="M98" t="n">
-        <v>11656</v>
+        <v>11655</v>
       </c>
       <c r="N98" t="n">
-        <v>22527</v>
+        <v>22526</v>
       </c>
       <c r="O98" t="n">
-        <v>15662</v>
+        <v>15661</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2125.4</v>
+        <v>2125.3</v>
       </c>
       <c r="R98" t="n">
         <v>799</v>
       </c>
       <c r="S98" t="n">
-        <v>2358.9</v>
+        <v>2358.7</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7566,28 +7566,28 @@
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25634</v>
+        <v>25633</v>
       </c>
       <c r="M99" t="n">
-        <v>9882</v>
+        <v>9881</v>
       </c>
       <c r="N99" t="n">
-        <v>21746</v>
+        <v>21745</v>
       </c>
       <c r="O99" t="n">
-        <v>15843</v>
+        <v>15842</v>
       </c>
       <c r="P99" t="n">
         <v>376</v>
       </c>
       <c r="Q99" t="n">
-        <v>1718.9</v>
+        <v>1718.7</v>
       </c>
       <c r="R99" t="n">
         <v>686</v>
       </c>
       <c r="S99" t="n">
-        <v>2335.4</v>
+        <v>2335.3</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7640,28 +7640,28 @@
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27557</v>
+        <v>27556</v>
       </c>
       <c r="M100" t="n">
-        <v>12759</v>
+        <v>12758</v>
       </c>
       <c r="N100" t="n">
-        <v>21616</v>
+        <v>21615</v>
       </c>
       <c r="O100" t="n">
-        <v>16158</v>
+        <v>16157</v>
       </c>
       <c r="P100" t="n">
         <v>4536</v>
       </c>
       <c r="Q100" t="n">
-        <v>2059.7</v>
+        <v>2059.6</v>
       </c>
       <c r="R100" t="n">
         <v>648</v>
       </c>
       <c r="S100" t="n">
-        <v>2355.9</v>
+        <v>2355.7</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7714,28 +7714,28 @@
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>26997</v>
+        <v>26996</v>
       </c>
       <c r="M101" t="n">
-        <v>13482</v>
+        <v>13481</v>
       </c>
       <c r="N101" t="n">
-        <v>21395</v>
+        <v>21394</v>
       </c>
       <c r="O101" t="n">
-        <v>16193</v>
+        <v>16192</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2082.4</v>
+        <v>2082.3</v>
       </c>
       <c r="R101" t="n">
         <v>291</v>
       </c>
       <c r="S101" t="n">
-        <v>2349.9</v>
+        <v>2349.7</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7788,13 +7788,13 @@
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23258</v>
+        <v>23257</v>
       </c>
       <c r="M102" t="n">
         <v>10690</v>
       </c>
       <c r="N102" t="n">
-        <v>20559</v>
+        <v>20558</v>
       </c>
       <c r="O102" t="n">
         <v>15651</v>
@@ -7803,13 +7803,13 @@
         <v>-1042</v>
       </c>
       <c r="Q102" t="n">
-        <v>1777.1</v>
+        <v>1777</v>
       </c>
       <c r="R102" t="n">
         <v>225</v>
       </c>
       <c r="S102" t="n">
-        <v>2345.4</v>
+        <v>2345.3</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7862,13 +7862,13 @@
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27082</v>
+        <v>27081</v>
       </c>
       <c r="M103" t="n">
         <v>12261</v>
       </c>
       <c r="N103" t="n">
-        <v>19870</v>
+        <v>19869</v>
       </c>
       <c r="O103" t="n">
         <v>3210</v>
@@ -7936,13 +7936,13 @@
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25872</v>
+        <v>25871</v>
       </c>
       <c r="M104" t="n">
         <v>10994</v>
       </c>
       <c r="N104" t="n">
-        <v>19570</v>
+        <v>19569</v>
       </c>
       <c r="O104" t="n">
         <v>3058</v>
@@ -8010,13 +8010,13 @@
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24250</v>
+        <v>24249</v>
       </c>
       <c r="M105" t="n">
         <v>12218</v>
       </c>
       <c r="N105" t="n">
-        <v>19394</v>
+        <v>19393</v>
       </c>
       <c r="O105" t="n">
         <v>3046</v>
@@ -8084,13 +8084,13 @@
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33116</v>
+        <v>-33117</v>
       </c>
       <c r="M106" t="n">
         <v>-47534</v>
       </c>
       <c r="N106" t="n">
-        <v>46797</v>
+        <v>46796</v>
       </c>
       <c r="O106" t="n">
         <v>30306</v>
@@ -8158,13 +8158,13 @@
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33480</v>
+        <v>-33481</v>
       </c>
       <c r="M107" t="n">
         <v>-48057</v>
       </c>
       <c r="N107" t="n">
-        <v>59872</v>
+        <v>59871</v>
       </c>
       <c r="O107" t="n">
         <v>43423</v>
@@ -8232,13 +8232,13 @@
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33962</v>
+        <v>-33963</v>
       </c>
       <c r="M108" t="n">
         <v>-46402</v>
       </c>
       <c r="N108" t="n">
-        <v>59935</v>
+        <v>59934</v>
       </c>
       <c r="O108" t="n">
         <v>43517</v>
@@ -8723,7 +8723,7 @@
         <v>75</v>
       </c>
       <c r="C115" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" t="n">
         <v>3</v>
@@ -8741,37 +8741,37 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84411</v>
+        <v>84410</v>
       </c>
       <c r="J115" t="n">
-        <v>233057</v>
+        <v>233056</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167227</v>
+        <v>-167228</v>
       </c>
       <c r="M115" t="n">
-        <v>-121175</v>
+        <v>-121176</v>
       </c>
       <c r="N115" t="n">
-        <v>78076</v>
+        <v>78075</v>
       </c>
       <c r="O115" t="n">
-        <v>34313</v>
+        <v>34312</v>
       </c>
       <c r="P115" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q115" t="n">
-        <v>-17260.7</v>
+        <v>-17260.9</v>
       </c>
       <c r="R115" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S115" t="n">
-        <v>4937</v>
+        <v>4936.9</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8797,7 +8797,7 @@
         <v>63</v>
       </c>
       <c r="C116" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -8836,13 +8836,13 @@
         <v>9299</v>
       </c>
       <c r="P116" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q116" t="n">
         <v>-17287.6</v>
       </c>
       <c r="R116" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S116" t="n">
         <v>4943</v>
@@ -9093,7 +9093,7 @@
         <v>66</v>
       </c>
       <c r="C120" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" t="n">
         <v>36</v>
@@ -9111,37 +9111,37 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83906</v>
+        <v>83905</v>
       </c>
       <c r="J120" t="n">
-        <v>235926</v>
+        <v>235925</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
       </c>
       <c r="L120" t="n">
-        <v>-120717</v>
+        <v>-120718</v>
       </c>
       <c r="M120" t="n">
-        <v>-290</v>
+        <v>-291</v>
       </c>
       <c r="N120" t="n">
-        <v>37747</v>
+        <v>37746</v>
       </c>
       <c r="O120" t="n">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="P120" t="n">
-        <v>-1783</v>
+        <v>-1784</v>
       </c>
       <c r="Q120" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="R120" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S120" t="n">
-        <v>577.3</v>
+        <v>577.1</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9185,22 +9185,22 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86290</v>
+        <v>86289</v>
       </c>
       <c r="J121" t="n">
-        <v>236616</v>
+        <v>236615</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
       </c>
       <c r="L121" t="n">
-        <v>-118946</v>
+        <v>-118947</v>
       </c>
       <c r="M121" t="n">
         <v>1879</v>
       </c>
       <c r="N121" t="n">
-        <v>38118</v>
+        <v>38117</v>
       </c>
       <c r="O121" t="n">
         <v>3559</v>
@@ -9209,13 +9209,13 @@
         <v>2384</v>
       </c>
       <c r="Q121" t="n">
-        <v>299.1</v>
+        <v>299</v>
       </c>
       <c r="R121" t="n">
         <v>690</v>
       </c>
       <c r="S121" t="n">
-        <v>554.9</v>
+        <v>554.7</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9259,25 +9259,25 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86431</v>
+        <v>86430</v>
       </c>
       <c r="J122" t="n">
-        <v>236965</v>
+        <v>236964</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119155</v>
+        <v>-119156</v>
       </c>
       <c r="M122" t="n">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="N122" t="n">
-        <v>38221</v>
+        <v>38220</v>
       </c>
       <c r="O122" t="n">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9333,37 +9333,37 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86478</v>
+        <v>86477</v>
       </c>
       <c r="J123" t="n">
-        <v>237231</v>
+        <v>237230</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92592</v>
+        <v>-92593</v>
       </c>
       <c r="M123" t="n">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13185</v>
+        <v>13184</v>
       </c>
       <c r="O123" t="n">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
       </c>
       <c r="Q123" t="n">
-        <v>272.1</v>
+        <v>272</v>
       </c>
       <c r="R123" t="n">
         <v>266</v>
       </c>
       <c r="S123" t="n">
-        <v>555.1</v>
+        <v>555</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9407,37 +9407,37 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86555</v>
+        <v>86554</v>
       </c>
       <c r="J124" t="n">
-        <v>237570</v>
+        <v>237569</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88420</v>
+        <v>-88421</v>
       </c>
       <c r="M124" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="N124" t="n">
-        <v>7284</v>
+        <v>7283</v>
       </c>
       <c r="O124" t="n">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
       </c>
       <c r="Q124" t="n">
-        <v>233.7</v>
+        <v>233.6</v>
       </c>
       <c r="R124" t="n">
         <v>339</v>
       </c>
       <c r="S124" t="n">
-        <v>529.1</v>
+        <v>529</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9481,37 +9481,37 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84734</v>
+        <v>84733</v>
       </c>
       <c r="J125" t="n">
-        <v>238142</v>
+        <v>238141</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90804</v>
+        <v>-90805</v>
       </c>
       <c r="M125" t="n">
-        <v>-955</v>
+        <v>-956</v>
       </c>
       <c r="N125" t="n">
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="O125" t="n">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="P125" t="n">
         <v>-1821</v>
       </c>
       <c r="Q125" t="n">
-        <v>-80.3</v>
+        <v>-80.4</v>
       </c>
       <c r="R125" t="n">
         <v>572</v>
       </c>
       <c r="S125" t="n">
-        <v>515.4</v>
+        <v>515.3</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9555,22 +9555,22 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87065</v>
+        <v>87064</v>
       </c>
       <c r="J126" t="n">
-        <v>238756</v>
+        <v>238755</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="M126" t="n">
         <v>3159</v>
       </c>
       <c r="N126" t="n">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="O126" t="n">
         <v>2830</v>
@@ -9579,13 +9579,13 @@
         <v>2331</v>
       </c>
       <c r="Q126" t="n">
-        <v>196.6</v>
+        <v>196.4</v>
       </c>
       <c r="R126" t="n">
         <v>614</v>
       </c>
       <c r="S126" t="n">
-        <v>498.1</v>
+        <v>498</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9629,22 +9629,22 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94535</v>
+        <v>94534</v>
       </c>
       <c r="J127" t="n">
-        <v>239295</v>
+        <v>239294</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10339</v>
+        <v>10338</v>
       </c>
       <c r="M127" t="n">
         <v>8245</v>
       </c>
       <c r="N127" t="n">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="O127" t="n">
         <v>2679</v>
@@ -9703,10 +9703,10 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97047</v>
+        <v>97046</v>
       </c>
       <c r="J128" t="n">
-        <v>241976</v>
+        <v>241975</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -9777,22 +9777,22 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97039</v>
+        <v>97038</v>
       </c>
       <c r="J129" t="n">
-        <v>242312</v>
+        <v>242311</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12466</v>
+        <v>12465</v>
       </c>
       <c r="M129" t="n">
         <v>10561</v>
       </c>
       <c r="N129" t="n">
-        <v>8967</v>
+        <v>8966</v>
       </c>
       <c r="O129" t="n">
         <v>5081</v>
@@ -9851,22 +9851,22 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97196</v>
+        <v>97195</v>
       </c>
       <c r="J130" t="n">
-        <v>242905</v>
+        <v>242904</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12277</v>
+        <v>12276</v>
       </c>
       <c r="M130" t="n">
         <v>10641</v>
       </c>
       <c r="N130" t="n">
-        <v>9039</v>
+        <v>9038</v>
       </c>
       <c r="O130" t="n">
         <v>5335</v>
@@ -9925,22 +9925,22 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97341</v>
+        <v>97340</v>
       </c>
       <c r="J131" t="n">
-        <v>243213</v>
+        <v>243212</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12045</v>
+        <v>12044</v>
       </c>
       <c r="M131" t="n">
         <v>12607</v>
       </c>
       <c r="N131" t="n">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="O131" t="n">
         <v>5071</v>
@@ -9999,22 +9999,22 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97513</v>
+        <v>97512</v>
       </c>
       <c r="J132" t="n">
-        <v>243620</v>
+        <v>243619</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11824</v>
+        <v>11823</v>
       </c>
       <c r="M132" t="n">
         <v>10448</v>
       </c>
       <c r="N132" t="n">
-        <v>8351</v>
+        <v>8350</v>
       </c>
       <c r="O132" t="n">
         <v>4864</v>
@@ -10073,10 +10073,10 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97719</v>
+        <v>97718</v>
       </c>
       <c r="J133" t="n">
-        <v>244045</v>
+        <v>244044</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -10147,10 +10147,10 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97872</v>
+        <v>97871</v>
       </c>
       <c r="J134" t="n">
-        <v>244457</v>
+        <v>244456</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -10221,10 +10221,10 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98080</v>
+        <v>98079</v>
       </c>
       <c r="J135" t="n">
-        <v>244921</v>
+        <v>244920</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -10295,10 +10295,10 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98137</v>
+        <v>98136</v>
       </c>
       <c r="J136" t="n">
-        <v>245050</v>
+        <v>245049</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -10369,10 +10369,10 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98173</v>
+        <v>98172</v>
       </c>
       <c r="J137" t="n">
-        <v>245149</v>
+        <v>245148</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -10443,10 +10443,10 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98285</v>
+        <v>98284</v>
       </c>
       <c r="J138" t="n">
-        <v>245492</v>
+        <v>245491</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10517,10 +10517,10 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98461</v>
+        <v>98460</v>
       </c>
       <c r="J139" t="n">
-        <v>243662</v>
+        <v>243661</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10591,10 +10591,10 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98601</v>
+        <v>98600</v>
       </c>
       <c r="J140" t="n">
-        <v>243996</v>
+        <v>243995</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10665,10 +10665,10 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98814</v>
+        <v>98813</v>
       </c>
       <c r="J141" t="n">
-        <v>244496</v>
+        <v>244495</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10739,10 +10739,10 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99000</v>
+        <v>98999</v>
       </c>
       <c r="J142" t="n">
-        <v>244872</v>
+        <v>244871</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10813,10 +10813,10 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99083</v>
+        <v>99082</v>
       </c>
       <c r="J143" t="n">
-        <v>245098</v>
+        <v>245097</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10887,10 +10887,10 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99139</v>
+        <v>99138</v>
       </c>
       <c r="J144" t="n">
-        <v>245291</v>
+        <v>245290</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10961,10 +10961,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99262</v>
+        <v>99261</v>
       </c>
       <c r="J145" t="n">
-        <v>245527</v>
+        <v>245526</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99331</v>
+        <v>99330</v>
       </c>
       <c r="J146" t="n">
-        <v>245888</v>
+        <v>245887</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11109,10 +11109,10 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97254</v>
+        <v>97253</v>
       </c>
       <c r="J147" t="n">
-        <v>246212</v>
+        <v>246211</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11183,10 +11183,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99707</v>
+        <v>99706</v>
       </c>
       <c r="J148" t="n">
-        <v>246597</v>
+        <v>246596</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11257,10 +11257,10 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>99995</v>
+        <v>99994</v>
       </c>
       <c r="J149" t="n">
-        <v>247147</v>
+        <v>247146</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11331,10 +11331,10 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97825</v>
+        <v>97824</v>
       </c>
       <c r="J150" t="n">
-        <v>247403</v>
+        <v>247402</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11405,10 +11405,10 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97920</v>
+        <v>97919</v>
       </c>
       <c r="J151" t="n">
-        <v>247597</v>
+        <v>247596</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100414</v>
+        <v>100413</v>
       </c>
       <c r="J152" t="n">
-        <v>247846</v>
+        <v>247845</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11553,10 +11553,10 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100720</v>
+        <v>100719</v>
       </c>
       <c r="J153" t="n">
-        <v>248268</v>
+        <v>248267</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11627,10 +11627,10 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101118</v>
+        <v>101117</v>
       </c>
       <c r="J154" t="n">
-        <v>248688</v>
+        <v>248687</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11701,10 +11701,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101520</v>
+        <v>101519</v>
       </c>
       <c r="J155" t="n">
-        <v>249153</v>
+        <v>249152</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -11775,10 +11775,10 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>101968</v>
+        <v>101967</v>
       </c>
       <c r="J156" t="n">
-        <v>249663</v>
+        <v>249662</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99798</v>
+        <v>99797</v>
       </c>
       <c r="J157" t="n">
-        <v>249868</v>
+        <v>249867</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11923,10 +11923,10 @@
         <v>33772</v>
       </c>
       <c r="I158" t="n">
-        <v>99979</v>
+        <v>99978</v>
       </c>
       <c r="J158" t="n">
-        <v>250025</v>
+        <v>250024</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -11997,10 +11997,10 @@
         <v>33782</v>
       </c>
       <c r="I159" t="n">
-        <v>102616</v>
+        <v>102615</v>
       </c>
       <c r="J159" t="n">
-        <v>250339</v>
+        <v>250338</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
@@ -12071,10 +12071,10 @@
         <v>33798</v>
       </c>
       <c r="I160" t="n">
-        <v>103176</v>
+        <v>103175</v>
       </c>
       <c r="J160" t="n">
-        <v>250951</v>
+        <v>250950</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
@@ -12145,10 +12145,10 @@
         <v>33807</v>
       </c>
       <c r="I161" t="n">
-        <v>103854</v>
+        <v>103853</v>
       </c>
       <c r="J161" t="n">
-        <v>251526</v>
+        <v>251525</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
@@ -12219,10 +12219,10 @@
         <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104626</v>
+        <v>104625</v>
       </c>
       <c r="J162" t="n">
-        <v>252504</v>
+        <v>252503</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
@@ -12278,7 +12278,7 @@
         <v>849</v>
       </c>
       <c r="D163" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E163" t="n">
         <v>198</v>
@@ -12293,19 +12293,19 @@
         <v>33827</v>
       </c>
       <c r="I163" t="n">
-        <v>105631</v>
+        <v>105629</v>
       </c>
       <c r="J163" t="n">
-        <v>253505</v>
+        <v>253504</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>7806</v>
+        <v>7805</v>
       </c>
       <c r="M163" t="n">
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="N163" t="n">
         <v>6102</v>
@@ -12314,10 +12314,10 @@
         <v>3637</v>
       </c>
       <c r="P163" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q163" t="n">
-        <v>523.3</v>
+        <v>523.1</v>
       </c>
       <c r="R163" t="n">
         <v>1001</v>
@@ -12367,19 +12367,19 @@
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103611</v>
+        <v>103609</v>
       </c>
       <c r="J164" t="n">
-        <v>253927</v>
+        <v>253926</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="M164" t="n">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="N164" t="n">
         <v>6330</v>
@@ -12391,7 +12391,7 @@
         <v>-2020</v>
       </c>
       <c r="Q164" t="n">
-        <v>544.7</v>
+        <v>544.6</v>
       </c>
       <c r="R164" t="n">
         <v>422</v>
@@ -12441,19 +12441,19 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110619</v>
+        <v>110617</v>
       </c>
       <c r="J165" t="n">
-        <v>254533</v>
+        <v>254532</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="M165" t="n">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="N165" t="n">
         <v>6687</v>
@@ -12465,7 +12465,7 @@
         <v>7008</v>
       </c>
       <c r="Q165" t="n">
-        <v>1520</v>
+        <v>1519.9</v>
       </c>
       <c r="R165" t="n">
         <v>606</v>
@@ -12515,19 +12515,19 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114022</v>
+        <v>114020</v>
       </c>
       <c r="J166" t="n">
-        <v>255327</v>
+        <v>255326</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="M166" t="n">
-        <v>10846</v>
+        <v>10845</v>
       </c>
       <c r="N166" t="n">
         <v>7059</v>
@@ -12539,7 +12539,7 @@
         <v>3403</v>
       </c>
       <c r="Q166" t="n">
-        <v>1629.4</v>
+        <v>1629.3</v>
       </c>
       <c r="R166" t="n">
         <v>794</v>
@@ -12589,19 +12589,19 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115307</v>
+        <v>115305</v>
       </c>
       <c r="J167" t="n">
-        <v>256467</v>
+        <v>256466</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14189</v>
+        <v>14188</v>
       </c>
       <c r="M167" t="n">
-        <v>11453</v>
+        <v>11452</v>
       </c>
       <c r="N167" t="n">
         <v>7779</v>
@@ -12613,7 +12613,7 @@
         <v>1285</v>
       </c>
       <c r="Q167" t="n">
-        <v>1733</v>
+        <v>1732.9</v>
       </c>
       <c r="R167" t="n">
         <v>1140</v>
@@ -12645,10 +12645,10 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D168" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E168" t="n">
         <v>1591</v>
@@ -12663,37 +12663,37 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109673</v>
+        <v>109669</v>
       </c>
       <c r="J168" t="n">
-        <v>257808</v>
+        <v>257806</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>8153</v>
+        <v>8150</v>
       </c>
       <c r="M168" t="n">
-        <v>5047</v>
+        <v>5044</v>
       </c>
       <c r="N168" t="n">
-        <v>8655</v>
+        <v>8654</v>
       </c>
       <c r="O168" t="n">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="P168" t="n">
-        <v>-5634</v>
+        <v>-5636</v>
       </c>
       <c r="Q168" t="n">
-        <v>831.3</v>
+        <v>830.9</v>
       </c>
       <c r="R168" t="n">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="S168" t="n">
-        <v>897.4</v>
+        <v>897.3</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12737,37 +12737,37 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>110991</v>
+        <v>110987</v>
       </c>
       <c r="J169" t="n">
-        <v>259349</v>
+        <v>259347</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9023</v>
+        <v>9020</v>
       </c>
       <c r="M169" t="n">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="N169" t="n">
-        <v>9686</v>
+        <v>9685</v>
       </c>
       <c r="O169" t="n">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="P169" t="n">
         <v>1318</v>
       </c>
       <c r="Q169" t="n">
-        <v>909.3</v>
+        <v>908.9</v>
       </c>
       <c r="R169" t="n">
         <v>1541</v>
       </c>
       <c r="S169" t="n">
-        <v>977.9</v>
+        <v>977.7</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12793,7 +12793,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D170" t="n">
         <v>456</v>
@@ -12811,37 +12811,37 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116089</v>
+        <v>116084</v>
       </c>
       <c r="J170" t="n">
-        <v>261249</v>
+        <v>261246</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16291</v>
+        <v>16287</v>
       </c>
       <c r="M170" t="n">
-        <v>12478</v>
+        <v>12475</v>
       </c>
       <c r="N170" t="n">
-        <v>11381</v>
+        <v>11379</v>
       </c>
       <c r="O170" t="n">
-        <v>7322</v>
+        <v>7320</v>
       </c>
       <c r="P170" t="n">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="Q170" t="n">
-        <v>1494</v>
+        <v>1493.6</v>
       </c>
       <c r="R170" t="n">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="S170" t="n">
-        <v>1106.3</v>
+        <v>1106</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12885,37 +12885,37 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114398</v>
+        <v>114393</v>
       </c>
       <c r="J171" t="n">
-        <v>262538</v>
+        <v>262535</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>14419</v>
+        <v>14415</v>
       </c>
       <c r="M171" t="n">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="N171" t="n">
-        <v>12513</v>
+        <v>12511</v>
       </c>
       <c r="O171" t="n">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="P171" t="n">
         <v>-1691</v>
       </c>
       <c r="Q171" t="n">
-        <v>1541</v>
+        <v>1540.6</v>
       </c>
       <c r="R171" t="n">
         <v>1289</v>
       </c>
       <c r="S171" t="n">
-        <v>1230.1</v>
+        <v>1229.9</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12959,37 +12959,37 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123299</v>
+        <v>123294</v>
       </c>
       <c r="J172" t="n">
-        <v>263584</v>
+        <v>263581</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>20683</v>
+        <v>20679</v>
       </c>
       <c r="M172" t="n">
-        <v>9277</v>
+        <v>9274</v>
       </c>
       <c r="N172" t="n">
-        <v>13245</v>
+        <v>13243</v>
       </c>
       <c r="O172" t="n">
-        <v>8257</v>
+        <v>8255</v>
       </c>
       <c r="P172" t="n">
         <v>8901</v>
       </c>
       <c r="Q172" t="n">
-        <v>1811.4</v>
+        <v>1811</v>
       </c>
       <c r="R172" t="n">
         <v>1046</v>
       </c>
       <c r="S172" t="n">
-        <v>1293</v>
+        <v>1292.7</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13015,7 +13015,7 @@
         <v>61</v>
       </c>
       <c r="C173" t="n">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D173" t="n">
         <v>306</v>
@@ -13033,37 +13033,37 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127452</v>
+        <v>127448</v>
       </c>
       <c r="J173" t="n">
-        <v>265296</v>
+        <v>265294</v>
       </c>
       <c r="K173" t="n">
         <v>65273</v>
       </c>
       <c r="L173" t="n">
-        <v>24276</v>
+        <v>24273</v>
       </c>
       <c r="M173" t="n">
-        <v>12145</v>
+        <v>12143</v>
       </c>
       <c r="N173" t="n">
-        <v>14345</v>
+        <v>14344</v>
       </c>
       <c r="O173" t="n">
-        <v>8829</v>
+        <v>8828</v>
       </c>
       <c r="P173" t="n">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="Q173" t="n">
-        <v>1918.6</v>
+        <v>1918.3</v>
       </c>
       <c r="R173" t="n">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="S173" t="n">
-        <v>1424.1</v>
+        <v>1424</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13107,22 +13107,22 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129212</v>
+        <v>129208</v>
       </c>
       <c r="J174" t="n">
-        <v>267548</v>
+        <v>267546</v>
       </c>
       <c r="K174" t="n">
         <v>63702</v>
       </c>
       <c r="L174" t="n">
-        <v>25358</v>
+        <v>25355</v>
       </c>
       <c r="M174" t="n">
         <v>19539</v>
       </c>
       <c r="N174" t="n">
-        <v>16022</v>
+        <v>16021</v>
       </c>
       <c r="O174" t="n">
         <v>9740</v>
@@ -13131,13 +13131,13 @@
         <v>1760</v>
       </c>
       <c r="Q174" t="n">
-        <v>1986.4</v>
+        <v>1986.1</v>
       </c>
       <c r="R174" t="n">
         <v>2252</v>
       </c>
       <c r="S174" t="n">
-        <v>1583</v>
+        <v>1582.9</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13181,22 +13181,22 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131478</v>
+        <v>131474</v>
       </c>
       <c r="J175" t="n">
-        <v>269786</v>
+        <v>269784</v>
       </c>
       <c r="K175" t="n">
         <v>71182</v>
       </c>
       <c r="L175" t="n">
-        <v>26852</v>
+        <v>26849</v>
       </c>
       <c r="M175" t="n">
         <v>20487</v>
       </c>
       <c r="N175" t="n">
-        <v>17282</v>
+        <v>17281</v>
       </c>
       <c r="O175" t="n">
         <v>10437</v>
@@ -13255,25 +13255,25 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133389</v>
+        <v>133385</v>
       </c>
       <c r="J176" t="n">
-        <v>271952</v>
+        <v>271950</v>
       </c>
       <c r="K176" t="n">
         <v>63993</v>
       </c>
       <c r="L176" t="n">
-        <v>27758</v>
+        <v>27756</v>
       </c>
       <c r="M176" t="n">
-        <v>17300</v>
+        <v>17301</v>
       </c>
       <c r="N176" t="n">
-        <v>18447</v>
+        <v>18446</v>
       </c>
       <c r="O176" t="n">
-        <v>10703</v>
+        <v>10704</v>
       </c>
       <c r="P176" t="n">
         <v>1911</v>
@@ -13311,7 +13311,7 @@
         <v>44</v>
       </c>
       <c r="C177" t="n">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D177" t="n">
         <v>199</v>
@@ -13329,37 +13329,37 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125382</v>
+        <v>125379</v>
       </c>
       <c r="J177" t="n">
-        <v>274549</v>
+        <v>274548</v>
       </c>
       <c r="K177" t="n">
         <v>66390</v>
       </c>
       <c r="L177" t="n">
-        <v>21771</v>
+        <v>21770</v>
       </c>
       <c r="M177" t="n">
-        <v>10984</v>
+        <v>10986</v>
       </c>
       <c r="N177" t="n">
         <v>20622</v>
       </c>
       <c r="O177" t="n">
-        <v>12011</v>
+        <v>12013</v>
       </c>
       <c r="P177" t="n">
-        <v>-8007</v>
+        <v>-8006</v>
       </c>
       <c r="Q177" t="n">
-        <v>1327.6</v>
+        <v>1327.9</v>
       </c>
       <c r="R177" t="n">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="S177" t="n">
-        <v>1900</v>
+        <v>1900.3</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13403,37 +13403,37 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104384</v>
+        <v>104381</v>
       </c>
       <c r="J178" t="n">
-        <v>276026</v>
+        <v>276025</v>
       </c>
       <c r="K178" t="n">
         <v>37038</v>
       </c>
       <c r="L178" t="n">
-        <v>-6235</v>
+        <v>-6236</v>
       </c>
       <c r="M178" t="n">
-        <v>-18915</v>
+        <v>-18913</v>
       </c>
       <c r="N178" t="n">
         <v>21493</v>
       </c>
       <c r="O178" t="n">
-        <v>12442</v>
+        <v>12444</v>
       </c>
       <c r="P178" t="n">
         <v>-20998</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1430.6</v>
+        <v>-1430.3</v>
       </c>
       <c r="R178" t="n">
         <v>1477</v>
       </c>
       <c r="S178" t="n">
-        <v>1926.9</v>
+        <v>1927.1</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13459,7 +13459,7 @@
         <v>22</v>
       </c>
       <c r="C179" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D179" t="n">
         <v>63423</v>
@@ -13477,7 +13477,7 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115716</v>
+        <v>115714</v>
       </c>
       <c r="J179" t="n">
         <v>277355</v>
@@ -13489,25 +13489,25 @@
         <v>1694</v>
       </c>
       <c r="M179" t="n">
-        <v>-11736</v>
+        <v>-11734</v>
       </c>
       <c r="N179" t="n">
-        <v>22028</v>
+        <v>22029</v>
       </c>
       <c r="O179" t="n">
-        <v>12059</v>
+        <v>12061</v>
       </c>
       <c r="P179" t="n">
-        <v>11332</v>
+        <v>11333</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1083.3</v>
+        <v>-1082.9</v>
       </c>
       <c r="R179" t="n">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="S179" t="n">
-        <v>1967.3</v>
+        <v>1967.7</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13551,7 +13551,7 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115708</v>
+        <v>115706</v>
       </c>
       <c r="J180" t="n">
         <v>279434</v>
@@ -13563,25 +13563,25 @@
         <v>401</v>
       </c>
       <c r="M180" t="n">
-        <v>-13504</v>
+        <v>-13502</v>
       </c>
       <c r="N180" t="n">
-        <v>22967</v>
+        <v>22968</v>
       </c>
       <c r="O180" t="n">
-        <v>11886</v>
+        <v>11888</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1677.7</v>
+        <v>-1677.4</v>
       </c>
       <c r="R180" t="n">
         <v>2079</v>
       </c>
       <c r="S180" t="n">
-        <v>2019.7</v>
+        <v>2020</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13625,7 +13625,7 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110025</v>
+        <v>110023</v>
       </c>
       <c r="J181" t="n">
         <v>282176</v>
@@ -13634,28 +13634,28 @@
         <v>66832</v>
       </c>
       <c r="L181" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M181" t="n">
-        <v>-21453</v>
+        <v>-21451</v>
       </c>
       <c r="N181" t="n">
-        <v>24368</v>
+        <v>24370</v>
       </c>
       <c r="O181" t="n">
-        <v>12390</v>
+        <v>12392</v>
       </c>
       <c r="P181" t="n">
         <v>-5683</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2741</v>
+        <v>-2740.7</v>
       </c>
       <c r="R181" t="n">
         <v>2742</v>
       </c>
       <c r="S181" t="n">
-        <v>2089.7</v>
+        <v>2090</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D182" t="n">
         <v>63776</v>
@@ -13699,37 +13699,37 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123579</v>
+        <v>123578</v>
       </c>
       <c r="J182" t="n">
-        <v>284938</v>
+        <v>284939</v>
       </c>
       <c r="K182" t="n">
         <v>72283</v>
       </c>
       <c r="L182" t="n">
-        <v>12588</v>
+        <v>12591</v>
       </c>
       <c r="M182" t="n">
-        <v>-9810</v>
+        <v>-9807</v>
       </c>
       <c r="N182" t="n">
-        <v>25589</v>
+        <v>25592</v>
       </c>
       <c r="O182" t="n">
-        <v>12986</v>
+        <v>12989</v>
       </c>
       <c r="P182" t="n">
-        <v>13554</v>
+        <v>13555</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1128.4</v>
+        <v>-1128</v>
       </c>
       <c r="R182" t="n">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="S182" t="n">
-        <v>2164.6</v>
+        <v>2165</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13773,37 +13773,37 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113115</v>
+        <v>113114</v>
       </c>
       <c r="J183" t="n">
-        <v>290648</v>
+        <v>290649</v>
       </c>
       <c r="K183" t="n">
         <v>67291</v>
       </c>
       <c r="L183" t="n">
-        <v>-2974</v>
+        <v>-2970</v>
       </c>
       <c r="M183" t="n">
-        <v>-12267</v>
+        <v>-12265</v>
       </c>
       <c r="N183" t="n">
-        <v>29399</v>
+        <v>29403</v>
       </c>
       <c r="O183" t="n">
-        <v>16099</v>
+        <v>16101</v>
       </c>
       <c r="P183" t="n">
         <v>-10464</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2896.3</v>
+        <v>-2895.9</v>
       </c>
       <c r="R183" t="n">
         <v>5710</v>
       </c>
       <c r="S183" t="n">
-        <v>2670.9</v>
+        <v>2671.3</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13847,37 +13847,37 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114759</v>
+        <v>114758</v>
       </c>
       <c r="J184" t="n">
-        <v>294163</v>
+        <v>294164</v>
       </c>
       <c r="K184" t="n">
         <v>67449</v>
       </c>
       <c r="L184" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M184" t="n">
-        <v>10375</v>
+        <v>10377</v>
       </c>
       <c r="N184" t="n">
-        <v>31625</v>
+        <v>31629</v>
       </c>
       <c r="O184" t="n">
-        <v>18137</v>
+        <v>18139</v>
       </c>
       <c r="P184" t="n">
         <v>1644</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1517.6</v>
+        <v>-1517.3</v>
       </c>
       <c r="R184" t="n">
         <v>3515</v>
       </c>
       <c r="S184" t="n">
-        <v>2802</v>
+        <v>2802.3</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13921,37 +13921,37 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110208</v>
+        <v>110207</v>
       </c>
       <c r="J185" t="n">
-        <v>296936</v>
+        <v>296937</v>
       </c>
       <c r="K185" t="n">
         <v>31834</v>
       </c>
       <c r="L185" t="n">
-        <v>-13091</v>
+        <v>-13087</v>
       </c>
       <c r="M185" t="n">
-        <v>-5508</v>
+        <v>-5507</v>
       </c>
       <c r="N185" t="n">
-        <v>33352</v>
+        <v>33356</v>
       </c>
       <c r="O185" t="n">
-        <v>19581</v>
+        <v>19582</v>
       </c>
       <c r="P185" t="n">
         <v>-4551</v>
       </c>
       <c r="Q185" t="n">
-        <v>832</v>
+        <v>832.3</v>
       </c>
       <c r="R185" t="n">
         <v>2773</v>
       </c>
       <c r="S185" t="n">
-        <v>2987.1</v>
+        <v>2987.4</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13995,37 +13995,37 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123735</v>
+        <v>123734</v>
       </c>
       <c r="J186" t="n">
-        <v>298491</v>
+        <v>298492</v>
       </c>
       <c r="K186" t="n">
         <v>39603</v>
       </c>
       <c r="L186" t="n">
-        <v>-3717</v>
+        <v>-3714</v>
       </c>
       <c r="M186" t="n">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="N186" t="n">
-        <v>33195</v>
+        <v>33198</v>
       </c>
       <c r="O186" t="n">
-        <v>19057</v>
+        <v>19058</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
       </c>
       <c r="Q186" t="n">
-        <v>1145.6</v>
+        <v>1145.7</v>
       </c>
       <c r="R186" t="n">
         <v>1555</v>
       </c>
       <c r="S186" t="n">
-        <v>3019.4</v>
+        <v>3019.6</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14069,37 +14069,37 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132177</v>
+        <v>132176</v>
       </c>
       <c r="J187" t="n">
-        <v>301393</v>
+        <v>301394</v>
       </c>
       <c r="K187" t="n">
         <v>73439</v>
       </c>
       <c r="L187" t="n">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="M187" t="n">
-        <v>22152</v>
+        <v>22153</v>
       </c>
       <c r="N187" t="n">
-        <v>33845</v>
+        <v>33848</v>
       </c>
       <c r="O187" t="n">
-        <v>19217</v>
+        <v>19218</v>
       </c>
       <c r="P187" t="n">
         <v>8442</v>
       </c>
       <c r="Q187" t="n">
-        <v>2352.7</v>
+        <v>2352.9</v>
       </c>
       <c r="R187" t="n">
         <v>2902</v>
       </c>
       <c r="S187" t="n">
-        <v>3137</v>
+        <v>3137.1</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14125,7 +14125,7 @@
         <v>330</v>
       </c>
       <c r="C188" t="n">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D188" t="n">
         <v>63953</v>
@@ -14146,34 +14146,34 @@
         <v>134098</v>
       </c>
       <c r="J188" t="n">
-        <v>305337</v>
+        <v>305339</v>
       </c>
       <c r="K188" t="n">
         <v>73686</v>
       </c>
       <c r="L188" t="n">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="M188" t="n">
-        <v>10519</v>
+        <v>10520</v>
       </c>
       <c r="N188" t="n">
-        <v>35551</v>
+        <v>35555</v>
       </c>
       <c r="O188" t="n">
-        <v>20399</v>
+        <v>20400</v>
       </c>
       <c r="P188" t="n">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="Q188" t="n">
-        <v>3439</v>
+        <v>3439.3</v>
       </c>
       <c r="R188" t="n">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="S188" t="n">
-        <v>3308.7</v>
+        <v>3309</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14199,7 +14199,7 @@
         <v>230</v>
       </c>
       <c r="C189" t="n">
-        <v>2321</v>
+        <v>2358</v>
       </c>
       <c r="D189" t="n">
         <v>63930</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136055</v>
+        <v>136092</v>
       </c>
       <c r="J189" t="n">
-        <v>309118</v>
+        <v>309157</v>
       </c>
       <c r="K189" t="n">
         <v>74403</v>
       </c>
       <c r="L189" t="n">
-        <v>2666</v>
+        <v>2707</v>
       </c>
       <c r="M189" t="n">
-        <v>22940</v>
+        <v>22978</v>
       </c>
       <c r="N189" t="n">
-        <v>37166</v>
+        <v>37207</v>
       </c>
       <c r="O189" t="n">
-        <v>18470</v>
+        <v>18508</v>
       </c>
       <c r="P189" t="n">
-        <v>1957</v>
+        <v>1994</v>
       </c>
       <c r="Q189" t="n">
-        <v>1782.3</v>
+        <v>1787.7</v>
       </c>
       <c r="R189" t="n">
-        <v>3781</v>
+        <v>3818</v>
       </c>
       <c r="S189" t="n">
-        <v>3454.3</v>
+        <v>3459.7</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14273,7 +14273,7 @@
         <v>349</v>
       </c>
       <c r="C190" t="n">
-        <v>2611</v>
+        <v>2687</v>
       </c>
       <c r="D190" t="n">
         <v>63975</v>
@@ -14291,37 +14291,37 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138087</v>
+        <v>138200</v>
       </c>
       <c r="J190" t="n">
-        <v>313494</v>
+        <v>313609</v>
       </c>
       <c r="K190" t="n">
         <v>74743</v>
       </c>
       <c r="L190" t="n">
-        <v>12705</v>
+        <v>12821</v>
       </c>
       <c r="M190" t="n">
-        <v>23328</v>
+        <v>23442</v>
       </c>
       <c r="N190" t="n">
-        <v>38945</v>
+        <v>39061</v>
       </c>
       <c r="O190" t="n">
-        <v>19331</v>
+        <v>19445</v>
       </c>
       <c r="P190" t="n">
-        <v>2032</v>
+        <v>2108</v>
       </c>
       <c r="Q190" t="n">
-        <v>3567.4</v>
+        <v>3583.7</v>
       </c>
       <c r="R190" t="n">
-        <v>4376</v>
+        <v>4452</v>
       </c>
       <c r="S190" t="n">
-        <v>3263.7</v>
+        <v>3280</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14347,7 +14347,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>2846</v>
+        <v>2883</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -14365,37 +14365,37 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122597</v>
+        <v>122747</v>
       </c>
       <c r="J191" t="n">
-        <v>318629</v>
+        <v>318781</v>
       </c>
       <c r="K191" t="n">
         <v>68675</v>
       </c>
       <c r="L191" t="n">
-        <v>18213</v>
+        <v>18366</v>
       </c>
       <c r="M191" t="n">
-        <v>12389</v>
+        <v>12540</v>
       </c>
       <c r="N191" t="n">
-        <v>42603</v>
+        <v>42756</v>
       </c>
       <c r="O191" t="n">
-        <v>21693</v>
+        <v>21844</v>
       </c>
       <c r="P191" t="n">
-        <v>-15490</v>
+        <v>-15453</v>
       </c>
       <c r="Q191" t="n">
-        <v>1119.7</v>
+        <v>1141.3</v>
       </c>
       <c r="R191" t="n">
-        <v>5135</v>
+        <v>5172</v>
       </c>
       <c r="S191" t="n">
-        <v>3495.1</v>
+        <v>3516.7</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14439,37 +14439,37 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120532</v>
+        <v>120682</v>
       </c>
       <c r="J192" t="n">
-        <v>321507</v>
+        <v>321659</v>
       </c>
       <c r="K192" t="n">
         <v>34613</v>
       </c>
       <c r="L192" t="n">
-        <v>4816</v>
+        <v>4968</v>
       </c>
       <c r="M192" t="n">
-        <v>-3203</v>
+        <v>-3052</v>
       </c>
       <c r="N192" t="n">
-        <v>44152</v>
+        <v>44304</v>
       </c>
       <c r="O192" t="n">
-        <v>23016</v>
+        <v>23167</v>
       </c>
       <c r="P192" t="n">
         <v>-2065</v>
       </c>
       <c r="Q192" t="n">
-        <v>1474.9</v>
+        <v>1496.4</v>
       </c>
       <c r="R192" t="n">
         <v>2878</v>
       </c>
       <c r="S192" t="n">
-        <v>3510.1</v>
+        <v>3531.7</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14513,37 +14513,37 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139298</v>
+        <v>139448</v>
       </c>
       <c r="J193" t="n">
-        <v>323505</v>
+        <v>323657</v>
       </c>
       <c r="K193" t="n">
         <v>41061</v>
       </c>
       <c r="L193" t="n">
-        <v>23590</v>
+        <v>23742</v>
       </c>
       <c r="M193" t="n">
-        <v>7121</v>
+        <v>7272</v>
       </c>
       <c r="N193" t="n">
-        <v>44071</v>
+        <v>44223</v>
       </c>
       <c r="O193" t="n">
-        <v>22112</v>
+        <v>22263</v>
       </c>
       <c r="P193" t="n">
         <v>18766</v>
       </c>
       <c r="Q193" t="n">
-        <v>2223.3</v>
+        <v>2244.9</v>
       </c>
       <c r="R193" t="n">
         <v>1998</v>
       </c>
       <c r="S193" t="n">
-        <v>3573.4</v>
+        <v>3595</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14569,7 +14569,7 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>2992</v>
+        <v>2999</v>
       </c>
       <c r="D194" t="n">
         <v>48</v>
@@ -14587,37 +14587,37 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>139754</v>
+        <v>139911</v>
       </c>
       <c r="J194" t="n">
-        <v>327473</v>
+        <v>327632</v>
       </c>
       <c r="K194" t="n">
         <v>65579</v>
       </c>
       <c r="L194" t="n">
-        <v>29729</v>
+        <v>29888</v>
       </c>
       <c r="M194" t="n">
-        <v>5656</v>
+        <v>5813</v>
       </c>
       <c r="N194" t="n">
-        <v>45297</v>
+        <v>45456</v>
       </c>
       <c r="O194" t="n">
-        <v>22136</v>
+        <v>22293</v>
       </c>
       <c r="P194" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q194" t="n">
-        <v>1082.4</v>
+        <v>1105</v>
       </c>
       <c r="R194" t="n">
-        <v>3968</v>
+        <v>3975</v>
       </c>
       <c r="S194" t="n">
-        <v>3725.7</v>
+        <v>3748.3</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14661,37 +14661,37 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146422</v>
+        <v>146579</v>
       </c>
       <c r="J195" t="n">
-        <v>333030</v>
+        <v>333189</v>
       </c>
       <c r="K195" t="n">
         <v>69652</v>
       </c>
       <c r="L195" t="n">
-        <v>22843</v>
+        <v>23001</v>
       </c>
       <c r="M195" t="n">
-        <v>10367</v>
+        <v>10487</v>
       </c>
       <c r="N195" t="n">
-        <v>48092</v>
+        <v>48250</v>
       </c>
       <c r="O195" t="n">
-        <v>23912</v>
+        <v>24032</v>
       </c>
       <c r="P195" t="n">
         <v>6668</v>
       </c>
       <c r="Q195" t="n">
-        <v>1760.6</v>
+        <v>1783</v>
       </c>
       <c r="R195" t="n">
         <v>5557</v>
       </c>
       <c r="S195" t="n">
-        <v>3956.1</v>
+        <v>3978.6</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>148553</v>
+        <v>148715</v>
       </c>
       <c r="J196" t="n">
-        <v>338417</v>
+        <v>338581</v>
       </c>
       <c r="K196" t="n">
         <v>70569</v>
       </c>
       <c r="L196" t="n">
-        <v>35438</v>
+        <v>35601</v>
       </c>
       <c r="M196" t="n">
-        <v>10466</v>
+        <v>10515</v>
       </c>
       <c r="N196" t="n">
-        <v>47769</v>
+        <v>47932</v>
       </c>
       <c r="O196" t="n">
-        <v>24923</v>
+        <v>24972</v>
       </c>
       <c r="P196" t="n">
-        <v>2131</v>
+        <v>2136</v>
       </c>
       <c r="Q196" t="n">
-        <v>1785.4</v>
+        <v>1803.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5387</v>
+        <v>5392</v>
       </c>
       <c r="S196" t="n">
-        <v>4185.6</v>
+        <v>4203.4</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3036</v>
+        <v>3044</v>
       </c>
       <c r="D197" t="n">
         <v>64225</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>150831</v>
+        <v>151001</v>
       </c>
       <c r="J197" t="n">
-        <v>344430</v>
+        <v>344602</v>
       </c>
       <c r="K197" t="n">
         <v>71202</v>
       </c>
       <c r="L197" t="n">
-        <v>36072</v>
+        <v>36243</v>
       </c>
       <c r="M197" t="n">
-        <v>28234</v>
+        <v>28254</v>
       </c>
       <c r="N197" t="n">
-        <v>50267</v>
+        <v>50438</v>
       </c>
       <c r="O197" t="n">
-        <v>25801</v>
+        <v>25821</v>
       </c>
       <c r="P197" t="n">
-        <v>2278</v>
+        <v>2286</v>
       </c>
       <c r="Q197" t="n">
-        <v>1820.6</v>
+        <v>1828.7</v>
       </c>
       <c r="R197" t="n">
-        <v>6013</v>
+        <v>6021</v>
       </c>
       <c r="S197" t="n">
-        <v>4419.4</v>
+        <v>4427.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>132468</v>
+        <v>132640</v>
       </c>
       <c r="J198" t="n">
-        <v>351339</v>
+        <v>351513</v>
       </c>
       <c r="K198" t="n">
         <v>63953</v>
       </c>
       <c r="L198" t="n">
-        <v>22260</v>
+        <v>22433</v>
       </c>
       <c r="M198" t="n">
-        <v>11936</v>
+        <v>11958</v>
       </c>
       <c r="N198" t="n">
-        <v>54403</v>
+        <v>54576</v>
       </c>
       <c r="O198" t="n">
-        <v>29832</v>
+        <v>29854</v>
       </c>
       <c r="P198" t="n">
-        <v>-18363</v>
+        <v>-18361</v>
       </c>
       <c r="Q198" t="n">
-        <v>1410.1</v>
+        <v>1413.3</v>
       </c>
       <c r="R198" t="n">
-        <v>6909</v>
+        <v>6911</v>
       </c>
       <c r="S198" t="n">
-        <v>4672.9</v>
+        <v>4676</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14954,55 +14954,55 @@
         <v>252</v>
       </c>
       <c r="H199" t="n">
-        <v>34392</v>
+        <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>129326</v>
+        <v>129498</v>
       </c>
       <c r="J199" t="n">
-        <v>355246</v>
+        <v>355420</v>
       </c>
       <c r="K199" t="n">
         <v>35129</v>
       </c>
       <c r="L199" t="n">
-        <v>5591</v>
+        <v>5764</v>
       </c>
       <c r="M199" t="n">
-        <v>-9972</v>
+        <v>-9950</v>
       </c>
       <c r="N199" t="n">
-        <v>56755</v>
+        <v>56928</v>
       </c>
       <c r="O199" t="n">
-        <v>31741</v>
+        <v>31763</v>
       </c>
       <c r="P199" t="n">
         <v>-3142</v>
       </c>
       <c r="Q199" t="n">
-        <v>1256.3</v>
+        <v>1259.4</v>
       </c>
       <c r="R199" t="n">
         <v>3907</v>
       </c>
       <c r="S199" t="n">
-        <v>4819.9</v>
+        <v>4823</v>
       </c>
       <c r="T199" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="W199" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="X199" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200">
@@ -15028,40 +15028,40 @@
         <v>273</v>
       </c>
       <c r="H200" t="n">
-        <v>34404</v>
+        <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130128</v>
+        <v>130300</v>
       </c>
       <c r="J200" t="n">
-        <v>357495</v>
+        <v>357669</v>
       </c>
       <c r="K200" t="n">
         <v>35293</v>
       </c>
       <c r="L200" t="n">
-        <v>-2049</v>
+        <v>-1876</v>
       </c>
       <c r="M200" t="n">
-        <v>-9626</v>
+        <v>-9611</v>
       </c>
       <c r="N200" t="n">
-        <v>56102</v>
+        <v>56275</v>
       </c>
       <c r="O200" t="n">
-        <v>30022</v>
+        <v>30037</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1310</v>
+        <v>-1306.9</v>
       </c>
       <c r="R200" t="n">
         <v>2249</v>
       </c>
       <c r="S200" t="n">
-        <v>4855.7</v>
+        <v>4858.9</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15070,13 +15070,13 @@
         <v>0</v>
       </c>
       <c r="V200" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="W200" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="X200" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
@@ -15087,7 +15087,7 @@
         <v>415</v>
       </c>
       <c r="C201" t="n">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15102,40 +15102,40 @@
         <v>444</v>
       </c>
       <c r="H201" t="n">
-        <v>33942</v>
+        <v>33943</v>
       </c>
       <c r="I201" t="n">
-        <v>158161</v>
+        <v>158332</v>
       </c>
       <c r="J201" t="n">
-        <v>358699</v>
+        <v>358872</v>
       </c>
       <c r="K201" t="n">
         <v>69386</v>
       </c>
       <c r="L201" t="n">
-        <v>24063</v>
+        <v>24234</v>
       </c>
       <c r="M201" t="n">
-        <v>11739</v>
+        <v>11753</v>
       </c>
       <c r="N201" t="n">
-        <v>53362</v>
+        <v>53533</v>
       </c>
       <c r="O201" t="n">
-        <v>25669</v>
+        <v>25683</v>
       </c>
       <c r="P201" t="n">
-        <v>28033</v>
+        <v>28032</v>
       </c>
       <c r="Q201" t="n">
-        <v>2629.6</v>
+        <v>2631.6</v>
       </c>
       <c r="R201" t="n">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="S201" t="n">
-        <v>4460.9</v>
+        <v>4462.9</v>
       </c>
       <c r="T201" t="n">
         <v>-462</v>
@@ -15144,13 +15144,13 @@
         <v>-1.3</v>
       </c>
       <c r="V201" t="n">
-        <v>-145.3</v>
+        <v>-145</v>
       </c>
       <c r="W201" t="n">
-        <v>-46</v>
+        <v>-45.9</v>
       </c>
       <c r="X201" t="n">
-        <v>-322</v>
+        <v>-321</v>
       </c>
     </row>
     <row r="202">
@@ -15161,7 +15161,7 @@
         <v>912</v>
       </c>
       <c r="C202" t="n">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="D202" t="n">
         <v>64396</v>
@@ -15176,55 +15176,55 @@
         <v>456</v>
       </c>
       <c r="H202" t="n">
-        <v>33982</v>
+        <v>33987</v>
       </c>
       <c r="I202" t="n">
-        <v>160607</v>
+        <v>160786</v>
       </c>
       <c r="J202" t="n">
-        <v>365782</v>
+        <v>365963</v>
       </c>
       <c r="K202" t="n">
         <v>70460</v>
       </c>
       <c r="L202" t="n">
-        <v>24552</v>
+        <v>24694</v>
       </c>
       <c r="M202" t="n">
-        <v>12054</v>
+        <v>12071</v>
       </c>
       <c r="N202" t="n">
-        <v>56664</v>
+        <v>56806</v>
       </c>
       <c r="O202" t="n">
-        <v>27365</v>
+        <v>27382</v>
       </c>
       <c r="P202" t="n">
-        <v>2446</v>
+        <v>2454</v>
       </c>
       <c r="Q202" t="n">
-        <v>2026.4</v>
+        <v>2029.6</v>
       </c>
       <c r="R202" t="n">
-        <v>7083</v>
+        <v>7091</v>
       </c>
       <c r="S202" t="n">
-        <v>4678.9</v>
+        <v>4682</v>
       </c>
       <c r="T202" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U202" t="n">
         <v>0.1</v>
       </c>
       <c r="V202" t="n">
-        <v>-136.7</v>
+        <v>-135.3</v>
       </c>
       <c r="W202" t="n">
-        <v>-44.9</v>
+        <v>-44.1</v>
       </c>
       <c r="X202" t="n">
-        <v>-314</v>
+        <v>-309</v>
       </c>
     </row>
     <row r="203">
@@ -15235,7 +15235,7 @@
         <v>670</v>
       </c>
       <c r="C203" t="n">
-        <v>3122</v>
+        <v>3181</v>
       </c>
       <c r="D203" t="n">
         <v>64476</v>
@@ -15244,61 +15244,61 @@
         <v>14913</v>
       </c>
       <c r="F203" t="n">
-        <v>3817</v>
+        <v>3823</v>
       </c>
       <c r="G203" t="n">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="H203" t="n">
-        <v>34009</v>
+        <v>34026</v>
       </c>
       <c r="I203" t="n">
-        <v>163221</v>
+        <v>163459</v>
       </c>
       <c r="J203" t="n">
-        <v>372440</v>
+        <v>372680</v>
       </c>
       <c r="K203" t="n">
         <v>67997</v>
       </c>
       <c r="L203" t="n">
-        <v>25134</v>
+        <v>25259</v>
       </c>
       <c r="M203" t="n">
-        <v>12390</v>
+        <v>12458</v>
       </c>
       <c r="N203" t="n">
-        <v>58946</v>
+        <v>59071</v>
       </c>
       <c r="O203" t="n">
-        <v>28010</v>
+        <v>28078</v>
       </c>
       <c r="P203" t="n">
-        <v>2614</v>
+        <v>2673</v>
       </c>
       <c r="Q203" t="n">
-        <v>2095.4</v>
+        <v>2106.3</v>
       </c>
       <c r="R203" t="n">
-        <v>6658</v>
+        <v>6717</v>
       </c>
       <c r="S203" t="n">
-        <v>4860.4</v>
+        <v>4871.3</v>
       </c>
       <c r="T203" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="U203" t="n">
         <v>0.1</v>
       </c>
       <c r="V203" t="n">
-        <v>-131.7</v>
+        <v>-126.3</v>
       </c>
       <c r="W203" t="n">
-        <v>-45.4</v>
+        <v>-43</v>
       </c>
       <c r="X203" t="n">
-        <v>-318</v>
+        <v>-301</v>
       </c>
     </row>
     <row r="204">
@@ -15309,7 +15309,7 @@
         <v>781</v>
       </c>
       <c r="C204" t="n">
-        <v>2562</v>
+        <v>3568</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
@@ -15318,61 +15318,61 @@
         <v>3160</v>
       </c>
       <c r="F204" t="n">
-        <v>3841</v>
+        <v>3949</v>
       </c>
       <c r="G204" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H204" t="n">
-        <v>30922</v>
+        <v>34038</v>
       </c>
       <c r="I204" t="n">
-        <v>141458</v>
+        <v>142359</v>
       </c>
       <c r="J204" t="n">
-        <v>355955</v>
+        <v>378603</v>
       </c>
       <c r="K204" t="n">
         <v>58318</v>
       </c>
       <c r="L204" t="n">
-        <v>18861</v>
+        <v>19612</v>
       </c>
       <c r="M204" t="n">
-        <v>8990</v>
+        <v>9719</v>
       </c>
       <c r="N204" t="n">
-        <v>37326</v>
+        <v>59822</v>
       </c>
       <c r="O204" t="n">
-        <v>4616</v>
+        <v>27090</v>
       </c>
       <c r="P204" t="n">
-        <v>-21763</v>
+        <v>-21100</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1339</v>
+        <v>-1234.6</v>
       </c>
       <c r="R204" t="n">
-        <v>-16485</v>
+        <v>5923</v>
       </c>
       <c r="S204" t="n">
-        <v>1646.4</v>
+        <v>4857.3</v>
       </c>
       <c r="T204" t="n">
-        <v>-3087</v>
+        <v>12</v>
       </c>
       <c r="U204" t="n">
-        <v>-9.1</v>
+        <v>0</v>
       </c>
       <c r="V204" t="n">
-        <v>-1006.7</v>
+        <v>31.7</v>
       </c>
       <c r="W204" t="n">
-        <v>-490.1</v>
+        <v>-45</v>
       </c>
       <c r="X204" t="n">
-        <v>-3431</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="205">
@@ -15383,70 +15383,218 @@
         <v>831</v>
       </c>
       <c r="C205" t="n">
-        <v>1590</v>
+        <v>2884</v>
       </c>
       <c r="D205" t="n">
-        <v>42</v>
+        <v>64581</v>
       </c>
       <c r="E205" t="n">
         <v>3447</v>
       </c>
       <c r="F205" t="n">
-        <v>3783</v>
+        <v>4024</v>
       </c>
       <c r="G205" t="n">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="H205" t="n">
-        <v>30573</v>
+        <v>33845</v>
       </c>
       <c r="I205" t="n">
-        <v>132084</v>
+        <v>140042</v>
       </c>
       <c r="J205" t="n">
-        <v>350676</v>
+        <v>379042</v>
       </c>
       <c r="K205" t="n">
         <v>58908</v>
       </c>
       <c r="L205" t="n">
-        <v>11552</v>
+        <v>19360</v>
       </c>
       <c r="M205" t="n">
-        <v>2758</v>
+        <v>10544</v>
       </c>
       <c r="N205" t="n">
-        <v>29169</v>
+        <v>57383</v>
       </c>
       <c r="O205" t="n">
-        <v>-4570</v>
+        <v>23622</v>
       </c>
       <c r="P205" t="n">
-        <v>-9374</v>
+        <v>-2317</v>
       </c>
       <c r="Q205" t="n">
-        <v>-54.9</v>
+        <v>1057.4</v>
       </c>
       <c r="R205" t="n">
-        <v>-5279</v>
+        <v>439</v>
       </c>
       <c r="S205" t="n">
-        <v>-94.7</v>
+        <v>3932.7</v>
       </c>
       <c r="T205" t="n">
-        <v>-349</v>
+        <v>-193</v>
       </c>
       <c r="U205" t="n">
-        <v>-1.1</v>
+        <v>-0.6</v>
       </c>
       <c r="V205" t="n">
-        <v>-1136.3</v>
+        <v>-47.3</v>
       </c>
       <c r="W205" t="n">
-        <v>-543.6</v>
+        <v>-76.1</v>
       </c>
       <c r="X205" t="n">
-        <v>-3805</v>
+        <v>-533</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="B206" t="n">
+        <v>300</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1329</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1636</v>
+      </c>
+      <c r="G206" t="n">
+        <v>54</v>
+      </c>
+      <c r="H206" t="n">
+        <v>17462</v>
+      </c>
+      <c r="I206" t="n">
+        <v>129048</v>
+      </c>
+      <c r="J206" t="n">
+        <v>181818</v>
+      </c>
+      <c r="K206" t="n">
+        <v>4824</v>
+      </c>
+      <c r="L206" t="n">
+        <v>-10400</v>
+      </c>
+      <c r="M206" t="n">
+        <v>-1252</v>
+      </c>
+      <c r="N206" t="n">
+        <v>-141839</v>
+      </c>
+      <c r="O206" t="n">
+        <v>-175851</v>
+      </c>
+      <c r="P206" t="n">
+        <v>-10994</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>-64.3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>-197224</v>
+      </c>
+      <c r="S206" t="n">
+        <v>-24800.3</v>
+      </c>
+      <c r="T206" t="n">
+        <v>-16383</v>
+      </c>
+      <c r="U206" t="n">
+        <v>-48.4</v>
+      </c>
+      <c r="V206" t="n">
+        <v>-5521.3</v>
+      </c>
+      <c r="W206" t="n">
+        <v>-2418.7</v>
+      </c>
+      <c r="X206" t="n">
+        <v>-16931</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>141</v>
+      </c>
+      <c r="F207" t="n">
+        <v>82</v>
+      </c>
+      <c r="G207" t="n">
+        <v>11</v>
+      </c>
+      <c r="H207" t="n">
+        <v>638</v>
+      </c>
+      <c r="I207" t="n">
+        <v>15106</v>
+      </c>
+      <c r="J207" t="n">
+        <v>455</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2288</v>
+      </c>
+      <c r="L207" t="n">
+        <v>-124805</v>
+      </c>
+      <c r="M207" t="n">
+        <v>-143226</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-327177</v>
+      </c>
+      <c r="O207" t="n">
+        <v>-358417</v>
+      </c>
+      <c r="P207" t="n">
+        <v>-113942</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>-16456.3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>-181363</v>
+      </c>
+      <c r="S207" t="n">
+        <v>-51030.6</v>
+      </c>
+      <c r="T207" t="n">
+        <v>-16824</v>
+      </c>
+      <c r="U207" t="n">
+        <v>-96.3</v>
+      </c>
+      <c r="V207" t="n">
+        <v>-11133.3</v>
+      </c>
+      <c r="W207" t="n">
+        <v>-4823.9</v>
+      </c>
+      <c r="X207" t="n">
+        <v>-33767</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3194,7 +3194,7 @@
         <v>2032</v>
       </c>
       <c r="J40" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>1837</v>
       </c>
       <c r="N40" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="O40" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3218,10 +3218,10 @@
         <v>271.3</v>
       </c>
       <c r="R40" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="S40" t="n">
-        <v>240.3</v>
+        <v>240.4</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -3268,7 +3268,7 @@
         <v>2982</v>
       </c>
       <c r="J41" t="n">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>2716</v>
       </c>
       <c r="N41" t="n">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="O41" t="n">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="P41" t="n">
         <v>950</v>
@@ -3295,7 +3295,7 @@
         <v>870</v>
       </c>
       <c r="S41" t="n">
-        <v>356.9</v>
+        <v>357</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="O42" t="n">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="S42" t="n">
-        <v>481.3</v>
+        <v>481.7</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4774</v>
+        <v>4777</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4751</v>
+        <v>4754</v>
       </c>
       <c r="O43" t="n">
-        <v>4155</v>
+        <v>4158</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3443,7 +3443,7 @@
         <v>1160</v>
       </c>
       <c r="S43" t="n">
-        <v>626.9</v>
+        <v>627.3</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6212</v>
+        <v>6216</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6179</v>
+        <v>6183</v>
       </c>
       <c r="O44" t="n">
-        <v>5329</v>
+        <v>5333</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3514,10 +3514,10 @@
         <v>956.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="S44" t="n">
-        <v>799</v>
+        <v>799.6</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7588</v>
+        <v>7592</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7528</v>
+        <v>7532</v>
       </c>
       <c r="O45" t="n">
-        <v>6390</v>
+        <v>6394</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3591,7 +3591,7 @@
         <v>1376</v>
       </c>
       <c r="S45" t="n">
-        <v>957.9</v>
+        <v>958.4</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9050</v>
+        <v>9054</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8932</v>
+        <v>8936</v>
       </c>
       <c r="O46" t="n">
-        <v>7250</v>
+        <v>7253</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1462</v>
       </c>
       <c r="S46" t="n">
-        <v>1121.7</v>
+        <v>1122.3</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3688,7 +3688,7 @@
         <v>43906</v>
       </c>
       <c r="B47" t="n">
-        <v>1202</v>
+        <v>1072</v>
       </c>
       <c r="C47" t="n">
         <v>700</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11215</v>
+        <v>11220</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11043</v>
+        <v>11048</v>
       </c>
       <c r="O47" t="n">
-        <v>8545</v>
+        <v>8549</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3736,10 +3736,10 @@
         <v>1686</v>
       </c>
       <c r="R47" t="n">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1345</v>
+        <v>1345.6</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3762,7 +3762,7 @@
         <v>43907</v>
       </c>
       <c r="B48" t="n">
-        <v>1363</v>
+        <v>1224</v>
       </c>
       <c r="C48" t="n">
         <v>858</v>
@@ -3786,7 +3786,7 @@
         <v>17583</v>
       </c>
       <c r="J48" t="n">
-        <v>14263</v>
+        <v>14268</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13543</v>
       </c>
       <c r="N48" t="n">
-        <v>14018</v>
+        <v>14023</v>
       </c>
       <c r="O48" t="n">
-        <v>10649</v>
+        <v>10651</v>
       </c>
       <c r="P48" t="n">
         <v>3749</v>
@@ -3813,7 +3813,7 @@
         <v>3048</v>
       </c>
       <c r="S48" t="n">
-        <v>1656.1</v>
+        <v>1656.7</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3836,7 +3836,7 @@
         <v>43908</v>
       </c>
       <c r="B49" t="n">
-        <v>1927</v>
+        <v>1771</v>
       </c>
       <c r="C49" t="n">
         <v>1053</v>
@@ -3860,7 +3860,7 @@
         <v>20761</v>
       </c>
       <c r="J49" t="n">
-        <v>17343</v>
+        <v>17348</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15432</v>
       </c>
       <c r="N49" t="n">
-        <v>16957</v>
+        <v>16962</v>
       </c>
       <c r="O49" t="n">
-        <v>12569</v>
+        <v>12571</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3887,7 +3887,7 @@
         <v>3080</v>
       </c>
       <c r="S49" t="n">
-        <v>1961.3</v>
+        <v>1961.6</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3910,7 +3910,7 @@
         <v>43909</v>
       </c>
       <c r="B50" t="n">
-        <v>2278</v>
+        <v>2081</v>
       </c>
       <c r="C50" t="n">
         <v>1413</v>
@@ -3934,7 +3934,7 @@
         <v>26438</v>
       </c>
       <c r="J50" t="n">
-        <v>21099</v>
+        <v>21106</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19039</v>
       </c>
       <c r="N50" t="n">
-        <v>20480</v>
+        <v>20487</v>
       </c>
       <c r="O50" t="n">
-        <v>14887</v>
+        <v>14890</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3958,10 +3958,10 @@
         <v>3015.6</v>
       </c>
       <c r="R50" t="n">
-        <v>3756</v>
+        <v>3758</v>
       </c>
       <c r="S50" t="n">
-        <v>2332.1</v>
+        <v>2332.7</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -3984,7 +3984,7 @@
         <v>43910</v>
       </c>
       <c r="B51" t="n">
-        <v>2285</v>
+        <v>2047</v>
       </c>
       <c r="C51" t="n">
         <v>1545</v>
@@ -4008,7 +4008,7 @@
         <v>32044</v>
       </c>
       <c r="J51" t="n">
-        <v>25341</v>
+        <v>25350</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22716</v>
       </c>
       <c r="N51" t="n">
-        <v>24458</v>
+        <v>24467</v>
       </c>
       <c r="O51" t="n">
-        <v>17753</v>
+        <v>17758</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.7</v>
       </c>
       <c r="R51" t="n">
-        <v>4242</v>
+        <v>4244</v>
       </c>
       <c r="S51" t="n">
-        <v>2732.7</v>
+        <v>2733.4</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4082,7 +4082,7 @@
         <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28716</v>
+        <v>28725</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,10 +4094,10 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27518</v>
+        <v>27527</v>
       </c>
       <c r="O52" t="n">
-        <v>19666</v>
+        <v>19671</v>
       </c>
       <c r="P52" t="n">
         <v>4695</v>
@@ -4109,7 +4109,7 @@
         <v>3375</v>
       </c>
       <c r="S52" t="n">
-        <v>3018.3</v>
+        <v>3019</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31672</v>
+        <v>31682</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,10 +4168,10 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29872</v>
+        <v>29881</v>
       </c>
       <c r="O53" t="n">
-        <v>20457</v>
+        <v>20462</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4180,10 +4180,10 @@
         <v>4187.9</v>
       </c>
       <c r="R53" t="n">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="S53" t="n">
-        <v>3231.7</v>
+        <v>3232.6</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36472</v>
+        <v>36482</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29518</v>
       </c>
       <c r="N54" t="n">
-        <v>33802</v>
+        <v>33811</v>
       </c>
       <c r="O54" t="n">
-        <v>22209</v>
+        <v>22214</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4257,7 +4257,7 @@
         <v>4800</v>
       </c>
       <c r="S54" t="n">
-        <v>3608.1</v>
+        <v>3608.9</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42005</v>
+        <v>42017</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31647</v>
       </c>
       <c r="N55" t="n">
-        <v>38391</v>
+        <v>38400</v>
       </c>
       <c r="O55" t="n">
-        <v>24662</v>
+        <v>24669</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4328,10 +4328,10 @@
         <v>4975</v>
       </c>
       <c r="R55" t="n">
-        <v>5533</v>
+        <v>5535</v>
       </c>
       <c r="S55" t="n">
-        <v>3963.1</v>
+        <v>3964.1</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47539</v>
+        <v>47552</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36662</v>
       </c>
       <c r="N56" t="n">
-        <v>42765</v>
+        <v>42775</v>
       </c>
       <c r="O56" t="n">
-        <v>26440</v>
+        <v>26446</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4402,10 +4402,10 @@
         <v>6048.4</v>
       </c>
       <c r="R56" t="n">
-        <v>5534</v>
+        <v>5535</v>
       </c>
       <c r="S56" t="n">
-        <v>4313.7</v>
+        <v>4314.9</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4428,7 +4428,7 @@
         <v>43916</v>
       </c>
       <c r="B57" t="n">
-        <v>5066</v>
+        <v>4299</v>
       </c>
       <c r="C57" t="n">
         <v>2449</v>
@@ -4452,7 +4452,7 @@
         <v>72678</v>
       </c>
       <c r="J57" t="n">
-        <v>54338</v>
+        <v>54351</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,10 +4464,10 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48126</v>
+        <v>48135</v>
       </c>
       <c r="O57" t="n">
-        <v>28997</v>
+        <v>29001</v>
       </c>
       <c r="P57" t="n">
         <v>9578</v>
@@ -4479,7 +4479,7 @@
         <v>6799</v>
       </c>
       <c r="S57" t="n">
-        <v>4748.4</v>
+        <v>4749.3</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4502,7 +4502,7 @@
         <v>43917</v>
       </c>
       <c r="B58" t="n">
-        <v>4777</v>
+        <v>3875</v>
       </c>
       <c r="C58" t="n">
         <v>1965</v>
@@ -4526,7 +4526,7 @@
         <v>81190</v>
       </c>
       <c r="J58" t="n">
-        <v>59311</v>
+        <v>59324</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4538,10 +4538,10 @@
         <v>44451</v>
       </c>
       <c r="N58" t="n">
-        <v>51723</v>
+        <v>51732</v>
       </c>
       <c r="O58" t="n">
-        <v>30595</v>
+        <v>30599</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4553,7 +4553,7 @@
         <v>4973</v>
       </c>
       <c r="S58" t="n">
-        <v>4852.9</v>
+        <v>4853.4</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4576,7 +4576,7 @@
         <v>43918</v>
       </c>
       <c r="B59" t="n">
-        <v>4905</v>
+        <v>3845</v>
       </c>
       <c r="C59" t="n">
         <v>1734</v>
@@ -4600,7 +4600,7 @@
         <v>89782</v>
       </c>
       <c r="J59" t="n">
-        <v>62658</v>
+        <v>62672</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4612,10 +4612,10 @@
         <v>49076</v>
       </c>
       <c r="N59" t="n">
-        <v>53608</v>
+        <v>53618</v>
       </c>
       <c r="O59" t="n">
-        <v>30986</v>
+        <v>30990</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4624,10 +4624,10 @@
         <v>7577.6</v>
       </c>
       <c r="R59" t="n">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="S59" t="n">
-        <v>4848.9</v>
+        <v>4849.6</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4650,7 +4650,7 @@
         <v>43919</v>
       </c>
       <c r="B60" t="n">
-        <v>4907</v>
+        <v>3666</v>
       </c>
       <c r="C60" t="n">
         <v>1403</v>
@@ -4674,7 +4674,7 @@
         <v>96086</v>
       </c>
       <c r="J60" t="n">
-        <v>65332</v>
+        <v>65346</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4686,10 +4686,10 @@
         <v>48985</v>
       </c>
       <c r="N60" t="n">
-        <v>54117</v>
+        <v>54126</v>
       </c>
       <c r="O60" t="n">
-        <v>28860</v>
+        <v>28864</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2674</v>
       </c>
       <c r="S60" t="n">
-        <v>4808.6</v>
+        <v>4809.1</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4724,7 +4724,7 @@
         <v>43920</v>
       </c>
       <c r="B61" t="n">
-        <v>4698</v>
+        <v>3279</v>
       </c>
       <c r="C61" t="n">
         <v>1875</v>
@@ -4748,7 +4748,7 @@
         <v>103278</v>
       </c>
       <c r="J61" t="n">
-        <v>70189</v>
+        <v>70204</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,10 +4760,10 @@
         <v>50870</v>
       </c>
       <c r="N61" t="n">
-        <v>55926</v>
+        <v>55936</v>
       </c>
       <c r="O61" t="n">
-        <v>28184</v>
+        <v>28187</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4772,10 +4772,10 @@
         <v>8025.3</v>
       </c>
       <c r="R61" t="n">
-        <v>4857</v>
+        <v>4858</v>
       </c>
       <c r="S61" t="n">
-        <v>4816.7</v>
+        <v>4817.4</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4798,7 +4798,7 @@
         <v>43921</v>
       </c>
       <c r="B62" t="n">
-        <v>5573</v>
+        <v>4017</v>
       </c>
       <c r="C62" t="n">
         <v>1881</v>
@@ -4810,7 +4810,7 @@
         <v>13914</v>
       </c>
       <c r="F62" t="n">
-        <v>29186</v>
+        <v>29187</v>
       </c>
       <c r="G62" t="n">
         <v>3188</v>
@@ -4822,7 +4822,7 @@
         <v>108826</v>
       </c>
       <c r="J62" t="n">
-        <v>74457</v>
+        <v>74472</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,10 +4834,10 @@
         <v>45726</v>
       </c>
       <c r="N62" t="n">
-        <v>57114</v>
+        <v>57124</v>
       </c>
       <c r="O62" t="n">
-        <v>26918</v>
+        <v>26920</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4849,7 +4849,7 @@
         <v>4268</v>
       </c>
       <c r="S62" t="n">
-        <v>4636</v>
+        <v>4636.4</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4872,7 +4872,7 @@
         <v>43922</v>
       </c>
       <c r="B63" t="n">
-        <v>6317</v>
+        <v>4687</v>
       </c>
       <c r="C63" t="n">
         <v>1546</v>
@@ -4884,7 +4884,7 @@
         <v>19858</v>
       </c>
       <c r="F63" t="n">
-        <v>30469</v>
+        <v>30470</v>
       </c>
       <c r="G63" t="n">
         <v>3355</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78279</v>
+        <v>78294</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,10 +4908,10 @@
         <v>44500</v>
       </c>
       <c r="N63" t="n">
-        <v>57180</v>
+        <v>57188</v>
       </c>
       <c r="O63" t="n">
-        <v>23941</v>
+        <v>23943</v>
       </c>
       <c r="P63" t="n">
         <v>8352</v>
@@ -4923,7 +4923,7 @@
         <v>3822</v>
       </c>
       <c r="S63" t="n">
-        <v>4391.4</v>
+        <v>4391.7</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4946,7 +4946,7 @@
         <v>43923</v>
       </c>
       <c r="B64" t="n">
-        <v>5257</v>
+        <v>3472</v>
       </c>
       <c r="C64" t="n">
         <v>1496</v>
@@ -4958,7 +4958,7 @@
         <v>16375</v>
       </c>
       <c r="F64" t="n">
-        <v>30594</v>
+        <v>30595</v>
       </c>
       <c r="G64" t="n">
         <v>3444</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82096</v>
+        <v>82112</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,10 +4982,10 @@
         <v>42762</v>
       </c>
       <c r="N64" t="n">
-        <v>56755</v>
+        <v>56762</v>
       </c>
       <c r="O64" t="n">
-        <v>22785</v>
+        <v>22788</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7324.9</v>
       </c>
       <c r="R64" t="n">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="S64" t="n">
-        <v>3965.4</v>
+        <v>3965.9</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5032,7 +5032,7 @@
         <v>4709</v>
       </c>
       <c r="F65" t="n">
-        <v>30391</v>
+        <v>30392</v>
       </c>
       <c r="G65" t="n">
         <v>3424</v>
@@ -5044,7 +5044,7 @@
         <v>130640</v>
       </c>
       <c r="J65" t="n">
-        <v>85969</v>
+        <v>85985</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,10 +5056,10 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57253</v>
+        <v>57260</v>
       </c>
       <c r="O65" t="n">
-        <v>23311</v>
+        <v>23313</v>
       </c>
       <c r="P65" t="n">
         <v>6688</v>
@@ -5071,7 +5071,7 @@
         <v>3873</v>
       </c>
       <c r="S65" t="n">
-        <v>3808.3</v>
+        <v>3808.7</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5106,7 +5106,7 @@
         <v>6202</v>
       </c>
       <c r="F66" t="n">
-        <v>30137</v>
+        <v>30138</v>
       </c>
       <c r="G66" t="n">
         <v>3429</v>
@@ -5118,7 +5118,7 @@
         <v>135949</v>
       </c>
       <c r="J66" t="n">
-        <v>88399</v>
+        <v>88416</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -5130,10 +5130,10 @@
         <v>39863</v>
       </c>
       <c r="N66" t="n">
-        <v>56727</v>
+        <v>56734</v>
       </c>
       <c r="O66" t="n">
-        <v>23067</v>
+        <v>23070</v>
       </c>
       <c r="P66" t="n">
         <v>5309</v>
@@ -5142,10 +5142,10 @@
         <v>6595.3</v>
       </c>
       <c r="R66" t="n">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="S66" t="n">
-        <v>3677.3</v>
+        <v>3677.7</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5180,7 +5180,7 @@
         <v>4748</v>
       </c>
       <c r="F67" t="n">
-        <v>29995</v>
+        <v>29996</v>
       </c>
       <c r="G67" t="n">
         <v>3424</v>
@@ -5192,7 +5192,7 @@
         <v>139711</v>
       </c>
       <c r="J67" t="n">
-        <v>90055</v>
+        <v>90072</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,10 +5204,10 @@
         <v>36433</v>
       </c>
       <c r="N67" t="n">
-        <v>53583</v>
+        <v>53590</v>
       </c>
       <c r="O67" t="n">
-        <v>19866</v>
+        <v>19868</v>
       </c>
       <c r="P67" t="n">
         <v>3762</v>
@@ -5219,7 +5219,7 @@
         <v>1656</v>
       </c>
       <c r="S67" t="n">
-        <v>3531.9</v>
+        <v>3532.3</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5254,7 +5254,7 @@
         <v>7508</v>
       </c>
       <c r="F68" t="n">
-        <v>29683</v>
+        <v>29684</v>
       </c>
       <c r="G68" t="n">
         <v>3430</v>
@@ -5266,7 +5266,7 @@
         <v>144597</v>
       </c>
       <c r="J68" t="n">
-        <v>93270</v>
+        <v>93289</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35771</v>
       </c>
       <c r="N68" t="n">
-        <v>51265</v>
+        <v>51272</v>
       </c>
       <c r="O68" t="n">
-        <v>18813</v>
+        <v>18817</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5290,10 +5290,10 @@
         <v>5902.7</v>
       </c>
       <c r="R68" t="n">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="S68" t="n">
-        <v>3297.3</v>
+        <v>3297.9</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,7 +5328,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>28792</v>
+        <v>28793</v>
       </c>
       <c r="G69" t="n">
         <v>3381</v>
@@ -5340,7 +5340,7 @@
         <v>149517</v>
       </c>
       <c r="J69" t="n">
-        <v>96334</v>
+        <v>96353</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32339</v>
       </c>
       <c r="N69" t="n">
-        <v>48795</v>
+        <v>48801</v>
       </c>
       <c r="O69" t="n">
-        <v>18055</v>
+        <v>18059</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5367,7 +5367,7 @@
         <v>3064</v>
       </c>
       <c r="S69" t="n">
-        <v>3125.3</v>
+        <v>3125.9</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,7 +5402,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>27698</v>
+        <v>27699</v>
       </c>
       <c r="G70" t="n">
         <v>3291</v>
@@ -5414,7 +5414,7 @@
         <v>154915</v>
       </c>
       <c r="J70" t="n">
-        <v>99458</v>
+        <v>99477</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,10 +5426,10 @@
         <v>30963</v>
       </c>
       <c r="N70" t="n">
-        <v>45120</v>
+        <v>45126</v>
       </c>
       <c r="O70" t="n">
-        <v>17362</v>
+        <v>17365</v>
       </c>
       <c r="P70" t="n">
         <v>5398</v>
@@ -5441,7 +5441,7 @@
         <v>3124</v>
       </c>
       <c r="S70" t="n">
-        <v>3025.6</v>
+        <v>3026.1</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,7 +5476,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>26864</v>
+        <v>26865</v>
       </c>
       <c r="G71" t="n">
         <v>3249</v>
@@ -5488,7 +5488,7 @@
         <v>159907</v>
       </c>
       <c r="J71" t="n">
-        <v>102074</v>
+        <v>102097</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5500,10 +5500,10 @@
         <v>29267</v>
       </c>
       <c r="N71" t="n">
-        <v>42763</v>
+        <v>42773</v>
       </c>
       <c r="O71" t="n">
-        <v>16105</v>
+        <v>16112</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
@@ -5512,10 +5512,10 @@
         <v>5136.4</v>
       </c>
       <c r="R71" t="n">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="S71" t="n">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>25946</v>
+        <v>25947</v>
       </c>
       <c r="G72" t="n">
         <v>3163</v>
@@ -5562,7 +5562,7 @@
         <v>165062</v>
       </c>
       <c r="J72" t="n">
-        <v>104361</v>
+        <v>104384</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5574,10 +5574,10 @@
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41703</v>
+        <v>41712</v>
       </c>
       <c r="O72" t="n">
-        <v>15962</v>
+        <v>15968</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
@@ -5589,7 +5589,7 @@
         <v>2287</v>
       </c>
       <c r="S72" t="n">
-        <v>2627.4</v>
+        <v>2628.4</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25143</v>
+        <v>25144</v>
       </c>
       <c r="G73" t="n">
         <v>3118</v>
@@ -5636,7 +5636,7 @@
         <v>168831</v>
       </c>
       <c r="J73" t="n">
-        <v>106131</v>
+        <v>106154</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5648,10 +5648,10 @@
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40799</v>
+        <v>40808</v>
       </c>
       <c r="O73" t="n">
-        <v>16076</v>
+        <v>16082</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
@@ -5663,7 +5663,7 @@
         <v>1770</v>
       </c>
       <c r="S73" t="n">
-        <v>2533.1</v>
+        <v>2534</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24502</v>
+        <v>24503</v>
       </c>
       <c r="G74" t="n">
         <v>3050</v>
@@ -5710,7 +5710,7 @@
         <v>171874</v>
       </c>
       <c r="J74" t="n">
-        <v>107382</v>
+        <v>107406</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -5722,10 +5722,10 @@
         <v>27277</v>
       </c>
       <c r="N74" t="n">
-        <v>37193</v>
+        <v>37202</v>
       </c>
       <c r="O74" t="n">
-        <v>14112</v>
+        <v>14117</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5734,10 +5734,10 @@
         <v>4594.7</v>
       </c>
       <c r="R74" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="S74" t="n">
-        <v>2475.3</v>
+        <v>2476.3</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5772,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24213</v>
+        <v>24214</v>
       </c>
       <c r="G75" t="n">
         <v>3008</v>
@@ -5784,7 +5784,7 @@
         <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109313</v>
+        <v>109338</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -5796,10 +5796,10 @@
         <v>25859</v>
       </c>
       <c r="N75" t="n">
-        <v>34856</v>
+        <v>34866</v>
       </c>
       <c r="O75" t="n">
-        <v>12979</v>
+        <v>12985</v>
       </c>
       <c r="P75" t="n">
         <v>3502</v>
@@ -5808,10 +5808,10 @@
         <v>4397</v>
       </c>
       <c r="R75" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="S75" t="n">
-        <v>2291.9</v>
+        <v>2292.7</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5846,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23399</v>
+        <v>23400</v>
       </c>
       <c r="G76" t="n">
         <v>2949</v>
@@ -5858,7 +5858,7 @@
         <v>179704</v>
       </c>
       <c r="J76" t="n">
-        <v>111849</v>
+        <v>111876</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5870,10 +5870,10 @@
         <v>24789</v>
       </c>
       <c r="N76" t="n">
-        <v>33570</v>
+        <v>33582</v>
       </c>
       <c r="O76" t="n">
-        <v>12391</v>
+        <v>12399</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5882,10 +5882,10 @@
         <v>4312.4</v>
       </c>
       <c r="R76" t="n">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="S76" t="n">
-        <v>2216.4</v>
+        <v>2217.6</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5920,7 +5920,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22338</v>
+        <v>22339</v>
       </c>
       <c r="G77" t="n">
         <v>2836</v>
@@ -5932,7 +5932,7 @@
         <v>184104</v>
       </c>
       <c r="J77" t="n">
-        <v>116874</v>
+        <v>116904</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -5944,10 +5944,10 @@
         <v>24197</v>
       </c>
       <c r="N77" t="n">
-        <v>34778</v>
+        <v>34792</v>
       </c>
       <c r="O77" t="n">
-        <v>14800</v>
+        <v>14807</v>
       </c>
       <c r="P77" t="n">
         <v>4400</v>
@@ -5956,10 +5956,10 @@
         <v>4169.9</v>
       </c>
       <c r="R77" t="n">
-        <v>5025</v>
+        <v>5028</v>
       </c>
       <c r="S77" t="n">
-        <v>2488</v>
+        <v>2489.6</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5994,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21566</v>
+        <v>21567</v>
       </c>
       <c r="G78" t="n">
         <v>2610</v>
@@ -6006,7 +6006,7 @@
         <v>188813</v>
       </c>
       <c r="J78" t="n">
-        <v>119232</v>
+        <v>119263</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -6018,10 +6018,10 @@
         <v>23751</v>
       </c>
       <c r="N78" t="n">
-        <v>33263</v>
+        <v>33278</v>
       </c>
       <c r="O78" t="n">
-        <v>14871</v>
+        <v>14879</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
@@ -6030,10 +6030,10 @@
         <v>4129.4</v>
       </c>
       <c r="R78" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="S78" t="n">
-        <v>2451.1</v>
+        <v>2452.3</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6068,7 +6068,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20663</v>
+        <v>20664</v>
       </c>
       <c r="G79" t="n">
         <v>2530</v>
@@ -6080,7 +6080,7 @@
         <v>193913</v>
       </c>
       <c r="J79" t="n">
-        <v>121525</v>
+        <v>121557</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -6092,10 +6092,10 @@
         <v>25082</v>
       </c>
       <c r="N79" t="n">
-        <v>33126</v>
+        <v>33141</v>
       </c>
       <c r="O79" t="n">
-        <v>15394</v>
+        <v>15403</v>
       </c>
       <c r="P79" t="n">
         <v>5100</v>
@@ -6104,10 +6104,10 @@
         <v>4121.6</v>
       </c>
       <c r="R79" t="n">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="S79" t="n">
-        <v>2452</v>
+        <v>2453.3</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,7 +6142,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19978</v>
+        <v>19979</v>
       </c>
       <c r="G80" t="n">
         <v>2464</v>
@@ -6154,7 +6154,7 @@
         <v>199795</v>
       </c>
       <c r="J80" t="n">
-        <v>122999</v>
+        <v>123033</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
@@ -6166,10 +6166,10 @@
         <v>27921</v>
       </c>
       <c r="N80" t="n">
-        <v>32944</v>
+        <v>32961</v>
       </c>
       <c r="O80" t="n">
-        <v>15617</v>
+        <v>15627</v>
       </c>
       <c r="P80" t="n">
         <v>5882</v>
@@ -6178,10 +6178,10 @@
         <v>4423.4</v>
       </c>
       <c r="R80" t="n">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="S80" t="n">
-        <v>2409.7</v>
+        <v>2411.3</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19540</v>
+        <v>19541</v>
       </c>
       <c r="G81" t="n">
         <v>2475</v>
@@ -6228,7 +6228,7 @@
         <v>202022</v>
       </c>
       <c r="J81" t="n">
-        <v>123870</v>
+        <v>123904</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
@@ -6240,10 +6240,10 @@
         <v>26646</v>
       </c>
       <c r="N81" t="n">
-        <v>30600</v>
+        <v>30615</v>
       </c>
       <c r="O81" t="n">
-        <v>14557</v>
+        <v>14566</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
@@ -6255,7 +6255,7 @@
         <v>871</v>
       </c>
       <c r="S81" t="n">
-        <v>2355.4</v>
+        <v>2356.9</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,7 +6290,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19359</v>
+        <v>19360</v>
       </c>
       <c r="G82" t="n">
         <v>2421</v>
@@ -6302,7 +6302,7 @@
         <v>204945</v>
       </c>
       <c r="J82" t="n">
-        <v>125587</v>
+        <v>125624</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
@@ -6314,10 +6314,10 @@
         <v>25241</v>
       </c>
       <c r="N82" t="n">
-        <v>29253</v>
+        <v>29271</v>
       </c>
       <c r="O82" t="n">
-        <v>13738</v>
+        <v>13748</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
@@ -6326,10 +6326,10 @@
         <v>4224.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="S82" t="n">
-        <v>2324.9</v>
+        <v>2326.6</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18914</v>
+        <v>18915</v>
       </c>
       <c r="G83" t="n">
         <v>2348</v>
@@ -6376,7 +6376,7 @@
         <v>208698</v>
       </c>
       <c r="J83" t="n">
-        <v>127382</v>
+        <v>127421</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -6388,10 +6388,10 @@
         <v>24594</v>
       </c>
       <c r="N83" t="n">
-        <v>27924</v>
+        <v>27944</v>
       </c>
       <c r="O83" t="n">
-        <v>10508</v>
+        <v>10517</v>
       </c>
       <c r="P83" t="n">
         <v>3753</v>
@@ -6400,10 +6400,10 @@
         <v>4142</v>
       </c>
       <c r="R83" t="n">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="S83" t="n">
-        <v>2219</v>
+        <v>2220.7</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18030</v>
+        <v>18031</v>
       </c>
       <c r="G84" t="n">
         <v>2255</v>
@@ -6450,7 +6450,7 @@
         <v>213315</v>
       </c>
       <c r="J84" t="n">
-        <v>129324</v>
+        <v>129364</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -6462,10 +6462,10 @@
         <v>24502</v>
       </c>
       <c r="N84" t="n">
-        <v>27250</v>
+        <v>27267</v>
       </c>
       <c r="O84" t="n">
-        <v>10092</v>
+        <v>10101</v>
       </c>
       <c r="P84" t="n">
         <v>4617</v>
@@ -6474,10 +6474,10 @@
         <v>4173</v>
       </c>
       <c r="R84" t="n">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="S84" t="n">
-        <v>1778.6</v>
+        <v>1780</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17137</v>
+        <v>17138</v>
       </c>
       <c r="G85" t="n">
         <v>2194</v>
@@ -6524,7 +6524,7 @@
         <v>217031</v>
       </c>
       <c r="J85" t="n">
-        <v>130670</v>
+        <v>130713</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -6536,10 +6536,10 @@
         <v>23118</v>
       </c>
       <c r="N85" t="n">
-        <v>26309</v>
+        <v>26329</v>
       </c>
       <c r="O85" t="n">
-        <v>9145</v>
+        <v>9156</v>
       </c>
       <c r="P85" t="n">
         <v>3716</v>
@@ -6548,10 +6548,10 @@
         <v>4031.1</v>
       </c>
       <c r="R85" t="n">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="S85" t="n">
-        <v>1634</v>
+        <v>1635.7</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16365</v>
+        <v>16366</v>
       </c>
       <c r="G86" t="n">
         <v>2108</v>
@@ -6598,7 +6598,7 @@
         <v>220692</v>
       </c>
       <c r="J86" t="n">
-        <v>132143</v>
+        <v>132185</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
@@ -6610,10 +6610,10 @@
         <v>20897</v>
       </c>
       <c r="N86" t="n">
-        <v>26012</v>
+        <v>26031</v>
       </c>
       <c r="O86" t="n">
-        <v>9144</v>
+        <v>9152</v>
       </c>
       <c r="P86" t="n">
         <v>3661</v>
@@ -6622,10 +6622,10 @@
         <v>3825.6</v>
       </c>
       <c r="R86" t="n">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="S86" t="n">
-        <v>1516.9</v>
+        <v>1518.3</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6648,7 +6648,7 @@
         <v>43946</v>
       </c>
       <c r="B87" t="n">
-        <v>5572</v>
+        <v>2065</v>
       </c>
       <c r="C87" t="n">
         <v>345</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16664</v>
+        <v>16665</v>
       </c>
       <c r="G87" t="n">
         <v>2235</v>
@@ -6672,7 +6672,7 @@
         <v>223305</v>
       </c>
       <c r="J87" t="n">
-        <v>132922</v>
+        <v>132965</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
@@ -6684,10 +6684,10 @@
         <v>21283</v>
       </c>
       <c r="N87" t="n">
-        <v>25540</v>
+        <v>25559</v>
       </c>
       <c r="O87" t="n">
-        <v>9052</v>
+        <v>9061</v>
       </c>
       <c r="P87" t="n">
         <v>2613</v>
@@ -6696,10 +6696,10 @@
         <v>3358.6</v>
       </c>
       <c r="R87" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="S87" t="n">
-        <v>1417.6</v>
+        <v>1418.9</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6722,10 +6722,10 @@
         <v>43947</v>
       </c>
       <c r="B88" t="n">
-        <v>5235</v>
+        <v>1680</v>
       </c>
       <c r="C88" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" t="n">
         <v>6987</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16178</v>
+        <v>16179</v>
       </c>
       <c r="G88" t="n">
         <v>2185</v>
@@ -6743,37 +6743,37 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225683</v>
+        <v>225682</v>
       </c>
       <c r="J88" t="n">
-        <v>133434</v>
+        <v>133476</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50307</v>
+        <v>50306</v>
       </c>
       <c r="M88" t="n">
-        <v>20738</v>
+        <v>20737</v>
       </c>
       <c r="N88" t="n">
-        <v>24121</v>
+        <v>24138</v>
       </c>
       <c r="O88" t="n">
-        <v>7847</v>
+        <v>7852</v>
       </c>
       <c r="P88" t="n">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="Q88" t="n">
-        <v>3380.1</v>
+        <v>3380</v>
       </c>
       <c r="R88" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S88" t="n">
-        <v>1366.3</v>
+        <v>1367.4</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6796,10 +6796,10 @@
         <v>43948</v>
       </c>
       <c r="B89" t="n">
-        <v>5145</v>
+        <v>1562</v>
       </c>
       <c r="C89" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D89" t="n">
         <v>7557</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16066</v>
+        <v>16067</v>
       </c>
       <c r="G89" t="n">
         <v>2188</v>
@@ -6817,37 +6817,37 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228383</v>
+        <v>228380</v>
       </c>
       <c r="J89" t="n">
-        <v>134504</v>
+        <v>134547</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48679</v>
+        <v>48676</v>
       </c>
       <c r="M89" t="n">
-        <v>19685</v>
+        <v>19682</v>
       </c>
       <c r="N89" t="n">
-        <v>22655</v>
+        <v>22671</v>
       </c>
       <c r="O89" t="n">
-        <v>7122</v>
+        <v>7126</v>
       </c>
       <c r="P89" t="n">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="Q89" t="n">
-        <v>3348.3</v>
+        <v>3347.9</v>
       </c>
       <c r="R89" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="S89" t="n">
-        <v>1273.9</v>
+        <v>1274.7</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6870,7 +6870,7 @@
         <v>43949</v>
       </c>
       <c r="B90" t="n">
-        <v>5321</v>
+        <v>1692</v>
       </c>
       <c r="C90" t="n">
         <v>456</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15547</v>
+        <v>15548</v>
       </c>
       <c r="G90" t="n">
         <v>2042</v>
@@ -6891,37 +6891,37 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228185</v>
+        <v>228182</v>
       </c>
       <c r="J90" t="n">
-        <v>135757</v>
+        <v>135803</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="M90" t="n">
-        <v>14870</v>
+        <v>14867</v>
       </c>
       <c r="N90" t="n">
-        <v>18883</v>
+        <v>18899</v>
       </c>
       <c r="O90" t="n">
-        <v>6433</v>
+        <v>6439</v>
       </c>
       <c r="P90" t="n">
         <v>-198</v>
       </c>
       <c r="Q90" t="n">
-        <v>2783.9</v>
+        <v>2783.4</v>
       </c>
       <c r="R90" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="S90" t="n">
-        <v>1196.4</v>
+        <v>1197.4</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6944,10 +6944,10 @@
         <v>43950</v>
       </c>
       <c r="B91" t="n">
-        <v>5287</v>
+        <v>1590</v>
       </c>
       <c r="C91" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D91" t="n">
         <v>8627</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14971</v>
+        <v>14972</v>
       </c>
       <c r="G91" t="n">
         <v>1975</v>
@@ -6965,37 +6965,37 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231076</v>
+        <v>231072</v>
       </c>
       <c r="J91" t="n">
-        <v>136710</v>
+        <v>136756</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42263</v>
+        <v>42259</v>
       </c>
       <c r="M91" t="n">
-        <v>14045</v>
+        <v>14041</v>
       </c>
       <c r="N91" t="n">
-        <v>17478</v>
+        <v>17493</v>
       </c>
       <c r="O91" t="n">
-        <v>6040</v>
+        <v>6043</v>
       </c>
       <c r="P91" t="n">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="Q91" t="n">
-        <v>2537.3</v>
+        <v>2536.7</v>
       </c>
       <c r="R91" t="n">
         <v>953</v>
       </c>
       <c r="S91" t="n">
-        <v>1055.1</v>
+        <v>1056</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7018,7 +7018,7 @@
         <v>43951</v>
       </c>
       <c r="B92" t="n">
-        <v>5524</v>
+        <v>1692</v>
       </c>
       <c r="C92" t="n">
         <v>314</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14351</v>
+        <v>14352</v>
       </c>
       <c r="G92" t="n">
         <v>1868</v>
@@ -7039,37 +7039,37 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234298</v>
+        <v>234294</v>
       </c>
       <c r="J92" t="n">
-        <v>137564</v>
+        <v>137613</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40385</v>
+        <v>40381</v>
       </c>
       <c r="M92" t="n">
-        <v>13606</v>
+        <v>13602</v>
       </c>
       <c r="N92" t="n">
-        <v>16039</v>
+        <v>16056</v>
       </c>
       <c r="O92" t="n">
-        <v>5421</v>
+        <v>5428</v>
       </c>
       <c r="P92" t="n">
         <v>3222</v>
       </c>
       <c r="Q92" t="n">
-        <v>2466.7</v>
+        <v>2466.1</v>
       </c>
       <c r="R92" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="S92" t="n">
-        <v>984.9</v>
+        <v>985.7</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7092,7 +7092,7 @@
         <v>43952</v>
       </c>
       <c r="B93" t="n">
-        <v>5485</v>
+        <v>1544</v>
       </c>
       <c r="C93" t="n">
         <v>229</v>
@@ -7104,7 +7104,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15163</v>
+        <v>15164</v>
       </c>
       <c r="G93" t="n">
         <v>2194</v>
@@ -7113,37 +7113,37 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236448</v>
+        <v>236444</v>
       </c>
       <c r="J93" t="n">
-        <v>138072</v>
+        <v>138121</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36653</v>
+        <v>36649</v>
       </c>
       <c r="M93" t="n">
-        <v>13143</v>
+        <v>13139</v>
       </c>
       <c r="N93" t="n">
-        <v>15073</v>
+        <v>15088</v>
       </c>
       <c r="O93" t="n">
-        <v>5150</v>
+        <v>5156</v>
       </c>
       <c r="P93" t="n">
         <v>2150</v>
       </c>
       <c r="Q93" t="n">
-        <v>2250.9</v>
+        <v>2250.3</v>
       </c>
       <c r="R93" t="n">
         <v>508</v>
       </c>
       <c r="S93" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7166,7 +7166,7 @@
         <v>43953</v>
       </c>
       <c r="B94" t="n">
-        <v>5107</v>
+        <v>1117</v>
       </c>
       <c r="C94" t="n">
         <v>144</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>14916</v>
+        <v>14917</v>
       </c>
       <c r="G94" t="n">
         <v>2203</v>
@@ -7187,37 +7187,37 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238107</v>
+        <v>238103</v>
       </c>
       <c r="J94" t="n">
-        <v>138407</v>
+        <v>138456</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36085</v>
+        <v>36081</v>
       </c>
       <c r="M94" t="n">
-        <v>12424</v>
+        <v>12421</v>
       </c>
       <c r="N94" t="n">
-        <v>14537</v>
+        <v>14552</v>
       </c>
       <c r="O94" t="n">
-        <v>4973</v>
+        <v>4980</v>
       </c>
       <c r="P94" t="n">
         <v>1659</v>
       </c>
       <c r="Q94" t="n">
-        <v>2114.6</v>
+        <v>2114</v>
       </c>
       <c r="R94" t="n">
         <v>335</v>
       </c>
       <c r="S94" t="n">
-        <v>783.6</v>
+        <v>784.4</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7240,7 +7240,7 @@
         <v>43954</v>
       </c>
       <c r="B95" t="n">
-        <v>4756</v>
+        <v>736</v>
       </c>
       <c r="C95" t="n">
         <v>79</v>
@@ -7252,7 +7252,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14830</v>
+        <v>14831</v>
       </c>
       <c r="G95" t="n">
         <v>2154</v>
@@ -7261,37 +7261,37 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239202</v>
+        <v>239198</v>
       </c>
       <c r="J95" t="n">
-        <v>138664</v>
+        <v>138713</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34257</v>
+        <v>34253</v>
       </c>
       <c r="M95" t="n">
-        <v>10819</v>
+        <v>10818</v>
       </c>
       <c r="N95" t="n">
-        <v>13077</v>
+        <v>13089</v>
       </c>
       <c r="O95" t="n">
-        <v>4160</v>
+        <v>4166</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1931.3</v>
+        <v>1930.9</v>
       </c>
       <c r="R95" t="n">
         <v>257</v>
       </c>
       <c r="S95" t="n">
-        <v>747.1</v>
+        <v>748.1</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7314,7 +7314,7 @@
         <v>43955</v>
       </c>
       <c r="B96" t="n">
-        <v>4614</v>
+        <v>567</v>
       </c>
       <c r="C96" t="n">
         <v>205</v>
@@ -7335,37 +7335,37 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>240951</v>
+        <v>240947</v>
       </c>
       <c r="J96" t="n">
-        <v>139434</v>
+        <v>139486</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32253</v>
+        <v>32249</v>
       </c>
       <c r="M96" t="n">
-        <v>12766</v>
+        <v>12765</v>
       </c>
       <c r="N96" t="n">
-        <v>12052</v>
+        <v>12065</v>
       </c>
       <c r="O96" t="n">
-        <v>3677</v>
+        <v>3683</v>
       </c>
       <c r="P96" t="n">
         <v>1749</v>
       </c>
       <c r="Q96" t="n">
-        <v>1795.4</v>
+        <v>1795.3</v>
       </c>
       <c r="R96" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="S96" t="n">
-        <v>704.3</v>
+        <v>705.6</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7388,7 +7388,7 @@
         <v>43956</v>
       </c>
       <c r="B97" t="n">
-        <v>1166</v>
+        <v>743</v>
       </c>
       <c r="C97" t="n">
         <v>203</v>
@@ -7409,37 +7409,37 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243006</v>
+        <v>243002</v>
       </c>
       <c r="J97" t="n">
-        <v>152441</v>
+        <v>152497</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29691</v>
+        <v>29687</v>
       </c>
       <c r="M97" t="n">
         <v>11930</v>
       </c>
       <c r="N97" t="n">
-        <v>23117</v>
+        <v>23133</v>
       </c>
       <c r="O97" t="n">
-        <v>15731</v>
+        <v>15741</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2117.3</v>
+        <v>2117.1</v>
       </c>
       <c r="R97" t="n">
-        <v>13007</v>
+        <v>13011</v>
       </c>
       <c r="S97" t="n">
-        <v>2383.4</v>
+        <v>2384.9</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7462,7 +7462,7 @@
         <v>43957</v>
       </c>
       <c r="B98" t="n">
-        <v>1393</v>
+        <v>959</v>
       </c>
       <c r="C98" t="n">
         <v>273</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13676</v>
+        <v>13678</v>
       </c>
       <c r="G98" t="n">
         <v>1901</v>
@@ -7483,25 +7483,25 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>245953</v>
+        <v>245949</v>
       </c>
       <c r="J98" t="n">
-        <v>153247</v>
+        <v>153306</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28922</v>
+        <v>28918</v>
       </c>
       <c r="M98" t="n">
         <v>11655</v>
       </c>
       <c r="N98" t="n">
-        <v>22577</v>
+        <v>22593</v>
       </c>
       <c r="O98" t="n">
-        <v>15683</v>
+        <v>15693</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
@@ -7510,10 +7510,10 @@
         <v>2125.3</v>
       </c>
       <c r="R98" t="n">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="S98" t="n">
-        <v>2362.4</v>
+        <v>2364.3</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7536,7 +7536,7 @@
         <v>43958</v>
       </c>
       <c r="B99" t="n">
-        <v>1536</v>
+        <v>1046</v>
       </c>
       <c r="C99" t="n">
         <v>274</v>
@@ -7548,7 +7548,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13083</v>
+        <v>13084</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,25 +7557,25 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246329</v>
+        <v>246325</v>
       </c>
       <c r="J99" t="n">
-        <v>153936</v>
+        <v>153998</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25637</v>
+        <v>25633</v>
       </c>
       <c r="M99" t="n">
         <v>9881</v>
       </c>
       <c r="N99" t="n">
-        <v>21793</v>
+        <v>21813</v>
       </c>
       <c r="O99" t="n">
-        <v>15864</v>
+        <v>15877</v>
       </c>
       <c r="P99" t="n">
         <v>376</v>
@@ -7584,10 +7584,10 @@
         <v>1718.7</v>
       </c>
       <c r="R99" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="S99" t="n">
-        <v>2338.9</v>
+        <v>2340.7</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7610,7 +7610,7 @@
         <v>43959</v>
       </c>
       <c r="B100" t="n">
-        <v>1375</v>
+        <v>933</v>
       </c>
       <c r="C100" t="n">
         <v>260</v>
@@ -7622,7 +7622,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12447</v>
+        <v>12448</v>
       </c>
       <c r="G100" t="n">
         <v>1762</v>
@@ -7631,25 +7631,25 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250865</v>
+        <v>250861</v>
       </c>
       <c r="J100" t="n">
-        <v>154592</v>
+        <v>154657</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27560</v>
+        <v>27556</v>
       </c>
       <c r="M100" t="n">
         <v>12758</v>
       </c>
       <c r="N100" t="n">
-        <v>21670</v>
+        <v>21692</v>
       </c>
       <c r="O100" t="n">
-        <v>16185</v>
+        <v>16201</v>
       </c>
       <c r="P100" t="n">
         <v>4536</v>
@@ -7658,10 +7658,10 @@
         <v>2059.6</v>
       </c>
       <c r="R100" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S100" t="n">
-        <v>2360</v>
+        <v>2362.3</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7684,7 +7684,7 @@
         <v>43960</v>
       </c>
       <c r="B101" t="n">
-        <v>1523</v>
+        <v>1065</v>
       </c>
       <c r="C101" t="n">
         <v>178</v>
@@ -7696,7 +7696,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12059</v>
+        <v>12061</v>
       </c>
       <c r="G101" t="n">
         <v>1685</v>
@@ -7705,25 +7705,25 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252683</v>
+        <v>252679</v>
       </c>
       <c r="J101" t="n">
-        <v>154886</v>
+        <v>154951</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27000</v>
+        <v>26997</v>
       </c>
       <c r="M101" t="n">
         <v>13481</v>
       </c>
       <c r="N101" t="n">
-        <v>21452</v>
+        <v>21475</v>
       </c>
       <c r="O101" t="n">
-        <v>16222</v>
+        <v>16238</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
@@ -7735,7 +7735,7 @@
         <v>294</v>
       </c>
       <c r="S101" t="n">
-        <v>2354.1</v>
+        <v>2356.4</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7758,7 +7758,7 @@
         <v>43961</v>
       </c>
       <c r="B102" t="n">
-        <v>1319</v>
+        <v>885</v>
       </c>
       <c r="C102" t="n">
         <v>104</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11682</v>
+        <v>11685</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,25 +7779,25 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251641</v>
+        <v>251637</v>
       </c>
       <c r="J102" t="n">
-        <v>155112</v>
+        <v>155179</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23258</v>
+        <v>23257</v>
       </c>
       <c r="M102" t="n">
         <v>10690</v>
       </c>
       <c r="N102" t="n">
-        <v>20608</v>
+        <v>20632</v>
       </c>
       <c r="O102" t="n">
-        <v>15678</v>
+        <v>15693</v>
       </c>
       <c r="P102" t="n">
         <v>-1042</v>
@@ -7806,10 +7806,10 @@
         <v>1777</v>
       </c>
       <c r="R102" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S102" t="n">
-        <v>2349.7</v>
+        <v>2352.3</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7832,7 +7832,7 @@
         <v>43962</v>
       </c>
       <c r="B103" t="n">
-        <v>889</v>
+        <v>463</v>
       </c>
       <c r="C103" t="n">
         <v>213</v>
@@ -7844,7 +7844,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11599</v>
+        <v>11602</v>
       </c>
       <c r="G103" t="n">
         <v>1568</v>
@@ -7853,25 +7853,25 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255267</v>
+        <v>255263</v>
       </c>
       <c r="J103" t="n">
-        <v>155674</v>
+        <v>155741</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27082</v>
+        <v>27081</v>
       </c>
       <c r="M103" t="n">
         <v>12261</v>
       </c>
       <c r="N103" t="n">
-        <v>19917</v>
+        <v>19938</v>
       </c>
       <c r="O103" t="n">
-        <v>3233</v>
+        <v>3244</v>
       </c>
       <c r="P103" t="n">
         <v>3626</v>
@@ -7883,7 +7883,7 @@
         <v>562</v>
       </c>
       <c r="S103" t="n">
-        <v>2320</v>
+        <v>2322.1</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7906,7 +7906,7 @@
         <v>43963</v>
       </c>
       <c r="B104" t="n">
-        <v>863</v>
+        <v>417</v>
       </c>
       <c r="C104" t="n">
         <v>329</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11259</v>
+        <v>11262</v>
       </c>
       <c r="G104" t="n">
         <v>1499</v>
@@ -7927,10 +7927,10 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>256947</v>
+        <v>256943</v>
       </c>
       <c r="J104" t="n">
-        <v>156331</v>
+        <v>156398</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -7942,10 +7942,10 @@
         <v>10994</v>
       </c>
       <c r="N104" t="n">
-        <v>19621</v>
+        <v>19642</v>
       </c>
       <c r="O104" t="n">
-        <v>3084</v>
+        <v>3092</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
@@ -7957,7 +7957,7 @@
         <v>657</v>
       </c>
       <c r="S104" t="n">
-        <v>555.7</v>
+        <v>557.3</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7980,7 +7980,7 @@
         <v>43964</v>
       </c>
       <c r="B105" t="n">
-        <v>786</v>
+        <v>334</v>
       </c>
       <c r="C105" t="n">
         <v>353</v>
@@ -7992,7 +7992,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10855</v>
+        <v>10859</v>
       </c>
       <c r="G105" t="n">
         <v>1418</v>
@@ -8001,10 +8001,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258547</v>
+        <v>258543</v>
       </c>
       <c r="J105" t="n">
-        <v>157011</v>
+        <v>157078</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -8016,10 +8016,10 @@
         <v>12218</v>
       </c>
       <c r="N105" t="n">
-        <v>19447</v>
+        <v>19465</v>
       </c>
       <c r="O105" t="n">
-        <v>3075</v>
+        <v>3080</v>
       </c>
       <c r="P105" t="n">
         <v>1600</v>
@@ -8031,7 +8031,7 @@
         <v>680</v>
       </c>
       <c r="S105" t="n">
-        <v>537.7</v>
+        <v>538.9</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8054,7 +8054,7 @@
         <v>43965</v>
       </c>
       <c r="B106" t="n">
-        <v>626</v>
+        <v>152</v>
       </c>
       <c r="C106" t="n">
         <v>305</v>
@@ -8066,7 +8066,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10439</v>
+        <v>10441</v>
       </c>
       <c r="G106" t="n">
         <v>1381</v>
@@ -8075,10 +8075,10 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203331</v>
+        <v>203327</v>
       </c>
       <c r="J106" t="n">
-        <v>184929</v>
+        <v>184999</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -8090,10 +8090,10 @@
         <v>-47534</v>
       </c>
       <c r="N106" t="n">
-        <v>46857</v>
+        <v>46878</v>
       </c>
       <c r="O106" t="n">
-        <v>30337</v>
+        <v>30342</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6142.6</v>
       </c>
       <c r="R106" t="n">
-        <v>27918</v>
+        <v>27921</v>
       </c>
       <c r="S106" t="n">
-        <v>4427.6</v>
+        <v>4428.7</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8128,10 +8128,10 @@
         <v>43966</v>
       </c>
       <c r="B107" t="n">
-        <v>653</v>
+        <v>164</v>
       </c>
       <c r="C107" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D107" t="n">
         <v>12359</v>
@@ -8140,7 +8140,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10019</v>
+        <v>10021</v>
       </c>
       <c r="G107" t="n">
         <v>1391</v>
@@ -8149,37 +8149,37 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204627</v>
+        <v>204622</v>
       </c>
       <c r="J107" t="n">
-        <v>198342</v>
+        <v>198416</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33480</v>
+        <v>-33481</v>
       </c>
       <c r="M107" t="n">
-        <v>-48056</v>
+        <v>-48057</v>
       </c>
       <c r="N107" t="n">
-        <v>59935</v>
+        <v>59960</v>
       </c>
       <c r="O107" t="n">
-        <v>43456</v>
+        <v>43465</v>
       </c>
       <c r="P107" t="n">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6605.4</v>
+        <v>-6605.6</v>
       </c>
       <c r="R107" t="n">
-        <v>13413</v>
+        <v>13417</v>
       </c>
       <c r="S107" t="n">
-        <v>6250</v>
+        <v>6251.3</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8202,7 +8202,7 @@
         <v>43967</v>
       </c>
       <c r="B108" t="n">
-        <v>651</v>
+        <v>133</v>
       </c>
       <c r="C108" t="n">
         <v>210</v>
@@ -8214,7 +8214,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9739</v>
+        <v>9741</v>
       </c>
       <c r="G108" t="n">
         <v>1354</v>
@@ -8223,37 +8223,37 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205240</v>
+        <v>205235</v>
       </c>
       <c r="J108" t="n">
-        <v>198663</v>
+        <v>198737</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33962</v>
+        <v>-33963</v>
       </c>
       <c r="M108" t="n">
-        <v>-46401</v>
+        <v>-46402</v>
       </c>
       <c r="N108" t="n">
-        <v>59999</v>
+        <v>60024</v>
       </c>
       <c r="O108" t="n">
-        <v>43551</v>
+        <v>43558</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6777.6</v>
+        <v>-6777.7</v>
       </c>
       <c r="R108" t="n">
         <v>321</v>
       </c>
       <c r="S108" t="n">
-        <v>6253.9</v>
+        <v>6255.1</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8276,7 +8276,7 @@
         <v>43968</v>
       </c>
       <c r="B109" t="n">
-        <v>626</v>
+        <v>135</v>
       </c>
       <c r="C109" t="n">
         <v>124</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9610</v>
+        <v>9612</v>
       </c>
       <c r="G109" t="n">
         <v>1319</v>
@@ -8297,37 +8297,37 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205590</v>
+        <v>205585</v>
       </c>
       <c r="J109" t="n">
-        <v>198910</v>
+        <v>198985</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35361</v>
+        <v>-35362</v>
       </c>
       <c r="M109" t="n">
-        <v>-49677</v>
+        <v>-49678</v>
       </c>
       <c r="N109" t="n">
-        <v>59476</v>
+        <v>59499</v>
       </c>
       <c r="O109" t="n">
-        <v>43236</v>
+        <v>43244</v>
       </c>
       <c r="P109" t="n">
         <v>350</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6578.7</v>
+        <v>-6578.9</v>
       </c>
       <c r="R109" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S109" t="n">
-        <v>6256.9</v>
+        <v>6258</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,7 +8362,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9528</v>
+        <v>9529</v>
       </c>
       <c r="G110" t="n">
         <v>1302</v>
@@ -8371,37 +8371,37 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179074</v>
+        <v>179069</v>
       </c>
       <c r="J110" t="n">
-        <v>224217</v>
+        <v>224294</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63932</v>
+        <v>-63933</v>
       </c>
       <c r="M110" t="n">
-        <v>-77873</v>
+        <v>-77874</v>
       </c>
       <c r="N110" t="n">
-        <v>71776</v>
+        <v>71797</v>
       </c>
       <c r="O110" t="n">
-        <v>67886</v>
+        <v>67896</v>
       </c>
       <c r="P110" t="n">
         <v>-26516</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10884.7</v>
+        <v>-10884.9</v>
       </c>
       <c r="R110" t="n">
-        <v>25307</v>
+        <v>25309</v>
       </c>
       <c r="S110" t="n">
-        <v>9791.9</v>
+        <v>9793.3</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8445,37 +8445,37 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>174979</v>
+        <v>174974</v>
       </c>
       <c r="J111" t="n">
-        <v>230468</v>
+        <v>230545</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70974</v>
+        <v>-70975</v>
       </c>
       <c r="M111" t="n">
-        <v>-83568</v>
+        <v>-83569</v>
       </c>
       <c r="N111" t="n">
-        <v>77221</v>
+        <v>77239</v>
       </c>
       <c r="O111" t="n">
-        <v>73457</v>
+        <v>73467</v>
       </c>
       <c r="P111" t="n">
         <v>-4095</v>
       </c>
       <c r="Q111" t="n">
-        <v>-11709.7</v>
+        <v>-11709.9</v>
       </c>
       <c r="R111" t="n">
         <v>6251</v>
       </c>
       <c r="S111" t="n">
-        <v>10591</v>
+        <v>10592.4</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8519,37 +8519,37 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175542</v>
+        <v>175537</v>
       </c>
       <c r="J112" t="n">
-        <v>231223</v>
+        <v>231304</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70787</v>
+        <v>-70788</v>
       </c>
       <c r="M112" t="n">
-        <v>-27789</v>
+        <v>-27790</v>
       </c>
       <c r="N112" t="n">
-        <v>77287</v>
+        <v>77306</v>
       </c>
       <c r="O112" t="n">
-        <v>46294</v>
+        <v>46305</v>
       </c>
       <c r="P112" t="n">
         <v>563</v>
       </c>
       <c r="Q112" t="n">
-        <v>-11857.9</v>
+        <v>-11858</v>
       </c>
       <c r="R112" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="S112" t="n">
-        <v>10601.7</v>
+        <v>10603.7</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8593,37 +8593,37 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83713</v>
+        <v>83708</v>
       </c>
       <c r="J113" t="n">
-        <v>232078</v>
+        <v>232159</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167152</v>
+        <v>-167153</v>
       </c>
       <c r="M113" t="n">
         <v>-120914</v>
       </c>
       <c r="N113" t="n">
-        <v>77486</v>
+        <v>77502</v>
       </c>
       <c r="O113" t="n">
-        <v>33736</v>
+        <v>33743</v>
       </c>
       <c r="P113" t="n">
         <v>-91829</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.3</v>
+        <v>-17088.4</v>
       </c>
       <c r="R113" t="n">
         <v>855</v>
       </c>
       <c r="S113" t="n">
-        <v>6735.6</v>
+        <v>6737.1</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8658,7 +8658,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8284</v>
+        <v>8285</v>
       </c>
       <c r="G114" t="n">
         <v>696</v>
@@ -8667,25 +8667,25 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84200</v>
+        <v>84195</v>
       </c>
       <c r="J114" t="n">
-        <v>232930</v>
+        <v>233015</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168483</v>
+        <v>-168484</v>
       </c>
       <c r="M114" t="n">
         <v>-121040</v>
       </c>
       <c r="N114" t="n">
-        <v>78044</v>
+        <v>78064</v>
       </c>
       <c r="O114" t="n">
-        <v>34267</v>
+        <v>34278</v>
       </c>
       <c r="P114" t="n">
         <v>487</v>
@@ -8694,10 +8694,10 @@
         <v>-17203.9</v>
       </c>
       <c r="R114" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="S114" t="n">
-        <v>4941.1</v>
+        <v>4942.7</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8052</v>
+        <v>8053</v>
       </c>
       <c r="G115" t="n">
         <v>704</v>
@@ -8741,25 +8741,25 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84414</v>
+        <v>84409</v>
       </c>
       <c r="J115" t="n">
-        <v>233254</v>
+        <v>233338</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167227</v>
+        <v>-167228</v>
       </c>
       <c r="M115" t="n">
         <v>-121176</v>
       </c>
       <c r="N115" t="n">
-        <v>78142</v>
+        <v>78159</v>
       </c>
       <c r="O115" t="n">
-        <v>34344</v>
+        <v>34353</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8768,10 +8768,10 @@
         <v>-17260.9</v>
       </c>
       <c r="R115" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S115" t="n">
-        <v>4941.6</v>
+        <v>4943</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7940</v>
+        <v>7941</v>
       </c>
       <c r="G116" t="n">
         <v>677</v>
@@ -8815,25 +8815,25 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84577</v>
+        <v>84572</v>
       </c>
       <c r="J116" t="n">
-        <v>233544</v>
+        <v>233629</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170690</v>
+        <v>-170691</v>
       </c>
       <c r="M116" t="n">
         <v>-94497</v>
       </c>
       <c r="N116" t="n">
-        <v>77870</v>
+        <v>77888</v>
       </c>
       <c r="O116" t="n">
-        <v>9327</v>
+        <v>9335</v>
       </c>
       <c r="P116" t="n">
         <v>163</v>
@@ -8842,10 +8842,10 @@
         <v>-17287.6</v>
       </c>
       <c r="R116" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S116" t="n">
-        <v>4947.7</v>
+        <v>4949.1</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8889,25 +8889,25 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84923</v>
+        <v>84918</v>
       </c>
       <c r="J117" t="n">
-        <v>234066</v>
+        <v>234151</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172024</v>
+        <v>-172025</v>
       </c>
       <c r="M117" t="n">
         <v>-90056</v>
       </c>
       <c r="N117" t="n">
-        <v>77735</v>
+        <v>77753</v>
       </c>
       <c r="O117" t="n">
-        <v>3598</v>
+        <v>3606</v>
       </c>
       <c r="P117" t="n">
         <v>346</v>
@@ -8919,7 +8919,7 @@
         <v>522</v>
       </c>
       <c r="S117" t="n">
-        <v>1407</v>
+        <v>1408.1</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8963,25 +8963,25 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85300</v>
+        <v>85295</v>
       </c>
       <c r="J118" t="n">
-        <v>234741</v>
+        <v>234826</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173247</v>
+        <v>-173248</v>
       </c>
       <c r="M118" t="n">
         <v>-90242</v>
       </c>
       <c r="N118" t="n">
-        <v>77730</v>
+        <v>77748</v>
       </c>
       <c r="O118" t="n">
-        <v>3518</v>
+        <v>3522</v>
       </c>
       <c r="P118" t="n">
         <v>377</v>
@@ -8993,7 +8993,7 @@
         <v>675</v>
       </c>
       <c r="S118" t="n">
-        <v>610.4</v>
+        <v>611.6</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9037,25 +9037,25 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85693</v>
+        <v>85688</v>
       </c>
       <c r="J119" t="n">
-        <v>235486</v>
+        <v>235572</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117638</v>
+        <v>-117639</v>
       </c>
       <c r="M119" t="n">
         <v>1980</v>
       </c>
       <c r="N119" t="n">
-        <v>50557</v>
+        <v>50573</v>
       </c>
       <c r="O119" t="n">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="P119" t="n">
         <v>393</v>
@@ -9064,10 +9064,10 @@
         <v>-12835.6</v>
       </c>
       <c r="R119" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S119" t="n">
-        <v>609</v>
+        <v>609.7</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9111,10 +9111,10 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83909</v>
+        <v>83904</v>
       </c>
       <c r="J120" t="n">
-        <v>236153</v>
+        <v>236243</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,10 +9126,10 @@
         <v>-291</v>
       </c>
       <c r="N120" t="n">
-        <v>37811</v>
+        <v>37827</v>
       </c>
       <c r="O120" t="n">
-        <v>3223</v>
+        <v>3228</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9138,10 +9138,10 @@
         <v>28</v>
       </c>
       <c r="R120" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="S120" t="n">
-        <v>582.1</v>
+        <v>583.4</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9185,10 +9185,10 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86293</v>
+        <v>86288</v>
       </c>
       <c r="J121" t="n">
-        <v>236854</v>
+        <v>236948</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1879</v>
       </c>
       <c r="N121" t="n">
-        <v>38191</v>
+        <v>38211</v>
       </c>
       <c r="O121" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="P121" t="n">
         <v>2384</v>
@@ -9212,10 +9212,10 @@
         <v>299</v>
       </c>
       <c r="R121" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="S121" t="n">
-        <v>560.6</v>
+        <v>561.9</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9259,10 +9259,10 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86434</v>
+        <v>86429</v>
       </c>
       <c r="J122" t="n">
-        <v>237205</v>
+        <v>237300</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -9274,10 +9274,10 @@
         <v>1857</v>
       </c>
       <c r="N122" t="n">
-        <v>38295</v>
+        <v>38315</v>
       </c>
       <c r="O122" t="n">
-        <v>3661</v>
+        <v>3671</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9286,10 +9286,10 @@
         <v>288.6</v>
       </c>
       <c r="R122" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S122" t="n">
-        <v>564.4</v>
+        <v>566</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9333,10 +9333,10 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86481</v>
+        <v>86476</v>
       </c>
       <c r="J123" t="n">
-        <v>237472</v>
+        <v>237568</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -9348,10 +9348,10 @@
         <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13255</v>
+        <v>13274</v>
       </c>
       <c r="O123" t="n">
-        <v>3406</v>
+        <v>3417</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9360,10 +9360,10 @@
         <v>272</v>
       </c>
       <c r="R123" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S123" t="n">
-        <v>561.1</v>
+        <v>562.7</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9407,10 +9407,10 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86558</v>
+        <v>86553</v>
       </c>
       <c r="J124" t="n">
-        <v>237819</v>
+        <v>237917</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -9422,10 +9422,10 @@
         <v>1258</v>
       </c>
       <c r="N124" t="n">
-        <v>7351</v>
+        <v>7372</v>
       </c>
       <c r="O124" t="n">
-        <v>3078</v>
+        <v>3091</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>233.6</v>
       </c>
       <c r="R124" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S124" t="n">
-        <v>536.1</v>
+        <v>538</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9481,10 +9481,10 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84737</v>
+        <v>84732</v>
       </c>
       <c r="J125" t="n">
-        <v>238399</v>
+        <v>238501</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -9496,10 +9496,10 @@
         <v>-956</v>
       </c>
       <c r="N125" t="n">
-        <v>7176</v>
+        <v>7197</v>
       </c>
       <c r="O125" t="n">
-        <v>2913</v>
+        <v>2929</v>
       </c>
       <c r="P125" t="n">
         <v>-1821</v>
@@ -9508,10 +9508,10 @@
         <v>-80.4</v>
       </c>
       <c r="R125" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="S125" t="n">
-        <v>522.6</v>
+        <v>525</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="G126" t="n">
         <v>444</v>
@@ -9555,10 +9555,10 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87068</v>
+        <v>87063</v>
       </c>
       <c r="J126" t="n">
-        <v>239020</v>
+        <v>239122</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -9570,10 +9570,10 @@
         <v>3159</v>
       </c>
       <c r="N126" t="n">
-        <v>6942</v>
+        <v>6963</v>
       </c>
       <c r="O126" t="n">
-        <v>2867</v>
+        <v>2879</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
@@ -9585,7 +9585,7 @@
         <v>621</v>
       </c>
       <c r="S126" t="n">
-        <v>504.9</v>
+        <v>507.1</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="G127" t="n">
         <v>422</v>
@@ -9629,10 +9629,10 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94538</v>
+        <v>94533</v>
       </c>
       <c r="J127" t="n">
-        <v>239561</v>
+        <v>239667</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -9644,10 +9644,10 @@
         <v>8245</v>
       </c>
       <c r="N127" t="n">
-        <v>6631</v>
+        <v>6652</v>
       </c>
       <c r="O127" t="n">
-        <v>2707</v>
+        <v>2719</v>
       </c>
       <c r="P127" t="n">
         <v>7470</v>
@@ -9656,10 +9656,10 @@
         <v>1518.4</v>
       </c>
       <c r="R127" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="S127" t="n">
-        <v>486.9</v>
+        <v>489.1</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="G128" t="n">
         <v>400</v>
@@ -9703,10 +9703,10 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97050</v>
+        <v>97045</v>
       </c>
       <c r="J128" t="n">
-        <v>242244</v>
+        <v>242356</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -9718,10 +9718,10 @@
         <v>10616</v>
       </c>
       <c r="N128" t="n">
-        <v>8990</v>
+        <v>9018</v>
       </c>
       <c r="O128" t="n">
-        <v>5039</v>
+        <v>5056</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
@@ -9730,10 +9730,10 @@
         <v>1536.7</v>
       </c>
       <c r="R128" t="n">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="S128" t="n">
-        <v>770</v>
+        <v>772.6</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G129" t="n">
         <v>401</v>
@@ -9777,10 +9777,10 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97042</v>
+        <v>97037</v>
       </c>
       <c r="J129" t="n">
-        <v>242580</v>
+        <v>242693</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -9792,10 +9792,10 @@
         <v>10561</v>
       </c>
       <c r="N129" t="n">
-        <v>9036</v>
+        <v>9064</v>
       </c>
       <c r="O129" t="n">
-        <v>5108</v>
+        <v>5125</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
@@ -9804,10 +9804,10 @@
         <v>1515.4</v>
       </c>
       <c r="R129" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S129" t="n">
-        <v>767.9</v>
+        <v>770.4</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9851,10 +9851,10 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97199</v>
+        <v>97194</v>
       </c>
       <c r="J130" t="n">
-        <v>243174</v>
+        <v>243289</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -9866,10 +9866,10 @@
         <v>10641</v>
       </c>
       <c r="N130" t="n">
-        <v>9108</v>
+        <v>9138</v>
       </c>
       <c r="O130" t="n">
-        <v>5355</v>
+        <v>5372</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
@@ -9878,10 +9878,10 @@
         <v>1531.1</v>
       </c>
       <c r="R130" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="S130" t="n">
-        <v>814.6</v>
+        <v>817.3</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9907,7 +9907,7 @@
         <v>22</v>
       </c>
       <c r="C131" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D131" t="n">
         <v>42</v>
@@ -9925,37 +9925,37 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97345</v>
+        <v>97339</v>
       </c>
       <c r="J131" t="n">
-        <v>243486</v>
+        <v>243601</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12045</v>
+        <v>12044</v>
       </c>
       <c r="M131" t="n">
-        <v>12608</v>
+        <v>12607</v>
       </c>
       <c r="N131" t="n">
-        <v>8745</v>
+        <v>8775</v>
       </c>
       <c r="O131" t="n">
-        <v>5087</v>
+        <v>5100</v>
       </c>
       <c r="P131" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q131" t="n">
-        <v>1541</v>
+        <v>1540.9</v>
       </c>
       <c r="R131" t="n">
         <v>312</v>
       </c>
       <c r="S131" t="n">
-        <v>809.6</v>
+        <v>812</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9999,37 +9999,37 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97517</v>
+        <v>97511</v>
       </c>
       <c r="J132" t="n">
-        <v>243896</v>
+        <v>244012</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11824</v>
+        <v>11823</v>
       </c>
       <c r="M132" t="n">
-        <v>10449</v>
+        <v>10448</v>
       </c>
       <c r="N132" t="n">
-        <v>8410</v>
+        <v>8440</v>
       </c>
       <c r="O132" t="n">
-        <v>4876</v>
+        <v>4890</v>
       </c>
       <c r="P132" t="n">
         <v>172</v>
       </c>
       <c r="Q132" t="n">
-        <v>1825.7</v>
+        <v>1825.6</v>
       </c>
       <c r="R132" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S132" t="n">
-        <v>785.3</v>
+        <v>787.3</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10073,37 +10073,37 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97723</v>
+        <v>97717</v>
       </c>
       <c r="J133" t="n">
-        <v>244327</v>
+        <v>244446</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13814</v>
+        <v>13813</v>
       </c>
       <c r="M133" t="n">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="N133" t="n">
-        <v>8174</v>
+        <v>8203</v>
       </c>
       <c r="O133" t="n">
-        <v>4766</v>
+        <v>4779</v>
       </c>
       <c r="P133" t="n">
         <v>206</v>
       </c>
       <c r="Q133" t="n">
-        <v>1522.1</v>
+        <v>1522</v>
       </c>
       <c r="R133" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="S133" t="n">
-        <v>758.1</v>
+        <v>760.6</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10147,37 +10147,37 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97876</v>
+        <v>97870</v>
       </c>
       <c r="J134" t="n">
-        <v>244745</v>
+        <v>244865</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11583</v>
+        <v>11582</v>
       </c>
       <c r="M134" t="n">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N134" t="n">
-        <v>7891</v>
+        <v>7917</v>
       </c>
       <c r="O134" t="n">
-        <v>2501</v>
+        <v>2509</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
       </c>
       <c r="Q134" t="n">
-        <v>476.9</v>
+        <v>476.7</v>
       </c>
       <c r="R134" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S134" t="n">
-        <v>740.6</v>
+        <v>742.6</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="G135" t="n">
         <v>321</v>
@@ -10221,37 +10221,37 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98084</v>
+        <v>98078</v>
       </c>
       <c r="J135" t="n">
-        <v>245212</v>
+        <v>245335</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11650</v>
+        <v>11649</v>
       </c>
       <c r="M135" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N135" t="n">
-        <v>8007</v>
+        <v>8035</v>
       </c>
       <c r="O135" t="n">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
       </c>
       <c r="Q135" t="n">
-        <v>147.7</v>
+        <v>147.6</v>
       </c>
       <c r="R135" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="S135" t="n">
-        <v>424</v>
+        <v>425.6</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,46 +10286,46 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G136" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H136" t="n">
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98141</v>
+        <v>98135</v>
       </c>
       <c r="J136" t="n">
-        <v>245343</v>
+        <v>245468</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11660</v>
+        <v>11659</v>
       </c>
       <c r="M136" t="n">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N136" t="n">
-        <v>7871</v>
+        <v>7900</v>
       </c>
       <c r="O136" t="n">
-        <v>2169</v>
+        <v>2179</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
       </c>
       <c r="Q136" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="R136" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S136" t="n">
-        <v>394.7</v>
+        <v>396.4</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,46 +10360,46 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G137" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H137" t="n">
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98177</v>
+        <v>98171</v>
       </c>
       <c r="J137" t="n">
-        <v>245442</v>
+        <v>245567</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="M137" t="n">
         <v>832</v>
       </c>
       <c r="N137" t="n">
-        <v>7623</v>
+        <v>7650</v>
       </c>
       <c r="O137" t="n">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
       </c>
       <c r="Q137" t="n">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
       <c r="R137" t="n">
         <v>99</v>
       </c>
       <c r="S137" t="n">
-        <v>324</v>
+        <v>325.4</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,34 +10434,34 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G138" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H138" t="n">
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98289</v>
+        <v>98283</v>
       </c>
       <c r="J138" t="n">
-        <v>245787</v>
+        <v>245914</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
       </c>
       <c r="L138" t="n">
-        <v>13552</v>
+        <v>13551</v>
       </c>
       <c r="M138" t="n">
         <v>772</v>
       </c>
       <c r="N138" t="n">
-        <v>7388</v>
+        <v>7413</v>
       </c>
       <c r="O138" t="n">
-        <v>1891</v>
+        <v>1902</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>134.9</v>
       </c>
       <c r="R138" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S138" t="n">
-        <v>328.7</v>
+        <v>330.4</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G139" t="n">
         <v>287</v>
@@ -10517,25 +10517,25 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98465</v>
+        <v>98459</v>
       </c>
       <c r="J139" t="n">
-        <v>243961</v>
+        <v>244090</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
       </c>
       <c r="L139" t="n">
-        <v>11397</v>
+        <v>11396</v>
       </c>
       <c r="M139" t="n">
         <v>742</v>
       </c>
       <c r="N139" t="n">
-        <v>4941</v>
+        <v>4968</v>
       </c>
       <c r="O139" t="n">
-        <v>-366</v>
+        <v>-356</v>
       </c>
       <c r="P139" t="n">
         <v>176</v>
@@ -10544,10 +10544,10 @@
         <v>135.4</v>
       </c>
       <c r="R139" t="n">
-        <v>-1826</v>
+        <v>-1824</v>
       </c>
       <c r="S139" t="n">
-        <v>9.3</v>
+        <v>11.1</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G140" t="n">
         <v>275</v>
@@ -10591,25 +10591,25 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98605</v>
+        <v>98599</v>
       </c>
       <c r="J140" t="n">
-        <v>244303</v>
+        <v>244437</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
       </c>
       <c r="L140" t="n">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="M140" t="n">
         <v>729</v>
       </c>
       <c r="N140" t="n">
-        <v>4742</v>
+        <v>4770</v>
       </c>
       <c r="O140" t="n">
-        <v>-442</v>
+        <v>-428</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126</v>
       </c>
       <c r="R140" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="S140" t="n">
-        <v>-3.4</v>
+        <v>-1.3</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10665,25 +10665,25 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98818</v>
+        <v>98812</v>
       </c>
       <c r="J141" t="n">
-        <v>244809</v>
+        <v>244945</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
       </c>
       <c r="L141" t="n">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="M141" t="n">
         <v>734</v>
       </c>
       <c r="N141" t="n">
-        <v>2565</v>
+        <v>2589</v>
       </c>
       <c r="O141" t="n">
-        <v>-403</v>
+        <v>-390</v>
       </c>
       <c r="P141" t="n">
         <v>213</v>
@@ -10692,10 +10692,10 @@
         <v>134.6</v>
       </c>
       <c r="R141" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="S141" t="n">
-        <v>9.1</v>
+        <v>11.4</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10739,25 +10739,25 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99004</v>
+        <v>98998</v>
       </c>
       <c r="J142" t="n">
-        <v>245193</v>
+        <v>245332</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
       </c>
       <c r="L142" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="M142" t="n">
         <v>863</v>
       </c>
       <c r="N142" t="n">
-        <v>2613</v>
+        <v>2639</v>
       </c>
       <c r="O142" t="n">
-        <v>-150</v>
+        <v>-136</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10766,10 +10766,10 @@
         <v>131.4</v>
       </c>
       <c r="R142" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="S142" t="n">
-        <v>-2.7</v>
+        <v>-0.4</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10813,25 +10813,25 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99087</v>
+        <v>99081</v>
       </c>
       <c r="J143" t="n">
-        <v>245421</v>
+        <v>245560</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
       </c>
       <c r="L143" t="n">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="M143" t="n">
         <v>910</v>
       </c>
       <c r="N143" t="n">
-        <v>2247</v>
+        <v>2271</v>
       </c>
       <c r="O143" t="n">
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
@@ -10843,7 +10843,7 @@
         <v>228</v>
       </c>
       <c r="S143" t="n">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10887,10 +10887,10 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99143</v>
+        <v>99137</v>
       </c>
       <c r="J144" t="n">
-        <v>245616</v>
+        <v>245756</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>854</v>
       </c>
       <c r="N144" t="n">
-        <v>2130</v>
+        <v>2155</v>
       </c>
       <c r="O144" t="n">
-        <v>-171</v>
+        <v>-158</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10914,10 +10914,10 @@
         <v>138</v>
       </c>
       <c r="R144" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S144" t="n">
-        <v>24.9</v>
+        <v>27</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10961,10 +10961,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99266</v>
+        <v>99260</v>
       </c>
       <c r="J145" t="n">
-        <v>245854</v>
+        <v>245998</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>801</v>
       </c>
       <c r="N145" t="n">
-        <v>1958</v>
+        <v>1986</v>
       </c>
       <c r="O145" t="n">
-        <v>1893</v>
+        <v>1908</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10988,10 +10988,10 @@
         <v>139.6</v>
       </c>
       <c r="R145" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S145" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99335</v>
+        <v>99329</v>
       </c>
       <c r="J146" t="n">
-        <v>246220</v>
+        <v>246366</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>730</v>
       </c>
       <c r="N146" t="n">
-        <v>1893</v>
+        <v>1920</v>
       </c>
       <c r="O146" t="n">
-        <v>1917</v>
+        <v>1929</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11062,10 +11062,10 @@
         <v>124.3</v>
       </c>
       <c r="R146" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="S146" t="n">
-        <v>322.7</v>
+        <v>325.1</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11109,10 +11109,10 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97258</v>
+        <v>97252</v>
       </c>
       <c r="J147" t="n">
-        <v>246549</v>
+        <v>246696</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,10 +11124,10 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>1804</v>
+        <v>1831</v>
       </c>
       <c r="O147" t="n">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.4</v>
       </c>
       <c r="R147" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S147" t="n">
-        <v>320.9</v>
+        <v>322.7</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11183,10 +11183,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99711</v>
+        <v>99705</v>
       </c>
       <c r="J148" t="n">
-        <v>246942</v>
+        <v>247091</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>707</v>
       </c>
       <c r="N148" t="n">
-        <v>1730</v>
+        <v>1756</v>
       </c>
       <c r="O148" t="n">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="P148" t="n">
         <v>2453</v>
@@ -11210,10 +11210,10 @@
         <v>127.6</v>
       </c>
       <c r="R148" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="S148" t="n">
-        <v>304.7</v>
+        <v>306.6</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11257,10 +11257,10 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>99999</v>
+        <v>99993</v>
       </c>
       <c r="J149" t="n">
-        <v>247498</v>
+        <v>247650</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11272,10 +11272,10 @@
         <v>912</v>
       </c>
       <c r="N149" t="n">
-        <v>2155</v>
+        <v>2182</v>
       </c>
       <c r="O149" t="n">
-        <v>2077</v>
+        <v>2090</v>
       </c>
       <c r="P149" t="n">
         <v>288</v>
@@ -11284,10 +11284,10 @@
         <v>142.1</v>
       </c>
       <c r="R149" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S149" t="n">
-        <v>329.3</v>
+        <v>331.1</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11331,10 +11331,10 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97829</v>
+        <v>97823</v>
       </c>
       <c r="J150" t="n">
-        <v>247755</v>
+        <v>247909</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>-1314</v>
       </c>
       <c r="N150" t="n">
-        <v>2313</v>
+        <v>2342</v>
       </c>
       <c r="O150" t="n">
-        <v>2139</v>
+        <v>2153</v>
       </c>
       <c r="P150" t="n">
         <v>-2170</v>
@@ -11358,10 +11358,10 @@
         <v>-179.7</v>
       </c>
       <c r="R150" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S150" t="n">
-        <v>333.4</v>
+        <v>335.6</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11405,10 +11405,10 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97924</v>
+        <v>97918</v>
       </c>
       <c r="J151" t="n">
-        <v>247950</v>
+        <v>248104</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11420,10 +11420,10 @@
         <v>-1342</v>
       </c>
       <c r="N151" t="n">
-        <v>2163</v>
+        <v>2190</v>
       </c>
       <c r="O151" t="n">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="P151" t="n">
         <v>95</v>
@@ -11435,7 +11435,7 @@
         <v>195</v>
       </c>
       <c r="S151" t="n">
-        <v>333.4</v>
+        <v>335.4</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100418</v>
+        <v>100412</v>
       </c>
       <c r="J152" t="n">
-        <v>248200</v>
+        <v>248355</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>1083</v>
       </c>
       <c r="N152" t="n">
-        <v>4239</v>
+        <v>4265</v>
       </c>
       <c r="O152" t="n">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="P152" t="n">
         <v>2494</v>
@@ -11506,10 +11506,10 @@
         <v>164.6</v>
       </c>
       <c r="R152" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S152" t="n">
-        <v>335.1</v>
+        <v>336.7</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11553,10 +11553,10 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100724</v>
+        <v>100718</v>
       </c>
       <c r="J153" t="n">
-        <v>248630</v>
+        <v>248787</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>3466</v>
       </c>
       <c r="N153" t="n">
-        <v>4327</v>
+        <v>4350</v>
       </c>
       <c r="O153" t="n">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="P153" t="n">
         <v>306</v>
@@ -11580,10 +11580,10 @@
         <v>198.4</v>
       </c>
       <c r="R153" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="S153" t="n">
-        <v>344.3</v>
+        <v>345.9</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11627,10 +11627,10 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101122</v>
+        <v>101116</v>
       </c>
       <c r="J154" t="n">
-        <v>249052</v>
+        <v>249212</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11642,10 +11642,10 @@
         <v>1411</v>
       </c>
       <c r="N154" t="n">
-        <v>4243</v>
+        <v>4267</v>
       </c>
       <c r="O154" t="n">
-        <v>2110</v>
+        <v>2121</v>
       </c>
       <c r="P154" t="n">
         <v>398</v>
@@ -11654,10 +11654,10 @@
         <v>552</v>
       </c>
       <c r="R154" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="S154" t="n">
-        <v>357.6</v>
+        <v>359.4</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11701,10 +11701,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101524</v>
+        <v>101518</v>
       </c>
       <c r="J155" t="n">
-        <v>249524</v>
+        <v>249685</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -11716,10 +11716,10 @@
         <v>1525</v>
       </c>
       <c r="N155" t="n">
-        <v>4331</v>
+        <v>4353</v>
       </c>
       <c r="O155" t="n">
-        <v>2026</v>
+        <v>2035</v>
       </c>
       <c r="P155" t="n">
         <v>402</v>
@@ -11728,10 +11728,10 @@
         <v>259</v>
       </c>
       <c r="R155" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S155" t="n">
-        <v>368.9</v>
+        <v>370.6</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11775,10 +11775,10 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>101972</v>
+        <v>101966</v>
       </c>
       <c r="J156" t="n">
-        <v>250040</v>
+        <v>250205</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11790,10 +11790,10 @@
         <v>4143</v>
       </c>
       <c r="N156" t="n">
-        <v>4619</v>
+        <v>4645</v>
       </c>
       <c r="O156" t="n">
-        <v>2285</v>
+        <v>2296</v>
       </c>
       <c r="P156" t="n">
         <v>448</v>
@@ -11802,10 +11802,10 @@
         <v>281.9</v>
       </c>
       <c r="R156" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="S156" t="n">
-        <v>363.1</v>
+        <v>365</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99802</v>
+        <v>99796</v>
       </c>
       <c r="J157" t="n">
-        <v>250248</v>
+        <v>250414</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11864,10 +11864,10 @@
         <v>1878</v>
       </c>
       <c r="N157" t="n">
-        <v>4632</v>
+        <v>4658</v>
       </c>
       <c r="O157" t="n">
-        <v>2298</v>
+        <v>2310</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
@@ -11876,10 +11876,10 @@
         <v>281.9</v>
       </c>
       <c r="R157" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S157" t="n">
-        <v>356.1</v>
+        <v>357.9</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11923,10 +11923,10 @@
         <v>33772</v>
       </c>
       <c r="I158" t="n">
-        <v>99983</v>
+        <v>99977</v>
       </c>
       <c r="J158" t="n">
-        <v>250405</v>
+        <v>250572</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -11938,10 +11938,10 @@
         <v>-435</v>
       </c>
       <c r="N158" t="n">
-        <v>4551</v>
+        <v>4574</v>
       </c>
       <c r="O158" t="n">
-        <v>2205</v>
+        <v>2217</v>
       </c>
       <c r="P158" t="n">
         <v>181</v>
@@ -11950,10 +11950,10 @@
         <v>294.1</v>
       </c>
       <c r="R158" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S158" t="n">
-        <v>350.7</v>
+        <v>352.6</v>
       </c>
       <c r="T158" t="n">
         <v>6</v>
@@ -11979,7 +11979,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D159" t="n">
         <v>118</v>
@@ -11997,37 +11997,37 @@
         <v>33782</v>
       </c>
       <c r="I159" t="n">
-        <v>102621</v>
+        <v>102614</v>
       </c>
       <c r="J159" t="n">
-        <v>250726</v>
+        <v>250892</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
       </c>
       <c r="L159" t="n">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="M159" t="n">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="N159" t="n">
-        <v>4506</v>
+        <v>4526</v>
       </c>
       <c r="O159" t="n">
-        <v>2096</v>
+        <v>2105</v>
       </c>
       <c r="P159" t="n">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="Q159" t="n">
-        <v>314.7</v>
+        <v>314.6</v>
       </c>
       <c r="R159" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S159" t="n">
-        <v>360.9</v>
+        <v>362.4</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12071,37 +12071,37 @@
         <v>33798</v>
       </c>
       <c r="I160" t="n">
-        <v>103181</v>
+        <v>103174</v>
       </c>
       <c r="J160" t="n">
-        <v>251341</v>
+        <v>251510</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
       </c>
       <c r="L160" t="n">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="M160" t="n">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="N160" t="n">
-        <v>4792</v>
+        <v>4814</v>
       </c>
       <c r="O160" t="n">
-        <v>2289</v>
+        <v>2298</v>
       </c>
       <c r="P160" t="n">
         <v>560</v>
       </c>
       <c r="Q160" t="n">
-        <v>351</v>
+        <v>350.9</v>
       </c>
       <c r="R160" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="S160" t="n">
-        <v>387.3</v>
+        <v>389</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -12145,37 +12145,37 @@
         <v>33807</v>
       </c>
       <c r="I161" t="n">
-        <v>103859</v>
+        <v>103852</v>
       </c>
       <c r="J161" t="n">
-        <v>251920</v>
+        <v>252092</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
       </c>
       <c r="L161" t="n">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="M161" t="n">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="N161" t="n">
-        <v>4978</v>
+        <v>5001</v>
       </c>
       <c r="O161" t="n">
-        <v>2396</v>
+        <v>2407</v>
       </c>
       <c r="P161" t="n">
         <v>678</v>
       </c>
       <c r="Q161" t="n">
-        <v>391</v>
+        <v>390.9</v>
       </c>
       <c r="R161" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="S161" t="n">
-        <v>409.7</v>
+        <v>411.4</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12219,37 +12219,37 @@
         <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104631</v>
+        <v>104624</v>
       </c>
       <c r="J162" t="n">
-        <v>252904</v>
+        <v>253078</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
       </c>
       <c r="L162" t="n">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="M162" t="n">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="N162" t="n">
-        <v>5406</v>
+        <v>5428</v>
       </c>
       <c r="O162" t="n">
-        <v>2864</v>
+        <v>2873</v>
       </c>
       <c r="P162" t="n">
         <v>772</v>
       </c>
       <c r="Q162" t="n">
-        <v>443.9</v>
+        <v>443.7</v>
       </c>
       <c r="R162" t="n">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="S162" t="n">
-        <v>482.9</v>
+        <v>484.7</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -12293,37 +12293,37 @@
         <v>33827</v>
       </c>
       <c r="I163" t="n">
-        <v>105635</v>
+        <v>105628</v>
       </c>
       <c r="J163" t="n">
-        <v>253910</v>
+        <v>254085</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>7806</v>
+        <v>7805</v>
       </c>
       <c r="M163" t="n">
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="N163" t="n">
-        <v>6155</v>
+        <v>6176</v>
       </c>
       <c r="O163" t="n">
-        <v>3662</v>
+        <v>3671</v>
       </c>
       <c r="P163" t="n">
         <v>1004</v>
       </c>
       <c r="Q163" t="n">
-        <v>523.3</v>
+        <v>523.1</v>
       </c>
       <c r="R163" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="S163" t="n">
-        <v>552.9</v>
+        <v>554.3</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12358,7 +12358,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G164" t="n">
         <v>65</v>
@@ -12367,37 +12367,37 @@
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103615</v>
+        <v>103608</v>
       </c>
       <c r="J164" t="n">
-        <v>254333</v>
+        <v>254508</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="M164" t="n">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="N164" t="n">
-        <v>6383</v>
+        <v>6404</v>
       </c>
       <c r="O164" t="n">
-        <v>3928</v>
+        <v>3936</v>
       </c>
       <c r="P164" t="n">
         <v>-2020</v>
       </c>
       <c r="Q164" t="n">
-        <v>544.7</v>
+        <v>544.6</v>
       </c>
       <c r="R164" t="n">
         <v>423</v>
       </c>
       <c r="S164" t="n">
-        <v>583.6</v>
+        <v>584.9</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12432,7 +12432,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G165" t="n">
         <v>65</v>
@@ -12441,37 +12441,37 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110623</v>
+        <v>110616</v>
       </c>
       <c r="J165" t="n">
-        <v>254941</v>
+        <v>255116</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="M165" t="n">
         <v>8002</v>
       </c>
       <c r="N165" t="n">
-        <v>6741</v>
+        <v>6761</v>
       </c>
       <c r="O165" t="n">
-        <v>4215</v>
+        <v>4224</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
       </c>
       <c r="Q165" t="n">
-        <v>1520</v>
+        <v>1519.9</v>
       </c>
       <c r="R165" t="n">
         <v>608</v>
       </c>
       <c r="S165" t="n">
-        <v>648</v>
+        <v>649.1</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -12506,7 +12506,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G166" t="n">
         <v>135</v>
@@ -12515,25 +12515,25 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114026</v>
+        <v>114019</v>
       </c>
       <c r="J166" t="n">
-        <v>255738</v>
+        <v>255915</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="M166" t="n">
         <v>10845</v>
       </c>
       <c r="N166" t="n">
-        <v>7108</v>
+        <v>7128</v>
       </c>
       <c r="O166" t="n">
-        <v>4397</v>
+        <v>4405</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
@@ -12542,10 +12542,10 @@
         <v>1629.3</v>
       </c>
       <c r="R166" t="n">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="S166" t="n">
-        <v>716</v>
+        <v>717.6</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12589,25 +12589,25 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115311</v>
+        <v>115304</v>
       </c>
       <c r="J167" t="n">
-        <v>256885</v>
+        <v>257064</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14189</v>
+        <v>14188</v>
       </c>
       <c r="M167" t="n">
         <v>11452</v>
       </c>
       <c r="N167" t="n">
-        <v>7833</v>
+        <v>7852</v>
       </c>
       <c r="O167" t="n">
-        <v>4965</v>
+        <v>4972</v>
       </c>
       <c r="P167" t="n">
         <v>1285</v>
@@ -12616,10 +12616,10 @@
         <v>1732.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="S167" t="n">
-        <v>792</v>
+        <v>793.4</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12663,25 +12663,25 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109675</v>
+        <v>109668</v>
       </c>
       <c r="J168" t="n">
-        <v>258233</v>
+        <v>258414</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>8151</v>
+        <v>8150</v>
       </c>
       <c r="M168" t="n">
         <v>5044</v>
       </c>
       <c r="N168" t="n">
-        <v>8709</v>
+        <v>8729</v>
       </c>
       <c r="O168" t="n">
-        <v>5329</v>
+        <v>5336</v>
       </c>
       <c r="P168" t="n">
         <v>-5636</v>
@@ -12690,10 +12690,10 @@
         <v>830.9</v>
       </c>
       <c r="R168" t="n">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="S168" t="n">
-        <v>901.9</v>
+        <v>903.1</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12737,25 +12737,25 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>110993</v>
+        <v>110986</v>
       </c>
       <c r="J169" t="n">
-        <v>259778</v>
+        <v>259961</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="M169" t="n">
         <v>5358</v>
       </c>
       <c r="N169" t="n">
-        <v>9738</v>
+        <v>9756</v>
       </c>
       <c r="O169" t="n">
-        <v>5868</v>
+        <v>5876</v>
       </c>
       <c r="P169" t="n">
         <v>1318</v>
@@ -12764,10 +12764,10 @@
         <v>908.9</v>
       </c>
       <c r="R169" t="n">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="S169" t="n">
-        <v>982</v>
+        <v>983.3</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
@@ -12811,25 +12811,25 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116090</v>
+        <v>116083</v>
       </c>
       <c r="J170" t="n">
-        <v>261687</v>
+        <v>261872</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16288</v>
+        <v>16287</v>
       </c>
       <c r="M170" t="n">
         <v>12475</v>
       </c>
       <c r="N170" t="n">
-        <v>11439</v>
+        <v>11458</v>
       </c>
       <c r="O170" t="n">
-        <v>7354</v>
+        <v>7364</v>
       </c>
       <c r="P170" t="n">
         <v>5097</v>
@@ -12838,10 +12838,10 @@
         <v>1493.6</v>
       </c>
       <c r="R170" t="n">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="S170" t="n">
-        <v>1111</v>
+        <v>1112.4</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -12885,25 +12885,25 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114399</v>
+        <v>114392</v>
       </c>
       <c r="J171" t="n">
-        <v>262978</v>
+        <v>263163</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>14416</v>
+        <v>14415</v>
       </c>
       <c r="M171" t="n">
         <v>3776</v>
       </c>
       <c r="N171" t="n">
-        <v>12573</v>
+        <v>12591</v>
       </c>
       <c r="O171" t="n">
-        <v>8037</v>
+        <v>8047</v>
       </c>
       <c r="P171" t="n">
         <v>-1691</v>
@@ -12915,7 +12915,7 @@
         <v>1291</v>
       </c>
       <c r="S171" t="n">
-        <v>1235</v>
+        <v>1236.4</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12959,10 +12959,10 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123300</v>
+        <v>123293</v>
       </c>
       <c r="J172" t="n">
-        <v>264026</v>
+        <v>264212</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -12974,10 +12974,10 @@
         <v>9274</v>
       </c>
       <c r="N172" t="n">
-        <v>13300</v>
+        <v>13320</v>
       </c>
       <c r="O172" t="n">
-        <v>8288</v>
+        <v>8297</v>
       </c>
       <c r="P172" t="n">
         <v>8901</v>
@@ -12986,10 +12986,10 @@
         <v>1811</v>
       </c>
       <c r="R172" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="S172" t="n">
-        <v>1297.9</v>
+        <v>1299.4</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13033,10 +13033,10 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127454</v>
+        <v>127447</v>
       </c>
       <c r="J173" t="n">
-        <v>265743</v>
+        <v>265931</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
@@ -13048,10 +13048,10 @@
         <v>12143</v>
       </c>
       <c r="N173" t="n">
-        <v>14402</v>
+        <v>14421</v>
       </c>
       <c r="O173" t="n">
-        <v>8858</v>
+        <v>8867</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13060,10 +13060,10 @@
         <v>1918.3</v>
       </c>
       <c r="R173" t="n">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="S173" t="n">
-        <v>1429.3</v>
+        <v>1430.9</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13107,10 +13107,10 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129214</v>
+        <v>129207</v>
       </c>
       <c r="J174" t="n">
-        <v>268006</v>
+        <v>268196</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
@@ -13122,10 +13122,10 @@
         <v>19539</v>
       </c>
       <c r="N174" t="n">
-        <v>16086</v>
+        <v>16104</v>
       </c>
       <c r="O174" t="n">
-        <v>9773</v>
+        <v>9782</v>
       </c>
       <c r="P174" t="n">
         <v>1760</v>
@@ -13134,10 +13134,10 @@
         <v>1986.1</v>
       </c>
       <c r="R174" t="n">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="S174" t="n">
-        <v>1588.7</v>
+        <v>1590.3</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13181,10 +13181,10 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131480</v>
+        <v>131473</v>
       </c>
       <c r="J175" t="n">
-        <v>270250</v>
+        <v>270442</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
@@ -13196,10 +13196,10 @@
         <v>20487</v>
       </c>
       <c r="N175" t="n">
-        <v>17346</v>
+        <v>17364</v>
       </c>
       <c r="O175" t="n">
-        <v>10472</v>
+        <v>10481</v>
       </c>
       <c r="P175" t="n">
         <v>2266</v>
@@ -13208,10 +13208,10 @@
         <v>3115</v>
       </c>
       <c r="R175" t="n">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="S175" t="n">
-        <v>1716.7</v>
+        <v>1718.3</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G176" t="n">
         <v>158</v>
@@ -13255,10 +13255,10 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133391</v>
+        <v>133384</v>
       </c>
       <c r="J176" t="n">
-        <v>272419</v>
+        <v>272614</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
@@ -13270,10 +13270,10 @@
         <v>17301</v>
       </c>
       <c r="N176" t="n">
-        <v>18509</v>
+        <v>18529</v>
       </c>
       <c r="O176" t="n">
-        <v>10732</v>
+        <v>10742</v>
       </c>
       <c r="P176" t="n">
         <v>1911</v>
@@ -13282,10 +13282,10 @@
         <v>3199.7</v>
       </c>
       <c r="R176" t="n">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="S176" t="n">
-        <v>1805.9</v>
+        <v>1807.6</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13320,7 +13320,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="G177" t="n">
         <v>176</v>
@@ -13329,10 +13329,10 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125385</v>
+        <v>125378</v>
       </c>
       <c r="J177" t="n">
-        <v>275025</v>
+        <v>275224</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
@@ -13344,10 +13344,10 @@
         <v>10986</v>
       </c>
       <c r="N177" t="n">
-        <v>20692</v>
+        <v>20716</v>
       </c>
       <c r="O177" t="n">
-        <v>12047</v>
+        <v>12061</v>
       </c>
       <c r="P177" t="n">
         <v>-8006</v>
@@ -13356,10 +13356,10 @@
         <v>1327.9</v>
       </c>
       <c r="R177" t="n">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="S177" t="n">
-        <v>1905.4</v>
+        <v>1907.4</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G178" t="n">
         <v>115</v>
@@ -13403,10 +13403,10 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104387</v>
+        <v>104380</v>
       </c>
       <c r="J178" t="n">
-        <v>276503</v>
+        <v>276702</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
@@ -13418,10 +13418,10 @@
         <v>-18913</v>
       </c>
       <c r="N178" t="n">
-        <v>21562</v>
+        <v>21586</v>
       </c>
       <c r="O178" t="n">
-        <v>12477</v>
+        <v>12490</v>
       </c>
       <c r="P178" t="n">
         <v>-20998</v>
@@ -13433,7 +13433,7 @@
         <v>1478</v>
       </c>
       <c r="S178" t="n">
-        <v>1932.1</v>
+        <v>1934.1</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="G179" t="n">
         <v>107</v>
@@ -13477,10 +13477,10 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115720</v>
+        <v>115713</v>
       </c>
       <c r="J179" t="n">
-        <v>277836</v>
+        <v>278035</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
@@ -13492,10 +13492,10 @@
         <v>-11734</v>
       </c>
       <c r="N179" t="n">
-        <v>22098</v>
+        <v>22120</v>
       </c>
       <c r="O179" t="n">
-        <v>12093</v>
+        <v>12104</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
@@ -13507,7 +13507,7 @@
         <v>1333</v>
       </c>
       <c r="S179" t="n">
-        <v>1972.9</v>
+        <v>1974.7</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G180" t="n">
         <v>198</v>
@@ -13551,10 +13551,10 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115712</v>
+        <v>115705</v>
       </c>
       <c r="J180" t="n">
-        <v>279920</v>
+        <v>280120</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
@@ -13566,10 +13566,10 @@
         <v>-13502</v>
       </c>
       <c r="N180" t="n">
-        <v>23035</v>
+        <v>23056</v>
       </c>
       <c r="O180" t="n">
-        <v>11914</v>
+        <v>11924</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
@@ -13578,10 +13578,10 @@
         <v>-1677.4</v>
       </c>
       <c r="R180" t="n">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="S180" t="n">
-        <v>2025.3</v>
+        <v>2027</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="G181" t="n">
         <v>214</v>
@@ -13625,10 +13625,10 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110029</v>
+        <v>110022</v>
       </c>
       <c r="J181" t="n">
-        <v>282670</v>
+        <v>282870</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
@@ -13640,10 +13640,10 @@
         <v>-21451</v>
       </c>
       <c r="N181" t="n">
-        <v>24437</v>
+        <v>24456</v>
       </c>
       <c r="O181" t="n">
-        <v>12420</v>
+        <v>12428</v>
       </c>
       <c r="P181" t="n">
         <v>-5683</v>
@@ -13655,7 +13655,7 @@
         <v>2750</v>
       </c>
       <c r="S181" t="n">
-        <v>2094.9</v>
+        <v>2096.3</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D182" t="n">
         <v>63776</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="G182" t="n">
         <v>206</v>
@@ -13699,37 +13699,37 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123584</v>
+        <v>123576</v>
       </c>
       <c r="J182" t="n">
-        <v>285438</v>
+        <v>285643</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12591</v>
+        <v>12590</v>
       </c>
       <c r="M182" t="n">
-        <v>-9807</v>
+        <v>-9808</v>
       </c>
       <c r="N182" t="n">
-        <v>25660</v>
+        <v>25682</v>
       </c>
       <c r="O182" t="n">
-        <v>13019</v>
+        <v>13029</v>
       </c>
       <c r="P182" t="n">
-        <v>13555</v>
+        <v>13554</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1128</v>
+        <v>-1128.1</v>
       </c>
       <c r="R182" t="n">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="S182" t="n">
-        <v>2169.7</v>
+        <v>2171.6</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13755,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="n">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="D183" t="n">
         <v>63821</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="G183" t="n">
         <v>214</v>
@@ -13773,10 +13773,10 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113119</v>
+        <v>113112</v>
       </c>
       <c r="J183" t="n">
-        <v>291158</v>
+        <v>291364</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
@@ -13788,22 +13788,22 @@
         <v>-12266</v>
       </c>
       <c r="N183" t="n">
-        <v>29471</v>
+        <v>29492</v>
       </c>
       <c r="O183" t="n">
-        <v>16133</v>
+        <v>16140</v>
       </c>
       <c r="P183" t="n">
-        <v>-10465</v>
+        <v>-10464</v>
       </c>
       <c r="Q183" t="n">
         <v>-2896</v>
       </c>
       <c r="R183" t="n">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="S183" t="n">
-        <v>2677</v>
+        <v>2678.6</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="G184" t="n">
         <v>216</v>
@@ -13847,10 +13847,10 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114763</v>
+        <v>114756</v>
       </c>
       <c r="J184" t="n">
-        <v>294686</v>
+        <v>294895</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
@@ -13862,10 +13862,10 @@
         <v>10376</v>
       </c>
       <c r="N184" t="n">
-        <v>31708</v>
+        <v>31732</v>
       </c>
       <c r="O184" t="n">
-        <v>18183</v>
+        <v>18193</v>
       </c>
       <c r="P184" t="n">
         <v>1644</v>
@@ -13874,10 +13874,10 @@
         <v>-1517.4</v>
       </c>
       <c r="R184" t="n">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="S184" t="n">
-        <v>2808.7</v>
+        <v>2810.1</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,10 +13921,10 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110212</v>
+        <v>110205</v>
       </c>
       <c r="J185" t="n">
-        <v>297463</v>
+        <v>297673</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
@@ -13936,10 +13936,10 @@
         <v>-5508</v>
       </c>
       <c r="N185" t="n">
-        <v>33437</v>
+        <v>33461</v>
       </c>
       <c r="O185" t="n">
-        <v>19627</v>
+        <v>19638</v>
       </c>
       <c r="P185" t="n">
         <v>-4551</v>
@@ -13948,10 +13948,10 @@
         <v>832.1</v>
       </c>
       <c r="R185" t="n">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="S185" t="n">
-        <v>2994.3</v>
+        <v>2995.9</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="G186" t="n">
         <v>129</v>
@@ -13995,10 +13995,10 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123739</v>
+        <v>123732</v>
       </c>
       <c r="J186" t="n">
-        <v>299019</v>
+        <v>299232</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
@@ -14010,10 +14010,10 @@
         <v>8027</v>
       </c>
       <c r="N186" t="n">
-        <v>33276</v>
+        <v>33301</v>
       </c>
       <c r="O186" t="n">
-        <v>19099</v>
+        <v>19112</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
@@ -14022,10 +14022,10 @@
         <v>1145.6</v>
       </c>
       <c r="R186" t="n">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="S186" t="n">
-        <v>3026.1</v>
+        <v>3028.1</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="G187" t="n">
         <v>255</v>
@@ -14069,10 +14069,10 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132181</v>
+        <v>132174</v>
       </c>
       <c r="J187" t="n">
-        <v>301925</v>
+        <v>302139</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
@@ -14084,10 +14084,10 @@
         <v>22152</v>
       </c>
       <c r="N187" t="n">
-        <v>33919</v>
+        <v>33943</v>
       </c>
       <c r="O187" t="n">
-        <v>19255</v>
+        <v>19269</v>
       </c>
       <c r="P187" t="n">
         <v>8442</v>
@@ -14096,10 +14096,10 @@
         <v>2352.7</v>
       </c>
       <c r="R187" t="n">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="S187" t="n">
-        <v>3143.6</v>
+        <v>3145.6</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="G188" t="n">
         <v>258</v>
@@ -14143,10 +14143,10 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134102</v>
+        <v>134095</v>
       </c>
       <c r="J188" t="n">
-        <v>305883</v>
+        <v>306099</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
@@ -14155,13 +14155,13 @@
         <v>2622</v>
       </c>
       <c r="M188" t="n">
-        <v>10518</v>
+        <v>10519</v>
       </c>
       <c r="N188" t="n">
-        <v>35633</v>
+        <v>35657</v>
       </c>
       <c r="O188" t="n">
-        <v>20445</v>
+        <v>20456</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
@@ -14170,10 +14170,10 @@
         <v>3439</v>
       </c>
       <c r="R188" t="n">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="S188" t="n">
-        <v>3316.1</v>
+        <v>3318.4</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14199,7 +14199,7 @@
         <v>230</v>
       </c>
       <c r="C189" t="n">
-        <v>2366</v>
+        <v>2371</v>
       </c>
       <c r="D189" t="n">
         <v>63930</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="G189" t="n">
         <v>262</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136096</v>
+        <v>136094</v>
       </c>
       <c r="J189" t="n">
-        <v>309712</v>
+        <v>309940</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2705</v>
+        <v>2710</v>
       </c>
       <c r="M189" t="n">
-        <v>22977</v>
+        <v>22982</v>
       </c>
       <c r="N189" t="n">
-        <v>37293</v>
+        <v>37326</v>
       </c>
       <c r="O189" t="n">
-        <v>18554</v>
+        <v>18576</v>
       </c>
       <c r="P189" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="Q189" t="n">
-        <v>1787.4</v>
+        <v>1788.3</v>
       </c>
       <c r="R189" t="n">
-        <v>3829</v>
+        <v>3841</v>
       </c>
       <c r="S189" t="n">
-        <v>3467.7</v>
+        <v>3471</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14273,7 +14273,7 @@
         <v>349</v>
       </c>
       <c r="C190" t="n">
-        <v>2704</v>
+        <v>2711</v>
       </c>
       <c r="D190" t="n">
         <v>63975</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="G190" t="n">
         <v>265</v>
@@ -14291,37 +14291,37 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138204</v>
+        <v>138209</v>
       </c>
       <c r="J190" t="n">
-        <v>314177</v>
+        <v>314413</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12819</v>
+        <v>12831</v>
       </c>
       <c r="M190" t="n">
-        <v>23441</v>
+        <v>23453</v>
       </c>
       <c r="N190" t="n">
-        <v>39152</v>
+        <v>39189</v>
       </c>
       <c r="O190" t="n">
-        <v>19491</v>
+        <v>19518</v>
       </c>
       <c r="P190" t="n">
-        <v>2108</v>
+        <v>2115</v>
       </c>
       <c r="Q190" t="n">
-        <v>3583.6</v>
+        <v>3585.3</v>
       </c>
       <c r="R190" t="n">
-        <v>4465</v>
+        <v>4473</v>
       </c>
       <c r="S190" t="n">
-        <v>3288.4</v>
+        <v>3292.7</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14347,7 +14347,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>2970</v>
+        <v>2987</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -14356,7 +14356,7 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="G191" t="n">
         <v>276</v>
@@ -14365,37 +14365,37 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122751</v>
+        <v>122773</v>
       </c>
       <c r="J191" t="n">
-        <v>319366</v>
+        <v>319626</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18364</v>
+        <v>18393</v>
       </c>
       <c r="M191" t="n">
-        <v>12539</v>
+        <v>12568</v>
       </c>
       <c r="N191" t="n">
-        <v>42863</v>
+        <v>42924</v>
       </c>
       <c r="O191" t="n">
-        <v>21903</v>
+        <v>21953</v>
       </c>
       <c r="P191" t="n">
-        <v>-15453</v>
+        <v>-15436</v>
       </c>
       <c r="Q191" t="n">
-        <v>1141.1</v>
+        <v>1145.3</v>
       </c>
       <c r="R191" t="n">
-        <v>5189</v>
+        <v>5213</v>
       </c>
       <c r="S191" t="n">
-        <v>3525.7</v>
+        <v>3533</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14421,7 +14421,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="n">
-        <v>1649</v>
+        <v>1667</v>
       </c>
       <c r="D192" t="n">
         <v>64006</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="G192" t="n">
         <v>188</v>
@@ -14439,37 +14439,37 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120686</v>
+        <v>120726</v>
       </c>
       <c r="J192" t="n">
-        <v>322249</v>
+        <v>322532</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>4966</v>
+        <v>5013</v>
       </c>
       <c r="M192" t="n">
-        <v>-3053</v>
+        <v>-3006</v>
       </c>
       <c r="N192" t="n">
-        <v>44413</v>
+        <v>44497</v>
       </c>
       <c r="O192" t="n">
-        <v>23230</v>
+        <v>23300</v>
       </c>
       <c r="P192" t="n">
-        <v>-2065</v>
+        <v>-2047</v>
       </c>
       <c r="Q192" t="n">
-        <v>1496.3</v>
+        <v>1503</v>
       </c>
       <c r="R192" t="n">
-        <v>2883</v>
+        <v>2906</v>
       </c>
       <c r="S192" t="n">
-        <v>3540.9</v>
+        <v>3551.3</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14495,7 +14495,7 @@
         <v>122</v>
       </c>
       <c r="C193" t="n">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="D193" t="n">
         <v>64004</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="G193" t="n">
         <v>218</v>
@@ -14513,37 +14513,37 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139452</v>
+        <v>139501</v>
       </c>
       <c r="J193" t="n">
-        <v>324250</v>
+        <v>324542</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23740</v>
+        <v>23796</v>
       </c>
       <c r="M193" t="n">
-        <v>7271</v>
+        <v>7327</v>
       </c>
       <c r="N193" t="n">
-        <v>44330</v>
+        <v>44422</v>
       </c>
       <c r="O193" t="n">
-        <v>22325</v>
+        <v>22403</v>
       </c>
       <c r="P193" t="n">
-        <v>18766</v>
+        <v>18775</v>
       </c>
       <c r="Q193" t="n">
-        <v>2244.7</v>
+        <v>2252.7</v>
       </c>
       <c r="R193" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="S193" t="n">
-        <v>3604.4</v>
+        <v>3615.7</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14569,7 +14569,7 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="D194" t="n">
         <v>48</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="G194" t="n">
         <v>317</v>
@@ -14587,37 +14587,37 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>139915</v>
+        <v>139966</v>
       </c>
       <c r="J194" t="n">
-        <v>328238</v>
+        <v>328536</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>29886</v>
+        <v>29944</v>
       </c>
       <c r="M194" t="n">
-        <v>5813</v>
+        <v>5871</v>
       </c>
       <c r="N194" t="n">
-        <v>45568</v>
+        <v>45666</v>
       </c>
       <c r="O194" t="n">
-        <v>22355</v>
+        <v>22437</v>
       </c>
       <c r="P194" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q194" t="n">
-        <v>1104.9</v>
+        <v>1113.1</v>
       </c>
       <c r="R194" t="n">
-        <v>3988</v>
+        <v>3994</v>
       </c>
       <c r="S194" t="n">
-        <v>3759</v>
+        <v>3771</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14643,7 +14643,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2687</v>
+        <v>2722</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -14652,7 +14652,7 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="G195" t="n">
         <v>340</v>
@@ -14661,37 +14661,37 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146583</v>
+        <v>146669</v>
       </c>
       <c r="J195" t="n">
-        <v>333824</v>
+        <v>334164</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>22999</v>
+        <v>23093</v>
       </c>
       <c r="M195" t="n">
-        <v>10487</v>
+        <v>10575</v>
       </c>
       <c r="N195" t="n">
-        <v>48386</v>
+        <v>48521</v>
       </c>
       <c r="O195" t="n">
-        <v>24112</v>
+        <v>24224</v>
       </c>
       <c r="P195" t="n">
-        <v>6668</v>
+        <v>6703</v>
       </c>
       <c r="Q195" t="n">
-        <v>1783</v>
+        <v>1796.3</v>
       </c>
       <c r="R195" t="n">
-        <v>5586</v>
+        <v>5628</v>
       </c>
       <c r="S195" t="n">
-        <v>3991.6</v>
+        <v>4009.3</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>2992</v>
+        <v>3026</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14726,7 +14726,7 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2708</v>
+        <v>2713</v>
       </c>
       <c r="G196" t="n">
         <v>349</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>148719</v>
+        <v>148839</v>
       </c>
       <c r="J196" t="n">
-        <v>339261</v>
+        <v>339643</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35600</v>
+        <v>35727</v>
       </c>
       <c r="M196" t="n">
-        <v>10515</v>
+        <v>10630</v>
       </c>
       <c r="N196" t="n">
-        <v>48103</v>
+        <v>48279</v>
       </c>
       <c r="O196" t="n">
-        <v>25084</v>
+        <v>25230</v>
       </c>
       <c r="P196" t="n">
-        <v>2136</v>
+        <v>2170</v>
       </c>
       <c r="Q196" t="n">
-        <v>1803.3</v>
+        <v>1820.7</v>
       </c>
       <c r="R196" t="n">
-        <v>5437</v>
+        <v>5479</v>
       </c>
       <c r="S196" t="n">
-        <v>4221.3</v>
+        <v>4243.3</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,16 +14791,16 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3146</v>
+        <v>3176</v>
       </c>
       <c r="D197" t="n">
-        <v>64225</v>
+        <v>64224</v>
       </c>
       <c r="E197" t="n">
         <v>14874</v>
       </c>
       <c r="F197" t="n">
-        <v>2845</v>
+        <v>2850</v>
       </c>
       <c r="G197" t="n">
         <v>367</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151005</v>
+        <v>151154</v>
       </c>
       <c r="J197" t="n">
-        <v>345326</v>
+        <v>345749</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36242</v>
+        <v>36398</v>
       </c>
       <c r="M197" t="n">
-        <v>28254</v>
+        <v>28381</v>
       </c>
       <c r="N197" t="n">
-        <v>50640</v>
+        <v>50854</v>
       </c>
       <c r="O197" t="n">
-        <v>25960</v>
+        <v>26123</v>
       </c>
       <c r="P197" t="n">
-        <v>2286</v>
+        <v>2315</v>
       </c>
       <c r="Q197" t="n">
-        <v>1828.7</v>
+        <v>1849.3</v>
       </c>
       <c r="R197" t="n">
-        <v>6065</v>
+        <v>6106</v>
       </c>
       <c r="S197" t="n">
-        <v>4449.9</v>
+        <v>4476.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3567</v>
+        <v>3622</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14874,7 +14874,7 @@
         <v>3729</v>
       </c>
       <c r="F198" t="n">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="G198" t="n">
         <v>383</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>132644</v>
+        <v>132848</v>
       </c>
       <c r="J198" t="n">
-        <v>352280</v>
+        <v>352779</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22432</v>
+        <v>22643</v>
       </c>
       <c r="M198" t="n">
-        <v>11958</v>
+        <v>12122</v>
       </c>
       <c r="N198" t="n">
-        <v>54817</v>
+        <v>55106</v>
       </c>
       <c r="O198" t="n">
-        <v>30031</v>
+        <v>30247</v>
       </c>
       <c r="P198" t="n">
-        <v>-18361</v>
+        <v>-18306</v>
       </c>
       <c r="Q198" t="n">
-        <v>1413.3</v>
+        <v>1439.3</v>
       </c>
       <c r="R198" t="n">
-        <v>6954</v>
+        <v>7030</v>
       </c>
       <c r="S198" t="n">
-        <v>4702</v>
+        <v>4736.1</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14939,7 +14939,7 @@
         <v>539</v>
       </c>
       <c r="C199" t="n">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="D199" t="n">
         <v>64260</v>
@@ -14948,7 +14948,7 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="G199" t="n">
         <v>252</v>
@@ -14957,37 +14957,37 @@
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>129502</v>
+        <v>129714</v>
       </c>
       <c r="J199" t="n">
-        <v>356199</v>
+        <v>356717</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>5763</v>
+        <v>5982</v>
       </c>
       <c r="M199" t="n">
-        <v>-9950</v>
+        <v>-9787</v>
       </c>
       <c r="N199" t="n">
-        <v>57180</v>
+        <v>57485</v>
       </c>
       <c r="O199" t="n">
-        <v>31949</v>
+        <v>32175</v>
       </c>
       <c r="P199" t="n">
-        <v>-3142</v>
+        <v>-3134</v>
       </c>
       <c r="Q199" t="n">
-        <v>1259.4</v>
+        <v>1284</v>
       </c>
       <c r="R199" t="n">
-        <v>3919</v>
+        <v>3938</v>
       </c>
       <c r="S199" t="n">
-        <v>4850</v>
+        <v>4883.6</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15022,7 +15022,7 @@
         <v>1103</v>
       </c>
       <c r="F200" t="n">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="G200" t="n">
         <v>274</v>
@@ -15031,37 +15031,37 @@
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130304</v>
+        <v>130516</v>
       </c>
       <c r="J200" t="n">
-        <v>358457</v>
+        <v>358994</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1877</v>
+        <v>-1658</v>
       </c>
       <c r="M200" t="n">
-        <v>-9611</v>
+        <v>-9450</v>
       </c>
       <c r="N200" t="n">
-        <v>56532</v>
+        <v>56855</v>
       </c>
       <c r="O200" t="n">
-        <v>30219</v>
+        <v>30458</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1306.9</v>
+        <v>-1283.6</v>
       </c>
       <c r="R200" t="n">
-        <v>2258</v>
+        <v>2277</v>
       </c>
       <c r="S200" t="n">
-        <v>4886.7</v>
+        <v>4921.7</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15087,7 +15087,7 @@
         <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>3405</v>
+        <v>3415</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15096,7 +15096,7 @@
         <v>16406</v>
       </c>
       <c r="F201" t="n">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="G201" t="n">
         <v>450</v>
@@ -15105,37 +15105,37 @@
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158336</v>
+        <v>158558</v>
       </c>
       <c r="J201" t="n">
-        <v>363671</v>
+        <v>364238</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24234</v>
+        <v>24463</v>
       </c>
       <c r="M201" t="n">
-        <v>11753</v>
+        <v>11889</v>
       </c>
       <c r="N201" t="n">
-        <v>57788</v>
+        <v>58139</v>
       </c>
       <c r="O201" t="n">
-        <v>29847</v>
+        <v>30074</v>
       </c>
       <c r="P201" t="n">
-        <v>28032</v>
+        <v>28042</v>
       </c>
       <c r="Q201" t="n">
-        <v>2631.6</v>
+        <v>2656</v>
       </c>
       <c r="R201" t="n">
-        <v>5214</v>
+        <v>5244</v>
       </c>
       <c r="S201" t="n">
-        <v>5061.9</v>
+        <v>5100.3</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15161,16 +15161,16 @@
         <v>994</v>
       </c>
       <c r="C202" t="n">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="D202" t="n">
-        <v>64396</v>
+        <v>64395</v>
       </c>
       <c r="E202" t="n">
         <v>16566</v>
       </c>
       <c r="F202" t="n">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="G202" t="n">
         <v>462</v>
@@ -15179,37 +15179,37 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>160789</v>
+        <v>161009</v>
       </c>
       <c r="J202" t="n">
-        <v>370928</v>
+        <v>371607</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>24693</v>
+        <v>24915</v>
       </c>
       <c r="M202" t="n">
-        <v>12070</v>
+        <v>12170</v>
       </c>
       <c r="N202" t="n">
-        <v>61216</v>
+        <v>61667</v>
       </c>
       <c r="O202" t="n">
-        <v>31667</v>
+        <v>31964</v>
       </c>
       <c r="P202" t="n">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="Q202" t="n">
-        <v>2029.4</v>
+        <v>2048.6</v>
       </c>
       <c r="R202" t="n">
-        <v>7257</v>
+        <v>7369</v>
       </c>
       <c r="S202" t="n">
-        <v>5300.6</v>
+        <v>5349</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15235,7 +15235,7 @@
         <v>768</v>
       </c>
       <c r="C203" t="n">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D203" t="n">
         <v>64476</v>
@@ -15244,7 +15244,7 @@
         <v>14913</v>
       </c>
       <c r="F203" t="n">
-        <v>3852</v>
+        <v>3854</v>
       </c>
       <c r="G203" t="n">
         <v>461</v>
@@ -15253,37 +15253,37 @@
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>163463</v>
+        <v>163684</v>
       </c>
       <c r="J203" t="n">
-        <v>378228</v>
+        <v>378977</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25259</v>
+        <v>25475</v>
       </c>
       <c r="M203" t="n">
-        <v>12458</v>
+        <v>12530</v>
       </c>
       <c r="N203" t="n">
-        <v>64051</v>
+        <v>64564</v>
       </c>
       <c r="O203" t="n">
-        <v>32902</v>
+        <v>33228</v>
       </c>
       <c r="P203" t="n">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="Q203" t="n">
-        <v>2106.3</v>
+        <v>2120.7</v>
       </c>
       <c r="R203" t="n">
-        <v>7300</v>
+        <v>7370</v>
       </c>
       <c r="S203" t="n">
-        <v>5566.7</v>
+        <v>5619.1</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15309,7 +15309,7 @@
         <v>860</v>
       </c>
       <c r="C204" t="n">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
@@ -15318,7 +15318,7 @@
         <v>3224</v>
       </c>
       <c r="F204" t="n">
-        <v>3977</v>
+        <v>3980</v>
       </c>
       <c r="G204" t="n">
         <v>484</v>
@@ -15327,37 +15327,37 @@
         <v>34571</v>
       </c>
       <c r="I204" t="n">
-        <v>142377</v>
+        <v>142601</v>
       </c>
       <c r="J204" t="n">
-        <v>385569</v>
+        <v>386358</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>19626</v>
+        <v>19828</v>
       </c>
       <c r="M204" t="n">
-        <v>9733</v>
+        <v>9753</v>
       </c>
       <c r="N204" t="n">
-        <v>66203</v>
+        <v>66732</v>
       </c>
       <c r="O204" t="n">
-        <v>33289</v>
+        <v>33579</v>
       </c>
       <c r="P204" t="n">
-        <v>-21086</v>
+        <v>-21083</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1232.6</v>
+        <v>-1221.9</v>
       </c>
       <c r="R204" t="n">
-        <v>7341</v>
+        <v>7381</v>
       </c>
       <c r="S204" t="n">
-        <v>5749</v>
+        <v>5801.3</v>
       </c>
       <c r="T204" t="n">
         <v>21</v>
@@ -15383,70 +15383,70 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3760</v>
+        <v>3822</v>
       </c>
       <c r="D205" t="n">
-        <v>64581</v>
+        <v>64580</v>
       </c>
       <c r="E205" t="n">
         <v>3447</v>
       </c>
       <c r="F205" t="n">
-        <v>4089</v>
+        <v>4050</v>
       </c>
       <c r="G205" t="n">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="H205" t="n">
-        <v>34595</v>
+        <v>34598</v>
       </c>
       <c r="I205" t="n">
-        <v>144655</v>
+        <v>144940</v>
       </c>
       <c r="J205" t="n">
-        <v>392782</v>
+        <v>394149</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>23969</v>
+        <v>24214</v>
       </c>
       <c r="M205" t="n">
-        <v>15153</v>
+        <v>15226</v>
       </c>
       <c r="N205" t="n">
-        <v>70533</v>
+        <v>71617</v>
       </c>
       <c r="O205" t="n">
-        <v>36583</v>
+        <v>37432</v>
       </c>
       <c r="P205" t="n">
-        <v>2278</v>
+        <v>2339</v>
       </c>
       <c r="Q205" t="n">
-        <v>1715.9</v>
+        <v>1727.4</v>
       </c>
       <c r="R205" t="n">
-        <v>7213</v>
+        <v>7791</v>
       </c>
       <c r="S205" t="n">
-        <v>5786</v>
+        <v>5910</v>
       </c>
       <c r="T205" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U205" t="n">
         <v>0.1</v>
       </c>
       <c r="V205" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="W205" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="X205" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206">
@@ -15457,7 +15457,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2533</v>
+        <v>2630</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
@@ -15466,46 +15466,46 @@
         <v>2005</v>
       </c>
       <c r="F206" t="n">
-        <v>3941</v>
+        <v>3901</v>
       </c>
       <c r="G206" t="n">
         <v>183</v>
       </c>
       <c r="H206" t="n">
-        <v>31501</v>
+        <v>31504</v>
       </c>
       <c r="I206" t="n">
-        <v>140475</v>
+        <v>140857</v>
       </c>
       <c r="J206" t="n">
-        <v>375352</v>
+        <v>376887</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1023</v>
+        <v>1356</v>
       </c>
       <c r="M206" t="n">
-        <v>10171</v>
+        <v>10341</v>
       </c>
       <c r="N206" t="n">
-        <v>51102</v>
+        <v>52345</v>
       </c>
       <c r="O206" t="n">
-        <v>16895</v>
+        <v>17893</v>
       </c>
       <c r="P206" t="n">
-        <v>-4180</v>
+        <v>-4083</v>
       </c>
       <c r="Q206" t="n">
-        <v>1567.6</v>
+        <v>1591.9</v>
       </c>
       <c r="R206" t="n">
-        <v>-17430</v>
+        <v>-17262</v>
       </c>
       <c r="S206" t="n">
-        <v>2736.1</v>
+        <v>2881.4</v>
       </c>
       <c r="T206" t="n">
         <v>-3094</v>
@@ -15514,13 +15514,13 @@
         <v>-8.9</v>
       </c>
       <c r="V206" t="n">
-        <v>-1016.3</v>
+        <v>-1015.3</v>
       </c>
       <c r="W206" t="n">
-        <v>-413.1</v>
+        <v>-412.7</v>
       </c>
       <c r="X206" t="n">
-        <v>-2892</v>
+        <v>-2889</v>
       </c>
     </row>
     <row r="207">
@@ -15528,73 +15528,73 @@
         <v>44066</v>
       </c>
       <c r="B207" t="n">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>900</v>
+        <v>1486</v>
       </c>
       <c r="D207" t="n">
-        <v>64558</v>
+        <v>64559</v>
       </c>
       <c r="E207" t="n">
-        <v>2277</v>
+        <v>13903</v>
       </c>
       <c r="F207" t="n">
-        <v>3483</v>
+        <v>3956</v>
       </c>
       <c r="G207" t="n">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="H207" t="n">
-        <v>29870</v>
+        <v>31555</v>
       </c>
       <c r="I207" t="n">
-        <v>141271</v>
+        <v>166600</v>
       </c>
       <c r="J207" t="n">
-        <v>348695</v>
+        <v>379760</v>
       </c>
       <c r="K207" t="n">
-        <v>34490</v>
+        <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>1356</v>
+        <v>26634</v>
       </c>
       <c r="M207" t="n">
-        <v>-17065</v>
+        <v>8042</v>
       </c>
       <c r="N207" t="n">
-        <v>20457</v>
+        <v>51224</v>
       </c>
       <c r="O207" t="n">
-        <v>-14976</v>
+        <v>15522</v>
       </c>
       <c r="P207" t="n">
-        <v>796</v>
+        <v>25743</v>
       </c>
       <c r="Q207" t="n">
-        <v>1566.7</v>
+        <v>5154.9</v>
       </c>
       <c r="R207" t="n">
-        <v>-26657</v>
+        <v>2873</v>
       </c>
       <c r="S207" t="n">
-        <v>-1394.6</v>
+        <v>2966.6</v>
       </c>
       <c r="T207" t="n">
-        <v>-1631</v>
+        <v>51</v>
       </c>
       <c r="U207" t="n">
-        <v>-5.2</v>
+        <v>0.2</v>
       </c>
       <c r="V207" t="n">
-        <v>-1567</v>
+        <v>-1005.3</v>
       </c>
       <c r="W207" t="n">
-        <v>-647.9</v>
+        <v>-407.1</v>
       </c>
       <c r="X207" t="n">
-        <v>-4535</v>
+        <v>-2850</v>
       </c>
     </row>
     <row r="208">
@@ -15602,73 +15602,147 @@
         <v>44067</v>
       </c>
       <c r="B208" t="n">
-        <v>733</v>
+        <v>920</v>
       </c>
       <c r="C208" t="n">
-        <v>906</v>
+        <v>1991</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>64682</v>
       </c>
       <c r="E208" t="n">
         <v>4004</v>
       </c>
       <c r="F208" t="n">
-        <v>2653</v>
+        <v>4420</v>
       </c>
       <c r="G208" t="n">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="H208" t="n">
-        <v>16179</v>
+        <v>31070</v>
       </c>
       <c r="I208" t="n">
-        <v>26116</v>
+        <v>148588</v>
       </c>
       <c r="J208" t="n">
-        <v>208260</v>
+        <v>378913</v>
       </c>
       <c r="K208" t="n">
-        <v>60262</v>
+        <v>63627</v>
       </c>
       <c r="L208" t="n">
-        <v>-120467</v>
+        <v>1919</v>
       </c>
       <c r="M208" t="n">
-        <v>-134673</v>
+        <v>-12421</v>
       </c>
       <c r="N208" t="n">
-        <v>-125564</v>
+        <v>44749</v>
       </c>
       <c r="O208" t="n">
-        <v>-162668</v>
+        <v>7306</v>
       </c>
       <c r="P208" t="n">
-        <v>-115155</v>
+        <v>-18012</v>
       </c>
       <c r="Q208" t="n">
-        <v>-18888.6</v>
+        <v>-1424.3</v>
       </c>
       <c r="R208" t="n">
-        <v>-140435</v>
+        <v>-847</v>
       </c>
       <c r="S208" t="n">
-        <v>-22201.6</v>
+        <v>2096.4</v>
       </c>
       <c r="T208" t="n">
-        <v>-13691</v>
+        <v>-485</v>
       </c>
       <c r="U208" t="n">
-        <v>-45.8</v>
+        <v>-1.5</v>
       </c>
       <c r="V208" t="n">
-        <v>-6138.7</v>
+        <v>-1176</v>
       </c>
       <c r="W208" t="n">
-        <v>-2612.4</v>
+        <v>-485.1</v>
       </c>
       <c r="X208" t="n">
-        <v>-18287</v>
+        <v>-3396</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2056</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4912</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2812</v>
+      </c>
+      <c r="G209" t="n">
+        <v>320</v>
+      </c>
+      <c r="H209" t="n">
+        <v>16205</v>
+      </c>
+      <c r="I209" t="n">
+        <v>27466</v>
+      </c>
+      <c r="J209" t="n">
+        <v>213446</v>
+      </c>
+      <c r="K209" t="n">
+        <v>58846</v>
+      </c>
+      <c r="L209" t="n">
+        <v>-121373</v>
+      </c>
+      <c r="M209" t="n">
+        <v>-136218</v>
+      </c>
+      <c r="N209" t="n">
+        <v>-126197</v>
+      </c>
+      <c r="O209" t="n">
+        <v>-165531</v>
+      </c>
+      <c r="P209" t="n">
+        <v>-121122</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>-19077.6</v>
+      </c>
+      <c r="R209" t="n">
+        <v>-165467</v>
+      </c>
+      <c r="S209" t="n">
+        <v>-22594.4</v>
+      </c>
+      <c r="T209" t="n">
+        <v>-14865</v>
+      </c>
+      <c r="U209" t="n">
+        <v>-47.8</v>
+      </c>
+      <c r="V209" t="n">
+        <v>-5099.7</v>
+      </c>
+      <c r="W209" t="n">
+        <v>-2615</v>
+      </c>
+      <c r="X209" t="n">
+        <v>-18305</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G32" t="n">
         <v>12</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3617</v>
+        <v>3619</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3606</v>
+        <v>3608</v>
       </c>
       <c r="O42" t="n">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="S42" t="n">
-        <v>481.7</v>
+        <v>482</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3404,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4777</v>
+        <v>4779</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4754</v>
+        <v>4756</v>
       </c>
       <c r="O43" t="n">
-        <v>4158</v>
+        <v>4160</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3443,7 +3443,7 @@
         <v>1160</v>
       </c>
       <c r="S43" t="n">
-        <v>627.3</v>
+        <v>627.6</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3478,7 +3478,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G44" t="n">
         <v>219</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6216</v>
+        <v>6218</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6183</v>
+        <v>6185</v>
       </c>
       <c r="O44" t="n">
-        <v>5333</v>
+        <v>5335</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3517,7 +3517,7 @@
         <v>1439</v>
       </c>
       <c r="S44" t="n">
-        <v>799.6</v>
+        <v>799.9</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3552,7 +3552,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="G45" t="n">
         <v>232</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7592</v>
+        <v>7594</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7532</v>
+        <v>7534</v>
       </c>
       <c r="O45" t="n">
-        <v>6394</v>
+        <v>6396</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3591,7 +3591,7 @@
         <v>1376</v>
       </c>
       <c r="S45" t="n">
-        <v>958.4</v>
+        <v>958.7</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3626,7 +3626,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="G46" t="n">
         <v>318</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9054</v>
+        <v>9056</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8936</v>
+        <v>8938</v>
       </c>
       <c r="O46" t="n">
-        <v>7253</v>
+        <v>7255</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1462</v>
       </c>
       <c r="S46" t="n">
-        <v>1122.3</v>
+        <v>1122.6</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11220</v>
+        <v>11222</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11048</v>
+        <v>11050</v>
       </c>
       <c r="O47" t="n">
-        <v>8549</v>
+        <v>8551</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1345.6</v>
+        <v>1345.9</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3786,7 +3786,7 @@
         <v>17583</v>
       </c>
       <c r="J48" t="n">
-        <v>14268</v>
+        <v>14270</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,7 +3798,7 @@
         <v>13543</v>
       </c>
       <c r="N48" t="n">
-        <v>14023</v>
+        <v>14025</v>
       </c>
       <c r="O48" t="n">
         <v>10651</v>
@@ -3813,7 +3813,7 @@
         <v>3048</v>
       </c>
       <c r="S48" t="n">
-        <v>1656.7</v>
+        <v>1657</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3860,7 +3860,7 @@
         <v>20761</v>
       </c>
       <c r="J49" t="n">
-        <v>17348</v>
+        <v>17350</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,7 +3872,7 @@
         <v>15432</v>
       </c>
       <c r="N49" t="n">
-        <v>16962</v>
+        <v>16964</v>
       </c>
       <c r="O49" t="n">
         <v>12571</v>
@@ -3934,7 +3934,7 @@
         <v>26438</v>
       </c>
       <c r="J50" t="n">
-        <v>21106</v>
+        <v>21107</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19039</v>
       </c>
       <c r="N50" t="n">
-        <v>20487</v>
+        <v>20488</v>
       </c>
       <c r="O50" t="n">
-        <v>14890</v>
+        <v>14889</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3958,10 +3958,10 @@
         <v>3015.6</v>
       </c>
       <c r="R50" t="n">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="S50" t="n">
-        <v>2332.7</v>
+        <v>2332.6</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>32044</v>
       </c>
       <c r="J51" t="n">
-        <v>25350</v>
+        <v>25351</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22716</v>
       </c>
       <c r="N51" t="n">
-        <v>24467</v>
+        <v>24468</v>
       </c>
       <c r="O51" t="n">
-        <v>17758</v>
+        <v>17757</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4035,7 +4035,7 @@
         <v>4244</v>
       </c>
       <c r="S51" t="n">
-        <v>2733.4</v>
+        <v>2733.3</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4082,7 +4082,7 @@
         <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28725</v>
+        <v>28726</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,10 +4094,10 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27527</v>
+        <v>27528</v>
       </c>
       <c r="O52" t="n">
-        <v>19671</v>
+        <v>19670</v>
       </c>
       <c r="P52" t="n">
         <v>4695</v>
@@ -4109,7 +4109,7 @@
         <v>3375</v>
       </c>
       <c r="S52" t="n">
-        <v>3019</v>
+        <v>3018.9</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31682</v>
+        <v>31683</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,10 +4168,10 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29881</v>
+        <v>29882</v>
       </c>
       <c r="O53" t="n">
-        <v>20462</v>
+        <v>20461</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4183,7 +4183,7 @@
         <v>2957</v>
       </c>
       <c r="S53" t="n">
-        <v>3232.6</v>
+        <v>3232.4</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36482</v>
+        <v>36483</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29518</v>
       </c>
       <c r="N54" t="n">
-        <v>33811</v>
+        <v>33812</v>
       </c>
       <c r="O54" t="n">
-        <v>22214</v>
+        <v>22213</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4257,7 +4257,7 @@
         <v>4800</v>
       </c>
       <c r="S54" t="n">
-        <v>3608.9</v>
+        <v>3608.7</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31647</v>
       </c>
       <c r="N55" t="n">
-        <v>38400</v>
+        <v>38399</v>
       </c>
       <c r="O55" t="n">
-        <v>24669</v>
+        <v>24668</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4331,7 +4331,7 @@
         <v>5535</v>
       </c>
       <c r="S55" t="n">
-        <v>3964.1</v>
+        <v>3964</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47552</v>
+        <v>47553</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,7 +4390,7 @@
         <v>36662</v>
       </c>
       <c r="N56" t="n">
-        <v>42775</v>
+        <v>42774</v>
       </c>
       <c r="O56" t="n">
         <v>26446</v>
@@ -4405,7 +4405,7 @@
         <v>5535</v>
       </c>
       <c r="S56" t="n">
-        <v>4314.9</v>
+        <v>4314.7</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4452,7 +4452,7 @@
         <v>72678</v>
       </c>
       <c r="J57" t="n">
-        <v>54351</v>
+        <v>54352</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,7 +4464,7 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48135</v>
+        <v>48134</v>
       </c>
       <c r="O57" t="n">
         <v>29001</v>
@@ -4526,7 +4526,7 @@
         <v>81190</v>
       </c>
       <c r="J58" t="n">
-        <v>59324</v>
+        <v>59326</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4541,7 +4541,7 @@
         <v>51732</v>
       </c>
       <c r="O58" t="n">
-        <v>30599</v>
+        <v>30600</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4550,10 +4550,10 @@
         <v>7020.9</v>
       </c>
       <c r="R58" t="n">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="S58" t="n">
-        <v>4853.4</v>
+        <v>4853.6</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4600,7 +4600,7 @@
         <v>89782</v>
       </c>
       <c r="J59" t="n">
-        <v>62672</v>
+        <v>62674</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4615,7 +4615,7 @@
         <v>53618</v>
       </c>
       <c r="O59" t="n">
-        <v>30990</v>
+        <v>30991</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4627,7 +4627,7 @@
         <v>3348</v>
       </c>
       <c r="S59" t="n">
-        <v>4849.6</v>
+        <v>4849.7</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4674,7 +4674,7 @@
         <v>96086</v>
       </c>
       <c r="J60" t="n">
-        <v>65346</v>
+        <v>65348</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4689,7 +4689,7 @@
         <v>54126</v>
       </c>
       <c r="O60" t="n">
-        <v>28864</v>
+        <v>28865</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2674</v>
       </c>
       <c r="S60" t="n">
-        <v>4809.1</v>
+        <v>4809.3</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4748,7 +4748,7 @@
         <v>103278</v>
       </c>
       <c r="J61" t="n">
-        <v>70204</v>
+        <v>70207</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,10 +4760,10 @@
         <v>50870</v>
       </c>
       <c r="N61" t="n">
-        <v>55936</v>
+        <v>55937</v>
       </c>
       <c r="O61" t="n">
-        <v>28187</v>
+        <v>28189</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4772,10 +4772,10 @@
         <v>8025.3</v>
       </c>
       <c r="R61" t="n">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="S61" t="n">
-        <v>4817.4</v>
+        <v>4817.7</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4822,7 +4822,7 @@
         <v>108826</v>
       </c>
       <c r="J62" t="n">
-        <v>74472</v>
+        <v>74476</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,10 +4834,10 @@
         <v>45726</v>
       </c>
       <c r="N62" t="n">
-        <v>57124</v>
+        <v>57126</v>
       </c>
       <c r="O62" t="n">
-        <v>26920</v>
+        <v>26923</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4846,10 +4846,10 @@
         <v>8059.7</v>
       </c>
       <c r="R62" t="n">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="S62" t="n">
-        <v>4636.4</v>
+        <v>4636.9</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78294</v>
+        <v>78300</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,10 +4908,10 @@
         <v>44500</v>
       </c>
       <c r="N63" t="n">
-        <v>57188</v>
+        <v>57193</v>
       </c>
       <c r="O63" t="n">
-        <v>23943</v>
+        <v>23948</v>
       </c>
       <c r="P63" t="n">
         <v>8352</v>
@@ -4920,10 +4920,10 @@
         <v>7725.4</v>
       </c>
       <c r="R63" t="n">
-        <v>3822</v>
+        <v>3824</v>
       </c>
       <c r="S63" t="n">
-        <v>4391.7</v>
+        <v>4392.4</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82112</v>
+        <v>82118</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,10 +4982,10 @@
         <v>42762</v>
       </c>
       <c r="N64" t="n">
-        <v>56762</v>
+        <v>56767</v>
       </c>
       <c r="O64" t="n">
-        <v>22788</v>
+        <v>22792</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4997,7 +4997,7 @@
         <v>3818</v>
       </c>
       <c r="S64" t="n">
-        <v>3965.9</v>
+        <v>3966.6</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5032,7 +5032,7 @@
         <v>4709</v>
       </c>
       <c r="F65" t="n">
-        <v>30392</v>
+        <v>30393</v>
       </c>
       <c r="G65" t="n">
         <v>3424</v>
@@ -5044,7 +5044,7 @@
         <v>130640</v>
       </c>
       <c r="J65" t="n">
-        <v>85985</v>
+        <v>85991</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,10 +5056,10 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57260</v>
+        <v>57265</v>
       </c>
       <c r="O65" t="n">
-        <v>23313</v>
+        <v>23317</v>
       </c>
       <c r="P65" t="n">
         <v>6688</v>
@@ -5071,7 +5071,7 @@
         <v>3873</v>
       </c>
       <c r="S65" t="n">
-        <v>3808.7</v>
+        <v>3809.3</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5097,7 +5097,7 @@
         <v>2879</v>
       </c>
       <c r="C66" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D66" t="n">
         <v>16</v>
@@ -5106,7 +5106,7 @@
         <v>6202</v>
       </c>
       <c r="F66" t="n">
-        <v>30138</v>
+        <v>30139</v>
       </c>
       <c r="G66" t="n">
         <v>3429</v>
@@ -5115,37 +5115,37 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135949</v>
+        <v>135951</v>
       </c>
       <c r="J66" t="n">
-        <v>88416</v>
+        <v>88425</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95243</v>
+        <v>95245</v>
       </c>
       <c r="M66" t="n">
-        <v>39863</v>
+        <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56734</v>
+        <v>56742</v>
       </c>
       <c r="O66" t="n">
-        <v>23070</v>
+        <v>23077</v>
       </c>
       <c r="P66" t="n">
-        <v>5309</v>
+        <v>5311</v>
       </c>
       <c r="Q66" t="n">
-        <v>6595.3</v>
+        <v>6595.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="S66" t="n">
-        <v>3677.7</v>
+        <v>3678.7</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5180,7 +5180,7 @@
         <v>4748</v>
       </c>
       <c r="F67" t="n">
-        <v>29996</v>
+        <v>29997</v>
       </c>
       <c r="G67" t="n">
         <v>3424</v>
@@ -5189,37 +5189,37 @@
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139711</v>
+        <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90072</v>
+        <v>90082</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
       </c>
       <c r="L67" t="n">
-        <v>92610</v>
+        <v>92612</v>
       </c>
       <c r="M67" t="n">
-        <v>36433</v>
+        <v>36435</v>
       </c>
       <c r="N67" t="n">
-        <v>53590</v>
+        <v>53599</v>
       </c>
       <c r="O67" t="n">
-        <v>19868</v>
+        <v>19875</v>
       </c>
       <c r="P67" t="n">
         <v>3762</v>
       </c>
       <c r="Q67" t="n">
-        <v>6232.1</v>
+        <v>6232.4</v>
       </c>
       <c r="R67" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="S67" t="n">
-        <v>3532.3</v>
+        <v>3533.4</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5254,7 +5254,7 @@
         <v>7508</v>
       </c>
       <c r="F68" t="n">
-        <v>29684</v>
+        <v>29686</v>
       </c>
       <c r="G68" t="n">
         <v>3430</v>
@@ -5263,37 +5263,37 @@
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144597</v>
+        <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93289</v>
+        <v>93300</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
       </c>
       <c r="L68" t="n">
-        <v>92189</v>
+        <v>92191</v>
       </c>
       <c r="M68" t="n">
-        <v>35771</v>
+        <v>35773</v>
       </c>
       <c r="N68" t="n">
-        <v>51272</v>
+        <v>51282</v>
       </c>
       <c r="O68" t="n">
-        <v>18817</v>
+        <v>18824</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
       </c>
       <c r="Q68" t="n">
-        <v>5902.7</v>
+        <v>5903</v>
       </c>
       <c r="R68" t="n">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="S68" t="n">
-        <v>3297.9</v>
+        <v>3299</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,7 +5328,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>28793</v>
+        <v>28795</v>
       </c>
       <c r="G69" t="n">
         <v>3381</v>
@@ -5337,37 +5337,37 @@
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149517</v>
+        <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96353</v>
+        <v>96365</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
       </c>
       <c r="L69" t="n">
-        <v>86417</v>
+        <v>86419</v>
       </c>
       <c r="M69" t="n">
-        <v>32339</v>
+        <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48801</v>
+        <v>48812</v>
       </c>
       <c r="O69" t="n">
-        <v>18059</v>
+        <v>18065</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
       </c>
       <c r="Q69" t="n">
-        <v>5813</v>
+        <v>5813.3</v>
       </c>
       <c r="R69" t="n">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="S69" t="n">
-        <v>3125.9</v>
+        <v>3127</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,7 +5402,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>27699</v>
+        <v>27701</v>
       </c>
       <c r="G70" t="n">
         <v>3291</v>
@@ -5411,37 +5411,37 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154915</v>
+        <v>154917</v>
       </c>
       <c r="J70" t="n">
-        <v>99477</v>
+        <v>99488</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
       </c>
       <c r="L70" t="n">
-        <v>82237</v>
+        <v>82239</v>
       </c>
       <c r="M70" t="n">
-        <v>30963</v>
+        <v>30965</v>
       </c>
       <c r="N70" t="n">
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="O70" t="n">
-        <v>17365</v>
+        <v>17370</v>
       </c>
       <c r="P70" t="n">
         <v>5398</v>
       </c>
       <c r="Q70" t="n">
-        <v>5391</v>
+        <v>5391.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="S70" t="n">
-        <v>3026.1</v>
+        <v>3026.9</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,7 +5476,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>26865</v>
+        <v>26867</v>
       </c>
       <c r="G71" t="n">
         <v>3249</v>
@@ -5485,37 +5485,37 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159907</v>
+        <v>159909</v>
       </c>
       <c r="J71" t="n">
-        <v>102097</v>
+        <v>102110</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
       </c>
       <c r="L71" t="n">
-        <v>78717</v>
+        <v>78719</v>
       </c>
       <c r="M71" t="n">
-        <v>29267</v>
+        <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42773</v>
+        <v>42784</v>
       </c>
       <c r="O71" t="n">
-        <v>16112</v>
+        <v>16119</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
       </c>
       <c r="Q71" t="n">
-        <v>5136.4</v>
+        <v>5136.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="S71" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>25947</v>
+        <v>25949</v>
       </c>
       <c r="G72" t="n">
         <v>3163</v>
@@ -5559,37 +5559,37 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165062</v>
+        <v>165064</v>
       </c>
       <c r="J72" t="n">
-        <v>104384</v>
+        <v>104399</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
       </c>
       <c r="L72" t="n">
-        <v>75280</v>
+        <v>75282</v>
       </c>
       <c r="M72" t="n">
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41712</v>
+        <v>41725</v>
       </c>
       <c r="O72" t="n">
-        <v>15968</v>
+        <v>15974</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
       </c>
       <c r="Q72" t="n">
-        <v>4917.4</v>
+        <v>4917.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="S72" t="n">
-        <v>2628.4</v>
+        <v>2629.7</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25144</v>
+        <v>25146</v>
       </c>
       <c r="G73" t="n">
         <v>3118</v>
@@ -5633,25 +5633,25 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168831</v>
+        <v>168833</v>
       </c>
       <c r="J73" t="n">
-        <v>106154</v>
+        <v>106169</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>72745</v>
+        <v>72747</v>
       </c>
       <c r="M73" t="n">
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40808</v>
+        <v>40821</v>
       </c>
       <c r="O73" t="n">
-        <v>16082</v>
+        <v>16087</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
@@ -5663,7 +5663,7 @@
         <v>1770</v>
       </c>
       <c r="S73" t="n">
-        <v>2534</v>
+        <v>2534.9</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24503</v>
+        <v>24505</v>
       </c>
       <c r="G74" t="n">
         <v>3050</v>
@@ -5707,25 +5707,25 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171874</v>
+        <v>171876</v>
       </c>
       <c r="J74" t="n">
-        <v>107406</v>
+        <v>107421</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
       </c>
       <c r="L74" t="n">
-        <v>68596</v>
+        <v>68598</v>
       </c>
       <c r="M74" t="n">
         <v>27277</v>
       </c>
       <c r="N74" t="n">
-        <v>37202</v>
+        <v>37214</v>
       </c>
       <c r="O74" t="n">
-        <v>14117</v>
+        <v>14121</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5737,7 +5737,7 @@
         <v>1252</v>
       </c>
       <c r="S74" t="n">
-        <v>2476.3</v>
+        <v>2477</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5772,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24214</v>
+        <v>24216</v>
       </c>
       <c r="G75" t="n">
         <v>3008</v>
@@ -5781,25 +5781,25 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175376</v>
+        <v>175378</v>
       </c>
       <c r="J75" t="n">
-        <v>109338</v>
+        <v>109353</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66550</v>
+        <v>66552</v>
       </c>
       <c r="M75" t="n">
         <v>25859</v>
       </c>
       <c r="N75" t="n">
-        <v>34866</v>
+        <v>34877</v>
       </c>
       <c r="O75" t="n">
-        <v>12985</v>
+        <v>12988</v>
       </c>
       <c r="P75" t="n">
         <v>3502</v>
@@ -5811,7 +5811,7 @@
         <v>1932</v>
       </c>
       <c r="S75" t="n">
-        <v>2292.7</v>
+        <v>2293.3</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5846,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23400</v>
+        <v>23403</v>
       </c>
       <c r="G76" t="n">
         <v>2949</v>
@@ -5855,25 +5855,25 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179704</v>
+        <v>179706</v>
       </c>
       <c r="J76" t="n">
-        <v>111876</v>
+        <v>111892</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
       </c>
       <c r="L76" t="n">
-        <v>62526</v>
+        <v>62528</v>
       </c>
       <c r="M76" t="n">
         <v>24789</v>
       </c>
       <c r="N76" t="n">
-        <v>33582</v>
+        <v>33592</v>
       </c>
       <c r="O76" t="n">
-        <v>12399</v>
+        <v>12404</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5882,10 +5882,10 @@
         <v>4312.4</v>
       </c>
       <c r="R76" t="n">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="S76" t="n">
-        <v>2217.6</v>
+        <v>2218.1</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5911,16 +5911,16 @@
         <v>2828</v>
       </c>
       <c r="C77" t="n">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D77" t="n">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E77" t="n">
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22339</v>
+        <v>22342</v>
       </c>
       <c r="G77" t="n">
         <v>2836</v>
@@ -5932,7 +5932,7 @@
         <v>184104</v>
       </c>
       <c r="J77" t="n">
-        <v>116904</v>
+        <v>116918</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -5941,25 +5941,25 @@
         <v>60152</v>
       </c>
       <c r="M77" t="n">
-        <v>24197</v>
+        <v>24195</v>
       </c>
       <c r="N77" t="n">
-        <v>34792</v>
+        <v>34800</v>
       </c>
       <c r="O77" t="n">
-        <v>14807</v>
+        <v>14808</v>
       </c>
       <c r="P77" t="n">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="Q77" t="n">
-        <v>4169.9</v>
+        <v>4169.6</v>
       </c>
       <c r="R77" t="n">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="S77" t="n">
-        <v>2489.6</v>
+        <v>2490</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5994,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21567</v>
+        <v>21570</v>
       </c>
       <c r="G78" t="n">
         <v>2610</v>
@@ -6006,7 +6006,7 @@
         <v>188813</v>
       </c>
       <c r="J78" t="n">
-        <v>119263</v>
+        <v>119278</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -6015,10 +6015,10 @@
         <v>58173</v>
       </c>
       <c r="M78" t="n">
-        <v>23751</v>
+        <v>23749</v>
       </c>
       <c r="N78" t="n">
-        <v>33278</v>
+        <v>33287</v>
       </c>
       <c r="O78" t="n">
         <v>14879</v>
@@ -6027,13 +6027,13 @@
         <v>4709</v>
       </c>
       <c r="Q78" t="n">
-        <v>4129.4</v>
+        <v>4129.1</v>
       </c>
       <c r="R78" t="n">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="S78" t="n">
-        <v>2452.3</v>
+        <v>2452.6</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6068,7 +6068,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20664</v>
+        <v>20667</v>
       </c>
       <c r="G79" t="n">
         <v>2530</v>
@@ -6080,34 +6080,34 @@
         <v>193913</v>
       </c>
       <c r="J79" t="n">
-        <v>121557</v>
+        <v>121573</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57964</v>
+        <v>57962</v>
       </c>
       <c r="M79" t="n">
-        <v>25082</v>
+        <v>25080</v>
       </c>
       <c r="N79" t="n">
-        <v>33141</v>
+        <v>33148</v>
       </c>
       <c r="O79" t="n">
-        <v>15403</v>
+        <v>15404</v>
       </c>
       <c r="P79" t="n">
         <v>5100</v>
       </c>
       <c r="Q79" t="n">
-        <v>4121.6</v>
+        <v>4121.3</v>
       </c>
       <c r="R79" t="n">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="S79" t="n">
-        <v>2453.3</v>
+        <v>2453.4</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,7 +6142,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19979</v>
+        <v>19982</v>
       </c>
       <c r="G80" t="n">
         <v>2464</v>
@@ -6154,34 +6154,34 @@
         <v>199795</v>
       </c>
       <c r="J80" t="n">
-        <v>123033</v>
+        <v>123049</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60084</v>
+        <v>60082</v>
       </c>
       <c r="M80" t="n">
-        <v>27921</v>
+        <v>27919</v>
       </c>
       <c r="N80" t="n">
-        <v>32961</v>
+        <v>32967</v>
       </c>
       <c r="O80" t="n">
-        <v>15627</v>
+        <v>15628</v>
       </c>
       <c r="P80" t="n">
         <v>5882</v>
       </c>
       <c r="Q80" t="n">
-        <v>4423.4</v>
+        <v>4423.1</v>
       </c>
       <c r="R80" t="n">
         <v>1476</v>
       </c>
       <c r="S80" t="n">
-        <v>2411.3</v>
+        <v>2411.4</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19541</v>
+        <v>19544</v>
       </c>
       <c r="G81" t="n">
         <v>2475</v>
@@ -6228,34 +6228,34 @@
         <v>202022</v>
       </c>
       <c r="J81" t="n">
-        <v>123904</v>
+        <v>123920</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57425</v>
+        <v>57423</v>
       </c>
       <c r="M81" t="n">
-        <v>26646</v>
+        <v>26644</v>
       </c>
       <c r="N81" t="n">
-        <v>30615</v>
+        <v>30620</v>
       </c>
       <c r="O81" t="n">
-        <v>14566</v>
+        <v>14567</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306.9</v>
+        <v>4306.6</v>
       </c>
       <c r="R81" t="n">
         <v>871</v>
       </c>
       <c r="S81" t="n">
-        <v>2356.9</v>
+        <v>2357</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,7 +6290,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19360</v>
+        <v>19364</v>
       </c>
       <c r="G82" t="n">
         <v>2421</v>
@@ -6302,34 +6302,34 @@
         <v>204945</v>
       </c>
       <c r="J82" t="n">
-        <v>125624</v>
+        <v>125642</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55428</v>
+        <v>55426</v>
       </c>
       <c r="M82" t="n">
-        <v>25241</v>
+        <v>25239</v>
       </c>
       <c r="N82" t="n">
-        <v>29271</v>
+        <v>29277</v>
       </c>
       <c r="O82" t="n">
-        <v>13748</v>
+        <v>13750</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4224.1</v>
+        <v>4223.9</v>
       </c>
       <c r="R82" t="n">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="S82" t="n">
-        <v>2326.6</v>
+        <v>2327</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6355,7 +6355,7 @@
         <v>2233</v>
       </c>
       <c r="C83" t="n">
-        <v>955</v>
+        <v>978</v>
       </c>
       <c r="D83" t="n">
         <v>5138</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18915</v>
+        <v>18919</v>
       </c>
       <c r="G83" t="n">
         <v>2348</v>
@@ -6373,37 +6373,37 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208698</v>
+        <v>208721</v>
       </c>
       <c r="J83" t="n">
-        <v>127421</v>
+        <v>127466</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53783</v>
+        <v>53804</v>
       </c>
       <c r="M83" t="n">
-        <v>24594</v>
+        <v>24617</v>
       </c>
       <c r="N83" t="n">
-        <v>27944</v>
+        <v>27978</v>
       </c>
       <c r="O83" t="n">
-        <v>10517</v>
+        <v>10548</v>
       </c>
       <c r="P83" t="n">
-        <v>3753</v>
+        <v>3776</v>
       </c>
       <c r="Q83" t="n">
-        <v>4142</v>
+        <v>4145</v>
       </c>
       <c r="R83" t="n">
-        <v>1797</v>
+        <v>1824</v>
       </c>
       <c r="S83" t="n">
-        <v>2220.7</v>
+        <v>2224.9</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6429,7 +6429,7 @@
         <v>2836</v>
       </c>
       <c r="C84" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D84" t="n">
         <v>5809</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18031</v>
+        <v>18033</v>
       </c>
       <c r="G84" t="n">
         <v>2255</v>
@@ -6447,37 +6447,37 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213315</v>
+        <v>213331</v>
       </c>
       <c r="J84" t="n">
-        <v>129364</v>
+        <v>129405</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53408</v>
+        <v>53422</v>
       </c>
       <c r="M84" t="n">
-        <v>24502</v>
+        <v>24518</v>
       </c>
       <c r="N84" t="n">
-        <v>27267</v>
+        <v>27295</v>
       </c>
       <c r="O84" t="n">
-        <v>10101</v>
+        <v>10127</v>
       </c>
       <c r="P84" t="n">
-        <v>4617</v>
+        <v>4610</v>
       </c>
       <c r="Q84" t="n">
-        <v>4173</v>
+        <v>4175.3</v>
       </c>
       <c r="R84" t="n">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="S84" t="n">
-        <v>1780</v>
+        <v>1783.9</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6503,7 +6503,7 @@
         <v>2663</v>
       </c>
       <c r="C85" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D85" t="n">
         <v>6298</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17138</v>
+        <v>17141</v>
       </c>
       <c r="G85" t="n">
         <v>2194</v>
@@ -6521,37 +6521,37 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217031</v>
+        <v>217052</v>
       </c>
       <c r="J85" t="n">
-        <v>130713</v>
+        <v>130760</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51969</v>
+        <v>51988</v>
       </c>
       <c r="M85" t="n">
-        <v>23118</v>
+        <v>23139</v>
       </c>
       <c r="N85" t="n">
-        <v>26329</v>
+        <v>26361</v>
       </c>
       <c r="O85" t="n">
-        <v>9156</v>
+        <v>9187</v>
       </c>
       <c r="P85" t="n">
-        <v>3716</v>
+        <v>3721</v>
       </c>
       <c r="Q85" t="n">
-        <v>4031.1</v>
+        <v>4034.1</v>
       </c>
       <c r="R85" t="n">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="S85" t="n">
-        <v>1635.7</v>
+        <v>1640.3</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6577,7 +6577,7 @@
         <v>2716</v>
       </c>
       <c r="C86" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D86" t="n">
         <v>6559</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16366</v>
+        <v>16369</v>
       </c>
       <c r="G86" t="n">
         <v>2108</v>
@@ -6595,37 +6595,37 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220692</v>
+        <v>220716</v>
       </c>
       <c r="J86" t="n">
-        <v>132185</v>
+        <v>132236</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51861</v>
+        <v>51883</v>
       </c>
       <c r="M86" t="n">
-        <v>20897</v>
+        <v>20921</v>
       </c>
       <c r="N86" t="n">
-        <v>26031</v>
+        <v>26067</v>
       </c>
       <c r="O86" t="n">
-        <v>9152</v>
+        <v>9187</v>
       </c>
       <c r="P86" t="n">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="Q86" t="n">
-        <v>3825.6</v>
+        <v>3829</v>
       </c>
       <c r="R86" t="n">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="S86" t="n">
-        <v>1518.3</v>
+        <v>1523.3</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6651,7 +6651,7 @@
         <v>2065</v>
       </c>
       <c r="C87" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D87" t="n">
         <v>6607</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16665</v>
+        <v>16668</v>
       </c>
       <c r="G87" t="n">
         <v>2235</v>
@@ -6669,37 +6669,37 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223305</v>
+        <v>223336</v>
       </c>
       <c r="J87" t="n">
-        <v>132965</v>
+        <v>133023</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51431</v>
+        <v>51460</v>
       </c>
       <c r="M87" t="n">
-        <v>21283</v>
+        <v>21314</v>
       </c>
       <c r="N87" t="n">
-        <v>25559</v>
+        <v>25602</v>
       </c>
       <c r="O87" t="n">
-        <v>9061</v>
+        <v>9103</v>
       </c>
       <c r="P87" t="n">
-        <v>2613</v>
+        <v>2620</v>
       </c>
       <c r="Q87" t="n">
-        <v>3358.6</v>
+        <v>3363</v>
       </c>
       <c r="R87" t="n">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="S87" t="n">
-        <v>1418.9</v>
+        <v>1424.9</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6725,7 +6725,7 @@
         <v>1680</v>
       </c>
       <c r="C88" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D88" t="n">
         <v>6987</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16179</v>
+        <v>16182</v>
       </c>
       <c r="G88" t="n">
         <v>2185</v>
@@ -6743,37 +6743,37 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225682</v>
+        <v>225710</v>
       </c>
       <c r="J88" t="n">
-        <v>133476</v>
+        <v>133532</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50306</v>
+        <v>50332</v>
       </c>
       <c r="M88" t="n">
-        <v>20737</v>
+        <v>20765</v>
       </c>
       <c r="N88" t="n">
-        <v>24138</v>
+        <v>24179</v>
       </c>
       <c r="O88" t="n">
-        <v>7852</v>
+        <v>7890</v>
       </c>
       <c r="P88" t="n">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="Q88" t="n">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="R88" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S88" t="n">
-        <v>1367.4</v>
+        <v>1373.1</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6799,7 +6799,7 @@
         <v>1562</v>
       </c>
       <c r="C89" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D89" t="n">
         <v>7557</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16067</v>
+        <v>16070</v>
       </c>
       <c r="G89" t="n">
         <v>2188</v>
@@ -6817,37 +6817,37 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228380</v>
+        <v>228407</v>
       </c>
       <c r="J89" t="n">
-        <v>134547</v>
+        <v>134603</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48676</v>
+        <v>48701</v>
       </c>
       <c r="M89" t="n">
-        <v>19682</v>
+        <v>19686</v>
       </c>
       <c r="N89" t="n">
-        <v>22671</v>
+        <v>22711</v>
       </c>
       <c r="O89" t="n">
-        <v>7126</v>
+        <v>7137</v>
       </c>
       <c r="P89" t="n">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="Q89" t="n">
-        <v>3347.9</v>
+        <v>3351.7</v>
       </c>
       <c r="R89" t="n">
         <v>1071</v>
       </c>
       <c r="S89" t="n">
-        <v>1274.7</v>
+        <v>1280.1</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6873,7 +6873,7 @@
         <v>1692</v>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D90" t="n">
         <v>8122</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15548</v>
+        <v>15551</v>
       </c>
       <c r="G90" t="n">
         <v>2042</v>
@@ -6891,37 +6891,37 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228182</v>
+        <v>228222</v>
       </c>
       <c r="J90" t="n">
-        <v>135803</v>
+        <v>135874</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44078</v>
+        <v>44118</v>
       </c>
       <c r="M90" t="n">
-        <v>14867</v>
+        <v>14891</v>
       </c>
       <c r="N90" t="n">
-        <v>18899</v>
+        <v>18956</v>
       </c>
       <c r="O90" t="n">
-        <v>6439</v>
+        <v>6469</v>
       </c>
       <c r="P90" t="n">
-        <v>-198</v>
+        <v>-185</v>
       </c>
       <c r="Q90" t="n">
-        <v>2783.4</v>
+        <v>2785.9</v>
       </c>
       <c r="R90" t="n">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="S90" t="n">
-        <v>1197.4</v>
+        <v>1201.1</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6947,7 +6947,7 @@
         <v>1590</v>
       </c>
       <c r="C91" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D91" t="n">
         <v>8627</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14972</v>
+        <v>14975</v>
       </c>
       <c r="G91" t="n">
         <v>1975</v>
@@ -6965,37 +6965,37 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231072</v>
+        <v>231111</v>
       </c>
       <c r="J91" t="n">
-        <v>136756</v>
+        <v>136827</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42259</v>
+        <v>42298</v>
       </c>
       <c r="M91" t="n">
-        <v>14041</v>
+        <v>14059</v>
       </c>
       <c r="N91" t="n">
-        <v>17493</v>
+        <v>17549</v>
       </c>
       <c r="O91" t="n">
-        <v>6043</v>
+        <v>6067</v>
       </c>
       <c r="P91" t="n">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="Q91" t="n">
-        <v>2536.7</v>
+        <v>2540</v>
       </c>
       <c r="R91" t="n">
         <v>953</v>
       </c>
       <c r="S91" t="n">
-        <v>1056</v>
+        <v>1060.3</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14352</v>
+        <v>14354</v>
       </c>
       <c r="G92" t="n">
         <v>1868</v>
@@ -7039,37 +7039,37 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234294</v>
+        <v>234333</v>
       </c>
       <c r="J92" t="n">
-        <v>137613</v>
+        <v>137688</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40381</v>
+        <v>40420</v>
       </c>
       <c r="M92" t="n">
-        <v>13602</v>
+        <v>13617</v>
       </c>
       <c r="N92" t="n">
-        <v>16056</v>
+        <v>16115</v>
       </c>
       <c r="O92" t="n">
-        <v>5428</v>
+        <v>5452</v>
       </c>
       <c r="P92" t="n">
         <v>3222</v>
       </c>
       <c r="Q92" t="n">
-        <v>2466.1</v>
+        <v>2468.7</v>
       </c>
       <c r="R92" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="S92" t="n">
-        <v>985.7</v>
+        <v>989.7</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7095,7 +7095,7 @@
         <v>1544</v>
       </c>
       <c r="C93" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D93" t="n">
         <v>9047</v>
@@ -7104,7 +7104,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15164</v>
+        <v>15166</v>
       </c>
       <c r="G93" t="n">
         <v>2194</v>
@@ -7113,37 +7113,37 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236444</v>
+        <v>236489</v>
       </c>
       <c r="J93" t="n">
-        <v>138121</v>
+        <v>138205</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36649</v>
+        <v>36694</v>
       </c>
       <c r="M93" t="n">
-        <v>13139</v>
+        <v>13153</v>
       </c>
       <c r="N93" t="n">
-        <v>15088</v>
+        <v>15156</v>
       </c>
       <c r="O93" t="n">
-        <v>5156</v>
+        <v>5182</v>
       </c>
       <c r="P93" t="n">
-        <v>2150</v>
+        <v>2156</v>
       </c>
       <c r="Q93" t="n">
-        <v>2250.3</v>
+        <v>2253.3</v>
       </c>
       <c r="R93" t="n">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="S93" t="n">
-        <v>848</v>
+        <v>852.7</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7169,7 +7169,7 @@
         <v>1117</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="n">
         <v>9078</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>14917</v>
+        <v>14919</v>
       </c>
       <c r="G94" t="n">
         <v>2203</v>
@@ -7187,37 +7187,37 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238103</v>
+        <v>238147</v>
       </c>
       <c r="J94" t="n">
-        <v>138456</v>
+        <v>138541</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36081</v>
+        <v>36125</v>
       </c>
       <c r="M94" t="n">
-        <v>12421</v>
+        <v>12437</v>
       </c>
       <c r="N94" t="n">
-        <v>14552</v>
+        <v>14621</v>
       </c>
       <c r="O94" t="n">
-        <v>4980</v>
+        <v>5009</v>
       </c>
       <c r="P94" t="n">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2114</v>
+        <v>2115.9</v>
       </c>
       <c r="R94" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S94" t="n">
-        <v>784.4</v>
+        <v>788.3</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,7 +7252,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14831</v>
+        <v>14833</v>
       </c>
       <c r="G95" t="n">
         <v>2154</v>
@@ -7261,37 +7261,37 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239198</v>
+        <v>239242</v>
       </c>
       <c r="J95" t="n">
-        <v>138713</v>
+        <v>138798</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34253</v>
+        <v>34297</v>
       </c>
       <c r="M95" t="n">
-        <v>10818</v>
+        <v>10835</v>
       </c>
       <c r="N95" t="n">
-        <v>13089</v>
+        <v>13156</v>
       </c>
       <c r="O95" t="n">
-        <v>4166</v>
+        <v>4195</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1930.9</v>
+        <v>1933.1</v>
       </c>
       <c r="R95" t="n">
         <v>257</v>
       </c>
       <c r="S95" t="n">
-        <v>748.1</v>
+        <v>752.3</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7317,7 +7317,7 @@
         <v>567</v>
       </c>
       <c r="C96" t="n">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D96" t="n">
         <v>9482</v>
@@ -7326,7 +7326,7 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14555</v>
+        <v>14557</v>
       </c>
       <c r="G96" t="n">
         <v>2059</v>
@@ -7335,37 +7335,37 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>240947</v>
+        <v>241015</v>
       </c>
       <c r="J96" t="n">
-        <v>139486</v>
+        <v>139597</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32249</v>
+        <v>32294</v>
       </c>
       <c r="M96" t="n">
-        <v>12765</v>
+        <v>12793</v>
       </c>
       <c r="N96" t="n">
-        <v>12065</v>
+        <v>12131</v>
       </c>
       <c r="O96" t="n">
-        <v>3683</v>
+        <v>3723</v>
       </c>
       <c r="P96" t="n">
-        <v>1749</v>
+        <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1795.3</v>
+        <v>1801.1</v>
       </c>
       <c r="R96" t="n">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="S96" t="n">
-        <v>705.6</v>
+        <v>713.4</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,7 +7400,7 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14232</v>
+        <v>14234</v>
       </c>
       <c r="G97" t="n">
         <v>2009</v>
@@ -7409,37 +7409,37 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243002</v>
+        <v>243070</v>
       </c>
       <c r="J97" t="n">
-        <v>152497</v>
+        <v>152610</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29687</v>
+        <v>29739</v>
       </c>
       <c r="M97" t="n">
-        <v>11930</v>
+        <v>11959</v>
       </c>
       <c r="N97" t="n">
-        <v>23133</v>
+        <v>23205</v>
       </c>
       <c r="O97" t="n">
-        <v>15741</v>
+        <v>15783</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2117.1</v>
+        <v>2121.1</v>
       </c>
       <c r="R97" t="n">
-        <v>13011</v>
+        <v>13013</v>
       </c>
       <c r="S97" t="n">
-        <v>2384.9</v>
+        <v>2390.9</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7465,16 +7465,16 @@
         <v>959</v>
       </c>
       <c r="C98" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" t="n">
-        <v>10221</v>
+        <v>10222</v>
       </c>
       <c r="E98" t="n">
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13678</v>
+        <v>13680</v>
       </c>
       <c r="G98" t="n">
         <v>1901</v>
@@ -7483,37 +7483,37 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>245949</v>
+        <v>246017</v>
       </c>
       <c r="J98" t="n">
-        <v>153306</v>
+        <v>153421</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28918</v>
+        <v>28965</v>
       </c>
       <c r="M98" t="n">
-        <v>11655</v>
+        <v>11684</v>
       </c>
       <c r="N98" t="n">
-        <v>22593</v>
+        <v>22661</v>
       </c>
       <c r="O98" t="n">
-        <v>15693</v>
+        <v>15733</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2125.3</v>
+        <v>2129.4</v>
       </c>
       <c r="R98" t="n">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="S98" t="n">
-        <v>2364.3</v>
+        <v>2370.6</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7539,16 +7539,16 @@
         <v>1046</v>
       </c>
       <c r="C99" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" t="n">
-        <v>10541</v>
+        <v>10542</v>
       </c>
       <c r="E99" t="n">
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13084</v>
+        <v>13087</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,37 +7557,37 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246325</v>
+        <v>246392</v>
       </c>
       <c r="J99" t="n">
-        <v>153998</v>
+        <v>154111</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25633</v>
+        <v>25676</v>
       </c>
       <c r="M99" t="n">
-        <v>9881</v>
+        <v>9903</v>
       </c>
       <c r="N99" t="n">
-        <v>21813</v>
+        <v>21875</v>
       </c>
       <c r="O99" t="n">
-        <v>15877</v>
+        <v>15906</v>
       </c>
       <c r="P99" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q99" t="n">
-        <v>1718.7</v>
+        <v>1722.7</v>
       </c>
       <c r="R99" t="n">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S99" t="n">
-        <v>2340.7</v>
+        <v>2346.1</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7613,7 +7613,7 @@
         <v>933</v>
       </c>
       <c r="C100" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D100" t="n">
         <v>10814</v>
@@ -7622,7 +7622,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12448</v>
+        <v>12450</v>
       </c>
       <c r="G100" t="n">
         <v>1762</v>
@@ -7631,37 +7631,37 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250861</v>
+        <v>250926</v>
       </c>
       <c r="J100" t="n">
-        <v>154657</v>
+        <v>154771</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27556</v>
+        <v>27590</v>
       </c>
       <c r="M100" t="n">
-        <v>12758</v>
+        <v>12779</v>
       </c>
       <c r="N100" t="n">
-        <v>21692</v>
+        <v>21748</v>
       </c>
       <c r="O100" t="n">
-        <v>16201</v>
+        <v>16230</v>
       </c>
       <c r="P100" t="n">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="Q100" t="n">
-        <v>2059.6</v>
+        <v>2062.4</v>
       </c>
       <c r="R100" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="S100" t="n">
-        <v>2362.3</v>
+        <v>2366.6</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,7 +7696,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12061</v>
+        <v>12063</v>
       </c>
       <c r="G101" t="n">
         <v>1685</v>
@@ -7705,37 +7705,37 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252679</v>
+        <v>252744</v>
       </c>
       <c r="J101" t="n">
-        <v>154951</v>
+        <v>155065</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>26997</v>
+        <v>27034</v>
       </c>
       <c r="M101" t="n">
-        <v>13481</v>
+        <v>13502</v>
       </c>
       <c r="N101" t="n">
-        <v>21475</v>
+        <v>21533</v>
       </c>
       <c r="O101" t="n">
-        <v>16238</v>
+        <v>16267</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2082.3</v>
+        <v>2085.3</v>
       </c>
       <c r="R101" t="n">
         <v>294</v>
       </c>
       <c r="S101" t="n">
-        <v>2356.4</v>
+        <v>2360.6</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7761,7 +7761,7 @@
         <v>885</v>
       </c>
       <c r="C102" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D102" t="n">
         <v>10873</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11685</v>
+        <v>11687</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,37 +7779,37 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251637</v>
+        <v>251701</v>
       </c>
       <c r="J102" t="n">
-        <v>155179</v>
+        <v>155293</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23257</v>
+        <v>23294</v>
       </c>
       <c r="M102" t="n">
-        <v>10690</v>
+        <v>10686</v>
       </c>
       <c r="N102" t="n">
-        <v>20632</v>
+        <v>20690</v>
       </c>
       <c r="O102" t="n">
-        <v>15693</v>
+        <v>15696</v>
       </c>
       <c r="P102" t="n">
-        <v>-1042</v>
+        <v>-1043</v>
       </c>
       <c r="Q102" t="n">
-        <v>1777</v>
+        <v>1779.9</v>
       </c>
       <c r="R102" t="n">
         <v>228</v>
       </c>
       <c r="S102" t="n">
-        <v>2352.3</v>
+        <v>2356.4</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,7 +7844,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11602</v>
+        <v>11604</v>
       </c>
       <c r="G103" t="n">
         <v>1568</v>
@@ -7853,37 +7853,37 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255263</v>
+        <v>255327</v>
       </c>
       <c r="J103" t="n">
-        <v>155741</v>
+        <v>155857</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27081</v>
+        <v>27105</v>
       </c>
       <c r="M103" t="n">
-        <v>12261</v>
+        <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>19938</v>
+        <v>19983</v>
       </c>
       <c r="O103" t="n">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="P103" t="n">
         <v>3626</v>
       </c>
       <c r="Q103" t="n">
-        <v>2045.1</v>
+        <v>2044.6</v>
       </c>
       <c r="R103" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="S103" t="n">
-        <v>2322.1</v>
+        <v>2322.9</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11262</v>
+        <v>11264</v>
       </c>
       <c r="G104" t="n">
         <v>1499</v>
@@ -7927,37 +7927,37 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>256943</v>
+        <v>257007</v>
       </c>
       <c r="J104" t="n">
-        <v>156398</v>
+        <v>156518</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25871</v>
+        <v>25896</v>
       </c>
       <c r="M104" t="n">
-        <v>10994</v>
+        <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19642</v>
+        <v>19691</v>
       </c>
       <c r="O104" t="n">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
       </c>
       <c r="Q104" t="n">
-        <v>1991.6</v>
+        <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="S104" t="n">
-        <v>557.3</v>
+        <v>558.3</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7983,7 +7983,7 @@
         <v>334</v>
       </c>
       <c r="C105" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D105" t="n">
         <v>11657</v>
@@ -7992,7 +7992,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10859</v>
+        <v>10861</v>
       </c>
       <c r="G105" t="n">
         <v>1418</v>
@@ -8001,37 +8001,37 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258543</v>
+        <v>258606</v>
       </c>
       <c r="J105" t="n">
-        <v>157078</v>
+        <v>157200</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24249</v>
+        <v>24273</v>
       </c>
       <c r="M105" t="n">
-        <v>12218</v>
+        <v>12214</v>
       </c>
       <c r="N105" t="n">
-        <v>19465</v>
+        <v>19512</v>
       </c>
       <c r="O105" t="n">
-        <v>3080</v>
+        <v>3089</v>
       </c>
       <c r="P105" t="n">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Q105" t="n">
-        <v>1799.1</v>
+        <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="S105" t="n">
-        <v>538.9</v>
+        <v>539.9</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,7 +8066,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10441</v>
+        <v>10443</v>
       </c>
       <c r="G106" t="n">
         <v>1381</v>
@@ -8075,37 +8075,37 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203327</v>
+        <v>203390</v>
       </c>
       <c r="J106" t="n">
-        <v>184999</v>
+        <v>185123</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33117</v>
+        <v>-33099</v>
       </c>
       <c r="M106" t="n">
-        <v>-47534</v>
+        <v>-47536</v>
       </c>
       <c r="N106" t="n">
-        <v>46878</v>
+        <v>46918</v>
       </c>
       <c r="O106" t="n">
-        <v>30342</v>
+        <v>30352</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
       </c>
       <c r="Q106" t="n">
-        <v>-6142.6</v>
+        <v>-6143.1</v>
       </c>
       <c r="R106" t="n">
-        <v>27921</v>
+        <v>27923</v>
       </c>
       <c r="S106" t="n">
-        <v>4428.7</v>
+        <v>4430.3</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8140,7 +8140,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10021</v>
+        <v>10023</v>
       </c>
       <c r="G107" t="n">
         <v>1391</v>
@@ -8149,37 +8149,37 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204622</v>
+        <v>204685</v>
       </c>
       <c r="J107" t="n">
-        <v>198416</v>
+        <v>198542</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33481</v>
+        <v>-33462</v>
       </c>
       <c r="M107" t="n">
-        <v>-48057</v>
+        <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>59960</v>
+        <v>60001</v>
       </c>
       <c r="O107" t="n">
-        <v>43465</v>
+        <v>43477</v>
       </c>
       <c r="P107" t="n">
         <v>1295</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6605.6</v>
+        <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13417</v>
+        <v>13419</v>
       </c>
       <c r="S107" t="n">
-        <v>6251.3</v>
+        <v>6253</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,7 +8214,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9741</v>
+        <v>9743</v>
       </c>
       <c r="G108" t="n">
         <v>1354</v>
@@ -8223,37 +8223,37 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205235</v>
+        <v>205298</v>
       </c>
       <c r="J108" t="n">
-        <v>198737</v>
+        <v>198864</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33963</v>
+        <v>-33944</v>
       </c>
       <c r="M108" t="n">
-        <v>-46402</v>
+        <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60024</v>
+        <v>60066</v>
       </c>
       <c r="O108" t="n">
-        <v>43558</v>
+        <v>43571</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6777.7</v>
+        <v>-6778</v>
       </c>
       <c r="R108" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S108" t="n">
-        <v>6255.1</v>
+        <v>6257</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8279,7 +8279,7 @@
         <v>135</v>
       </c>
       <c r="C109" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109" t="n">
         <v>12443</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9612</v>
+        <v>9614</v>
       </c>
       <c r="G109" t="n">
         <v>1319</v>
@@ -8297,37 +8297,37 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205585</v>
+        <v>205647</v>
       </c>
       <c r="J109" t="n">
-        <v>198985</v>
+        <v>199113</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35362</v>
+        <v>-35368</v>
       </c>
       <c r="M109" t="n">
-        <v>-49678</v>
+        <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59499</v>
+        <v>59516</v>
       </c>
       <c r="O109" t="n">
-        <v>43244</v>
+        <v>43256</v>
       </c>
       <c r="P109" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6578.9</v>
+        <v>-6579.1</v>
       </c>
       <c r="R109" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S109" t="n">
-        <v>6258</v>
+        <v>6260</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8356,13 +8356,13 @@
         <v>281</v>
       </c>
       <c r="D110" t="n">
-        <v>12481</v>
+        <v>12480</v>
       </c>
       <c r="E110" t="n">
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9529</v>
+        <v>9531</v>
       </c>
       <c r="G110" t="n">
         <v>1302</v>
@@ -8371,37 +8371,37 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179069</v>
+        <v>179130</v>
       </c>
       <c r="J110" t="n">
-        <v>224294</v>
+        <v>224427</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63933</v>
+        <v>-63940</v>
       </c>
       <c r="M110" t="n">
-        <v>-77874</v>
+        <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71797</v>
+        <v>71817</v>
       </c>
       <c r="O110" t="n">
-        <v>67896</v>
+        <v>67909</v>
       </c>
       <c r="P110" t="n">
-        <v>-26516</v>
+        <v>-26517</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10884.9</v>
+        <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25309</v>
+        <v>25314</v>
       </c>
       <c r="S110" t="n">
-        <v>9793.3</v>
+        <v>9795.7</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8427,7 +8427,7 @@
         <v>37</v>
       </c>
       <c r="C111" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D111" t="n">
         <v>12489</v>
@@ -8436,7 +8436,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9236</v>
+        <v>9238</v>
       </c>
       <c r="G111" t="n">
         <v>1231</v>
@@ -8445,37 +8445,37 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>174974</v>
+        <v>175034</v>
       </c>
       <c r="J111" t="n">
-        <v>230545</v>
+        <v>230677</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70975</v>
+        <v>-70983</v>
       </c>
       <c r="M111" t="n">
-        <v>-83569</v>
+        <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77239</v>
+        <v>77256</v>
       </c>
       <c r="O111" t="n">
-        <v>73467</v>
+        <v>73477</v>
       </c>
       <c r="P111" t="n">
-        <v>-4095</v>
+        <v>-4096</v>
       </c>
       <c r="Q111" t="n">
-        <v>-11709.9</v>
+        <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="S111" t="n">
-        <v>10592.4</v>
+        <v>10594.1</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8510,7 +8510,7 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8934</v>
+        <v>8936</v>
       </c>
       <c r="G112" t="n">
         <v>1163</v>
@@ -8519,37 +8519,37 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175537</v>
+        <v>175597</v>
       </c>
       <c r="J112" t="n">
-        <v>231304</v>
+        <v>231438</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70788</v>
+        <v>-70795</v>
       </c>
       <c r="M112" t="n">
-        <v>-27790</v>
+        <v>-27793</v>
       </c>
       <c r="N112" t="n">
-        <v>77306</v>
+        <v>77327</v>
       </c>
       <c r="O112" t="n">
-        <v>46305</v>
+        <v>46315</v>
       </c>
       <c r="P112" t="n">
         <v>563</v>
       </c>
       <c r="Q112" t="n">
-        <v>-11858</v>
+        <v>-11858.4</v>
       </c>
       <c r="R112" t="n">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="S112" t="n">
-        <v>10603.7</v>
+        <v>10605.4</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8575,7 +8575,7 @@
         <v>62</v>
       </c>
       <c r="C113" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D113" t="n">
         <v>42</v>
@@ -8584,7 +8584,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8596</v>
+        <v>8598</v>
       </c>
       <c r="G113" t="n">
         <v>763</v>
@@ -8593,37 +8593,37 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83708</v>
+        <v>83769</v>
       </c>
       <c r="J113" t="n">
-        <v>232159</v>
+        <v>232293</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167153</v>
+        <v>-167157</v>
       </c>
       <c r="M113" t="n">
-        <v>-120914</v>
+        <v>-120916</v>
       </c>
       <c r="N113" t="n">
-        <v>77502</v>
+        <v>77522</v>
       </c>
       <c r="O113" t="n">
-        <v>33743</v>
+        <v>33751</v>
       </c>
       <c r="P113" t="n">
-        <v>-91829</v>
+        <v>-91828</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.4</v>
+        <v>-17088.7</v>
       </c>
       <c r="R113" t="n">
         <v>855</v>
       </c>
       <c r="S113" t="n">
-        <v>6737.1</v>
+        <v>6738.6</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8649,7 +8649,7 @@
         <v>69</v>
       </c>
       <c r="C114" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D114" t="n">
         <v>35</v>
@@ -8658,7 +8658,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8285</v>
+        <v>8287</v>
       </c>
       <c r="G114" t="n">
         <v>696</v>
@@ -8667,37 +8667,37 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84195</v>
+        <v>84257</v>
       </c>
       <c r="J114" t="n">
-        <v>233015</v>
+        <v>233153</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168484</v>
+        <v>-168487</v>
       </c>
       <c r="M114" t="n">
-        <v>-121040</v>
+        <v>-121041</v>
       </c>
       <c r="N114" t="n">
-        <v>78064</v>
+        <v>78088</v>
       </c>
       <c r="O114" t="n">
-        <v>34278</v>
+        <v>34289</v>
       </c>
       <c r="P114" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q114" t="n">
-        <v>-17203.9</v>
+        <v>-17204</v>
       </c>
       <c r="R114" t="n">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="S114" t="n">
-        <v>4942.7</v>
+        <v>4944.4</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8053</v>
+        <v>8055</v>
       </c>
       <c r="G115" t="n">
         <v>704</v>
@@ -8741,37 +8741,37 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84409</v>
+        <v>84471</v>
       </c>
       <c r="J115" t="n">
-        <v>233338</v>
+        <v>233478</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167228</v>
+        <v>-167230</v>
       </c>
       <c r="M115" t="n">
         <v>-121176</v>
       </c>
       <c r="N115" t="n">
-        <v>78159</v>
+        <v>78185</v>
       </c>
       <c r="O115" t="n">
-        <v>34353</v>
+        <v>34365</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
       </c>
       <c r="Q115" t="n">
-        <v>-17260.9</v>
+        <v>-17261</v>
       </c>
       <c r="R115" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S115" t="n">
-        <v>4943</v>
+        <v>4944.9</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8797,7 +8797,7 @@
         <v>63</v>
       </c>
       <c r="C116" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7941</v>
+        <v>7943</v>
       </c>
       <c r="G116" t="n">
         <v>677</v>
@@ -8815,37 +8815,37 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84572</v>
+        <v>84631</v>
       </c>
       <c r="J116" t="n">
-        <v>233629</v>
+        <v>233766</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170691</v>
+        <v>-170696</v>
       </c>
       <c r="M116" t="n">
-        <v>-94497</v>
+        <v>-94499</v>
       </c>
       <c r="N116" t="n">
-        <v>77888</v>
+        <v>77909</v>
       </c>
       <c r="O116" t="n">
-        <v>9335</v>
+        <v>9339</v>
       </c>
       <c r="P116" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q116" t="n">
-        <v>-17287.6</v>
+        <v>-17288</v>
       </c>
       <c r="R116" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S116" t="n">
-        <v>4949.1</v>
+        <v>4950.4</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8880,7 +8880,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7884</v>
+        <v>7886</v>
       </c>
       <c r="G117" t="n">
         <v>658</v>
@@ -8889,37 +8889,37 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84918</v>
+        <v>84977</v>
       </c>
       <c r="J117" t="n">
-        <v>234151</v>
+        <v>234290</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172025</v>
+        <v>-172030</v>
       </c>
       <c r="M117" t="n">
-        <v>-90056</v>
+        <v>-90057</v>
       </c>
       <c r="N117" t="n">
-        <v>77753</v>
+        <v>77772</v>
       </c>
       <c r="O117" t="n">
-        <v>3606</v>
+        <v>3613</v>
       </c>
       <c r="P117" t="n">
         <v>346</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13450.1</v>
+        <v>-13450.4</v>
       </c>
       <c r="R117" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="S117" t="n">
-        <v>1408.1</v>
+        <v>1409</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8945,7 +8945,7 @@
         <v>40</v>
       </c>
       <c r="C118" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D118" t="n">
         <v>29</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7730</v>
+        <v>7732</v>
       </c>
       <c r="G118" t="n">
         <v>644</v>
@@ -8963,37 +8963,37 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85295</v>
+        <v>85356</v>
       </c>
       <c r="J118" t="n">
-        <v>234826</v>
+        <v>234967</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173248</v>
+        <v>-173250</v>
       </c>
       <c r="M118" t="n">
-        <v>-90242</v>
+        <v>-90241</v>
       </c>
       <c r="N118" t="n">
-        <v>77748</v>
+        <v>77767</v>
       </c>
       <c r="O118" t="n">
-        <v>3522</v>
+        <v>3529</v>
       </c>
       <c r="P118" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.3</v>
+        <v>-12811.1</v>
       </c>
       <c r="R118" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="S118" t="n">
-        <v>611.6</v>
+        <v>612.9</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9019,7 +9019,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="G119" t="n">
         <v>597</v>
@@ -9037,37 +9037,37 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85688</v>
+        <v>85747</v>
       </c>
       <c r="J119" t="n">
-        <v>235572</v>
+        <v>235713</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117639</v>
+        <v>-117643</v>
       </c>
       <c r="M119" t="n">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="N119" t="n">
-        <v>50573</v>
+        <v>50590</v>
       </c>
       <c r="O119" t="n">
-        <v>3413</v>
+        <v>3420</v>
       </c>
       <c r="P119" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q119" t="n">
-        <v>-12835.6</v>
+        <v>-12835.7</v>
       </c>
       <c r="R119" t="n">
         <v>746</v>
       </c>
       <c r="S119" t="n">
-        <v>609.7</v>
+        <v>610.7</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="G120" t="n">
         <v>534</v>
@@ -9111,37 +9111,37 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83904</v>
+        <v>83963</v>
       </c>
       <c r="J120" t="n">
-        <v>236243</v>
+        <v>236388</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
       </c>
       <c r="L120" t="n">
-        <v>-120718</v>
+        <v>-120722</v>
       </c>
       <c r="M120" t="n">
-        <v>-291</v>
+        <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>37827</v>
+        <v>37846</v>
       </c>
       <c r="O120" t="n">
-        <v>3228</v>
+        <v>3235</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
       </c>
       <c r="Q120" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="R120" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="S120" t="n">
-        <v>583.4</v>
+        <v>585</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="G121" t="n">
         <v>529</v>
@@ -9185,37 +9185,37 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86288</v>
+        <v>86347</v>
       </c>
       <c r="J121" t="n">
-        <v>236948</v>
+        <v>237096</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
       </c>
       <c r="L121" t="n">
-        <v>-118947</v>
+        <v>-118951</v>
       </c>
       <c r="M121" t="n">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="N121" t="n">
-        <v>38211</v>
+        <v>38232</v>
       </c>
       <c r="O121" t="n">
-        <v>3610</v>
+        <v>3618</v>
       </c>
       <c r="P121" t="n">
         <v>2384</v>
       </c>
       <c r="Q121" t="n">
-        <v>299</v>
+        <v>298.6</v>
       </c>
       <c r="R121" t="n">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="S121" t="n">
-        <v>561.9</v>
+        <v>563.3</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="G122" t="n">
         <v>508</v>
@@ -9259,37 +9259,37 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86429</v>
+        <v>86488</v>
       </c>
       <c r="J122" t="n">
-        <v>237300</v>
+        <v>237449</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119156</v>
+        <v>-119159</v>
       </c>
       <c r="M122" t="n">
         <v>1857</v>
       </c>
       <c r="N122" t="n">
-        <v>38315</v>
+        <v>38336</v>
       </c>
       <c r="O122" t="n">
-        <v>3671</v>
+        <v>3683</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
       </c>
       <c r="Q122" t="n">
-        <v>288.6</v>
+        <v>288.1</v>
       </c>
       <c r="R122" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S122" t="n">
-        <v>566</v>
+        <v>567.3</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="G123" t="n">
         <v>513</v>
@@ -9333,25 +9333,25 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86476</v>
+        <v>86535</v>
       </c>
       <c r="J123" t="n">
-        <v>237568</v>
+        <v>237717</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92593</v>
+        <v>-92595</v>
       </c>
       <c r="M123" t="n">
         <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13274</v>
+        <v>13290</v>
       </c>
       <c r="O123" t="n">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9363,7 +9363,7 @@
         <v>268</v>
       </c>
       <c r="S123" t="n">
-        <v>562.7</v>
+        <v>564.4</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="G124" t="n">
         <v>508</v>
@@ -9407,25 +9407,25 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86553</v>
+        <v>86612</v>
       </c>
       <c r="J124" t="n">
-        <v>237917</v>
+        <v>238068</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88421</v>
+        <v>-88422</v>
       </c>
       <c r="M124" t="n">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="N124" t="n">
-        <v>7372</v>
+        <v>7391</v>
       </c>
       <c r="O124" t="n">
-        <v>3091</v>
+        <v>3101</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>233.6</v>
       </c>
       <c r="R124" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="S124" t="n">
-        <v>538</v>
+        <v>539.7</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9463,7 +9463,7 @@
         <v>25</v>
       </c>
       <c r="C125" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D125" t="n">
         <v>28</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="G125" t="n">
         <v>470</v>
@@ -9481,37 +9481,37 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84732</v>
+        <v>84789</v>
       </c>
       <c r="J125" t="n">
-        <v>238501</v>
+        <v>238656</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90805</v>
+        <v>-90808</v>
       </c>
       <c r="M125" t="n">
-        <v>-956</v>
+        <v>-958</v>
       </c>
       <c r="N125" t="n">
-        <v>7197</v>
+        <v>7218</v>
       </c>
       <c r="O125" t="n">
-        <v>2929</v>
+        <v>2943</v>
       </c>
       <c r="P125" t="n">
-        <v>-1821</v>
+        <v>-1823</v>
       </c>
       <c r="Q125" t="n">
-        <v>-80.4</v>
+        <v>-81</v>
       </c>
       <c r="R125" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S125" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="G126" t="n">
         <v>444</v>
@@ -9555,37 +9555,37 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87063</v>
+        <v>87120</v>
       </c>
       <c r="J126" t="n">
-        <v>239122</v>
+        <v>239281</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="M126" t="n">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="N126" t="n">
-        <v>6963</v>
+        <v>6988</v>
       </c>
       <c r="O126" t="n">
-        <v>2879</v>
+        <v>2893</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
       </c>
       <c r="Q126" t="n">
-        <v>196.4</v>
+        <v>196.1</v>
       </c>
       <c r="R126" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="S126" t="n">
-        <v>507.1</v>
+        <v>509.7</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9611,7 +9611,7 @@
         <v>61</v>
       </c>
       <c r="C127" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D127" t="n">
         <v>25</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="G127" t="n">
         <v>422</v>
@@ -9629,37 +9629,37 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94533</v>
+        <v>94592</v>
       </c>
       <c r="J127" t="n">
-        <v>239667</v>
+        <v>239835</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10338</v>
+        <v>10335</v>
       </c>
       <c r="M127" t="n">
         <v>8245</v>
       </c>
       <c r="N127" t="n">
-        <v>6652</v>
+        <v>6682</v>
       </c>
       <c r="O127" t="n">
-        <v>2719</v>
+        <v>2739</v>
       </c>
       <c r="P127" t="n">
-        <v>7470</v>
+        <v>7472</v>
       </c>
       <c r="Q127" t="n">
         <v>1518.4</v>
       </c>
       <c r="R127" t="n">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="S127" t="n">
-        <v>489.1</v>
+        <v>492.4</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9685,7 +9685,7 @@
         <v>36</v>
       </c>
       <c r="C128" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" t="n">
         <v>17</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="G128" t="n">
         <v>400</v>
@@ -9703,37 +9703,37 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97045</v>
+        <v>97103</v>
       </c>
       <c r="J128" t="n">
-        <v>242356</v>
+        <v>242527</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12636</v>
+        <v>12632</v>
       </c>
       <c r="M128" t="n">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="N128" t="n">
-        <v>9018</v>
+        <v>9049</v>
       </c>
       <c r="O128" t="n">
-        <v>5056</v>
+        <v>5078</v>
       </c>
       <c r="P128" t="n">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="Q128" t="n">
-        <v>1536.7</v>
+        <v>1536.6</v>
       </c>
       <c r="R128" t="n">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="S128" t="n">
-        <v>772.6</v>
+        <v>775.9</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="G129" t="n">
         <v>401</v>
@@ -9777,37 +9777,37 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97037</v>
+        <v>97095</v>
       </c>
       <c r="J129" t="n">
-        <v>242693</v>
+        <v>242870</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12465</v>
+        <v>12464</v>
       </c>
       <c r="M129" t="n">
-        <v>10561</v>
+        <v>10560</v>
       </c>
       <c r="N129" t="n">
-        <v>9064</v>
+        <v>9104</v>
       </c>
       <c r="O129" t="n">
-        <v>5125</v>
+        <v>5153</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
       </c>
       <c r="Q129" t="n">
-        <v>1515.4</v>
+        <v>1515.3</v>
       </c>
       <c r="R129" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="S129" t="n">
-        <v>770.4</v>
+        <v>774.4</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="G130" t="n">
         <v>400</v>
@@ -9851,37 +9851,37 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97194</v>
+        <v>97252</v>
       </c>
       <c r="J130" t="n">
-        <v>243289</v>
+        <v>243466</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12276</v>
+        <v>12275</v>
       </c>
       <c r="M130" t="n">
-        <v>10641</v>
+        <v>10640</v>
       </c>
       <c r="N130" t="n">
-        <v>9138</v>
+        <v>9176</v>
       </c>
       <c r="O130" t="n">
-        <v>5372</v>
+        <v>5398</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
       </c>
       <c r="Q130" t="n">
-        <v>1531.1</v>
+        <v>1531</v>
       </c>
       <c r="R130" t="n">
         <v>596</v>
       </c>
       <c r="S130" t="n">
-        <v>817.3</v>
+        <v>821.3</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="G131" t="n">
         <v>391</v>
@@ -9925,37 +9925,37 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97339</v>
+        <v>97397</v>
       </c>
       <c r="J131" t="n">
-        <v>243601</v>
+        <v>243781</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12044</v>
+        <v>12041</v>
       </c>
       <c r="M131" t="n">
-        <v>12607</v>
+        <v>12608</v>
       </c>
       <c r="N131" t="n">
-        <v>8775</v>
+        <v>8814</v>
       </c>
       <c r="O131" t="n">
-        <v>5100</v>
+        <v>5125</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
       </c>
       <c r="Q131" t="n">
-        <v>1540.9</v>
+        <v>1540.7</v>
       </c>
       <c r="R131" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S131" t="n">
-        <v>812</v>
+        <v>816.1</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9981,7 +9981,7 @@
         <v>24</v>
       </c>
       <c r="C132" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D132" t="n">
         <v>23</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="G132" t="n">
         <v>372</v>
@@ -9999,10 +9999,10 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97511</v>
+        <v>97570</v>
       </c>
       <c r="J132" t="n">
-        <v>244012</v>
+        <v>244193</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -10011,25 +10011,25 @@
         <v>11823</v>
       </c>
       <c r="M132" t="n">
-        <v>10448</v>
+        <v>10450</v>
       </c>
       <c r="N132" t="n">
-        <v>8440</v>
+        <v>8480</v>
       </c>
       <c r="O132" t="n">
-        <v>4890</v>
+        <v>4912</v>
       </c>
       <c r="P132" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q132" t="n">
-        <v>1825.6</v>
+        <v>1825.9</v>
       </c>
       <c r="R132" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S132" t="n">
-        <v>787.3</v>
+        <v>791</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10055,7 +10055,7 @@
         <v>31</v>
       </c>
       <c r="C133" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D133" t="n">
         <v>19</v>
@@ -10064,7 +10064,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="G133" t="n">
         <v>334</v>
@@ -10073,37 +10073,37 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97717</v>
+        <v>97778</v>
       </c>
       <c r="J133" t="n">
-        <v>244446</v>
+        <v>244630</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13813</v>
+        <v>13815</v>
       </c>
       <c r="M133" t="n">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="N133" t="n">
-        <v>8203</v>
+        <v>8242</v>
       </c>
       <c r="O133" t="n">
-        <v>4779</v>
+        <v>4795</v>
       </c>
       <c r="P133" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q133" t="n">
-        <v>1522</v>
+        <v>1522.6</v>
       </c>
       <c r="R133" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="S133" t="n">
-        <v>760.6</v>
+        <v>764.1</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10129,7 +10129,7 @@
         <v>34</v>
       </c>
       <c r="C134" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D134" t="n">
         <v>40</v>
@@ -10138,46 +10138,46 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="G134" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H134" t="n">
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97870</v>
+        <v>97931</v>
       </c>
       <c r="J134" t="n">
-        <v>244865</v>
+        <v>245053</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11582</v>
+        <v>11584</v>
       </c>
       <c r="M134" t="n">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>7917</v>
+        <v>7957</v>
       </c>
       <c r="O134" t="n">
-        <v>2509</v>
+        <v>2526</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
       </c>
       <c r="Q134" t="n">
-        <v>476.7</v>
+        <v>477</v>
       </c>
       <c r="R134" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="S134" t="n">
-        <v>742.6</v>
+        <v>745.4</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10203,7 +10203,7 @@
         <v>41</v>
       </c>
       <c r="C135" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D135" t="n">
         <v>37</v>
@@ -10212,46 +10212,46 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G135" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H135" t="n">
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98078</v>
+        <v>98139</v>
       </c>
       <c r="J135" t="n">
-        <v>245335</v>
+        <v>245529</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11649</v>
+        <v>11651</v>
       </c>
       <c r="M135" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8035</v>
+        <v>8080</v>
       </c>
       <c r="O135" t="n">
-        <v>2642</v>
+        <v>2659</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
       </c>
       <c r="Q135" t="n">
-        <v>147.6</v>
+        <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="S135" t="n">
-        <v>425.6</v>
+        <v>428.9</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,46 +10286,46 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G136" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H136" t="n">
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98135</v>
+        <v>98196</v>
       </c>
       <c r="J136" t="n">
-        <v>245468</v>
+        <v>245664</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11659</v>
+        <v>11661</v>
       </c>
       <c r="M136" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="N136" t="n">
-        <v>7900</v>
+        <v>7947</v>
       </c>
       <c r="O136" t="n">
-        <v>2179</v>
+        <v>2198</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
       </c>
       <c r="Q136" t="n">
-        <v>156.9</v>
+        <v>157.3</v>
       </c>
       <c r="R136" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S136" t="n">
-        <v>396.4</v>
+        <v>399.1</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,46 +10360,46 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G137" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H137" t="n">
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98171</v>
+        <v>98232</v>
       </c>
       <c r="J137" t="n">
-        <v>245567</v>
+        <v>245764</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11618</v>
+        <v>11620</v>
       </c>
       <c r="M137" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7650</v>
+        <v>7696</v>
       </c>
       <c r="O137" t="n">
-        <v>1966</v>
+        <v>1983</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
       </c>
       <c r="Q137" t="n">
-        <v>139.6</v>
+        <v>140</v>
       </c>
       <c r="R137" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S137" t="n">
-        <v>325.4</v>
+        <v>328.3</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,46 +10434,46 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G138" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H138" t="n">
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98283</v>
+        <v>98344</v>
       </c>
       <c r="J138" t="n">
-        <v>245914</v>
+        <v>246112</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
       </c>
       <c r="L138" t="n">
-        <v>13551</v>
+        <v>13555</v>
       </c>
       <c r="M138" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7413</v>
+        <v>7456</v>
       </c>
       <c r="O138" t="n">
-        <v>1902</v>
+        <v>1919</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
       </c>
       <c r="Q138" t="n">
-        <v>134.9</v>
+        <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S138" t="n">
-        <v>330.4</v>
+        <v>333</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10499,7 +10499,7 @@
         <v>16</v>
       </c>
       <c r="C139" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D139" t="n">
         <v>62</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G139" t="n">
         <v>287</v>
@@ -10517,37 +10517,37 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98459</v>
+        <v>98521</v>
       </c>
       <c r="J139" t="n">
-        <v>244090</v>
+        <v>244292</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
       </c>
       <c r="L139" t="n">
-        <v>11396</v>
+        <v>11401</v>
       </c>
       <c r="M139" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>4968</v>
+        <v>5011</v>
       </c>
       <c r="O139" t="n">
-        <v>-356</v>
+        <v>-338</v>
       </c>
       <c r="P139" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q139" t="n">
-        <v>135.4</v>
+        <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1824</v>
+        <v>-1820</v>
       </c>
       <c r="S139" t="n">
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="G140" t="n">
         <v>275</v>
@@ -10591,37 +10591,37 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98599</v>
+        <v>98661</v>
       </c>
       <c r="J140" t="n">
-        <v>244437</v>
+        <v>244640</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
       </c>
       <c r="L140" t="n">
-        <v>4066</v>
+        <v>4069</v>
       </c>
       <c r="M140" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4770</v>
+        <v>4805</v>
       </c>
       <c r="O140" t="n">
-        <v>-428</v>
+        <v>-413</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
       </c>
       <c r="Q140" t="n">
-        <v>126</v>
+        <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S140" t="n">
-        <v>-1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10656,7 +10656,7 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="G141" t="n">
         <v>260</v>
@@ -10665,37 +10665,37 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98812</v>
+        <v>98874</v>
       </c>
       <c r="J141" t="n">
-        <v>244945</v>
+        <v>245148</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
       </c>
       <c r="L141" t="n">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="M141" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N141" t="n">
-        <v>2589</v>
+        <v>2621</v>
       </c>
       <c r="O141" t="n">
-        <v>-390</v>
+        <v>-381</v>
       </c>
       <c r="P141" t="n">
         <v>213</v>
       </c>
       <c r="Q141" t="n">
-        <v>134.6</v>
+        <v>134.7</v>
       </c>
       <c r="R141" t="n">
         <v>508</v>
       </c>
       <c r="S141" t="n">
-        <v>11.4</v>
+        <v>13.6</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,7 +10730,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="G142" t="n">
         <v>237</v>
@@ -10739,37 +10739,37 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>98998</v>
+        <v>99060</v>
       </c>
       <c r="J142" t="n">
-        <v>245332</v>
+        <v>245537</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
       </c>
       <c r="L142" t="n">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="M142" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N142" t="n">
-        <v>2639</v>
+        <v>2667</v>
       </c>
       <c r="O142" t="n">
-        <v>-136</v>
+        <v>-127</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
       </c>
       <c r="Q142" t="n">
-        <v>131.4</v>
+        <v>131.6</v>
       </c>
       <c r="R142" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="S142" t="n">
-        <v>-0.4</v>
+        <v>1.1</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,7 +10804,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="G143" t="n">
         <v>225</v>
@@ -10813,37 +10813,37 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99081</v>
+        <v>99143</v>
       </c>
       <c r="J143" t="n">
-        <v>245560</v>
+        <v>245766</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
       </c>
       <c r="L143" t="n">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="M143" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N143" t="n">
-        <v>2271</v>
+        <v>2300</v>
       </c>
       <c r="O143" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
       </c>
       <c r="Q143" t="n">
-        <v>135.1</v>
+        <v>135.3</v>
       </c>
       <c r="R143" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S143" t="n">
-        <v>13.1</v>
+        <v>14.6</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,7 +10878,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="G144" t="n">
         <v>230</v>
@@ -10887,37 +10887,37 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99137</v>
+        <v>99199</v>
       </c>
       <c r="J144" t="n">
-        <v>245756</v>
+        <v>245962</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
       </c>
       <c r="L144" t="n">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="M144" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N144" t="n">
-        <v>2155</v>
+        <v>2181</v>
       </c>
       <c r="O144" t="n">
-        <v>-158</v>
+        <v>-150</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
       </c>
       <c r="Q144" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="R144" t="n">
         <v>196</v>
       </c>
       <c r="S144" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="G145" t="n">
         <v>212</v>
@@ -10961,37 +10961,37 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99260</v>
+        <v>99322</v>
       </c>
       <c r="J145" t="n">
-        <v>245998</v>
+        <v>246204</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
       </c>
       <c r="L145" t="n">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="M145" t="n">
         <v>801</v>
       </c>
       <c r="N145" t="n">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="O145" t="n">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
       </c>
       <c r="Q145" t="n">
-        <v>139.6</v>
+        <v>139.7</v>
       </c>
       <c r="R145" t="n">
         <v>242</v>
       </c>
       <c r="S145" t="n">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,7 +11026,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="G146" t="n">
         <v>203</v>
@@ -11035,25 +11035,25 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99329</v>
+        <v>99391</v>
       </c>
       <c r="J146" t="n">
-        <v>246366</v>
+        <v>246572</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
       </c>
       <c r="L146" t="n">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="M146" t="n">
         <v>730</v>
       </c>
       <c r="N146" t="n">
-        <v>1920</v>
+        <v>1942</v>
       </c>
       <c r="O146" t="n">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11065,7 +11065,7 @@
         <v>368</v>
       </c>
       <c r="S146" t="n">
-        <v>325.1</v>
+        <v>325.7</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11100,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="G147" t="n">
         <v>203</v>
@@ -11109,25 +11109,25 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97252</v>
+        <v>97314</v>
       </c>
       <c r="J147" t="n">
-        <v>246696</v>
+        <v>246906</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
       </c>
       <c r="L147" t="n">
-        <v>-618</v>
+        <v>-617</v>
       </c>
       <c r="M147" t="n">
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>1831</v>
+        <v>1853</v>
       </c>
       <c r="O147" t="n">
-        <v>1751</v>
+        <v>1758</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.4</v>
       </c>
       <c r="R147" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="S147" t="n">
-        <v>322.7</v>
+        <v>323.7</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11174,7 +11174,7 @@
         <v>896</v>
       </c>
       <c r="F148" t="n">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="G148" t="n">
         <v>204</v>
@@ -11183,25 +11183,25 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99705</v>
+        <v>99767</v>
       </c>
       <c r="J148" t="n">
-        <v>247091</v>
+        <v>247302</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
       </c>
       <c r="L148" t="n">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="M148" t="n">
         <v>707</v>
       </c>
       <c r="N148" t="n">
-        <v>1756</v>
+        <v>1773</v>
       </c>
       <c r="O148" t="n">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="P148" t="n">
         <v>2453</v>
@@ -11210,10 +11210,10 @@
         <v>127.6</v>
       </c>
       <c r="R148" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S148" t="n">
-        <v>306.6</v>
+        <v>307.7</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11248,7 +11248,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="G149" t="n">
         <v>188</v>
@@ -11257,25 +11257,25 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>99993</v>
+        <v>100055</v>
       </c>
       <c r="J149" t="n">
-        <v>247650</v>
+        <v>247863</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
       </c>
       <c r="L149" t="n">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="M149" t="n">
         <v>912</v>
       </c>
       <c r="N149" t="n">
-        <v>2182</v>
+        <v>2199</v>
       </c>
       <c r="O149" t="n">
-        <v>2090</v>
+        <v>2097</v>
       </c>
       <c r="P149" t="n">
         <v>288</v>
@@ -11284,10 +11284,10 @@
         <v>142.1</v>
       </c>
       <c r="R149" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="S149" t="n">
-        <v>331.1</v>
+        <v>332.3</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11322,7 +11322,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="G150" t="n">
         <v>179</v>
@@ -11331,25 +11331,25 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97823</v>
+        <v>97885</v>
       </c>
       <c r="J150" t="n">
-        <v>247909</v>
+        <v>248122</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
       </c>
       <c r="L150" t="n">
-        <v>-348</v>
+        <v>-347</v>
       </c>
       <c r="M150" t="n">
         <v>-1314</v>
       </c>
       <c r="N150" t="n">
-        <v>2342</v>
+        <v>2358</v>
       </c>
       <c r="O150" t="n">
-        <v>2153</v>
+        <v>2160</v>
       </c>
       <c r="P150" t="n">
         <v>-2170</v>
@@ -11361,7 +11361,7 @@
         <v>259</v>
       </c>
       <c r="S150" t="n">
-        <v>335.6</v>
+        <v>336.6</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11396,7 +11396,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="G151" t="n">
         <v>146</v>
@@ -11405,25 +11405,25 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97918</v>
+        <v>97980</v>
       </c>
       <c r="J151" t="n">
-        <v>248104</v>
+        <v>248318</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
       </c>
       <c r="L151" t="n">
-        <v>-365</v>
+        <v>-364</v>
       </c>
       <c r="M151" t="n">
         <v>-1342</v>
       </c>
       <c r="N151" t="n">
-        <v>2190</v>
+        <v>2206</v>
       </c>
       <c r="O151" t="n">
-        <v>2106</v>
+        <v>2114</v>
       </c>
       <c r="P151" t="n">
         <v>95</v>
@@ -11432,10 +11432,10 @@
         <v>-174.1</v>
       </c>
       <c r="R151" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S151" t="n">
-        <v>335.4</v>
+        <v>336.6</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11461,7 +11461,7 @@
         <v>18</v>
       </c>
       <c r="C152" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D152" t="n">
         <v>50</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G152" t="n">
         <v>177</v>
@@ -11479,37 +11479,37 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100412</v>
+        <v>100473</v>
       </c>
       <c r="J152" t="n">
-        <v>248355</v>
+        <v>248569</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
       </c>
       <c r="L152" t="n">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="M152" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="N152" t="n">
-        <v>4265</v>
+        <v>4277</v>
       </c>
       <c r="O152" t="n">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="P152" t="n">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="Q152" t="n">
-        <v>164.6</v>
+        <v>164.4</v>
       </c>
       <c r="R152" t="n">
         <v>251</v>
       </c>
       <c r="S152" t="n">
-        <v>336.7</v>
+        <v>337.9</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,7 +11544,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="G153" t="n">
         <v>174</v>
@@ -11553,37 +11553,37 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100718</v>
+        <v>100779</v>
       </c>
       <c r="J153" t="n">
-        <v>248787</v>
+        <v>249004</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
       </c>
       <c r="L153" t="n">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M153" t="n">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="N153" t="n">
-        <v>4350</v>
+        <v>4364</v>
       </c>
       <c r="O153" t="n">
-        <v>2091</v>
+        <v>2098</v>
       </c>
       <c r="P153" t="n">
         <v>306</v>
       </c>
       <c r="Q153" t="n">
-        <v>198.4</v>
+        <v>198.3</v>
       </c>
       <c r="R153" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="S153" t="n">
-        <v>345.9</v>
+        <v>347.4</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11618,7 +11618,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G154" t="n">
         <v>170</v>
@@ -11627,37 +11627,37 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101116</v>
+        <v>101177</v>
       </c>
       <c r="J154" t="n">
-        <v>249212</v>
+        <v>249429</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
       </c>
       <c r="L154" t="n">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="M154" t="n">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="N154" t="n">
-        <v>4267</v>
+        <v>4281</v>
       </c>
       <c r="O154" t="n">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="P154" t="n">
         <v>398</v>
       </c>
       <c r="Q154" t="n">
-        <v>552</v>
+        <v>551.9</v>
       </c>
       <c r="R154" t="n">
         <v>425</v>
       </c>
       <c r="S154" t="n">
-        <v>359.4</v>
+        <v>360.4</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11692,7 +11692,7 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G155" t="n">
         <v>159</v>
@@ -11701,37 +11701,37 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101518</v>
+        <v>101579</v>
       </c>
       <c r="J155" t="n">
-        <v>249685</v>
+        <v>249902</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
       </c>
       <c r="L155" t="n">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="M155" t="n">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="N155" t="n">
-        <v>4353</v>
+        <v>4365</v>
       </c>
       <c r="O155" t="n">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="P155" t="n">
         <v>402</v>
       </c>
       <c r="Q155" t="n">
-        <v>259</v>
+        <v>258.9</v>
       </c>
       <c r="R155" t="n">
         <v>473</v>
       </c>
       <c r="S155" t="n">
-        <v>370.6</v>
+        <v>371.4</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11766,7 +11766,7 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G156" t="n">
         <v>153</v>
@@ -11775,37 +11775,37 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>101966</v>
+        <v>102027</v>
       </c>
       <c r="J156" t="n">
-        <v>250205</v>
+        <v>250425</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
       </c>
       <c r="L156" t="n">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="M156" t="n">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="N156" t="n">
-        <v>4645</v>
+        <v>4659</v>
       </c>
       <c r="O156" t="n">
-        <v>2296</v>
+        <v>2303</v>
       </c>
       <c r="P156" t="n">
         <v>448</v>
       </c>
       <c r="Q156" t="n">
-        <v>281.9</v>
+        <v>281.7</v>
       </c>
       <c r="R156" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="S156" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11840,7 +11840,7 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G157" t="n">
         <v>73</v>
@@ -11849,37 +11849,37 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99796</v>
+        <v>99857</v>
       </c>
       <c r="J157" t="n">
-        <v>250414</v>
+        <v>250635</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
       </c>
       <c r="L157" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M157" t="n">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="N157" t="n">
-        <v>4658</v>
+        <v>4673</v>
       </c>
       <c r="O157" t="n">
-        <v>2310</v>
+        <v>2317</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
       </c>
       <c r="Q157" t="n">
-        <v>281.9</v>
+        <v>281.7</v>
       </c>
       <c r="R157" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S157" t="n">
-        <v>357.9</v>
+        <v>359</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11914,7 +11914,7 @@
         <v>63</v>
       </c>
       <c r="F158" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="G158" t="n">
         <v>61</v>
@@ -11923,37 +11923,37 @@
         <v>33772</v>
       </c>
       <c r="I158" t="n">
-        <v>99977</v>
+        <v>100038</v>
       </c>
       <c r="J158" t="n">
-        <v>250572</v>
+        <v>250793</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
       </c>
       <c r="L158" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M158" t="n">
         <v>-435</v>
       </c>
       <c r="N158" t="n">
-        <v>4574</v>
+        <v>4589</v>
       </c>
       <c r="O158" t="n">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="P158" t="n">
         <v>181</v>
       </c>
       <c r="Q158" t="n">
-        <v>294.1</v>
+        <v>294</v>
       </c>
       <c r="R158" t="n">
         <v>158</v>
       </c>
       <c r="S158" t="n">
-        <v>352.6</v>
+        <v>353.6</v>
       </c>
       <c r="T158" t="n">
         <v>6</v>
@@ -11979,7 +11979,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D159" t="n">
         <v>118</v>
@@ -11988,7 +11988,7 @@
         <v>205</v>
       </c>
       <c r="F159" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="G159" t="n">
         <v>146</v>
@@ -11997,37 +11997,37 @@
         <v>33782</v>
       </c>
       <c r="I159" t="n">
-        <v>102614</v>
+        <v>102677</v>
       </c>
       <c r="J159" t="n">
-        <v>250892</v>
+        <v>251118</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
       </c>
       <c r="L159" t="n">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="M159" t="n">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="N159" t="n">
-        <v>4526</v>
+        <v>4546</v>
       </c>
       <c r="O159" t="n">
-        <v>2105</v>
+        <v>2114</v>
       </c>
       <c r="P159" t="n">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="Q159" t="n">
-        <v>314.6</v>
+        <v>314.9</v>
       </c>
       <c r="R159" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="S159" t="n">
-        <v>362.4</v>
+        <v>364.1</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12062,7 +12062,7 @@
         <v>200</v>
       </c>
       <c r="F160" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G160" t="n">
         <v>144</v>
@@ -12071,37 +12071,37 @@
         <v>33798</v>
       </c>
       <c r="I160" t="n">
-        <v>103174</v>
+        <v>103237</v>
       </c>
       <c r="J160" t="n">
-        <v>251510</v>
+        <v>251736</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
       </c>
       <c r="L160" t="n">
-        <v>5922</v>
+        <v>5923</v>
       </c>
       <c r="M160" t="n">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="N160" t="n">
-        <v>4814</v>
+        <v>4830</v>
       </c>
       <c r="O160" t="n">
-        <v>2298</v>
+        <v>2307</v>
       </c>
       <c r="P160" t="n">
         <v>560</v>
       </c>
       <c r="Q160" t="n">
-        <v>350.9</v>
+        <v>351.1</v>
       </c>
       <c r="R160" t="n">
         <v>618</v>
       </c>
       <c r="S160" t="n">
-        <v>389</v>
+        <v>390.3</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -12127,7 +12127,7 @@
         <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D161" t="n">
         <v>201</v>
@@ -12136,7 +12136,7 @@
         <v>198</v>
       </c>
       <c r="F161" t="n">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="G161" t="n">
         <v>132</v>
@@ -12145,37 +12145,37 @@
         <v>33807</v>
       </c>
       <c r="I161" t="n">
-        <v>103852</v>
+        <v>103916</v>
       </c>
       <c r="J161" t="n">
-        <v>252092</v>
+        <v>252322</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
       </c>
       <c r="L161" t="n">
-        <v>4147</v>
+        <v>4149</v>
       </c>
       <c r="M161" t="n">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="N161" t="n">
-        <v>5001</v>
+        <v>5020</v>
       </c>
       <c r="O161" t="n">
-        <v>2407</v>
+        <v>2420</v>
       </c>
       <c r="P161" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q161" t="n">
-        <v>390.9</v>
+        <v>391.3</v>
       </c>
       <c r="R161" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="S161" t="n">
-        <v>411.4</v>
+        <v>413.3</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12210,7 +12210,7 @@
         <v>1091</v>
       </c>
       <c r="F162" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="G162" t="n">
         <v>128</v>
@@ -12219,37 +12219,37 @@
         <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104624</v>
+        <v>104688</v>
       </c>
       <c r="J162" t="n">
-        <v>253078</v>
+        <v>253311</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
       </c>
       <c r="L162" t="n">
-        <v>4631</v>
+        <v>4633</v>
       </c>
       <c r="M162" t="n">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="N162" t="n">
-        <v>5428</v>
+        <v>5448</v>
       </c>
       <c r="O162" t="n">
-        <v>2873</v>
+        <v>2886</v>
       </c>
       <c r="P162" t="n">
         <v>772</v>
       </c>
       <c r="Q162" t="n">
-        <v>443.7</v>
+        <v>444.1</v>
       </c>
       <c r="R162" t="n">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="S162" t="n">
-        <v>484.7</v>
+        <v>487</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -12284,7 +12284,7 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G163" t="n">
         <v>123</v>
@@ -12293,37 +12293,37 @@
         <v>33827</v>
       </c>
       <c r="I163" t="n">
-        <v>105628</v>
+        <v>105692</v>
       </c>
       <c r="J163" t="n">
-        <v>254085</v>
+        <v>254322</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>7805</v>
+        <v>7807</v>
       </c>
       <c r="M163" t="n">
-        <v>5832</v>
+        <v>5835</v>
       </c>
       <c r="N163" t="n">
-        <v>6176</v>
+        <v>6200</v>
       </c>
       <c r="O163" t="n">
-        <v>3671</v>
+        <v>3687</v>
       </c>
       <c r="P163" t="n">
         <v>1004</v>
       </c>
       <c r="Q163" t="n">
-        <v>523.1</v>
+        <v>523.6</v>
       </c>
       <c r="R163" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="S163" t="n">
-        <v>554.3</v>
+        <v>556.7</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12358,7 +12358,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="G164" t="n">
         <v>65</v>
@@ -12367,37 +12367,37 @@
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103608</v>
+        <v>103672</v>
       </c>
       <c r="J164" t="n">
-        <v>254508</v>
+        <v>254746</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5690</v>
+        <v>5692</v>
       </c>
       <c r="M164" t="n">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="N164" t="n">
-        <v>6404</v>
+        <v>6428</v>
       </c>
       <c r="O164" t="n">
-        <v>3936</v>
+        <v>3953</v>
       </c>
       <c r="P164" t="n">
         <v>-2020</v>
       </c>
       <c r="Q164" t="n">
-        <v>544.6</v>
+        <v>545</v>
       </c>
       <c r="R164" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S164" t="n">
-        <v>584.9</v>
+        <v>587.3</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12423,7 +12423,7 @@
         <v>18</v>
       </c>
       <c r="C165" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -12432,7 +12432,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G165" t="n">
         <v>65</v>
@@ -12441,37 +12441,37 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110616</v>
+        <v>110680</v>
       </c>
       <c r="J165" t="n">
-        <v>255116</v>
+        <v>255355</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10204</v>
+        <v>10207</v>
       </c>
       <c r="M165" t="n">
-        <v>8002</v>
+        <v>8003</v>
       </c>
       <c r="N165" t="n">
-        <v>6761</v>
+        <v>6786</v>
       </c>
       <c r="O165" t="n">
-        <v>4224</v>
+        <v>4237</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
       </c>
       <c r="Q165" t="n">
-        <v>1519.9</v>
+        <v>1520.3</v>
       </c>
       <c r="R165" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S165" t="n">
-        <v>649.1</v>
+        <v>651.7</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -12506,7 +12506,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="G166" t="n">
         <v>135</v>
@@ -12515,37 +12515,37 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114019</v>
+        <v>114083</v>
       </c>
       <c r="J166" t="n">
-        <v>255915</v>
+        <v>256155</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13301</v>
+        <v>13304</v>
       </c>
       <c r="M166" t="n">
-        <v>10845</v>
+        <v>10846</v>
       </c>
       <c r="N166" t="n">
-        <v>7128</v>
+        <v>7151</v>
       </c>
       <c r="O166" t="n">
-        <v>4405</v>
+        <v>4419</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
       </c>
       <c r="Q166" t="n">
-        <v>1629.3</v>
+        <v>1629.4</v>
       </c>
       <c r="R166" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S166" t="n">
-        <v>717.6</v>
+        <v>719.6</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12571,7 +12571,7 @@
         <v>54</v>
       </c>
       <c r="C167" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D167" t="n">
         <v>467</v>
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,37 +12589,37 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115304</v>
+        <v>115367</v>
       </c>
       <c r="J167" t="n">
-        <v>257064</v>
+        <v>257307</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14188</v>
+        <v>14190</v>
       </c>
       <c r="M167" t="n">
-        <v>11452</v>
+        <v>11451</v>
       </c>
       <c r="N167" t="n">
-        <v>7852</v>
+        <v>7878</v>
       </c>
       <c r="O167" t="n">
-        <v>4972</v>
+        <v>4985</v>
       </c>
       <c r="P167" t="n">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q167" t="n">
         <v>1732.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="S167" t="n">
-        <v>793.4</v>
+        <v>795.9</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12645,7 +12645,7 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D168" t="n">
         <v>522</v>
@@ -12654,7 +12654,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G168" t="n">
         <v>132</v>
@@ -12663,37 +12663,37 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109668</v>
+        <v>109732</v>
       </c>
       <c r="J168" t="n">
-        <v>258414</v>
+        <v>258660</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>8150</v>
+        <v>8153</v>
       </c>
       <c r="M168" t="n">
         <v>5044</v>
       </c>
       <c r="N168" t="n">
-        <v>8729</v>
+        <v>8758</v>
       </c>
       <c r="O168" t="n">
-        <v>5336</v>
+        <v>5349</v>
       </c>
       <c r="P168" t="n">
-        <v>-5636</v>
+        <v>-5635</v>
       </c>
       <c r="Q168" t="n">
         <v>830.9</v>
       </c>
       <c r="R168" t="n">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="S168" t="n">
-        <v>903.1</v>
+        <v>905.4</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12719,7 +12719,7 @@
         <v>61</v>
       </c>
       <c r="C169" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D169" t="n">
         <v>387</v>
@@ -12728,7 +12728,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="G169" t="n">
         <v>129</v>
@@ -12737,37 +12737,37 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>110986</v>
+        <v>111051</v>
       </c>
       <c r="J169" t="n">
-        <v>259961</v>
+        <v>260213</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9020</v>
+        <v>9024</v>
       </c>
       <c r="M169" t="n">
-        <v>5358</v>
+        <v>5359</v>
       </c>
       <c r="N169" t="n">
-        <v>9756</v>
+        <v>9788</v>
       </c>
       <c r="O169" t="n">
-        <v>5876</v>
+        <v>5891</v>
       </c>
       <c r="P169" t="n">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="Q169" t="n">
-        <v>908.9</v>
+        <v>909</v>
       </c>
       <c r="R169" t="n">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="S169" t="n">
-        <v>983.3</v>
+        <v>986</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12793,7 +12793,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D170" t="n">
         <v>456</v>
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
@@ -12811,37 +12811,37 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116083</v>
+        <v>116150</v>
       </c>
       <c r="J170" t="n">
-        <v>261872</v>
+        <v>262126</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16287</v>
+        <v>16293</v>
       </c>
       <c r="M170" t="n">
-        <v>12475</v>
+        <v>12478</v>
       </c>
       <c r="N170" t="n">
-        <v>11458</v>
+        <v>11491</v>
       </c>
       <c r="O170" t="n">
-        <v>7364</v>
+        <v>7380</v>
       </c>
       <c r="P170" t="n">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="Q170" t="n">
-        <v>1493.6</v>
+        <v>1494</v>
       </c>
       <c r="R170" t="n">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="S170" t="n">
-        <v>1112.4</v>
+        <v>1114.9</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12867,7 +12867,7 @@
         <v>70</v>
       </c>
       <c r="C171" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D171" t="n">
         <v>3</v>
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -12885,37 +12885,37 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114392</v>
+        <v>114458</v>
       </c>
       <c r="J171" t="n">
-        <v>263163</v>
+        <v>263416</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>14415</v>
+        <v>14420</v>
       </c>
       <c r="M171" t="n">
-        <v>3776</v>
+        <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12591</v>
+        <v>12623</v>
       </c>
       <c r="O171" t="n">
-        <v>8047</v>
+        <v>8061</v>
       </c>
       <c r="P171" t="n">
-        <v>-1691</v>
+        <v>-1692</v>
       </c>
       <c r="Q171" t="n">
-        <v>1540.6</v>
+        <v>1540.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="S171" t="n">
-        <v>1236.4</v>
+        <v>1238.6</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12941,7 +12941,7 @@
         <v>42</v>
       </c>
       <c r="C172" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -12950,7 +12950,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="G172" t="n">
         <v>78</v>
@@ -12959,37 +12959,37 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123293</v>
+        <v>123360</v>
       </c>
       <c r="J172" t="n">
-        <v>264212</v>
+        <v>264466</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>20679</v>
+        <v>20683</v>
       </c>
       <c r="M172" t="n">
-        <v>9274</v>
+        <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13320</v>
+        <v>13348</v>
       </c>
       <c r="O172" t="n">
-        <v>8297</v>
+        <v>8311</v>
       </c>
       <c r="P172" t="n">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="Q172" t="n">
-        <v>1811</v>
+        <v>1811.4</v>
       </c>
       <c r="R172" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="S172" t="n">
-        <v>1299.4</v>
+        <v>1301.6</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
@@ -13033,37 +13033,37 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127447</v>
+        <v>127514</v>
       </c>
       <c r="J173" t="n">
-        <v>265931</v>
+        <v>266187</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
       </c>
       <c r="L173" t="n">
-        <v>24273</v>
+        <v>24277</v>
       </c>
       <c r="M173" t="n">
-        <v>12143</v>
+        <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14421</v>
+        <v>14451</v>
       </c>
       <c r="O173" t="n">
-        <v>8867</v>
+        <v>8880</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
       </c>
       <c r="Q173" t="n">
-        <v>1918.3</v>
+        <v>1918.7</v>
       </c>
       <c r="R173" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="S173" t="n">
-        <v>1430.9</v>
+        <v>1433.1</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13092,13 +13092,13 @@
         <v>1880</v>
       </c>
       <c r="D174" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E174" t="n">
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="G174" t="n">
         <v>144</v>
@@ -13107,37 +13107,37 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129207</v>
+        <v>129273</v>
       </c>
       <c r="J174" t="n">
-        <v>268196</v>
+        <v>268456</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>25355</v>
+        <v>25357</v>
       </c>
       <c r="M174" t="n">
-        <v>19539</v>
+        <v>19541</v>
       </c>
       <c r="N174" t="n">
-        <v>16104</v>
+        <v>16134</v>
       </c>
       <c r="O174" t="n">
-        <v>9782</v>
+        <v>9796</v>
       </c>
       <c r="P174" t="n">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="Q174" t="n">
-        <v>1986.1</v>
+        <v>1986.6</v>
       </c>
       <c r="R174" t="n">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="S174" t="n">
-        <v>1590.3</v>
+        <v>1592.7</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13163,7 +13163,7 @@
         <v>37</v>
       </c>
       <c r="C175" t="n">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="D175" t="n">
         <v>292</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G175" t="n">
         <v>157</v>
@@ -13181,37 +13181,37 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131473</v>
+        <v>131541</v>
       </c>
       <c r="J175" t="n">
-        <v>270442</v>
+        <v>270707</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>26849</v>
+        <v>26853</v>
       </c>
       <c r="M175" t="n">
-        <v>20487</v>
+        <v>20490</v>
       </c>
       <c r="N175" t="n">
-        <v>17364</v>
+        <v>17396</v>
       </c>
       <c r="O175" t="n">
-        <v>10481</v>
+        <v>10494</v>
       </c>
       <c r="P175" t="n">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="Q175" t="n">
-        <v>3115</v>
+        <v>3115.6</v>
       </c>
       <c r="R175" t="n">
-        <v>2246</v>
+        <v>2251</v>
       </c>
       <c r="S175" t="n">
-        <v>1718.3</v>
+        <v>1721</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13237,7 +13237,7 @@
         <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D176" t="n">
         <v>297</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="G176" t="n">
         <v>158</v>
@@ -13255,37 +13255,37 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133384</v>
+        <v>133453</v>
       </c>
       <c r="J176" t="n">
-        <v>272614</v>
+        <v>272882</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>27756</v>
+        <v>27761</v>
       </c>
       <c r="M176" t="n">
-        <v>17301</v>
+        <v>17303</v>
       </c>
       <c r="N176" t="n">
-        <v>18529</v>
+        <v>18560</v>
       </c>
       <c r="O176" t="n">
-        <v>10742</v>
+        <v>10756</v>
       </c>
       <c r="P176" t="n">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="Q176" t="n">
-        <v>3199.7</v>
+        <v>3200.3</v>
       </c>
       <c r="R176" t="n">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="S176" t="n">
-        <v>1807.6</v>
+        <v>1809.9</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13311,7 +13311,7 @@
         <v>44</v>
       </c>
       <c r="C177" t="n">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="D177" t="n">
         <v>199</v>
@@ -13320,7 +13320,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="G177" t="n">
         <v>176</v>
@@ -13329,37 +13329,37 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125378</v>
+        <v>125451</v>
       </c>
       <c r="J177" t="n">
-        <v>275224</v>
+        <v>275499</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>21770</v>
+        <v>21779</v>
       </c>
       <c r="M177" t="n">
-        <v>10986</v>
+        <v>10993</v>
       </c>
       <c r="N177" t="n">
-        <v>20716</v>
+        <v>20753</v>
       </c>
       <c r="O177" t="n">
-        <v>12061</v>
+        <v>12083</v>
       </c>
       <c r="P177" t="n">
-        <v>-8006</v>
+        <v>-8002</v>
       </c>
       <c r="Q177" t="n">
-        <v>1327.9</v>
+        <v>1328.7</v>
       </c>
       <c r="R177" t="n">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="S177" t="n">
-        <v>1907.4</v>
+        <v>1910.4</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>45</v>
       </c>
       <c r="C178" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D178" t="n">
         <v>63416</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="G178" t="n">
         <v>115</v>
@@ -13403,37 +13403,37 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104380</v>
+        <v>104455</v>
       </c>
       <c r="J178" t="n">
-        <v>276702</v>
+        <v>276981</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-6236</v>
+        <v>-6225</v>
       </c>
       <c r="M178" t="n">
-        <v>-18913</v>
+        <v>-18905</v>
       </c>
       <c r="N178" t="n">
-        <v>21586</v>
+        <v>21626</v>
       </c>
       <c r="O178" t="n">
-        <v>12490</v>
+        <v>12515</v>
       </c>
       <c r="P178" t="n">
-        <v>-20998</v>
+        <v>-20996</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1430.3</v>
+        <v>-1429</v>
       </c>
       <c r="R178" t="n">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="S178" t="n">
-        <v>1934.1</v>
+        <v>1937.9</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="G179" t="n">
         <v>107</v>
@@ -13477,37 +13477,37 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115713</v>
+        <v>115788</v>
       </c>
       <c r="J179" t="n">
-        <v>278035</v>
+        <v>278314</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
       </c>
       <c r="L179" t="n">
-        <v>1694</v>
+        <v>1705</v>
       </c>
       <c r="M179" t="n">
-        <v>-11734</v>
+        <v>-11726</v>
       </c>
       <c r="N179" t="n">
-        <v>22120</v>
+        <v>22159</v>
       </c>
       <c r="O179" t="n">
-        <v>12104</v>
+        <v>12127</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1082.9</v>
+        <v>-1081.7</v>
       </c>
       <c r="R179" t="n">
         <v>1333</v>
       </c>
       <c r="S179" t="n">
-        <v>1974.7</v>
+        <v>1978.3</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G180" t="n">
         <v>198</v>
@@ -13551,37 +13551,37 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115705</v>
+        <v>115780</v>
       </c>
       <c r="J180" t="n">
-        <v>280120</v>
+        <v>280399</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
       </c>
       <c r="L180" t="n">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M180" t="n">
-        <v>-13502</v>
+        <v>-13493</v>
       </c>
       <c r="N180" t="n">
-        <v>23056</v>
+        <v>23092</v>
       </c>
       <c r="O180" t="n">
-        <v>11924</v>
+        <v>11943</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1677.4</v>
+        <v>-1676.3</v>
       </c>
       <c r="R180" t="n">
         <v>2085</v>
       </c>
       <c r="S180" t="n">
-        <v>2027</v>
+        <v>2030.3</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="G181" t="n">
         <v>214</v>
@@ -13625,37 +13625,37 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110022</v>
+        <v>110097</v>
       </c>
       <c r="J181" t="n">
-        <v>282870</v>
+        <v>283150</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="M181" t="n">
-        <v>-21451</v>
+        <v>-21444</v>
       </c>
       <c r="N181" t="n">
-        <v>24456</v>
+        <v>24490</v>
       </c>
       <c r="O181" t="n">
-        <v>12428</v>
+        <v>12443</v>
       </c>
       <c r="P181" t="n">
         <v>-5683</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2740.7</v>
+        <v>-2739.4</v>
       </c>
       <c r="R181" t="n">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="S181" t="n">
-        <v>2096.3</v>
+        <v>2099.1</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="D182" t="n">
         <v>63776</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="G182" t="n">
         <v>206</v>
@@ -13699,37 +13699,37 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123576</v>
+        <v>123653</v>
       </c>
       <c r="J182" t="n">
-        <v>285643</v>
+        <v>285927</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12590</v>
+        <v>12602</v>
       </c>
       <c r="M182" t="n">
-        <v>-9808</v>
+        <v>-9800</v>
       </c>
       <c r="N182" t="n">
-        <v>25682</v>
+        <v>25714</v>
       </c>
       <c r="O182" t="n">
-        <v>13029</v>
+        <v>13045</v>
       </c>
       <c r="P182" t="n">
-        <v>13554</v>
+        <v>13556</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1128.1</v>
+        <v>-1126.9</v>
       </c>
       <c r="R182" t="n">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="S182" t="n">
-        <v>2171.6</v>
+        <v>2174.3</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13755,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="n">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="D183" t="n">
         <v>63821</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="G183" t="n">
         <v>214</v>
@@ -13773,37 +13773,37 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113112</v>
+        <v>113191</v>
       </c>
       <c r="J183" t="n">
-        <v>291364</v>
+        <v>291652</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2971</v>
+        <v>-2959</v>
       </c>
       <c r="M183" t="n">
-        <v>-12266</v>
+        <v>-12260</v>
       </c>
       <c r="N183" t="n">
-        <v>29492</v>
+        <v>29526</v>
       </c>
       <c r="O183" t="n">
-        <v>16140</v>
+        <v>16153</v>
       </c>
       <c r="P183" t="n">
-        <v>-10464</v>
+        <v>-10462</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2896</v>
+        <v>-2894.6</v>
       </c>
       <c r="R183" t="n">
-        <v>5721</v>
+        <v>5725</v>
       </c>
       <c r="S183" t="n">
-        <v>2678.6</v>
+        <v>2681.4</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13829,7 +13829,7 @@
         <v>236</v>
       </c>
       <c r="C184" t="n">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="D184" t="n">
         <v>135</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="G184" t="n">
         <v>216</v>
@@ -13847,37 +13847,37 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114756</v>
+        <v>114838</v>
       </c>
       <c r="J184" t="n">
-        <v>294895</v>
+        <v>295189</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="M184" t="n">
-        <v>10376</v>
+        <v>10383</v>
       </c>
       <c r="N184" t="n">
-        <v>31732</v>
+        <v>31773</v>
       </c>
       <c r="O184" t="n">
-        <v>18193</v>
+        <v>18208</v>
       </c>
       <c r="P184" t="n">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1517.4</v>
+        <v>-1516.1</v>
       </c>
       <c r="R184" t="n">
-        <v>3531</v>
+        <v>3537</v>
       </c>
       <c r="S184" t="n">
-        <v>2810.1</v>
+        <v>2812.9</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13903,7 +13903,7 @@
         <v>107</v>
       </c>
       <c r="C185" t="n">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,37 +13921,37 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110205</v>
+        <v>110288</v>
       </c>
       <c r="J185" t="n">
-        <v>297673</v>
+        <v>297971</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13088</v>
+        <v>-13072</v>
       </c>
       <c r="M185" t="n">
-        <v>-5508</v>
+        <v>-5500</v>
       </c>
       <c r="N185" t="n">
-        <v>33461</v>
+        <v>33505</v>
       </c>
       <c r="O185" t="n">
-        <v>19638</v>
+        <v>19657</v>
       </c>
       <c r="P185" t="n">
-        <v>-4551</v>
+        <v>-4550</v>
       </c>
       <c r="Q185" t="n">
-        <v>832.1</v>
+        <v>833.3</v>
       </c>
       <c r="R185" t="n">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="S185" t="n">
-        <v>2995.9</v>
+        <v>2998.6</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="G186" t="n">
         <v>129</v>
@@ -13995,37 +13995,37 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123732</v>
+        <v>123815</v>
       </c>
       <c r="J186" t="n">
-        <v>299232</v>
+        <v>299530</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3715</v>
+        <v>-3699</v>
       </c>
       <c r="M186" t="n">
-        <v>8027</v>
+        <v>8035</v>
       </c>
       <c r="N186" t="n">
-        <v>33301</v>
+        <v>33343</v>
       </c>
       <c r="O186" t="n">
-        <v>19112</v>
+        <v>19131</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
       </c>
       <c r="Q186" t="n">
-        <v>1145.6</v>
+        <v>1146.7</v>
       </c>
       <c r="R186" t="n">
         <v>1559</v>
       </c>
       <c r="S186" t="n">
-        <v>3028.1</v>
+        <v>3030.9</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2082</v>
+        <v>2087</v>
       </c>
       <c r="G187" t="n">
         <v>255</v>
@@ -14069,37 +14069,37 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132174</v>
+        <v>132257</v>
       </c>
       <c r="J187" t="n">
-        <v>302139</v>
+        <v>302439</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2967</v>
+        <v>2984</v>
       </c>
       <c r="M187" t="n">
-        <v>22152</v>
+        <v>22160</v>
       </c>
       <c r="N187" t="n">
-        <v>33943</v>
+        <v>33983</v>
       </c>
       <c r="O187" t="n">
-        <v>19269</v>
+        <v>19289</v>
       </c>
       <c r="P187" t="n">
         <v>8442</v>
       </c>
       <c r="Q187" t="n">
-        <v>2352.7</v>
+        <v>2353.9</v>
       </c>
       <c r="R187" t="n">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="S187" t="n">
-        <v>3145.6</v>
+        <v>3148.6</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14125,7 +14125,7 @@
         <v>330</v>
       </c>
       <c r="C188" t="n">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="D188" t="n">
         <v>63952</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2142</v>
+        <v>2147</v>
       </c>
       <c r="G188" t="n">
         <v>258</v>
@@ -14143,37 +14143,37 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134095</v>
+        <v>134178</v>
       </c>
       <c r="J188" t="n">
-        <v>306099</v>
+        <v>306402</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2622</v>
+        <v>2637</v>
       </c>
       <c r="M188" t="n">
-        <v>10519</v>
+        <v>10525</v>
       </c>
       <c r="N188" t="n">
-        <v>35657</v>
+        <v>35695</v>
       </c>
       <c r="O188" t="n">
-        <v>20456</v>
+        <v>20475</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
       </c>
       <c r="Q188" t="n">
-        <v>3439</v>
+        <v>3440.1</v>
       </c>
       <c r="R188" t="n">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="S188" t="n">
-        <v>3318.4</v>
+        <v>3321.7</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14199,7 +14199,7 @@
         <v>230</v>
       </c>
       <c r="C189" t="n">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="D189" t="n">
         <v>63930</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2147</v>
+        <v>2152</v>
       </c>
       <c r="G189" t="n">
         <v>262</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136094</v>
+        <v>136180</v>
       </c>
       <c r="J189" t="n">
-        <v>309940</v>
+        <v>310249</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2710</v>
+        <v>2727</v>
       </c>
       <c r="M189" t="n">
-        <v>22982</v>
+        <v>22989</v>
       </c>
       <c r="N189" t="n">
-        <v>37326</v>
+        <v>37367</v>
       </c>
       <c r="O189" t="n">
-        <v>18576</v>
+        <v>18597</v>
       </c>
       <c r="P189" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="Q189" t="n">
-        <v>1788.3</v>
+        <v>1789.6</v>
       </c>
       <c r="R189" t="n">
-        <v>3841</v>
+        <v>3847</v>
       </c>
       <c r="S189" t="n">
-        <v>3471</v>
+        <v>3474.6</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14273,7 +14273,7 @@
         <v>349</v>
       </c>
       <c r="C190" t="n">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="D190" t="n">
         <v>63975</v>
@@ -14282,46 +14282,46 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="G190" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H190" t="n">
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138209</v>
+        <v>138296</v>
       </c>
       <c r="J190" t="n">
-        <v>314413</v>
+        <v>314726</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12831</v>
+        <v>12845</v>
       </c>
       <c r="M190" t="n">
-        <v>23453</v>
+        <v>23458</v>
       </c>
       <c r="N190" t="n">
-        <v>39189</v>
+        <v>39227</v>
       </c>
       <c r="O190" t="n">
-        <v>19518</v>
+        <v>19537</v>
       </c>
       <c r="P190" t="n">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="Q190" t="n">
-        <v>3585.3</v>
+        <v>3586.4</v>
       </c>
       <c r="R190" t="n">
-        <v>4473</v>
+        <v>4477</v>
       </c>
       <c r="S190" t="n">
-        <v>3292.7</v>
+        <v>3296.3</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14347,7 +14347,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>2987</v>
+        <v>3007</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -14356,46 +14356,46 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="G191" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H191" t="n">
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122773</v>
+        <v>122880</v>
       </c>
       <c r="J191" t="n">
-        <v>319626</v>
+        <v>319962</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18393</v>
+        <v>18425</v>
       </c>
       <c r="M191" t="n">
-        <v>12568</v>
+        <v>12592</v>
       </c>
       <c r="N191" t="n">
-        <v>42924</v>
+        <v>42981</v>
       </c>
       <c r="O191" t="n">
-        <v>21953</v>
+        <v>21991</v>
       </c>
       <c r="P191" t="n">
-        <v>-15436</v>
+        <v>-15416</v>
       </c>
       <c r="Q191" t="n">
-        <v>1145.3</v>
+        <v>1148.9</v>
       </c>
       <c r="R191" t="n">
-        <v>5213</v>
+        <v>5236</v>
       </c>
       <c r="S191" t="n">
-        <v>3533</v>
+        <v>3539</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14421,7 +14421,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="n">
-        <v>1667</v>
+        <v>1693</v>
       </c>
       <c r="D192" t="n">
         <v>64006</v>
@@ -14430,46 +14430,46 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="G192" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H192" t="n">
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120726</v>
+        <v>120858</v>
       </c>
       <c r="J192" t="n">
-        <v>322532</v>
+        <v>322896</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5013</v>
+        <v>5070</v>
       </c>
       <c r="M192" t="n">
-        <v>-3006</v>
+        <v>-2957</v>
       </c>
       <c r="N192" t="n">
-        <v>44497</v>
+        <v>44582</v>
       </c>
       <c r="O192" t="n">
-        <v>23300</v>
+        <v>23366</v>
       </c>
       <c r="P192" t="n">
-        <v>-2047</v>
+        <v>-2022</v>
       </c>
       <c r="Q192" t="n">
-        <v>1503</v>
+        <v>1510</v>
       </c>
       <c r="R192" t="n">
-        <v>2906</v>
+        <v>2934</v>
       </c>
       <c r="S192" t="n">
-        <v>3551.3</v>
+        <v>3560.7</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14495,7 +14495,7 @@
         <v>122</v>
       </c>
       <c r="C193" t="n">
-        <v>1263</v>
+        <v>1302</v>
       </c>
       <c r="D193" t="n">
         <v>64004</v>
@@ -14504,46 +14504,46 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="G193" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H193" t="n">
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139501</v>
+        <v>139672</v>
       </c>
       <c r="J193" t="n">
-        <v>324542</v>
+        <v>324945</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23796</v>
+        <v>23892</v>
       </c>
       <c r="M193" t="n">
-        <v>7327</v>
+        <v>7415</v>
       </c>
       <c r="N193" t="n">
-        <v>44422</v>
+        <v>44546</v>
       </c>
       <c r="O193" t="n">
-        <v>22403</v>
+        <v>22506</v>
       </c>
       <c r="P193" t="n">
-        <v>18775</v>
+        <v>18814</v>
       </c>
       <c r="Q193" t="n">
-        <v>2252.7</v>
+        <v>2265.3</v>
       </c>
       <c r="R193" t="n">
-        <v>2010</v>
+        <v>2049</v>
       </c>
       <c r="S193" t="n">
-        <v>3615.7</v>
+        <v>3630.7</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14569,7 +14569,7 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>3048</v>
+        <v>3093</v>
       </c>
       <c r="D194" t="n">
         <v>48</v>
@@ -14578,46 +14578,46 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="G194" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H194" t="n">
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>139966</v>
+        <v>140182</v>
       </c>
       <c r="J194" t="n">
-        <v>328536</v>
+        <v>328987</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>29944</v>
+        <v>30085</v>
       </c>
       <c r="M194" t="n">
-        <v>5871</v>
+        <v>6004</v>
       </c>
       <c r="N194" t="n">
-        <v>45666</v>
+        <v>45837</v>
       </c>
       <c r="O194" t="n">
-        <v>22437</v>
+        <v>22585</v>
       </c>
       <c r="P194" t="n">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="Q194" t="n">
-        <v>1113.1</v>
+        <v>1132.1</v>
       </c>
       <c r="R194" t="n">
-        <v>3994</v>
+        <v>4042</v>
       </c>
       <c r="S194" t="n">
-        <v>3771</v>
+        <v>3792.6</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14643,7 +14643,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2722</v>
+        <v>2767</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -14652,46 +14652,46 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="G195" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H195" t="n">
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146669</v>
+        <v>146930</v>
       </c>
       <c r="J195" t="n">
-        <v>334164</v>
+        <v>334662</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>23093</v>
+        <v>23277</v>
       </c>
       <c r="M195" t="n">
-        <v>10575</v>
+        <v>10750</v>
       </c>
       <c r="N195" t="n">
-        <v>48521</v>
+        <v>48735</v>
       </c>
       <c r="O195" t="n">
-        <v>24224</v>
+        <v>24413</v>
       </c>
       <c r="P195" t="n">
-        <v>6703</v>
+        <v>6748</v>
       </c>
       <c r="Q195" t="n">
-        <v>1796.3</v>
+        <v>1821.7</v>
       </c>
       <c r="R195" t="n">
-        <v>5628</v>
+        <v>5675</v>
       </c>
       <c r="S195" t="n">
-        <v>4009.3</v>
+        <v>4037.1</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>3026</v>
+        <v>3066</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14726,46 +14726,46 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="G196" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H196" t="n">
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>148839</v>
+        <v>149139</v>
       </c>
       <c r="J196" t="n">
-        <v>339643</v>
+        <v>340190</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35727</v>
+        <v>35948</v>
       </c>
       <c r="M196" t="n">
-        <v>10630</v>
+        <v>10843</v>
       </c>
       <c r="N196" t="n">
-        <v>48279</v>
+        <v>48538</v>
       </c>
       <c r="O196" t="n">
-        <v>25230</v>
+        <v>25464</v>
       </c>
       <c r="P196" t="n">
-        <v>2170</v>
+        <v>2209</v>
       </c>
       <c r="Q196" t="n">
-        <v>1820.7</v>
+        <v>1851.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5479</v>
+        <v>5528</v>
       </c>
       <c r="S196" t="n">
-        <v>4243.3</v>
+        <v>4277.3</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3176</v>
+        <v>3233</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
@@ -14800,46 +14800,46 @@
         <v>14874</v>
       </c>
       <c r="F197" t="n">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="G197" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H197" t="n">
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151154</v>
+        <v>151508</v>
       </c>
       <c r="J197" t="n">
-        <v>345749</v>
+        <v>346363</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36398</v>
+        <v>36670</v>
       </c>
       <c r="M197" t="n">
-        <v>28381</v>
+        <v>28628</v>
       </c>
       <c r="N197" t="n">
-        <v>50854</v>
+        <v>51174</v>
       </c>
       <c r="O197" t="n">
-        <v>26123</v>
+        <v>26401</v>
       </c>
       <c r="P197" t="n">
-        <v>2315</v>
+        <v>2369</v>
       </c>
       <c r="Q197" t="n">
-        <v>1849.3</v>
+        <v>1887.4</v>
       </c>
       <c r="R197" t="n">
-        <v>6106</v>
+        <v>6173</v>
       </c>
       <c r="S197" t="n">
-        <v>4476.6</v>
+        <v>4519.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14874,46 +14874,46 @@
         <v>3729</v>
       </c>
       <c r="F198" t="n">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="G198" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H198" t="n">
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>132848</v>
+        <v>133202</v>
       </c>
       <c r="J198" t="n">
-        <v>352779</v>
+        <v>353401</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22643</v>
+        <v>22914</v>
       </c>
       <c r="M198" t="n">
-        <v>12122</v>
+        <v>12344</v>
       </c>
       <c r="N198" t="n">
-        <v>55106</v>
+        <v>55430</v>
       </c>
       <c r="O198" t="n">
-        <v>30247</v>
+        <v>30505</v>
       </c>
       <c r="P198" t="n">
         <v>-18306</v>
       </c>
       <c r="Q198" t="n">
-        <v>1439.3</v>
+        <v>1474.6</v>
       </c>
       <c r="R198" t="n">
-        <v>7030</v>
+        <v>7038</v>
       </c>
       <c r="S198" t="n">
-        <v>4736.1</v>
+        <v>4777</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14939,7 +14939,7 @@
         <v>539</v>
       </c>
       <c r="C199" t="n">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D199" t="n">
         <v>64260</v>
@@ -14948,46 +14948,46 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="G199" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H199" t="n">
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>129714</v>
+        <v>130070</v>
       </c>
       <c r="J199" t="n">
-        <v>356717</v>
+        <v>357343</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>5982</v>
+        <v>6255</v>
       </c>
       <c r="M199" t="n">
-        <v>-9787</v>
+        <v>-9602</v>
       </c>
       <c r="N199" t="n">
-        <v>57485</v>
+        <v>57813</v>
       </c>
       <c r="O199" t="n">
-        <v>32175</v>
+        <v>32398</v>
       </c>
       <c r="P199" t="n">
-        <v>-3134</v>
+        <v>-3132</v>
       </c>
       <c r="Q199" t="n">
-        <v>1284</v>
+        <v>1316</v>
       </c>
       <c r="R199" t="n">
-        <v>3938</v>
+        <v>3942</v>
       </c>
       <c r="S199" t="n">
-        <v>4883.6</v>
+        <v>4921</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15013,7 +15013,7 @@
         <v>273</v>
       </c>
       <c r="C200" t="n">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D200" t="n">
         <v>64261</v>
@@ -15022,46 +15022,46 @@
         <v>1103</v>
       </c>
       <c r="F200" t="n">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="G200" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H200" t="n">
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130516</v>
+        <v>130872</v>
       </c>
       <c r="J200" t="n">
-        <v>358994</v>
+        <v>359625</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1658</v>
+        <v>-1385</v>
       </c>
       <c r="M200" t="n">
-        <v>-9450</v>
+        <v>-9310</v>
       </c>
       <c r="N200" t="n">
-        <v>56855</v>
+        <v>57186</v>
       </c>
       <c r="O200" t="n">
-        <v>30458</v>
+        <v>30638</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1283.6</v>
+        <v>-1257.1</v>
       </c>
       <c r="R200" t="n">
-        <v>2277</v>
+        <v>2282</v>
       </c>
       <c r="S200" t="n">
-        <v>4921.7</v>
+        <v>4954.3</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15087,7 +15087,7 @@
         <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15096,46 +15096,46 @@
         <v>16406</v>
       </c>
       <c r="F201" t="n">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="G201" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H201" t="n">
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158558</v>
+        <v>158912</v>
       </c>
       <c r="J201" t="n">
-        <v>364238</v>
+        <v>364877</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24463</v>
+        <v>24734</v>
       </c>
       <c r="M201" t="n">
-        <v>11889</v>
+        <v>11982</v>
       </c>
       <c r="N201" t="n">
-        <v>58139</v>
+        <v>58475</v>
       </c>
       <c r="O201" t="n">
-        <v>30074</v>
+        <v>30215</v>
       </c>
       <c r="P201" t="n">
-        <v>28042</v>
+        <v>28040</v>
       </c>
       <c r="Q201" t="n">
-        <v>2656</v>
+        <v>2675.7</v>
       </c>
       <c r="R201" t="n">
-        <v>5244</v>
+        <v>5252</v>
       </c>
       <c r="S201" t="n">
-        <v>5100.3</v>
+        <v>5127.1</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15170,46 +15170,46 @@
         <v>16566</v>
       </c>
       <c r="F202" t="n">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="G202" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H202" t="n">
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161009</v>
+        <v>161362</v>
       </c>
       <c r="J202" t="n">
-        <v>371607</v>
+        <v>372262</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>24915</v>
+        <v>25182</v>
       </c>
       <c r="M202" t="n">
-        <v>12170</v>
+        <v>12223</v>
       </c>
       <c r="N202" t="n">
-        <v>61667</v>
+        <v>62013</v>
       </c>
       <c r="O202" t="n">
-        <v>31964</v>
+        <v>32072</v>
       </c>
       <c r="P202" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="Q202" t="n">
-        <v>2048.6</v>
+        <v>2061.7</v>
       </c>
       <c r="R202" t="n">
-        <v>7369</v>
+        <v>7385</v>
       </c>
       <c r="S202" t="n">
-        <v>5349</v>
+        <v>5371.4</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15235,55 +15235,55 @@
         <v>768</v>
       </c>
       <c r="C203" t="n">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="D203" t="n">
-        <v>64476</v>
+        <v>64475</v>
       </c>
       <c r="E203" t="n">
         <v>14913</v>
       </c>
       <c r="F203" t="n">
-        <v>3854</v>
+        <v>3856</v>
       </c>
       <c r="G203" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H203" t="n">
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>163684</v>
+        <v>164035</v>
       </c>
       <c r="J203" t="n">
-        <v>378977</v>
+        <v>379649</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25475</v>
+        <v>25739</v>
       </c>
       <c r="M203" t="n">
-        <v>12530</v>
+        <v>12527</v>
       </c>
       <c r="N203" t="n">
-        <v>64564</v>
+        <v>64923</v>
       </c>
       <c r="O203" t="n">
-        <v>33228</v>
+        <v>33286</v>
       </c>
       <c r="P203" t="n">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="Q203" t="n">
-        <v>2120.7</v>
+        <v>2128</v>
       </c>
       <c r="R203" t="n">
-        <v>7370</v>
+        <v>7387</v>
       </c>
       <c r="S203" t="n">
-        <v>5619.1</v>
+        <v>5637</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15309,7 +15309,7 @@
         <v>860</v>
       </c>
       <c r="C204" t="n">
-        <v>3774</v>
+        <v>3784</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
@@ -15318,46 +15318,46 @@
         <v>3224</v>
       </c>
       <c r="F204" t="n">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="G204" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H204" t="n">
         <v>34571</v>
       </c>
       <c r="I204" t="n">
-        <v>142601</v>
+        <v>142953</v>
       </c>
       <c r="J204" t="n">
-        <v>386358</v>
+        <v>387085</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>19828</v>
+        <v>20073</v>
       </c>
       <c r="M204" t="n">
-        <v>9753</v>
+        <v>9751</v>
       </c>
       <c r="N204" t="n">
-        <v>66732</v>
+        <v>67123</v>
       </c>
       <c r="O204" t="n">
-        <v>33579</v>
+        <v>33684</v>
       </c>
       <c r="P204" t="n">
-        <v>-21083</v>
+        <v>-21082</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1221.9</v>
+        <v>-1222.1</v>
       </c>
       <c r="R204" t="n">
-        <v>7381</v>
+        <v>7436</v>
       </c>
       <c r="S204" t="n">
-        <v>5801.3</v>
+        <v>5817.4</v>
       </c>
       <c r="T204" t="n">
         <v>21</v>
@@ -15383,7 +15383,7 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3822</v>
+        <v>3844</v>
       </c>
       <c r="D205" t="n">
         <v>64580</v>
@@ -15392,46 +15392,46 @@
         <v>3447</v>
       </c>
       <c r="F205" t="n">
-        <v>4050</v>
+        <v>4054</v>
       </c>
       <c r="G205" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H205" t="n">
         <v>34598</v>
       </c>
       <c r="I205" t="n">
-        <v>144940</v>
+        <v>145313</v>
       </c>
       <c r="J205" t="n">
-        <v>394149</v>
+        <v>395173</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24214</v>
+        <v>24455</v>
       </c>
       <c r="M205" t="n">
-        <v>15226</v>
+        <v>15243</v>
       </c>
       <c r="N205" t="n">
-        <v>71617</v>
+        <v>72277</v>
       </c>
       <c r="O205" t="n">
-        <v>37432</v>
+        <v>37830</v>
       </c>
       <c r="P205" t="n">
-        <v>2339</v>
+        <v>2360</v>
       </c>
       <c r="Q205" t="n">
-        <v>1727.4</v>
+        <v>1730.1</v>
       </c>
       <c r="R205" t="n">
-        <v>7791</v>
+        <v>8088</v>
       </c>
       <c r="S205" t="n">
-        <v>5910</v>
+        <v>5967.4</v>
       </c>
       <c r="T205" t="n">
         <v>27</v>
@@ -15457,7 +15457,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2630</v>
+        <v>2636</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
@@ -15466,46 +15466,46 @@
         <v>2005</v>
       </c>
       <c r="F206" t="n">
-        <v>3901</v>
+        <v>3905</v>
       </c>
       <c r="G206" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H206" t="n">
         <v>31504</v>
       </c>
       <c r="I206" t="n">
-        <v>140857</v>
+        <v>141236</v>
       </c>
       <c r="J206" t="n">
-        <v>376887</v>
+        <v>377928</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1356</v>
+        <v>1564</v>
       </c>
       <c r="M206" t="n">
-        <v>10341</v>
+        <v>10364</v>
       </c>
       <c r="N206" t="n">
-        <v>52345</v>
+        <v>52983</v>
       </c>
       <c r="O206" t="n">
-        <v>17893</v>
+        <v>18303</v>
       </c>
       <c r="P206" t="n">
-        <v>-4083</v>
+        <v>-4077</v>
       </c>
       <c r="Q206" t="n">
-        <v>1591.9</v>
+        <v>1595.1</v>
       </c>
       <c r="R206" t="n">
-        <v>-17262</v>
+        <v>-17245</v>
       </c>
       <c r="S206" t="n">
-        <v>2881.4</v>
+        <v>2940.7</v>
       </c>
       <c r="T206" t="n">
         <v>-3094</v>
@@ -15531,55 +15531,55 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1486</v>
+        <v>1519</v>
       </c>
       <c r="D207" t="n">
-        <v>64559</v>
+        <v>64558</v>
       </c>
       <c r="E207" t="n">
         <v>13903</v>
       </c>
       <c r="F207" t="n">
-        <v>3956</v>
+        <v>3960</v>
       </c>
       <c r="G207" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H207" t="n">
         <v>31555</v>
       </c>
       <c r="I207" t="n">
-        <v>166600</v>
+        <v>167011</v>
       </c>
       <c r="J207" t="n">
-        <v>379760</v>
+        <v>380768</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26634</v>
+        <v>26829</v>
       </c>
       <c r="M207" t="n">
-        <v>8042</v>
+        <v>8099</v>
       </c>
       <c r="N207" t="n">
-        <v>51224</v>
+        <v>51781</v>
       </c>
       <c r="O207" t="n">
-        <v>15522</v>
+        <v>15891</v>
       </c>
       <c r="P207" t="n">
-        <v>25743</v>
+        <v>25775</v>
       </c>
       <c r="Q207" t="n">
-        <v>5154.9</v>
+        <v>5162.7</v>
       </c>
       <c r="R207" t="n">
-        <v>2873</v>
+        <v>2840</v>
       </c>
       <c r="S207" t="n">
-        <v>2966.6</v>
+        <v>3020.4</v>
       </c>
       <c r="T207" t="n">
         <v>51</v>
@@ -15605,7 +15605,7 @@
         <v>920</v>
       </c>
       <c r="C208" t="n">
-        <v>1991</v>
+        <v>3700</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
@@ -15614,61 +15614,61 @@
         <v>4004</v>
       </c>
       <c r="F208" t="n">
-        <v>4420</v>
+        <v>4585</v>
       </c>
       <c r="G208" t="n">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H208" t="n">
-        <v>31070</v>
+        <v>34174</v>
       </c>
       <c r="I208" t="n">
-        <v>148588</v>
+        <v>149815</v>
       </c>
       <c r="J208" t="n">
-        <v>378913</v>
+        <v>403978</v>
       </c>
       <c r="K208" t="n">
         <v>63627</v>
       </c>
       <c r="L208" t="n">
-        <v>1919</v>
+        <v>2885</v>
       </c>
       <c r="M208" t="n">
-        <v>-12421</v>
+        <v>-11547</v>
       </c>
       <c r="N208" t="n">
-        <v>44749</v>
+        <v>69316</v>
       </c>
       <c r="O208" t="n">
-        <v>7306</v>
+        <v>31716</v>
       </c>
       <c r="P208" t="n">
-        <v>-18012</v>
+        <v>-17196</v>
       </c>
       <c r="Q208" t="n">
-        <v>-1424.3</v>
+        <v>-1299.6</v>
       </c>
       <c r="R208" t="n">
-        <v>-847</v>
+        <v>23210</v>
       </c>
       <c r="S208" t="n">
-        <v>2096.4</v>
+        <v>5585.9</v>
       </c>
       <c r="T208" t="n">
-        <v>-485</v>
+        <v>2619</v>
       </c>
       <c r="U208" t="n">
-        <v>-1.5</v>
+        <v>8.3</v>
       </c>
       <c r="V208" t="n">
-        <v>-1176</v>
+        <v>-141.3</v>
       </c>
       <c r="W208" t="n">
-        <v>-485.1</v>
+        <v>-41.7</v>
       </c>
       <c r="X208" t="n">
-        <v>-3396</v>
+        <v>-292</v>
       </c>
     </row>
     <row r="209">
@@ -15676,73 +15676,147 @@
         <v>44068</v>
       </c>
       <c r="B209" t="n">
-        <v>1724</v>
+        <v>2064</v>
       </c>
       <c r="C209" t="n">
-        <v>2056</v>
+        <v>3454</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>64712</v>
       </c>
       <c r="E209" t="n">
         <v>4912</v>
       </c>
       <c r="F209" t="n">
-        <v>2812</v>
+        <v>4220</v>
       </c>
       <c r="G209" t="n">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="H209" t="n">
-        <v>16205</v>
+        <v>33047</v>
       </c>
       <c r="I209" t="n">
-        <v>27466</v>
+        <v>151737</v>
       </c>
       <c r="J209" t="n">
-        <v>213446</v>
+        <v>385560</v>
       </c>
       <c r="K209" t="n">
-        <v>58846</v>
+        <v>64448</v>
       </c>
       <c r="L209" t="n">
-        <v>-121373</v>
+        <v>2598</v>
       </c>
       <c r="M209" t="n">
-        <v>-136218</v>
+        <v>-12298</v>
       </c>
       <c r="N209" t="n">
-        <v>-126197</v>
+        <v>45370</v>
       </c>
       <c r="O209" t="n">
-        <v>-165531</v>
+        <v>5911</v>
       </c>
       <c r="P209" t="n">
-        <v>-121122</v>
+        <v>1922</v>
       </c>
       <c r="Q209" t="n">
-        <v>-19077.6</v>
+        <v>-1375</v>
       </c>
       <c r="R209" t="n">
-        <v>-165467</v>
+        <v>-18418</v>
       </c>
       <c r="S209" t="n">
-        <v>-22594.4</v>
+        <v>1899.7</v>
       </c>
       <c r="T209" t="n">
-        <v>-14865</v>
+        <v>-1127</v>
       </c>
       <c r="U209" t="n">
-        <v>-47.8</v>
+        <v>-3.3</v>
       </c>
       <c r="V209" t="n">
-        <v>-5099.7</v>
+        <v>514.3</v>
       </c>
       <c r="W209" t="n">
-        <v>-2615</v>
+        <v>-209</v>
       </c>
       <c r="X209" t="n">
-        <v>-18305</v>
+        <v>-1463</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1613</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5307</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2924</v>
+      </c>
+      <c r="G210" t="n">
+        <v>350</v>
+      </c>
+      <c r="H210" t="n">
+        <v>16226</v>
+      </c>
+      <c r="I210" t="n">
+        <v>28394</v>
+      </c>
+      <c r="J210" t="n">
+        <v>218566</v>
+      </c>
+      <c r="K210" t="n">
+        <v>61777</v>
+      </c>
+      <c r="L210" t="n">
+        <v>-123114</v>
+      </c>
+      <c r="M210" t="n">
+        <v>-114559</v>
+      </c>
+      <c r="N210" t="n">
+        <v>-127797</v>
+      </c>
+      <c r="O210" t="n">
+        <v>-168519</v>
+      </c>
+      <c r="P210" t="n">
+        <v>-123343</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>-19377.3</v>
+      </c>
+      <c r="R210" t="n">
+        <v>-166994</v>
+      </c>
+      <c r="S210" t="n">
+        <v>-23011.9</v>
+      </c>
+      <c r="T210" t="n">
+        <v>-16821</v>
+      </c>
+      <c r="U210" t="n">
+        <v>-50.9</v>
+      </c>
+      <c r="V210" t="n">
+        <v>-5109.7</v>
+      </c>
+      <c r="W210" t="n">
+        <v>-2617.7</v>
+      </c>
+      <c r="X210" t="n">
+        <v>-18324</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -3046,7 +3046,7 @@
         <v>1003</v>
       </c>
       <c r="J38" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>929</v>
       </c>
       <c r="N38" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O38" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P38" t="n">
         <v>302</v>
@@ -3070,10 +3070,10 @@
         <v>137.1</v>
       </c>
       <c r="R38" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S38" t="n">
-        <v>121.4</v>
+        <v>121.6</v>
       </c>
       <c r="T38" t="n">
         <v>6</v>
@@ -3120,7 +3120,7 @@
         <v>1374</v>
       </c>
       <c r="J39" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>1241</v>
       </c>
       <c r="N39" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="O39" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="P39" t="n">
         <v>371</v>
@@ -3147,7 +3147,7 @@
         <v>315</v>
       </c>
       <c r="S39" t="n">
-        <v>162.6</v>
+        <v>162.7</v>
       </c>
       <c r="T39" t="n">
         <v>14</v>
@@ -3194,7 +3194,7 @@
         <v>2032</v>
       </c>
       <c r="J40" t="n">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>1837</v>
       </c>
       <c r="N40" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="O40" t="n">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3221,7 +3221,7 @@
         <v>603</v>
       </c>
       <c r="S40" t="n">
-        <v>240.4</v>
+        <v>240.6</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -3268,7 +3268,7 @@
         <v>2982</v>
       </c>
       <c r="J41" t="n">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>2716</v>
       </c>
       <c r="N41" t="n">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="O41" t="n">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="P41" t="n">
         <v>950</v>
@@ -3292,10 +3292,10 @@
         <v>398.1</v>
       </c>
       <c r="R41" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="S41" t="n">
-        <v>357</v>
+        <v>357.3</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="O42" t="n">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="S42" t="n">
-        <v>482</v>
+        <v>482.4</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3404,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4779</v>
+        <v>4782</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4756</v>
+        <v>4759</v>
       </c>
       <c r="O43" t="n">
-        <v>4160</v>
+        <v>4163</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3443,7 +3443,7 @@
         <v>1160</v>
       </c>
       <c r="S43" t="n">
-        <v>627.6</v>
+        <v>628</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3478,7 +3478,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="G44" t="n">
         <v>219</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6218</v>
+        <v>6221</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6185</v>
+        <v>6188</v>
       </c>
       <c r="O44" t="n">
-        <v>5335</v>
+        <v>5337</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3517,7 +3517,7 @@
         <v>1439</v>
       </c>
       <c r="S44" t="n">
-        <v>799.9</v>
+        <v>800.3</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3552,7 +3552,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="G45" t="n">
         <v>232</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7594</v>
+        <v>7599</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7534</v>
+        <v>7539</v>
       </c>
       <c r="O45" t="n">
-        <v>6396</v>
+        <v>6400</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3588,10 +3588,10 @@
         <v>1189.3</v>
       </c>
       <c r="R45" t="n">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="S45" t="n">
-        <v>958.7</v>
+        <v>959.3</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3626,7 +3626,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="G46" t="n">
         <v>318</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9056</v>
+        <v>9061</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8938</v>
+        <v>8943</v>
       </c>
       <c r="O46" t="n">
-        <v>7255</v>
+        <v>7259</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1462</v>
       </c>
       <c r="S46" t="n">
-        <v>1122.6</v>
+        <v>1123.1</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3700,7 +3700,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="G47" t="n">
         <v>346</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11222</v>
+        <v>11227</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11050</v>
+        <v>11055</v>
       </c>
       <c r="O47" t="n">
-        <v>8551</v>
+        <v>8554</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1345.9</v>
+        <v>1346.4</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="G48" t="n">
         <v>482</v>
@@ -3786,7 +3786,7 @@
         <v>17583</v>
       </c>
       <c r="J48" t="n">
-        <v>14270</v>
+        <v>14276</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13543</v>
       </c>
       <c r="N48" t="n">
-        <v>14025</v>
+        <v>14031</v>
       </c>
       <c r="O48" t="n">
-        <v>10651</v>
+        <v>10654</v>
       </c>
       <c r="P48" t="n">
         <v>3749</v>
@@ -3810,10 +3810,10 @@
         <v>2085.9</v>
       </c>
       <c r="R48" t="n">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="S48" t="n">
-        <v>1657</v>
+        <v>1657.6</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3848,7 +3848,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5403</v>
+        <v>5405</v>
       </c>
       <c r="G49" t="n">
         <v>681</v>
@@ -3860,7 +3860,7 @@
         <v>20761</v>
       </c>
       <c r="J49" t="n">
-        <v>17350</v>
+        <v>17356</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15432</v>
       </c>
       <c r="N49" t="n">
-        <v>16964</v>
+        <v>16970</v>
       </c>
       <c r="O49" t="n">
-        <v>12571</v>
+        <v>12574</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3887,7 +3887,7 @@
         <v>3080</v>
       </c>
       <c r="S49" t="n">
-        <v>1961.6</v>
+        <v>1962</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3922,7 +3922,7 @@
         <v>3103</v>
       </c>
       <c r="F50" t="n">
-        <v>7114</v>
+        <v>7116</v>
       </c>
       <c r="G50" t="n">
         <v>830</v>
@@ -3934,7 +3934,7 @@
         <v>26438</v>
       </c>
       <c r="J50" t="n">
-        <v>21107</v>
+        <v>21113</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19039</v>
       </c>
       <c r="N50" t="n">
-        <v>20488</v>
+        <v>20494</v>
       </c>
       <c r="O50" t="n">
-        <v>14889</v>
+        <v>14892</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3961,7 +3961,7 @@
         <v>3757</v>
       </c>
       <c r="S50" t="n">
-        <v>2332.6</v>
+        <v>2333</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>32044</v>
       </c>
       <c r="J51" t="n">
-        <v>25351</v>
+        <v>25358</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22716</v>
       </c>
       <c r="N51" t="n">
-        <v>24468</v>
+        <v>24474</v>
       </c>
       <c r="O51" t="n">
-        <v>17757</v>
+        <v>17759</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.7</v>
       </c>
       <c r="R51" t="n">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="S51" t="n">
-        <v>2733.3</v>
+        <v>2733.9</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4061,7 +4061,7 @@
         <v>1915</v>
       </c>
       <c r="C52" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>4713</v>
       </c>
       <c r="F52" t="n">
-        <v>10248</v>
+        <v>10249</v>
       </c>
       <c r="G52" t="n">
         <v>1126</v>
@@ -4079,37 +4079,37 @@
         <v>2127</v>
       </c>
       <c r="I52" t="n">
-        <v>36739</v>
+        <v>36740</v>
       </c>
       <c r="J52" t="n">
-        <v>28726</v>
+        <v>28734</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
       </c>
       <c r="L52" t="n">
-        <v>35365</v>
+        <v>35366</v>
       </c>
       <c r="M52" t="n">
-        <v>25348</v>
+        <v>25349</v>
       </c>
       <c r="N52" t="n">
-        <v>27528</v>
+        <v>27535</v>
       </c>
       <c r="O52" t="n">
-        <v>19670</v>
+        <v>19673</v>
       </c>
       <c r="P52" t="n">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="Q52" t="n">
-        <v>3915.9</v>
+        <v>3916</v>
       </c>
       <c r="R52" t="n">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="S52" t="n">
-        <v>3018.9</v>
+        <v>3019.3</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4144,7 +4144,7 @@
         <v>5164</v>
       </c>
       <c r="F53" t="n">
-        <v>11850</v>
+        <v>11851</v>
       </c>
       <c r="G53" t="n">
         <v>1286</v>
@@ -4153,37 +4153,37 @@
         <v>2636</v>
       </c>
       <c r="I53" t="n">
-        <v>40706</v>
+        <v>40707</v>
       </c>
       <c r="J53" t="n">
-        <v>31683</v>
+        <v>31692</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
       </c>
       <c r="L53" t="n">
-        <v>38674</v>
+        <v>38675</v>
       </c>
       <c r="M53" t="n">
-        <v>26872</v>
+        <v>26873</v>
       </c>
       <c r="N53" t="n">
-        <v>29882</v>
+        <v>29890</v>
       </c>
       <c r="O53" t="n">
-        <v>20461</v>
+        <v>20465</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
       </c>
       <c r="Q53" t="n">
-        <v>4187.9</v>
+        <v>4188</v>
       </c>
       <c r="R53" t="n">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="S53" t="n">
-        <v>3232.4</v>
+        <v>3233</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4218,7 +4218,7 @@
         <v>5942</v>
       </c>
       <c r="F54" t="n">
-        <v>13491</v>
+        <v>13492</v>
       </c>
       <c r="G54" t="n">
         <v>1493</v>
@@ -4227,37 +4227,37 @@
         <v>3228</v>
       </c>
       <c r="I54" t="n">
-        <v>47101</v>
+        <v>47102</v>
       </c>
       <c r="J54" t="n">
-        <v>36483</v>
+        <v>36492</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
       </c>
       <c r="L54" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="M54" t="n">
-        <v>29518</v>
+        <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33812</v>
+        <v>33819</v>
       </c>
       <c r="O54" t="n">
-        <v>22213</v>
+        <v>22216</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
       </c>
       <c r="Q54" t="n">
-        <v>4752.4</v>
+        <v>4752.6</v>
       </c>
       <c r="R54" t="n">
         <v>4800</v>
       </c>
       <c r="S54" t="n">
-        <v>3608.7</v>
+        <v>3609.3</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4292,7 +4292,7 @@
         <v>6463</v>
       </c>
       <c r="F55" t="n">
-        <v>15347</v>
+        <v>15348</v>
       </c>
       <c r="G55" t="n">
         <v>1812</v>
@@ -4301,37 +4301,37 @@
         <v>4001</v>
       </c>
       <c r="I55" t="n">
-        <v>52408</v>
+        <v>52409</v>
       </c>
       <c r="J55" t="n">
-        <v>42018</v>
+        <v>42028</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
       </c>
       <c r="L55" t="n">
-        <v>48368</v>
+        <v>48369</v>
       </c>
       <c r="M55" t="n">
-        <v>31647</v>
+        <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38399</v>
+        <v>38406</v>
       </c>
       <c r="O55" t="n">
-        <v>24668</v>
+        <v>24672</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
       </c>
       <c r="Q55" t="n">
-        <v>4975</v>
+        <v>4975.1</v>
       </c>
       <c r="R55" t="n">
-        <v>5535</v>
+        <v>5536</v>
       </c>
       <c r="S55" t="n">
-        <v>3964</v>
+        <v>3964.6</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4366,7 +4366,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17037</v>
+        <v>17038</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4375,37 +4375,37 @@
         <v>4739</v>
       </c>
       <c r="I56" t="n">
-        <v>63100</v>
+        <v>63101</v>
       </c>
       <c r="J56" t="n">
-        <v>47553</v>
+        <v>47562</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
       </c>
       <c r="L56" t="n">
-        <v>57771</v>
+        <v>57772</v>
       </c>
       <c r="M56" t="n">
-        <v>36662</v>
+        <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42774</v>
+        <v>42780</v>
       </c>
       <c r="O56" t="n">
-        <v>26446</v>
+        <v>26449</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
       </c>
       <c r="Q56" t="n">
-        <v>6048.4</v>
+        <v>6048.6</v>
       </c>
       <c r="R56" t="n">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="S56" t="n">
-        <v>4314.7</v>
+        <v>4315.1</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4440,7 +4440,7 @@
         <v>10231</v>
       </c>
       <c r="F57" t="n">
-        <v>19108</v>
+        <v>19109</v>
       </c>
       <c r="G57" t="n">
         <v>2277</v>
@@ -4449,37 +4449,37 @@
         <v>5602</v>
       </c>
       <c r="I57" t="n">
-        <v>72678</v>
+        <v>72679</v>
       </c>
       <c r="J57" t="n">
-        <v>54352</v>
+        <v>54362</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
       </c>
       <c r="L57" t="n">
-        <v>65279</v>
+        <v>65280</v>
       </c>
       <c r="M57" t="n">
-        <v>40634</v>
+        <v>40635</v>
       </c>
       <c r="N57" t="n">
-        <v>48134</v>
+        <v>48141</v>
       </c>
       <c r="O57" t="n">
-        <v>29001</v>
+        <v>29004</v>
       </c>
       <c r="P57" t="n">
         <v>9578</v>
       </c>
       <c r="Q57" t="n">
-        <v>6605.7</v>
+        <v>6605.9</v>
       </c>
       <c r="R57" t="n">
-        <v>6799</v>
+        <v>6800</v>
       </c>
       <c r="S57" t="n">
-        <v>4749.3</v>
+        <v>4749.9</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4523,37 +4523,37 @@
         <v>6575</v>
       </c>
       <c r="I58" t="n">
-        <v>81190</v>
+        <v>81191</v>
       </c>
       <c r="J58" t="n">
-        <v>59326</v>
+        <v>59336</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
       </c>
       <c r="L58" t="n">
-        <v>71862</v>
+        <v>71863</v>
       </c>
       <c r="M58" t="n">
         <v>44451</v>
       </c>
       <c r="N58" t="n">
-        <v>51732</v>
+        <v>51737</v>
       </c>
       <c r="O58" t="n">
-        <v>30600</v>
+        <v>30602</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
       </c>
       <c r="Q58" t="n">
-        <v>7020.9</v>
+        <v>7021</v>
       </c>
       <c r="R58" t="n">
         <v>4974</v>
       </c>
       <c r="S58" t="n">
-        <v>4853.6</v>
+        <v>4854</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4597,25 +4597,25 @@
         <v>7628</v>
       </c>
       <c r="I59" t="n">
-        <v>89782</v>
+        <v>89783</v>
       </c>
       <c r="J59" t="n">
-        <v>62674</v>
+        <v>62684</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
       </c>
       <c r="L59" t="n">
-        <v>78391</v>
+        <v>78392</v>
       </c>
       <c r="M59" t="n">
         <v>49076</v>
       </c>
       <c r="N59" t="n">
-        <v>53618</v>
+        <v>53623</v>
       </c>
       <c r="O59" t="n">
-        <v>30991</v>
+        <v>30992</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4627,7 +4627,7 @@
         <v>3348</v>
       </c>
       <c r="S59" t="n">
-        <v>4849.7</v>
+        <v>4850</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4671,25 +4671,25 @@
         <v>8602</v>
       </c>
       <c r="I60" t="n">
-        <v>96086</v>
+        <v>96087</v>
       </c>
       <c r="J60" t="n">
-        <v>65348</v>
+        <v>65358</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
       </c>
       <c r="L60" t="n">
-        <v>82252</v>
+        <v>82253</v>
       </c>
       <c r="M60" t="n">
         <v>48985</v>
       </c>
       <c r="N60" t="n">
-        <v>54126</v>
+        <v>54131</v>
       </c>
       <c r="O60" t="n">
-        <v>28865</v>
+        <v>28866</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2674</v>
       </c>
       <c r="S60" t="n">
-        <v>4809.3</v>
+        <v>4809.4</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4745,22 +4745,22 @@
         <v>9548</v>
       </c>
       <c r="I61" t="n">
-        <v>103278</v>
+        <v>103279</v>
       </c>
       <c r="J61" t="n">
-        <v>70207</v>
+        <v>70217</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
       </c>
       <c r="L61" t="n">
-        <v>85695</v>
+        <v>85696</v>
       </c>
       <c r="M61" t="n">
         <v>50870</v>
       </c>
       <c r="N61" t="n">
-        <v>55937</v>
+        <v>55941</v>
       </c>
       <c r="O61" t="n">
         <v>28189</v>
@@ -4775,7 +4775,7 @@
         <v>4859</v>
       </c>
       <c r="S61" t="n">
-        <v>4817.7</v>
+        <v>4817.9</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4819,25 +4819,25 @@
         <v>10614</v>
       </c>
       <c r="I62" t="n">
-        <v>108826</v>
+        <v>108827</v>
       </c>
       <c r="J62" t="n">
-        <v>74476</v>
+        <v>74486</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
       </c>
       <c r="L62" t="n">
-        <v>88065</v>
+        <v>88066</v>
       </c>
       <c r="M62" t="n">
         <v>45726</v>
       </c>
       <c r="N62" t="n">
-        <v>57126</v>
+        <v>57130</v>
       </c>
       <c r="O62" t="n">
-        <v>26923</v>
+        <v>26924</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4893,25 +4893,25 @@
         <v>11637</v>
       </c>
       <c r="I63" t="n">
-        <v>117178</v>
+        <v>117179</v>
       </c>
       <c r="J63" t="n">
-        <v>78300</v>
+        <v>78311</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
       </c>
       <c r="L63" t="n">
-        <v>90740</v>
+        <v>90741</v>
       </c>
       <c r="M63" t="n">
         <v>44500</v>
       </c>
       <c r="N63" t="n">
-        <v>57193</v>
+        <v>57198</v>
       </c>
       <c r="O63" t="n">
-        <v>23948</v>
+        <v>23949</v>
       </c>
       <c r="P63" t="n">
         <v>8352</v>
@@ -4920,10 +4920,10 @@
         <v>7725.4</v>
       </c>
       <c r="R63" t="n">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="S63" t="n">
-        <v>4392.4</v>
+        <v>4392.7</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4967,25 +4967,25 @@
         <v>12719</v>
       </c>
       <c r="I64" t="n">
-        <v>123952</v>
+        <v>123953</v>
       </c>
       <c r="J64" t="n">
-        <v>82118</v>
+        <v>82130</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
       </c>
       <c r="L64" t="n">
-        <v>91908</v>
+        <v>91909</v>
       </c>
       <c r="M64" t="n">
         <v>42762</v>
       </c>
       <c r="N64" t="n">
-        <v>56767</v>
+        <v>56772</v>
       </c>
       <c r="O64" t="n">
-        <v>22792</v>
+        <v>22794</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7324.9</v>
       </c>
       <c r="R64" t="n">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="S64" t="n">
-        <v>3966.6</v>
+        <v>3966.9</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5032,7 +5032,7 @@
         <v>4709</v>
       </c>
       <c r="F65" t="n">
-        <v>30393</v>
+        <v>30392</v>
       </c>
       <c r="G65" t="n">
         <v>3424</v>
@@ -5041,10 +5041,10 @@
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130640</v>
+        <v>130641</v>
       </c>
       <c r="J65" t="n">
-        <v>85991</v>
+        <v>86006</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,10 +5056,10 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57265</v>
+        <v>57272</v>
       </c>
       <c r="O65" t="n">
-        <v>23317</v>
+        <v>23322</v>
       </c>
       <c r="P65" t="n">
         <v>6688</v>
@@ -5068,10 +5068,10 @@
         <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3873</v>
+        <v>3876</v>
       </c>
       <c r="S65" t="n">
-        <v>3809.3</v>
+        <v>3810</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5106,7 +5106,7 @@
         <v>6202</v>
       </c>
       <c r="F66" t="n">
-        <v>30139</v>
+        <v>30138</v>
       </c>
       <c r="G66" t="n">
         <v>3429</v>
@@ -5115,10 +5115,10 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135951</v>
+        <v>135952</v>
       </c>
       <c r="J66" t="n">
-        <v>88425</v>
+        <v>88440</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -5130,10 +5130,10 @@
         <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56742</v>
+        <v>56748</v>
       </c>
       <c r="O66" t="n">
-        <v>23077</v>
+        <v>23082</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
@@ -5145,7 +5145,7 @@
         <v>2434</v>
       </c>
       <c r="S66" t="n">
-        <v>3678.7</v>
+        <v>3679.4</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5180,7 +5180,7 @@
         <v>4748</v>
       </c>
       <c r="F67" t="n">
-        <v>29997</v>
+        <v>29996</v>
       </c>
       <c r="G67" t="n">
         <v>3424</v>
@@ -5189,10 +5189,10 @@
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139713</v>
+        <v>139714</v>
       </c>
       <c r="J67" t="n">
-        <v>90082</v>
+        <v>90096</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,10 +5204,10 @@
         <v>36435</v>
       </c>
       <c r="N67" t="n">
-        <v>53599</v>
+        <v>53604</v>
       </c>
       <c r="O67" t="n">
-        <v>19875</v>
+        <v>19879</v>
       </c>
       <c r="P67" t="n">
         <v>3762</v>
@@ -5216,10 +5216,10 @@
         <v>6232.4</v>
       </c>
       <c r="R67" t="n">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="S67" t="n">
-        <v>3533.4</v>
+        <v>3534</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5254,7 +5254,7 @@
         <v>7508</v>
       </c>
       <c r="F68" t="n">
-        <v>29686</v>
+        <v>29685</v>
       </c>
       <c r="G68" t="n">
         <v>3430</v>
@@ -5263,10 +5263,10 @@
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144599</v>
+        <v>144600</v>
       </c>
       <c r="J68" t="n">
-        <v>93300</v>
+        <v>93315</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35773</v>
       </c>
       <c r="N68" t="n">
-        <v>51282</v>
+        <v>51287</v>
       </c>
       <c r="O68" t="n">
-        <v>18824</v>
+        <v>18829</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5290,10 +5290,10 @@
         <v>5903</v>
       </c>
       <c r="R68" t="n">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="S68" t="n">
-        <v>3299</v>
+        <v>3299.7</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,7 +5328,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>28795</v>
+        <v>28794</v>
       </c>
       <c r="G69" t="n">
         <v>3381</v>
@@ -5337,10 +5337,10 @@
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149519</v>
+        <v>149520</v>
       </c>
       <c r="J69" t="n">
-        <v>96365</v>
+        <v>96381</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48812</v>
+        <v>48819</v>
       </c>
       <c r="O69" t="n">
-        <v>18065</v>
+        <v>18070</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5364,10 +5364,10 @@
         <v>5813.3</v>
       </c>
       <c r="R69" t="n">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="S69" t="n">
-        <v>3127</v>
+        <v>3127.9</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,7 +5402,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>27701</v>
+        <v>27699</v>
       </c>
       <c r="G70" t="n">
         <v>3291</v>
@@ -5411,10 +5411,10 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154917</v>
+        <v>154918</v>
       </c>
       <c r="J70" t="n">
-        <v>99488</v>
+        <v>99505</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,10 +5426,10 @@
         <v>30965</v>
       </c>
       <c r="N70" t="n">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="O70" t="n">
-        <v>17370</v>
+        <v>17375</v>
       </c>
       <c r="P70" t="n">
         <v>5398</v>
@@ -5438,10 +5438,10 @@
         <v>5391.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="S70" t="n">
-        <v>3026.9</v>
+        <v>3027.7</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,7 +5476,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>26867</v>
+        <v>26865</v>
       </c>
       <c r="G71" t="n">
         <v>3249</v>
@@ -5485,10 +5485,10 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159909</v>
+        <v>159910</v>
       </c>
       <c r="J71" t="n">
-        <v>102110</v>
+        <v>102127</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5500,10 +5500,10 @@
         <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42784</v>
+        <v>42791</v>
       </c>
       <c r="O71" t="n">
-        <v>16119</v>
+        <v>16121</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
@@ -5515,7 +5515,7 @@
         <v>2622</v>
       </c>
       <c r="S71" t="n">
-        <v>2856</v>
+        <v>2856.7</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>25949</v>
+        <v>25947</v>
       </c>
       <c r="G72" t="n">
         <v>3163</v>
@@ -5559,10 +5559,10 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165064</v>
+        <v>165065</v>
       </c>
       <c r="J72" t="n">
-        <v>104399</v>
+        <v>104417</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5574,10 +5574,10 @@
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41725</v>
+        <v>41733</v>
       </c>
       <c r="O72" t="n">
-        <v>15974</v>
+        <v>15977</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
@@ -5586,10 +5586,10 @@
         <v>4917.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="S72" t="n">
-        <v>2629.7</v>
+        <v>2630.1</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25146</v>
+        <v>25144</v>
       </c>
       <c r="G73" t="n">
         <v>3118</v>
@@ -5633,10 +5633,10 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168833</v>
+        <v>168834</v>
       </c>
       <c r="J73" t="n">
-        <v>106169</v>
+        <v>106188</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5648,10 +5648,10 @@
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40821</v>
+        <v>40830</v>
       </c>
       <c r="O73" t="n">
-        <v>16087</v>
+        <v>16092</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
@@ -5660,10 +5660,10 @@
         <v>4697.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="S73" t="n">
-        <v>2534.9</v>
+        <v>2535.4</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24505</v>
+        <v>24503</v>
       </c>
       <c r="G74" t="n">
         <v>3050</v>
@@ -5707,10 +5707,10 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171876</v>
+        <v>171877</v>
       </c>
       <c r="J74" t="n">
-        <v>107421</v>
+        <v>107441</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -5722,10 +5722,10 @@
         <v>27277</v>
       </c>
       <c r="N74" t="n">
-        <v>37214</v>
+        <v>37224</v>
       </c>
       <c r="O74" t="n">
-        <v>14121</v>
+        <v>14126</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5734,10 +5734,10 @@
         <v>4594.7</v>
       </c>
       <c r="R74" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="S74" t="n">
-        <v>2477</v>
+        <v>2477.9</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5772,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24216</v>
+        <v>24214</v>
       </c>
       <c r="G75" t="n">
         <v>3008</v>
@@ -5781,10 +5781,10 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175378</v>
+        <v>175379</v>
       </c>
       <c r="J75" t="n">
-        <v>109353</v>
+        <v>109373</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -5796,10 +5796,10 @@
         <v>25859</v>
       </c>
       <c r="N75" t="n">
-        <v>34877</v>
+        <v>34887</v>
       </c>
       <c r="O75" t="n">
-        <v>12988</v>
+        <v>12992</v>
       </c>
       <c r="P75" t="n">
         <v>3502</v>
@@ -5811,7 +5811,7 @@
         <v>1932</v>
       </c>
       <c r="S75" t="n">
-        <v>2293.3</v>
+        <v>2294</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5846,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23403</v>
+        <v>23400</v>
       </c>
       <c r="G76" t="n">
         <v>2949</v>
@@ -5855,10 +5855,10 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179706</v>
+        <v>179707</v>
       </c>
       <c r="J76" t="n">
-        <v>111892</v>
+        <v>111912</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5870,10 +5870,10 @@
         <v>24789</v>
       </c>
       <c r="N76" t="n">
-        <v>33592</v>
+        <v>33601</v>
       </c>
       <c r="O76" t="n">
-        <v>12404</v>
+        <v>12407</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5885,7 +5885,7 @@
         <v>2539</v>
       </c>
       <c r="S76" t="n">
-        <v>2218.1</v>
+        <v>2218.7</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5911,7 +5911,7 @@
         <v>2828</v>
       </c>
       <c r="C77" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D77" t="n">
         <v>780</v>
@@ -5920,7 +5920,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22342</v>
+        <v>22339</v>
       </c>
       <c r="G77" t="n">
         <v>2836</v>
@@ -5929,37 +5929,37 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184104</v>
+        <v>184106</v>
       </c>
       <c r="J77" t="n">
-        <v>116918</v>
+        <v>116941</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
       </c>
       <c r="L77" t="n">
-        <v>60152</v>
+        <v>60153</v>
       </c>
       <c r="M77" t="n">
-        <v>24195</v>
+        <v>24196</v>
       </c>
       <c r="N77" t="n">
-        <v>34800</v>
+        <v>34811</v>
       </c>
       <c r="O77" t="n">
-        <v>14808</v>
+        <v>14814</v>
       </c>
       <c r="P77" t="n">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="Q77" t="n">
-        <v>4169.6</v>
+        <v>4169.7</v>
       </c>
       <c r="R77" t="n">
-        <v>5026</v>
+        <v>5029</v>
       </c>
       <c r="S77" t="n">
-        <v>2490</v>
+        <v>2490.9</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5994,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21570</v>
+        <v>21567</v>
       </c>
       <c r="G78" t="n">
         <v>2610</v>
@@ -6003,37 +6003,37 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188813</v>
+        <v>188815</v>
       </c>
       <c r="J78" t="n">
-        <v>119278</v>
+        <v>119302</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58173</v>
+        <v>58174</v>
       </c>
       <c r="M78" t="n">
-        <v>23749</v>
+        <v>23750</v>
       </c>
       <c r="N78" t="n">
-        <v>33287</v>
+        <v>33296</v>
       </c>
       <c r="O78" t="n">
-        <v>14879</v>
+        <v>14885</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
       </c>
       <c r="Q78" t="n">
-        <v>4129.1</v>
+        <v>4129.3</v>
       </c>
       <c r="R78" t="n">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="S78" t="n">
-        <v>2452.6</v>
+        <v>2453.6</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6068,7 +6068,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20667</v>
+        <v>20664</v>
       </c>
       <c r="G79" t="n">
         <v>2530</v>
@@ -6077,37 +6077,37 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193913</v>
+        <v>193915</v>
       </c>
       <c r="J79" t="n">
-        <v>121573</v>
+        <v>121598</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57962</v>
+        <v>57963</v>
       </c>
       <c r="M79" t="n">
-        <v>25080</v>
+        <v>25081</v>
       </c>
       <c r="N79" t="n">
-        <v>33148</v>
+        <v>33158</v>
       </c>
       <c r="O79" t="n">
-        <v>15404</v>
+        <v>15410</v>
       </c>
       <c r="P79" t="n">
         <v>5100</v>
       </c>
       <c r="Q79" t="n">
-        <v>4121.3</v>
+        <v>4121.4</v>
       </c>
       <c r="R79" t="n">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="S79" t="n">
-        <v>2453.4</v>
+        <v>2454.4</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,7 +6142,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19982</v>
+        <v>19979</v>
       </c>
       <c r="G80" t="n">
         <v>2464</v>
@@ -6151,37 +6151,37 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199795</v>
+        <v>199797</v>
       </c>
       <c r="J80" t="n">
-        <v>123049</v>
+        <v>123075</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60082</v>
+        <v>60083</v>
       </c>
       <c r="M80" t="n">
-        <v>27919</v>
+        <v>27920</v>
       </c>
       <c r="N80" t="n">
-        <v>32967</v>
+        <v>32979</v>
       </c>
       <c r="O80" t="n">
-        <v>15628</v>
+        <v>15634</v>
       </c>
       <c r="P80" t="n">
         <v>5882</v>
       </c>
       <c r="Q80" t="n">
-        <v>4423.1</v>
+        <v>4423.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="S80" t="n">
-        <v>2411.4</v>
+        <v>2412.4</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19544</v>
+        <v>19541</v>
       </c>
       <c r="G81" t="n">
         <v>2475</v>
@@ -6225,37 +6225,37 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202022</v>
+        <v>202024</v>
       </c>
       <c r="J81" t="n">
-        <v>123920</v>
+        <v>123946</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57423</v>
+        <v>57424</v>
       </c>
       <c r="M81" t="n">
-        <v>26644</v>
+        <v>26645</v>
       </c>
       <c r="N81" t="n">
-        <v>30620</v>
+        <v>30631</v>
       </c>
       <c r="O81" t="n">
-        <v>14567</v>
+        <v>14573</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306.6</v>
+        <v>4306.7</v>
       </c>
       <c r="R81" t="n">
         <v>871</v>
       </c>
       <c r="S81" t="n">
-        <v>2357</v>
+        <v>2357.9</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,7 +6290,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19364</v>
+        <v>19362</v>
       </c>
       <c r="G82" t="n">
         <v>2421</v>
@@ -6299,37 +6299,37 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204945</v>
+        <v>204947</v>
       </c>
       <c r="J82" t="n">
-        <v>125642</v>
+        <v>125670</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55426</v>
+        <v>55427</v>
       </c>
       <c r="M82" t="n">
-        <v>25239</v>
+        <v>25240</v>
       </c>
       <c r="N82" t="n">
-        <v>29277</v>
+        <v>29289</v>
       </c>
       <c r="O82" t="n">
-        <v>13750</v>
+        <v>13758</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4223.9</v>
+        <v>4224</v>
       </c>
       <c r="R82" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="S82" t="n">
-        <v>2327</v>
+        <v>2328.1</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18919</v>
+        <v>18917</v>
       </c>
       <c r="G83" t="n">
         <v>2348</v>
@@ -6373,37 +6373,37 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208721</v>
+        <v>208723</v>
       </c>
       <c r="J83" t="n">
-        <v>127466</v>
+        <v>127496</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53804</v>
+        <v>53805</v>
       </c>
       <c r="M83" t="n">
         <v>24617</v>
       </c>
       <c r="N83" t="n">
-        <v>27978</v>
+        <v>27991</v>
       </c>
       <c r="O83" t="n">
-        <v>10548</v>
+        <v>10555</v>
       </c>
       <c r="P83" t="n">
         <v>3776</v>
       </c>
       <c r="Q83" t="n">
-        <v>4145</v>
+        <v>4145.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="S83" t="n">
-        <v>2224.9</v>
+        <v>2226.3</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18033</v>
+        <v>18032</v>
       </c>
       <c r="G84" t="n">
         <v>2255</v>
@@ -6447,25 +6447,25 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213331</v>
+        <v>213333</v>
       </c>
       <c r="J84" t="n">
-        <v>129405</v>
+        <v>129437</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53422</v>
+        <v>53423</v>
       </c>
       <c r="M84" t="n">
         <v>24518</v>
       </c>
       <c r="N84" t="n">
-        <v>27295</v>
+        <v>27310</v>
       </c>
       <c r="O84" t="n">
-        <v>10127</v>
+        <v>10135</v>
       </c>
       <c r="P84" t="n">
         <v>4610</v>
@@ -6474,10 +6474,10 @@
         <v>4175.3</v>
       </c>
       <c r="R84" t="n">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="S84" t="n">
-        <v>1783.9</v>
+        <v>1785.1</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17141</v>
+        <v>17140</v>
       </c>
       <c r="G85" t="n">
         <v>2194</v>
@@ -6521,25 +6521,25 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217052</v>
+        <v>217054</v>
       </c>
       <c r="J85" t="n">
-        <v>130760</v>
+        <v>130794</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51988</v>
+        <v>51989</v>
       </c>
       <c r="M85" t="n">
         <v>23139</v>
       </c>
       <c r="N85" t="n">
-        <v>26361</v>
+        <v>26377</v>
       </c>
       <c r="O85" t="n">
-        <v>9187</v>
+        <v>9196</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
@@ -6548,10 +6548,10 @@
         <v>4034.1</v>
       </c>
       <c r="R85" t="n">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="S85" t="n">
-        <v>1640.3</v>
+        <v>1641.7</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16369</v>
+        <v>16368</v>
       </c>
       <c r="G86" t="n">
         <v>2108</v>
@@ -6595,25 +6595,25 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220716</v>
+        <v>220718</v>
       </c>
       <c r="J86" t="n">
-        <v>132236</v>
+        <v>132274</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51883</v>
+        <v>51884</v>
       </c>
       <c r="M86" t="n">
         <v>20921</v>
       </c>
       <c r="N86" t="n">
-        <v>26067</v>
+        <v>26086</v>
       </c>
       <c r="O86" t="n">
-        <v>9187</v>
+        <v>9199</v>
       </c>
       <c r="P86" t="n">
         <v>3664</v>
@@ -6622,10 +6622,10 @@
         <v>3829</v>
       </c>
       <c r="R86" t="n">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="S86" t="n">
-        <v>1523.3</v>
+        <v>1525.1</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16668</v>
+        <v>16667</v>
       </c>
       <c r="G87" t="n">
         <v>2235</v>
@@ -6669,25 +6669,25 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223336</v>
+        <v>223338</v>
       </c>
       <c r="J87" t="n">
-        <v>133023</v>
+        <v>133061</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51460</v>
+        <v>51461</v>
       </c>
       <c r="M87" t="n">
         <v>21314</v>
       </c>
       <c r="N87" t="n">
-        <v>25602</v>
+        <v>25620</v>
       </c>
       <c r="O87" t="n">
-        <v>9103</v>
+        <v>9115</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
@@ -6699,7 +6699,7 @@
         <v>787</v>
       </c>
       <c r="S87" t="n">
-        <v>1424.9</v>
+        <v>1426.6</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16182</v>
+        <v>16181</v>
       </c>
       <c r="G88" t="n">
         <v>2185</v>
@@ -6743,25 +6743,25 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225710</v>
+        <v>225712</v>
       </c>
       <c r="J88" t="n">
-        <v>133532</v>
+        <v>133570</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50332</v>
+        <v>50333</v>
       </c>
       <c r="M88" t="n">
         <v>20765</v>
       </c>
       <c r="N88" t="n">
-        <v>24179</v>
+        <v>24197</v>
       </c>
       <c r="O88" t="n">
-        <v>7890</v>
+        <v>7900</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
@@ -6773,7 +6773,7 @@
         <v>509</v>
       </c>
       <c r="S88" t="n">
-        <v>1373.1</v>
+        <v>1374.9</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16070</v>
+        <v>16069</v>
       </c>
       <c r="G89" t="n">
         <v>2188</v>
@@ -6817,25 +6817,25 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228407</v>
+        <v>228409</v>
       </c>
       <c r="J89" t="n">
-        <v>134603</v>
+        <v>134643</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48701</v>
+        <v>48702</v>
       </c>
       <c r="M89" t="n">
         <v>19686</v>
       </c>
       <c r="N89" t="n">
-        <v>22711</v>
+        <v>22731</v>
       </c>
       <c r="O89" t="n">
-        <v>7137</v>
+        <v>7147</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
@@ -6844,10 +6844,10 @@
         <v>3351.7</v>
       </c>
       <c r="R89" t="n">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="S89" t="n">
-        <v>1280.1</v>
+        <v>1281.9</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15551</v>
+        <v>15550</v>
       </c>
       <c r="G90" t="n">
         <v>2042</v>
@@ -6891,10 +6891,10 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228222</v>
+        <v>228224</v>
       </c>
       <c r="J90" t="n">
-        <v>135874</v>
+        <v>135915</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -6906,10 +6906,10 @@
         <v>14891</v>
       </c>
       <c r="N90" t="n">
-        <v>18956</v>
+        <v>18974</v>
       </c>
       <c r="O90" t="n">
-        <v>6469</v>
+        <v>6478</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
@@ -6918,10 +6918,10 @@
         <v>2785.9</v>
       </c>
       <c r="R90" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="S90" t="n">
-        <v>1201.1</v>
+        <v>1202.7</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6947,7 +6947,7 @@
         <v>1590</v>
       </c>
       <c r="C91" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D91" t="n">
         <v>8627</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14975</v>
+        <v>14974</v>
       </c>
       <c r="G91" t="n">
         <v>1975</v>
@@ -6965,37 +6965,37 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231111</v>
+        <v>231112</v>
       </c>
       <c r="J91" t="n">
-        <v>136827</v>
+        <v>136872</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42298</v>
+        <v>42297</v>
       </c>
       <c r="M91" t="n">
-        <v>14059</v>
+        <v>14058</v>
       </c>
       <c r="N91" t="n">
-        <v>17549</v>
+        <v>17570</v>
       </c>
       <c r="O91" t="n">
-        <v>6067</v>
+        <v>6078</v>
       </c>
       <c r="P91" t="n">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="Q91" t="n">
-        <v>2540</v>
+        <v>2539.9</v>
       </c>
       <c r="R91" t="n">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="S91" t="n">
-        <v>1060.3</v>
+        <v>1062.1</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7021,7 +7021,7 @@
         <v>1692</v>
       </c>
       <c r="C92" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D92" t="n">
         <v>9053</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14354</v>
+        <v>14353</v>
       </c>
       <c r="G92" t="n">
         <v>1868</v>
@@ -7039,10 +7039,10 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234333</v>
+        <v>234335</v>
       </c>
       <c r="J92" t="n">
-        <v>137688</v>
+        <v>137736</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -7054,22 +7054,22 @@
         <v>13617</v>
       </c>
       <c r="N92" t="n">
-        <v>16115</v>
+        <v>16138</v>
       </c>
       <c r="O92" t="n">
-        <v>5452</v>
+        <v>5462</v>
       </c>
       <c r="P92" t="n">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="Q92" t="n">
         <v>2468.7</v>
       </c>
       <c r="R92" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="S92" t="n">
-        <v>989.7</v>
+        <v>991.7</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7104,7 +7104,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15166</v>
+        <v>15164</v>
       </c>
       <c r="G93" t="n">
         <v>2194</v>
@@ -7113,10 +7113,10 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236489</v>
+        <v>236491</v>
       </c>
       <c r="J93" t="n">
-        <v>138205</v>
+        <v>138254</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
@@ -7128,10 +7128,10 @@
         <v>13153</v>
       </c>
       <c r="N93" t="n">
-        <v>15156</v>
+        <v>15179</v>
       </c>
       <c r="O93" t="n">
-        <v>5182</v>
+        <v>5193</v>
       </c>
       <c r="P93" t="n">
         <v>2156</v>
@@ -7140,10 +7140,10 @@
         <v>2253.3</v>
       </c>
       <c r="R93" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S93" t="n">
-        <v>852.7</v>
+        <v>854.3</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>14919</v>
+        <v>14917</v>
       </c>
       <c r="G94" t="n">
         <v>2203</v>
@@ -7187,10 +7187,10 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238147</v>
+        <v>238149</v>
       </c>
       <c r="J94" t="n">
-        <v>138541</v>
+        <v>138590</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
@@ -7202,10 +7202,10 @@
         <v>12437</v>
       </c>
       <c r="N94" t="n">
-        <v>14621</v>
+        <v>14644</v>
       </c>
       <c r="O94" t="n">
-        <v>5009</v>
+        <v>5020</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
@@ -7217,7 +7217,7 @@
         <v>336</v>
       </c>
       <c r="S94" t="n">
-        <v>788.3</v>
+        <v>789.9</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,7 +7252,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14833</v>
+        <v>14831</v>
       </c>
       <c r="G95" t="n">
         <v>2154</v>
@@ -7261,10 +7261,10 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239242</v>
+        <v>239244</v>
       </c>
       <c r="J95" t="n">
-        <v>138798</v>
+        <v>138847</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
@@ -7276,10 +7276,10 @@
         <v>10835</v>
       </c>
       <c r="N95" t="n">
-        <v>13156</v>
+        <v>13177</v>
       </c>
       <c r="O95" t="n">
-        <v>4195</v>
+        <v>4204</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
@@ -7291,7 +7291,7 @@
         <v>257</v>
       </c>
       <c r="S95" t="n">
-        <v>752.3</v>
+        <v>753.9</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7326,7 +7326,7 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14557</v>
+        <v>14555</v>
       </c>
       <c r="G96" t="n">
         <v>2059</v>
@@ -7335,10 +7335,10 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241015</v>
+        <v>241017</v>
       </c>
       <c r="J96" t="n">
-        <v>139597</v>
+        <v>139647</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
@@ -7350,10 +7350,10 @@
         <v>12793</v>
       </c>
       <c r="N96" t="n">
-        <v>12131</v>
+        <v>12151</v>
       </c>
       <c r="O96" t="n">
-        <v>3723</v>
+        <v>3732</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
@@ -7362,10 +7362,10 @@
         <v>1801.1</v>
       </c>
       <c r="R96" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S96" t="n">
-        <v>713.4</v>
+        <v>714.9</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,7 +7400,7 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14234</v>
+        <v>14232</v>
       </c>
       <c r="G97" t="n">
         <v>2009</v>
@@ -7409,10 +7409,10 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243070</v>
+        <v>243072</v>
       </c>
       <c r="J97" t="n">
-        <v>152610</v>
+        <v>152662</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
@@ -7421,13 +7421,13 @@
         <v>29739</v>
       </c>
       <c r="M97" t="n">
-        <v>11959</v>
+        <v>11960</v>
       </c>
       <c r="N97" t="n">
-        <v>23205</v>
+        <v>23225</v>
       </c>
       <c r="O97" t="n">
-        <v>15783</v>
+        <v>15790</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
@@ -7436,10 +7436,10 @@
         <v>2121.1</v>
       </c>
       <c r="R97" t="n">
-        <v>13013</v>
+        <v>13015</v>
       </c>
       <c r="S97" t="n">
-        <v>2390.9</v>
+        <v>2392.4</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13680</v>
+        <v>13679</v>
       </c>
       <c r="G98" t="n">
         <v>1901</v>
@@ -7483,10 +7483,10 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246017</v>
+        <v>246019</v>
       </c>
       <c r="J98" t="n">
-        <v>153421</v>
+        <v>153479</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
@@ -7498,22 +7498,22 @@
         <v>11684</v>
       </c>
       <c r="N98" t="n">
-        <v>22661</v>
+        <v>22685</v>
       </c>
       <c r="O98" t="n">
-        <v>15733</v>
+        <v>15743</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2129.4</v>
+        <v>2129.6</v>
       </c>
       <c r="R98" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="S98" t="n">
-        <v>2370.6</v>
+        <v>2372.4</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7548,7 +7548,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13087</v>
+        <v>13086</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,10 +7557,10 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246392</v>
+        <v>246394</v>
       </c>
       <c r="J99" t="n">
-        <v>154111</v>
+        <v>154170</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
@@ -7572,10 +7572,10 @@
         <v>9903</v>
       </c>
       <c r="N99" t="n">
-        <v>21875</v>
+        <v>21896</v>
       </c>
       <c r="O99" t="n">
-        <v>15906</v>
+        <v>15916</v>
       </c>
       <c r="P99" t="n">
         <v>375</v>
@@ -7584,10 +7584,10 @@
         <v>1722.7</v>
       </c>
       <c r="R99" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="S99" t="n">
-        <v>2346.1</v>
+        <v>2347.7</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7631,10 +7631,10 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250926</v>
+        <v>250928</v>
       </c>
       <c r="J100" t="n">
-        <v>154771</v>
+        <v>154831</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
@@ -7646,10 +7646,10 @@
         <v>12779</v>
       </c>
       <c r="N100" t="n">
-        <v>21748</v>
+        <v>21770</v>
       </c>
       <c r="O100" t="n">
-        <v>16230</v>
+        <v>16241</v>
       </c>
       <c r="P100" t="n">
         <v>4534</v>
@@ -7658,10 +7658,10 @@
         <v>2062.4</v>
       </c>
       <c r="R100" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S100" t="n">
-        <v>2366.6</v>
+        <v>2368.1</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7705,10 +7705,10 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252744</v>
+        <v>252746</v>
       </c>
       <c r="J101" t="n">
-        <v>155065</v>
+        <v>155125</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
@@ -7720,10 +7720,10 @@
         <v>13502</v>
       </c>
       <c r="N101" t="n">
-        <v>21533</v>
+        <v>21555</v>
       </c>
       <c r="O101" t="n">
-        <v>16267</v>
+        <v>16278</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
@@ -7735,7 +7735,7 @@
         <v>294</v>
       </c>
       <c r="S101" t="n">
-        <v>2360.6</v>
+        <v>2362.1</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11687</v>
+        <v>11688</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,10 +7779,10 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251701</v>
+        <v>251703</v>
       </c>
       <c r="J102" t="n">
-        <v>155293</v>
+        <v>155353</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
@@ -7794,10 +7794,10 @@
         <v>10686</v>
       </c>
       <c r="N102" t="n">
-        <v>20690</v>
+        <v>20710</v>
       </c>
       <c r="O102" t="n">
-        <v>15696</v>
+        <v>15706</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
@@ -7809,7 +7809,7 @@
         <v>228</v>
       </c>
       <c r="S102" t="n">
-        <v>2356.4</v>
+        <v>2358</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7853,10 +7853,10 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255327</v>
+        <v>255329</v>
       </c>
       <c r="J103" t="n">
-        <v>155857</v>
+        <v>155917</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
@@ -7868,10 +7868,10 @@
         <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>19983</v>
+        <v>20002</v>
       </c>
       <c r="O103" t="n">
-        <v>3247</v>
+        <v>3255</v>
       </c>
       <c r="P103" t="n">
         <v>3626</v>
@@ -7883,7 +7883,7 @@
         <v>564</v>
       </c>
       <c r="S103" t="n">
-        <v>2322.9</v>
+        <v>2324.3</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11264</v>
+        <v>11263</v>
       </c>
       <c r="G104" t="n">
         <v>1499</v>
@@ -7927,25 +7927,25 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257007</v>
+        <v>257009</v>
       </c>
       <c r="J104" t="n">
-        <v>156518</v>
+        <v>156582</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25896</v>
+        <v>25897</v>
       </c>
       <c r="M104" t="n">
         <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19691</v>
+        <v>19710</v>
       </c>
       <c r="O104" t="n">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
@@ -7954,10 +7954,10 @@
         <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="S104" t="n">
-        <v>558.3</v>
+        <v>560</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -8001,10 +8001,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258606</v>
+        <v>258608</v>
       </c>
       <c r="J105" t="n">
-        <v>157200</v>
+        <v>157270</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -8016,10 +8016,10 @@
         <v>12214</v>
       </c>
       <c r="N105" t="n">
-        <v>19512</v>
+        <v>19534</v>
       </c>
       <c r="O105" t="n">
-        <v>3089</v>
+        <v>3100</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
@@ -8028,10 +8028,10 @@
         <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="S105" t="n">
-        <v>539.9</v>
+        <v>541.6</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8075,10 +8075,10 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203390</v>
+        <v>203392</v>
       </c>
       <c r="J106" t="n">
-        <v>185123</v>
+        <v>185196</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -8090,10 +8090,10 @@
         <v>-47536</v>
       </c>
       <c r="N106" t="n">
-        <v>46918</v>
+        <v>46942</v>
       </c>
       <c r="O106" t="n">
-        <v>30352</v>
+        <v>30365</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6143.1</v>
       </c>
       <c r="R106" t="n">
-        <v>27923</v>
+        <v>27926</v>
       </c>
       <c r="S106" t="n">
-        <v>4430.3</v>
+        <v>4432.3</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8140,7 +8140,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="G107" t="n">
         <v>1391</v>
@@ -8149,10 +8149,10 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204685</v>
+        <v>204687</v>
       </c>
       <c r="J107" t="n">
-        <v>198542</v>
+        <v>198616</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
@@ -8164,10 +8164,10 @@
         <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60001</v>
+        <v>60026</v>
       </c>
       <c r="O107" t="n">
-        <v>43477</v>
+        <v>43491</v>
       </c>
       <c r="P107" t="n">
         <v>1295</v>
@@ -8176,10 +8176,10 @@
         <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13419</v>
+        <v>13420</v>
       </c>
       <c r="S107" t="n">
-        <v>6253</v>
+        <v>6255</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,7 +8214,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9743</v>
+        <v>9744</v>
       </c>
       <c r="G108" t="n">
         <v>1354</v>
@@ -8223,10 +8223,10 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205298</v>
+        <v>205300</v>
       </c>
       <c r="J108" t="n">
-        <v>198864</v>
+        <v>198937</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
@@ -8238,10 +8238,10 @@
         <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60066</v>
+        <v>60090</v>
       </c>
       <c r="O108" t="n">
-        <v>43571</v>
+        <v>43584</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
@@ -8250,10 +8250,10 @@
         <v>-6778</v>
       </c>
       <c r="R108" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S108" t="n">
-        <v>6257</v>
+        <v>6258.9</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8279,7 +8279,7 @@
         <v>135</v>
       </c>
       <c r="C109" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D109" t="n">
         <v>12443</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9614</v>
+        <v>9615</v>
       </c>
       <c r="G109" t="n">
         <v>1319</v>
@@ -8297,37 +8297,37 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205647</v>
+        <v>205648</v>
       </c>
       <c r="J109" t="n">
-        <v>199113</v>
+        <v>199185</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35368</v>
+        <v>-35369</v>
       </c>
       <c r="M109" t="n">
-        <v>-49680</v>
+        <v>-49681</v>
       </c>
       <c r="N109" t="n">
-        <v>59516</v>
+        <v>59538</v>
       </c>
       <c r="O109" t="n">
-        <v>43256</v>
+        <v>43268</v>
       </c>
       <c r="P109" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6579.1</v>
+        <v>-6579.3</v>
       </c>
       <c r="R109" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S109" t="n">
-        <v>6260</v>
+        <v>6261.7</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8371,37 +8371,37 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179130</v>
+        <v>179131</v>
       </c>
       <c r="J110" t="n">
-        <v>224427</v>
+        <v>224501</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63940</v>
+        <v>-63941</v>
       </c>
       <c r="M110" t="n">
-        <v>-77877</v>
+        <v>-77878</v>
       </c>
       <c r="N110" t="n">
-        <v>71817</v>
+        <v>71839</v>
       </c>
       <c r="O110" t="n">
-        <v>67909</v>
+        <v>67919</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10885.3</v>
+        <v>-10885.4</v>
       </c>
       <c r="R110" t="n">
-        <v>25314</v>
+        <v>25316</v>
       </c>
       <c r="S110" t="n">
-        <v>9795.7</v>
+        <v>9797.7</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8445,37 +8445,37 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175034</v>
+        <v>175035</v>
       </c>
       <c r="J111" t="n">
-        <v>230677</v>
+        <v>230756</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70983</v>
+        <v>-70984</v>
       </c>
       <c r="M111" t="n">
-        <v>-83572</v>
+        <v>-83573</v>
       </c>
       <c r="N111" t="n">
-        <v>77256</v>
+        <v>77277</v>
       </c>
       <c r="O111" t="n">
-        <v>73477</v>
+        <v>73486</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
       </c>
       <c r="Q111" t="n">
-        <v>-11710.4</v>
+        <v>-11710.6</v>
       </c>
       <c r="R111" t="n">
-        <v>6250</v>
+        <v>6255</v>
       </c>
       <c r="S111" t="n">
-        <v>10594.1</v>
+        <v>10596.3</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8501,7 +8501,7 @@
         <v>53</v>
       </c>
       <c r="C112" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D112" t="n">
         <v>12514</v>
@@ -8522,34 +8522,34 @@
         <v>175597</v>
       </c>
       <c r="J112" t="n">
-        <v>231438</v>
+        <v>231516</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70795</v>
+        <v>-70797</v>
       </c>
       <c r="M112" t="n">
-        <v>-27793</v>
+        <v>-27795</v>
       </c>
       <c r="N112" t="n">
-        <v>77327</v>
+        <v>77346</v>
       </c>
       <c r="O112" t="n">
-        <v>46315</v>
+        <v>46320</v>
       </c>
       <c r="P112" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q112" t="n">
-        <v>-11858.4</v>
+        <v>-11858.7</v>
       </c>
       <c r="R112" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S112" t="n">
-        <v>10605.4</v>
+        <v>10606.6</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8575,7 +8575,7 @@
         <v>62</v>
       </c>
       <c r="C113" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D113" t="n">
         <v>42</v>
@@ -8584,7 +8584,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8598</v>
+        <v>8597</v>
       </c>
       <c r="G113" t="n">
         <v>763</v>
@@ -8593,37 +8593,37 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83769</v>
+        <v>83770</v>
       </c>
       <c r="J113" t="n">
-        <v>232293</v>
+        <v>232375</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167157</v>
+        <v>-167158</v>
       </c>
       <c r="M113" t="n">
-        <v>-120916</v>
+        <v>-120917</v>
       </c>
       <c r="N113" t="n">
-        <v>77522</v>
+        <v>77544</v>
       </c>
       <c r="O113" t="n">
-        <v>33751</v>
+        <v>33759</v>
       </c>
       <c r="P113" t="n">
-        <v>-91828</v>
+        <v>-91827</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.7</v>
+        <v>-17088.9</v>
       </c>
       <c r="R113" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="S113" t="n">
-        <v>6738.6</v>
+        <v>6739.9</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8649,7 +8649,7 @@
         <v>69</v>
       </c>
       <c r="C114" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D114" t="n">
         <v>35</v>
@@ -8658,7 +8658,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8287</v>
+        <v>8286</v>
       </c>
       <c r="G114" t="n">
         <v>696</v>
@@ -8670,34 +8670,34 @@
         <v>84257</v>
       </c>
       <c r="J114" t="n">
-        <v>233153</v>
+        <v>233234</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168487</v>
+        <v>-168489</v>
       </c>
       <c r="M114" t="n">
-        <v>-121041</v>
+        <v>-121043</v>
       </c>
       <c r="N114" t="n">
-        <v>78088</v>
+        <v>78109</v>
       </c>
       <c r="O114" t="n">
-        <v>34289</v>
+        <v>34297</v>
       </c>
       <c r="P114" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q114" t="n">
-        <v>-17204</v>
+        <v>-17204.3</v>
       </c>
       <c r="R114" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="S114" t="n">
-        <v>4944.4</v>
+        <v>4945.4</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8055</v>
+        <v>8054</v>
       </c>
       <c r="G115" t="n">
         <v>704</v>
@@ -8744,34 +8744,34 @@
         <v>84471</v>
       </c>
       <c r="J115" t="n">
-        <v>233478</v>
+        <v>233562</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167230</v>
+        <v>-167232</v>
       </c>
       <c r="M115" t="n">
-        <v>-121176</v>
+        <v>-121177</v>
       </c>
       <c r="N115" t="n">
-        <v>78185</v>
+        <v>78209</v>
       </c>
       <c r="O115" t="n">
-        <v>34365</v>
+        <v>34377</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
       </c>
       <c r="Q115" t="n">
-        <v>-17261</v>
+        <v>-17261.3</v>
       </c>
       <c r="R115" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="S115" t="n">
-        <v>4944.9</v>
+        <v>4946.4</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7943</v>
+        <v>7942</v>
       </c>
       <c r="G116" t="n">
         <v>677</v>
@@ -8818,34 +8818,34 @@
         <v>84631</v>
       </c>
       <c r="J116" t="n">
-        <v>233766</v>
+        <v>233850</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170696</v>
+        <v>-170698</v>
       </c>
       <c r="M116" t="n">
-        <v>-94499</v>
+        <v>-94500</v>
       </c>
       <c r="N116" t="n">
-        <v>77909</v>
+        <v>77933</v>
       </c>
       <c r="O116" t="n">
-        <v>9339</v>
+        <v>9349</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
       </c>
       <c r="Q116" t="n">
-        <v>-17288</v>
+        <v>-17288.1</v>
       </c>
       <c r="R116" t="n">
         <v>288</v>
       </c>
       <c r="S116" t="n">
-        <v>4950.4</v>
+        <v>4952.1</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8880,7 +8880,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7886</v>
+        <v>7885</v>
       </c>
       <c r="G117" t="n">
         <v>658</v>
@@ -8892,34 +8892,34 @@
         <v>84977</v>
       </c>
       <c r="J117" t="n">
-        <v>234290</v>
+        <v>234378</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172030</v>
+        <v>-172032</v>
       </c>
       <c r="M117" t="n">
-        <v>-90057</v>
+        <v>-90058</v>
       </c>
       <c r="N117" t="n">
-        <v>77772</v>
+        <v>77796</v>
       </c>
       <c r="O117" t="n">
-        <v>3613</v>
+        <v>3622</v>
       </c>
       <c r="P117" t="n">
         <v>346</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13450.4</v>
+        <v>-13450.6</v>
       </c>
       <c r="R117" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="S117" t="n">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7732</v>
+        <v>7731</v>
       </c>
       <c r="G118" t="n">
         <v>644</v>
@@ -8966,34 +8966,34 @@
         <v>85356</v>
       </c>
       <c r="J118" t="n">
-        <v>234967</v>
+        <v>235062</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173250</v>
+        <v>-173252</v>
       </c>
       <c r="M118" t="n">
         <v>-90241</v>
       </c>
       <c r="N118" t="n">
-        <v>77767</v>
+        <v>77792</v>
       </c>
       <c r="O118" t="n">
-        <v>3529</v>
+        <v>3546</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.1</v>
+        <v>-12811.3</v>
       </c>
       <c r="R118" t="n">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S118" t="n">
-        <v>612.9</v>
+        <v>615.1</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="G119" t="n">
         <v>597</v>
@@ -9040,22 +9040,22 @@
         <v>85747</v>
       </c>
       <c r="J119" t="n">
-        <v>235713</v>
+        <v>235811</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117643</v>
+        <v>-117645</v>
       </c>
       <c r="M119" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="N119" t="n">
-        <v>50590</v>
+        <v>50615</v>
       </c>
       <c r="O119" t="n">
-        <v>3420</v>
+        <v>3436</v>
       </c>
       <c r="P119" t="n">
         <v>391</v>
@@ -9064,10 +9064,10 @@
         <v>-12835.7</v>
       </c>
       <c r="R119" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="S119" t="n">
-        <v>610.7</v>
+        <v>613.6</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="G120" t="n">
         <v>534</v>
@@ -9114,34 +9114,34 @@
         <v>83963</v>
       </c>
       <c r="J120" t="n">
-        <v>236388</v>
+        <v>236492</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
       </c>
       <c r="L120" t="n">
-        <v>-120722</v>
+        <v>-120724</v>
       </c>
       <c r="M120" t="n">
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>37846</v>
+        <v>37876</v>
       </c>
       <c r="O120" t="n">
-        <v>3235</v>
+        <v>3258</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
       </c>
       <c r="Q120" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="R120" t="n">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="S120" t="n">
-        <v>585</v>
+        <v>588.1</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9167,7 +9167,7 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D121" t="n">
         <v>26</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="G121" t="n">
         <v>529</v>
@@ -9185,37 +9185,37 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86347</v>
+        <v>86346</v>
       </c>
       <c r="J121" t="n">
-        <v>237096</v>
+        <v>237200</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
       </c>
       <c r="L121" t="n">
-        <v>-118951</v>
+        <v>-118954</v>
       </c>
       <c r="M121" t="n">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38232</v>
+        <v>38263</v>
       </c>
       <c r="O121" t="n">
-        <v>3618</v>
+        <v>3638</v>
       </c>
       <c r="P121" t="n">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="Q121" t="n">
-        <v>298.6</v>
+        <v>298.4</v>
       </c>
       <c r="R121" t="n">
         <v>708</v>
       </c>
       <c r="S121" t="n">
-        <v>563.3</v>
+        <v>566.6</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9241,7 +9241,7 @@
         <v>73</v>
       </c>
       <c r="C122" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D122" t="n">
         <v>5</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="G122" t="n">
         <v>508</v>
@@ -9262,34 +9262,34 @@
         <v>86488</v>
       </c>
       <c r="J122" t="n">
-        <v>237449</v>
+        <v>237555</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119159</v>
+        <v>-119160</v>
       </c>
       <c r="M122" t="n">
         <v>1857</v>
       </c>
       <c r="N122" t="n">
-        <v>38336</v>
+        <v>38370</v>
       </c>
       <c r="O122" t="n">
-        <v>3683</v>
+        <v>3705</v>
       </c>
       <c r="P122" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q122" t="n">
         <v>288.1</v>
       </c>
       <c r="R122" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S122" t="n">
-        <v>567.3</v>
+        <v>570.4</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="G123" t="n">
         <v>513</v>
@@ -9336,22 +9336,22 @@
         <v>86535</v>
       </c>
       <c r="J123" t="n">
-        <v>237717</v>
+        <v>237824</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92595</v>
+        <v>-92596</v>
       </c>
       <c r="M123" t="n">
         <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13290</v>
+        <v>13323</v>
       </c>
       <c r="O123" t="n">
-        <v>3427</v>
+        <v>3446</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9360,10 +9360,10 @@
         <v>272</v>
       </c>
       <c r="R123" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S123" t="n">
-        <v>564.4</v>
+        <v>567.7</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="G124" t="n">
         <v>508</v>
@@ -9410,22 +9410,22 @@
         <v>86612</v>
       </c>
       <c r="J124" t="n">
-        <v>238068</v>
+        <v>238176</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88422</v>
+        <v>-88423</v>
       </c>
       <c r="M124" t="n">
         <v>1256</v>
       </c>
       <c r="N124" t="n">
-        <v>7391</v>
+        <v>7420</v>
       </c>
       <c r="O124" t="n">
-        <v>3101</v>
+        <v>3114</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>233.6</v>
       </c>
       <c r="R124" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S124" t="n">
-        <v>539.7</v>
+        <v>542.6</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9463,7 +9463,7 @@
         <v>25</v>
       </c>
       <c r="C125" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D125" t="n">
         <v>28</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="G125" t="n">
         <v>470</v>
@@ -9481,37 +9481,37 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84789</v>
+        <v>84788</v>
       </c>
       <c r="J125" t="n">
-        <v>238656</v>
+        <v>238766</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90808</v>
+        <v>-90809</v>
       </c>
       <c r="M125" t="n">
-        <v>-958</v>
+        <v>-959</v>
       </c>
       <c r="N125" t="n">
-        <v>7218</v>
+        <v>7250</v>
       </c>
       <c r="O125" t="n">
-        <v>2943</v>
+        <v>2955</v>
       </c>
       <c r="P125" t="n">
-        <v>-1823</v>
+        <v>-1824</v>
       </c>
       <c r="Q125" t="n">
-        <v>-81</v>
+        <v>-81.1</v>
       </c>
       <c r="R125" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S125" t="n">
-        <v>527</v>
+        <v>529.1</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="G126" t="n">
         <v>444</v>
@@ -9555,37 +9555,37 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87120</v>
+        <v>87119</v>
       </c>
       <c r="J126" t="n">
-        <v>239281</v>
+        <v>239397</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="M126" t="n">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="N126" t="n">
-        <v>6988</v>
+        <v>7022</v>
       </c>
       <c r="O126" t="n">
-        <v>2893</v>
+        <v>2905</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
       </c>
       <c r="Q126" t="n">
-        <v>196.1</v>
+        <v>196</v>
       </c>
       <c r="R126" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="S126" t="n">
-        <v>509.7</v>
+        <v>512.3</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="G127" t="n">
         <v>422</v>
@@ -9629,37 +9629,37 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94592</v>
+        <v>94591</v>
       </c>
       <c r="J127" t="n">
-        <v>239835</v>
+        <v>239952</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10335</v>
+        <v>10334</v>
       </c>
       <c r="M127" t="n">
         <v>8245</v>
       </c>
       <c r="N127" t="n">
-        <v>6682</v>
+        <v>6718</v>
       </c>
       <c r="O127" t="n">
-        <v>2739</v>
+        <v>2752</v>
       </c>
       <c r="P127" t="n">
         <v>7472</v>
       </c>
       <c r="Q127" t="n">
-        <v>1518.4</v>
+        <v>1518.3</v>
       </c>
       <c r="R127" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="S127" t="n">
-        <v>492.4</v>
+        <v>494.3</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="G128" t="n">
         <v>400</v>
@@ -9703,25 +9703,25 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97103</v>
+        <v>97102</v>
       </c>
       <c r="J128" t="n">
-        <v>242527</v>
+        <v>242646</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12632</v>
+        <v>12631</v>
       </c>
       <c r="M128" t="n">
-        <v>10615</v>
+        <v>10614</v>
       </c>
       <c r="N128" t="n">
-        <v>9049</v>
+        <v>9084</v>
       </c>
       <c r="O128" t="n">
-        <v>5078</v>
+        <v>5091</v>
       </c>
       <c r="P128" t="n">
         <v>2511</v>
@@ -9730,10 +9730,10 @@
         <v>1536.6</v>
       </c>
       <c r="R128" t="n">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="S128" t="n">
-        <v>775.9</v>
+        <v>778</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="G129" t="n">
         <v>401</v>
@@ -9777,37 +9777,37 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97095</v>
+        <v>97094</v>
       </c>
       <c r="J129" t="n">
-        <v>242870</v>
+        <v>242990</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12464</v>
+        <v>12463</v>
       </c>
       <c r="M129" t="n">
-        <v>10560</v>
+        <v>10559</v>
       </c>
       <c r="N129" t="n">
-        <v>9104</v>
+        <v>9140</v>
       </c>
       <c r="O129" t="n">
-        <v>5153</v>
+        <v>5166</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
       </c>
       <c r="Q129" t="n">
-        <v>1515.3</v>
+        <v>1515.1</v>
       </c>
       <c r="R129" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S129" t="n">
-        <v>774.4</v>
+        <v>776.4</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="G130" t="n">
         <v>400</v>
@@ -9851,37 +9851,37 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97252</v>
+        <v>97251</v>
       </c>
       <c r="J130" t="n">
-        <v>243466</v>
+        <v>243586</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12275</v>
+        <v>12274</v>
       </c>
       <c r="M130" t="n">
-        <v>10640</v>
+        <v>10639</v>
       </c>
       <c r="N130" t="n">
-        <v>9176</v>
+        <v>9208</v>
       </c>
       <c r="O130" t="n">
-        <v>5398</v>
+        <v>5410</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
       </c>
       <c r="Q130" t="n">
-        <v>1531</v>
+        <v>1530.9</v>
       </c>
       <c r="R130" t="n">
         <v>596</v>
       </c>
       <c r="S130" t="n">
-        <v>821.3</v>
+        <v>823.1</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G131" t="n">
         <v>391</v>
@@ -9925,37 +9925,37 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97397</v>
+        <v>97396</v>
       </c>
       <c r="J131" t="n">
-        <v>243781</v>
+        <v>243904</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12041</v>
+        <v>12040</v>
       </c>
       <c r="M131" t="n">
         <v>12608</v>
       </c>
       <c r="N131" t="n">
-        <v>8814</v>
+        <v>8842</v>
       </c>
       <c r="O131" t="n">
-        <v>5125</v>
+        <v>5138</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
       </c>
       <c r="Q131" t="n">
-        <v>1540.7</v>
+        <v>1540.6</v>
       </c>
       <c r="R131" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="S131" t="n">
-        <v>816.1</v>
+        <v>818.3</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G132" t="n">
         <v>372</v>
@@ -9999,25 +9999,25 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97570</v>
+        <v>97569</v>
       </c>
       <c r="J132" t="n">
-        <v>244193</v>
+        <v>244319</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11823</v>
+        <v>11822</v>
       </c>
       <c r="M132" t="n">
         <v>10450</v>
       </c>
       <c r="N132" t="n">
-        <v>8480</v>
+        <v>8508</v>
       </c>
       <c r="O132" t="n">
-        <v>4912</v>
+        <v>4922</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
@@ -10026,10 +10026,10 @@
         <v>1825.9</v>
       </c>
       <c r="R132" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="S132" t="n">
-        <v>791</v>
+        <v>793.3</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,7 +10064,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G133" t="n">
         <v>334</v>
@@ -10073,25 +10073,25 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97778</v>
+        <v>97777</v>
       </c>
       <c r="J133" t="n">
-        <v>244630</v>
+        <v>244761</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13815</v>
+        <v>13814</v>
       </c>
       <c r="M133" t="n">
         <v>3186</v>
       </c>
       <c r="N133" t="n">
-        <v>8242</v>
+        <v>8269</v>
       </c>
       <c r="O133" t="n">
-        <v>4795</v>
+        <v>4809</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
@@ -10100,10 +10100,10 @@
         <v>1522.6</v>
       </c>
       <c r="R133" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="S133" t="n">
-        <v>764.1</v>
+        <v>766.3</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,7 +10138,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G134" t="n">
         <v>333</v>
@@ -10147,10 +10147,10 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97931</v>
+        <v>97930</v>
       </c>
       <c r="J134" t="n">
-        <v>245053</v>
+        <v>245188</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -10162,10 +10162,10 @@
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>7957</v>
+        <v>7988</v>
       </c>
       <c r="O134" t="n">
-        <v>2526</v>
+        <v>2542</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
@@ -10174,10 +10174,10 @@
         <v>477</v>
       </c>
       <c r="R134" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="S134" t="n">
-        <v>745.4</v>
+        <v>748</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G135" t="n">
         <v>322</v>
@@ -10221,25 +10221,25 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98139</v>
+        <v>98138</v>
       </c>
       <c r="J135" t="n">
-        <v>245529</v>
+        <v>245666</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11651</v>
+        <v>11650</v>
       </c>
       <c r="M135" t="n">
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8080</v>
+        <v>8111</v>
       </c>
       <c r="O135" t="n">
-        <v>2659</v>
+        <v>2676</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S135" t="n">
-        <v>428.9</v>
+        <v>431.4</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,7 +10286,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G136" t="n">
         <v>292</v>
@@ -10295,25 +10295,25 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98196</v>
+        <v>98195</v>
       </c>
       <c r="J136" t="n">
-        <v>245664</v>
+        <v>245801</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11661</v>
+        <v>11660</v>
       </c>
       <c r="M136" t="n">
         <v>944</v>
       </c>
       <c r="N136" t="n">
-        <v>7947</v>
+        <v>7977</v>
       </c>
       <c r="O136" t="n">
-        <v>2198</v>
+        <v>2215</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
@@ -10325,7 +10325,7 @@
         <v>135</v>
       </c>
       <c r="S136" t="n">
-        <v>399.1</v>
+        <v>401.6</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,7 +10360,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G137" t="n">
         <v>284</v>
@@ -10369,25 +10369,25 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98232</v>
+        <v>98231</v>
       </c>
       <c r="J137" t="n">
-        <v>245764</v>
+        <v>245903</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="M137" t="n">
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7696</v>
+        <v>7727</v>
       </c>
       <c r="O137" t="n">
-        <v>1983</v>
+        <v>1999</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
@@ -10396,10 +10396,10 @@
         <v>140</v>
       </c>
       <c r="R137" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S137" t="n">
-        <v>328.3</v>
+        <v>331</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,7 +10434,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G138" t="n">
         <v>299</v>
@@ -10443,10 +10443,10 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98344</v>
+        <v>98343</v>
       </c>
       <c r="J138" t="n">
-        <v>246112</v>
+        <v>246252</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10458,10 +10458,10 @@
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7456</v>
+        <v>7486</v>
       </c>
       <c r="O138" t="n">
-        <v>1919</v>
+        <v>1933</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S138" t="n">
-        <v>333</v>
+        <v>335.4</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,19 +10508,19 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G139" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H139" t="n">
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98521</v>
+        <v>98520</v>
       </c>
       <c r="J139" t="n">
-        <v>244292</v>
+        <v>244434</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10532,10 +10532,10 @@
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5011</v>
+        <v>5037</v>
       </c>
       <c r="O139" t="n">
-        <v>-338</v>
+        <v>-327</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1820</v>
+        <v>-1818</v>
       </c>
       <c r="S139" t="n">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G140" t="n">
         <v>275</v>
@@ -10591,10 +10591,10 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98661</v>
+        <v>98660</v>
       </c>
       <c r="J140" t="n">
-        <v>244640</v>
+        <v>244787</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10606,10 +10606,10 @@
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4805</v>
+        <v>4835</v>
       </c>
       <c r="O140" t="n">
-        <v>-413</v>
+        <v>-401</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="S140" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10656,7 +10656,7 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G141" t="n">
         <v>260</v>
@@ -10665,10 +10665,10 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98874</v>
+        <v>98873</v>
       </c>
       <c r="J141" t="n">
-        <v>245148</v>
+        <v>245297</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10680,10 +10680,10 @@
         <v>735</v>
       </c>
       <c r="N141" t="n">
-        <v>2621</v>
+        <v>2651</v>
       </c>
       <c r="O141" t="n">
-        <v>-381</v>
+        <v>-369</v>
       </c>
       <c r="P141" t="n">
         <v>213</v>
@@ -10692,10 +10692,10 @@
         <v>134.7</v>
       </c>
       <c r="R141" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="S141" t="n">
-        <v>13.6</v>
+        <v>15.6</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,7 +10730,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G142" t="n">
         <v>237</v>
@@ -10739,10 +10739,10 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99060</v>
+        <v>99059</v>
       </c>
       <c r="J142" t="n">
-        <v>245537</v>
+        <v>245688</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10754,10 +10754,10 @@
         <v>864</v>
       </c>
       <c r="N142" t="n">
-        <v>2667</v>
+        <v>2698</v>
       </c>
       <c r="O142" t="n">
-        <v>-127</v>
+        <v>-113</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10766,10 +10766,10 @@
         <v>131.6</v>
       </c>
       <c r="R142" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S142" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,7 +10804,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G143" t="n">
         <v>225</v>
@@ -10813,10 +10813,10 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99143</v>
+        <v>99142</v>
       </c>
       <c r="J143" t="n">
-        <v>245766</v>
+        <v>245918</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10828,10 +10828,10 @@
         <v>911</v>
       </c>
       <c r="N143" t="n">
-        <v>2300</v>
+        <v>2332</v>
       </c>
       <c r="O143" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
@@ -10840,10 +10840,10 @@
         <v>135.3</v>
       </c>
       <c r="R143" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S143" t="n">
-        <v>14.6</v>
+        <v>16.7</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,7 +10878,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G144" t="n">
         <v>230</v>
@@ -10887,10 +10887,10 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99199</v>
+        <v>99198</v>
       </c>
       <c r="J144" t="n">
-        <v>245962</v>
+        <v>246114</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>855</v>
       </c>
       <c r="N144" t="n">
-        <v>2181</v>
+        <v>2210</v>
       </c>
       <c r="O144" t="n">
-        <v>-150</v>
+        <v>-138</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10917,7 +10917,7 @@
         <v>196</v>
       </c>
       <c r="S144" t="n">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G145" t="n">
         <v>212</v>
@@ -10961,10 +10961,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99322</v>
+        <v>99321</v>
       </c>
       <c r="J145" t="n">
-        <v>246204</v>
+        <v>246357</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>801</v>
       </c>
       <c r="N145" t="n">
-        <v>2011</v>
+        <v>2038</v>
       </c>
       <c r="O145" t="n">
-        <v>1912</v>
+        <v>1923</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10988,10 +10988,10 @@
         <v>139.7</v>
       </c>
       <c r="R145" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S145" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,7 +11026,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G146" t="n">
         <v>203</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99391</v>
+        <v>99390</v>
       </c>
       <c r="J146" t="n">
-        <v>246572</v>
+        <v>246729</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>730</v>
       </c>
       <c r="N146" t="n">
+        <v>1968</v>
+      </c>
+      <c r="O146" t="n">
         <v>1942</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1932</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11062,10 +11062,10 @@
         <v>124.3</v>
       </c>
       <c r="R146" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="S146" t="n">
-        <v>325.7</v>
+        <v>327.9</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11100,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G147" t="n">
         <v>203</v>
@@ -11109,10 +11109,10 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97314</v>
+        <v>97313</v>
       </c>
       <c r="J147" t="n">
-        <v>246906</v>
+        <v>247067</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,10 +11124,10 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>1853</v>
+        <v>1879</v>
       </c>
       <c r="O147" t="n">
-        <v>1758</v>
+        <v>1770</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.4</v>
       </c>
       <c r="R147" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="S147" t="n">
-        <v>323.7</v>
+        <v>325.7</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11183,10 +11183,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99767</v>
+        <v>99766</v>
       </c>
       <c r="J148" t="n">
-        <v>247302</v>
+        <v>247465</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>707</v>
       </c>
       <c r="N148" t="n">
-        <v>1773</v>
+        <v>1799</v>
       </c>
       <c r="O148" t="n">
-        <v>1765</v>
+        <v>1777</v>
       </c>
       <c r="P148" t="n">
         <v>2453</v>
@@ -11210,10 +11210,10 @@
         <v>127.6</v>
       </c>
       <c r="R148" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="S148" t="n">
-        <v>307.7</v>
+        <v>309.7</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11257,10 +11257,10 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>100055</v>
+        <v>100054</v>
       </c>
       <c r="J149" t="n">
-        <v>247863</v>
+        <v>248027</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11272,10 +11272,10 @@
         <v>912</v>
       </c>
       <c r="N149" t="n">
-        <v>2199</v>
+        <v>2226</v>
       </c>
       <c r="O149" t="n">
-        <v>2097</v>
+        <v>2109</v>
       </c>
       <c r="P149" t="n">
         <v>288</v>
@@ -11284,10 +11284,10 @@
         <v>142.1</v>
       </c>
       <c r="R149" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S149" t="n">
-        <v>332.3</v>
+        <v>334.1</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11331,10 +11331,10 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97885</v>
+        <v>97884</v>
       </c>
       <c r="J150" t="n">
-        <v>248122</v>
+        <v>248286</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>-1314</v>
       </c>
       <c r="N150" t="n">
-        <v>2358</v>
+        <v>2383</v>
       </c>
       <c r="O150" t="n">
-        <v>2160</v>
+        <v>2172</v>
       </c>
       <c r="P150" t="n">
         <v>-2170</v>
@@ -11361,7 +11361,7 @@
         <v>259</v>
       </c>
       <c r="S150" t="n">
-        <v>336.6</v>
+        <v>338.3</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11405,10 +11405,10 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97980</v>
+        <v>97979</v>
       </c>
       <c r="J151" t="n">
-        <v>248318</v>
+        <v>248483</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11420,10 +11420,10 @@
         <v>-1342</v>
       </c>
       <c r="N151" t="n">
-        <v>2206</v>
+        <v>2231</v>
       </c>
       <c r="O151" t="n">
-        <v>2114</v>
+        <v>2126</v>
       </c>
       <c r="P151" t="n">
         <v>95</v>
@@ -11432,10 +11432,10 @@
         <v>-174.1</v>
       </c>
       <c r="R151" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S151" t="n">
-        <v>336.6</v>
+        <v>338.4</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G152" t="n">
         <v>177</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100473</v>
+        <v>100472</v>
       </c>
       <c r="J152" t="n">
-        <v>248569</v>
+        <v>248735</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>1082</v>
       </c>
       <c r="N152" t="n">
-        <v>4277</v>
+        <v>4301</v>
       </c>
       <c r="O152" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="P152" t="n">
         <v>2493</v>
@@ -11506,10 +11506,10 @@
         <v>164.4</v>
       </c>
       <c r="R152" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S152" t="n">
-        <v>337.9</v>
+        <v>339.7</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,7 +11544,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G153" t="n">
         <v>174</v>
@@ -11553,10 +11553,10 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100779</v>
+        <v>100778</v>
       </c>
       <c r="J153" t="n">
-        <v>249004</v>
+        <v>249173</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>3465</v>
       </c>
       <c r="N153" t="n">
-        <v>4364</v>
+        <v>4386</v>
       </c>
       <c r="O153" t="n">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="P153" t="n">
         <v>306</v>
@@ -11580,10 +11580,10 @@
         <v>198.3</v>
       </c>
       <c r="R153" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="S153" t="n">
-        <v>347.4</v>
+        <v>349.1</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11618,7 +11618,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G154" t="n">
         <v>170</v>
@@ -11627,10 +11627,10 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101177</v>
+        <v>101176</v>
       </c>
       <c r="J154" t="n">
-        <v>249429</v>
+        <v>249600</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11642,10 +11642,10 @@
         <v>1410</v>
       </c>
       <c r="N154" t="n">
-        <v>4281</v>
+        <v>4303</v>
       </c>
       <c r="O154" t="n">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="P154" t="n">
         <v>398</v>
@@ -11654,10 +11654,10 @@
         <v>551.9</v>
       </c>
       <c r="R154" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S154" t="n">
-        <v>360.4</v>
+        <v>361.9</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11692,7 +11692,7 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G155" t="n">
         <v>159</v>
@@ -11701,10 +11701,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101579</v>
+        <v>101578</v>
       </c>
       <c r="J155" t="n">
-        <v>249902</v>
+        <v>250075</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -11716,10 +11716,10 @@
         <v>1524</v>
       </c>
       <c r="N155" t="n">
-        <v>4365</v>
+        <v>4387</v>
       </c>
       <c r="O155" t="n">
-        <v>2039</v>
+        <v>2048</v>
       </c>
       <c r="P155" t="n">
         <v>402</v>
@@ -11728,10 +11728,10 @@
         <v>258.9</v>
       </c>
       <c r="R155" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="S155" t="n">
-        <v>371.4</v>
+        <v>372.9</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11775,10 +11775,10 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102027</v>
+        <v>102026</v>
       </c>
       <c r="J156" t="n">
-        <v>250425</v>
+        <v>250599</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11790,10 +11790,10 @@
         <v>4142</v>
       </c>
       <c r="N156" t="n">
-        <v>4659</v>
+        <v>4681</v>
       </c>
       <c r="O156" t="n">
-        <v>2303</v>
+        <v>2313</v>
       </c>
       <c r="P156" t="n">
         <v>448</v>
@@ -11802,10 +11802,10 @@
         <v>281.7</v>
       </c>
       <c r="R156" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="S156" t="n">
-        <v>366</v>
+        <v>367.4</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99857</v>
+        <v>99856</v>
       </c>
       <c r="J157" t="n">
-        <v>250635</v>
+        <v>250811</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11864,10 +11864,10 @@
         <v>1877</v>
       </c>
       <c r="N157" t="n">
-        <v>4673</v>
+        <v>4697</v>
       </c>
       <c r="O157" t="n">
-        <v>2317</v>
+        <v>2328</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
@@ -11876,10 +11876,10 @@
         <v>281.7</v>
       </c>
       <c r="R157" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S157" t="n">
-        <v>359</v>
+        <v>360.7</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11923,10 +11923,10 @@
         <v>33772</v>
       </c>
       <c r="I158" t="n">
-        <v>100038</v>
+        <v>100037</v>
       </c>
       <c r="J158" t="n">
-        <v>250793</v>
+        <v>250970</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -11938,10 +11938,10 @@
         <v>-435</v>
       </c>
       <c r="N158" t="n">
-        <v>4589</v>
+        <v>4613</v>
       </c>
       <c r="O158" t="n">
-        <v>2224</v>
+        <v>2235</v>
       </c>
       <c r="P158" t="n">
         <v>181</v>
@@ -11950,10 +11950,10 @@
         <v>294</v>
       </c>
       <c r="R158" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S158" t="n">
-        <v>353.6</v>
+        <v>355.3</v>
       </c>
       <c r="T158" t="n">
         <v>6</v>
@@ -11997,10 +11997,10 @@
         <v>33782</v>
       </c>
       <c r="I159" t="n">
-        <v>102677</v>
+        <v>102676</v>
       </c>
       <c r="J159" t="n">
-        <v>251118</v>
+        <v>251296</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
@@ -12012,10 +12012,10 @@
         <v>1898</v>
       </c>
       <c r="N159" t="n">
-        <v>4546</v>
+        <v>4567</v>
       </c>
       <c r="O159" t="n">
-        <v>2114</v>
+        <v>2123</v>
       </c>
       <c r="P159" t="n">
         <v>2639</v>
@@ -12024,10 +12024,10 @@
         <v>314.9</v>
       </c>
       <c r="R159" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S159" t="n">
-        <v>364.1</v>
+        <v>365.9</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12071,10 +12071,10 @@
         <v>33798</v>
       </c>
       <c r="I160" t="n">
-        <v>103237</v>
+        <v>103236</v>
       </c>
       <c r="J160" t="n">
-        <v>251736</v>
+        <v>251917</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
@@ -12086,10 +12086,10 @@
         <v>2060</v>
       </c>
       <c r="N160" t="n">
-        <v>4830</v>
+        <v>4850</v>
       </c>
       <c r="O160" t="n">
-        <v>2307</v>
+        <v>2317</v>
       </c>
       <c r="P160" t="n">
         <v>560</v>
@@ -12098,10 +12098,10 @@
         <v>351.1</v>
       </c>
       <c r="R160" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="S160" t="n">
-        <v>390.3</v>
+        <v>392</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -12145,10 +12145,10 @@
         <v>33807</v>
       </c>
       <c r="I161" t="n">
-        <v>103916</v>
+        <v>103915</v>
       </c>
       <c r="J161" t="n">
-        <v>252322</v>
+        <v>252504</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
@@ -12160,10 +12160,10 @@
         <v>2337</v>
       </c>
       <c r="N161" t="n">
-        <v>5020</v>
+        <v>5039</v>
       </c>
       <c r="O161" t="n">
-        <v>2420</v>
+        <v>2429</v>
       </c>
       <c r="P161" t="n">
         <v>679</v>
@@ -12172,10 +12172,10 @@
         <v>391.3</v>
       </c>
       <c r="R161" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S161" t="n">
-        <v>413.3</v>
+        <v>414.9</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12210,7 +12210,7 @@
         <v>1091</v>
       </c>
       <c r="F162" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G162" t="n">
         <v>128</v>
@@ -12219,10 +12219,10 @@
         <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104688</v>
+        <v>104687</v>
       </c>
       <c r="J162" t="n">
-        <v>253311</v>
+        <v>253495</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
@@ -12234,10 +12234,10 @@
         <v>2661</v>
       </c>
       <c r="N162" t="n">
-        <v>5448</v>
+        <v>5468</v>
       </c>
       <c r="O162" t="n">
-        <v>2886</v>
+        <v>2896</v>
       </c>
       <c r="P162" t="n">
         <v>772</v>
@@ -12246,10 +12246,10 @@
         <v>444.1</v>
       </c>
       <c r="R162" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="S162" t="n">
-        <v>487</v>
+        <v>488.6</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -12293,10 +12293,10 @@
         <v>33827</v>
       </c>
       <c r="I163" t="n">
-        <v>105692</v>
+        <v>105691</v>
       </c>
       <c r="J163" t="n">
-        <v>254322</v>
+        <v>254510</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -12308,10 +12308,10 @@
         <v>5835</v>
       </c>
       <c r="N163" t="n">
-        <v>6200</v>
+        <v>6224</v>
       </c>
       <c r="O163" t="n">
-        <v>3687</v>
+        <v>3699</v>
       </c>
       <c r="P163" t="n">
         <v>1004</v>
@@ -12320,10 +12320,10 @@
         <v>523.6</v>
       </c>
       <c r="R163" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="S163" t="n">
-        <v>556.7</v>
+        <v>558.7</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12367,10 +12367,10 @@
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103672</v>
+        <v>103671</v>
       </c>
       <c r="J164" t="n">
-        <v>254746</v>
+        <v>254936</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
@@ -12382,10 +12382,10 @@
         <v>3634</v>
       </c>
       <c r="N164" t="n">
-        <v>6428</v>
+        <v>6453</v>
       </c>
       <c r="O164" t="n">
-        <v>3953</v>
+        <v>3966</v>
       </c>
       <c r="P164" t="n">
         <v>-2020</v>
@@ -12394,10 +12394,10 @@
         <v>545</v>
       </c>
       <c r="R164" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S164" t="n">
-        <v>587.3</v>
+        <v>589.3</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12441,10 +12441,10 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110680</v>
+        <v>110679</v>
       </c>
       <c r="J165" t="n">
-        <v>255355</v>
+        <v>255546</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
@@ -12456,10 +12456,10 @@
         <v>8003</v>
       </c>
       <c r="N165" t="n">
-        <v>6786</v>
+        <v>6811</v>
       </c>
       <c r="O165" t="n">
-        <v>4237</v>
+        <v>4250</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
@@ -12468,10 +12468,10 @@
         <v>1520.3</v>
       </c>
       <c r="R165" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S165" t="n">
-        <v>651.7</v>
+        <v>653.7</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -12515,10 +12515,10 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114083</v>
+        <v>114082</v>
       </c>
       <c r="J166" t="n">
-        <v>256155</v>
+        <v>256348</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
@@ -12530,10 +12530,10 @@
         <v>10846</v>
       </c>
       <c r="N166" t="n">
-        <v>7151</v>
+        <v>7175</v>
       </c>
       <c r="O166" t="n">
-        <v>4419</v>
+        <v>4431</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
@@ -12542,10 +12542,10 @@
         <v>1629.4</v>
       </c>
       <c r="R166" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="S166" t="n">
-        <v>719.6</v>
+        <v>721.7</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12589,10 +12589,10 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115367</v>
+        <v>115366</v>
       </c>
       <c r="J167" t="n">
-        <v>257307</v>
+        <v>257504</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
@@ -12604,10 +12604,10 @@
         <v>11451</v>
       </c>
       <c r="N167" t="n">
-        <v>7878</v>
+        <v>7904</v>
       </c>
       <c r="O167" t="n">
-        <v>4985</v>
+        <v>5000</v>
       </c>
       <c r="P167" t="n">
         <v>1284</v>
@@ -12616,10 +12616,10 @@
         <v>1732.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="S167" t="n">
-        <v>795.9</v>
+        <v>798.1</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12663,10 +12663,10 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109732</v>
+        <v>109731</v>
       </c>
       <c r="J168" t="n">
-        <v>258660</v>
+        <v>258860</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
@@ -12678,10 +12678,10 @@
         <v>5044</v>
       </c>
       <c r="N168" t="n">
-        <v>8758</v>
+        <v>8785</v>
       </c>
       <c r="O168" t="n">
-        <v>5349</v>
+        <v>5365</v>
       </c>
       <c r="P168" t="n">
         <v>-5635</v>
@@ -12690,10 +12690,10 @@
         <v>830.9</v>
       </c>
       <c r="R168" t="n">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="S168" t="n">
-        <v>905.4</v>
+        <v>908</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12728,7 +12728,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G169" t="n">
         <v>129</v>
@@ -12737,10 +12737,10 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111051</v>
+        <v>111050</v>
       </c>
       <c r="J169" t="n">
-        <v>260213</v>
+        <v>260416</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -12752,10 +12752,10 @@
         <v>5359</v>
       </c>
       <c r="N169" t="n">
-        <v>9788</v>
+        <v>9817</v>
       </c>
       <c r="O169" t="n">
-        <v>5891</v>
+        <v>5906</v>
       </c>
       <c r="P169" t="n">
         <v>1319</v>
@@ -12764,10 +12764,10 @@
         <v>909</v>
       </c>
       <c r="R169" t="n">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="S169" t="n">
-        <v>986</v>
+        <v>988.7</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
@@ -12811,10 +12811,10 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116150</v>
+        <v>116149</v>
       </c>
       <c r="J170" t="n">
-        <v>262126</v>
+        <v>262335</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -12826,10 +12826,10 @@
         <v>12478</v>
       </c>
       <c r="N170" t="n">
-        <v>11491</v>
+        <v>11524</v>
       </c>
       <c r="O170" t="n">
-        <v>7380</v>
+        <v>7399</v>
       </c>
       <c r="P170" t="n">
         <v>5099</v>
@@ -12838,10 +12838,10 @@
         <v>1494</v>
       </c>
       <c r="R170" t="n">
-        <v>1913</v>
+        <v>1919</v>
       </c>
       <c r="S170" t="n">
-        <v>1114.9</v>
+        <v>1117.9</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -12885,10 +12885,10 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114458</v>
+        <v>114457</v>
       </c>
       <c r="J171" t="n">
-        <v>263416</v>
+        <v>263625</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -12900,10 +12900,10 @@
         <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12623</v>
+        <v>12655</v>
       </c>
       <c r="O171" t="n">
-        <v>8061</v>
+        <v>8079</v>
       </c>
       <c r="P171" t="n">
         <v>-1692</v>
@@ -12915,7 +12915,7 @@
         <v>1290</v>
       </c>
       <c r="S171" t="n">
-        <v>1238.6</v>
+        <v>1241.3</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12950,7 +12950,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G172" t="n">
         <v>78</v>
@@ -12959,10 +12959,10 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123360</v>
+        <v>123359</v>
       </c>
       <c r="J172" t="n">
-        <v>264466</v>
+        <v>264676</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -12974,10 +12974,10 @@
         <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13348</v>
+        <v>13380</v>
       </c>
       <c r="O172" t="n">
-        <v>8311</v>
+        <v>8328</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12986,10 +12986,10 @@
         <v>1811.4</v>
       </c>
       <c r="R172" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="S172" t="n">
-        <v>1301.6</v>
+        <v>1304.3</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
@@ -13033,10 +13033,10 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127514</v>
+        <v>127513</v>
       </c>
       <c r="J173" t="n">
-        <v>266187</v>
+        <v>266402</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
@@ -13048,10 +13048,10 @@
         <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14451</v>
+        <v>14485</v>
       </c>
       <c r="O173" t="n">
-        <v>8880</v>
+        <v>8898</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13060,10 +13060,10 @@
         <v>1918.7</v>
       </c>
       <c r="R173" t="n">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="S173" t="n">
-        <v>1433.1</v>
+        <v>1436.3</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13098,7 +13098,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G174" t="n">
         <v>144</v>
@@ -13107,10 +13107,10 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129273</v>
+        <v>129272</v>
       </c>
       <c r="J174" t="n">
-        <v>268456</v>
+        <v>268674</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
@@ -13122,10 +13122,10 @@
         <v>19541</v>
       </c>
       <c r="N174" t="n">
-        <v>16134</v>
+        <v>16170</v>
       </c>
       <c r="O174" t="n">
-        <v>9796</v>
+        <v>9814</v>
       </c>
       <c r="P174" t="n">
         <v>1759</v>
@@ -13134,10 +13134,10 @@
         <v>1986.6</v>
       </c>
       <c r="R174" t="n">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="S174" t="n">
-        <v>1592.7</v>
+        <v>1595.7</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G175" t="n">
         <v>157</v>
@@ -13181,10 +13181,10 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131541</v>
+        <v>131540</v>
       </c>
       <c r="J175" t="n">
-        <v>270707</v>
+        <v>270930</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
@@ -13196,10 +13196,10 @@
         <v>20490</v>
       </c>
       <c r="N175" t="n">
-        <v>17396</v>
+        <v>17435</v>
       </c>
       <c r="O175" t="n">
-        <v>10494</v>
+        <v>10514</v>
       </c>
       <c r="P175" t="n">
         <v>2268</v>
@@ -13208,10 +13208,10 @@
         <v>3115.6</v>
       </c>
       <c r="R175" t="n">
-        <v>2251</v>
+        <v>2256</v>
       </c>
       <c r="S175" t="n">
-        <v>1721</v>
+        <v>1724.3</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G176" t="n">
         <v>158</v>
@@ -13255,10 +13255,10 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133453</v>
+        <v>133452</v>
       </c>
       <c r="J176" t="n">
-        <v>272882</v>
+        <v>273106</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
@@ -13270,10 +13270,10 @@
         <v>17303</v>
       </c>
       <c r="N176" t="n">
-        <v>18560</v>
+        <v>18596</v>
       </c>
       <c r="O176" t="n">
-        <v>10756</v>
+        <v>10771</v>
       </c>
       <c r="P176" t="n">
         <v>1912</v>
@@ -13282,10 +13282,10 @@
         <v>3200.3</v>
       </c>
       <c r="R176" t="n">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="S176" t="n">
-        <v>1809.9</v>
+        <v>1812.9</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13311,7 +13311,7 @@
         <v>44</v>
       </c>
       <c r="C177" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D177" t="n">
         <v>199</v>
@@ -13332,34 +13332,34 @@
         <v>125451</v>
       </c>
       <c r="J177" t="n">
-        <v>275499</v>
+        <v>275726</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>21779</v>
+        <v>21780</v>
       </c>
       <c r="M177" t="n">
-        <v>10993</v>
+        <v>10994</v>
       </c>
       <c r="N177" t="n">
-        <v>20753</v>
+        <v>20790</v>
       </c>
       <c r="O177" t="n">
-        <v>12083</v>
+        <v>12101</v>
       </c>
       <c r="P177" t="n">
-        <v>-8002</v>
+        <v>-8001</v>
       </c>
       <c r="Q177" t="n">
-        <v>1328.7</v>
+        <v>1328.9</v>
       </c>
       <c r="R177" t="n">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="S177" t="n">
-        <v>1910.4</v>
+        <v>1913</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G178" t="n">
         <v>115</v>
@@ -13406,34 +13406,34 @@
         <v>104455</v>
       </c>
       <c r="J178" t="n">
-        <v>276981</v>
+        <v>277209</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-6225</v>
+        <v>-6224</v>
       </c>
       <c r="M178" t="n">
-        <v>-18905</v>
+        <v>-18904</v>
       </c>
       <c r="N178" t="n">
-        <v>21626</v>
+        <v>21663</v>
       </c>
       <c r="O178" t="n">
-        <v>12515</v>
+        <v>12533</v>
       </c>
       <c r="P178" t="n">
         <v>-20996</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1429</v>
+        <v>-1428.9</v>
       </c>
       <c r="R178" t="n">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="S178" t="n">
-        <v>1937.9</v>
+        <v>1940.6</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G179" t="n">
         <v>107</v>
@@ -13480,34 +13480,34 @@
         <v>115788</v>
       </c>
       <c r="J179" t="n">
-        <v>278314</v>
+        <v>278542</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
       </c>
       <c r="L179" t="n">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="M179" t="n">
-        <v>-11726</v>
+        <v>-11725</v>
       </c>
       <c r="N179" t="n">
-        <v>22159</v>
+        <v>22194</v>
       </c>
       <c r="O179" t="n">
-        <v>12127</v>
+        <v>12140</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1081.7</v>
+        <v>-1081.6</v>
       </c>
       <c r="R179" t="n">
         <v>1333</v>
       </c>
       <c r="S179" t="n">
-        <v>1978.3</v>
+        <v>1980.9</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G180" t="n">
         <v>198</v>
@@ -13554,34 +13554,34 @@
         <v>115780</v>
       </c>
       <c r="J180" t="n">
-        <v>280399</v>
+        <v>280630</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
       </c>
       <c r="L180" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M180" t="n">
-        <v>-13493</v>
+        <v>-13492</v>
       </c>
       <c r="N180" t="n">
-        <v>23092</v>
+        <v>23126</v>
       </c>
       <c r="O180" t="n">
-        <v>11943</v>
+        <v>11956</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1676.3</v>
+        <v>-1676.1</v>
       </c>
       <c r="R180" t="n">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="S180" t="n">
-        <v>2030.3</v>
+        <v>2032.6</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="G181" t="n">
         <v>214</v>
@@ -13628,34 +13628,34 @@
         <v>110097</v>
       </c>
       <c r="J181" t="n">
-        <v>283150</v>
+        <v>283386</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M181" t="n">
-        <v>-21444</v>
+        <v>-21443</v>
       </c>
       <c r="N181" t="n">
-        <v>24490</v>
+        <v>24526</v>
       </c>
       <c r="O181" t="n">
-        <v>12443</v>
+        <v>12456</v>
       </c>
       <c r="P181" t="n">
         <v>-5683</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2739.4</v>
+        <v>-2739.3</v>
       </c>
       <c r="R181" t="n">
-        <v>2751</v>
+        <v>2756</v>
       </c>
       <c r="S181" t="n">
-        <v>2099.1</v>
+        <v>2101.7</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G182" t="n">
         <v>206</v>
@@ -13702,34 +13702,34 @@
         <v>123653</v>
       </c>
       <c r="J182" t="n">
-        <v>285927</v>
+        <v>286166</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12602</v>
+        <v>12603</v>
       </c>
       <c r="M182" t="n">
-        <v>-9800</v>
+        <v>-9799</v>
       </c>
       <c r="N182" t="n">
-        <v>25714</v>
+        <v>25750</v>
       </c>
       <c r="O182" t="n">
-        <v>13045</v>
+        <v>13060</v>
       </c>
       <c r="P182" t="n">
         <v>13556</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1126.9</v>
+        <v>-1126.7</v>
       </c>
       <c r="R182" t="n">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="S182" t="n">
-        <v>2174.3</v>
+        <v>2176.6</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G183" t="n">
         <v>214</v>
@@ -13776,34 +13776,34 @@
         <v>113191</v>
       </c>
       <c r="J183" t="n">
-        <v>291652</v>
+        <v>291893</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2959</v>
+        <v>-2958</v>
       </c>
       <c r="M183" t="n">
         <v>-12260</v>
       </c>
       <c r="N183" t="n">
-        <v>29526</v>
+        <v>29558</v>
       </c>
       <c r="O183" t="n">
-        <v>16153</v>
+        <v>16167</v>
       </c>
       <c r="P183" t="n">
         <v>-10462</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894.6</v>
+        <v>-2894.4</v>
       </c>
       <c r="R183" t="n">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="S183" t="n">
-        <v>2681.4</v>
+        <v>2683.9</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="G184" t="n">
         <v>216</v>
@@ -13850,22 +13850,22 @@
         <v>114838</v>
       </c>
       <c r="J184" t="n">
-        <v>295189</v>
+        <v>295432</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M184" t="n">
         <v>10383</v>
       </c>
       <c r="N184" t="n">
-        <v>31773</v>
+        <v>31807</v>
       </c>
       <c r="O184" t="n">
-        <v>18208</v>
+        <v>18223</v>
       </c>
       <c r="P184" t="n">
         <v>1647</v>
@@ -13874,10 +13874,10 @@
         <v>-1516.1</v>
       </c>
       <c r="R184" t="n">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="S184" t="n">
-        <v>2812.9</v>
+        <v>2815.1</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13924,22 +13924,22 @@
         <v>110288</v>
       </c>
       <c r="J185" t="n">
-        <v>297971</v>
+        <v>298214</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13072</v>
+        <v>-13071</v>
       </c>
       <c r="M185" t="n">
         <v>-5500</v>
       </c>
       <c r="N185" t="n">
-        <v>33505</v>
+        <v>33538</v>
       </c>
       <c r="O185" t="n">
-        <v>19657</v>
+        <v>19672</v>
       </c>
       <c r="P185" t="n">
         <v>-4550</v>
@@ -13951,7 +13951,7 @@
         <v>2782</v>
       </c>
       <c r="S185" t="n">
-        <v>2998.6</v>
+        <v>3000.7</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="G186" t="n">
         <v>129</v>
@@ -13998,22 +13998,22 @@
         <v>123815</v>
       </c>
       <c r="J186" t="n">
-        <v>299530</v>
+        <v>299776</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3699</v>
+        <v>-3698</v>
       </c>
       <c r="M186" t="n">
         <v>8035</v>
       </c>
       <c r="N186" t="n">
-        <v>33343</v>
+        <v>33374</v>
       </c>
       <c r="O186" t="n">
-        <v>19131</v>
+        <v>19146</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
@@ -14022,10 +14022,10 @@
         <v>1146.7</v>
       </c>
       <c r="R186" t="n">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="S186" t="n">
-        <v>3030.9</v>
+        <v>3033.4</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14051,7 +14051,7 @@
         <v>178</v>
       </c>
       <c r="C187" t="n">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D187" t="n">
         <v>63872</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="G187" t="n">
         <v>255</v>
@@ -14069,37 +14069,37 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132257</v>
+        <v>132258</v>
       </c>
       <c r="J187" t="n">
-        <v>302439</v>
+        <v>302687</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="M187" t="n">
-        <v>22160</v>
+        <v>22161</v>
       </c>
       <c r="N187" t="n">
-        <v>33983</v>
+        <v>34013</v>
       </c>
       <c r="O187" t="n">
-        <v>19289</v>
+        <v>19301</v>
       </c>
       <c r="P187" t="n">
-        <v>8442</v>
+        <v>8443</v>
       </c>
       <c r="Q187" t="n">
-        <v>2353.9</v>
+        <v>2354</v>
       </c>
       <c r="R187" t="n">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="S187" t="n">
-        <v>3148.6</v>
+        <v>3151</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="G188" t="n">
         <v>258</v>
@@ -14143,37 +14143,37 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134178</v>
+        <v>134179</v>
       </c>
       <c r="J188" t="n">
-        <v>306402</v>
+        <v>306654</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="M188" t="n">
-        <v>10525</v>
+        <v>10526</v>
       </c>
       <c r="N188" t="n">
-        <v>35695</v>
+        <v>35724</v>
       </c>
       <c r="O188" t="n">
-        <v>20475</v>
+        <v>20488</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
       </c>
       <c r="Q188" t="n">
-        <v>3440.1</v>
+        <v>3440.3</v>
       </c>
       <c r="R188" t="n">
-        <v>3963</v>
+        <v>3967</v>
       </c>
       <c r="S188" t="n">
-        <v>3321.7</v>
+        <v>3324</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14199,7 +14199,7 @@
         <v>230</v>
       </c>
       <c r="C189" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="D189" t="n">
         <v>63930</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="G189" t="n">
         <v>262</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136180</v>
+        <v>136182</v>
       </c>
       <c r="J189" t="n">
-        <v>310249</v>
+        <v>310506</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="M189" t="n">
-        <v>22989</v>
+        <v>22991</v>
       </c>
       <c r="N189" t="n">
-        <v>37367</v>
+        <v>37400</v>
       </c>
       <c r="O189" t="n">
-        <v>18597</v>
+        <v>18613</v>
       </c>
       <c r="P189" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="Q189" t="n">
-        <v>1789.6</v>
+        <v>1789.9</v>
       </c>
       <c r="R189" t="n">
-        <v>3847</v>
+        <v>3852</v>
       </c>
       <c r="S189" t="n">
-        <v>3474.6</v>
+        <v>3477.1</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14273,7 +14273,7 @@
         <v>349</v>
       </c>
       <c r="C190" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="D190" t="n">
         <v>63975</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="G190" t="n">
         <v>266</v>
@@ -14291,37 +14291,37 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138296</v>
+        <v>138299</v>
       </c>
       <c r="J190" t="n">
-        <v>314726</v>
+        <v>314985</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12845</v>
+        <v>12848</v>
       </c>
       <c r="M190" t="n">
-        <v>23458</v>
+        <v>23461</v>
       </c>
       <c r="N190" t="n">
-        <v>39227</v>
+        <v>39259</v>
       </c>
       <c r="O190" t="n">
-        <v>19537</v>
+        <v>19553</v>
       </c>
       <c r="P190" t="n">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="Q190" t="n">
-        <v>3586.4</v>
+        <v>3586.9</v>
       </c>
       <c r="R190" t="n">
-        <v>4477</v>
+        <v>4479</v>
       </c>
       <c r="S190" t="n">
-        <v>3296.3</v>
+        <v>3298.9</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14347,7 +14347,7 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D191" t="n">
         <v>63997</v>
@@ -14356,7 +14356,7 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="G191" t="n">
         <v>277</v>
@@ -14365,37 +14365,37 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122880</v>
+        <v>122884</v>
       </c>
       <c r="J191" t="n">
-        <v>319962</v>
+        <v>320228</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18425</v>
+        <v>18429</v>
       </c>
       <c r="M191" t="n">
-        <v>12592</v>
+        <v>12596</v>
       </c>
       <c r="N191" t="n">
-        <v>42981</v>
+        <v>43019</v>
       </c>
       <c r="O191" t="n">
-        <v>21991</v>
+        <v>22014</v>
       </c>
       <c r="P191" t="n">
-        <v>-15416</v>
+        <v>-15415</v>
       </c>
       <c r="Q191" t="n">
-        <v>1148.9</v>
+        <v>1149.4</v>
       </c>
       <c r="R191" t="n">
-        <v>5236</v>
+        <v>5243</v>
       </c>
       <c r="S191" t="n">
-        <v>3539</v>
+        <v>3542.3</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="G192" t="n">
         <v>189</v>
@@ -14439,37 +14439,37 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120858</v>
+        <v>120862</v>
       </c>
       <c r="J192" t="n">
-        <v>322896</v>
+        <v>323166</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="M192" t="n">
-        <v>-2957</v>
+        <v>-2953</v>
       </c>
       <c r="N192" t="n">
-        <v>44582</v>
+        <v>44624</v>
       </c>
       <c r="O192" t="n">
-        <v>23366</v>
+        <v>23390</v>
       </c>
       <c r="P192" t="n">
         <v>-2022</v>
       </c>
       <c r="Q192" t="n">
-        <v>1510</v>
+        <v>1510.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="S192" t="n">
-        <v>3560.7</v>
+        <v>3564.6</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="G193" t="n">
         <v>219</v>
@@ -14513,37 +14513,37 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139672</v>
+        <v>139676</v>
       </c>
       <c r="J193" t="n">
-        <v>324945</v>
+        <v>325217</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23892</v>
+        <v>23896</v>
       </c>
       <c r="M193" t="n">
-        <v>7415</v>
+        <v>7418</v>
       </c>
       <c r="N193" t="n">
-        <v>44546</v>
+        <v>44587</v>
       </c>
       <c r="O193" t="n">
-        <v>22506</v>
+        <v>22530</v>
       </c>
       <c r="P193" t="n">
         <v>18814</v>
       </c>
       <c r="Q193" t="n">
-        <v>2265.3</v>
+        <v>2265.9</v>
       </c>
       <c r="R193" t="n">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="S193" t="n">
-        <v>3630.7</v>
+        <v>3634.4</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2549</v>
+        <v>2553</v>
       </c>
       <c r="G194" t="n">
         <v>318</v>
@@ -14587,37 +14587,37 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140182</v>
+        <v>140186</v>
       </c>
       <c r="J194" t="n">
-        <v>328987</v>
+        <v>329261</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>30085</v>
+        <v>30089</v>
       </c>
       <c r="M194" t="n">
-        <v>6004</v>
+        <v>6007</v>
       </c>
       <c r="N194" t="n">
-        <v>45837</v>
+        <v>45875</v>
       </c>
       <c r="O194" t="n">
-        <v>22585</v>
+        <v>22607</v>
       </c>
       <c r="P194" t="n">
         <v>510</v>
       </c>
       <c r="Q194" t="n">
-        <v>1132.1</v>
+        <v>1132.6</v>
       </c>
       <c r="R194" t="n">
-        <v>4042</v>
+        <v>4044</v>
       </c>
       <c r="S194" t="n">
-        <v>3792.6</v>
+        <v>3796.3</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14652,7 +14652,7 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="G195" t="n">
         <v>341</v>
@@ -14661,37 +14661,37 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146930</v>
+        <v>146934</v>
       </c>
       <c r="J195" t="n">
-        <v>334662</v>
+        <v>334944</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>23277</v>
+        <v>23281</v>
       </c>
       <c r="M195" t="n">
-        <v>10750</v>
+        <v>10752</v>
       </c>
       <c r="N195" t="n">
-        <v>48735</v>
+        <v>48778</v>
       </c>
       <c r="O195" t="n">
-        <v>24413</v>
+        <v>24438</v>
       </c>
       <c r="P195" t="n">
         <v>6748</v>
       </c>
       <c r="Q195" t="n">
-        <v>1821.7</v>
+        <v>1822.1</v>
       </c>
       <c r="R195" t="n">
-        <v>5675</v>
+        <v>5683</v>
       </c>
       <c r="S195" t="n">
-        <v>4037.1</v>
+        <v>4041.4</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14726,7 +14726,7 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="G196" t="n">
         <v>350</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149139</v>
+        <v>149144</v>
       </c>
       <c r="J196" t="n">
-        <v>340190</v>
+        <v>340474</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35948</v>
+        <v>35953</v>
       </c>
       <c r="M196" t="n">
-        <v>10843</v>
+        <v>10845</v>
       </c>
       <c r="N196" t="n">
-        <v>48538</v>
+        <v>48581</v>
       </c>
       <c r="O196" t="n">
-        <v>25464</v>
+        <v>25489</v>
       </c>
       <c r="P196" t="n">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="Q196" t="n">
-        <v>1851.3</v>
+        <v>1851.7</v>
       </c>
       <c r="R196" t="n">
-        <v>5528</v>
+        <v>5530</v>
       </c>
       <c r="S196" t="n">
-        <v>4277.3</v>
+        <v>4281.1</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,13 +14791,13 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
       </c>
       <c r="E197" t="n">
-        <v>14874</v>
+        <v>15048</v>
       </c>
       <c r="F197" t="n">
         <v>2853</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151508</v>
+        <v>151515</v>
       </c>
       <c r="J197" t="n">
-        <v>346363</v>
+        <v>346656</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36670</v>
+        <v>36677</v>
       </c>
       <c r="M197" t="n">
-        <v>28628</v>
+        <v>28631</v>
       </c>
       <c r="N197" t="n">
-        <v>51174</v>
+        <v>51224</v>
       </c>
       <c r="O197" t="n">
-        <v>26401</v>
+        <v>26428</v>
       </c>
       <c r="P197" t="n">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="Q197" t="n">
-        <v>1887.4</v>
+        <v>1888</v>
       </c>
       <c r="R197" t="n">
-        <v>6173</v>
+        <v>6182</v>
       </c>
       <c r="S197" t="n">
-        <v>4519.6</v>
+        <v>4524.4</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14871,10 +14871,10 @@
         <v>64231</v>
       </c>
       <c r="E198" t="n">
-        <v>3729</v>
+        <v>3952</v>
       </c>
       <c r="F198" t="n">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="G198" t="n">
         <v>384</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133202</v>
+        <v>133209</v>
       </c>
       <c r="J198" t="n">
-        <v>353401</v>
+        <v>353710</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22914</v>
+        <v>22921</v>
       </c>
       <c r="M198" t="n">
-        <v>12344</v>
+        <v>12347</v>
       </c>
       <c r="N198" t="n">
-        <v>55430</v>
+        <v>55496</v>
       </c>
       <c r="O198" t="n">
-        <v>30505</v>
+        <v>30544</v>
       </c>
       <c r="P198" t="n">
         <v>-18306</v>
       </c>
       <c r="Q198" t="n">
-        <v>1474.6</v>
+        <v>1475</v>
       </c>
       <c r="R198" t="n">
-        <v>7038</v>
+        <v>7054</v>
       </c>
       <c r="S198" t="n">
-        <v>4777</v>
+        <v>4783.1</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14948,7 +14948,7 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="G199" t="n">
         <v>253</v>
@@ -14957,37 +14957,37 @@
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130070</v>
+        <v>130077</v>
       </c>
       <c r="J199" t="n">
-        <v>357343</v>
+        <v>357655</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6255</v>
+        <v>6262</v>
       </c>
       <c r="M199" t="n">
-        <v>-9602</v>
+        <v>-9599</v>
       </c>
       <c r="N199" t="n">
-        <v>57813</v>
+        <v>57879</v>
       </c>
       <c r="O199" t="n">
-        <v>32398</v>
+        <v>32438</v>
       </c>
       <c r="P199" t="n">
         <v>-3132</v>
       </c>
       <c r="Q199" t="n">
-        <v>1316</v>
+        <v>1316.4</v>
       </c>
       <c r="R199" t="n">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="S199" t="n">
-        <v>4921</v>
+        <v>4927</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15019,10 +15019,10 @@
         <v>64261</v>
       </c>
       <c r="E200" t="n">
-        <v>1103</v>
+        <v>1396</v>
       </c>
       <c r="F200" t="n">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="G200" t="n">
         <v>275</v>
@@ -15031,37 +15031,37 @@
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130872</v>
+        <v>130879</v>
       </c>
       <c r="J200" t="n">
-        <v>359625</v>
+        <v>359938</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1385</v>
+        <v>-1379</v>
       </c>
       <c r="M200" t="n">
-        <v>-9310</v>
+        <v>-9307</v>
       </c>
       <c r="N200" t="n">
-        <v>57186</v>
+        <v>57251</v>
       </c>
       <c r="O200" t="n">
-        <v>30638</v>
+        <v>30677</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1257.1</v>
+        <v>-1256.7</v>
       </c>
       <c r="R200" t="n">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="S200" t="n">
-        <v>4954.3</v>
+        <v>4960.1</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15093,10 +15093,10 @@
         <v>64343</v>
       </c>
       <c r="E201" t="n">
-        <v>16406</v>
+        <v>16780</v>
       </c>
       <c r="F201" t="n">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="G201" t="n">
         <v>451</v>
@@ -15105,37 +15105,37 @@
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158912</v>
+        <v>158919</v>
       </c>
       <c r="J201" t="n">
-        <v>364877</v>
+        <v>365195</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24734</v>
+        <v>24740</v>
       </c>
       <c r="M201" t="n">
-        <v>11982</v>
+        <v>11985</v>
       </c>
       <c r="N201" t="n">
-        <v>58475</v>
+        <v>58541</v>
       </c>
       <c r="O201" t="n">
-        <v>30215</v>
+        <v>30251</v>
       </c>
       <c r="P201" t="n">
         <v>28040</v>
       </c>
       <c r="Q201" t="n">
-        <v>2675.7</v>
+        <v>2676.1</v>
       </c>
       <c r="R201" t="n">
-        <v>5252</v>
+        <v>5257</v>
       </c>
       <c r="S201" t="n">
-        <v>5127.1</v>
+        <v>5133.4</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15167,10 +15167,10 @@
         <v>64395</v>
       </c>
       <c r="E202" t="n">
-        <v>16566</v>
+        <v>16980</v>
       </c>
       <c r="F202" t="n">
-        <v>3684</v>
+        <v>3692</v>
       </c>
       <c r="G202" t="n">
         <v>463</v>
@@ -15179,37 +15179,37 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161362</v>
+        <v>161369</v>
       </c>
       <c r="J202" t="n">
-        <v>372262</v>
+        <v>372594</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25182</v>
+        <v>25187</v>
       </c>
       <c r="M202" t="n">
-        <v>12223</v>
+        <v>12225</v>
       </c>
       <c r="N202" t="n">
-        <v>62013</v>
+        <v>62088</v>
       </c>
       <c r="O202" t="n">
-        <v>32072</v>
+        <v>32120</v>
       </c>
       <c r="P202" t="n">
         <v>2450</v>
       </c>
       <c r="Q202" t="n">
-        <v>2061.7</v>
+        <v>2062.1</v>
       </c>
       <c r="R202" t="n">
-        <v>7385</v>
+        <v>7399</v>
       </c>
       <c r="S202" t="n">
-        <v>5371.4</v>
+        <v>5378.6</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15241,49 +15241,49 @@
         <v>64475</v>
       </c>
       <c r="E203" t="n">
-        <v>14913</v>
+        <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="G203" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H203" t="n">
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164035</v>
+        <v>164042</v>
       </c>
       <c r="J203" t="n">
-        <v>379649</v>
+        <v>379993</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25739</v>
+        <v>25743</v>
       </c>
       <c r="M203" t="n">
         <v>12527</v>
       </c>
       <c r="N203" t="n">
-        <v>64923</v>
+        <v>65008</v>
       </c>
       <c r="O203" t="n">
-        <v>33286</v>
+        <v>33337</v>
       </c>
       <c r="P203" t="n">
         <v>2673</v>
       </c>
       <c r="Q203" t="n">
-        <v>2128</v>
+        <v>2128.3</v>
       </c>
       <c r="R203" t="n">
-        <v>7387</v>
+        <v>7399</v>
       </c>
       <c r="S203" t="n">
-        <v>5637</v>
+        <v>5645.6</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15309,55 +15309,55 @@
         <v>860</v>
       </c>
       <c r="C204" t="n">
-        <v>3784</v>
+        <v>3792</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
       </c>
       <c r="E204" t="n">
-        <v>3224</v>
+        <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>3984</v>
+        <v>3993</v>
       </c>
       <c r="G204" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H204" t="n">
         <v>34571</v>
       </c>
       <c r="I204" t="n">
-        <v>142953</v>
+        <v>142968</v>
       </c>
       <c r="J204" t="n">
-        <v>387085</v>
+        <v>387449</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20073</v>
+        <v>20084</v>
       </c>
       <c r="M204" t="n">
-        <v>9751</v>
+        <v>9759</v>
       </c>
       <c r="N204" t="n">
-        <v>67123</v>
+        <v>67221</v>
       </c>
       <c r="O204" t="n">
-        <v>33684</v>
+        <v>33739</v>
       </c>
       <c r="P204" t="n">
-        <v>-21082</v>
+        <v>-21074</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1222.1</v>
+        <v>-1221</v>
       </c>
       <c r="R204" t="n">
-        <v>7436</v>
+        <v>7456</v>
       </c>
       <c r="S204" t="n">
-        <v>5817.4</v>
+        <v>5827.6</v>
       </c>
       <c r="T204" t="n">
         <v>21</v>
@@ -15383,70 +15383,70 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3844</v>
+        <v>3889</v>
       </c>
       <c r="D205" t="n">
         <v>64580</v>
       </c>
       <c r="E205" t="n">
-        <v>3447</v>
+        <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4054</v>
+        <v>4066</v>
       </c>
       <c r="G205" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H205" t="n">
-        <v>34598</v>
+        <v>34599</v>
       </c>
       <c r="I205" t="n">
-        <v>145313</v>
+        <v>145373</v>
       </c>
       <c r="J205" t="n">
-        <v>395173</v>
+        <v>395964</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24455</v>
+        <v>24511</v>
       </c>
       <c r="M205" t="n">
-        <v>15243</v>
+        <v>15296</v>
       </c>
       <c r="N205" t="n">
-        <v>72277</v>
+        <v>72798</v>
       </c>
       <c r="O205" t="n">
-        <v>37830</v>
+        <v>38309</v>
       </c>
       <c r="P205" t="n">
-        <v>2360</v>
+        <v>2405</v>
       </c>
       <c r="Q205" t="n">
-        <v>1730.1</v>
+        <v>1737.7</v>
       </c>
       <c r="R205" t="n">
-        <v>8088</v>
+        <v>8515</v>
       </c>
       <c r="S205" t="n">
-        <v>5967.4</v>
+        <v>6036.3</v>
       </c>
       <c r="T205" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U205" t="n">
         <v>0.1</v>
       </c>
       <c r="V205" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="W205" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="X205" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206">
@@ -15457,70 +15457,70 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2636</v>
+        <v>2641</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
       </c>
       <c r="E206" t="n">
-        <v>2005</v>
+        <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>3905</v>
+        <v>4073</v>
       </c>
       <c r="G206" t="n">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="H206" t="n">
-        <v>31504</v>
+        <v>34612</v>
       </c>
       <c r="I206" t="n">
-        <v>141236</v>
+        <v>141301</v>
       </c>
       <c r="J206" t="n">
-        <v>377928</v>
+        <v>400861</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1564</v>
+        <v>1625</v>
       </c>
       <c r="M206" t="n">
-        <v>10364</v>
+        <v>10422</v>
       </c>
       <c r="N206" t="n">
-        <v>52983</v>
+        <v>75644</v>
       </c>
       <c r="O206" t="n">
-        <v>18303</v>
+        <v>40923</v>
       </c>
       <c r="P206" t="n">
-        <v>-4077</v>
+        <v>-4072</v>
       </c>
       <c r="Q206" t="n">
-        <v>1595.1</v>
+        <v>1603.4</v>
       </c>
       <c r="R206" t="n">
-        <v>-17245</v>
+        <v>4897</v>
       </c>
       <c r="S206" t="n">
-        <v>2940.7</v>
+        <v>6172.3</v>
       </c>
       <c r="T206" t="n">
-        <v>-3094</v>
+        <v>13</v>
       </c>
       <c r="U206" t="n">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>-1015.3</v>
+        <v>20.7</v>
       </c>
       <c r="W206" t="n">
-        <v>-412.7</v>
+        <v>31.3</v>
       </c>
       <c r="X206" t="n">
-        <v>-2889</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207">
@@ -15531,70 +15531,70 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="D207" t="n">
         <v>64558</v>
       </c>
       <c r="E207" t="n">
-        <v>13903</v>
+        <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>3960</v>
+        <v>4136</v>
       </c>
       <c r="G207" t="n">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="H207" t="n">
-        <v>31555</v>
+        <v>34673</v>
       </c>
       <c r="I207" t="n">
-        <v>167011</v>
+        <v>167082</v>
       </c>
       <c r="J207" t="n">
-        <v>380768</v>
+        <v>403720</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26829</v>
+        <v>26896</v>
       </c>
       <c r="M207" t="n">
-        <v>8099</v>
+        <v>8163</v>
       </c>
       <c r="N207" t="n">
-        <v>51781</v>
+        <v>74459</v>
       </c>
       <c r="O207" t="n">
-        <v>15891</v>
+        <v>38525</v>
       </c>
       <c r="P207" t="n">
-        <v>25775</v>
+        <v>25781</v>
       </c>
       <c r="Q207" t="n">
-        <v>5162.7</v>
+        <v>5171.9</v>
       </c>
       <c r="R207" t="n">
-        <v>2840</v>
+        <v>2859</v>
       </c>
       <c r="S207" t="n">
-        <v>3020.4</v>
+        <v>6254.6</v>
       </c>
       <c r="T207" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="U207" t="n">
         <v>0.2</v>
       </c>
       <c r="V207" t="n">
-        <v>-1005.3</v>
+        <v>34</v>
       </c>
       <c r="W207" t="n">
-        <v>-407.1</v>
+        <v>38.3</v>
       </c>
       <c r="X207" t="n">
-        <v>-2850</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208">
@@ -15602,73 +15602,73 @@
         <v>44067</v>
       </c>
       <c r="B208" t="n">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="C208" t="n">
-        <v>3700</v>
+        <v>3941</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
       </c>
       <c r="E208" t="n">
-        <v>4004</v>
+        <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4585</v>
+        <v>4689</v>
       </c>
       <c r="G208" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H208" t="n">
-        <v>34174</v>
+        <v>34730</v>
       </c>
       <c r="I208" t="n">
-        <v>149815</v>
+        <v>174869</v>
       </c>
       <c r="J208" t="n">
-        <v>403978</v>
+        <v>409614</v>
       </c>
       <c r="K208" t="n">
-        <v>63627</v>
+        <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>2885</v>
+        <v>27935</v>
       </c>
       <c r="M208" t="n">
-        <v>-11547</v>
+        <v>13500</v>
       </c>
       <c r="N208" t="n">
-        <v>69316</v>
+        <v>74670</v>
       </c>
       <c r="O208" t="n">
-        <v>31716</v>
+        <v>37020</v>
       </c>
       <c r="P208" t="n">
-        <v>-17196</v>
+        <v>7787</v>
       </c>
       <c r="Q208" t="n">
-        <v>-1299.6</v>
+        <v>2278.6</v>
       </c>
       <c r="R208" t="n">
-        <v>23210</v>
+        <v>5894</v>
       </c>
       <c r="S208" t="n">
-        <v>5585.9</v>
+        <v>6345.6</v>
       </c>
       <c r="T208" t="n">
-        <v>2619</v>
+        <v>57</v>
       </c>
       <c r="U208" t="n">
-        <v>8.3</v>
+        <v>0.2</v>
       </c>
       <c r="V208" t="n">
-        <v>-141.3</v>
+        <v>43.7</v>
       </c>
       <c r="W208" t="n">
-        <v>-41.7</v>
+        <v>37.7</v>
       </c>
       <c r="X208" t="n">
-        <v>-292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209">
@@ -15676,73 +15676,73 @@
         <v>44068</v>
       </c>
       <c r="B209" t="n">
-        <v>2064</v>
+        <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>3454</v>
+        <v>4901</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
       </c>
       <c r="E209" t="n">
-        <v>4912</v>
+        <v>5565</v>
       </c>
       <c r="F209" t="n">
-        <v>4220</v>
+        <v>4852</v>
       </c>
       <c r="G209" t="n">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="H209" t="n">
-        <v>33047</v>
+        <v>34759</v>
       </c>
       <c r="I209" t="n">
-        <v>151737</v>
+        <v>153174</v>
       </c>
       <c r="J209" t="n">
-        <v>385560</v>
+        <v>418435</v>
       </c>
       <c r="K209" t="n">
-        <v>64448</v>
+        <v>69365</v>
       </c>
       <c r="L209" t="n">
-        <v>2598</v>
+        <v>4030</v>
       </c>
       <c r="M209" t="n">
-        <v>-12298</v>
+        <v>-10868</v>
       </c>
       <c r="N209" t="n">
-        <v>45370</v>
+        <v>77961</v>
       </c>
       <c r="O209" t="n">
-        <v>5911</v>
+        <v>38442</v>
       </c>
       <c r="P209" t="n">
-        <v>1922</v>
+        <v>-21695</v>
       </c>
       <c r="Q209" t="n">
-        <v>-1375</v>
+        <v>-1170.7</v>
       </c>
       <c r="R209" t="n">
-        <v>-18418</v>
+        <v>8821</v>
       </c>
       <c r="S209" t="n">
-        <v>1899.7</v>
+        <v>6548.7</v>
       </c>
       <c r="T209" t="n">
-        <v>-1127</v>
+        <v>29</v>
       </c>
       <c r="U209" t="n">
-        <v>-3.3</v>
+        <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>514.3</v>
+        <v>49</v>
       </c>
       <c r="W209" t="n">
-        <v>-209</v>
+        <v>35.6</v>
       </c>
       <c r="X209" t="n">
-        <v>-1463</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210">
@@ -15753,70 +15753,144 @@
         <v>1100</v>
       </c>
       <c r="C210" t="n">
-        <v>1613</v>
+        <v>3726</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E210" t="n">
-        <v>5307</v>
+        <v>5968</v>
       </c>
       <c r="F210" t="n">
-        <v>2924</v>
+        <v>4746</v>
       </c>
       <c r="G210" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="H210" t="n">
-        <v>16226</v>
+        <v>33882</v>
       </c>
       <c r="I210" t="n">
-        <v>28394</v>
+        <v>143136</v>
       </c>
       <c r="J210" t="n">
-        <v>218566</v>
+        <v>410614</v>
       </c>
       <c r="K210" t="n">
         <v>61777</v>
       </c>
       <c r="L210" t="n">
-        <v>-123114</v>
+        <v>-8379</v>
       </c>
       <c r="M210" t="n">
-        <v>-114559</v>
+        <v>168</v>
       </c>
       <c r="N210" t="n">
-        <v>-127797</v>
+        <v>63958</v>
       </c>
       <c r="O210" t="n">
-        <v>-168519</v>
+        <v>23165</v>
       </c>
       <c r="P210" t="n">
-        <v>-123343</v>
+        <v>-10038</v>
       </c>
       <c r="Q210" t="n">
-        <v>-19377.3</v>
+        <v>-2986.6</v>
       </c>
       <c r="R210" t="n">
-        <v>-166994</v>
+        <v>-7821</v>
       </c>
       <c r="S210" t="n">
-        <v>-23011.9</v>
+        <v>4374.4</v>
       </c>
       <c r="T210" t="n">
-        <v>-16821</v>
+        <v>-877</v>
       </c>
       <c r="U210" t="n">
-        <v>-50.9</v>
+        <v>-2.5</v>
       </c>
       <c r="V210" t="n">
-        <v>-5109.7</v>
+        <v>-263.7</v>
       </c>
       <c r="W210" t="n">
-        <v>-2617.7</v>
+        <v>-95.4</v>
       </c>
       <c r="X210" t="n">
-        <v>-18324</v>
+        <v>-668</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>44070</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C211" t="n">
+        <v>991</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3442</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3720</v>
+      </c>
+      <c r="G211" t="n">
+        <v>353</v>
+      </c>
+      <c r="H211" t="n">
+        <v>32168</v>
+      </c>
+      <c r="I211" t="n">
+        <v>138396</v>
+      </c>
+      <c r="J211" t="n">
+        <v>322000</v>
+      </c>
+      <c r="K211" t="n">
+        <v>60103</v>
+      </c>
+      <c r="L211" t="n">
+        <v>5187</v>
+      </c>
+      <c r="M211" t="n">
+        <v>-6977</v>
+      </c>
+      <c r="N211" t="n">
+        <v>-31710</v>
+      </c>
+      <c r="O211" t="n">
+        <v>-73964</v>
+      </c>
+      <c r="P211" t="n">
+        <v>-4740</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>-653.1</v>
+      </c>
+      <c r="R211" t="n">
+        <v>-88614</v>
+      </c>
+      <c r="S211" t="n">
+        <v>-9349.9</v>
+      </c>
+      <c r="T211" t="n">
+        <v>-1714</v>
+      </c>
+      <c r="U211" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="V211" t="n">
+        <v>-854</v>
+      </c>
+      <c r="W211" t="n">
+        <v>-343.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>-2403</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3330,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -3404,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -6142,7 +6142,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19979</v>
+        <v>19980</v>
       </c>
       <c r="G80" t="n">
         <v>2464</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19541</v>
+        <v>19542</v>
       </c>
       <c r="G81" t="n">
         <v>2475</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18917</v>
+        <v>18918</v>
       </c>
       <c r="G83" t="n">
         <v>2348</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18032</v>
+        <v>18033</v>
       </c>
       <c r="G84" t="n">
         <v>2255</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17140</v>
+        <v>17141</v>
       </c>
       <c r="G85" t="n">
         <v>2194</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16368</v>
+        <v>16369</v>
       </c>
       <c r="G86" t="n">
         <v>2108</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16667</v>
+        <v>16668</v>
       </c>
       <c r="G87" t="n">
         <v>2235</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16181</v>
+        <v>16182</v>
       </c>
       <c r="G88" t="n">
         <v>2185</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16069</v>
+        <v>16070</v>
       </c>
       <c r="G89" t="n">
         <v>2188</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15550</v>
+        <v>15551</v>
       </c>
       <c r="G90" t="n">
         <v>2042</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14974</v>
+        <v>14975</v>
       </c>
       <c r="G91" t="n">
         <v>1975</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14353</v>
+        <v>14354</v>
       </c>
       <c r="G92" t="n">
         <v>1868</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13679</v>
+        <v>13680</v>
       </c>
       <c r="G98" t="n">
         <v>1901</v>
@@ -8436,7 +8436,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9238</v>
+        <v>9239</v>
       </c>
       <c r="G111" t="n">
         <v>1231</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8054</v>
+        <v>8055</v>
       </c>
       <c r="G115" t="n">
         <v>704</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="G116" t="n">
         <v>677</v>
@@ -8880,7 +8880,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="G117" t="n">
         <v>658</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7731</v>
+        <v>7732</v>
       </c>
       <c r="G118" t="n">
         <v>644</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="G119" t="n">
         <v>597</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="G120" t="n">
         <v>534</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="G121" t="n">
         <v>529</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="G122" t="n">
         <v>508</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="G123" t="n">
         <v>513</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="G124" t="n">
         <v>508</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="G125" t="n">
         <v>470</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="G126" t="n">
         <v>444</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="G127" t="n">
         <v>422</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="G128" t="n">
         <v>400</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="G129" t="n">
         <v>401</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="G130" t="n">
         <v>400</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="G131" t="n">
         <v>391</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="G132" t="n">
         <v>372</v>
@@ -10064,7 +10064,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="G133" t="n">
         <v>334</v>
@@ -10138,7 +10138,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="G134" t="n">
         <v>333</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="G135" t="n">
         <v>322</v>
@@ -10286,7 +10286,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G136" t="n">
         <v>292</v>
@@ -10360,7 +10360,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G137" t="n">
         <v>284</v>
@@ -10434,7 +10434,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G138" t="n">
         <v>299</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G139" t="n">
         <v>288</v>
@@ -10582,10 +10582,10 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="G140" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H140" t="n">
         <v>33553</v>
@@ -10656,10 +10656,10 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="G141" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H141" t="n">
         <v>33589</v>
@@ -10730,10 +10730,10 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="G142" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H142" t="n">
         <v>33596</v>
@@ -10804,7 +10804,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="G143" t="n">
         <v>225</v>
@@ -10878,7 +10878,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="G144" t="n">
         <v>230</v>
@@ -10952,7 +10952,7 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="G145" t="n">
         <v>212</v>
@@ -11026,7 +11026,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="G146" t="n">
         <v>203</v>
@@ -11100,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="G147" t="n">
         <v>203</v>
@@ -11174,7 +11174,7 @@
         <v>896</v>
       </c>
       <c r="F148" t="n">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="G148" t="n">
         <v>204</v>
@@ -11248,7 +11248,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G149" t="n">
         <v>188</v>
@@ -11322,7 +11322,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="G150" t="n">
         <v>179</v>
@@ -11396,7 +11396,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="G151" t="n">
         <v>146</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="G152" t="n">
         <v>177</v>
@@ -11544,7 +11544,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G153" t="n">
         <v>174</v>
@@ -11618,10 +11618,10 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G154" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H154" t="n">
         <v>33742</v>
@@ -11692,10 +11692,10 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G155" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H155" t="n">
         <v>33753</v>
@@ -11766,7 +11766,7 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G156" t="n">
         <v>153</v>
@@ -11840,7 +11840,7 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G157" t="n">
         <v>73</v>
@@ -11914,7 +11914,7 @@
         <v>63</v>
       </c>
       <c r="F158" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G158" t="n">
         <v>61</v>
@@ -11988,7 +11988,7 @@
         <v>205</v>
       </c>
       <c r="F159" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G159" t="n">
         <v>146</v>
@@ -12062,7 +12062,7 @@
         <v>200</v>
       </c>
       <c r="F160" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G160" t="n">
         <v>144</v>
@@ -12136,7 +12136,7 @@
         <v>198</v>
       </c>
       <c r="F161" t="n">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="G161" t="n">
         <v>132</v>
@@ -12210,7 +12210,7 @@
         <v>1091</v>
       </c>
       <c r="F162" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G162" t="n">
         <v>128</v>
@@ -12284,7 +12284,7 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="G163" t="n">
         <v>123</v>
@@ -12358,7 +12358,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G164" t="n">
         <v>65</v>
@@ -12432,7 +12432,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="G165" t="n">
         <v>65</v>
@@ -12506,7 +12506,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="G166" t="n">
         <v>135</v>
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12654,7 +12654,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="G168" t="n">
         <v>132</v>
@@ -12728,7 +12728,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G169" t="n">
         <v>129</v>
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="G170" t="n">
         <v>128</v>
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -12950,7 +12950,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="G172" t="n">
         <v>78</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
@@ -13098,7 +13098,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G174" t="n">
         <v>144</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="G175" t="n">
         <v>157</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G176" t="n">
         <v>158</v>
@@ -13320,7 +13320,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G177" t="n">
         <v>176</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="G178" t="n">
         <v>115</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="G179" t="n">
         <v>107</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G180" t="n">
         <v>198</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="G181" t="n">
         <v>214</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G182" t="n">
         <v>206</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="G183" t="n">
         <v>214</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="G184" t="n">
         <v>216</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="G186" t="n">
         <v>129</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="G187" t="n">
         <v>255</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="G188" t="n">
         <v>258</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="G189" t="n">
         <v>262</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="G190" t="n">
         <v>266</v>
@@ -14356,7 +14356,7 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="G191" t="n">
         <v>277</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="G192" t="n">
         <v>189</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="G193" t="n">
         <v>219</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="G194" t="n">
         <v>318</v>
@@ -14652,7 +14652,7 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="G195" t="n">
         <v>341</v>
@@ -14726,7 +14726,7 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="G196" t="n">
         <v>350</v>
@@ -14800,7 +14800,7 @@
         <v>15048</v>
       </c>
       <c r="F197" t="n">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="G197" t="n">
         <v>368</v>
@@ -14874,7 +14874,7 @@
         <v>3952</v>
       </c>
       <c r="F198" t="n">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="G198" t="n">
         <v>384</v>
@@ -14948,7 +14948,7 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="G199" t="n">
         <v>253</v>
@@ -15022,7 +15022,7 @@
         <v>1396</v>
       </c>
       <c r="F200" t="n">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="G200" t="n">
         <v>275</v>
@@ -15096,7 +15096,7 @@
         <v>16780</v>
       </c>
       <c r="F201" t="n">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="G201" t="n">
         <v>451</v>
@@ -15170,7 +15170,7 @@
         <v>16980</v>
       </c>
       <c r="F202" t="n">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="G202" t="n">
         <v>463</v>
@@ -15244,7 +15244,7 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3863</v>
+        <v>3865</v>
       </c>
       <c r="G203" t="n">
         <v>464</v>
@@ -15318,13 +15318,13 @@
         <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>3993</v>
+        <v>3995</v>
       </c>
       <c r="G204" t="n">
         <v>487</v>
       </c>
       <c r="H204" t="n">
-        <v>34571</v>
+        <v>34572</v>
       </c>
       <c r="I204" t="n">
         <v>142968</v>
@@ -15360,19 +15360,19 @@
         <v>5827.6</v>
       </c>
       <c r="T204" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U204" t="n">
         <v>0.1</v>
       </c>
       <c r="V204" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="W204" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="X204" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205">
@@ -15392,13 +15392,13 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4066</v>
+        <v>4069</v>
       </c>
       <c r="G205" t="n">
         <v>512</v>
       </c>
       <c r="H205" t="n">
-        <v>34599</v>
+        <v>34600</v>
       </c>
       <c r="I205" t="n">
         <v>145373</v>
@@ -15440,13 +15440,13 @@
         <v>0.1</v>
       </c>
       <c r="V205" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="W205" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="X205" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206">
@@ -15466,13 +15466,13 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="G206" t="n">
         <v>312</v>
       </c>
       <c r="H206" t="n">
-        <v>34612</v>
+        <v>34614</v>
       </c>
       <c r="I206" t="n">
         <v>141301</v>
@@ -15508,19 +15508,19 @@
         <v>6172.3</v>
       </c>
       <c r="T206" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U206" t="n">
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="W206" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="X206" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207">
@@ -15540,13 +15540,13 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4136</v>
+        <v>4138</v>
       </c>
       <c r="G207" t="n">
         <v>318</v>
       </c>
       <c r="H207" t="n">
-        <v>34673</v>
+        <v>34675</v>
       </c>
       <c r="I207" t="n">
         <v>167082</v>
@@ -15588,13 +15588,13 @@
         <v>0.2</v>
       </c>
       <c r="V207" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="W207" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="X207" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208">
@@ -15614,13 +15614,13 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4689</v>
+        <v>4696</v>
       </c>
       <c r="G208" t="n">
-        <v>454</v>
+        <v>581</v>
       </c>
       <c r="H208" t="n">
-        <v>34730</v>
+        <v>34746</v>
       </c>
       <c r="I208" t="n">
         <v>174869</v>
@@ -15656,19 +15656,19 @@
         <v>6345.6</v>
       </c>
       <c r="T208" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="U208" t="n">
         <v>0.2</v>
       </c>
       <c r="V208" t="n">
-        <v>43.7</v>
+        <v>48.7</v>
       </c>
       <c r="W208" t="n">
-        <v>37.7</v>
+        <v>40</v>
       </c>
       <c r="X208" t="n">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209">
@@ -15688,13 +15688,13 @@
         <v>5565</v>
       </c>
       <c r="F209" t="n">
-        <v>4852</v>
+        <v>4859</v>
       </c>
       <c r="G209" t="n">
         <v>481</v>
       </c>
       <c r="H209" t="n">
-        <v>34759</v>
+        <v>34775</v>
       </c>
       <c r="I209" t="n">
         <v>153174</v>
@@ -15736,13 +15736,13 @@
         <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>49</v>
+        <v>53.7</v>
       </c>
       <c r="W209" t="n">
-        <v>35.6</v>
+        <v>37.9</v>
       </c>
       <c r="X209" t="n">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210">
@@ -15750,73 +15750,73 @@
         <v>44069</v>
       </c>
       <c r="B210" t="n">
-        <v>1100</v>
+        <v>1332</v>
       </c>
       <c r="C210" t="n">
         <v>3726</v>
       </c>
       <c r="D210" t="n">
-        <v>55</v>
+        <v>64782</v>
       </c>
       <c r="E210" t="n">
         <v>5968</v>
       </c>
       <c r="F210" t="n">
-        <v>4746</v>
+        <v>4920</v>
       </c>
       <c r="G210" t="n">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="H210" t="n">
-        <v>33882</v>
+        <v>34056</v>
       </c>
       <c r="I210" t="n">
-        <v>143136</v>
+        <v>150505</v>
       </c>
       <c r="J210" t="n">
-        <v>410614</v>
+        <v>416277</v>
       </c>
       <c r="K210" t="n">
         <v>61777</v>
       </c>
       <c r="L210" t="n">
-        <v>-8379</v>
+        <v>-1010</v>
       </c>
       <c r="M210" t="n">
-        <v>168</v>
+        <v>7537</v>
       </c>
       <c r="N210" t="n">
-        <v>63958</v>
+        <v>69621</v>
       </c>
       <c r="O210" t="n">
-        <v>23165</v>
+        <v>28828</v>
       </c>
       <c r="P210" t="n">
-        <v>-10038</v>
+        <v>-2669</v>
       </c>
       <c r="Q210" t="n">
-        <v>-2986.6</v>
+        <v>-1933.9</v>
       </c>
       <c r="R210" t="n">
-        <v>-7821</v>
+        <v>-2158</v>
       </c>
       <c r="S210" t="n">
-        <v>4374.4</v>
+        <v>5183.4</v>
       </c>
       <c r="T210" t="n">
-        <v>-877</v>
+        <v>-719</v>
       </c>
       <c r="U210" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="V210" t="n">
-        <v>-263.7</v>
+        <v>-206.3</v>
       </c>
       <c r="W210" t="n">
-        <v>-95.4</v>
+        <v>-70.6</v>
       </c>
       <c r="X210" t="n">
-        <v>-668</v>
+        <v>-494</v>
       </c>
     </row>
     <row r="211">
@@ -15824,73 +15824,147 @@
         <v>44070</v>
       </c>
       <c r="B211" t="n">
-        <v>1024</v>
+        <v>1362</v>
       </c>
       <c r="C211" t="n">
-        <v>991</v>
+        <v>2566</v>
       </c>
       <c r="D211" t="n">
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>3442</v>
+        <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>3720</v>
+        <v>4311</v>
       </c>
       <c r="G211" t="n">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="H211" t="n">
-        <v>32168</v>
+        <v>32223</v>
       </c>
       <c r="I211" t="n">
-        <v>138396</v>
+        <v>144264</v>
       </c>
       <c r="J211" t="n">
-        <v>322000</v>
+        <v>380034</v>
       </c>
       <c r="K211" t="n">
-        <v>60103</v>
+        <v>62676</v>
       </c>
       <c r="L211" t="n">
-        <v>5187</v>
+        <v>11055</v>
       </c>
       <c r="M211" t="n">
-        <v>-6977</v>
+        <v>-1109</v>
       </c>
       <c r="N211" t="n">
-        <v>-31710</v>
+        <v>26324</v>
       </c>
       <c r="O211" t="n">
-        <v>-73964</v>
+        <v>-15930</v>
       </c>
       <c r="P211" t="n">
-        <v>-4740</v>
+        <v>-6241</v>
       </c>
       <c r="Q211" t="n">
-        <v>-653.1</v>
+        <v>185.1</v>
       </c>
       <c r="R211" t="n">
-        <v>-88614</v>
+        <v>-36243</v>
       </c>
       <c r="S211" t="n">
-        <v>-9349.9</v>
+        <v>-1059.3</v>
       </c>
       <c r="T211" t="n">
-        <v>-1714</v>
+        <v>-1833</v>
       </c>
       <c r="U211" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="V211" t="n">
-        <v>-854</v>
+        <v>-841</v>
       </c>
       <c r="W211" t="n">
-        <v>-343.3</v>
+        <v>-335.6</v>
       </c>
       <c r="X211" t="n">
-        <v>-2403</v>
+        <v>-2349</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>44071</v>
+      </c>
+      <c r="B212" t="n">
+        <v>454</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>724</v>
+      </c>
+      <c r="G212" t="n">
+        <v>37</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4231</v>
+      </c>
+      <c r="I212" t="n">
+        <v>16066</v>
+      </c>
+      <c r="J212" t="n">
+        <v>62027</v>
+      </c>
+      <c r="K212" t="n">
+        <v>28830</v>
+      </c>
+      <c r="L212" t="n">
+        <v>-114011</v>
+      </c>
+      <c r="M212" t="n">
+        <v>-125235</v>
+      </c>
+      <c r="N212" t="n">
+        <v>-295628</v>
+      </c>
+      <c r="O212" t="n">
+        <v>-338834</v>
+      </c>
+      <c r="P212" t="n">
+        <v>-128198</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>-18472.4</v>
+      </c>
+      <c r="R212" t="n">
+        <v>-318007</v>
+      </c>
+      <c r="S212" t="n">
+        <v>-47705.3</v>
+      </c>
+      <c r="T212" t="n">
+        <v>-27992</v>
+      </c>
+      <c r="U212" t="n">
+        <v>-86.9</v>
+      </c>
+      <c r="V212" t="n">
+        <v>-10181.3</v>
+      </c>
+      <c r="W212" t="n">
+        <v>-4338.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>-30369</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -3046,7 +3046,7 @@
         <v>1003</v>
       </c>
       <c r="J38" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>929</v>
       </c>
       <c r="N38" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O38" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P38" t="n">
         <v>302</v>
@@ -3070,10 +3070,10 @@
         <v>137.1</v>
       </c>
       <c r="R38" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S38" t="n">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="T38" t="n">
         <v>6</v>
@@ -3120,7 +3120,7 @@
         <v>1374</v>
       </c>
       <c r="J39" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>1241</v>
       </c>
       <c r="N39" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="O39" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="P39" t="n">
         <v>371</v>
@@ -3147,7 +3147,7 @@
         <v>315</v>
       </c>
       <c r="S39" t="n">
-        <v>162.7</v>
+        <v>162.9</v>
       </c>
       <c r="T39" t="n">
         <v>14</v>
@@ -3194,7 +3194,7 @@
         <v>2032</v>
       </c>
       <c r="J40" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>1837</v>
       </c>
       <c r="N40" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="O40" t="n">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3221,7 +3221,7 @@
         <v>603</v>
       </c>
       <c r="S40" t="n">
-        <v>240.6</v>
+        <v>240.7</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -3268,7 +3268,7 @@
         <v>2982</v>
       </c>
       <c r="J41" t="n">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>2716</v>
       </c>
       <c r="N41" t="n">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="O41" t="n">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="P41" t="n">
         <v>950</v>
@@ -3295,7 +3295,7 @@
         <v>871</v>
       </c>
       <c r="S41" t="n">
-        <v>357.3</v>
+        <v>357.4</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="O42" t="n">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="S42" t="n">
-        <v>482.4</v>
+        <v>482.7</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4782</v>
+        <v>4785</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4759</v>
+        <v>4762</v>
       </c>
       <c r="O43" t="n">
-        <v>4163</v>
+        <v>4166</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3440,10 +3440,10 @@
         <v>698.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="S43" t="n">
-        <v>628</v>
+        <v>628.4</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6221</v>
+        <v>6224</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6188</v>
+        <v>6191</v>
       </c>
       <c r="O44" t="n">
-        <v>5337</v>
+        <v>5339</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3517,7 +3517,7 @@
         <v>1439</v>
       </c>
       <c r="S44" t="n">
-        <v>800.3</v>
+        <v>800.7</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7599</v>
+        <v>7603</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7539</v>
+        <v>7543</v>
       </c>
       <c r="O45" t="n">
-        <v>6400</v>
+        <v>6403</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3588,10 +3588,10 @@
         <v>1189.3</v>
       </c>
       <c r="R45" t="n">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="S45" t="n">
-        <v>959.3</v>
+        <v>959.7</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9061</v>
+        <v>9065</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8943</v>
+        <v>8947</v>
       </c>
       <c r="O46" t="n">
-        <v>7259</v>
+        <v>7262</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1462</v>
       </c>
       <c r="S46" t="n">
-        <v>1123.1</v>
+        <v>1123.6</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11227</v>
+        <v>11231</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11055</v>
+        <v>11059</v>
       </c>
       <c r="O47" t="n">
-        <v>8554</v>
+        <v>8557</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1346.4</v>
+        <v>1346.9</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3786,7 +3786,7 @@
         <v>17583</v>
       </c>
       <c r="J48" t="n">
-        <v>14276</v>
+        <v>14281</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13543</v>
       </c>
       <c r="N48" t="n">
-        <v>14031</v>
+        <v>14036</v>
       </c>
       <c r="O48" t="n">
-        <v>10654</v>
+        <v>10657</v>
       </c>
       <c r="P48" t="n">
         <v>3749</v>
@@ -3810,10 +3810,10 @@
         <v>2085.9</v>
       </c>
       <c r="R48" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="S48" t="n">
-        <v>1657.6</v>
+        <v>1658.1</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3860,7 +3860,7 @@
         <v>20761</v>
       </c>
       <c r="J49" t="n">
-        <v>17356</v>
+        <v>17364</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15432</v>
       </c>
       <c r="N49" t="n">
-        <v>16970</v>
+        <v>16978</v>
       </c>
       <c r="O49" t="n">
-        <v>12574</v>
+        <v>12579</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3884,10 +3884,10 @@
         <v>2388.7</v>
       </c>
       <c r="R49" t="n">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="S49" t="n">
-        <v>1962</v>
+        <v>1962.9</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3934,7 +3934,7 @@
         <v>26438</v>
       </c>
       <c r="J50" t="n">
-        <v>21113</v>
+        <v>21122</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19039</v>
       </c>
       <c r="N50" t="n">
-        <v>20494</v>
+        <v>20503</v>
       </c>
       <c r="O50" t="n">
-        <v>14892</v>
+        <v>14898</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3958,10 +3958,10 @@
         <v>3015.6</v>
       </c>
       <c r="R50" t="n">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="S50" t="n">
-        <v>2333</v>
+        <v>2333.9</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>32044</v>
       </c>
       <c r="J51" t="n">
-        <v>25358</v>
+        <v>25367</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22716</v>
       </c>
       <c r="N51" t="n">
-        <v>24474</v>
+        <v>24482</v>
       </c>
       <c r="O51" t="n">
-        <v>17759</v>
+        <v>17764</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4035,7 +4035,7 @@
         <v>4245</v>
       </c>
       <c r="S51" t="n">
-        <v>2733.9</v>
+        <v>2734.7</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4082,7 +4082,7 @@
         <v>36740</v>
       </c>
       <c r="J52" t="n">
-        <v>28734</v>
+        <v>28744</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,10 +4094,10 @@
         <v>25349</v>
       </c>
       <c r="N52" t="n">
-        <v>27535</v>
+        <v>27544</v>
       </c>
       <c r="O52" t="n">
-        <v>19673</v>
+        <v>19679</v>
       </c>
       <c r="P52" t="n">
         <v>4696</v>
@@ -4106,10 +4106,10 @@
         <v>3916</v>
       </c>
       <c r="R52" t="n">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="S52" t="n">
-        <v>3019.3</v>
+        <v>3020.1</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4156,7 +4156,7 @@
         <v>40707</v>
       </c>
       <c r="J53" t="n">
-        <v>31692</v>
+        <v>31702</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,10 +4168,10 @@
         <v>26873</v>
       </c>
       <c r="N53" t="n">
-        <v>29890</v>
+        <v>29899</v>
       </c>
       <c r="O53" t="n">
-        <v>20465</v>
+        <v>20471</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4183,7 +4183,7 @@
         <v>2958</v>
       </c>
       <c r="S53" t="n">
-        <v>3233</v>
+        <v>3233.9</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4230,7 +4230,7 @@
         <v>47102</v>
       </c>
       <c r="J54" t="n">
-        <v>36492</v>
+        <v>36503</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33819</v>
+        <v>33829</v>
       </c>
       <c r="O54" t="n">
-        <v>22216</v>
+        <v>22222</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4254,10 +4254,10 @@
         <v>4752.6</v>
       </c>
       <c r="R54" t="n">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="S54" t="n">
-        <v>3609.3</v>
+        <v>3610.3</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4292,10 +4292,10 @@
         <v>6463</v>
       </c>
       <c r="F55" t="n">
-        <v>15348</v>
+        <v>15576</v>
       </c>
       <c r="G55" t="n">
-        <v>1812</v>
+        <v>1863</v>
       </c>
       <c r="H55" t="n">
         <v>4001</v>
@@ -4304,7 +4304,7 @@
         <v>52409</v>
       </c>
       <c r="J55" t="n">
-        <v>42028</v>
+        <v>42040</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38406</v>
+        <v>38416</v>
       </c>
       <c r="O55" t="n">
-        <v>24672</v>
+        <v>24676</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4328,10 +4328,10 @@
         <v>4975.1</v>
       </c>
       <c r="R55" t="n">
-        <v>5536</v>
+        <v>5537</v>
       </c>
       <c r="S55" t="n">
-        <v>3964.6</v>
+        <v>3965.6</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4366,7 +4366,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17038</v>
+        <v>17266</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4378,7 +4378,7 @@
         <v>63101</v>
       </c>
       <c r="J56" t="n">
-        <v>47562</v>
+        <v>47575</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42780</v>
+        <v>42790</v>
       </c>
       <c r="O56" t="n">
-        <v>26449</v>
+        <v>26453</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4402,10 +4402,10 @@
         <v>6048.6</v>
       </c>
       <c r="R56" t="n">
-        <v>5534</v>
+        <v>5535</v>
       </c>
       <c r="S56" t="n">
-        <v>4315.1</v>
+        <v>4315.9</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4431,7 +4431,7 @@
         <v>4299</v>
       </c>
       <c r="C57" t="n">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4440,46 +4440,46 @@
         <v>10231</v>
       </c>
       <c r="F57" t="n">
-        <v>19109</v>
+        <v>19398</v>
       </c>
       <c r="G57" t="n">
-        <v>2277</v>
+        <v>2349</v>
       </c>
       <c r="H57" t="n">
         <v>5602</v>
       </c>
       <c r="I57" t="n">
-        <v>72679</v>
+        <v>72678</v>
       </c>
       <c r="J57" t="n">
-        <v>54362</v>
+        <v>54374</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
       </c>
       <c r="L57" t="n">
-        <v>65280</v>
+        <v>65279</v>
       </c>
       <c r="M57" t="n">
-        <v>40635</v>
+        <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48141</v>
+        <v>48150</v>
       </c>
       <c r="O57" t="n">
-        <v>29004</v>
+        <v>29007</v>
       </c>
       <c r="P57" t="n">
-        <v>9578</v>
+        <v>9577</v>
       </c>
       <c r="Q57" t="n">
-        <v>6605.9</v>
+        <v>6605.7</v>
       </c>
       <c r="R57" t="n">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="S57" t="n">
-        <v>4749.9</v>
+        <v>4750.3</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4514,46 +4514,46 @@
         <v>7725</v>
       </c>
       <c r="F58" t="n">
-        <v>20973</v>
+        <v>21288</v>
       </c>
       <c r="G58" t="n">
-        <v>2419</v>
+        <v>2496</v>
       </c>
       <c r="H58" t="n">
         <v>6575</v>
       </c>
       <c r="I58" t="n">
-        <v>81191</v>
+        <v>81190</v>
       </c>
       <c r="J58" t="n">
-        <v>59336</v>
+        <v>59350</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
       </c>
       <c r="L58" t="n">
-        <v>71863</v>
+        <v>71862</v>
       </c>
       <c r="M58" t="n">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51737</v>
+        <v>51747</v>
       </c>
       <c r="O58" t="n">
-        <v>30602</v>
+        <v>30606</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
       </c>
       <c r="Q58" t="n">
-        <v>7021</v>
+        <v>7020.9</v>
       </c>
       <c r="R58" t="n">
-        <v>4974</v>
+        <v>4976</v>
       </c>
       <c r="S58" t="n">
-        <v>4854</v>
+        <v>4854.7</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4588,46 +4588,46 @@
         <v>12037</v>
       </c>
       <c r="F59" t="n">
-        <v>23530</v>
+        <v>23872</v>
       </c>
       <c r="G59" t="n">
-        <v>2811</v>
+        <v>2909</v>
       </c>
       <c r="H59" t="n">
         <v>7628</v>
       </c>
       <c r="I59" t="n">
-        <v>89783</v>
+        <v>89782</v>
       </c>
       <c r="J59" t="n">
-        <v>62684</v>
+        <v>62698</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
       </c>
       <c r="L59" t="n">
-        <v>78392</v>
+        <v>78391</v>
       </c>
       <c r="M59" t="n">
-        <v>49076</v>
+        <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53623</v>
+        <v>53633</v>
       </c>
       <c r="O59" t="n">
-        <v>30992</v>
+        <v>30996</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
       </c>
       <c r="Q59" t="n">
-        <v>7577.6</v>
+        <v>7577.4</v>
       </c>
       <c r="R59" t="n">
         <v>3348</v>
       </c>
       <c r="S59" t="n">
-        <v>4850</v>
+        <v>4850.6</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4662,46 +4662,46 @@
         <v>10255</v>
       </c>
       <c r="F60" t="n">
-        <v>27370</v>
+        <v>27733</v>
       </c>
       <c r="G60" t="n">
-        <v>2943</v>
+        <v>3033</v>
       </c>
       <c r="H60" t="n">
         <v>8602</v>
       </c>
       <c r="I60" t="n">
-        <v>96087</v>
+        <v>96086</v>
       </c>
       <c r="J60" t="n">
-        <v>65358</v>
+        <v>65372</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
       </c>
       <c r="L60" t="n">
-        <v>82253</v>
+        <v>82252</v>
       </c>
       <c r="M60" t="n">
-        <v>48985</v>
+        <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54131</v>
+        <v>54141</v>
       </c>
       <c r="O60" t="n">
-        <v>28866</v>
+        <v>28869</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
       </c>
       <c r="Q60" t="n">
-        <v>7911.4</v>
+        <v>7911.3</v>
       </c>
       <c r="R60" t="n">
         <v>2674</v>
       </c>
       <c r="S60" t="n">
-        <v>4809.4</v>
+        <v>4810</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4727,7 +4727,7 @@
         <v>3279</v>
       </c>
       <c r="C61" t="n">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -4736,46 +4736,46 @@
         <v>13367</v>
       </c>
       <c r="F61" t="n">
-        <v>28296</v>
+        <v>28691</v>
       </c>
       <c r="G61" t="n">
-        <v>3348</v>
+        <v>3442</v>
       </c>
       <c r="H61" t="n">
         <v>9548</v>
       </c>
       <c r="I61" t="n">
-        <v>103279</v>
+        <v>103277</v>
       </c>
       <c r="J61" t="n">
-        <v>70217</v>
+        <v>70232</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
       </c>
       <c r="L61" t="n">
-        <v>85696</v>
+        <v>85694</v>
       </c>
       <c r="M61" t="n">
-        <v>50870</v>
+        <v>50868</v>
       </c>
       <c r="N61" t="n">
-        <v>55941</v>
+        <v>55951</v>
       </c>
       <c r="O61" t="n">
-        <v>28189</v>
+        <v>28192</v>
       </c>
       <c r="P61" t="n">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="Q61" t="n">
-        <v>8025.3</v>
+        <v>8025</v>
       </c>
       <c r="R61" t="n">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="S61" t="n">
-        <v>4817.9</v>
+        <v>4818.4</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4810,46 +4810,46 @@
         <v>13914</v>
       </c>
       <c r="F62" t="n">
-        <v>29187</v>
+        <v>29571</v>
       </c>
       <c r="G62" t="n">
-        <v>3188</v>
+        <v>3287</v>
       </c>
       <c r="H62" t="n">
         <v>10614</v>
       </c>
       <c r="I62" t="n">
-        <v>108827</v>
+        <v>108825</v>
       </c>
       <c r="J62" t="n">
-        <v>74486</v>
+        <v>74502</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
       </c>
       <c r="L62" t="n">
-        <v>88066</v>
+        <v>88064</v>
       </c>
       <c r="M62" t="n">
-        <v>45726</v>
+        <v>45724</v>
       </c>
       <c r="N62" t="n">
-        <v>57130</v>
+        <v>57138</v>
       </c>
       <c r="O62" t="n">
-        <v>26924</v>
+        <v>26927</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
       </c>
       <c r="Q62" t="n">
-        <v>8059.7</v>
+        <v>8059.4</v>
       </c>
       <c r="R62" t="n">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="S62" t="n">
-        <v>4636.9</v>
+        <v>4637.4</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4875,7 +4875,7 @@
         <v>4687</v>
       </c>
       <c r="C63" t="n">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4884,46 +4884,46 @@
         <v>19858</v>
       </c>
       <c r="F63" t="n">
-        <v>30470</v>
+        <v>30807</v>
       </c>
       <c r="G63" t="n">
-        <v>3355</v>
+        <v>3460</v>
       </c>
       <c r="H63" t="n">
         <v>11637</v>
       </c>
       <c r="I63" t="n">
-        <v>117179</v>
+        <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78311</v>
+        <v>78330</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
       </c>
       <c r="L63" t="n">
-        <v>90741</v>
+        <v>90740</v>
       </c>
       <c r="M63" t="n">
         <v>44500</v>
       </c>
       <c r="N63" t="n">
-        <v>57198</v>
+        <v>57208</v>
       </c>
       <c r="O63" t="n">
-        <v>23949</v>
+        <v>23956</v>
       </c>
       <c r="P63" t="n">
-        <v>8352</v>
+        <v>8353</v>
       </c>
       <c r="Q63" t="n">
-        <v>7725.4</v>
+        <v>7725.3</v>
       </c>
       <c r="R63" t="n">
-        <v>3825</v>
+        <v>3828</v>
       </c>
       <c r="S63" t="n">
-        <v>4392.7</v>
+        <v>4393.6</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4958,34 +4958,34 @@
         <v>16375</v>
       </c>
       <c r="F64" t="n">
-        <v>30595</v>
+        <v>30936</v>
       </c>
       <c r="G64" t="n">
-        <v>3444</v>
+        <v>3551</v>
       </c>
       <c r="H64" t="n">
         <v>12719</v>
       </c>
       <c r="I64" t="n">
-        <v>123953</v>
+        <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82130</v>
+        <v>82150</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
       </c>
       <c r="L64" t="n">
-        <v>91909</v>
+        <v>91908</v>
       </c>
       <c r="M64" t="n">
         <v>42762</v>
       </c>
       <c r="N64" t="n">
-        <v>56772</v>
+        <v>56783</v>
       </c>
       <c r="O64" t="n">
-        <v>22794</v>
+        <v>22800</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7324.9</v>
       </c>
       <c r="R64" t="n">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="S64" t="n">
-        <v>3966.9</v>
+        <v>3968</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5032,34 +5032,34 @@
         <v>4709</v>
       </c>
       <c r="F65" t="n">
-        <v>30392</v>
+        <v>30724</v>
       </c>
       <c r="G65" t="n">
-        <v>3424</v>
+        <v>3529</v>
       </c>
       <c r="H65" t="n">
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130641</v>
+        <v>130640</v>
       </c>
       <c r="J65" t="n">
-        <v>86006</v>
+        <v>86027</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
       </c>
       <c r="L65" t="n">
-        <v>93901</v>
+        <v>93900</v>
       </c>
       <c r="M65" t="n">
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57272</v>
+        <v>57283</v>
       </c>
       <c r="O65" t="n">
-        <v>23322</v>
+        <v>23329</v>
       </c>
       <c r="P65" t="n">
         <v>6688</v>
@@ -5068,10 +5068,10 @@
         <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="S65" t="n">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5106,34 +5106,34 @@
         <v>6202</v>
       </c>
       <c r="F66" t="n">
-        <v>30138</v>
+        <v>30476</v>
       </c>
       <c r="G66" t="n">
-        <v>3429</v>
+        <v>3529</v>
       </c>
       <c r="H66" t="n">
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135952</v>
+        <v>135951</v>
       </c>
       <c r="J66" t="n">
-        <v>88440</v>
+        <v>88461</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95245</v>
+        <v>95244</v>
       </c>
       <c r="M66" t="n">
         <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56748</v>
+        <v>56759</v>
       </c>
       <c r="O66" t="n">
-        <v>23082</v>
+        <v>23089</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
@@ -5145,7 +5145,7 @@
         <v>2434</v>
       </c>
       <c r="S66" t="n">
-        <v>3679.4</v>
+        <v>3680.4</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5180,34 +5180,34 @@
         <v>4748</v>
       </c>
       <c r="F67" t="n">
-        <v>29996</v>
+        <v>30340</v>
       </c>
       <c r="G67" t="n">
-        <v>3424</v>
+        <v>3525</v>
       </c>
       <c r="H67" t="n">
         <v>15502</v>
       </c>
       <c r="I67" t="n">
-        <v>139714</v>
+        <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90096</v>
+        <v>90118</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
       </c>
       <c r="L67" t="n">
-        <v>92612</v>
+        <v>92611</v>
       </c>
       <c r="M67" t="n">
-        <v>36435</v>
+        <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53604</v>
+        <v>53615</v>
       </c>
       <c r="O67" t="n">
-        <v>19879</v>
+        <v>19886</v>
       </c>
       <c r="P67" t="n">
         <v>3762</v>
@@ -5216,10 +5216,10 @@
         <v>6232.4</v>
       </c>
       <c r="R67" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="S67" t="n">
-        <v>3534</v>
+        <v>3535.1</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5254,46 +5254,46 @@
         <v>7508</v>
       </c>
       <c r="F68" t="n">
-        <v>29685</v>
+        <v>30053</v>
       </c>
       <c r="G68" t="n">
-        <v>3430</v>
+        <v>3528</v>
       </c>
       <c r="H68" t="n">
         <v>16424</v>
       </c>
       <c r="I68" t="n">
-        <v>144600</v>
+        <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93315</v>
+        <v>93337</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
       </c>
       <c r="L68" t="n">
-        <v>92191</v>
+        <v>92190</v>
       </c>
       <c r="M68" t="n">
-        <v>35773</v>
+        <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51287</v>
+        <v>51297</v>
       </c>
       <c r="O68" t="n">
-        <v>18829</v>
+        <v>18835</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
       </c>
       <c r="Q68" t="n">
-        <v>5903</v>
+        <v>5903.1</v>
       </c>
       <c r="R68" t="n">
         <v>3219</v>
       </c>
       <c r="S68" t="n">
-        <v>3299.7</v>
+        <v>3300.7</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,46 +5328,46 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>28794</v>
+        <v>29171</v>
       </c>
       <c r="G69" t="n">
-        <v>3381</v>
+        <v>3476</v>
       </c>
       <c r="H69" t="n">
         <v>17320</v>
       </c>
       <c r="I69" t="n">
-        <v>149520</v>
+        <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96381</v>
+        <v>96405</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
       </c>
       <c r="L69" t="n">
-        <v>86419</v>
+        <v>86418</v>
       </c>
       <c r="M69" t="n">
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48819</v>
+        <v>48830</v>
       </c>
       <c r="O69" t="n">
-        <v>18070</v>
+        <v>18075</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
       </c>
       <c r="Q69" t="n">
-        <v>5813.3</v>
+        <v>5813.4</v>
       </c>
       <c r="R69" t="n">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="S69" t="n">
-        <v>3127.9</v>
+        <v>3129</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,19 +5402,19 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>27699</v>
+        <v>28073</v>
       </c>
       <c r="G70" t="n">
-        <v>3291</v>
+        <v>3344</v>
       </c>
       <c r="H70" t="n">
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154918</v>
+        <v>154917</v>
       </c>
       <c r="J70" t="n">
-        <v>99505</v>
+        <v>99534</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,10 +5426,10 @@
         <v>30965</v>
       </c>
       <c r="N70" t="n">
-        <v>45143</v>
+        <v>45160</v>
       </c>
       <c r="O70" t="n">
-        <v>17375</v>
+        <v>17384</v>
       </c>
       <c r="P70" t="n">
         <v>5398</v>
@@ -5438,10 +5438,10 @@
         <v>5391.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3124</v>
+        <v>3129</v>
       </c>
       <c r="S70" t="n">
-        <v>3027.7</v>
+        <v>3029.1</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,19 +5476,19 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>26865</v>
+        <v>27235</v>
       </c>
       <c r="G71" t="n">
-        <v>3249</v>
+        <v>3343</v>
       </c>
       <c r="H71" t="n">
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159910</v>
+        <v>159909</v>
       </c>
       <c r="J71" t="n">
-        <v>102127</v>
+        <v>102157</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5500,10 +5500,10 @@
         <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42791</v>
+        <v>42807</v>
       </c>
       <c r="O71" t="n">
-        <v>16121</v>
+        <v>16130</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
@@ -5512,10 +5512,10 @@
         <v>5136.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="S71" t="n">
-        <v>2856.7</v>
+        <v>2858.1</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,19 +5550,19 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>25947</v>
+        <v>26323</v>
       </c>
       <c r="G72" t="n">
-        <v>3163</v>
+        <v>3255</v>
       </c>
       <c r="H72" t="n">
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165065</v>
+        <v>165064</v>
       </c>
       <c r="J72" t="n">
-        <v>104417</v>
+        <v>104446</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5574,10 +5574,10 @@
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41733</v>
+        <v>41748</v>
       </c>
       <c r="O72" t="n">
-        <v>15977</v>
+        <v>15985</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
@@ -5586,10 +5586,10 @@
         <v>4917.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="S72" t="n">
-        <v>2630.1</v>
+        <v>2631.3</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,19 +5624,19 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25144</v>
+        <v>25499</v>
       </c>
       <c r="G73" t="n">
-        <v>3118</v>
+        <v>3205</v>
       </c>
       <c r="H73" t="n">
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168834</v>
+        <v>168833</v>
       </c>
       <c r="J73" t="n">
-        <v>106188</v>
+        <v>106219</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5648,10 +5648,10 @@
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40830</v>
+        <v>40847</v>
       </c>
       <c r="O73" t="n">
-        <v>16092</v>
+        <v>16101</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
@@ -5660,10 +5660,10 @@
         <v>4697.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="S73" t="n">
-        <v>2535.4</v>
+        <v>2536.9</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,34 +5698,34 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24503</v>
+        <v>24839</v>
       </c>
       <c r="G74" t="n">
-        <v>3050</v>
+        <v>3140</v>
       </c>
       <c r="H74" t="n">
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171877</v>
+        <v>171876</v>
       </c>
       <c r="J74" t="n">
-        <v>107441</v>
+        <v>107472</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
       </c>
       <c r="L74" t="n">
-        <v>68598</v>
+        <v>68599</v>
       </c>
       <c r="M74" t="n">
         <v>27277</v>
       </c>
       <c r="N74" t="n">
-        <v>37224</v>
+        <v>37240</v>
       </c>
       <c r="O74" t="n">
-        <v>14126</v>
+        <v>14135</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5737,7 +5737,7 @@
         <v>1253</v>
       </c>
       <c r="S74" t="n">
-        <v>2477.9</v>
+        <v>2479.1</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,34 +5772,34 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24214</v>
+        <v>24570</v>
       </c>
       <c r="G75" t="n">
-        <v>3008</v>
+        <v>3094</v>
       </c>
       <c r="H75" t="n">
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175379</v>
+        <v>175378</v>
       </c>
       <c r="J75" t="n">
-        <v>109373</v>
+        <v>109404</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66552</v>
+        <v>66553</v>
       </c>
       <c r="M75" t="n">
         <v>25859</v>
       </c>
       <c r="N75" t="n">
-        <v>34887</v>
+        <v>34902</v>
       </c>
       <c r="O75" t="n">
-        <v>12992</v>
+        <v>12999</v>
       </c>
       <c r="P75" t="n">
         <v>3502</v>
@@ -5811,7 +5811,7 @@
         <v>1932</v>
       </c>
       <c r="S75" t="n">
-        <v>2294</v>
+        <v>2295.3</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,19 +5846,19 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23400</v>
+        <v>23740</v>
       </c>
       <c r="G76" t="n">
-        <v>2949</v>
+        <v>3037</v>
       </c>
       <c r="H76" t="n">
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179707</v>
+        <v>179706</v>
       </c>
       <c r="J76" t="n">
-        <v>111912</v>
+        <v>111949</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5870,10 +5870,10 @@
         <v>24789</v>
       </c>
       <c r="N76" t="n">
-        <v>33601</v>
+        <v>33619</v>
       </c>
       <c r="O76" t="n">
-        <v>12407</v>
+        <v>12415</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5882,10 +5882,10 @@
         <v>4312.4</v>
       </c>
       <c r="R76" t="n">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="S76" t="n">
-        <v>2218.7</v>
+        <v>2220.6</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5920,19 +5920,19 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22339</v>
+        <v>22676</v>
       </c>
       <c r="G77" t="n">
-        <v>2836</v>
+        <v>2919</v>
       </c>
       <c r="H77" t="n">
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184106</v>
+        <v>184105</v>
       </c>
       <c r="J77" t="n">
-        <v>116941</v>
+        <v>116980</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -5944,10 +5944,10 @@
         <v>24196</v>
       </c>
       <c r="N77" t="n">
-        <v>34811</v>
+        <v>34830</v>
       </c>
       <c r="O77" t="n">
-        <v>14814</v>
+        <v>14823</v>
       </c>
       <c r="P77" t="n">
         <v>4399</v>
@@ -5956,10 +5956,10 @@
         <v>4169.7</v>
       </c>
       <c r="R77" t="n">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="S77" t="n">
-        <v>2490.9</v>
+        <v>2492.3</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,19 +5994,19 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21567</v>
+        <v>21883</v>
       </c>
       <c r="G78" t="n">
-        <v>2610</v>
+        <v>2687</v>
       </c>
       <c r="H78" t="n">
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188815</v>
+        <v>188814</v>
       </c>
       <c r="J78" t="n">
-        <v>119302</v>
+        <v>119342</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -6018,10 +6018,10 @@
         <v>23750</v>
       </c>
       <c r="N78" t="n">
-        <v>33296</v>
+        <v>33315</v>
       </c>
       <c r="O78" t="n">
-        <v>14885</v>
+        <v>14896</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
@@ -6030,10 +6030,10 @@
         <v>4129.3</v>
       </c>
       <c r="R78" t="n">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="S78" t="n">
-        <v>2453.6</v>
+        <v>2455</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6062,52 +6062,52 @@
         <v>1354</v>
       </c>
       <c r="D79" t="n">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E79" t="n">
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20664</v>
+        <v>20977</v>
       </c>
       <c r="G79" t="n">
-        <v>2530</v>
+        <v>2602</v>
       </c>
       <c r="H79" t="n">
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193915</v>
+        <v>193913</v>
       </c>
       <c r="J79" t="n">
-        <v>121598</v>
+        <v>121640</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57963</v>
+        <v>57962</v>
       </c>
       <c r="M79" t="n">
-        <v>25081</v>
+        <v>25080</v>
       </c>
       <c r="N79" t="n">
-        <v>33158</v>
+        <v>33179</v>
       </c>
       <c r="O79" t="n">
-        <v>15410</v>
+        <v>15421</v>
       </c>
       <c r="P79" t="n">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="Q79" t="n">
-        <v>4121.4</v>
+        <v>4121.3</v>
       </c>
       <c r="R79" t="n">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="S79" t="n">
-        <v>2454.4</v>
+        <v>2456.3</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,46 +6142,46 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>19980</v>
+        <v>20250</v>
       </c>
       <c r="G80" t="n">
-        <v>2464</v>
+        <v>2533</v>
       </c>
       <c r="H80" t="n">
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199797</v>
+        <v>199795</v>
       </c>
       <c r="J80" t="n">
-        <v>123075</v>
+        <v>123120</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60083</v>
+        <v>60082</v>
       </c>
       <c r="M80" t="n">
-        <v>27920</v>
+        <v>27919</v>
       </c>
       <c r="N80" t="n">
-        <v>32979</v>
+        <v>33002</v>
       </c>
       <c r="O80" t="n">
-        <v>15634</v>
+        <v>15648</v>
       </c>
       <c r="P80" t="n">
         <v>5882</v>
       </c>
       <c r="Q80" t="n">
-        <v>4423.3</v>
+        <v>4423.1</v>
       </c>
       <c r="R80" t="n">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="S80" t="n">
-        <v>2412.4</v>
+        <v>2414.4</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,46 +6216,46 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19542</v>
+        <v>19798</v>
       </c>
       <c r="G81" t="n">
-        <v>2475</v>
+        <v>2545</v>
       </c>
       <c r="H81" t="n">
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202024</v>
+        <v>202022</v>
       </c>
       <c r="J81" t="n">
-        <v>123946</v>
+        <v>123991</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57424</v>
+        <v>57423</v>
       </c>
       <c r="M81" t="n">
-        <v>26645</v>
+        <v>26644</v>
       </c>
       <c r="N81" t="n">
-        <v>30631</v>
+        <v>30654</v>
       </c>
       <c r="O81" t="n">
-        <v>14573</v>
+        <v>14587</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306.7</v>
+        <v>4306.6</v>
       </c>
       <c r="R81" t="n">
         <v>871</v>
       </c>
       <c r="S81" t="n">
-        <v>2357.9</v>
+        <v>2359.9</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,46 +6290,46 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19362</v>
+        <v>19597</v>
       </c>
       <c r="G82" t="n">
-        <v>2421</v>
+        <v>2494</v>
       </c>
       <c r="H82" t="n">
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204947</v>
+        <v>204945</v>
       </c>
       <c r="J82" t="n">
-        <v>125670</v>
+        <v>125717</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55427</v>
+        <v>55426</v>
       </c>
       <c r="M82" t="n">
-        <v>25240</v>
+        <v>25239</v>
       </c>
       <c r="N82" t="n">
-        <v>29289</v>
+        <v>29312</v>
       </c>
       <c r="O82" t="n">
-        <v>13758</v>
+        <v>13768</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4224</v>
+        <v>4223.9</v>
       </c>
       <c r="R82" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="S82" t="n">
-        <v>2328.1</v>
+        <v>2330.4</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6355,7 +6355,7 @@
         <v>2233</v>
       </c>
       <c r="C83" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D83" t="n">
         <v>5138</v>
@@ -6364,46 +6364,46 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>18918</v>
+        <v>19155</v>
       </c>
       <c r="G83" t="n">
-        <v>2348</v>
+        <v>2417</v>
       </c>
       <c r="H83" t="n">
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208723</v>
+        <v>208720</v>
       </c>
       <c r="J83" t="n">
-        <v>127496</v>
+        <v>127544</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53805</v>
+        <v>53803</v>
       </c>
       <c r="M83" t="n">
-        <v>24617</v>
+        <v>24615</v>
       </c>
       <c r="N83" t="n">
-        <v>27991</v>
+        <v>28010</v>
       </c>
       <c r="O83" t="n">
-        <v>10555</v>
+        <v>10564</v>
       </c>
       <c r="P83" t="n">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="Q83" t="n">
-        <v>4145.1</v>
+        <v>4144.9</v>
       </c>
       <c r="R83" t="n">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="S83" t="n">
-        <v>2226.3</v>
+        <v>2227.9</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6432,52 +6432,52 @@
         <v>1006</v>
       </c>
       <c r="D84" t="n">
-        <v>5809</v>
+        <v>5808</v>
       </c>
       <c r="E84" t="n">
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18033</v>
+        <v>18265</v>
       </c>
       <c r="G84" t="n">
-        <v>2255</v>
+        <v>2322</v>
       </c>
       <c r="H84" t="n">
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213333</v>
+        <v>213329</v>
       </c>
       <c r="J84" t="n">
-        <v>129437</v>
+        <v>129488</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53423</v>
+        <v>53420</v>
       </c>
       <c r="M84" t="n">
-        <v>24518</v>
+        <v>24515</v>
       </c>
       <c r="N84" t="n">
-        <v>27310</v>
+        <v>27331</v>
       </c>
       <c r="O84" t="n">
-        <v>10135</v>
+        <v>10146</v>
       </c>
       <c r="P84" t="n">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="Q84" t="n">
-        <v>4175.3</v>
+        <v>4174.9</v>
       </c>
       <c r="R84" t="n">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="S84" t="n">
-        <v>1785.1</v>
+        <v>1786.9</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,46 +6512,46 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17141</v>
+        <v>17335</v>
       </c>
       <c r="G85" t="n">
-        <v>2194</v>
+        <v>2256</v>
       </c>
       <c r="H85" t="n">
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217054</v>
+        <v>217050</v>
       </c>
       <c r="J85" t="n">
-        <v>130794</v>
+        <v>130847</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51989</v>
+        <v>51986</v>
       </c>
       <c r="M85" t="n">
-        <v>23139</v>
+        <v>23137</v>
       </c>
       <c r="N85" t="n">
-        <v>26377</v>
+        <v>26401</v>
       </c>
       <c r="O85" t="n">
-        <v>9196</v>
+        <v>9207</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
       </c>
       <c r="Q85" t="n">
-        <v>4034.1</v>
+        <v>4033.7</v>
       </c>
       <c r="R85" t="n">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="S85" t="n">
-        <v>1641.7</v>
+        <v>1643.6</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,46 +6586,46 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16369</v>
+        <v>16549</v>
       </c>
       <c r="G86" t="n">
-        <v>2108</v>
+        <v>2168</v>
       </c>
       <c r="H86" t="n">
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220718</v>
+        <v>220714</v>
       </c>
       <c r="J86" t="n">
-        <v>132274</v>
+        <v>132332</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51884</v>
+        <v>51881</v>
       </c>
       <c r="M86" t="n">
-        <v>20921</v>
+        <v>20919</v>
       </c>
       <c r="N86" t="n">
-        <v>26086</v>
+        <v>26113</v>
       </c>
       <c r="O86" t="n">
-        <v>9199</v>
+        <v>9212</v>
       </c>
       <c r="P86" t="n">
         <v>3664</v>
       </c>
       <c r="Q86" t="n">
-        <v>3829</v>
+        <v>3828.7</v>
       </c>
       <c r="R86" t="n">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="S86" t="n">
-        <v>1525.1</v>
+        <v>1527.4</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6660,46 +6660,46 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16668</v>
+        <v>16832</v>
       </c>
       <c r="G87" t="n">
-        <v>2235</v>
+        <v>2290</v>
       </c>
       <c r="H87" t="n">
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223338</v>
+        <v>223334</v>
       </c>
       <c r="J87" t="n">
-        <v>133061</v>
+        <v>133121</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51461</v>
+        <v>51458</v>
       </c>
       <c r="M87" t="n">
-        <v>21314</v>
+        <v>21312</v>
       </c>
       <c r="N87" t="n">
-        <v>25620</v>
+        <v>25649</v>
       </c>
       <c r="O87" t="n">
-        <v>9115</v>
+        <v>9130</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
       </c>
       <c r="Q87" t="n">
-        <v>3363</v>
+        <v>3362.7</v>
       </c>
       <c r="R87" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S87" t="n">
-        <v>1426.6</v>
+        <v>1428.7</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6734,46 +6734,46 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16182</v>
+        <v>16342</v>
       </c>
       <c r="G88" t="n">
-        <v>2185</v>
+        <v>2219</v>
       </c>
       <c r="H88" t="n">
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225712</v>
+        <v>225708</v>
       </c>
       <c r="J88" t="n">
-        <v>133570</v>
+        <v>133630</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50333</v>
+        <v>50330</v>
       </c>
       <c r="M88" t="n">
-        <v>20765</v>
+        <v>20763</v>
       </c>
       <c r="N88" t="n">
-        <v>24197</v>
+        <v>24226</v>
       </c>
       <c r="O88" t="n">
-        <v>7900</v>
+        <v>7913</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
       </c>
       <c r="Q88" t="n">
-        <v>3384</v>
+        <v>3383.7</v>
       </c>
       <c r="R88" t="n">
         <v>509</v>
       </c>
       <c r="S88" t="n">
-        <v>1374.9</v>
+        <v>1377</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6808,46 +6808,46 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16070</v>
+        <v>16230</v>
       </c>
       <c r="G89" t="n">
-        <v>2188</v>
+        <v>2241</v>
       </c>
       <c r="H89" t="n">
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228409</v>
+        <v>228405</v>
       </c>
       <c r="J89" t="n">
-        <v>134643</v>
+        <v>134703</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48702</v>
+        <v>48699</v>
       </c>
       <c r="M89" t="n">
-        <v>19686</v>
+        <v>19685</v>
       </c>
       <c r="N89" t="n">
-        <v>22731</v>
+        <v>22754</v>
       </c>
       <c r="O89" t="n">
-        <v>7147</v>
+        <v>7159</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
       </c>
       <c r="Q89" t="n">
-        <v>3351.7</v>
+        <v>3351.4</v>
       </c>
       <c r="R89" t="n">
         <v>1073</v>
       </c>
       <c r="S89" t="n">
-        <v>1281.9</v>
+        <v>1283.7</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6882,46 +6882,46 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15551</v>
+        <v>15702</v>
       </c>
       <c r="G90" t="n">
-        <v>2042</v>
+        <v>2088</v>
       </c>
       <c r="H90" t="n">
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228224</v>
+        <v>228220</v>
       </c>
       <c r="J90" t="n">
-        <v>135915</v>
+        <v>135978</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44118</v>
+        <v>44115</v>
       </c>
       <c r="M90" t="n">
         <v>14891</v>
       </c>
       <c r="N90" t="n">
-        <v>18974</v>
+        <v>18998</v>
       </c>
       <c r="O90" t="n">
-        <v>6478</v>
+        <v>6490</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
       </c>
       <c r="Q90" t="n">
-        <v>2785.9</v>
+        <v>2785.7</v>
       </c>
       <c r="R90" t="n">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="S90" t="n">
-        <v>1202.7</v>
+        <v>1204.9</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6956,34 +6956,34 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14975</v>
+        <v>15123</v>
       </c>
       <c r="G91" t="n">
-        <v>1975</v>
+        <v>2024</v>
       </c>
       <c r="H91" t="n">
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231112</v>
+        <v>231108</v>
       </c>
       <c r="J91" t="n">
-        <v>136872</v>
+        <v>136937</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42297</v>
+        <v>42294</v>
       </c>
       <c r="M91" t="n">
         <v>14058</v>
       </c>
       <c r="N91" t="n">
-        <v>17570</v>
+        <v>17595</v>
       </c>
       <c r="O91" t="n">
-        <v>6078</v>
+        <v>6090</v>
       </c>
       <c r="P91" t="n">
         <v>2888</v>
@@ -6992,10 +6992,10 @@
         <v>2539.9</v>
       </c>
       <c r="R91" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="S91" t="n">
-        <v>1062.1</v>
+        <v>1064.1</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7030,34 +7030,34 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14354</v>
+        <v>14496</v>
       </c>
       <c r="G92" t="n">
-        <v>1868</v>
+        <v>1914</v>
       </c>
       <c r="H92" t="n">
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234335</v>
+        <v>234331</v>
       </c>
       <c r="J92" t="n">
-        <v>137736</v>
+        <v>137806</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40420</v>
+        <v>40418</v>
       </c>
       <c r="M92" t="n">
         <v>13617</v>
       </c>
       <c r="N92" t="n">
-        <v>16138</v>
+        <v>16166</v>
       </c>
       <c r="O92" t="n">
-        <v>5462</v>
+        <v>5474</v>
       </c>
       <c r="P92" t="n">
         <v>3223</v>
@@ -7066,10 +7066,10 @@
         <v>2468.7</v>
       </c>
       <c r="R92" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="S92" t="n">
-        <v>991.7</v>
+        <v>994.1</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7104,34 +7104,34 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15164</v>
+        <v>15299</v>
       </c>
       <c r="G93" t="n">
-        <v>2194</v>
+        <v>2240</v>
       </c>
       <c r="H93" t="n">
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236491</v>
+        <v>236487</v>
       </c>
       <c r="J93" t="n">
-        <v>138254</v>
+        <v>138324</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36694</v>
+        <v>36692</v>
       </c>
       <c r="M93" t="n">
         <v>13153</v>
       </c>
       <c r="N93" t="n">
-        <v>15179</v>
+        <v>15204</v>
       </c>
       <c r="O93" t="n">
-        <v>5193</v>
+        <v>5203</v>
       </c>
       <c r="P93" t="n">
         <v>2156</v>
@@ -7143,7 +7143,7 @@
         <v>518</v>
       </c>
       <c r="S93" t="n">
-        <v>854.3</v>
+        <v>856</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,34 +7178,34 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>14917</v>
+        <v>15041</v>
       </c>
       <c r="G94" t="n">
-        <v>2203</v>
+        <v>2246</v>
       </c>
       <c r="H94" t="n">
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238149</v>
+        <v>238145</v>
       </c>
       <c r="J94" t="n">
-        <v>138590</v>
+        <v>138662</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36125</v>
+        <v>36123</v>
       </c>
       <c r="M94" t="n">
         <v>12437</v>
       </c>
       <c r="N94" t="n">
-        <v>14644</v>
+        <v>14671</v>
       </c>
       <c r="O94" t="n">
-        <v>5020</v>
+        <v>5032</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
@@ -7214,10 +7214,10 @@
         <v>2115.9</v>
       </c>
       <c r="R94" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="S94" t="n">
-        <v>789.9</v>
+        <v>791.6</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,34 +7252,34 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14831</v>
+        <v>14942</v>
       </c>
       <c r="G95" t="n">
-        <v>2154</v>
+        <v>2197</v>
       </c>
       <c r="H95" t="n">
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239244</v>
+        <v>239240</v>
       </c>
       <c r="J95" t="n">
-        <v>138847</v>
+        <v>138919</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34297</v>
+        <v>34295</v>
       </c>
       <c r="M95" t="n">
         <v>10835</v>
       </c>
       <c r="N95" t="n">
-        <v>13177</v>
+        <v>13202</v>
       </c>
       <c r="O95" t="n">
-        <v>4204</v>
+        <v>4216</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
@@ -7291,7 +7291,7 @@
         <v>257</v>
       </c>
       <c r="S95" t="n">
-        <v>753.9</v>
+        <v>755.6</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7326,34 +7326,34 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14555</v>
+        <v>14670</v>
       </c>
       <c r="G96" t="n">
-        <v>2059</v>
+        <v>2099</v>
       </c>
       <c r="H96" t="n">
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241017</v>
+        <v>241013</v>
       </c>
       <c r="J96" t="n">
-        <v>139647</v>
+        <v>139721</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32294</v>
+        <v>32293</v>
       </c>
       <c r="M96" t="n">
         <v>12793</v>
       </c>
       <c r="N96" t="n">
-        <v>12151</v>
+        <v>12177</v>
       </c>
       <c r="O96" t="n">
-        <v>3732</v>
+        <v>3743</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
@@ -7362,10 +7362,10 @@
         <v>1801.1</v>
       </c>
       <c r="R96" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="S96" t="n">
-        <v>714.9</v>
+        <v>716.9</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,19 +7400,19 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14232</v>
+        <v>14357</v>
       </c>
       <c r="G97" t="n">
-        <v>2009</v>
+        <v>2041</v>
       </c>
       <c r="H97" t="n">
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243072</v>
+        <v>243068</v>
       </c>
       <c r="J97" t="n">
-        <v>152662</v>
+        <v>152742</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
@@ -7424,10 +7424,10 @@
         <v>11960</v>
       </c>
       <c r="N97" t="n">
-        <v>23225</v>
+        <v>23254</v>
       </c>
       <c r="O97" t="n">
-        <v>15790</v>
+        <v>15805</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
@@ -7436,10 +7436,10 @@
         <v>2121.1</v>
       </c>
       <c r="R97" t="n">
-        <v>13015</v>
+        <v>13021</v>
       </c>
       <c r="S97" t="n">
-        <v>2392.4</v>
+        <v>2394.9</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,19 +7474,19 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13680</v>
+        <v>13809</v>
       </c>
       <c r="G98" t="n">
-        <v>1901</v>
+        <v>1926</v>
       </c>
       <c r="H98" t="n">
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246019</v>
+        <v>246015</v>
       </c>
       <c r="J98" t="n">
-        <v>153479</v>
+        <v>153563</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
@@ -7498,10 +7498,10 @@
         <v>11684</v>
       </c>
       <c r="N98" t="n">
-        <v>22685</v>
+        <v>22716</v>
       </c>
       <c r="O98" t="n">
-        <v>15743</v>
+        <v>15757</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
@@ -7510,10 +7510,10 @@
         <v>2129.6</v>
       </c>
       <c r="R98" t="n">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="S98" t="n">
-        <v>2372.4</v>
+        <v>2375.1</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7548,7 +7548,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13086</v>
+        <v>13215</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,10 +7557,10 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246394</v>
+        <v>246390</v>
       </c>
       <c r="J99" t="n">
-        <v>154170</v>
+        <v>154257</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
@@ -7572,10 +7572,10 @@
         <v>9903</v>
       </c>
       <c r="N99" t="n">
-        <v>21896</v>
+        <v>21925</v>
       </c>
       <c r="O99" t="n">
-        <v>15916</v>
+        <v>15933</v>
       </c>
       <c r="P99" t="n">
         <v>375</v>
@@ -7584,10 +7584,10 @@
         <v>1722.7</v>
       </c>
       <c r="R99" t="n">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="S99" t="n">
-        <v>2347.7</v>
+        <v>2350.1</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7622,19 +7622,19 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12450</v>
+        <v>12565</v>
       </c>
       <c r="G100" t="n">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="H100" t="n">
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250928</v>
+        <v>250924</v>
       </c>
       <c r="J100" t="n">
-        <v>154831</v>
+        <v>154919</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
@@ -7646,10 +7646,10 @@
         <v>12779</v>
       </c>
       <c r="N100" t="n">
-        <v>21770</v>
+        <v>21798</v>
       </c>
       <c r="O100" t="n">
-        <v>16241</v>
+        <v>16257</v>
       </c>
       <c r="P100" t="n">
         <v>4534</v>
@@ -7658,10 +7658,10 @@
         <v>2062.4</v>
       </c>
       <c r="R100" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="S100" t="n">
-        <v>2368.1</v>
+        <v>2370.7</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,19 +7696,19 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12063</v>
+        <v>12168</v>
       </c>
       <c r="G101" t="n">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="H101" t="n">
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252746</v>
+        <v>252742</v>
       </c>
       <c r="J101" t="n">
-        <v>155125</v>
+        <v>155214</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
@@ -7720,10 +7720,10 @@
         <v>13502</v>
       </c>
       <c r="N101" t="n">
-        <v>21555</v>
+        <v>21584</v>
       </c>
       <c r="O101" t="n">
-        <v>16278</v>
+        <v>16295</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
@@ -7732,10 +7732,10 @@
         <v>2085.3</v>
       </c>
       <c r="R101" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S101" t="n">
-        <v>2362.1</v>
+        <v>2364.6</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11688</v>
+        <v>11793</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,10 +7779,10 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251703</v>
+        <v>251699</v>
       </c>
       <c r="J102" t="n">
-        <v>155353</v>
+        <v>155443</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
@@ -7794,10 +7794,10 @@
         <v>10686</v>
       </c>
       <c r="N102" t="n">
-        <v>20710</v>
+        <v>20740</v>
       </c>
       <c r="O102" t="n">
-        <v>15706</v>
+        <v>15722</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
@@ -7806,10 +7806,10 @@
         <v>1779.9</v>
       </c>
       <c r="R102" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S102" t="n">
-        <v>2358</v>
+        <v>2360.6</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,19 +7844,19 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11604</v>
+        <v>11700</v>
       </c>
       <c r="G103" t="n">
-        <v>1568</v>
+        <v>1589</v>
       </c>
       <c r="H103" t="n">
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255329</v>
+        <v>255325</v>
       </c>
       <c r="J103" t="n">
-        <v>155917</v>
+        <v>156009</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
@@ -7868,10 +7868,10 @@
         <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>20002</v>
+        <v>20031</v>
       </c>
       <c r="O103" t="n">
-        <v>3255</v>
+        <v>3267</v>
       </c>
       <c r="P103" t="n">
         <v>3626</v>
@@ -7880,10 +7880,10 @@
         <v>2044.6</v>
       </c>
       <c r="R103" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="S103" t="n">
-        <v>2324.3</v>
+        <v>2326.9</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,19 +7918,19 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11263</v>
+        <v>11352</v>
       </c>
       <c r="G104" t="n">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="H104" t="n">
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257009</v>
+        <v>257005</v>
       </c>
       <c r="J104" t="n">
-        <v>156582</v>
+        <v>156677</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -7942,10 +7942,10 @@
         <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19710</v>
+        <v>19740</v>
       </c>
       <c r="O104" t="n">
-        <v>3103</v>
+        <v>3114</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
@@ -7954,10 +7954,10 @@
         <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="S104" t="n">
-        <v>560</v>
+        <v>562.1</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,19 +7992,19 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10861</v>
+        <v>10948</v>
       </c>
       <c r="G105" t="n">
-        <v>1418</v>
+        <v>1436</v>
       </c>
       <c r="H105" t="n">
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258608</v>
+        <v>258604</v>
       </c>
       <c r="J105" t="n">
-        <v>157270</v>
+        <v>157373</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -8016,10 +8016,10 @@
         <v>12214</v>
       </c>
       <c r="N105" t="n">
-        <v>19534</v>
+        <v>19567</v>
       </c>
       <c r="O105" t="n">
-        <v>3100</v>
+        <v>3116</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
@@ -8028,10 +8028,10 @@
         <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="S105" t="n">
-        <v>541.6</v>
+        <v>544.3</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,19 +8066,19 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10443</v>
+        <v>10525</v>
       </c>
       <c r="G106" t="n">
-        <v>1381</v>
+        <v>1397</v>
       </c>
       <c r="H106" t="n">
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203392</v>
+        <v>203388</v>
       </c>
       <c r="J106" t="n">
-        <v>185196</v>
+        <v>185303</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -8090,10 +8090,10 @@
         <v>-47536</v>
       </c>
       <c r="N106" t="n">
-        <v>46942</v>
+        <v>46979</v>
       </c>
       <c r="O106" t="n">
-        <v>30365</v>
+        <v>30384</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6143.1</v>
       </c>
       <c r="R106" t="n">
-        <v>27926</v>
+        <v>27930</v>
       </c>
       <c r="S106" t="n">
-        <v>4432.3</v>
+        <v>4435.1</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8131,7 +8131,7 @@
         <v>164</v>
       </c>
       <c r="C107" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D107" t="n">
         <v>12359</v>
@@ -8140,46 +8140,46 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10024</v>
+        <v>10102</v>
       </c>
       <c r="G107" t="n">
-        <v>1391</v>
+        <v>1410</v>
       </c>
       <c r="H107" t="n">
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204687</v>
+        <v>204684</v>
       </c>
       <c r="J107" t="n">
-        <v>198616</v>
+        <v>198724</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33462</v>
+        <v>-33461</v>
       </c>
       <c r="M107" t="n">
-        <v>-48059</v>
+        <v>-48058</v>
       </c>
       <c r="N107" t="n">
-        <v>60026</v>
+        <v>60062</v>
       </c>
       <c r="O107" t="n">
-        <v>43491</v>
+        <v>43510</v>
       </c>
       <c r="P107" t="n">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6605.9</v>
+        <v>-6605.7</v>
       </c>
       <c r="R107" t="n">
-        <v>13420</v>
+        <v>13421</v>
       </c>
       <c r="S107" t="n">
-        <v>6255</v>
+        <v>6257.9</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,46 +8214,46 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9744</v>
+        <v>9815</v>
       </c>
       <c r="G108" t="n">
-        <v>1354</v>
+        <v>1370</v>
       </c>
       <c r="H108" t="n">
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205300</v>
+        <v>205297</v>
       </c>
       <c r="J108" t="n">
-        <v>198937</v>
+        <v>199044</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33944</v>
+        <v>-33943</v>
       </c>
       <c r="M108" t="n">
-        <v>-46403</v>
+        <v>-46402</v>
       </c>
       <c r="N108" t="n">
-        <v>60090</v>
+        <v>60125</v>
       </c>
       <c r="O108" t="n">
-        <v>43584</v>
+        <v>43601</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6778</v>
+        <v>-6777.9</v>
       </c>
       <c r="R108" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S108" t="n">
-        <v>6258.9</v>
+        <v>6261.4</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8288,46 +8288,46 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9615</v>
+        <v>9681</v>
       </c>
       <c r="G109" t="n">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="H109" t="n">
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205648</v>
+        <v>205645</v>
       </c>
       <c r="J109" t="n">
-        <v>199185</v>
+        <v>199293</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35369</v>
+        <v>-35368</v>
       </c>
       <c r="M109" t="n">
-        <v>-49681</v>
+        <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59538</v>
+        <v>59572</v>
       </c>
       <c r="O109" t="n">
-        <v>43268</v>
+        <v>43284</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6579.3</v>
+        <v>-6579.1</v>
       </c>
       <c r="R109" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S109" t="n">
-        <v>6261.7</v>
+        <v>6264.3</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,7 +8362,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9531</v>
+        <v>9597</v>
       </c>
       <c r="G110" t="n">
         <v>1302</v>
@@ -8371,37 +8371,37 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179131</v>
+        <v>179128</v>
       </c>
       <c r="J110" t="n">
-        <v>224501</v>
+        <v>224610</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63941</v>
+        <v>-63940</v>
       </c>
       <c r="M110" t="n">
-        <v>-77878</v>
+        <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71839</v>
+        <v>71868</v>
       </c>
       <c r="O110" t="n">
-        <v>67919</v>
+        <v>67933</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10885.4</v>
+        <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25316</v>
+        <v>25317</v>
       </c>
       <c r="S110" t="n">
-        <v>9797.7</v>
+        <v>9800.1</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8436,46 +8436,46 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9239</v>
+        <v>9307</v>
       </c>
       <c r="G111" t="n">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="H111" t="n">
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175035</v>
+        <v>175032</v>
       </c>
       <c r="J111" t="n">
-        <v>230756</v>
+        <v>230867</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70984</v>
+        <v>-70983</v>
       </c>
       <c r="M111" t="n">
-        <v>-83573</v>
+        <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77277</v>
+        <v>77304</v>
       </c>
       <c r="O111" t="n">
-        <v>73486</v>
+        <v>73494</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
       </c>
       <c r="Q111" t="n">
-        <v>-11710.6</v>
+        <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6255</v>
+        <v>6257</v>
       </c>
       <c r="S111" t="n">
-        <v>10596.3</v>
+        <v>10598.6</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8510,46 +8510,46 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8936</v>
+        <v>8994</v>
       </c>
       <c r="G112" t="n">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="H112" t="n">
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175597</v>
+        <v>175594</v>
       </c>
       <c r="J112" t="n">
-        <v>231516</v>
+        <v>231632</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70797</v>
+        <v>-70796</v>
       </c>
       <c r="M112" t="n">
-        <v>-27795</v>
+        <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77346</v>
+        <v>77375</v>
       </c>
       <c r="O112" t="n">
-        <v>46320</v>
+        <v>46329</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
       </c>
       <c r="Q112" t="n">
-        <v>-11858.7</v>
+        <v>-11858.6</v>
       </c>
       <c r="R112" t="n">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="S112" t="n">
-        <v>10606.6</v>
+        <v>10608.4</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8584,46 +8584,46 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8597</v>
+        <v>8651</v>
       </c>
       <c r="G113" t="n">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="H113" t="n">
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83770</v>
+        <v>83767</v>
       </c>
       <c r="J113" t="n">
-        <v>232375</v>
+        <v>232496</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167158</v>
+        <v>-167157</v>
       </c>
       <c r="M113" t="n">
         <v>-120917</v>
       </c>
       <c r="N113" t="n">
-        <v>77544</v>
+        <v>77577</v>
       </c>
       <c r="O113" t="n">
-        <v>33759</v>
+        <v>33772</v>
       </c>
       <c r="P113" t="n">
         <v>-91827</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.9</v>
+        <v>-17088.7</v>
       </c>
       <c r="R113" t="n">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="S113" t="n">
-        <v>6739.9</v>
+        <v>6741.9</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8658,34 +8658,34 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8286</v>
+        <v>8341</v>
       </c>
       <c r="G114" t="n">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="H114" t="n">
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84257</v>
+        <v>84254</v>
       </c>
       <c r="J114" t="n">
-        <v>233234</v>
+        <v>233356</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168489</v>
+        <v>-168488</v>
       </c>
       <c r="M114" t="n">
         <v>-121043</v>
       </c>
       <c r="N114" t="n">
-        <v>78109</v>
+        <v>78142</v>
       </c>
       <c r="O114" t="n">
-        <v>34297</v>
+        <v>34312</v>
       </c>
       <c r="P114" t="n">
         <v>487</v>
@@ -8694,10 +8694,10 @@
         <v>-17204.3</v>
       </c>
       <c r="R114" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="S114" t="n">
-        <v>4945.4</v>
+        <v>4947.4</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,34 +8732,34 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8055</v>
+        <v>8103</v>
       </c>
       <c r="G115" t="n">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="H115" t="n">
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84471</v>
+        <v>84468</v>
       </c>
       <c r="J115" t="n">
-        <v>233562</v>
+        <v>233688</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167232</v>
+        <v>-167231</v>
       </c>
       <c r="M115" t="n">
         <v>-121177</v>
       </c>
       <c r="N115" t="n">
-        <v>78209</v>
+        <v>78245</v>
       </c>
       <c r="O115" t="n">
-        <v>34377</v>
+        <v>34395</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8768,10 +8768,10 @@
         <v>-17261.3</v>
       </c>
       <c r="R115" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="S115" t="n">
-        <v>4946.4</v>
+        <v>4949.1</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8806,34 +8806,34 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7943</v>
+        <v>7995</v>
       </c>
       <c r="G116" t="n">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="H116" t="n">
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84631</v>
+        <v>84628</v>
       </c>
       <c r="J116" t="n">
-        <v>233850</v>
+        <v>233976</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170698</v>
+        <v>-170697</v>
       </c>
       <c r="M116" t="n">
         <v>-94500</v>
       </c>
       <c r="N116" t="n">
-        <v>77933</v>
+        <v>77967</v>
       </c>
       <c r="O116" t="n">
-        <v>9349</v>
+        <v>9366</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
@@ -8845,7 +8845,7 @@
         <v>288</v>
       </c>
       <c r="S116" t="n">
-        <v>4952.1</v>
+        <v>4954.7</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8880,34 +8880,34 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7886</v>
+        <v>7932</v>
       </c>
       <c r="G117" t="n">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="H117" t="n">
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84977</v>
+        <v>84974</v>
       </c>
       <c r="J117" t="n">
-        <v>234378</v>
+        <v>234506</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172032</v>
+        <v>-172031</v>
       </c>
       <c r="M117" t="n">
         <v>-90058</v>
       </c>
       <c r="N117" t="n">
-        <v>77796</v>
+        <v>77829</v>
       </c>
       <c r="O117" t="n">
-        <v>3622</v>
+        <v>3639</v>
       </c>
       <c r="P117" t="n">
         <v>346</v>
@@ -8916,10 +8916,10 @@
         <v>-13450.6</v>
       </c>
       <c r="R117" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="S117" t="n">
-        <v>1411</v>
+        <v>1413.7</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,34 +8954,34 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7732</v>
+        <v>7786</v>
       </c>
       <c r="G118" t="n">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="H118" t="n">
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85356</v>
+        <v>85353</v>
       </c>
       <c r="J118" t="n">
-        <v>235062</v>
+        <v>235193</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173252</v>
+        <v>-173251</v>
       </c>
       <c r="M118" t="n">
         <v>-90241</v>
       </c>
       <c r="N118" t="n">
-        <v>77792</v>
+        <v>77820</v>
       </c>
       <c r="O118" t="n">
-        <v>3546</v>
+        <v>3561</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
@@ -8990,10 +8990,10 @@
         <v>-12811.3</v>
       </c>
       <c r="R118" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S118" t="n">
-        <v>615.1</v>
+        <v>618</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9028,34 +9028,34 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3241</v>
+        <v>3297</v>
       </c>
       <c r="G119" t="n">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="H119" t="n">
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85747</v>
+        <v>85744</v>
       </c>
       <c r="J119" t="n">
-        <v>235811</v>
+        <v>235947</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117645</v>
+        <v>-117644</v>
       </c>
       <c r="M119" t="n">
         <v>1977</v>
       </c>
       <c r="N119" t="n">
-        <v>50615</v>
+        <v>50644</v>
       </c>
       <c r="O119" t="n">
-        <v>3436</v>
+        <v>3451</v>
       </c>
       <c r="P119" t="n">
         <v>391</v>
@@ -9064,10 +9064,10 @@
         <v>-12835.7</v>
       </c>
       <c r="R119" t="n">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="S119" t="n">
-        <v>613.6</v>
+        <v>616.4</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,19 +9102,19 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3044</v>
+        <v>3097</v>
       </c>
       <c r="G120" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H120" t="n">
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83963</v>
+        <v>83960</v>
       </c>
       <c r="J120" t="n">
-        <v>236492</v>
+        <v>236629</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,10 +9126,10 @@
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>37876</v>
+        <v>37905</v>
       </c>
       <c r="O120" t="n">
-        <v>3258</v>
+        <v>3273</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9138,10 +9138,10 @@
         <v>27.6</v>
       </c>
       <c r="R120" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="S120" t="n">
-        <v>588.1</v>
+        <v>590.4</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,19 +9176,19 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2869</v>
+        <v>2918</v>
       </c>
       <c r="G121" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H121" t="n">
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86346</v>
+        <v>86343</v>
       </c>
       <c r="J121" t="n">
-        <v>237200</v>
+        <v>237339</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38263</v>
+        <v>38295</v>
       </c>
       <c r="O121" t="n">
-        <v>3638</v>
+        <v>3651</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9212,10 +9212,10 @@
         <v>298.4</v>
       </c>
       <c r="R121" t="n">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="S121" t="n">
-        <v>566.6</v>
+        <v>569</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9250,19 +9250,19 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2732</v>
+        <v>2776</v>
       </c>
       <c r="G122" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H122" t="n">
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86488</v>
+        <v>86485</v>
       </c>
       <c r="J122" t="n">
-        <v>237555</v>
+        <v>237696</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -9274,10 +9274,10 @@
         <v>1857</v>
       </c>
       <c r="N122" t="n">
-        <v>38370</v>
+        <v>38403</v>
       </c>
       <c r="O122" t="n">
-        <v>3705</v>
+        <v>3720</v>
       </c>
       <c r="P122" t="n">
         <v>142</v>
@@ -9286,10 +9286,10 @@
         <v>288.1</v>
       </c>
       <c r="R122" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S122" t="n">
-        <v>570.4</v>
+        <v>572.6</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,19 +9324,19 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2673</v>
+        <v>2718</v>
       </c>
       <c r="G123" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H123" t="n">
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86535</v>
+        <v>86532</v>
       </c>
       <c r="J123" t="n">
-        <v>237824</v>
+        <v>237966</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -9348,10 +9348,10 @@
         <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13323</v>
+        <v>13356</v>
       </c>
       <c r="O123" t="n">
-        <v>3446</v>
+        <v>3460</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9360,10 +9360,10 @@
         <v>272</v>
       </c>
       <c r="R123" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S123" t="n">
-        <v>567.7</v>
+        <v>570</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,19 +9398,19 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2699</v>
+        <v>2748</v>
       </c>
       <c r="G124" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H124" t="n">
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86612</v>
+        <v>86609</v>
       </c>
       <c r="J124" t="n">
-        <v>238176</v>
+        <v>238325</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -9422,10 +9422,10 @@
         <v>1256</v>
       </c>
       <c r="N124" t="n">
-        <v>7420</v>
+        <v>7458</v>
       </c>
       <c r="O124" t="n">
-        <v>3114</v>
+        <v>3132</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>233.6</v>
       </c>
       <c r="R124" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="S124" t="n">
-        <v>542.6</v>
+        <v>545.6</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,19 +9472,19 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2535</v>
+        <v>2578</v>
       </c>
       <c r="G125" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H125" t="n">
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84788</v>
+        <v>84785</v>
       </c>
       <c r="J125" t="n">
-        <v>238766</v>
+        <v>238919</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -9496,10 +9496,10 @@
         <v>-959</v>
       </c>
       <c r="N125" t="n">
-        <v>7250</v>
+        <v>7287</v>
       </c>
       <c r="O125" t="n">
-        <v>2955</v>
+        <v>2972</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
@@ -9508,10 +9508,10 @@
         <v>-81.1</v>
       </c>
       <c r="R125" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="S125" t="n">
-        <v>529.1</v>
+        <v>532.3</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,19 +9546,19 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2343</v>
+        <v>2381</v>
       </c>
       <c r="G126" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H126" t="n">
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87119</v>
+        <v>87116</v>
       </c>
       <c r="J126" t="n">
-        <v>239397</v>
+        <v>239552</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -9570,10 +9570,10 @@
         <v>3156</v>
       </c>
       <c r="N126" t="n">
-        <v>7022</v>
+        <v>7056</v>
       </c>
       <c r="O126" t="n">
-        <v>2905</v>
+        <v>2923</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
@@ -9582,10 +9582,10 @@
         <v>196</v>
       </c>
       <c r="R126" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="S126" t="n">
-        <v>512.3</v>
+        <v>515</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,19 +9620,19 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2107</v>
+        <v>2148</v>
       </c>
       <c r="G127" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H127" t="n">
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94591</v>
+        <v>94588</v>
       </c>
       <c r="J127" t="n">
-        <v>239952</v>
+        <v>240110</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -9644,10 +9644,10 @@
         <v>8245</v>
       </c>
       <c r="N127" t="n">
-        <v>6718</v>
+        <v>6754</v>
       </c>
       <c r="O127" t="n">
-        <v>2752</v>
+        <v>2771</v>
       </c>
       <c r="P127" t="n">
         <v>7472</v>
@@ -9656,10 +9656,10 @@
         <v>1518.3</v>
       </c>
       <c r="R127" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="S127" t="n">
-        <v>494.3</v>
+        <v>497.3</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9685,7 +9685,7 @@
         <v>36</v>
       </c>
       <c r="C128" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D128" t="n">
         <v>17</v>
@@ -9694,46 +9694,46 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1939</v>
+        <v>1977</v>
       </c>
       <c r="G128" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H128" t="n">
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97102</v>
+        <v>97100</v>
       </c>
       <c r="J128" t="n">
-        <v>242646</v>
+        <v>242815</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12631</v>
+        <v>12632</v>
       </c>
       <c r="M128" t="n">
-        <v>10614</v>
+        <v>10615</v>
       </c>
       <c r="N128" t="n">
-        <v>9084</v>
+        <v>9127</v>
       </c>
       <c r="O128" t="n">
-        <v>5091</v>
+        <v>5119</v>
       </c>
       <c r="P128" t="n">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="Q128" t="n">
-        <v>1536.6</v>
+        <v>1536.7</v>
       </c>
       <c r="R128" t="n">
-        <v>2694</v>
+        <v>2705</v>
       </c>
       <c r="S128" t="n">
-        <v>778</v>
+        <v>782.3</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,46 +9768,46 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1861</v>
+        <v>1895</v>
       </c>
       <c r="G129" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H129" t="n">
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97094</v>
+        <v>97092</v>
       </c>
       <c r="J129" t="n">
-        <v>242990</v>
+        <v>243163</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12463</v>
+        <v>12464</v>
       </c>
       <c r="M129" t="n">
-        <v>10559</v>
+        <v>10560</v>
       </c>
       <c r="N129" t="n">
-        <v>9140</v>
+        <v>9187</v>
       </c>
       <c r="O129" t="n">
-        <v>5166</v>
+        <v>5197</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
       </c>
       <c r="Q129" t="n">
-        <v>1515.1</v>
+        <v>1515.3</v>
       </c>
       <c r="R129" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S129" t="n">
-        <v>776.4</v>
+        <v>781</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,46 +9842,46 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1848</v>
+        <v>1881</v>
       </c>
       <c r="G130" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H130" t="n">
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97251</v>
+        <v>97249</v>
       </c>
       <c r="J130" t="n">
-        <v>243586</v>
+        <v>243759</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12274</v>
+        <v>12275</v>
       </c>
       <c r="M130" t="n">
-        <v>10639</v>
+        <v>10640</v>
       </c>
       <c r="N130" t="n">
-        <v>9208</v>
+        <v>9253</v>
       </c>
       <c r="O130" t="n">
-        <v>5410</v>
+        <v>5434</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
       </c>
       <c r="Q130" t="n">
-        <v>1530.9</v>
+        <v>1531</v>
       </c>
       <c r="R130" t="n">
         <v>596</v>
       </c>
       <c r="S130" t="n">
-        <v>823.1</v>
+        <v>827.6</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,46 +9916,46 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1825</v>
+        <v>1860</v>
       </c>
       <c r="G131" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H131" t="n">
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97396</v>
+        <v>97394</v>
       </c>
       <c r="J131" t="n">
-        <v>243904</v>
+        <v>244083</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12040</v>
+        <v>12041</v>
       </c>
       <c r="M131" t="n">
-        <v>12608</v>
+        <v>12609</v>
       </c>
       <c r="N131" t="n">
-        <v>8842</v>
+        <v>8890</v>
       </c>
       <c r="O131" t="n">
-        <v>5138</v>
+        <v>5164</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
       </c>
       <c r="Q131" t="n">
-        <v>1540.6</v>
+        <v>1540.7</v>
       </c>
       <c r="R131" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="S131" t="n">
-        <v>818.3</v>
+        <v>822.6</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,46 +9990,46 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1760</v>
+        <v>1792</v>
       </c>
       <c r="G132" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H132" t="n">
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97569</v>
+        <v>97567</v>
       </c>
       <c r="J132" t="n">
-        <v>244319</v>
+        <v>244504</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11822</v>
+        <v>11823</v>
       </c>
       <c r="M132" t="n">
-        <v>10450</v>
+        <v>10451</v>
       </c>
       <c r="N132" t="n">
-        <v>8508</v>
+        <v>8557</v>
       </c>
       <c r="O132" t="n">
-        <v>4922</v>
+        <v>4952</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
       </c>
       <c r="Q132" t="n">
-        <v>1825.9</v>
+        <v>1826</v>
       </c>
       <c r="R132" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="S132" t="n">
-        <v>793.3</v>
+        <v>797.9</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,46 +10064,46 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1691</v>
+        <v>1721</v>
       </c>
       <c r="G133" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H133" t="n">
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97777</v>
+        <v>97775</v>
       </c>
       <c r="J133" t="n">
-        <v>244761</v>
+        <v>244949</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13814</v>
+        <v>13815</v>
       </c>
       <c r="M133" t="n">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="N133" t="n">
-        <v>8269</v>
+        <v>8320</v>
       </c>
       <c r="O133" t="n">
-        <v>4809</v>
+        <v>4839</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
       </c>
       <c r="Q133" t="n">
-        <v>1522.6</v>
+        <v>1522.7</v>
       </c>
       <c r="R133" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="S133" t="n">
-        <v>766.3</v>
+        <v>771</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,46 +10138,46 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1530</v>
+        <v>1556</v>
       </c>
       <c r="G134" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H134" t="n">
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97930</v>
+        <v>97928</v>
       </c>
       <c r="J134" t="n">
-        <v>245188</v>
+        <v>245380</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11584</v>
+        <v>11585</v>
       </c>
       <c r="M134" t="n">
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>7988</v>
+        <v>8041</v>
       </c>
       <c r="O134" t="n">
-        <v>2542</v>
+        <v>2565</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
       </c>
       <c r="Q134" t="n">
-        <v>477</v>
+        <v>477.1</v>
       </c>
       <c r="R134" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="S134" t="n">
-        <v>748</v>
+        <v>752.9</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,34 +10212,34 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1439</v>
+        <v>1465</v>
       </c>
       <c r="G135" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H135" t="n">
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98138</v>
+        <v>98136</v>
       </c>
       <c r="J135" t="n">
-        <v>245666</v>
+        <v>245864</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11650</v>
+        <v>11651</v>
       </c>
       <c r="M135" t="n">
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8111</v>
+        <v>8168</v>
       </c>
       <c r="O135" t="n">
-        <v>2676</v>
+        <v>2701</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="S135" t="n">
-        <v>431.4</v>
+        <v>435.6</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,34 +10286,34 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1381</v>
+        <v>1407</v>
       </c>
       <c r="G136" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H136" t="n">
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98195</v>
+        <v>98193</v>
       </c>
       <c r="J136" t="n">
-        <v>245801</v>
+        <v>245999</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11660</v>
+        <v>11661</v>
       </c>
       <c r="M136" t="n">
         <v>944</v>
       </c>
       <c r="N136" t="n">
-        <v>7977</v>
+        <v>8033</v>
       </c>
       <c r="O136" t="n">
-        <v>2215</v>
+        <v>2240</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
@@ -10325,7 +10325,7 @@
         <v>135</v>
       </c>
       <c r="S136" t="n">
-        <v>401.6</v>
+        <v>405.1</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,34 +10360,34 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1382</v>
+        <v>1410</v>
       </c>
       <c r="G137" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H137" t="n">
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98231</v>
+        <v>98229</v>
       </c>
       <c r="J137" t="n">
-        <v>245903</v>
+        <v>246101</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11619</v>
+        <v>11620</v>
       </c>
       <c r="M137" t="n">
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7727</v>
+        <v>7776</v>
       </c>
       <c r="O137" t="n">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
@@ -10399,7 +10399,7 @@
         <v>102</v>
       </c>
       <c r="S137" t="n">
-        <v>331</v>
+        <v>334.6</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,34 +10434,34 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1375</v>
+        <v>1396</v>
       </c>
       <c r="G138" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H138" t="n">
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98343</v>
+        <v>98341</v>
       </c>
       <c r="J138" t="n">
-        <v>246252</v>
+        <v>246452</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
       </c>
       <c r="L138" t="n">
-        <v>13555</v>
+        <v>13556</v>
       </c>
       <c r="M138" t="n">
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7486</v>
+        <v>7533</v>
       </c>
       <c r="O138" t="n">
-        <v>1933</v>
+        <v>1948</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="S138" t="n">
-        <v>335.4</v>
+        <v>338.4</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,34 +10508,34 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1365</v>
+        <v>1390</v>
       </c>
       <c r="G139" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H139" t="n">
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98520</v>
+        <v>98518</v>
       </c>
       <c r="J139" t="n">
-        <v>244434</v>
+        <v>244637</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
       </c>
       <c r="L139" t="n">
-        <v>11401</v>
+        <v>11402</v>
       </c>
       <c r="M139" t="n">
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5037</v>
+        <v>5085</v>
       </c>
       <c r="O139" t="n">
-        <v>-327</v>
+        <v>-312</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1818</v>
+        <v>-1815</v>
       </c>
       <c r="S139" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,34 +10582,34 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1293</v>
+        <v>1324</v>
       </c>
       <c r="G140" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H140" t="n">
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98660</v>
+        <v>98658</v>
       </c>
       <c r="J140" t="n">
-        <v>244787</v>
+        <v>244991</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
       </c>
       <c r="L140" t="n">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="M140" t="n">
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4835</v>
+        <v>4881</v>
       </c>
       <c r="O140" t="n">
-        <v>-401</v>
+        <v>-389</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S140" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10656,19 +10656,19 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="G141" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H141" t="n">
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98873</v>
+        <v>98871</v>
       </c>
       <c r="J141" t="n">
-        <v>245297</v>
+        <v>245508</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10680,10 +10680,10 @@
         <v>735</v>
       </c>
       <c r="N141" t="n">
-        <v>2651</v>
+        <v>2693</v>
       </c>
       <c r="O141" t="n">
-        <v>-369</v>
+        <v>-356</v>
       </c>
       <c r="P141" t="n">
         <v>213</v>
@@ -10692,10 +10692,10 @@
         <v>134.7</v>
       </c>
       <c r="R141" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="S141" t="n">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,19 +10730,19 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="G142" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H142" t="n">
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99059</v>
+        <v>99057</v>
       </c>
       <c r="J142" t="n">
-        <v>245688</v>
+        <v>245903</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10754,10 +10754,10 @@
         <v>864</v>
       </c>
       <c r="N142" t="n">
-        <v>2698</v>
+        <v>2740</v>
       </c>
       <c r="O142" t="n">
-        <v>-113</v>
+        <v>-96</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10766,10 +10766,10 @@
         <v>131.6</v>
       </c>
       <c r="R142" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="S142" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,19 +10804,19 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1170</v>
+        <v>1195</v>
       </c>
       <c r="G143" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H143" t="n">
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99142</v>
+        <v>99140</v>
       </c>
       <c r="J143" t="n">
-        <v>245918</v>
+        <v>246134</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10828,10 +10828,10 @@
         <v>911</v>
       </c>
       <c r="N143" t="n">
-        <v>2332</v>
+        <v>2375</v>
       </c>
       <c r="O143" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
@@ -10840,10 +10840,10 @@
         <v>135.3</v>
       </c>
       <c r="R143" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S143" t="n">
-        <v>16.7</v>
+        <v>19.3</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,19 +10878,19 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1160</v>
+        <v>1185</v>
       </c>
       <c r="G144" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H144" t="n">
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99198</v>
+        <v>99196</v>
       </c>
       <c r="J144" t="n">
-        <v>246114</v>
+        <v>246330</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>855</v>
       </c>
       <c r="N144" t="n">
-        <v>2210</v>
+        <v>2247</v>
       </c>
       <c r="O144" t="n">
-        <v>-138</v>
+        <v>-122</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10917,7 +10917,7 @@
         <v>196</v>
       </c>
       <c r="S144" t="n">
-        <v>30.1</v>
+        <v>32.7</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,19 +10952,19 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1169</v>
+        <v>1198</v>
       </c>
       <c r="G145" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H145" t="n">
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99321</v>
+        <v>99319</v>
       </c>
       <c r="J145" t="n">
-        <v>246357</v>
+        <v>246576</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>801</v>
       </c>
       <c r="N145" t="n">
-        <v>2038</v>
+        <v>2072</v>
       </c>
       <c r="O145" t="n">
-        <v>1923</v>
+        <v>1939</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10988,10 +10988,10 @@
         <v>139.7</v>
       </c>
       <c r="R145" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="S145" t="n">
-        <v>15</v>
+        <v>17.7</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,19 +11026,19 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1136</v>
+        <v>1157</v>
       </c>
       <c r="G146" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H146" t="n">
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99390</v>
+        <v>99388</v>
       </c>
       <c r="J146" t="n">
-        <v>246729</v>
+        <v>246953</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>730</v>
       </c>
       <c r="N146" t="n">
-        <v>1968</v>
+        <v>2004</v>
       </c>
       <c r="O146" t="n">
-        <v>1942</v>
+        <v>1962</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11062,10 +11062,10 @@
         <v>124.3</v>
       </c>
       <c r="R146" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="S146" t="n">
-        <v>327.9</v>
+        <v>330.9</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11100,19 +11100,19 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="G147" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H147" t="n">
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97313</v>
+        <v>97311</v>
       </c>
       <c r="J147" t="n">
-        <v>247067</v>
+        <v>247295</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,10 +11124,10 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>1879</v>
+        <v>1915</v>
       </c>
       <c r="O147" t="n">
-        <v>1770</v>
+        <v>1787</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.4</v>
       </c>
       <c r="R147" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S147" t="n">
-        <v>325.7</v>
+        <v>329.1</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11174,19 +11174,19 @@
         <v>896</v>
       </c>
       <c r="F148" t="n">
-        <v>1084</v>
+        <v>1108</v>
       </c>
       <c r="G148" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H148" t="n">
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99766</v>
+        <v>99764</v>
       </c>
       <c r="J148" t="n">
-        <v>247465</v>
+        <v>247695</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>707</v>
       </c>
       <c r="N148" t="n">
-        <v>1799</v>
+        <v>1831</v>
       </c>
       <c r="O148" t="n">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="P148" t="n">
         <v>2453</v>
@@ -11210,10 +11210,10 @@
         <v>127.6</v>
       </c>
       <c r="R148" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S148" t="n">
-        <v>309.7</v>
+        <v>312.4</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11248,19 +11248,19 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="G149" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H149" t="n">
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>100054</v>
+        <v>100052</v>
       </c>
       <c r="J149" t="n">
-        <v>248027</v>
+        <v>248260</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11272,10 +11272,10 @@
         <v>912</v>
       </c>
       <c r="N149" t="n">
-        <v>2226</v>
+        <v>2261</v>
       </c>
       <c r="O149" t="n">
-        <v>2109</v>
+        <v>2126</v>
       </c>
       <c r="P149" t="n">
         <v>288</v>
@@ -11284,10 +11284,10 @@
         <v>142.1</v>
       </c>
       <c r="R149" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="S149" t="n">
-        <v>334.1</v>
+        <v>336.7</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11322,19 +11322,19 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="G150" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H150" t="n">
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97884</v>
+        <v>97882</v>
       </c>
       <c r="J150" t="n">
-        <v>248286</v>
+        <v>248521</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>-1314</v>
       </c>
       <c r="N150" t="n">
-        <v>2383</v>
+        <v>2420</v>
       </c>
       <c r="O150" t="n">
-        <v>2172</v>
+        <v>2191</v>
       </c>
       <c r="P150" t="n">
         <v>-2170</v>
@@ -11358,10 +11358,10 @@
         <v>-179.7</v>
       </c>
       <c r="R150" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S150" t="n">
-        <v>338.3</v>
+        <v>341</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11396,19 +11396,19 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="G151" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H151" t="n">
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97979</v>
+        <v>97977</v>
       </c>
       <c r="J151" t="n">
-        <v>248483</v>
+        <v>248718</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11420,10 +11420,10 @@
         <v>-1342</v>
       </c>
       <c r="N151" t="n">
-        <v>2231</v>
+        <v>2266</v>
       </c>
       <c r="O151" t="n">
-        <v>2126</v>
+        <v>2142</v>
       </c>
       <c r="P151" t="n">
         <v>95</v>
@@ -11435,7 +11435,7 @@
         <v>197</v>
       </c>
       <c r="S151" t="n">
-        <v>338.4</v>
+        <v>341.1</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11470,19 +11470,19 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="G152" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H152" t="n">
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100472</v>
+        <v>100470</v>
       </c>
       <c r="J152" t="n">
-        <v>248735</v>
+        <v>248972</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>1082</v>
       </c>
       <c r="N152" t="n">
-        <v>4301</v>
+        <v>4335</v>
       </c>
       <c r="O152" t="n">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="P152" t="n">
         <v>2493</v>
@@ -11506,10 +11506,10 @@
         <v>164.4</v>
       </c>
       <c r="R152" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S152" t="n">
-        <v>339.7</v>
+        <v>342.3</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,19 +11544,19 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="G153" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H153" t="n">
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100778</v>
+        <v>100776</v>
       </c>
       <c r="J153" t="n">
-        <v>249173</v>
+        <v>249414</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>3465</v>
       </c>
       <c r="N153" t="n">
-        <v>4386</v>
+        <v>4423</v>
       </c>
       <c r="O153" t="n">
-        <v>2106</v>
+        <v>2119</v>
       </c>
       <c r="P153" t="n">
         <v>306</v>
@@ -11580,10 +11580,10 @@
         <v>198.3</v>
       </c>
       <c r="R153" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="S153" t="n">
-        <v>349.1</v>
+        <v>351.6</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11618,19 +11618,19 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="G154" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H154" t="n">
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101176</v>
+        <v>101174</v>
       </c>
       <c r="J154" t="n">
-        <v>249600</v>
+        <v>249844</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11642,10 +11642,10 @@
         <v>1410</v>
       </c>
       <c r="N154" t="n">
-        <v>4303</v>
+        <v>4336</v>
       </c>
       <c r="O154" t="n">
-        <v>2135</v>
+        <v>2149</v>
       </c>
       <c r="P154" t="n">
         <v>398</v>
@@ -11654,10 +11654,10 @@
         <v>551.9</v>
       </c>
       <c r="R154" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="S154" t="n">
-        <v>361.9</v>
+        <v>364.1</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11683,7 +11683,7 @@
         <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D155" t="n">
         <v>115</v>
@@ -11692,46 +11692,46 @@
         <v>205</v>
       </c>
       <c r="F155" t="n">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="G155" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H155" t="n">
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101578</v>
+        <v>101575</v>
       </c>
       <c r="J155" t="n">
-        <v>250075</v>
+        <v>250319</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
       </c>
       <c r="L155" t="n">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="M155" t="n">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="N155" t="n">
-        <v>4387</v>
+        <v>4416</v>
       </c>
       <c r="O155" t="n">
-        <v>2048</v>
+        <v>2059</v>
       </c>
       <c r="P155" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q155" t="n">
-        <v>258.9</v>
+        <v>258.7</v>
       </c>
       <c r="R155" t="n">
         <v>475</v>
       </c>
       <c r="S155" t="n">
-        <v>372.9</v>
+        <v>374.9</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11766,46 +11766,46 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="G156" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H156" t="n">
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102026</v>
+        <v>102023</v>
       </c>
       <c r="J156" t="n">
-        <v>250599</v>
+        <v>250845</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
       </c>
       <c r="L156" t="n">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="M156" t="n">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="N156" t="n">
-        <v>4681</v>
+        <v>4711</v>
       </c>
       <c r="O156" t="n">
-        <v>2313</v>
+        <v>2324</v>
       </c>
       <c r="P156" t="n">
         <v>448</v>
       </c>
       <c r="Q156" t="n">
-        <v>281.7</v>
+        <v>281.6</v>
       </c>
       <c r="R156" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="S156" t="n">
-        <v>367.4</v>
+        <v>369.3</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11840,46 +11840,46 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="G157" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H157" t="n">
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99856</v>
+        <v>99853</v>
       </c>
       <c r="J157" t="n">
-        <v>250811</v>
+        <v>251058</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
       </c>
       <c r="L157" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M157" t="n">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="N157" t="n">
-        <v>4697</v>
+        <v>4728</v>
       </c>
       <c r="O157" t="n">
-        <v>2328</v>
+        <v>2340</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
       </c>
       <c r="Q157" t="n">
-        <v>281.7</v>
+        <v>281.6</v>
       </c>
       <c r="R157" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S157" t="n">
-        <v>360.7</v>
+        <v>362.4</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11914,46 +11914,46 @@
         <v>63</v>
       </c>
       <c r="F158" t="n">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="G158" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H158" t="n">
         <v>33772</v>
       </c>
       <c r="I158" t="n">
-        <v>100037</v>
+        <v>100034</v>
       </c>
       <c r="J158" t="n">
-        <v>250970</v>
+        <v>251217</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
       </c>
       <c r="L158" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M158" t="n">
-        <v>-435</v>
+        <v>-436</v>
       </c>
       <c r="N158" t="n">
-        <v>4613</v>
+        <v>4641</v>
       </c>
       <c r="O158" t="n">
-        <v>2235</v>
+        <v>2245</v>
       </c>
       <c r="P158" t="n">
         <v>181</v>
       </c>
       <c r="Q158" t="n">
-        <v>294</v>
+        <v>293.9</v>
       </c>
       <c r="R158" t="n">
         <v>159</v>
       </c>
       <c r="S158" t="n">
-        <v>355.3</v>
+        <v>357</v>
       </c>
       <c r="T158" t="n">
         <v>6</v>
@@ -11988,46 +11988,46 @@
         <v>205</v>
       </c>
       <c r="F159" t="n">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="G159" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H159" t="n">
         <v>33782</v>
       </c>
       <c r="I159" t="n">
-        <v>102676</v>
+        <v>102673</v>
       </c>
       <c r="J159" t="n">
-        <v>251296</v>
+        <v>251543</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
       </c>
       <c r="L159" t="n">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="M159" t="n">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N159" t="n">
-        <v>4567</v>
+        <v>4590</v>
       </c>
       <c r="O159" t="n">
-        <v>2123</v>
+        <v>2129</v>
       </c>
       <c r="P159" t="n">
         <v>2639</v>
       </c>
       <c r="Q159" t="n">
-        <v>314.9</v>
+        <v>314.7</v>
       </c>
       <c r="R159" t="n">
         <v>326</v>
       </c>
       <c r="S159" t="n">
-        <v>365.9</v>
+        <v>367.3</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12062,46 +12062,46 @@
         <v>200</v>
       </c>
       <c r="F160" t="n">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="G160" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H160" t="n">
         <v>33798</v>
       </c>
       <c r="I160" t="n">
-        <v>103236</v>
+        <v>103233</v>
       </c>
       <c r="J160" t="n">
-        <v>251917</v>
+        <v>252167</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
       </c>
       <c r="L160" t="n">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="M160" t="n">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="N160" t="n">
-        <v>4850</v>
+        <v>4872</v>
       </c>
       <c r="O160" t="n">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="P160" t="n">
         <v>560</v>
       </c>
       <c r="Q160" t="n">
-        <v>351.1</v>
+        <v>351</v>
       </c>
       <c r="R160" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="S160" t="n">
-        <v>392</v>
+        <v>393.3</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -12136,46 +12136,46 @@
         <v>198</v>
       </c>
       <c r="F161" t="n">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="G161" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H161" t="n">
         <v>33807</v>
       </c>
       <c r="I161" t="n">
-        <v>103915</v>
+        <v>103912</v>
       </c>
       <c r="J161" t="n">
-        <v>252504</v>
+        <v>252755</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
       </c>
       <c r="L161" t="n">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="M161" t="n">
         <v>2337</v>
       </c>
       <c r="N161" t="n">
-        <v>5039</v>
+        <v>5060</v>
       </c>
       <c r="O161" t="n">
-        <v>2429</v>
+        <v>2436</v>
       </c>
       <c r="P161" t="n">
         <v>679</v>
       </c>
       <c r="Q161" t="n">
-        <v>391.3</v>
+        <v>391.1</v>
       </c>
       <c r="R161" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S161" t="n">
-        <v>414.9</v>
+        <v>415.9</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12210,34 +12210,34 @@
         <v>1091</v>
       </c>
       <c r="F162" t="n">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="G162" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H162" t="n">
         <v>33823</v>
       </c>
       <c r="I162" t="n">
-        <v>104687</v>
+        <v>104684</v>
       </c>
       <c r="J162" t="n">
-        <v>253495</v>
+        <v>253751</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
       </c>
       <c r="L162" t="n">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="M162" t="n">
         <v>2661</v>
       </c>
       <c r="N162" t="n">
-        <v>5468</v>
+        <v>5491</v>
       </c>
       <c r="O162" t="n">
-        <v>2896</v>
+        <v>2906</v>
       </c>
       <c r="P162" t="n">
         <v>772</v>
@@ -12246,10 +12246,10 @@
         <v>444.1</v>
       </c>
       <c r="R162" t="n">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="S162" t="n">
-        <v>488.6</v>
+        <v>490.3</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -12284,34 +12284,34 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="G163" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H163" t="n">
         <v>33827</v>
       </c>
       <c r="I163" t="n">
-        <v>105691</v>
+        <v>105688</v>
       </c>
       <c r="J163" t="n">
-        <v>254510</v>
+        <v>254770</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>7807</v>
+        <v>7806</v>
       </c>
       <c r="M163" t="n">
         <v>5835</v>
       </c>
       <c r="N163" t="n">
-        <v>6224</v>
+        <v>6249</v>
       </c>
       <c r="O163" t="n">
-        <v>3699</v>
+        <v>3712</v>
       </c>
       <c r="P163" t="n">
         <v>1004</v>
@@ -12320,10 +12320,10 @@
         <v>523.6</v>
       </c>
       <c r="R163" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="S163" t="n">
-        <v>558.7</v>
+        <v>560.7</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12358,34 +12358,34 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G164" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H164" t="n">
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103671</v>
+        <v>103668</v>
       </c>
       <c r="J164" t="n">
-        <v>254936</v>
+        <v>255198</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="M164" t="n">
         <v>3634</v>
       </c>
       <c r="N164" t="n">
-        <v>6453</v>
+        <v>6480</v>
       </c>
       <c r="O164" t="n">
-        <v>3966</v>
+        <v>3981</v>
       </c>
       <c r="P164" t="n">
         <v>-2020</v>
@@ -12394,10 +12394,10 @@
         <v>545</v>
       </c>
       <c r="R164" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S164" t="n">
-        <v>589.3</v>
+        <v>591.4</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12432,34 +12432,34 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="G165" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H165" t="n">
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110679</v>
+        <v>110676</v>
       </c>
       <c r="J165" t="n">
-        <v>255546</v>
+        <v>255811</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10207</v>
+        <v>10206</v>
       </c>
       <c r="M165" t="n">
         <v>8003</v>
       </c>
       <c r="N165" t="n">
-        <v>6811</v>
+        <v>6839</v>
       </c>
       <c r="O165" t="n">
-        <v>4250</v>
+        <v>4268</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
@@ -12468,10 +12468,10 @@
         <v>1520.3</v>
       </c>
       <c r="R165" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="S165" t="n">
-        <v>653.7</v>
+        <v>656.3</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -12506,34 +12506,34 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G166" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H166" t="n">
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114082</v>
+        <v>114079</v>
       </c>
       <c r="J166" t="n">
-        <v>256348</v>
+        <v>256616</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="M166" t="n">
         <v>10846</v>
       </c>
       <c r="N166" t="n">
-        <v>7175</v>
+        <v>7202</v>
       </c>
       <c r="O166" t="n">
-        <v>4431</v>
+        <v>4449</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
@@ -12542,10 +12542,10 @@
         <v>1629.4</v>
       </c>
       <c r="R166" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="S166" t="n">
-        <v>721.7</v>
+        <v>724.7</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,25 +12589,25 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115366</v>
+        <v>115363</v>
       </c>
       <c r="J167" t="n">
-        <v>257504</v>
+        <v>257777</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14190</v>
+        <v>14189</v>
       </c>
       <c r="M167" t="n">
         <v>11451</v>
       </c>
       <c r="N167" t="n">
-        <v>7904</v>
+        <v>7933</v>
       </c>
       <c r="O167" t="n">
-        <v>5000</v>
+        <v>5022</v>
       </c>
       <c r="P167" t="n">
         <v>1284</v>
@@ -12616,10 +12616,10 @@
         <v>1732.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="S167" t="n">
-        <v>798.1</v>
+        <v>801.4</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12654,19 +12654,19 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="G168" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H168" t="n">
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109731</v>
+        <v>109728</v>
       </c>
       <c r="J168" t="n">
-        <v>258860</v>
+        <v>259135</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
@@ -12678,10 +12678,10 @@
         <v>5044</v>
       </c>
       <c r="N168" t="n">
-        <v>8785</v>
+        <v>8816</v>
       </c>
       <c r="O168" t="n">
-        <v>5365</v>
+        <v>5384</v>
       </c>
       <c r="P168" t="n">
         <v>-5635</v>
@@ -12690,10 +12690,10 @@
         <v>830.9</v>
       </c>
       <c r="R168" t="n">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="S168" t="n">
-        <v>908</v>
+        <v>911.4</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12728,19 +12728,19 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="G169" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H169" t="n">
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111050</v>
+        <v>111047</v>
       </c>
       <c r="J169" t="n">
-        <v>260416</v>
+        <v>260691</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -12752,10 +12752,10 @@
         <v>5359</v>
       </c>
       <c r="N169" t="n">
-        <v>9817</v>
+        <v>9846</v>
       </c>
       <c r="O169" t="n">
-        <v>5906</v>
+        <v>5921</v>
       </c>
       <c r="P169" t="n">
         <v>1319</v>
@@ -12767,7 +12767,7 @@
         <v>1556</v>
       </c>
       <c r="S169" t="n">
-        <v>988.7</v>
+        <v>991.4</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12796,52 +12796,52 @@
         <v>1558</v>
       </c>
       <c r="D170" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E170" t="n">
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="G170" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H170" t="n">
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116149</v>
+        <v>116145</v>
       </c>
       <c r="J170" t="n">
-        <v>262335</v>
+        <v>262616</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16293</v>
+        <v>16292</v>
       </c>
       <c r="M170" t="n">
-        <v>12478</v>
+        <v>12477</v>
       </c>
       <c r="N170" t="n">
-        <v>11524</v>
+        <v>11558</v>
       </c>
       <c r="O170" t="n">
-        <v>7399</v>
+        <v>7418</v>
       </c>
       <c r="P170" t="n">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="Q170" t="n">
-        <v>1494</v>
+        <v>1493.9</v>
       </c>
       <c r="R170" t="n">
-        <v>1919</v>
+        <v>1925</v>
       </c>
       <c r="S170" t="n">
-        <v>1117.9</v>
+        <v>1120.9</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12867,7 +12867,7 @@
         <v>70</v>
       </c>
       <c r="C171" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D171" t="n">
         <v>3</v>
@@ -12876,19 +12876,19 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="G171" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H171" t="n">
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114457</v>
+        <v>114454</v>
       </c>
       <c r="J171" t="n">
-        <v>263625</v>
+        <v>263908</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -12900,22 +12900,22 @@
         <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12655</v>
+        <v>12691</v>
       </c>
       <c r="O171" t="n">
-        <v>8079</v>
+        <v>8097</v>
       </c>
       <c r="P171" t="n">
-        <v>-1692</v>
+        <v>-1691</v>
       </c>
       <c r="Q171" t="n">
         <v>1540.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="S171" t="n">
-        <v>1241.3</v>
+        <v>1244.3</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12950,19 +12950,19 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="G172" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H172" t="n">
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123359</v>
+        <v>123356</v>
       </c>
       <c r="J172" t="n">
-        <v>264676</v>
+        <v>264961</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -12974,10 +12974,10 @@
         <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13380</v>
+        <v>13418</v>
       </c>
       <c r="O172" t="n">
-        <v>8328</v>
+        <v>8345</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12986,10 +12986,10 @@
         <v>1811.4</v>
       </c>
       <c r="R172" t="n">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="S172" t="n">
-        <v>1304.3</v>
+        <v>1307.1</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,19 +13024,19 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="G173" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H173" t="n">
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127513</v>
+        <v>127510</v>
       </c>
       <c r="J173" t="n">
-        <v>266402</v>
+        <v>266689</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
@@ -13048,10 +13048,10 @@
         <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14485</v>
+        <v>14522</v>
       </c>
       <c r="O173" t="n">
-        <v>8898</v>
+        <v>8912</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13060,10 +13060,10 @@
         <v>1918.7</v>
       </c>
       <c r="R173" t="n">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="S173" t="n">
-        <v>1436.3</v>
+        <v>1439</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13089,7 +13089,7 @@
         <v>69</v>
       </c>
       <c r="C174" t="n">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D174" t="n">
         <v>349</v>
@@ -13098,46 +13098,46 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="G174" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H174" t="n">
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129272</v>
+        <v>129270</v>
       </c>
       <c r="J174" t="n">
-        <v>268674</v>
+        <v>268967</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>25357</v>
+        <v>25358</v>
       </c>
       <c r="M174" t="n">
-        <v>19541</v>
+        <v>19542</v>
       </c>
       <c r="N174" t="n">
-        <v>16170</v>
+        <v>16212</v>
       </c>
       <c r="O174" t="n">
-        <v>9814</v>
+        <v>9832</v>
       </c>
       <c r="P174" t="n">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="Q174" t="n">
-        <v>1986.6</v>
+        <v>1986.7</v>
       </c>
       <c r="R174" t="n">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="S174" t="n">
-        <v>1595.7</v>
+        <v>1598.6</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13163,7 +13163,7 @@
         <v>37</v>
       </c>
       <c r="C175" t="n">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D175" t="n">
         <v>292</v>
@@ -13172,46 +13172,46 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="G175" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H175" t="n">
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131540</v>
+        <v>131539</v>
       </c>
       <c r="J175" t="n">
-        <v>270930</v>
+        <v>271229</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>26853</v>
+        <v>26855</v>
       </c>
       <c r="M175" t="n">
-        <v>20490</v>
+        <v>20492</v>
       </c>
       <c r="N175" t="n">
-        <v>17435</v>
+        <v>17478</v>
       </c>
       <c r="O175" t="n">
-        <v>10514</v>
+        <v>10538</v>
       </c>
       <c r="P175" t="n">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="Q175" t="n">
-        <v>3115.6</v>
+        <v>3115.9</v>
       </c>
       <c r="R175" t="n">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="S175" t="n">
-        <v>1724.3</v>
+        <v>1727.7</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13246,46 +13246,46 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1186</v>
+        <v>1200</v>
       </c>
       <c r="G176" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H176" t="n">
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133452</v>
+        <v>133451</v>
       </c>
       <c r="J176" t="n">
-        <v>273106</v>
+        <v>273406</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>27761</v>
+        <v>27763</v>
       </c>
       <c r="M176" t="n">
-        <v>17303</v>
+        <v>17306</v>
       </c>
       <c r="N176" t="n">
-        <v>18596</v>
+        <v>18636</v>
       </c>
       <c r="O176" t="n">
-        <v>10771</v>
+        <v>10790</v>
       </c>
       <c r="P176" t="n">
         <v>1912</v>
       </c>
       <c r="Q176" t="n">
-        <v>3200.3</v>
+        <v>3200.6</v>
       </c>
       <c r="R176" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="S176" t="n">
-        <v>1812.9</v>
+        <v>1816.4</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13320,46 +13320,46 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="G177" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H177" t="n">
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125451</v>
+        <v>125450</v>
       </c>
       <c r="J177" t="n">
-        <v>275726</v>
+        <v>276034</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>21780</v>
+        <v>21782</v>
       </c>
       <c r="M177" t="n">
-        <v>10994</v>
+        <v>10996</v>
       </c>
       <c r="N177" t="n">
-        <v>20790</v>
+        <v>20836</v>
       </c>
       <c r="O177" t="n">
-        <v>12101</v>
+        <v>12126</v>
       </c>
       <c r="P177" t="n">
         <v>-8001</v>
       </c>
       <c r="Q177" t="n">
-        <v>1328.9</v>
+        <v>1329.3</v>
       </c>
       <c r="R177" t="n">
-        <v>2620</v>
+        <v>2628</v>
       </c>
       <c r="S177" t="n">
-        <v>1913</v>
+        <v>1916.9</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13394,46 +13394,46 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1259</v>
+        <v>1279</v>
       </c>
       <c r="G178" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H178" t="n">
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104455</v>
+        <v>104454</v>
       </c>
       <c r="J178" t="n">
-        <v>277209</v>
+        <v>277520</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-6224</v>
+        <v>-6222</v>
       </c>
       <c r="M178" t="n">
-        <v>-18904</v>
+        <v>-18902</v>
       </c>
       <c r="N178" t="n">
-        <v>21663</v>
+        <v>21709</v>
       </c>
       <c r="O178" t="n">
-        <v>12533</v>
+        <v>12559</v>
       </c>
       <c r="P178" t="n">
         <v>-20996</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1428.9</v>
+        <v>-1428.6</v>
       </c>
       <c r="R178" t="n">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="S178" t="n">
-        <v>1940.6</v>
+        <v>1944.6</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,46 +13468,46 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1307</v>
+        <v>1329</v>
       </c>
       <c r="G179" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H179" t="n">
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115788</v>
+        <v>115787</v>
       </c>
       <c r="J179" t="n">
-        <v>278542</v>
+        <v>278854</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
       </c>
       <c r="L179" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="M179" t="n">
-        <v>-11725</v>
+        <v>-11723</v>
       </c>
       <c r="N179" t="n">
-        <v>22194</v>
+        <v>22238</v>
       </c>
       <c r="O179" t="n">
-        <v>12140</v>
+        <v>12165</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1081.6</v>
+        <v>-1081.3</v>
       </c>
       <c r="R179" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="S179" t="n">
-        <v>1980.9</v>
+        <v>1984.7</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,46 +13542,46 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1413</v>
+        <v>1439</v>
       </c>
       <c r="G180" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H180" t="n">
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115780</v>
+        <v>115779</v>
       </c>
       <c r="J180" t="n">
-        <v>280630</v>
+        <v>280945</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
       </c>
       <c r="L180" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M180" t="n">
-        <v>-13492</v>
+        <v>-13491</v>
       </c>
       <c r="N180" t="n">
-        <v>23126</v>
+        <v>23168</v>
       </c>
       <c r="O180" t="n">
-        <v>11956</v>
+        <v>11978</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1676.1</v>
+        <v>-1675.9</v>
       </c>
       <c r="R180" t="n">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="S180" t="n">
-        <v>2032.6</v>
+        <v>2036.6</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,46 +13616,46 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1512</v>
+        <v>1538</v>
       </c>
       <c r="G181" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H181" t="n">
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110097</v>
+        <v>110096</v>
       </c>
       <c r="J181" t="n">
-        <v>283386</v>
+        <v>283702</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M181" t="n">
         <v>-21443</v>
       </c>
       <c r="N181" t="n">
-        <v>24526</v>
+        <v>24567</v>
       </c>
       <c r="O181" t="n">
-        <v>12456</v>
+        <v>12473</v>
       </c>
       <c r="P181" t="n">
         <v>-5683</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2739.3</v>
+        <v>-2739.1</v>
       </c>
       <c r="R181" t="n">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="S181" t="n">
-        <v>2101.7</v>
+        <v>2105</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="D182" t="n">
         <v>63776</v>
@@ -13690,46 +13690,46 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1544</v>
+        <v>1570</v>
       </c>
       <c r="G182" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H182" t="n">
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123653</v>
+        <v>123654</v>
       </c>
       <c r="J182" t="n">
-        <v>286166</v>
+        <v>286489</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12603</v>
+        <v>12607</v>
       </c>
       <c r="M182" t="n">
-        <v>-9799</v>
+        <v>-9797</v>
       </c>
       <c r="N182" t="n">
-        <v>25750</v>
+        <v>25798</v>
       </c>
       <c r="O182" t="n">
-        <v>13060</v>
+        <v>13083</v>
       </c>
       <c r="P182" t="n">
-        <v>13556</v>
+        <v>13558</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1126.7</v>
+        <v>-1126.4</v>
       </c>
       <c r="R182" t="n">
-        <v>2780</v>
+        <v>2787</v>
       </c>
       <c r="S182" t="n">
-        <v>2176.6</v>
+        <v>2180</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13755,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="n">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D183" t="n">
         <v>63821</v>
@@ -13764,46 +13764,46 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1607</v>
+        <v>1632</v>
       </c>
       <c r="G183" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H183" t="n">
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113191</v>
+        <v>113193</v>
       </c>
       <c r="J183" t="n">
-        <v>291893</v>
+        <v>292224</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2958</v>
+        <v>-2952</v>
       </c>
       <c r="M183" t="n">
-        <v>-12260</v>
+        <v>-12257</v>
       </c>
       <c r="N183" t="n">
-        <v>29558</v>
+        <v>29608</v>
       </c>
       <c r="O183" t="n">
-        <v>16167</v>
+        <v>16190</v>
       </c>
       <c r="P183" t="n">
-        <v>-10462</v>
+        <v>-10461</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894.4</v>
+        <v>-2894</v>
       </c>
       <c r="R183" t="n">
-        <v>5727</v>
+        <v>5735</v>
       </c>
       <c r="S183" t="n">
-        <v>2683.9</v>
+        <v>2688.3</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13838,46 +13838,46 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1672</v>
+        <v>1696</v>
       </c>
       <c r="G184" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H184" t="n">
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114838</v>
+        <v>114840</v>
       </c>
       <c r="J184" t="n">
-        <v>295432</v>
+        <v>295769</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M184" t="n">
-        <v>10383</v>
+        <v>10386</v>
       </c>
       <c r="N184" t="n">
-        <v>31807</v>
+        <v>31861</v>
       </c>
       <c r="O184" t="n">
-        <v>18223</v>
+        <v>18249</v>
       </c>
       <c r="P184" t="n">
         <v>1647</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1516.1</v>
+        <v>-1515.7</v>
       </c>
       <c r="R184" t="n">
-        <v>3539</v>
+        <v>3545</v>
       </c>
       <c r="S184" t="n">
-        <v>2815.1</v>
+        <v>2819.3</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1747</v>
+        <v>1771</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,37 +13921,37 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110288</v>
+        <v>110290</v>
       </c>
       <c r="J185" t="n">
-        <v>298214</v>
+        <v>298554</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13071</v>
+        <v>-13066</v>
       </c>
       <c r="M185" t="n">
-        <v>-5500</v>
+        <v>-5497</v>
       </c>
       <c r="N185" t="n">
-        <v>33538</v>
+        <v>33593</v>
       </c>
       <c r="O185" t="n">
-        <v>19672</v>
+        <v>19700</v>
       </c>
       <c r="P185" t="n">
         <v>-4550</v>
       </c>
       <c r="Q185" t="n">
-        <v>833.3</v>
+        <v>833.7</v>
       </c>
       <c r="R185" t="n">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="S185" t="n">
-        <v>3000.7</v>
+        <v>3004.9</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,46 +13986,46 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1809</v>
+        <v>1833</v>
       </c>
       <c r="G186" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H186" t="n">
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123815</v>
+        <v>123817</v>
       </c>
       <c r="J186" t="n">
-        <v>299776</v>
+        <v>300117</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3698</v>
+        <v>-3693</v>
       </c>
       <c r="M186" t="n">
-        <v>8035</v>
+        <v>8038</v>
       </c>
       <c r="N186" t="n">
-        <v>33374</v>
+        <v>33428</v>
       </c>
       <c r="O186" t="n">
-        <v>19146</v>
+        <v>19172</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
       </c>
       <c r="Q186" t="n">
-        <v>1146.7</v>
+        <v>1147.1</v>
       </c>
       <c r="R186" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="S186" t="n">
-        <v>3033.4</v>
+        <v>3037.6</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14060,46 +14060,46 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2087</v>
+        <v>2113</v>
       </c>
       <c r="G187" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H187" t="n">
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132258</v>
+        <v>132260</v>
       </c>
       <c r="J187" t="n">
-        <v>302687</v>
+        <v>303032</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="M187" t="n">
-        <v>22161</v>
+        <v>22164</v>
       </c>
       <c r="N187" t="n">
-        <v>34013</v>
+        <v>34065</v>
       </c>
       <c r="O187" t="n">
-        <v>19301</v>
+        <v>19330</v>
       </c>
       <c r="P187" t="n">
         <v>8443</v>
       </c>
       <c r="Q187" t="n">
-        <v>2354</v>
+        <v>2354.4</v>
       </c>
       <c r="R187" t="n">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="S187" t="n">
-        <v>3151</v>
+        <v>3155.3</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14134,46 +14134,46 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2147</v>
+        <v>2175</v>
       </c>
       <c r="G188" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H188" t="n">
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134179</v>
+        <v>134181</v>
       </c>
       <c r="J188" t="n">
-        <v>306654</v>
+        <v>307005</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="M188" t="n">
-        <v>10526</v>
+        <v>10527</v>
       </c>
       <c r="N188" t="n">
-        <v>35724</v>
+        <v>35776</v>
       </c>
       <c r="O188" t="n">
-        <v>20488</v>
+        <v>20516</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
       </c>
       <c r="Q188" t="n">
-        <v>3440.3</v>
+        <v>3440.7</v>
       </c>
       <c r="R188" t="n">
-        <v>3967</v>
+        <v>3973</v>
       </c>
       <c r="S188" t="n">
-        <v>3324</v>
+        <v>3329</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14208,46 +14208,46 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2152</v>
+        <v>2185</v>
       </c>
       <c r="G189" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H189" t="n">
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136182</v>
+        <v>136184</v>
       </c>
       <c r="J189" t="n">
-        <v>310506</v>
+        <v>310860</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="M189" t="n">
         <v>22991</v>
       </c>
       <c r="N189" t="n">
-        <v>37400</v>
+        <v>37454</v>
       </c>
       <c r="O189" t="n">
-        <v>18613</v>
+        <v>18636</v>
       </c>
       <c r="P189" t="n">
         <v>2003</v>
       </c>
       <c r="Q189" t="n">
-        <v>1789.9</v>
+        <v>1790</v>
       </c>
       <c r="R189" t="n">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="S189" t="n">
-        <v>3477.1</v>
+        <v>3481.6</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14282,34 +14282,34 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2197</v>
+        <v>2229</v>
       </c>
       <c r="G190" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H190" t="n">
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138299</v>
+        <v>138301</v>
       </c>
       <c r="J190" t="n">
-        <v>314985</v>
+        <v>315349</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12848</v>
+        <v>12851</v>
       </c>
       <c r="M190" t="n">
         <v>23461</v>
       </c>
       <c r="N190" t="n">
-        <v>39259</v>
+        <v>39315</v>
       </c>
       <c r="O190" t="n">
-        <v>19553</v>
+        <v>19580</v>
       </c>
       <c r="P190" t="n">
         <v>2117</v>
@@ -14318,10 +14318,10 @@
         <v>3586.9</v>
       </c>
       <c r="R190" t="n">
-        <v>4479</v>
+        <v>4489</v>
       </c>
       <c r="S190" t="n">
-        <v>3298.9</v>
+        <v>3303.6</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14356,34 +14356,34 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2246</v>
+        <v>2276</v>
       </c>
       <c r="G191" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H191" t="n">
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122884</v>
+        <v>122886</v>
       </c>
       <c r="J191" t="n">
-        <v>320228</v>
+        <v>320600</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18429</v>
+        <v>18432</v>
       </c>
       <c r="M191" t="n">
         <v>12596</v>
       </c>
       <c r="N191" t="n">
-        <v>43019</v>
+        <v>43080</v>
       </c>
       <c r="O191" t="n">
-        <v>22014</v>
+        <v>22046</v>
       </c>
       <c r="P191" t="n">
         <v>-15415</v>
@@ -14392,10 +14392,10 @@
         <v>1149.4</v>
       </c>
       <c r="R191" t="n">
-        <v>5243</v>
+        <v>5251</v>
       </c>
       <c r="S191" t="n">
-        <v>3542.3</v>
+        <v>3547.3</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14430,34 +14430,34 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2272</v>
+        <v>2307</v>
       </c>
       <c r="G192" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H192" t="n">
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120862</v>
+        <v>120864</v>
       </c>
       <c r="J192" t="n">
-        <v>323166</v>
+        <v>323543</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5074</v>
+        <v>5077</v>
       </c>
       <c r="M192" t="n">
         <v>-2953</v>
       </c>
       <c r="N192" t="n">
-        <v>44624</v>
+        <v>44689</v>
       </c>
       <c r="O192" t="n">
-        <v>23390</v>
+        <v>23426</v>
       </c>
       <c r="P192" t="n">
         <v>-2022</v>
@@ -14466,10 +14466,10 @@
         <v>1510.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2938</v>
+        <v>2943</v>
       </c>
       <c r="S192" t="n">
-        <v>3564.6</v>
+        <v>3569.9</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14504,34 +14504,34 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2346</v>
+        <v>2385</v>
       </c>
       <c r="G193" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H193" t="n">
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139676</v>
+        <v>139678</v>
       </c>
       <c r="J193" t="n">
-        <v>325217</v>
+        <v>325597</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23896</v>
+        <v>23899</v>
       </c>
       <c r="M193" t="n">
         <v>7418</v>
       </c>
       <c r="N193" t="n">
-        <v>44587</v>
+        <v>44652</v>
       </c>
       <c r="O193" t="n">
-        <v>22530</v>
+        <v>22565</v>
       </c>
       <c r="P193" t="n">
         <v>18814</v>
@@ -14540,10 +14540,10 @@
         <v>2265.9</v>
       </c>
       <c r="R193" t="n">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="S193" t="n">
-        <v>3634.4</v>
+        <v>3640</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14578,34 +14578,34 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2555</v>
+        <v>2601</v>
       </c>
       <c r="G194" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H194" t="n">
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140186</v>
+        <v>140188</v>
       </c>
       <c r="J194" t="n">
-        <v>329261</v>
+        <v>329651</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>30089</v>
+        <v>30092</v>
       </c>
       <c r="M194" t="n">
         <v>6007</v>
       </c>
       <c r="N194" t="n">
-        <v>45875</v>
+        <v>45949</v>
       </c>
       <c r="O194" t="n">
-        <v>22607</v>
+        <v>22646</v>
       </c>
       <c r="P194" t="n">
         <v>510</v>
@@ -14614,10 +14614,10 @@
         <v>1132.6</v>
       </c>
       <c r="R194" t="n">
-        <v>4044</v>
+        <v>4054</v>
       </c>
       <c r="S194" t="n">
-        <v>3796.3</v>
+        <v>3802.7</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14643,7 +14643,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -14652,46 +14652,46 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2671</v>
+        <v>2711</v>
       </c>
       <c r="G195" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H195" t="n">
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146934</v>
+        <v>146937</v>
       </c>
       <c r="J195" t="n">
-        <v>334944</v>
+        <v>335347</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>23281</v>
+        <v>23283</v>
       </c>
       <c r="M195" t="n">
-        <v>10752</v>
+        <v>10753</v>
       </c>
       <c r="N195" t="n">
-        <v>48778</v>
+        <v>48858</v>
       </c>
       <c r="O195" t="n">
-        <v>24438</v>
+        <v>24487</v>
       </c>
       <c r="P195" t="n">
-        <v>6748</v>
+        <v>6749</v>
       </c>
       <c r="Q195" t="n">
-        <v>1822.1</v>
+        <v>1822.3</v>
       </c>
       <c r="R195" t="n">
-        <v>5683</v>
+        <v>5696</v>
       </c>
       <c r="S195" t="n">
-        <v>4041.4</v>
+        <v>4048.9</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14726,46 +14726,46 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2715</v>
+        <v>2759</v>
       </c>
       <c r="G196" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H196" t="n">
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149144</v>
+        <v>149147</v>
       </c>
       <c r="J196" t="n">
-        <v>340474</v>
+        <v>340889</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35953</v>
+        <v>35954</v>
       </c>
       <c r="M196" t="n">
-        <v>10845</v>
+        <v>10846</v>
       </c>
       <c r="N196" t="n">
-        <v>48581</v>
+        <v>48665</v>
       </c>
       <c r="O196" t="n">
-        <v>25489</v>
+        <v>25540</v>
       </c>
       <c r="P196" t="n">
         <v>2210</v>
       </c>
       <c r="Q196" t="n">
-        <v>1851.7</v>
+        <v>1851.9</v>
       </c>
       <c r="R196" t="n">
-        <v>5530</v>
+        <v>5542</v>
       </c>
       <c r="S196" t="n">
-        <v>4281.1</v>
+        <v>4289.9</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
@@ -14800,46 +14800,46 @@
         <v>15048</v>
       </c>
       <c r="F197" t="n">
-        <v>2855</v>
+        <v>2909</v>
       </c>
       <c r="G197" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H197" t="n">
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151515</v>
+        <v>151519</v>
       </c>
       <c r="J197" t="n">
-        <v>346656</v>
+        <v>347083</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36677</v>
+        <v>36679</v>
       </c>
       <c r="M197" t="n">
-        <v>28631</v>
+        <v>28633</v>
       </c>
       <c r="N197" t="n">
-        <v>51224</v>
+        <v>51314</v>
       </c>
       <c r="O197" t="n">
-        <v>26428</v>
+        <v>26483</v>
       </c>
       <c r="P197" t="n">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="Q197" t="n">
-        <v>1888</v>
+        <v>1888.3</v>
       </c>
       <c r="R197" t="n">
-        <v>6182</v>
+        <v>6194</v>
       </c>
       <c r="S197" t="n">
-        <v>4524.4</v>
+        <v>4533.4</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14874,46 +14874,46 @@
         <v>3952</v>
       </c>
       <c r="F198" t="n">
-        <v>2970</v>
+        <v>3025</v>
       </c>
       <c r="G198" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H198" t="n">
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133209</v>
+        <v>133213</v>
       </c>
       <c r="J198" t="n">
-        <v>353710</v>
+        <v>354150</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22921</v>
+        <v>22923</v>
       </c>
       <c r="M198" t="n">
-        <v>12347</v>
+        <v>12349</v>
       </c>
       <c r="N198" t="n">
-        <v>55496</v>
+        <v>55596</v>
       </c>
       <c r="O198" t="n">
-        <v>30544</v>
+        <v>30607</v>
       </c>
       <c r="P198" t="n">
         <v>-18306</v>
       </c>
       <c r="Q198" t="n">
-        <v>1475</v>
+        <v>1475.3</v>
       </c>
       <c r="R198" t="n">
-        <v>7054</v>
+        <v>7067</v>
       </c>
       <c r="S198" t="n">
-        <v>4783.1</v>
+        <v>4792.9</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14948,46 +14948,46 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3027</v>
+        <v>3087</v>
       </c>
       <c r="G199" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H199" t="n">
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130077</v>
+        <v>130081</v>
       </c>
       <c r="J199" t="n">
-        <v>357655</v>
+        <v>358110</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6262</v>
+        <v>6264</v>
       </c>
       <c r="M199" t="n">
-        <v>-9599</v>
+        <v>-9597</v>
       </c>
       <c r="N199" t="n">
-        <v>57879</v>
+        <v>57993</v>
       </c>
       <c r="O199" t="n">
-        <v>32438</v>
+        <v>32513</v>
       </c>
       <c r="P199" t="n">
         <v>-3132</v>
       </c>
       <c r="Q199" t="n">
-        <v>1316.4</v>
+        <v>1316.7</v>
       </c>
       <c r="R199" t="n">
-        <v>3945</v>
+        <v>3960</v>
       </c>
       <c r="S199" t="n">
-        <v>4927</v>
+        <v>4938.1</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15022,46 +15022,46 @@
         <v>1396</v>
       </c>
       <c r="F200" t="n">
-        <v>3141</v>
+        <v>3204</v>
       </c>
       <c r="G200" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H200" t="n">
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130879</v>
+        <v>130883</v>
       </c>
       <c r="J200" t="n">
-        <v>359938</v>
+        <v>360394</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1379</v>
+        <v>-1377</v>
       </c>
       <c r="M200" t="n">
-        <v>-9307</v>
+        <v>-9305</v>
       </c>
       <c r="N200" t="n">
-        <v>57251</v>
+        <v>57362</v>
       </c>
       <c r="O200" t="n">
-        <v>30677</v>
+        <v>30743</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1256.7</v>
+        <v>-1256.4</v>
       </c>
       <c r="R200" t="n">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="S200" t="n">
-        <v>4960.1</v>
+        <v>4971</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15087,7 +15087,7 @@
         <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15096,46 +15096,46 @@
         <v>16780</v>
       </c>
       <c r="F201" t="n">
-        <v>3558</v>
+        <v>3622</v>
       </c>
       <c r="G201" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H201" t="n">
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158919</v>
+        <v>158924</v>
       </c>
       <c r="J201" t="n">
-        <v>365195</v>
+        <v>365659</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24740</v>
+        <v>24743</v>
       </c>
       <c r="M201" t="n">
-        <v>11985</v>
+        <v>11987</v>
       </c>
       <c r="N201" t="n">
-        <v>58541</v>
+        <v>58654</v>
       </c>
       <c r="O201" t="n">
-        <v>30251</v>
+        <v>30312</v>
       </c>
       <c r="P201" t="n">
-        <v>28040</v>
+        <v>28041</v>
       </c>
       <c r="Q201" t="n">
-        <v>2676.1</v>
+        <v>2676.6</v>
       </c>
       <c r="R201" t="n">
-        <v>5257</v>
+        <v>5265</v>
       </c>
       <c r="S201" t="n">
-        <v>5133.4</v>
+        <v>5144</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15170,46 +15170,46 @@
         <v>16980</v>
       </c>
       <c r="F202" t="n">
-        <v>3694</v>
+        <v>3773</v>
       </c>
       <c r="G202" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H202" t="n">
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161369</v>
+        <v>161374</v>
       </c>
       <c r="J202" t="n">
-        <v>372594</v>
+        <v>373085</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25187</v>
+        <v>25190</v>
       </c>
       <c r="M202" t="n">
-        <v>12225</v>
+        <v>12227</v>
       </c>
       <c r="N202" t="n">
-        <v>62088</v>
+        <v>62225</v>
       </c>
       <c r="O202" t="n">
-        <v>32120</v>
+        <v>32196</v>
       </c>
       <c r="P202" t="n">
         <v>2450</v>
       </c>
       <c r="Q202" t="n">
-        <v>2062.1</v>
+        <v>2062.4</v>
       </c>
       <c r="R202" t="n">
-        <v>7399</v>
+        <v>7426</v>
       </c>
       <c r="S202" t="n">
-        <v>5378.6</v>
+        <v>5391.1</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15235,7 +15235,7 @@
         <v>768</v>
       </c>
       <c r="C203" t="n">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="D203" t="n">
         <v>64475</v>
@@ -15244,46 +15244,46 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3865</v>
+        <v>3953</v>
       </c>
       <c r="G203" t="n">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="H203" t="n">
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164042</v>
+        <v>164051</v>
       </c>
       <c r="J203" t="n">
-        <v>379993</v>
+        <v>380562</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25743</v>
+        <v>25750</v>
       </c>
       <c r="M203" t="n">
-        <v>12527</v>
+        <v>12532</v>
       </c>
       <c r="N203" t="n">
-        <v>65008</v>
+        <v>65213</v>
       </c>
       <c r="O203" t="n">
-        <v>33337</v>
+        <v>33479</v>
       </c>
       <c r="P203" t="n">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="Q203" t="n">
-        <v>2128.3</v>
+        <v>2129.1</v>
       </c>
       <c r="R203" t="n">
-        <v>7399</v>
+        <v>7477</v>
       </c>
       <c r="S203" t="n">
-        <v>5645.6</v>
+        <v>5667.6</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15309,7 +15309,7 @@
         <v>860</v>
       </c>
       <c r="C204" t="n">
-        <v>3792</v>
+        <v>3798</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
@@ -15318,46 +15318,46 @@
         <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>3995</v>
+        <v>4087</v>
       </c>
       <c r="G204" t="n">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H204" t="n">
         <v>34572</v>
       </c>
       <c r="I204" t="n">
-        <v>142968</v>
+        <v>142983</v>
       </c>
       <c r="J204" t="n">
-        <v>387449</v>
+        <v>388118</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20084</v>
+        <v>20097</v>
       </c>
       <c r="M204" t="n">
-        <v>9759</v>
+        <v>9770</v>
       </c>
       <c r="N204" t="n">
-        <v>67221</v>
+        <v>67518</v>
       </c>
       <c r="O204" t="n">
-        <v>33739</v>
+        <v>33968</v>
       </c>
       <c r="P204" t="n">
-        <v>-21074</v>
+        <v>-21068</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1221</v>
+        <v>-1219.4</v>
       </c>
       <c r="R204" t="n">
-        <v>7456</v>
+        <v>7556</v>
       </c>
       <c r="S204" t="n">
-        <v>5827.6</v>
+        <v>5862.1</v>
       </c>
       <c r="T204" t="n">
         <v>22</v>
@@ -15383,7 +15383,7 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="D205" t="n">
         <v>64580</v>
@@ -15392,46 +15392,46 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4069</v>
+        <v>4161</v>
       </c>
       <c r="G205" t="n">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H205" t="n">
         <v>34600</v>
       </c>
       <c r="I205" t="n">
-        <v>145373</v>
+        <v>145389</v>
       </c>
       <c r="J205" t="n">
-        <v>395964</v>
+        <v>396815</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24511</v>
+        <v>24525</v>
       </c>
       <c r="M205" t="n">
-        <v>15296</v>
+        <v>15308</v>
       </c>
       <c r="N205" t="n">
-        <v>72798</v>
+        <v>73272</v>
       </c>
       <c r="O205" t="n">
-        <v>38309</v>
+        <v>38705</v>
       </c>
       <c r="P205" t="n">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="Q205" t="n">
-        <v>1737.7</v>
+        <v>1739.4</v>
       </c>
       <c r="R205" t="n">
-        <v>8515</v>
+        <v>8697</v>
       </c>
       <c r="S205" t="n">
-        <v>6036.3</v>
+        <v>6095</v>
       </c>
       <c r="T205" t="n">
         <v>28</v>
@@ -15457,7 +15457,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
@@ -15466,46 +15466,46 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4075</v>
+        <v>4173</v>
       </c>
       <c r="G206" t="n">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H206" t="n">
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>141301</v>
+        <v>141321</v>
       </c>
       <c r="J206" t="n">
-        <v>400861</v>
+        <v>401773</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1625</v>
+        <v>1643</v>
       </c>
       <c r="M206" t="n">
-        <v>10422</v>
+        <v>10438</v>
       </c>
       <c r="N206" t="n">
-        <v>75644</v>
+        <v>76176</v>
       </c>
       <c r="O206" t="n">
-        <v>40923</v>
+        <v>41379</v>
       </c>
       <c r="P206" t="n">
-        <v>-4072</v>
+        <v>-4068</v>
       </c>
       <c r="Q206" t="n">
-        <v>1603.4</v>
+        <v>1605.7</v>
       </c>
       <c r="R206" t="n">
-        <v>4897</v>
+        <v>4958</v>
       </c>
       <c r="S206" t="n">
-        <v>6172.3</v>
+        <v>6237.6</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -15531,7 +15531,7 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D207" t="n">
         <v>64558</v>
@@ -15540,46 +15540,46 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4138</v>
+        <v>4244</v>
       </c>
       <c r="G207" t="n">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="H207" t="n">
         <v>34675</v>
       </c>
       <c r="I207" t="n">
-        <v>167082</v>
+        <v>167099</v>
       </c>
       <c r="J207" t="n">
-        <v>403720</v>
+        <v>404686</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26896</v>
+        <v>26911</v>
       </c>
       <c r="M207" t="n">
-        <v>8163</v>
+        <v>8175</v>
       </c>
       <c r="N207" t="n">
-        <v>74459</v>
+        <v>75035</v>
       </c>
       <c r="O207" t="n">
-        <v>38525</v>
+        <v>39027</v>
       </c>
       <c r="P207" t="n">
-        <v>25781</v>
+        <v>25778</v>
       </c>
       <c r="Q207" t="n">
-        <v>5171.9</v>
+        <v>5173.7</v>
       </c>
       <c r="R207" t="n">
-        <v>2859</v>
+        <v>2913</v>
       </c>
       <c r="S207" t="n">
-        <v>6254.6</v>
+        <v>6327.4</v>
       </c>
       <c r="T207" t="n">
         <v>61</v>
@@ -15614,61 +15614,61 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4696</v>
+        <v>4814</v>
       </c>
       <c r="G208" t="n">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="H208" t="n">
-        <v>34746</v>
+        <v>34747</v>
       </c>
       <c r="I208" t="n">
-        <v>174869</v>
+        <v>174886</v>
       </c>
       <c r="J208" t="n">
-        <v>409614</v>
+        <v>410686</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>27935</v>
+        <v>27949</v>
       </c>
       <c r="M208" t="n">
-        <v>13500</v>
+        <v>13512</v>
       </c>
       <c r="N208" t="n">
-        <v>74670</v>
+        <v>75339</v>
       </c>
       <c r="O208" t="n">
-        <v>37020</v>
+        <v>37601</v>
       </c>
       <c r="P208" t="n">
         <v>7787</v>
       </c>
       <c r="Q208" t="n">
-        <v>2278.6</v>
+        <v>2280.3</v>
       </c>
       <c r="R208" t="n">
-        <v>5894</v>
+        <v>6000</v>
       </c>
       <c r="S208" t="n">
-        <v>6345.6</v>
+        <v>6432.4</v>
       </c>
       <c r="T208" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U208" t="n">
         <v>0.2</v>
       </c>
       <c r="V208" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="W208" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="X208" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209">
@@ -15679,70 +15679,70 @@
         <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>4901</v>
+        <v>4954</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
       </c>
       <c r="E209" t="n">
-        <v>5565</v>
+        <v>16386</v>
       </c>
       <c r="F209" t="n">
-        <v>4859</v>
+        <v>4993</v>
       </c>
       <c r="G209" t="n">
-        <v>481</v>
+        <v>630</v>
       </c>
       <c r="H209" t="n">
-        <v>34775</v>
+        <v>34786</v>
       </c>
       <c r="I209" t="n">
-        <v>153174</v>
+        <v>178315</v>
       </c>
       <c r="J209" t="n">
-        <v>418435</v>
+        <v>419964</v>
       </c>
       <c r="K209" t="n">
-        <v>69365</v>
+        <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>4030</v>
+        <v>29168</v>
       </c>
       <c r="M209" t="n">
-        <v>-10868</v>
+        <v>14264</v>
       </c>
       <c r="N209" t="n">
-        <v>77961</v>
+        <v>79075</v>
       </c>
       <c r="O209" t="n">
-        <v>38442</v>
+        <v>39402</v>
       </c>
       <c r="P209" t="n">
-        <v>-21695</v>
+        <v>3429</v>
       </c>
       <c r="Q209" t="n">
-        <v>-1170.7</v>
+        <v>2420.1</v>
       </c>
       <c r="R209" t="n">
-        <v>8821</v>
+        <v>9278</v>
       </c>
       <c r="S209" t="n">
-        <v>6548.7</v>
+        <v>6697</v>
       </c>
       <c r="T209" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="U209" t="n">
         <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>53.7</v>
+        <v>57.3</v>
       </c>
       <c r="W209" t="n">
-        <v>37.9</v>
+        <v>39.4</v>
       </c>
       <c r="X209" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210">
@@ -15753,70 +15753,70 @@
         <v>1332</v>
       </c>
       <c r="C210" t="n">
-        <v>3726</v>
+        <v>4610</v>
       </c>
       <c r="D210" t="n">
         <v>64782</v>
       </c>
       <c r="E210" t="n">
-        <v>5968</v>
+        <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>4920</v>
+        <v>5080</v>
       </c>
       <c r="G210" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="H210" t="n">
-        <v>34056</v>
+        <v>34288</v>
       </c>
       <c r="I210" t="n">
-        <v>150505</v>
+        <v>181332</v>
       </c>
       <c r="J210" t="n">
-        <v>416277</v>
+        <v>423441</v>
       </c>
       <c r="K210" t="n">
-        <v>61777</v>
+        <v>78882</v>
       </c>
       <c r="L210" t="n">
-        <v>-1010</v>
+        <v>29813</v>
       </c>
       <c r="M210" t="n">
-        <v>7537</v>
+        <v>38349</v>
       </c>
       <c r="N210" t="n">
-        <v>69621</v>
+        <v>76358</v>
       </c>
       <c r="O210" t="n">
-        <v>28828</v>
+        <v>35323</v>
       </c>
       <c r="P210" t="n">
-        <v>-2669</v>
+        <v>3017</v>
       </c>
       <c r="Q210" t="n">
-        <v>-1933.9</v>
+        <v>2468.7</v>
       </c>
       <c r="R210" t="n">
-        <v>-2158</v>
+        <v>3477</v>
       </c>
       <c r="S210" t="n">
-        <v>5183.4</v>
+        <v>6125.6</v>
       </c>
       <c r="T210" t="n">
-        <v>-719</v>
+        <v>-498</v>
       </c>
       <c r="U210" t="n">
-        <v>-2.1</v>
+        <v>-1.4</v>
       </c>
       <c r="V210" t="n">
-        <v>-206.3</v>
+        <v>-129</v>
       </c>
       <c r="W210" t="n">
-        <v>-70.6</v>
+        <v>-37.4</v>
       </c>
       <c r="X210" t="n">
-        <v>-494</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="211">
@@ -15824,73 +15824,73 @@
         <v>44070</v>
       </c>
       <c r="B211" t="n">
-        <v>1362</v>
+        <v>1654</v>
       </c>
       <c r="C211" t="n">
-        <v>2566</v>
+        <v>3658</v>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>64882</v>
       </c>
       <c r="E211" t="n">
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>4311</v>
+        <v>5206</v>
       </c>
       <c r="G211" t="n">
-        <v>415</v>
+        <v>541</v>
       </c>
       <c r="H211" t="n">
-        <v>32223</v>
+        <v>34313</v>
       </c>
       <c r="I211" t="n">
-        <v>144264</v>
+        <v>158065</v>
       </c>
       <c r="J211" t="n">
-        <v>380034</v>
+        <v>429856</v>
       </c>
       <c r="K211" t="n">
-        <v>62676</v>
+        <v>66247</v>
       </c>
       <c r="L211" t="n">
-        <v>11055</v>
+        <v>24852</v>
       </c>
       <c r="M211" t="n">
-        <v>-1109</v>
+        <v>12676</v>
       </c>
       <c r="N211" t="n">
-        <v>26324</v>
+        <v>75706</v>
       </c>
       <c r="O211" t="n">
-        <v>-15930</v>
+        <v>33041</v>
       </c>
       <c r="P211" t="n">
-        <v>-6241</v>
+        <v>-23267</v>
       </c>
       <c r="Q211" t="n">
-        <v>185.1</v>
+        <v>2154.6</v>
       </c>
       <c r="R211" t="n">
-        <v>-36243</v>
+        <v>6415</v>
       </c>
       <c r="S211" t="n">
-        <v>-1059.3</v>
+        <v>5962.6</v>
       </c>
       <c r="T211" t="n">
-        <v>-1833</v>
+        <v>25</v>
       </c>
       <c r="U211" t="n">
-        <v>-5.4</v>
+        <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>-841</v>
+        <v>-144.7</v>
       </c>
       <c r="W211" t="n">
-        <v>-335.6</v>
+        <v>-37</v>
       </c>
       <c r="X211" t="n">
-        <v>-2349</v>
+        <v>-259</v>
       </c>
     </row>
     <row r="212">
@@ -15898,73 +15898,147 @@
         <v>44071</v>
       </c>
       <c r="B212" t="n">
-        <v>454</v>
+        <v>927</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>724</v>
+        <v>4332</v>
       </c>
       <c r="G212" t="n">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="H212" t="n">
-        <v>4231</v>
+        <v>29152</v>
       </c>
       <c r="I212" t="n">
-        <v>16066</v>
+        <v>146514</v>
       </c>
       <c r="J212" t="n">
-        <v>62027</v>
+        <v>363334</v>
       </c>
       <c r="K212" t="n">
-        <v>28830</v>
+        <v>63571</v>
       </c>
       <c r="L212" t="n">
-        <v>-114011</v>
+        <v>16433</v>
       </c>
       <c r="M212" t="n">
-        <v>-125235</v>
+        <v>5193</v>
       </c>
       <c r="N212" t="n">
-        <v>-295628</v>
+        <v>5224</v>
       </c>
       <c r="O212" t="n">
-        <v>-338834</v>
+        <v>-38439</v>
       </c>
       <c r="P212" t="n">
-        <v>-128198</v>
+        <v>-11551</v>
       </c>
       <c r="Q212" t="n">
-        <v>-18472.4</v>
+        <v>160.7</v>
       </c>
       <c r="R212" t="n">
-        <v>-318007</v>
+        <v>-66522</v>
       </c>
       <c r="S212" t="n">
-        <v>-47705.3</v>
+        <v>-4783</v>
       </c>
       <c r="T212" t="n">
-        <v>-27992</v>
+        <v>-5161</v>
       </c>
       <c r="U212" t="n">
-        <v>-86.9</v>
+        <v>-15</v>
       </c>
       <c r="V212" t="n">
-        <v>-10181.3</v>
+        <v>-1878</v>
       </c>
       <c r="W212" t="n">
-        <v>-4338.4</v>
+        <v>-778.3</v>
       </c>
       <c r="X212" t="n">
-        <v>-30369</v>
+        <v>-5448</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>44072</v>
+      </c>
+      <c r="B213" t="n">
+        <v>513</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>371</v>
+      </c>
+      <c r="G213" t="n">
+        <v>42</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2748</v>
+      </c>
+      <c r="I213" t="n">
+        <v>16370</v>
+      </c>
+      <c r="J213" t="n">
+        <v>34801</v>
+      </c>
+      <c r="K213" t="n">
+        <v>11046</v>
+      </c>
+      <c r="L213" t="n">
+        <v>-114513</v>
+      </c>
+      <c r="M213" t="n">
+        <v>-150729</v>
+      </c>
+      <c r="N213" t="n">
+        <v>-325593</v>
+      </c>
+      <c r="O213" t="n">
+        <v>-369885</v>
+      </c>
+      <c r="P213" t="n">
+        <v>-130144</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>-17850.1</v>
+      </c>
+      <c r="R213" t="n">
+        <v>-328533</v>
+      </c>
+      <c r="S213" t="n">
+        <v>-52424.6</v>
+      </c>
+      <c r="T213" t="n">
+        <v>-26404</v>
+      </c>
+      <c r="U213" t="n">
+        <v>-90.6</v>
+      </c>
+      <c r="V213" t="n">
+        <v>-10513.3</v>
+      </c>
+      <c r="W213" t="n">
+        <v>-4552.3</v>
+      </c>
+      <c r="X213" t="n">
+        <v>-31866</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -14063,7 +14063,7 @@
         <v>2113</v>
       </c>
       <c r="G187" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H187" t="n">
         <v>34095</v>
@@ -15765,7 +15765,7 @@
         <v>5080</v>
       </c>
       <c r="G210" t="n">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="H210" t="n">
         <v>34288</v>
@@ -15910,10 +15910,10 @@
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>4332</v>
+        <v>4353</v>
       </c>
       <c r="G212" t="n">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="H212" t="n">
         <v>29152</v>
@@ -15984,19 +15984,19 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>371</v>
+        <v>787</v>
       </c>
       <c r="G213" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H213" t="n">
-        <v>2748</v>
+        <v>4243</v>
       </c>
       <c r="I213" t="n">
         <v>16370</v>
       </c>
       <c r="J213" t="n">
-        <v>34801</v>
+        <v>62542</v>
       </c>
       <c r="K213" t="n">
         <v>11046</v>
@@ -16008,10 +16008,10 @@
         <v>-150729</v>
       </c>
       <c r="N213" t="n">
-        <v>-325593</v>
+        <v>-297852</v>
       </c>
       <c r="O213" t="n">
-        <v>-369885</v>
+        <v>-342144</v>
       </c>
       <c r="P213" t="n">
         <v>-130144</v>
@@ -16020,25 +16020,25 @@
         <v>-17850.1</v>
       </c>
       <c r="R213" t="n">
-        <v>-328533</v>
+        <v>-300792</v>
       </c>
       <c r="S213" t="n">
-        <v>-52424.6</v>
+        <v>-48461.6</v>
       </c>
       <c r="T213" t="n">
-        <v>-26404</v>
+        <v>-24909</v>
       </c>
       <c r="U213" t="n">
-        <v>-90.6</v>
+        <v>-85.4</v>
       </c>
       <c r="V213" t="n">
-        <v>-10513.3</v>
+        <v>-10015</v>
       </c>
       <c r="W213" t="n">
-        <v>-4552.3</v>
+        <v>-4338.7</v>
       </c>
       <c r="X213" t="n">
-        <v>-31866</v>
+        <v>-30371</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -3765,7 +3765,7 @@
         <v>1224</v>
       </c>
       <c r="C48" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3783,37 +3783,37 @@
         <v>796</v>
       </c>
       <c r="I48" t="n">
-        <v>17583</v>
+        <v>17582</v>
       </c>
       <c r="J48" t="n">
-        <v>14281</v>
+        <v>14280</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
       </c>
       <c r="L48" t="n">
-        <v>17317</v>
+        <v>17316</v>
       </c>
       <c r="M48" t="n">
-        <v>13543</v>
+        <v>13542</v>
       </c>
       <c r="N48" t="n">
-        <v>14036</v>
+        <v>14035</v>
       </c>
       <c r="O48" t="n">
-        <v>10657</v>
+        <v>10656</v>
       </c>
       <c r="P48" t="n">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="Q48" t="n">
-        <v>2085.9</v>
+        <v>2085.7</v>
       </c>
       <c r="R48" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="S48" t="n">
-        <v>1658.1</v>
+        <v>1658</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3857,37 +3857,37 @@
         <v>1019</v>
       </c>
       <c r="I49" t="n">
-        <v>20761</v>
+        <v>20760</v>
       </c>
       <c r="J49" t="n">
-        <v>17364</v>
+        <v>17363</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
       </c>
       <c r="L49" t="n">
-        <v>20324</v>
+        <v>20323</v>
       </c>
       <c r="M49" t="n">
-        <v>15432</v>
+        <v>15431</v>
       </c>
       <c r="N49" t="n">
-        <v>16978</v>
+        <v>16977</v>
       </c>
       <c r="O49" t="n">
-        <v>12579</v>
+        <v>12578</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
       </c>
       <c r="Q49" t="n">
-        <v>2388.7</v>
+        <v>2388.6</v>
       </c>
       <c r="R49" t="n">
         <v>3083</v>
       </c>
       <c r="S49" t="n">
-        <v>1962.9</v>
+        <v>1962.7</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3931,37 +3931,37 @@
         <v>1319</v>
       </c>
       <c r="I50" t="n">
-        <v>26438</v>
+        <v>26437</v>
       </c>
       <c r="J50" t="n">
-        <v>21122</v>
+        <v>21121</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
       </c>
       <c r="L50" t="n">
-        <v>25737</v>
+        <v>25736</v>
       </c>
       <c r="M50" t="n">
-        <v>19039</v>
+        <v>19038</v>
       </c>
       <c r="N50" t="n">
-        <v>20503</v>
+        <v>20502</v>
       </c>
       <c r="O50" t="n">
-        <v>14898</v>
+        <v>14897</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
       </c>
       <c r="Q50" t="n">
-        <v>3015.6</v>
+        <v>3015.4</v>
       </c>
       <c r="R50" t="n">
         <v>3758</v>
       </c>
       <c r="S50" t="n">
-        <v>2333.9</v>
+        <v>2333.7</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4005,37 +4005,37 @@
         <v>1696</v>
       </c>
       <c r="I51" t="n">
-        <v>32044</v>
+        <v>32043</v>
       </c>
       <c r="J51" t="n">
-        <v>25367</v>
+        <v>25366</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
       </c>
       <c r="L51" t="n">
-        <v>31041</v>
+        <v>31040</v>
       </c>
       <c r="M51" t="n">
-        <v>22716</v>
+        <v>22715</v>
       </c>
       <c r="N51" t="n">
-        <v>24482</v>
+        <v>24481</v>
       </c>
       <c r="O51" t="n">
-        <v>17764</v>
+        <v>17763</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
       </c>
       <c r="Q51" t="n">
-        <v>3520.7</v>
+        <v>3520.6</v>
       </c>
       <c r="R51" t="n">
         <v>4245</v>
       </c>
       <c r="S51" t="n">
-        <v>2734.7</v>
+        <v>2734.6</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4079,37 +4079,37 @@
         <v>2127</v>
       </c>
       <c r="I52" t="n">
-        <v>36740</v>
+        <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28744</v>
+        <v>28743</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
       </c>
       <c r="L52" t="n">
-        <v>35366</v>
+        <v>35365</v>
       </c>
       <c r="M52" t="n">
-        <v>25349</v>
+        <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27544</v>
+        <v>27543</v>
       </c>
       <c r="O52" t="n">
-        <v>19679</v>
+        <v>19678</v>
       </c>
       <c r="P52" t="n">
         <v>4696</v>
       </c>
       <c r="Q52" t="n">
-        <v>3916</v>
+        <v>3915.9</v>
       </c>
       <c r="R52" t="n">
         <v>3377</v>
       </c>
       <c r="S52" t="n">
-        <v>3020.1</v>
+        <v>3020</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4153,37 +4153,37 @@
         <v>2636</v>
       </c>
       <c r="I53" t="n">
-        <v>40707</v>
+        <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31702</v>
+        <v>31701</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
       </c>
       <c r="L53" t="n">
-        <v>38675</v>
+        <v>38674</v>
       </c>
       <c r="M53" t="n">
-        <v>26873</v>
+        <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29899</v>
+        <v>29898</v>
       </c>
       <c r="O53" t="n">
-        <v>20471</v>
+        <v>20470</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
       </c>
       <c r="Q53" t="n">
-        <v>4188</v>
+        <v>4187.9</v>
       </c>
       <c r="R53" t="n">
         <v>2958</v>
       </c>
       <c r="S53" t="n">
-        <v>3233.9</v>
+        <v>3233.7</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4227,22 +4227,22 @@
         <v>3228</v>
       </c>
       <c r="I54" t="n">
-        <v>47102</v>
+        <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36503</v>
+        <v>36502</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
       </c>
       <c r="L54" t="n">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="M54" t="n">
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33829</v>
+        <v>33828</v>
       </c>
       <c r="O54" t="n">
         <v>22222</v>
@@ -4251,13 +4251,13 @@
         <v>6395</v>
       </c>
       <c r="Q54" t="n">
-        <v>4752.6</v>
+        <v>4752.4</v>
       </c>
       <c r="R54" t="n">
         <v>4801</v>
       </c>
       <c r="S54" t="n">
-        <v>3610.3</v>
+        <v>3610.1</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4301,22 +4301,22 @@
         <v>4001</v>
       </c>
       <c r="I55" t="n">
-        <v>52409</v>
+        <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42040</v>
+        <v>42039</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
       </c>
       <c r="L55" t="n">
-        <v>48369</v>
+        <v>48368</v>
       </c>
       <c r="M55" t="n">
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38416</v>
+        <v>38415</v>
       </c>
       <c r="O55" t="n">
         <v>24676</v>
@@ -4375,22 +4375,22 @@
         <v>4739</v>
       </c>
       <c r="I56" t="n">
-        <v>63101</v>
+        <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47575</v>
+        <v>47574</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
       </c>
       <c r="L56" t="n">
-        <v>57772</v>
+        <v>57771</v>
       </c>
       <c r="M56" t="n">
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42790</v>
+        <v>42789</v>
       </c>
       <c r="O56" t="n">
         <v>26453</v>
@@ -4449,22 +4449,22 @@
         <v>5602</v>
       </c>
       <c r="I57" t="n">
-        <v>72678</v>
+        <v>72677</v>
       </c>
       <c r="J57" t="n">
-        <v>54374</v>
+        <v>54373</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
       </c>
       <c r="L57" t="n">
-        <v>65279</v>
+        <v>65278</v>
       </c>
       <c r="M57" t="n">
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48150</v>
+        <v>48149</v>
       </c>
       <c r="O57" t="n">
         <v>29007</v>
@@ -4523,22 +4523,22 @@
         <v>6575</v>
       </c>
       <c r="I58" t="n">
-        <v>81190</v>
+        <v>81189</v>
       </c>
       <c r="J58" t="n">
-        <v>59350</v>
+        <v>59349</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
       </c>
       <c r="L58" t="n">
-        <v>71862</v>
+        <v>71861</v>
       </c>
       <c r="M58" t="n">
         <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51747</v>
+        <v>51746</v>
       </c>
       <c r="O58" t="n">
         <v>30606</v>
@@ -4597,22 +4597,22 @@
         <v>7628</v>
       </c>
       <c r="I59" t="n">
-        <v>89782</v>
+        <v>89781</v>
       </c>
       <c r="J59" t="n">
-        <v>62698</v>
+        <v>62697</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
       </c>
       <c r="L59" t="n">
-        <v>78391</v>
+        <v>78390</v>
       </c>
       <c r="M59" t="n">
         <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53633</v>
+        <v>53632</v>
       </c>
       <c r="O59" t="n">
         <v>30996</v>
@@ -4671,22 +4671,22 @@
         <v>8602</v>
       </c>
       <c r="I60" t="n">
-        <v>96086</v>
+        <v>96085</v>
       </c>
       <c r="J60" t="n">
-        <v>65372</v>
+        <v>65371</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
       </c>
       <c r="L60" t="n">
-        <v>82252</v>
+        <v>82251</v>
       </c>
       <c r="M60" t="n">
         <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54141</v>
+        <v>54140</v>
       </c>
       <c r="O60" t="n">
         <v>28869</v>
@@ -4727,7 +4727,7 @@
         <v>3279</v>
       </c>
       <c r="C61" t="n">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -4754,28 +4754,28 @@
         <v>1828</v>
       </c>
       <c r="L61" t="n">
-        <v>85694</v>
+        <v>85695</v>
       </c>
       <c r="M61" t="n">
-        <v>50868</v>
+        <v>50869</v>
       </c>
       <c r="N61" t="n">
-        <v>55951</v>
+        <v>55952</v>
       </c>
       <c r="O61" t="n">
-        <v>28192</v>
+        <v>28193</v>
       </c>
       <c r="P61" t="n">
-        <v>7191</v>
+        <v>7192</v>
       </c>
       <c r="Q61" t="n">
-        <v>8025</v>
+        <v>8025.1</v>
       </c>
       <c r="R61" t="n">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="S61" t="n">
-        <v>4818.4</v>
+        <v>4818.6</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4828,28 +4828,28 @@
         <v>2196</v>
       </c>
       <c r="L62" t="n">
-        <v>88064</v>
+        <v>88065</v>
       </c>
       <c r="M62" t="n">
-        <v>45724</v>
+        <v>45725</v>
       </c>
       <c r="N62" t="n">
-        <v>57138</v>
+        <v>57139</v>
       </c>
       <c r="O62" t="n">
-        <v>26927</v>
+        <v>26928</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
       </c>
       <c r="Q62" t="n">
-        <v>8059.4</v>
+        <v>8059.6</v>
       </c>
       <c r="R62" t="n">
         <v>4270</v>
       </c>
       <c r="S62" t="n">
-        <v>4637.4</v>
+        <v>4637.6</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4902,28 +4902,28 @@
         <v>2687</v>
       </c>
       <c r="L63" t="n">
-        <v>90740</v>
+        <v>90741</v>
       </c>
       <c r="M63" t="n">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="N63" t="n">
-        <v>57208</v>
+        <v>57209</v>
       </c>
       <c r="O63" t="n">
-        <v>23956</v>
+        <v>23957</v>
       </c>
       <c r="P63" t="n">
         <v>8353</v>
       </c>
       <c r="Q63" t="n">
-        <v>7725.3</v>
+        <v>7725.4</v>
       </c>
       <c r="R63" t="n">
         <v>3828</v>
       </c>
       <c r="S63" t="n">
-        <v>4393.6</v>
+        <v>4393.7</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4976,28 +4976,28 @@
         <v>3377</v>
       </c>
       <c r="L64" t="n">
-        <v>91908</v>
+        <v>91909</v>
       </c>
       <c r="M64" t="n">
-        <v>42762</v>
+        <v>42763</v>
       </c>
       <c r="N64" t="n">
-        <v>56783</v>
+        <v>56784</v>
       </c>
       <c r="O64" t="n">
-        <v>22800</v>
+        <v>22801</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
       </c>
       <c r="Q64" t="n">
-        <v>7324.9</v>
+        <v>7325</v>
       </c>
       <c r="R64" t="n">
         <v>3820</v>
       </c>
       <c r="S64" t="n">
-        <v>3968</v>
+        <v>3968.1</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5050,28 +5050,28 @@
         <v>4274</v>
       </c>
       <c r="L65" t="n">
-        <v>93900</v>
+        <v>93901</v>
       </c>
       <c r="M65" t="n">
-        <v>40858</v>
+        <v>40859</v>
       </c>
       <c r="N65" t="n">
-        <v>57283</v>
+        <v>57284</v>
       </c>
       <c r="O65" t="n">
-        <v>23329</v>
+        <v>23330</v>
       </c>
       <c r="P65" t="n">
         <v>6688</v>
       </c>
       <c r="Q65" t="n">
-        <v>7064.3</v>
+        <v>7064.4</v>
       </c>
       <c r="R65" t="n">
         <v>3877</v>
       </c>
       <c r="S65" t="n">
-        <v>3811</v>
+        <v>3811.1</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5124,28 +5124,28 @@
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95244</v>
+        <v>95245</v>
       </c>
       <c r="M66" t="n">
-        <v>39865</v>
+        <v>39866</v>
       </c>
       <c r="N66" t="n">
-        <v>56759</v>
+        <v>56760</v>
       </c>
       <c r="O66" t="n">
-        <v>23089</v>
+        <v>23090</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
       </c>
       <c r="Q66" t="n">
-        <v>6595.6</v>
+        <v>6595.7</v>
       </c>
       <c r="R66" t="n">
         <v>2434</v>
       </c>
       <c r="S66" t="n">
-        <v>3680.4</v>
+        <v>3680.6</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5198,13 +5198,13 @@
         <v>5738</v>
       </c>
       <c r="L67" t="n">
-        <v>92611</v>
+        <v>92612</v>
       </c>
       <c r="M67" t="n">
         <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53615</v>
+        <v>53616</v>
       </c>
       <c r="O67" t="n">
         <v>19886</v>
@@ -5213,13 +5213,13 @@
         <v>3762</v>
       </c>
       <c r="Q67" t="n">
-        <v>6232.4</v>
+        <v>6232.6</v>
       </c>
       <c r="R67" t="n">
         <v>1657</v>
       </c>
       <c r="S67" t="n">
-        <v>3535.1</v>
+        <v>3535.3</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5272,13 +5272,13 @@
         <v>6269</v>
       </c>
       <c r="L68" t="n">
-        <v>92190</v>
+        <v>92191</v>
       </c>
       <c r="M68" t="n">
         <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51297</v>
+        <v>51298</v>
       </c>
       <c r="O68" t="n">
         <v>18835</v>
@@ -5346,13 +5346,13 @@
         <v>6996</v>
       </c>
       <c r="L69" t="n">
-        <v>86418</v>
+        <v>86419</v>
       </c>
       <c r="M69" t="n">
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48830</v>
+        <v>48831</v>
       </c>
       <c r="O69" t="n">
         <v>18075</v>
@@ -5420,13 +5420,13 @@
         <v>7921</v>
       </c>
       <c r="L70" t="n">
-        <v>82239</v>
+        <v>82240</v>
       </c>
       <c r="M70" t="n">
         <v>30965</v>
       </c>
       <c r="N70" t="n">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="O70" t="n">
         <v>17384</v>
@@ -5494,13 +5494,13 @@
         <v>9123</v>
       </c>
       <c r="L71" t="n">
-        <v>78719</v>
+        <v>78720</v>
       </c>
       <c r="M71" t="n">
         <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="O71" t="n">
         <v>16130</v>
@@ -5568,13 +5568,13 @@
         <v>10149</v>
       </c>
       <c r="L72" t="n">
-        <v>75282</v>
+        <v>75283</v>
       </c>
       <c r="M72" t="n">
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41748</v>
+        <v>41749</v>
       </c>
       <c r="O72" t="n">
         <v>15985</v>
@@ -5642,13 +5642,13 @@
         <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>72747</v>
+        <v>72748</v>
       </c>
       <c r="M73" t="n">
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40847</v>
+        <v>40848</v>
       </c>
       <c r="O73" t="n">
         <v>16101</v>
@@ -5763,7 +5763,7 @@
         <v>2114</v>
       </c>
       <c r="C75" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D75" t="n">
         <v>545</v>
@@ -5781,37 +5781,37 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175378</v>
+        <v>175377</v>
       </c>
       <c r="J75" t="n">
-        <v>109404</v>
+        <v>109403</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66553</v>
+        <v>66552</v>
       </c>
       <c r="M75" t="n">
-        <v>25859</v>
+        <v>25858</v>
       </c>
       <c r="N75" t="n">
-        <v>34902</v>
+        <v>34901</v>
       </c>
       <c r="O75" t="n">
-        <v>12999</v>
+        <v>12998</v>
       </c>
       <c r="P75" t="n">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="Q75" t="n">
-        <v>4397</v>
+        <v>4396.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S75" t="n">
-        <v>2295.3</v>
+        <v>2295.1</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5855,37 +5855,37 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179706</v>
+        <v>179705</v>
       </c>
       <c r="J76" t="n">
-        <v>111949</v>
+        <v>111948</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
       </c>
       <c r="L76" t="n">
-        <v>62528</v>
+        <v>62527</v>
       </c>
       <c r="M76" t="n">
-        <v>24789</v>
+        <v>24788</v>
       </c>
       <c r="N76" t="n">
-        <v>33619</v>
+        <v>33618</v>
       </c>
       <c r="O76" t="n">
-        <v>12415</v>
+        <v>12414</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
       </c>
       <c r="Q76" t="n">
-        <v>4312.4</v>
+        <v>4312.3</v>
       </c>
       <c r="R76" t="n">
         <v>2545</v>
       </c>
       <c r="S76" t="n">
-        <v>2220.6</v>
+        <v>2220.4</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5911,7 +5911,7 @@
         <v>2828</v>
       </c>
       <c r="C77" t="n">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D77" t="n">
         <v>780</v>
@@ -5929,37 +5929,37 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184105</v>
+        <v>184103</v>
       </c>
       <c r="J77" t="n">
-        <v>116980</v>
+        <v>116978</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
       </c>
       <c r="L77" t="n">
-        <v>60153</v>
+        <v>60151</v>
       </c>
       <c r="M77" t="n">
-        <v>24196</v>
+        <v>24194</v>
       </c>
       <c r="N77" t="n">
-        <v>34830</v>
+        <v>34828</v>
       </c>
       <c r="O77" t="n">
-        <v>14823</v>
+        <v>14821</v>
       </c>
       <c r="P77" t="n">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="Q77" t="n">
-        <v>4169.7</v>
+        <v>4169.4</v>
       </c>
       <c r="R77" t="n">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="S77" t="n">
-        <v>2492.3</v>
+        <v>2492</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -6003,37 +6003,37 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188814</v>
+        <v>188812</v>
       </c>
       <c r="J78" t="n">
-        <v>119342</v>
+        <v>119340</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58174</v>
+        <v>58172</v>
       </c>
       <c r="M78" t="n">
-        <v>23750</v>
+        <v>23748</v>
       </c>
       <c r="N78" t="n">
-        <v>33315</v>
+        <v>33313</v>
       </c>
       <c r="O78" t="n">
-        <v>14896</v>
+        <v>14894</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
       </c>
       <c r="Q78" t="n">
-        <v>4129.3</v>
+        <v>4129</v>
       </c>
       <c r="R78" t="n">
         <v>2362</v>
       </c>
       <c r="S78" t="n">
-        <v>2455</v>
+        <v>2454.7</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6077,37 +6077,37 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193913</v>
+        <v>193911</v>
       </c>
       <c r="J79" t="n">
-        <v>121640</v>
+        <v>121638</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57962</v>
+        <v>57960</v>
       </c>
       <c r="M79" t="n">
-        <v>25080</v>
+        <v>25078</v>
       </c>
       <c r="N79" t="n">
-        <v>33179</v>
+        <v>33177</v>
       </c>
       <c r="O79" t="n">
-        <v>15421</v>
+        <v>15419</v>
       </c>
       <c r="P79" t="n">
         <v>5099</v>
       </c>
       <c r="Q79" t="n">
-        <v>4121.3</v>
+        <v>4121</v>
       </c>
       <c r="R79" t="n">
         <v>2298</v>
       </c>
       <c r="S79" t="n">
-        <v>2456.3</v>
+        <v>2456</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6151,37 +6151,37 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199795</v>
+        <v>199793</v>
       </c>
       <c r="J80" t="n">
-        <v>123120</v>
+        <v>123118</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60082</v>
+        <v>60080</v>
       </c>
       <c r="M80" t="n">
-        <v>27919</v>
+        <v>27917</v>
       </c>
       <c r="N80" t="n">
-        <v>33002</v>
+        <v>33000</v>
       </c>
       <c r="O80" t="n">
-        <v>15648</v>
+        <v>15646</v>
       </c>
       <c r="P80" t="n">
         <v>5882</v>
       </c>
       <c r="Q80" t="n">
-        <v>4423.1</v>
+        <v>4422.9</v>
       </c>
       <c r="R80" t="n">
         <v>1480</v>
       </c>
       <c r="S80" t="n">
-        <v>2414.4</v>
+        <v>2414.1</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6225,37 +6225,37 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202022</v>
+        <v>202020</v>
       </c>
       <c r="J81" t="n">
-        <v>123991</v>
+        <v>123989</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57423</v>
+        <v>57421</v>
       </c>
       <c r="M81" t="n">
-        <v>26644</v>
+        <v>26643</v>
       </c>
       <c r="N81" t="n">
-        <v>30654</v>
+        <v>30652</v>
       </c>
       <c r="O81" t="n">
-        <v>14587</v>
+        <v>14586</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306.6</v>
+        <v>4306.3</v>
       </c>
       <c r="R81" t="n">
         <v>871</v>
       </c>
       <c r="S81" t="n">
-        <v>2359.9</v>
+        <v>2359.6</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6299,37 +6299,37 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204945</v>
+        <v>204943</v>
       </c>
       <c r="J82" t="n">
-        <v>125717</v>
+        <v>125715</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55426</v>
+        <v>55424</v>
       </c>
       <c r="M82" t="n">
-        <v>25239</v>
+        <v>25238</v>
       </c>
       <c r="N82" t="n">
-        <v>29312</v>
+        <v>29310</v>
       </c>
       <c r="O82" t="n">
-        <v>13768</v>
+        <v>13767</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4223.9</v>
+        <v>4223.7</v>
       </c>
       <c r="R82" t="n">
         <v>1726</v>
       </c>
       <c r="S82" t="n">
-        <v>2330.4</v>
+        <v>2330.3</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6355,7 +6355,7 @@
         <v>2233</v>
       </c>
       <c r="C83" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D83" t="n">
         <v>5138</v>
@@ -6373,37 +6373,37 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208720</v>
+        <v>208717</v>
       </c>
       <c r="J83" t="n">
-        <v>127544</v>
+        <v>127541</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53803</v>
+        <v>53800</v>
       </c>
       <c r="M83" t="n">
-        <v>24615</v>
+        <v>24614</v>
       </c>
       <c r="N83" t="n">
-        <v>28010</v>
+        <v>28007</v>
       </c>
       <c r="O83" t="n">
-        <v>10564</v>
+        <v>10563</v>
       </c>
       <c r="P83" t="n">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="Q83" t="n">
-        <v>4144.9</v>
+        <v>4144.6</v>
       </c>
       <c r="R83" t="n">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="S83" t="n">
-        <v>2227.9</v>
+        <v>2227.6</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6447,37 +6447,37 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213329</v>
+        <v>213326</v>
       </c>
       <c r="J84" t="n">
-        <v>129488</v>
+        <v>129485</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53420</v>
+        <v>53417</v>
       </c>
       <c r="M84" t="n">
-        <v>24515</v>
+        <v>24514</v>
       </c>
       <c r="N84" t="n">
-        <v>27331</v>
+        <v>27328</v>
       </c>
       <c r="O84" t="n">
-        <v>10146</v>
+        <v>10145</v>
       </c>
       <c r="P84" t="n">
         <v>4609</v>
       </c>
       <c r="Q84" t="n">
-        <v>4174.9</v>
+        <v>4174.7</v>
       </c>
       <c r="R84" t="n">
         <v>1944</v>
       </c>
       <c r="S84" t="n">
-        <v>1786.9</v>
+        <v>1786.7</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6521,37 +6521,37 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217050</v>
+        <v>217047</v>
       </c>
       <c r="J85" t="n">
-        <v>130847</v>
+        <v>130844</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51986</v>
+        <v>51983</v>
       </c>
       <c r="M85" t="n">
-        <v>23137</v>
+        <v>23136</v>
       </c>
       <c r="N85" t="n">
-        <v>26401</v>
+        <v>26398</v>
       </c>
       <c r="O85" t="n">
-        <v>9207</v>
+        <v>9206</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
       </c>
       <c r="Q85" t="n">
-        <v>4033.7</v>
+        <v>4033.6</v>
       </c>
       <c r="R85" t="n">
         <v>1359</v>
       </c>
       <c r="S85" t="n">
-        <v>1643.6</v>
+        <v>1643.4</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6595,37 +6595,37 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220714</v>
+        <v>220711</v>
       </c>
       <c r="J86" t="n">
-        <v>132332</v>
+        <v>132329</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51881</v>
+        <v>51878</v>
       </c>
       <c r="M86" t="n">
-        <v>20919</v>
+        <v>20918</v>
       </c>
       <c r="N86" t="n">
-        <v>26113</v>
+        <v>26110</v>
       </c>
       <c r="O86" t="n">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="P86" t="n">
         <v>3664</v>
       </c>
       <c r="Q86" t="n">
-        <v>3828.7</v>
+        <v>3828.6</v>
       </c>
       <c r="R86" t="n">
         <v>1485</v>
       </c>
       <c r="S86" t="n">
-        <v>1527.4</v>
+        <v>1527.3</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6669,37 +6669,37 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223334</v>
+        <v>223331</v>
       </c>
       <c r="J87" t="n">
-        <v>133121</v>
+        <v>133118</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51458</v>
+        <v>51455</v>
       </c>
       <c r="M87" t="n">
-        <v>21312</v>
+        <v>21311</v>
       </c>
       <c r="N87" t="n">
-        <v>25649</v>
+        <v>25646</v>
       </c>
       <c r="O87" t="n">
-        <v>9130</v>
+        <v>9129</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
       </c>
       <c r="Q87" t="n">
-        <v>3362.7</v>
+        <v>3362.6</v>
       </c>
       <c r="R87" t="n">
         <v>789</v>
       </c>
       <c r="S87" t="n">
-        <v>1428.7</v>
+        <v>1428.6</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6743,37 +6743,37 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225708</v>
+        <v>225705</v>
       </c>
       <c r="J88" t="n">
-        <v>133630</v>
+        <v>133627</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50330</v>
+        <v>50328</v>
       </c>
       <c r="M88" t="n">
-        <v>20763</v>
+        <v>20762</v>
       </c>
       <c r="N88" t="n">
-        <v>24226</v>
+        <v>24224</v>
       </c>
       <c r="O88" t="n">
-        <v>7913</v>
+        <v>7912</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
       </c>
       <c r="Q88" t="n">
-        <v>3383.7</v>
+        <v>3383.6</v>
       </c>
       <c r="R88" t="n">
         <v>509</v>
       </c>
       <c r="S88" t="n">
-        <v>1377</v>
+        <v>1376.9</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6817,22 +6817,22 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228405</v>
+        <v>228402</v>
       </c>
       <c r="J89" t="n">
-        <v>134703</v>
+        <v>134700</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48699</v>
+        <v>48697</v>
       </c>
       <c r="M89" t="n">
         <v>19685</v>
       </c>
       <c r="N89" t="n">
-        <v>22754</v>
+        <v>22752</v>
       </c>
       <c r="O89" t="n">
         <v>7159</v>
@@ -6841,13 +6841,13 @@
         <v>2697</v>
       </c>
       <c r="Q89" t="n">
-        <v>3351.4</v>
+        <v>3351.3</v>
       </c>
       <c r="R89" t="n">
         <v>1073</v>
       </c>
       <c r="S89" t="n">
-        <v>1283.7</v>
+        <v>1283.6</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6891,22 +6891,22 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228220</v>
+        <v>228217</v>
       </c>
       <c r="J90" t="n">
-        <v>135978</v>
+        <v>135975</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="M90" t="n">
         <v>14891</v>
       </c>
       <c r="N90" t="n">
-        <v>18998</v>
+        <v>18997</v>
       </c>
       <c r="O90" t="n">
         <v>6490</v>
@@ -6947,7 +6947,7 @@
         <v>1590</v>
       </c>
       <c r="C91" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D91" t="n">
         <v>8627</v>
@@ -6965,10 +6965,10 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231108</v>
+        <v>231106</v>
       </c>
       <c r="J91" t="n">
-        <v>136937</v>
+        <v>136935</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -6977,25 +6977,25 @@
         <v>42294</v>
       </c>
       <c r="M91" t="n">
-        <v>14058</v>
+        <v>14059</v>
       </c>
       <c r="N91" t="n">
         <v>17595</v>
       </c>
       <c r="O91" t="n">
-        <v>6090</v>
+        <v>6091</v>
       </c>
       <c r="P91" t="n">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="Q91" t="n">
-        <v>2539.9</v>
+        <v>2540</v>
       </c>
       <c r="R91" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="S91" t="n">
-        <v>1064.1</v>
+        <v>1064.3</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7039,10 +7039,10 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234331</v>
+        <v>234329</v>
       </c>
       <c r="J92" t="n">
-        <v>137806</v>
+        <v>137804</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -7051,25 +7051,25 @@
         <v>40418</v>
       </c>
       <c r="M92" t="n">
-        <v>13617</v>
+        <v>13618</v>
       </c>
       <c r="N92" t="n">
         <v>16166</v>
       </c>
       <c r="O92" t="n">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="P92" t="n">
         <v>3223</v>
       </c>
       <c r="Q92" t="n">
-        <v>2468.7</v>
+        <v>2468.9</v>
       </c>
       <c r="R92" t="n">
         <v>869</v>
       </c>
       <c r="S92" t="n">
-        <v>994.1</v>
+        <v>994.3</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7095,7 +7095,7 @@
         <v>1544</v>
       </c>
       <c r="C93" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D93" t="n">
         <v>9047</v>
@@ -7122,28 +7122,28 @@
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36692</v>
+        <v>36694</v>
       </c>
       <c r="M93" t="n">
-        <v>13153</v>
+        <v>13156</v>
       </c>
       <c r="N93" t="n">
-        <v>15204</v>
+        <v>15206</v>
       </c>
       <c r="O93" t="n">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="P93" t="n">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.3</v>
+        <v>2253.7</v>
       </c>
       <c r="R93" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="S93" t="n">
-        <v>856</v>
+        <v>856.4</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7196,28 +7196,28 @@
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36123</v>
+        <v>36125</v>
       </c>
       <c r="M94" t="n">
-        <v>12437</v>
+        <v>12440</v>
       </c>
       <c r="N94" t="n">
-        <v>14671</v>
+        <v>14673</v>
       </c>
       <c r="O94" t="n">
-        <v>5032</v>
+        <v>5035</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2115.9</v>
+        <v>2116.3</v>
       </c>
       <c r="R94" t="n">
         <v>338</v>
       </c>
       <c r="S94" t="n">
-        <v>791.6</v>
+        <v>792</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7270,28 +7270,28 @@
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34295</v>
+        <v>34297</v>
       </c>
       <c r="M95" t="n">
-        <v>10835</v>
+        <v>10838</v>
       </c>
       <c r="N95" t="n">
-        <v>13202</v>
+        <v>13204</v>
       </c>
       <c r="O95" t="n">
-        <v>4216</v>
+        <v>4219</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.1</v>
+        <v>1933.6</v>
       </c>
       <c r="R95" t="n">
         <v>257</v>
       </c>
       <c r="S95" t="n">
-        <v>755.6</v>
+        <v>756</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7344,28 +7344,28 @@
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32293</v>
+        <v>32296</v>
       </c>
       <c r="M96" t="n">
-        <v>12793</v>
+        <v>12796</v>
       </c>
       <c r="N96" t="n">
-        <v>12177</v>
+        <v>12180</v>
       </c>
       <c r="O96" t="n">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.1</v>
+        <v>1801.6</v>
       </c>
       <c r="R96" t="n">
         <v>802</v>
       </c>
       <c r="S96" t="n">
-        <v>716.9</v>
+        <v>717.3</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7418,28 +7418,28 @@
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29739</v>
+        <v>29742</v>
       </c>
       <c r="M97" t="n">
-        <v>11960</v>
+        <v>11962</v>
       </c>
       <c r="N97" t="n">
-        <v>23254</v>
+        <v>23257</v>
       </c>
       <c r="O97" t="n">
-        <v>15805</v>
+        <v>15807</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.1</v>
+        <v>2121.6</v>
       </c>
       <c r="R97" t="n">
         <v>13021</v>
       </c>
       <c r="S97" t="n">
-        <v>2394.9</v>
+        <v>2395.3</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7492,28 +7492,28 @@
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28965</v>
+        <v>28968</v>
       </c>
       <c r="M98" t="n">
-        <v>11684</v>
+        <v>11686</v>
       </c>
       <c r="N98" t="n">
-        <v>22716</v>
+        <v>22719</v>
       </c>
       <c r="O98" t="n">
-        <v>15757</v>
+        <v>15759</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2129.6</v>
+        <v>2129.9</v>
       </c>
       <c r="R98" t="n">
         <v>821</v>
       </c>
       <c r="S98" t="n">
-        <v>2375.1</v>
+        <v>2375.4</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7566,13 +7566,13 @@
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25676</v>
+        <v>25679</v>
       </c>
       <c r="M99" t="n">
         <v>9903</v>
       </c>
       <c r="N99" t="n">
-        <v>21925</v>
+        <v>21928</v>
       </c>
       <c r="O99" t="n">
         <v>15933</v>
@@ -7581,13 +7581,13 @@
         <v>375</v>
       </c>
       <c r="Q99" t="n">
-        <v>1722.7</v>
+        <v>1723</v>
       </c>
       <c r="R99" t="n">
         <v>694</v>
       </c>
       <c r="S99" t="n">
-        <v>2350.1</v>
+        <v>2350.4</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7613,7 +7613,7 @@
         <v>933</v>
       </c>
       <c r="C100" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D100" t="n">
         <v>10814</v>
@@ -7631,37 +7631,37 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250924</v>
+        <v>250926</v>
       </c>
       <c r="J100" t="n">
-        <v>154919</v>
+        <v>154921</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27590</v>
+        <v>27595</v>
       </c>
       <c r="M100" t="n">
-        <v>12779</v>
+        <v>12781</v>
       </c>
       <c r="N100" t="n">
-        <v>21798</v>
+        <v>21803</v>
       </c>
       <c r="O100" t="n">
-        <v>16257</v>
+        <v>16259</v>
       </c>
       <c r="P100" t="n">
-        <v>4534</v>
+        <v>4536</v>
       </c>
       <c r="Q100" t="n">
-        <v>2062.4</v>
+        <v>2062.7</v>
       </c>
       <c r="R100" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="S100" t="n">
-        <v>2370.7</v>
+        <v>2371</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7705,37 +7705,37 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252742</v>
+        <v>252744</v>
       </c>
       <c r="J101" t="n">
-        <v>155214</v>
+        <v>155216</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27034</v>
+        <v>27039</v>
       </c>
       <c r="M101" t="n">
-        <v>13502</v>
+        <v>13504</v>
       </c>
       <c r="N101" t="n">
-        <v>21584</v>
+        <v>21589</v>
       </c>
       <c r="O101" t="n">
-        <v>16295</v>
+        <v>16297</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2085.3</v>
+        <v>2085.6</v>
       </c>
       <c r="R101" t="n">
         <v>295</v>
       </c>
       <c r="S101" t="n">
-        <v>2364.6</v>
+        <v>2364.9</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7779,37 +7779,37 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251699</v>
+        <v>251701</v>
       </c>
       <c r="J102" t="n">
-        <v>155443</v>
+        <v>155445</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23294</v>
+        <v>23299</v>
       </c>
       <c r="M102" t="n">
-        <v>10686</v>
+        <v>10688</v>
       </c>
       <c r="N102" t="n">
-        <v>20740</v>
+        <v>20745</v>
       </c>
       <c r="O102" t="n">
-        <v>15722</v>
+        <v>15724</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
       </c>
       <c r="Q102" t="n">
-        <v>1779.9</v>
+        <v>1780.1</v>
       </c>
       <c r="R102" t="n">
         <v>229</v>
       </c>
       <c r="S102" t="n">
-        <v>2360.6</v>
+        <v>2360.9</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7835,7 +7835,7 @@
         <v>463</v>
       </c>
       <c r="C103" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" t="n">
         <v>11084</v>
@@ -7853,37 +7853,37 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255325</v>
+        <v>255326</v>
       </c>
       <c r="J103" t="n">
-        <v>156009</v>
+        <v>156010</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27105</v>
+        <v>27109</v>
       </c>
       <c r="M103" t="n">
-        <v>12257</v>
+        <v>12258</v>
       </c>
       <c r="N103" t="n">
-        <v>20031</v>
+        <v>20035</v>
       </c>
       <c r="O103" t="n">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="P103" t="n">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="Q103" t="n">
-        <v>2044.6</v>
+        <v>2044.7</v>
       </c>
       <c r="R103" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S103" t="n">
-        <v>2326.9</v>
+        <v>2327</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7927,37 +7927,37 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257005</v>
+        <v>257006</v>
       </c>
       <c r="J104" t="n">
-        <v>156677</v>
+        <v>156678</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25897</v>
+        <v>25900</v>
       </c>
       <c r="M104" t="n">
-        <v>10990</v>
+        <v>10991</v>
       </c>
       <c r="N104" t="n">
-        <v>19740</v>
+        <v>19743</v>
       </c>
       <c r="O104" t="n">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
       </c>
       <c r="Q104" t="n">
-        <v>1991</v>
+        <v>1991.1</v>
       </c>
       <c r="R104" t="n">
         <v>668</v>
       </c>
       <c r="S104" t="n">
-        <v>562.1</v>
+        <v>562.3</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -8001,37 +8001,37 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258604</v>
+        <v>258605</v>
       </c>
       <c r="J105" t="n">
-        <v>157373</v>
+        <v>157374</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24273</v>
+        <v>24276</v>
       </c>
       <c r="M105" t="n">
-        <v>12214</v>
+        <v>12215</v>
       </c>
       <c r="N105" t="n">
-        <v>19567</v>
+        <v>19570</v>
       </c>
       <c r="O105" t="n">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
       </c>
       <c r="Q105" t="n">
-        <v>1798.4</v>
+        <v>1798.6</v>
       </c>
       <c r="R105" t="n">
         <v>696</v>
       </c>
       <c r="S105" t="n">
-        <v>544.3</v>
+        <v>544.4</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8075,37 +8075,37 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203388</v>
+        <v>203389</v>
       </c>
       <c r="J106" t="n">
-        <v>185303</v>
+        <v>185304</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33099</v>
+        <v>-33098</v>
       </c>
       <c r="M106" t="n">
-        <v>-47536</v>
+        <v>-47537</v>
       </c>
       <c r="N106" t="n">
-        <v>46979</v>
+        <v>46980</v>
       </c>
       <c r="O106" t="n">
-        <v>30384</v>
+        <v>30383</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
       </c>
       <c r="Q106" t="n">
-        <v>-6143.1</v>
+        <v>-6143</v>
       </c>
       <c r="R106" t="n">
         <v>27930</v>
       </c>
       <c r="S106" t="n">
-        <v>4435.1</v>
+        <v>4435.3</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8149,37 +8149,37 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204684</v>
+        <v>204685</v>
       </c>
       <c r="J107" t="n">
-        <v>198724</v>
+        <v>198725</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33461</v>
+        <v>-33460</v>
       </c>
       <c r="M107" t="n">
-        <v>-48058</v>
+        <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60062</v>
+        <v>60063</v>
       </c>
       <c r="O107" t="n">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="P107" t="n">
         <v>1296</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6605.7</v>
+        <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
         <v>13421</v>
       </c>
       <c r="S107" t="n">
-        <v>6257.9</v>
+        <v>6257.7</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8223,37 +8223,37 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205297</v>
+        <v>205298</v>
       </c>
       <c r="J108" t="n">
-        <v>199044</v>
+        <v>199045</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33943</v>
+        <v>-33942</v>
       </c>
       <c r="M108" t="n">
-        <v>-46402</v>
+        <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60125</v>
+        <v>60126</v>
       </c>
       <c r="O108" t="n">
-        <v>43601</v>
+        <v>43600</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6777.9</v>
+        <v>-6778</v>
       </c>
       <c r="R108" t="n">
         <v>320</v>
       </c>
       <c r="S108" t="n">
-        <v>6261.4</v>
+        <v>6261.3</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8297,22 +8297,22 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205645</v>
+        <v>205646</v>
       </c>
       <c r="J109" t="n">
-        <v>199293</v>
+        <v>199294</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35368</v>
+        <v>-35367</v>
       </c>
       <c r="M109" t="n">
         <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59572</v>
+        <v>59573</v>
       </c>
       <c r="O109" t="n">
         <v>43284</v>
@@ -8321,13 +8321,13 @@
         <v>348</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6579.1</v>
+        <v>-6579.3</v>
       </c>
       <c r="R109" t="n">
         <v>249</v>
       </c>
       <c r="S109" t="n">
-        <v>6264.3</v>
+        <v>6264.1</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8371,22 +8371,22 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179128</v>
+        <v>179129</v>
       </c>
       <c r="J110" t="n">
-        <v>224610</v>
+        <v>224611</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63940</v>
+        <v>-63939</v>
       </c>
       <c r="M110" t="n">
         <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71868</v>
+        <v>71869</v>
       </c>
       <c r="O110" t="n">
         <v>67933</v>
@@ -8445,22 +8445,22 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175032</v>
+        <v>175033</v>
       </c>
       <c r="J111" t="n">
-        <v>230867</v>
+        <v>230868</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70983</v>
+        <v>-70982</v>
       </c>
       <c r="M111" t="n">
         <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77304</v>
+        <v>77305</v>
       </c>
       <c r="O111" t="n">
         <v>73494</v>
@@ -8519,22 +8519,22 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175594</v>
+        <v>175595</v>
       </c>
       <c r="J112" t="n">
-        <v>231632</v>
+        <v>231633</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70796</v>
+        <v>-70795</v>
       </c>
       <c r="M112" t="n">
         <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77375</v>
+        <v>77376</v>
       </c>
       <c r="O112" t="n">
         <v>46329</v>
@@ -8578,7 +8578,7 @@
         <v>474</v>
       </c>
       <c r="D113" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E113" t="n">
         <v>1344</v>
@@ -8596,28 +8596,28 @@
         <v>83767</v>
       </c>
       <c r="J113" t="n">
-        <v>232496</v>
+        <v>232497</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167157</v>
+        <v>-167159</v>
       </c>
       <c r="M113" t="n">
-        <v>-120917</v>
+        <v>-120918</v>
       </c>
       <c r="N113" t="n">
-        <v>77577</v>
+        <v>77576</v>
       </c>
       <c r="O113" t="n">
         <v>33772</v>
       </c>
       <c r="P113" t="n">
-        <v>-91827</v>
+        <v>-91828</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.7</v>
+        <v>-17088.9</v>
       </c>
       <c r="R113" t="n">
         <v>864</v>
@@ -8670,19 +8670,19 @@
         <v>84254</v>
       </c>
       <c r="J114" t="n">
-        <v>233356</v>
+        <v>233357</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168488</v>
+        <v>-168490</v>
       </c>
       <c r="M114" t="n">
-        <v>-121043</v>
+        <v>-121044</v>
       </c>
       <c r="N114" t="n">
-        <v>78142</v>
+        <v>78141</v>
       </c>
       <c r="O114" t="n">
         <v>34312</v>
@@ -8691,7 +8691,7 @@
         <v>487</v>
       </c>
       <c r="Q114" t="n">
-        <v>-17204.3</v>
+        <v>-17204.4</v>
       </c>
       <c r="R114" t="n">
         <v>860</v>
@@ -8744,19 +8744,19 @@
         <v>84468</v>
       </c>
       <c r="J115" t="n">
-        <v>233688</v>
+        <v>233689</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167231</v>
+        <v>-167233</v>
       </c>
       <c r="M115" t="n">
-        <v>-121177</v>
+        <v>-121178</v>
       </c>
       <c r="N115" t="n">
-        <v>78245</v>
+        <v>78244</v>
       </c>
       <c r="O115" t="n">
         <v>34395</v>
@@ -8765,7 +8765,7 @@
         <v>214</v>
       </c>
       <c r="Q115" t="n">
-        <v>-17261.3</v>
+        <v>-17261.4</v>
       </c>
       <c r="R115" t="n">
         <v>332</v>
@@ -8818,16 +8818,16 @@
         <v>84628</v>
       </c>
       <c r="J116" t="n">
-        <v>233976</v>
+        <v>233977</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170697</v>
+        <v>-170698</v>
       </c>
       <c r="M116" t="n">
-        <v>-94500</v>
+        <v>-94501</v>
       </c>
       <c r="N116" t="n">
         <v>77967</v>
@@ -8839,7 +8839,7 @@
         <v>160</v>
       </c>
       <c r="Q116" t="n">
-        <v>-17288.1</v>
+        <v>-17288.3</v>
       </c>
       <c r="R116" t="n">
         <v>288</v>
@@ -8892,16 +8892,16 @@
         <v>84974</v>
       </c>
       <c r="J117" t="n">
-        <v>234506</v>
+        <v>234507</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172031</v>
+        <v>-172032</v>
       </c>
       <c r="M117" t="n">
-        <v>-90058</v>
+        <v>-90059</v>
       </c>
       <c r="N117" t="n">
         <v>77829</v>
@@ -8913,7 +8913,7 @@
         <v>346</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13450.6</v>
+        <v>-13450.7</v>
       </c>
       <c r="R117" t="n">
         <v>530</v>
@@ -8966,16 +8966,16 @@
         <v>85353</v>
       </c>
       <c r="J118" t="n">
-        <v>235193</v>
+        <v>235194</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173251</v>
+        <v>-173252</v>
       </c>
       <c r="M118" t="n">
-        <v>-90241</v>
+        <v>-90242</v>
       </c>
       <c r="N118" t="n">
         <v>77820</v>
@@ -8987,7 +8987,7 @@
         <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.3</v>
+        <v>-12811.4</v>
       </c>
       <c r="R118" t="n">
         <v>687</v>
@@ -9040,13 +9040,13 @@
         <v>85744</v>
       </c>
       <c r="J119" t="n">
-        <v>235947</v>
+        <v>235948</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117644</v>
+        <v>-117645</v>
       </c>
       <c r="M119" t="n">
         <v>1977</v>
@@ -9061,7 +9061,7 @@
         <v>391</v>
       </c>
       <c r="Q119" t="n">
-        <v>-12835.7</v>
+        <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
         <v>754</v>
@@ -9114,13 +9114,13 @@
         <v>83960</v>
       </c>
       <c r="J120" t="n">
-        <v>236629</v>
+        <v>236630</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
       </c>
       <c r="L120" t="n">
-        <v>-120724</v>
+        <v>-120725</v>
       </c>
       <c r="M120" t="n">
         <v>-294</v>
@@ -9188,13 +9188,13 @@
         <v>86343</v>
       </c>
       <c r="J121" t="n">
-        <v>237339</v>
+        <v>237340</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
       </c>
       <c r="L121" t="n">
-        <v>-118954</v>
+        <v>-118955</v>
       </c>
       <c r="M121" t="n">
         <v>1875</v>
@@ -9262,13 +9262,13 @@
         <v>86485</v>
       </c>
       <c r="J122" t="n">
-        <v>237696</v>
+        <v>237697</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119160</v>
+        <v>-119161</v>
       </c>
       <c r="M122" t="n">
         <v>1857</v>
@@ -9336,13 +9336,13 @@
         <v>86532</v>
       </c>
       <c r="J123" t="n">
-        <v>237966</v>
+        <v>237967</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92596</v>
+        <v>-92597</v>
       </c>
       <c r="M123" t="n">
         <v>1558</v>
@@ -9410,13 +9410,13 @@
         <v>86609</v>
       </c>
       <c r="J124" t="n">
-        <v>238325</v>
+        <v>238326</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88423</v>
+        <v>-88424</v>
       </c>
       <c r="M124" t="n">
         <v>1256</v>
@@ -9484,13 +9484,13 @@
         <v>84785</v>
       </c>
       <c r="J125" t="n">
-        <v>238919</v>
+        <v>238920</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90809</v>
+        <v>-90810</v>
       </c>
       <c r="M125" t="n">
         <v>-959</v>
@@ -9558,7 +9558,7 @@
         <v>87116</v>
       </c>
       <c r="J126" t="n">
-        <v>239552</v>
+        <v>239553</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -9632,7 +9632,7 @@
         <v>94588</v>
       </c>
       <c r="J127" t="n">
-        <v>240110</v>
+        <v>240111</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -9706,7 +9706,7 @@
         <v>97100</v>
       </c>
       <c r="J128" t="n">
-        <v>242815</v>
+        <v>242816</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -9780,7 +9780,7 @@
         <v>97092</v>
       </c>
       <c r="J129" t="n">
-        <v>243163</v>
+        <v>243164</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -9854,7 +9854,7 @@
         <v>97249</v>
       </c>
       <c r="J130" t="n">
-        <v>243759</v>
+        <v>243760</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -9928,7 +9928,7 @@
         <v>97394</v>
       </c>
       <c r="J131" t="n">
-        <v>244083</v>
+        <v>244084</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
@@ -10002,7 +10002,7 @@
         <v>97567</v>
       </c>
       <c r="J132" t="n">
-        <v>244504</v>
+        <v>244505</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -10076,7 +10076,7 @@
         <v>97775</v>
       </c>
       <c r="J133" t="n">
-        <v>244949</v>
+        <v>244950</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -10150,7 +10150,7 @@
         <v>97928</v>
       </c>
       <c r="J134" t="n">
-        <v>245380</v>
+        <v>245381</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -10224,7 +10224,7 @@
         <v>98136</v>
       </c>
       <c r="J135" t="n">
-        <v>245864</v>
+        <v>245865</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -10298,7 +10298,7 @@
         <v>98193</v>
       </c>
       <c r="J136" t="n">
-        <v>245999</v>
+        <v>246000</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -10372,7 +10372,7 @@
         <v>98229</v>
       </c>
       <c r="J137" t="n">
-        <v>246101</v>
+        <v>246102</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -10446,7 +10446,7 @@
         <v>98341</v>
       </c>
       <c r="J138" t="n">
-        <v>246452</v>
+        <v>246453</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10520,7 +10520,7 @@
         <v>98518</v>
       </c>
       <c r="J139" t="n">
-        <v>244637</v>
+        <v>244638</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10594,7 +10594,7 @@
         <v>98658</v>
       </c>
       <c r="J140" t="n">
-        <v>244991</v>
+        <v>244992</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10668,7 +10668,7 @@
         <v>98871</v>
       </c>
       <c r="J141" t="n">
-        <v>245508</v>
+        <v>245509</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10742,7 +10742,7 @@
         <v>99057</v>
       </c>
       <c r="J142" t="n">
-        <v>245903</v>
+        <v>245904</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10816,7 +10816,7 @@
         <v>99140</v>
       </c>
       <c r="J143" t="n">
-        <v>246134</v>
+        <v>246135</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10890,7 +10890,7 @@
         <v>99196</v>
       </c>
       <c r="J144" t="n">
-        <v>246330</v>
+        <v>246331</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10964,7 +10964,7 @@
         <v>99319</v>
       </c>
       <c r="J145" t="n">
-        <v>246576</v>
+        <v>246577</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -11038,7 +11038,7 @@
         <v>99388</v>
       </c>
       <c r="J146" t="n">
-        <v>246953</v>
+        <v>246954</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11112,7 +11112,7 @@
         <v>97311</v>
       </c>
       <c r="J147" t="n">
-        <v>247295</v>
+        <v>247296</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11186,7 +11186,7 @@
         <v>99764</v>
       </c>
       <c r="J148" t="n">
-        <v>247695</v>
+        <v>247696</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11260,7 +11260,7 @@
         <v>100052</v>
       </c>
       <c r="J149" t="n">
-        <v>248260</v>
+        <v>248261</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11334,7 +11334,7 @@
         <v>97882</v>
       </c>
       <c r="J150" t="n">
-        <v>248521</v>
+        <v>248522</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11408,7 +11408,7 @@
         <v>97977</v>
       </c>
       <c r="J151" t="n">
-        <v>248718</v>
+        <v>248719</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11482,7 +11482,7 @@
         <v>100470</v>
       </c>
       <c r="J152" t="n">
-        <v>248972</v>
+        <v>248973</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11556,7 +11556,7 @@
         <v>100776</v>
       </c>
       <c r="J153" t="n">
-        <v>249414</v>
+        <v>249415</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11630,7 +11630,7 @@
         <v>101174</v>
       </c>
       <c r="J154" t="n">
-        <v>249844</v>
+        <v>249845</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11704,7 +11704,7 @@
         <v>101575</v>
       </c>
       <c r="J155" t="n">
-        <v>250319</v>
+        <v>250320</v>
       </c>
       <c r="K155" t="n">
         <v>65782</v>
@@ -11778,7 +11778,7 @@
         <v>102023</v>
       </c>
       <c r="J156" t="n">
-        <v>250845</v>
+        <v>250846</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11852,7 +11852,7 @@
         <v>99853</v>
       </c>
       <c r="J157" t="n">
-        <v>251058</v>
+        <v>251059</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11926,7 +11926,7 @@
         <v>100034</v>
       </c>
       <c r="J158" t="n">
-        <v>251217</v>
+        <v>251218</v>
       </c>
       <c r="K158" t="n">
         <v>35407</v>
@@ -12000,7 +12000,7 @@
         <v>102673</v>
       </c>
       <c r="J159" t="n">
-        <v>251543</v>
+        <v>251544</v>
       </c>
       <c r="K159" t="n">
         <v>61621</v>
@@ -12074,7 +12074,7 @@
         <v>103233</v>
       </c>
       <c r="J160" t="n">
-        <v>252167</v>
+        <v>252168</v>
       </c>
       <c r="K160" t="n">
         <v>61735</v>
@@ -12148,7 +12148,7 @@
         <v>103912</v>
       </c>
       <c r="J161" t="n">
-        <v>252755</v>
+        <v>252756</v>
       </c>
       <c r="K161" t="n">
         <v>61867</v>
@@ -12222,7 +12222,7 @@
         <v>104684</v>
       </c>
       <c r="J162" t="n">
-        <v>253751</v>
+        <v>253752</v>
       </c>
       <c r="K162" t="n">
         <v>66701</v>
@@ -12296,7 +12296,7 @@
         <v>105688</v>
       </c>
       <c r="J163" t="n">
-        <v>254770</v>
+        <v>254771</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -12352,7 +12352,7 @@
         <v>397</v>
       </c>
       <c r="D164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" t="n">
         <v>73</v>
@@ -12367,19 +12367,19 @@
         <v>33831</v>
       </c>
       <c r="I164" t="n">
-        <v>103668</v>
+        <v>103667</v>
       </c>
       <c r="J164" t="n">
-        <v>255198</v>
+        <v>255199</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="M164" t="n">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="N164" t="n">
         <v>6480</v>
@@ -12388,10 +12388,10 @@
         <v>3981</v>
       </c>
       <c r="P164" t="n">
-        <v>-2020</v>
+        <v>-2021</v>
       </c>
       <c r="Q164" t="n">
-        <v>545</v>
+        <v>544.9</v>
       </c>
       <c r="R164" t="n">
         <v>428</v>
@@ -12441,19 +12441,19 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110676</v>
+        <v>110675</v>
       </c>
       <c r="J165" t="n">
-        <v>255811</v>
+        <v>255812</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10206</v>
+        <v>10205</v>
       </c>
       <c r="M165" t="n">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="N165" t="n">
         <v>6839</v>
@@ -12465,7 +12465,7 @@
         <v>7008</v>
       </c>
       <c r="Q165" t="n">
-        <v>1520.3</v>
+        <v>1520.1</v>
       </c>
       <c r="R165" t="n">
         <v>613</v>
@@ -12515,19 +12515,19 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114079</v>
+        <v>114078</v>
       </c>
       <c r="J166" t="n">
-        <v>256616</v>
+        <v>256617</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="M166" t="n">
-        <v>10846</v>
+        <v>10845</v>
       </c>
       <c r="N166" t="n">
         <v>7202</v>
@@ -12539,7 +12539,7 @@
         <v>3403</v>
       </c>
       <c r="Q166" t="n">
-        <v>1629.4</v>
+        <v>1629.3</v>
       </c>
       <c r="R166" t="n">
         <v>805</v>
@@ -12589,19 +12589,19 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115363</v>
+        <v>115362</v>
       </c>
       <c r="J167" t="n">
-        <v>257777</v>
+        <v>257778</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14189</v>
+        <v>14188</v>
       </c>
       <c r="M167" t="n">
-        <v>11451</v>
+        <v>11450</v>
       </c>
       <c r="N167" t="n">
         <v>7933</v>
@@ -12613,7 +12613,7 @@
         <v>1284</v>
       </c>
       <c r="Q167" t="n">
-        <v>1732.9</v>
+        <v>1732.7</v>
       </c>
       <c r="R167" t="n">
         <v>1161</v>
@@ -12648,7 +12648,7 @@
         <v>1154</v>
       </c>
       <c r="D168" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E168" t="n">
         <v>1591</v>
@@ -12663,19 +12663,19 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109728</v>
+        <v>109726</v>
       </c>
       <c r="J168" t="n">
-        <v>259135</v>
+        <v>259136</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>8153</v>
+        <v>8151</v>
       </c>
       <c r="M168" t="n">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="N168" t="n">
         <v>8816</v>
@@ -12684,10 +12684,10 @@
         <v>5384</v>
       </c>
       <c r="P168" t="n">
-        <v>-5635</v>
+        <v>-5636</v>
       </c>
       <c r="Q168" t="n">
-        <v>830.9</v>
+        <v>830.6</v>
       </c>
       <c r="R168" t="n">
         <v>1358</v>
@@ -12719,7 +12719,7 @@
         <v>61</v>
       </c>
       <c r="C169" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D169" t="n">
         <v>387</v>
@@ -12737,37 +12737,37 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111047</v>
+        <v>111046</v>
       </c>
       <c r="J169" t="n">
-        <v>260691</v>
+        <v>260693</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="M169" t="n">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="N169" t="n">
-        <v>9846</v>
+        <v>9847</v>
       </c>
       <c r="O169" t="n">
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="P169" t="n">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="Q169" t="n">
-        <v>909</v>
+        <v>908.9</v>
       </c>
       <c r="R169" t="n">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="S169" t="n">
-        <v>991.4</v>
+        <v>991.6</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12811,37 +12811,37 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116145</v>
+        <v>116144</v>
       </c>
       <c r="J170" t="n">
-        <v>262616</v>
+        <v>262618</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16292</v>
+        <v>16291</v>
       </c>
       <c r="M170" t="n">
         <v>12477</v>
       </c>
       <c r="N170" t="n">
-        <v>11558</v>
+        <v>11559</v>
       </c>
       <c r="O170" t="n">
-        <v>7418</v>
+        <v>7419</v>
       </c>
       <c r="P170" t="n">
         <v>5098</v>
       </c>
       <c r="Q170" t="n">
-        <v>1493.9</v>
+        <v>1493.7</v>
       </c>
       <c r="R170" t="n">
         <v>1925</v>
       </c>
       <c r="S170" t="n">
-        <v>1120.9</v>
+        <v>1121</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12885,25 +12885,25 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114454</v>
+        <v>114453</v>
       </c>
       <c r="J171" t="n">
-        <v>263908</v>
+        <v>263910</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>14420</v>
+        <v>14419</v>
       </c>
       <c r="M171" t="n">
         <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12691</v>
+        <v>12692</v>
       </c>
       <c r="O171" t="n">
-        <v>8097</v>
+        <v>8098</v>
       </c>
       <c r="P171" t="n">
         <v>-1691</v>
@@ -12915,7 +12915,7 @@
         <v>1292</v>
       </c>
       <c r="S171" t="n">
-        <v>1244.3</v>
+        <v>1244.4</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12959,25 +12959,25 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123356</v>
+        <v>123355</v>
       </c>
       <c r="J172" t="n">
-        <v>264961</v>
+        <v>264963</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>20683</v>
+        <v>20682</v>
       </c>
       <c r="M172" t="n">
         <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13418</v>
+        <v>13419</v>
       </c>
       <c r="O172" t="n">
-        <v>8345</v>
+        <v>8346</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12989,7 +12989,7 @@
         <v>1053</v>
       </c>
       <c r="S172" t="n">
-        <v>1307.1</v>
+        <v>1307.3</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13033,25 +13033,25 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127510</v>
+        <v>127509</v>
       </c>
       <c r="J173" t="n">
-        <v>266689</v>
+        <v>266691</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
       </c>
       <c r="L173" t="n">
-        <v>24277</v>
+        <v>24276</v>
       </c>
       <c r="M173" t="n">
         <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14522</v>
+        <v>14523</v>
       </c>
       <c r="O173" t="n">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13063,7 +13063,7 @@
         <v>1728</v>
       </c>
       <c r="S173" t="n">
-        <v>1439</v>
+        <v>1439.1</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13107,25 +13107,25 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129270</v>
+        <v>129269</v>
       </c>
       <c r="J174" t="n">
-        <v>268967</v>
+        <v>268969</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>25358</v>
+        <v>25357</v>
       </c>
       <c r="M174" t="n">
-        <v>19542</v>
+        <v>19543</v>
       </c>
       <c r="N174" t="n">
-        <v>16212</v>
+        <v>16213</v>
       </c>
       <c r="O174" t="n">
-        <v>9832</v>
+        <v>9833</v>
       </c>
       <c r="P174" t="n">
         <v>1760</v>
@@ -13137,7 +13137,7 @@
         <v>2278</v>
       </c>
       <c r="S174" t="n">
-        <v>1598.6</v>
+        <v>1598.7</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13181,22 +13181,22 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131539</v>
+        <v>131538</v>
       </c>
       <c r="J175" t="n">
-        <v>271229</v>
+        <v>271231</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>26855</v>
+        <v>26854</v>
       </c>
       <c r="M175" t="n">
         <v>20492</v>
       </c>
       <c r="N175" t="n">
-        <v>17478</v>
+        <v>17479</v>
       </c>
       <c r="O175" t="n">
         <v>10538</v>
@@ -13205,13 +13205,13 @@
         <v>2269</v>
       </c>
       <c r="Q175" t="n">
-        <v>3115.9</v>
+        <v>3116</v>
       </c>
       <c r="R175" t="n">
         <v>2262</v>
       </c>
       <c r="S175" t="n">
-        <v>1727.7</v>
+        <v>1727.9</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13240,7 +13240,7 @@
         <v>1773</v>
       </c>
       <c r="D176" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E176" t="n">
         <v>4087</v>
@@ -13255,31 +13255,31 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133451</v>
+        <v>133449</v>
       </c>
       <c r="J176" t="n">
-        <v>273406</v>
+        <v>273408</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>27763</v>
+        <v>27761</v>
       </c>
       <c r="M176" t="n">
-        <v>17306</v>
+        <v>17305</v>
       </c>
       <c r="N176" t="n">
-        <v>18636</v>
+        <v>18637</v>
       </c>
       <c r="O176" t="n">
         <v>10790</v>
       </c>
       <c r="P176" t="n">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="Q176" t="n">
-        <v>3200.6</v>
+        <v>3200.4</v>
       </c>
       <c r="R176" t="n">
         <v>2177</v>
@@ -13329,22 +13329,22 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125450</v>
+        <v>125448</v>
       </c>
       <c r="J177" t="n">
-        <v>276034</v>
+        <v>276036</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>21782</v>
+        <v>21781</v>
       </c>
       <c r="M177" t="n">
-        <v>10996</v>
+        <v>10995</v>
       </c>
       <c r="N177" t="n">
-        <v>20836</v>
+        <v>20837</v>
       </c>
       <c r="O177" t="n">
         <v>12126</v>
@@ -13353,7 +13353,7 @@
         <v>-8001</v>
       </c>
       <c r="Q177" t="n">
-        <v>1329.3</v>
+        <v>1329.1</v>
       </c>
       <c r="R177" t="n">
         <v>2628</v>
@@ -13403,22 +13403,22 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104454</v>
+        <v>104452</v>
       </c>
       <c r="J178" t="n">
-        <v>277520</v>
+        <v>277522</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-6222</v>
+        <v>-6223</v>
       </c>
       <c r="M178" t="n">
-        <v>-18902</v>
+        <v>-18903</v>
       </c>
       <c r="N178" t="n">
-        <v>21709</v>
+        <v>21710</v>
       </c>
       <c r="O178" t="n">
         <v>12559</v>
@@ -13427,7 +13427,7 @@
         <v>-20996</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1428.6</v>
+        <v>-1428.7</v>
       </c>
       <c r="R178" t="n">
         <v>1486</v>
@@ -13477,22 +13477,22 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115787</v>
+        <v>115785</v>
       </c>
       <c r="J179" t="n">
-        <v>278854</v>
+        <v>278856</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
       </c>
       <c r="L179" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="M179" t="n">
-        <v>-11723</v>
+        <v>-11724</v>
       </c>
       <c r="N179" t="n">
-        <v>22238</v>
+        <v>22239</v>
       </c>
       <c r="O179" t="n">
         <v>12165</v>
@@ -13501,7 +13501,7 @@
         <v>11333</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1081.3</v>
+        <v>-1081.4</v>
       </c>
       <c r="R179" t="n">
         <v>1334</v>
@@ -13551,22 +13551,22 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115779</v>
+        <v>115777</v>
       </c>
       <c r="J180" t="n">
-        <v>280945</v>
+        <v>280947</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
       </c>
       <c r="L180" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M180" t="n">
-        <v>-13491</v>
+        <v>-13492</v>
       </c>
       <c r="N180" t="n">
-        <v>23168</v>
+        <v>23169</v>
       </c>
       <c r="O180" t="n">
         <v>11978</v>
@@ -13575,7 +13575,7 @@
         <v>-8</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1675.9</v>
+        <v>-1676</v>
       </c>
       <c r="R180" t="n">
         <v>2091</v>
@@ -13610,7 +13610,7 @@
         <v>2042</v>
       </c>
       <c r="D181" t="n">
-        <v>63728</v>
+        <v>63727</v>
       </c>
       <c r="E181" t="n">
         <v>815</v>
@@ -13625,31 +13625,31 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110096</v>
+        <v>110093</v>
       </c>
       <c r="J181" t="n">
-        <v>283702</v>
+        <v>283704</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M181" t="n">
-        <v>-21443</v>
+        <v>-21445</v>
       </c>
       <c r="N181" t="n">
-        <v>24567</v>
+        <v>24568</v>
       </c>
       <c r="O181" t="n">
         <v>12473</v>
       </c>
       <c r="P181" t="n">
-        <v>-5683</v>
+        <v>-5684</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2739.1</v>
+        <v>-2739.4</v>
       </c>
       <c r="R181" t="n">
         <v>2757</v>
@@ -13699,19 +13699,19 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123654</v>
+        <v>123651</v>
       </c>
       <c r="J182" t="n">
-        <v>286489</v>
+        <v>286491</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12607</v>
+        <v>12605</v>
       </c>
       <c r="M182" t="n">
-        <v>-9797</v>
+        <v>-9798</v>
       </c>
       <c r="N182" t="n">
         <v>25798</v>
@@ -13723,7 +13723,7 @@
         <v>13558</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1126.4</v>
+        <v>-1126.7</v>
       </c>
       <c r="R182" t="n">
         <v>2787</v>
@@ -13758,7 +13758,7 @@
         <v>2298</v>
       </c>
       <c r="D183" t="n">
-        <v>63821</v>
+        <v>63820</v>
       </c>
       <c r="E183" t="n">
         <v>914</v>
@@ -13773,19 +13773,19 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113193</v>
+        <v>113189</v>
       </c>
       <c r="J183" t="n">
-        <v>292224</v>
+        <v>292226</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2952</v>
+        <v>-2955</v>
       </c>
       <c r="M183" t="n">
-        <v>-12257</v>
+        <v>-12259</v>
       </c>
       <c r="N183" t="n">
         <v>29608</v>
@@ -13794,10 +13794,10 @@
         <v>16190</v>
       </c>
       <c r="P183" t="n">
-        <v>-10461</v>
+        <v>-10462</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894</v>
+        <v>-2894.3</v>
       </c>
       <c r="R183" t="n">
         <v>5735</v>
@@ -13847,19 +13847,19 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114840</v>
+        <v>114836</v>
       </c>
       <c r="J184" t="n">
-        <v>295769</v>
+        <v>295771</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M184" t="n">
-        <v>10386</v>
+        <v>10384</v>
       </c>
       <c r="N184" t="n">
         <v>31861</v>
@@ -13871,7 +13871,7 @@
         <v>1647</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1515.7</v>
+        <v>-1516</v>
       </c>
       <c r="R184" t="n">
         <v>3545</v>
@@ -13921,19 +13921,19 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110290</v>
+        <v>110286</v>
       </c>
       <c r="J185" t="n">
-        <v>298554</v>
+        <v>298556</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13066</v>
+        <v>-13069</v>
       </c>
       <c r="M185" t="n">
-        <v>-5497</v>
+        <v>-5499</v>
       </c>
       <c r="N185" t="n">
         <v>33593</v>
@@ -13945,7 +13945,7 @@
         <v>-4550</v>
       </c>
       <c r="Q185" t="n">
-        <v>833.7</v>
+        <v>833.4</v>
       </c>
       <c r="R185" t="n">
         <v>2785</v>
@@ -13995,19 +13995,19 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123817</v>
+        <v>123813</v>
       </c>
       <c r="J186" t="n">
-        <v>300117</v>
+        <v>300119</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3693</v>
+        <v>-3696</v>
       </c>
       <c r="M186" t="n">
-        <v>8038</v>
+        <v>8036</v>
       </c>
       <c r="N186" t="n">
         <v>33428</v>
@@ -14019,7 +14019,7 @@
         <v>13527</v>
       </c>
       <c r="Q186" t="n">
-        <v>1147.1</v>
+        <v>1146.9</v>
       </c>
       <c r="R186" t="n">
         <v>1563</v>
@@ -14069,19 +14069,19 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132260</v>
+        <v>132256</v>
       </c>
       <c r="J187" t="n">
-        <v>303032</v>
+        <v>303034</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="M187" t="n">
-        <v>22164</v>
+        <v>22163</v>
       </c>
       <c r="N187" t="n">
         <v>34065</v>
@@ -14093,7 +14093,7 @@
         <v>8443</v>
       </c>
       <c r="Q187" t="n">
-        <v>2354.4</v>
+        <v>2354.1</v>
       </c>
       <c r="R187" t="n">
         <v>2915</v>
@@ -14143,19 +14143,19 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134181</v>
+        <v>134177</v>
       </c>
       <c r="J188" t="n">
-        <v>307005</v>
+        <v>307007</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="M188" t="n">
-        <v>10527</v>
+        <v>10526</v>
       </c>
       <c r="N188" t="n">
         <v>35776</v>
@@ -14167,7 +14167,7 @@
         <v>1921</v>
       </c>
       <c r="Q188" t="n">
-        <v>3440.7</v>
+        <v>3440.6</v>
       </c>
       <c r="R188" t="n">
         <v>3973</v>
@@ -14217,16 +14217,16 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136184</v>
+        <v>136180</v>
       </c>
       <c r="J189" t="n">
-        <v>310860</v>
+        <v>310862</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="M189" t="n">
         <v>22991</v>
@@ -14241,7 +14241,7 @@
         <v>2003</v>
       </c>
       <c r="Q189" t="n">
-        <v>1790</v>
+        <v>1789.9</v>
       </c>
       <c r="R189" t="n">
         <v>3855</v>
@@ -14291,16 +14291,16 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138301</v>
+        <v>138297</v>
       </c>
       <c r="J190" t="n">
-        <v>315349</v>
+        <v>315351</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12851</v>
+        <v>12849</v>
       </c>
       <c r="M190" t="n">
         <v>23461</v>
@@ -14365,16 +14365,16 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122886</v>
+        <v>122882</v>
       </c>
       <c r="J191" t="n">
-        <v>320600</v>
+        <v>320602</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18432</v>
+        <v>18430</v>
       </c>
       <c r="M191" t="n">
         <v>12596</v>
@@ -14439,16 +14439,16 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120864</v>
+        <v>120860</v>
       </c>
       <c r="J192" t="n">
-        <v>323543</v>
+        <v>323545</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="M192" t="n">
         <v>-2953</v>
@@ -14513,16 +14513,16 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139678</v>
+        <v>139674</v>
       </c>
       <c r="J193" t="n">
-        <v>325597</v>
+        <v>325599</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23899</v>
+        <v>23897</v>
       </c>
       <c r="M193" t="n">
         <v>7418</v>
@@ -14587,16 +14587,16 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140188</v>
+        <v>140184</v>
       </c>
       <c r="J194" t="n">
-        <v>329651</v>
+        <v>329653</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>30092</v>
+        <v>30091</v>
       </c>
       <c r="M194" t="n">
         <v>6007</v>
@@ -14661,16 +14661,16 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146937</v>
+        <v>146933</v>
       </c>
       <c r="J195" t="n">
-        <v>335347</v>
+        <v>335349</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>23283</v>
+        <v>23282</v>
       </c>
       <c r="M195" t="n">
         <v>10753</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149147</v>
+        <v>149144</v>
       </c>
       <c r="J196" t="n">
-        <v>340889</v>
+        <v>340892</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35954</v>
+        <v>35955</v>
       </c>
       <c r="M196" t="n">
-        <v>10846</v>
+        <v>10847</v>
       </c>
       <c r="N196" t="n">
-        <v>48665</v>
+        <v>48666</v>
       </c>
       <c r="O196" t="n">
-        <v>25540</v>
+        <v>25541</v>
       </c>
       <c r="P196" t="n">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="Q196" t="n">
-        <v>1851.9</v>
+        <v>1852</v>
       </c>
       <c r="R196" t="n">
-        <v>5542</v>
+        <v>5543</v>
       </c>
       <c r="S196" t="n">
-        <v>4289.9</v>
+        <v>4290</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151519</v>
+        <v>151516</v>
       </c>
       <c r="J197" t="n">
-        <v>347083</v>
+        <v>347086</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36679</v>
+        <v>36680</v>
       </c>
       <c r="M197" t="n">
-        <v>28633</v>
+        <v>28634</v>
       </c>
       <c r="N197" t="n">
-        <v>51314</v>
+        <v>51315</v>
       </c>
       <c r="O197" t="n">
-        <v>26483</v>
+        <v>26484</v>
       </c>
       <c r="P197" t="n">
         <v>2372</v>
       </c>
       <c r="Q197" t="n">
-        <v>1888.3</v>
+        <v>1888.4</v>
       </c>
       <c r="R197" t="n">
         <v>6194</v>
       </c>
       <c r="S197" t="n">
-        <v>4533.4</v>
+        <v>4533.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133213</v>
+        <v>133211</v>
       </c>
       <c r="J198" t="n">
-        <v>354150</v>
+        <v>354154</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22923</v>
+        <v>22925</v>
       </c>
       <c r="M198" t="n">
-        <v>12349</v>
+        <v>12351</v>
       </c>
       <c r="N198" t="n">
-        <v>55596</v>
+        <v>55598</v>
       </c>
       <c r="O198" t="n">
-        <v>30607</v>
+        <v>30609</v>
       </c>
       <c r="P198" t="n">
-        <v>-18306</v>
+        <v>-18305</v>
       </c>
       <c r="Q198" t="n">
-        <v>1475.3</v>
+        <v>1475.6</v>
       </c>
       <c r="R198" t="n">
-        <v>7067</v>
+        <v>7068</v>
       </c>
       <c r="S198" t="n">
-        <v>4792.9</v>
+        <v>4793.1</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14957,37 +14957,37 @@
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130081</v>
+        <v>130079</v>
       </c>
       <c r="J199" t="n">
-        <v>358110</v>
+        <v>358114</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6264</v>
+        <v>6266</v>
       </c>
       <c r="M199" t="n">
-        <v>-9597</v>
+        <v>-9595</v>
       </c>
       <c r="N199" t="n">
-        <v>57993</v>
+        <v>57995</v>
       </c>
       <c r="O199" t="n">
-        <v>32513</v>
+        <v>32515</v>
       </c>
       <c r="P199" t="n">
         <v>-3132</v>
       </c>
       <c r="Q199" t="n">
-        <v>1316.7</v>
+        <v>1317</v>
       </c>
       <c r="R199" t="n">
         <v>3960</v>
       </c>
       <c r="S199" t="n">
-        <v>4938.1</v>
+        <v>4938.4</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15031,37 +15031,37 @@
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130883</v>
+        <v>130881</v>
       </c>
       <c r="J200" t="n">
-        <v>360394</v>
+        <v>360398</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1377</v>
+        <v>-1375</v>
       </c>
       <c r="M200" t="n">
-        <v>-9305</v>
+        <v>-9303</v>
       </c>
       <c r="N200" t="n">
-        <v>57362</v>
+        <v>57364</v>
       </c>
       <c r="O200" t="n">
-        <v>30743</v>
+        <v>30745</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1256.4</v>
+        <v>-1256.1</v>
       </c>
       <c r="R200" t="n">
         <v>2284</v>
       </c>
       <c r="S200" t="n">
-        <v>4971</v>
+        <v>4971.3</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15105,37 +15105,37 @@
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158924</v>
+        <v>158922</v>
       </c>
       <c r="J201" t="n">
-        <v>365659</v>
+        <v>365663</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24743</v>
+        <v>24745</v>
       </c>
       <c r="M201" t="n">
-        <v>11987</v>
+        <v>11989</v>
       </c>
       <c r="N201" t="n">
-        <v>58654</v>
+        <v>58656</v>
       </c>
       <c r="O201" t="n">
-        <v>30312</v>
+        <v>30314</v>
       </c>
       <c r="P201" t="n">
         <v>28041</v>
       </c>
       <c r="Q201" t="n">
-        <v>2676.6</v>
+        <v>2676.9</v>
       </c>
       <c r="R201" t="n">
         <v>5265</v>
       </c>
       <c r="S201" t="n">
-        <v>5144</v>
+        <v>5144.3</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15179,37 +15179,37 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161374</v>
+        <v>161372</v>
       </c>
       <c r="J202" t="n">
-        <v>373085</v>
+        <v>373089</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25190</v>
+        <v>25192</v>
       </c>
       <c r="M202" t="n">
-        <v>12227</v>
+        <v>12228</v>
       </c>
       <c r="N202" t="n">
-        <v>62225</v>
+        <v>62227</v>
       </c>
       <c r="O202" t="n">
-        <v>32196</v>
+        <v>32197</v>
       </c>
       <c r="P202" t="n">
         <v>2450</v>
       </c>
       <c r="Q202" t="n">
-        <v>2062.4</v>
+        <v>2062.7</v>
       </c>
       <c r="R202" t="n">
         <v>7426</v>
       </c>
       <c r="S202" t="n">
-        <v>5391.1</v>
+        <v>5391.4</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15253,37 +15253,37 @@
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164051</v>
+        <v>164049</v>
       </c>
       <c r="J203" t="n">
-        <v>380562</v>
+        <v>380566</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25750</v>
+        <v>25752</v>
       </c>
       <c r="M203" t="n">
-        <v>12532</v>
+        <v>12533</v>
       </c>
       <c r="N203" t="n">
-        <v>65213</v>
+        <v>65215</v>
       </c>
       <c r="O203" t="n">
-        <v>33479</v>
+        <v>33480</v>
       </c>
       <c r="P203" t="n">
         <v>2677</v>
       </c>
       <c r="Q203" t="n">
-        <v>2129.1</v>
+        <v>2129.3</v>
       </c>
       <c r="R203" t="n">
         <v>7477</v>
       </c>
       <c r="S203" t="n">
-        <v>5667.6</v>
+        <v>5667.7</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15327,22 +15327,22 @@
         <v>34572</v>
       </c>
       <c r="I204" t="n">
-        <v>142983</v>
+        <v>142981</v>
       </c>
       <c r="J204" t="n">
-        <v>388118</v>
+        <v>388122</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20097</v>
+        <v>20099</v>
       </c>
       <c r="M204" t="n">
         <v>9770</v>
       </c>
       <c r="N204" t="n">
-        <v>67518</v>
+        <v>67520</v>
       </c>
       <c r="O204" t="n">
         <v>33968</v>
@@ -15351,13 +15351,13 @@
         <v>-21068</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1219.4</v>
+        <v>-1219.3</v>
       </c>
       <c r="R204" t="n">
         <v>7556</v>
       </c>
       <c r="S204" t="n">
-        <v>5862.1</v>
+        <v>5862.3</v>
       </c>
       <c r="T204" t="n">
         <v>22</v>
@@ -15386,7 +15386,7 @@
         <v>3890</v>
       </c>
       <c r="D205" t="n">
-        <v>64580</v>
+        <v>64579</v>
       </c>
       <c r="E205" t="n">
         <v>3984</v>
@@ -15401,31 +15401,31 @@
         <v>34600</v>
       </c>
       <c r="I205" t="n">
-        <v>145389</v>
+        <v>145386</v>
       </c>
       <c r="J205" t="n">
-        <v>396815</v>
+        <v>396819</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24525</v>
+        <v>24526</v>
       </c>
       <c r="M205" t="n">
-        <v>15308</v>
+        <v>15307</v>
       </c>
       <c r="N205" t="n">
-        <v>73272</v>
+        <v>73274</v>
       </c>
       <c r="O205" t="n">
         <v>38705</v>
       </c>
       <c r="P205" t="n">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="Q205" t="n">
-        <v>1739.4</v>
+        <v>1739.3</v>
       </c>
       <c r="R205" t="n">
         <v>8697</v>
@@ -15475,22 +15475,22 @@
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>141321</v>
+        <v>141318</v>
       </c>
       <c r="J206" t="n">
-        <v>401773</v>
+        <v>401777</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="M206" t="n">
-        <v>10438</v>
+        <v>10437</v>
       </c>
       <c r="N206" t="n">
-        <v>76176</v>
+        <v>76178</v>
       </c>
       <c r="O206" t="n">
         <v>41379</v>
@@ -15499,7 +15499,7 @@
         <v>-4068</v>
       </c>
       <c r="Q206" t="n">
-        <v>1605.7</v>
+        <v>1605.6</v>
       </c>
       <c r="R206" t="n">
         <v>4958</v>
@@ -15531,7 +15531,7 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D207" t="n">
         <v>64558</v>
@@ -15549,37 +15549,37 @@
         <v>34675</v>
       </c>
       <c r="I207" t="n">
-        <v>167099</v>
+        <v>167098</v>
       </c>
       <c r="J207" t="n">
-        <v>404686</v>
+        <v>404692</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26911</v>
+        <v>26914</v>
       </c>
       <c r="M207" t="n">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="N207" t="n">
-        <v>75035</v>
+        <v>75039</v>
       </c>
       <c r="O207" t="n">
-        <v>39027</v>
+        <v>39029</v>
       </c>
       <c r="P207" t="n">
-        <v>25778</v>
+        <v>25780</v>
       </c>
       <c r="Q207" t="n">
-        <v>5173.7</v>
+        <v>5173.9</v>
       </c>
       <c r="R207" t="n">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="S207" t="n">
-        <v>6327.4</v>
+        <v>6327.7</v>
       </c>
       <c r="T207" t="n">
         <v>61</v>
@@ -15605,7 +15605,7 @@
         <v>969</v>
       </c>
       <c r="C208" t="n">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
@@ -15623,37 +15623,37 @@
         <v>34747</v>
       </c>
       <c r="I208" t="n">
-        <v>174886</v>
+        <v>174887</v>
       </c>
       <c r="J208" t="n">
-        <v>410686</v>
+        <v>410694</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>27949</v>
+        <v>27954</v>
       </c>
       <c r="M208" t="n">
-        <v>13512</v>
+        <v>13515</v>
       </c>
       <c r="N208" t="n">
-        <v>75339</v>
+        <v>75345</v>
       </c>
       <c r="O208" t="n">
-        <v>37601</v>
+        <v>37605</v>
       </c>
       <c r="P208" t="n">
-        <v>7787</v>
+        <v>7789</v>
       </c>
       <c r="Q208" t="n">
-        <v>2280.3</v>
+        <v>2280.7</v>
       </c>
       <c r="R208" t="n">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="S208" t="n">
-        <v>6432.4</v>
+        <v>6433</v>
       </c>
       <c r="T208" t="n">
         <v>72</v>
@@ -15679,7 +15679,7 @@
         <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>4954</v>
+        <v>5014</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
@@ -15694,55 +15694,55 @@
         <v>630</v>
       </c>
       <c r="H209" t="n">
-        <v>34786</v>
+        <v>34787</v>
       </c>
       <c r="I209" t="n">
-        <v>178315</v>
+        <v>178376</v>
       </c>
       <c r="J209" t="n">
-        <v>419964</v>
+        <v>420032</v>
       </c>
       <c r="K209" t="n">
         <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>29168</v>
+        <v>29232</v>
       </c>
       <c r="M209" t="n">
-        <v>14264</v>
+        <v>14327</v>
       </c>
       <c r="N209" t="n">
-        <v>79075</v>
+        <v>79140</v>
       </c>
       <c r="O209" t="n">
-        <v>39402</v>
+        <v>39466</v>
       </c>
       <c r="P209" t="n">
-        <v>3429</v>
+        <v>3489</v>
       </c>
       <c r="Q209" t="n">
-        <v>2420.1</v>
+        <v>2429.1</v>
       </c>
       <c r="R209" t="n">
-        <v>9278</v>
+        <v>9338</v>
       </c>
       <c r="S209" t="n">
-        <v>6697</v>
+        <v>6706.1</v>
       </c>
       <c r="T209" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U209" t="n">
         <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>57.3</v>
+        <v>57.7</v>
       </c>
       <c r="W209" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="X209" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210">
@@ -15753,7 +15753,7 @@
         <v>1332</v>
       </c>
       <c r="C210" t="n">
-        <v>4610</v>
+        <v>4671</v>
       </c>
       <c r="D210" t="n">
         <v>64782</v>
@@ -15762,61 +15762,61 @@
         <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>5080</v>
+        <v>5065</v>
       </c>
       <c r="G210" t="n">
-        <v>515</v>
+        <v>634</v>
       </c>
       <c r="H210" t="n">
-        <v>34288</v>
+        <v>34299</v>
       </c>
       <c r="I210" t="n">
-        <v>181332</v>
+        <v>181454</v>
       </c>
       <c r="J210" t="n">
-        <v>423441</v>
+        <v>423570</v>
       </c>
       <c r="K210" t="n">
         <v>78882</v>
       </c>
       <c r="L210" t="n">
-        <v>29813</v>
+        <v>29938</v>
       </c>
       <c r="M210" t="n">
-        <v>38349</v>
+        <v>38473</v>
       </c>
       <c r="N210" t="n">
-        <v>76358</v>
+        <v>76484</v>
       </c>
       <c r="O210" t="n">
-        <v>35323</v>
+        <v>35448</v>
       </c>
       <c r="P210" t="n">
-        <v>3017</v>
+        <v>3078</v>
       </c>
       <c r="Q210" t="n">
-        <v>2468.7</v>
+        <v>2486.4</v>
       </c>
       <c r="R210" t="n">
-        <v>3477</v>
+        <v>3538</v>
       </c>
       <c r="S210" t="n">
-        <v>6125.6</v>
+        <v>6143.4</v>
       </c>
       <c r="T210" t="n">
-        <v>-498</v>
+        <v>-488</v>
       </c>
       <c r="U210" t="n">
         <v>-1.4</v>
       </c>
       <c r="V210" t="n">
-        <v>-129</v>
+        <v>-125.3</v>
       </c>
       <c r="W210" t="n">
-        <v>-37.4</v>
+        <v>-35.9</v>
       </c>
       <c r="X210" t="n">
-        <v>-262</v>
+        <v>-251</v>
       </c>
     </row>
     <row r="211">
@@ -15827,7 +15827,7 @@
         <v>1654</v>
       </c>
       <c r="C211" t="n">
-        <v>3658</v>
+        <v>4384</v>
       </c>
       <c r="D211" t="n">
         <v>64882</v>
@@ -15836,46 +15836,46 @@
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>5206</v>
+        <v>5191</v>
       </c>
       <c r="G211" t="n">
         <v>541</v>
       </c>
       <c r="H211" t="n">
-        <v>34313</v>
+        <v>34324</v>
       </c>
       <c r="I211" t="n">
-        <v>158065</v>
+        <v>158913</v>
       </c>
       <c r="J211" t="n">
-        <v>429856</v>
+        <v>430711</v>
       </c>
       <c r="K211" t="n">
         <v>66247</v>
       </c>
       <c r="L211" t="n">
-        <v>24852</v>
+        <v>25702</v>
       </c>
       <c r="M211" t="n">
-        <v>12676</v>
+        <v>13527</v>
       </c>
       <c r="N211" t="n">
-        <v>75706</v>
+        <v>76557</v>
       </c>
       <c r="O211" t="n">
-        <v>33041</v>
+        <v>33892</v>
       </c>
       <c r="P211" t="n">
-        <v>-23267</v>
+        <v>-22541</v>
       </c>
       <c r="Q211" t="n">
-        <v>2154.6</v>
+        <v>2276</v>
       </c>
       <c r="R211" t="n">
-        <v>6415</v>
+        <v>7141</v>
       </c>
       <c r="S211" t="n">
-        <v>5962.6</v>
+        <v>6084.1</v>
       </c>
       <c r="T211" t="n">
         <v>25</v>
@@ -15884,13 +15884,13 @@
         <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>-144.7</v>
+        <v>-141</v>
       </c>
       <c r="W211" t="n">
-        <v>-37</v>
+        <v>-35.4</v>
       </c>
       <c r="X211" t="n">
-        <v>-259</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="212">
@@ -15898,73 +15898,73 @@
         <v>44071</v>
       </c>
       <c r="B212" t="n">
-        <v>927</v>
+        <v>1271</v>
       </c>
       <c r="C212" t="n">
-        <v>2142</v>
+        <v>3080</v>
       </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>64914</v>
       </c>
       <c r="E212" t="n">
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>4353</v>
+        <v>4571</v>
       </c>
       <c r="G212" t="n">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="H212" t="n">
-        <v>29152</v>
+        <v>29855</v>
       </c>
       <c r="I212" t="n">
-        <v>146514</v>
+        <v>156166</v>
       </c>
       <c r="J212" t="n">
-        <v>363334</v>
+        <v>380991</v>
       </c>
       <c r="K212" t="n">
         <v>63571</v>
       </c>
       <c r="L212" t="n">
-        <v>16433</v>
+        <v>26087</v>
       </c>
       <c r="M212" t="n">
-        <v>5193</v>
+        <v>14848</v>
       </c>
       <c r="N212" t="n">
-        <v>5224</v>
+        <v>22877</v>
       </c>
       <c r="O212" t="n">
-        <v>-38439</v>
+        <v>-20786</v>
       </c>
       <c r="P212" t="n">
-        <v>-11551</v>
+        <v>-2747</v>
       </c>
       <c r="Q212" t="n">
-        <v>160.7</v>
+        <v>1540</v>
       </c>
       <c r="R212" t="n">
-        <v>-66522</v>
+        <v>-49720</v>
       </c>
       <c r="S212" t="n">
-        <v>-4783</v>
+        <v>-2261.1</v>
       </c>
       <c r="T212" t="n">
-        <v>-5161</v>
+        <v>-4469</v>
       </c>
       <c r="U212" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="V212" t="n">
-        <v>-1878</v>
+        <v>-1644</v>
       </c>
       <c r="W212" t="n">
-        <v>-778.3</v>
+        <v>-677.9</v>
       </c>
       <c r="X212" t="n">
-        <v>-5448</v>
+        <v>-4745</v>
       </c>
     </row>
     <row r="213">
@@ -15972,73 +15972,147 @@
         <v>44072</v>
       </c>
       <c r="B213" t="n">
-        <v>513</v>
+        <v>1063</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>64892</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>4549</v>
       </c>
       <c r="F213" t="n">
-        <v>787</v>
+        <v>2794</v>
       </c>
       <c r="G213" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="H213" t="n">
-        <v>4243</v>
+        <v>20453</v>
       </c>
       <c r="I213" t="n">
-        <v>16370</v>
+        <v>149308</v>
       </c>
       <c r="J213" t="n">
-        <v>62542</v>
+        <v>260466</v>
       </c>
       <c r="K213" t="n">
-        <v>11046</v>
+        <v>13888</v>
       </c>
       <c r="L213" t="n">
-        <v>-114513</v>
+        <v>18427</v>
       </c>
       <c r="M213" t="n">
-        <v>-150729</v>
+        <v>-17790</v>
       </c>
       <c r="N213" t="n">
-        <v>-297852</v>
+        <v>-99932</v>
       </c>
       <c r="O213" t="n">
-        <v>-342144</v>
+        <v>-144226</v>
       </c>
       <c r="P213" t="n">
-        <v>-130144</v>
+        <v>-6858</v>
       </c>
       <c r="Q213" t="n">
-        <v>-17850.1</v>
+        <v>1141.4</v>
       </c>
       <c r="R213" t="n">
-        <v>-300792</v>
+        <v>-120525</v>
       </c>
       <c r="S213" t="n">
-        <v>-48461.6</v>
+        <v>-20187.3</v>
       </c>
       <c r="T213" t="n">
-        <v>-24909</v>
+        <v>-9402</v>
       </c>
       <c r="U213" t="n">
-        <v>-85.4</v>
+        <v>-31.5</v>
       </c>
       <c r="V213" t="n">
-        <v>-10015</v>
+        <v>-4615.3</v>
       </c>
       <c r="W213" t="n">
-        <v>-4338.7</v>
+        <v>-2023</v>
       </c>
       <c r="X213" t="n">
-        <v>-30371</v>
+        <v>-14161</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>44073</v>
+      </c>
+      <c r="B214" t="n">
+        <v>881</v>
+      </c>
+      <c r="C214" t="n">
+        <v>398</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5018</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>42</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4755</v>
+      </c>
+      <c r="I214" t="n">
+        <v>7142</v>
+      </c>
+      <c r="J214" t="n">
+        <v>82295</v>
+      </c>
+      <c r="K214" t="n">
+        <v>11950</v>
+      </c>
+      <c r="L214" t="n">
+        <v>-151780</v>
+      </c>
+      <c r="M214" t="n">
+        <v>-167745</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-283368</v>
+      </c>
+      <c r="O214" t="n">
+        <v>-328399</v>
+      </c>
+      <c r="P214" t="n">
+        <v>-142166</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>-22850.9</v>
+      </c>
+      <c r="R214" t="n">
+        <v>-178171</v>
+      </c>
+      <c r="S214" t="n">
+        <v>-46056.7</v>
+      </c>
+      <c r="T214" t="n">
+        <v>-15698</v>
+      </c>
+      <c r="U214" t="n">
+        <v>-76.8</v>
+      </c>
+      <c r="V214" t="n">
+        <v>-9856.3</v>
+      </c>
+      <c r="W214" t="n">
+        <v>-4274.3</v>
+      </c>
+      <c r="X214" t="n">
+        <v>-29920</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G32" t="n">
         <v>12</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -2972,7 +2972,7 @@
         <v>701</v>
       </c>
       <c r="J37" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>658</v>
       </c>
       <c r="N37" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O37" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P37" t="n">
         <v>264</v>
@@ -2996,10 +2996,10 @@
         <v>96</v>
       </c>
       <c r="R37" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S37" t="n">
-        <v>85.1</v>
+        <v>85.3</v>
       </c>
       <c r="T37" t="n">
         <v>3</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3046,7 +3046,7 @@
         <v>1003</v>
       </c>
       <c r="J38" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>929</v>
       </c>
       <c r="N38" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O38" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P38" t="n">
         <v>302</v>
@@ -3073,7 +3073,7 @@
         <v>266</v>
       </c>
       <c r="S38" t="n">
-        <v>121.7</v>
+        <v>121.9</v>
       </c>
       <c r="T38" t="n">
         <v>6</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3120,7 +3120,7 @@
         <v>1374</v>
       </c>
       <c r="J39" t="n">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>1241</v>
       </c>
       <c r="N39" t="n">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="O39" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="P39" t="n">
         <v>371</v>
@@ -3144,10 +3144,10 @@
         <v>185.7</v>
       </c>
       <c r="R39" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S39" t="n">
-        <v>162.9</v>
+        <v>163.1</v>
       </c>
       <c r="T39" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3194,7 +3194,7 @@
         <v>2032</v>
       </c>
       <c r="J40" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>1837</v>
       </c>
       <c r="N40" t="n">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="O40" t="n">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3218,10 +3218,10 @@
         <v>271.3</v>
       </c>
       <c r="R40" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S40" t="n">
-        <v>240.7</v>
+        <v>241.1</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3268,7 +3268,7 @@
         <v>2982</v>
       </c>
       <c r="J41" t="n">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>2716</v>
       </c>
       <c r="N41" t="n">
-        <v>2667</v>
+        <v>2672</v>
       </c>
       <c r="O41" t="n">
-        <v>2429</v>
+        <v>2434</v>
       </c>
       <c r="P41" t="n">
         <v>950</v>
@@ -3292,10 +3292,10 @@
         <v>398.1</v>
       </c>
       <c r="R41" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="S41" t="n">
-        <v>357.4</v>
+        <v>358.1</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3624</v>
+        <v>3630</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3613</v>
+        <v>3619</v>
       </c>
       <c r="O42" t="n">
-        <v>3238</v>
+        <v>3244</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="S42" t="n">
-        <v>482.7</v>
+        <v>483.6</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4785</v>
+        <v>4791</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4762</v>
+        <v>4768</v>
       </c>
       <c r="O43" t="n">
-        <v>4166</v>
+        <v>4171</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3443,7 +3443,7 @@
         <v>1161</v>
       </c>
       <c r="S43" t="n">
-        <v>628.4</v>
+        <v>629.3</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3478,7 +3478,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G44" t="n">
         <v>219</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6224</v>
+        <v>6231</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6191</v>
+        <v>6198</v>
       </c>
       <c r="O44" t="n">
-        <v>5339</v>
+        <v>5345</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3514,10 +3514,10 @@
         <v>956.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="S44" t="n">
-        <v>800.7</v>
+        <v>801.6</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3552,7 +3552,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="G45" t="n">
         <v>232</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7603</v>
+        <v>7611</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7543</v>
+        <v>7551</v>
       </c>
       <c r="O45" t="n">
-        <v>6403</v>
+        <v>6409</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3588,10 +3588,10 @@
         <v>1189.3</v>
       </c>
       <c r="R45" t="n">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="S45" t="n">
-        <v>959.7</v>
+        <v>960.7</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3626,7 +3626,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="G46" t="n">
         <v>318</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9065</v>
+        <v>9074</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8947</v>
+        <v>8956</v>
       </c>
       <c r="O46" t="n">
-        <v>7262</v>
+        <v>7268</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3662,10 +3662,10 @@
         <v>1431</v>
       </c>
       <c r="R46" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="S46" t="n">
-        <v>1123.6</v>
+        <v>1124.6</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3700,7 +3700,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="G47" t="n">
         <v>346</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11231</v>
+        <v>11240</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11059</v>
+        <v>11068</v>
       </c>
       <c r="O47" t="n">
-        <v>8557</v>
+        <v>8561</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1346.9</v>
+        <v>1347.7</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4786</v>
+        <v>4789</v>
       </c>
       <c r="G48" t="n">
         <v>482</v>
@@ -3786,7 +3786,7 @@
         <v>17582</v>
       </c>
       <c r="J48" t="n">
-        <v>14280</v>
+        <v>14289</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13542</v>
       </c>
       <c r="N48" t="n">
-        <v>14035</v>
+        <v>14044</v>
       </c>
       <c r="O48" t="n">
-        <v>10656</v>
+        <v>10659</v>
       </c>
       <c r="P48" t="n">
         <v>3748</v>
@@ -3813,7 +3813,7 @@
         <v>3049</v>
       </c>
       <c r="S48" t="n">
-        <v>1658</v>
+        <v>1658.6</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3848,7 +3848,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="G49" t="n">
         <v>681</v>
@@ -3860,7 +3860,7 @@
         <v>20760</v>
       </c>
       <c r="J49" t="n">
-        <v>17363</v>
+        <v>17372</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15431</v>
       </c>
       <c r="N49" t="n">
-        <v>16977</v>
+        <v>16986</v>
       </c>
       <c r="O49" t="n">
-        <v>12578</v>
+        <v>12581</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3887,7 +3887,7 @@
         <v>3083</v>
       </c>
       <c r="S49" t="n">
-        <v>1962.7</v>
+        <v>1963.1</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3922,7 +3922,7 @@
         <v>3103</v>
       </c>
       <c r="F50" t="n">
-        <v>7116</v>
+        <v>7117</v>
       </c>
       <c r="G50" t="n">
         <v>830</v>
@@ -3934,7 +3934,7 @@
         <v>26437</v>
       </c>
       <c r="J50" t="n">
-        <v>21121</v>
+        <v>21132</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19038</v>
       </c>
       <c r="N50" t="n">
-        <v>20502</v>
+        <v>20512</v>
       </c>
       <c r="O50" t="n">
-        <v>14897</v>
+        <v>14901</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3958,10 +3958,10 @@
         <v>3015.4</v>
       </c>
       <c r="R50" t="n">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="S50" t="n">
-        <v>2333.7</v>
+        <v>2334.4</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>32043</v>
       </c>
       <c r="J51" t="n">
-        <v>25366</v>
+        <v>25378</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22715</v>
       </c>
       <c r="N51" t="n">
-        <v>24481</v>
+        <v>24492</v>
       </c>
       <c r="O51" t="n">
-        <v>17763</v>
+        <v>17767</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.6</v>
       </c>
       <c r="R51" t="n">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="S51" t="n">
-        <v>2734.6</v>
+        <v>2735.3</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4082,7 +4082,7 @@
         <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28743</v>
+        <v>28752</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,7 +4094,7 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27543</v>
+        <v>27550</v>
       </c>
       <c r="O52" t="n">
         <v>19678</v>
@@ -4106,10 +4106,10 @@
         <v>3915.9</v>
       </c>
       <c r="R52" t="n">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="S52" t="n">
-        <v>3020</v>
+        <v>3020.1</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31701</v>
+        <v>31710</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,7 +4168,7 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29898</v>
+        <v>29904</v>
       </c>
       <c r="O53" t="n">
         <v>20470</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36502</v>
+        <v>36512</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33828</v>
+        <v>33833</v>
       </c>
       <c r="O54" t="n">
-        <v>22222</v>
+        <v>22223</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4254,10 +4254,10 @@
         <v>4752.4</v>
       </c>
       <c r="R54" t="n">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="S54" t="n">
-        <v>3610.1</v>
+        <v>3610.3</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42039</v>
+        <v>42047</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38415</v>
+        <v>38417</v>
       </c>
       <c r="O55" t="n">
-        <v>24676</v>
+        <v>24675</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4328,10 +4328,10 @@
         <v>4975.1</v>
       </c>
       <c r="R55" t="n">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="S55" t="n">
-        <v>3965.6</v>
+        <v>3965.4</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47574</v>
+        <v>47582</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42789</v>
+        <v>42791</v>
       </c>
       <c r="O56" t="n">
-        <v>26453</v>
+        <v>26450</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4405,7 +4405,7 @@
         <v>5535</v>
       </c>
       <c r="S56" t="n">
-        <v>4315.9</v>
+        <v>4315.7</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4452,7 +4452,7 @@
         <v>72677</v>
       </c>
       <c r="J57" t="n">
-        <v>54373</v>
+        <v>54379</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,10 +4464,10 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48149</v>
+        <v>48148</v>
       </c>
       <c r="O57" t="n">
-        <v>29007</v>
+        <v>29001</v>
       </c>
       <c r="P57" t="n">
         <v>9577</v>
@@ -4476,10 +4476,10 @@
         <v>6605.7</v>
       </c>
       <c r="R57" t="n">
-        <v>6799</v>
+        <v>6797</v>
       </c>
       <c r="S57" t="n">
-        <v>4750.3</v>
+        <v>4749.6</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4526,7 +4526,7 @@
         <v>81189</v>
       </c>
       <c r="J58" t="n">
-        <v>59349</v>
+        <v>59355</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4538,10 +4538,10 @@
         <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51746</v>
+        <v>51744</v>
       </c>
       <c r="O58" t="n">
-        <v>30606</v>
+        <v>30603</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4553,7 +4553,7 @@
         <v>4976</v>
       </c>
       <c r="S58" t="n">
-        <v>4854.7</v>
+        <v>4853.9</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4600,7 +4600,7 @@
         <v>89781</v>
       </c>
       <c r="J59" t="n">
-        <v>62697</v>
+        <v>62702</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4612,10 +4612,10 @@
         <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53632</v>
+        <v>53628</v>
       </c>
       <c r="O59" t="n">
-        <v>30996</v>
+        <v>30992</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4624,10 +4624,10 @@
         <v>7577.4</v>
       </c>
       <c r="R59" t="n">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="S59" t="n">
-        <v>4850.6</v>
+        <v>4850</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4674,7 +4674,7 @@
         <v>96085</v>
       </c>
       <c r="J60" t="n">
-        <v>65371</v>
+        <v>65375</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4686,10 +4686,10 @@
         <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54140</v>
+        <v>54135</v>
       </c>
       <c r="O60" t="n">
-        <v>28869</v>
+        <v>28863</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4698,10 +4698,10 @@
         <v>7911.3</v>
       </c>
       <c r="R60" t="n">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="S60" t="n">
-        <v>4810</v>
+        <v>4809.3</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4748,7 +4748,7 @@
         <v>103277</v>
       </c>
       <c r="J61" t="n">
-        <v>70232</v>
+        <v>70235</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,10 +4760,10 @@
         <v>50869</v>
       </c>
       <c r="N61" t="n">
-        <v>55952</v>
+        <v>55946</v>
       </c>
       <c r="O61" t="n">
-        <v>28193</v>
+        <v>28188</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4772,10 +4772,10 @@
         <v>8025.1</v>
       </c>
       <c r="R61" t="n">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="S61" t="n">
-        <v>4818.6</v>
+        <v>4817.6</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4822,7 +4822,7 @@
         <v>108825</v>
       </c>
       <c r="J62" t="n">
-        <v>74502</v>
+        <v>74504</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,10 +4834,10 @@
         <v>45725</v>
       </c>
       <c r="N62" t="n">
-        <v>57139</v>
+        <v>57132</v>
       </c>
       <c r="O62" t="n">
-        <v>26928</v>
+        <v>26922</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4846,10 +4846,10 @@
         <v>8059.6</v>
       </c>
       <c r="R62" t="n">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="S62" t="n">
-        <v>4637.6</v>
+        <v>4636.7</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78330</v>
+        <v>78334</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,10 +4908,10 @@
         <v>44501</v>
       </c>
       <c r="N63" t="n">
-        <v>57209</v>
+        <v>57202</v>
       </c>
       <c r="O63" t="n">
-        <v>23957</v>
+        <v>23955</v>
       </c>
       <c r="P63" t="n">
         <v>8353</v>
@@ -4920,10 +4920,10 @@
         <v>7725.4</v>
       </c>
       <c r="R63" t="n">
-        <v>3828</v>
+        <v>3830</v>
       </c>
       <c r="S63" t="n">
-        <v>4393.7</v>
+        <v>4393.1</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4958,7 +4958,7 @@
         <v>16375</v>
       </c>
       <c r="F64" t="n">
-        <v>30936</v>
+        <v>30938</v>
       </c>
       <c r="G64" t="n">
         <v>3551</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82150</v>
+        <v>82156</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,7 +4982,7 @@
         <v>42763</v>
       </c>
       <c r="N64" t="n">
-        <v>56784</v>
+        <v>56778</v>
       </c>
       <c r="O64" t="n">
         <v>22801</v>
@@ -4994,7 +4994,7 @@
         <v>7325</v>
       </c>
       <c r="R64" t="n">
-        <v>3820</v>
+        <v>3822</v>
       </c>
       <c r="S64" t="n">
         <v>3968.1</v>
@@ -5023,7 +5023,7 @@
         <v>3262</v>
       </c>
       <c r="C65" t="n">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -5032,7 +5032,7 @@
         <v>4709</v>
       </c>
       <c r="F65" t="n">
-        <v>30724</v>
+        <v>30725</v>
       </c>
       <c r="G65" t="n">
         <v>3529</v>
@@ -5041,37 +5041,37 @@
         <v>13731</v>
       </c>
       <c r="I65" t="n">
-        <v>130640</v>
+        <v>130639</v>
       </c>
       <c r="J65" t="n">
-        <v>86027</v>
+        <v>86034</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
       </c>
       <c r="L65" t="n">
-        <v>93901</v>
+        <v>93900</v>
       </c>
       <c r="M65" t="n">
-        <v>40859</v>
+        <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57284</v>
+        <v>57282</v>
       </c>
       <c r="O65" t="n">
-        <v>23330</v>
+        <v>23332</v>
       </c>
       <c r="P65" t="n">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="Q65" t="n">
-        <v>7064.4</v>
+        <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="S65" t="n">
-        <v>3811.1</v>
+        <v>3811.3</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5106,7 +5106,7 @@
         <v>6202</v>
       </c>
       <c r="F66" t="n">
-        <v>30476</v>
+        <v>30477</v>
       </c>
       <c r="G66" t="n">
         <v>3529</v>
@@ -5115,37 +5115,37 @@
         <v>14646</v>
       </c>
       <c r="I66" t="n">
-        <v>135951</v>
+        <v>135950</v>
       </c>
       <c r="J66" t="n">
-        <v>88461</v>
+        <v>88464</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95245</v>
+        <v>95244</v>
       </c>
       <c r="M66" t="n">
-        <v>39866</v>
+        <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56760</v>
+        <v>56754</v>
       </c>
       <c r="O66" t="n">
-        <v>23090</v>
+        <v>23089</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
       </c>
       <c r="Q66" t="n">
-        <v>6595.7</v>
+        <v>6595.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="S66" t="n">
-        <v>3680.6</v>
+        <v>3680.3</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5171,7 +5171,7 @@
         <v>1998</v>
       </c>
       <c r="C67" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D67" t="n">
         <v>14</v>
@@ -5180,7 +5180,7 @@
         <v>4748</v>
       </c>
       <c r="F67" t="n">
-        <v>30340</v>
+        <v>30341</v>
       </c>
       <c r="G67" t="n">
         <v>3525</v>
@@ -5192,7 +5192,7 @@
         <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90118</v>
+        <v>90120</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,22 +5204,22 @@
         <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53616</v>
+        <v>53608</v>
       </c>
       <c r="O67" t="n">
-        <v>19886</v>
+        <v>19885</v>
       </c>
       <c r="P67" t="n">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="Q67" t="n">
         <v>6232.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="S67" t="n">
-        <v>3535.3</v>
+        <v>3535</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5254,7 +5254,7 @@
         <v>7508</v>
       </c>
       <c r="F68" t="n">
-        <v>30053</v>
+        <v>30055</v>
       </c>
       <c r="G68" t="n">
         <v>3528</v>
@@ -5266,7 +5266,7 @@
         <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93337</v>
+        <v>93342</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51298</v>
+        <v>51295</v>
       </c>
       <c r="O68" t="n">
-        <v>18835</v>
+        <v>18838</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5290,10 +5290,10 @@
         <v>5903.1</v>
       </c>
       <c r="R68" t="n">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="S68" t="n">
-        <v>3300.7</v>
+        <v>3301</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,7 +5328,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>29171</v>
+        <v>29173</v>
       </c>
       <c r="G69" t="n">
         <v>3476</v>
@@ -5340,7 +5340,7 @@
         <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96405</v>
+        <v>96415</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48831</v>
+        <v>48833</v>
       </c>
       <c r="O69" t="n">
-        <v>18075</v>
+        <v>18081</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5364,10 +5364,10 @@
         <v>5813.4</v>
       </c>
       <c r="R69" t="n">
-        <v>3068</v>
+        <v>3073</v>
       </c>
       <c r="S69" t="n">
-        <v>3129</v>
+        <v>3130.1</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,7 +5402,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>28073</v>
+        <v>28075</v>
       </c>
       <c r="G70" t="n">
         <v>3344</v>
@@ -5414,7 +5414,7 @@
         <v>154917</v>
       </c>
       <c r="J70" t="n">
-        <v>99534</v>
+        <v>99549</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,10 +5426,10 @@
         <v>30965</v>
       </c>
       <c r="N70" t="n">
-        <v>45161</v>
+        <v>45170</v>
       </c>
       <c r="O70" t="n">
-        <v>17384</v>
+        <v>17393</v>
       </c>
       <c r="P70" t="n">
         <v>5398</v>
@@ -5438,10 +5438,10 @@
         <v>5391.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3129</v>
+        <v>3134</v>
       </c>
       <c r="S70" t="n">
-        <v>3029.1</v>
+        <v>3030.7</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,7 +5476,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>27235</v>
+        <v>27237</v>
       </c>
       <c r="G71" t="n">
         <v>3343</v>
@@ -5488,7 +5488,7 @@
         <v>159909</v>
       </c>
       <c r="J71" t="n">
-        <v>102157</v>
+        <v>102178</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5497,13 +5497,13 @@
         <v>78720</v>
       </c>
       <c r="M71" t="n">
-        <v>29269</v>
+        <v>29270</v>
       </c>
       <c r="N71" t="n">
-        <v>42808</v>
+        <v>42823</v>
       </c>
       <c r="O71" t="n">
-        <v>16130</v>
+        <v>16144</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
@@ -5512,10 +5512,10 @@
         <v>5136.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2623</v>
+        <v>2629</v>
       </c>
       <c r="S71" t="n">
-        <v>2858.1</v>
+        <v>2860.3</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>26323</v>
+        <v>26325</v>
       </c>
       <c r="G72" t="n">
         <v>3255</v>
@@ -5562,7 +5562,7 @@
         <v>165064</v>
       </c>
       <c r="J72" t="n">
-        <v>104446</v>
+        <v>104473</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5571,25 +5571,25 @@
         <v>75283</v>
       </c>
       <c r="M72" t="n">
-        <v>29113</v>
+        <v>29114</v>
       </c>
       <c r="N72" t="n">
-        <v>41749</v>
+        <v>41771</v>
       </c>
       <c r="O72" t="n">
-        <v>15985</v>
+        <v>16009</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
       </c>
       <c r="Q72" t="n">
-        <v>4917.7</v>
+        <v>4917.9</v>
       </c>
       <c r="R72" t="n">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="S72" t="n">
-        <v>2631.3</v>
+        <v>2634.1</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25499</v>
+        <v>25501</v>
       </c>
       <c r="G73" t="n">
         <v>3205</v>
@@ -5636,7 +5636,7 @@
         <v>168833</v>
       </c>
       <c r="J73" t="n">
-        <v>106219</v>
+        <v>106249</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5648,22 +5648,22 @@
         <v>29120</v>
       </c>
       <c r="N73" t="n">
-        <v>40848</v>
+        <v>40874</v>
       </c>
       <c r="O73" t="n">
-        <v>16101</v>
+        <v>16129</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
       </c>
       <c r="Q73" t="n">
-        <v>4697.4</v>
+        <v>4697.6</v>
       </c>
       <c r="R73" t="n">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="S73" t="n">
-        <v>2536.9</v>
+        <v>2540.7</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24839</v>
+        <v>24841</v>
       </c>
       <c r="G74" t="n">
         <v>3140</v>
@@ -5710,7 +5710,7 @@
         <v>171876</v>
       </c>
       <c r="J74" t="n">
-        <v>107472</v>
+        <v>107501</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -5722,10 +5722,10 @@
         <v>27277</v>
       </c>
       <c r="N74" t="n">
-        <v>37240</v>
+        <v>37266</v>
       </c>
       <c r="O74" t="n">
-        <v>14135</v>
+        <v>14159</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5734,10 +5734,10 @@
         <v>4594.7</v>
       </c>
       <c r="R74" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="S74" t="n">
-        <v>2479.1</v>
+        <v>2483</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5772,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24570</v>
+        <v>24572</v>
       </c>
       <c r="G75" t="n">
         <v>3094</v>
@@ -5784,7 +5784,7 @@
         <v>175377</v>
       </c>
       <c r="J75" t="n">
-        <v>109403</v>
+        <v>109434</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -5796,10 +5796,10 @@
         <v>25858</v>
       </c>
       <c r="N75" t="n">
-        <v>34901</v>
+        <v>34930</v>
       </c>
       <c r="O75" t="n">
-        <v>12998</v>
+        <v>13019</v>
       </c>
       <c r="P75" t="n">
         <v>3501</v>
@@ -5808,10 +5808,10 @@
         <v>4396.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="S75" t="n">
-        <v>2295.1</v>
+        <v>2298.9</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5846,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23740</v>
+        <v>23742</v>
       </c>
       <c r="G76" t="n">
         <v>3037</v>
@@ -5858,7 +5858,7 @@
         <v>179705</v>
       </c>
       <c r="J76" t="n">
-        <v>111948</v>
+        <v>111984</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5870,10 +5870,10 @@
         <v>24788</v>
       </c>
       <c r="N76" t="n">
-        <v>33618</v>
+        <v>33650</v>
       </c>
       <c r="O76" t="n">
-        <v>12414</v>
+        <v>12435</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5882,10 +5882,10 @@
         <v>4312.3</v>
       </c>
       <c r="R76" t="n">
-        <v>2545</v>
+        <v>2550</v>
       </c>
       <c r="S76" t="n">
-        <v>2220.4</v>
+        <v>2224.1</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5920,7 +5920,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22676</v>
+        <v>22678</v>
       </c>
       <c r="G77" t="n">
         <v>2919</v>
@@ -5932,7 +5932,7 @@
         <v>184103</v>
       </c>
       <c r="J77" t="n">
-        <v>116978</v>
+        <v>117019</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -5944,10 +5944,10 @@
         <v>24194</v>
       </c>
       <c r="N77" t="n">
-        <v>34828</v>
+        <v>34863</v>
       </c>
       <c r="O77" t="n">
-        <v>14821</v>
+        <v>14841</v>
       </c>
       <c r="P77" t="n">
         <v>4398</v>
@@ -5956,10 +5956,10 @@
         <v>4169.4</v>
       </c>
       <c r="R77" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="S77" t="n">
-        <v>2492</v>
+        <v>2495.7</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5994,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21883</v>
+        <v>21885</v>
       </c>
       <c r="G78" t="n">
         <v>2687</v>
@@ -6006,22 +6006,22 @@
         <v>188812</v>
       </c>
       <c r="J78" t="n">
-        <v>119340</v>
+        <v>119383</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58172</v>
+        <v>58173</v>
       </c>
       <c r="M78" t="n">
         <v>23748</v>
       </c>
       <c r="N78" t="n">
-        <v>33313</v>
+        <v>33349</v>
       </c>
       <c r="O78" t="n">
-        <v>14894</v>
+        <v>14910</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
@@ -6030,10 +6030,10 @@
         <v>4129</v>
       </c>
       <c r="R78" t="n">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="S78" t="n">
-        <v>2454.7</v>
+        <v>2457.9</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6059,7 +6059,7 @@
         <v>3676</v>
       </c>
       <c r="C79" t="n">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D79" t="n">
         <v>1532</v>
@@ -6068,7 +6068,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20977</v>
+        <v>20979</v>
       </c>
       <c r="G79" t="n">
         <v>2602</v>
@@ -6077,10 +6077,10 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193911</v>
+        <v>193910</v>
       </c>
       <c r="J79" t="n">
-        <v>121638</v>
+        <v>121686</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -6089,25 +6089,25 @@
         <v>57960</v>
       </c>
       <c r="M79" t="n">
-        <v>25078</v>
+        <v>25077</v>
       </c>
       <c r="N79" t="n">
-        <v>33177</v>
+        <v>33222</v>
       </c>
       <c r="O79" t="n">
-        <v>15419</v>
+        <v>15437</v>
       </c>
       <c r="P79" t="n">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="Q79" t="n">
-        <v>4121</v>
+        <v>4120.9</v>
       </c>
       <c r="R79" t="n">
-        <v>2298</v>
+        <v>2303</v>
       </c>
       <c r="S79" t="n">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6136,13 +6136,13 @@
         <v>783</v>
       </c>
       <c r="D80" t="n">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E80" t="n">
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>20250</v>
+        <v>20252</v>
       </c>
       <c r="G80" t="n">
         <v>2533</v>
@@ -6151,37 +6151,37 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199793</v>
+        <v>199791</v>
       </c>
       <c r="J80" t="n">
-        <v>123118</v>
+        <v>123169</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60080</v>
+        <v>60078</v>
       </c>
       <c r="M80" t="n">
-        <v>27917</v>
+        <v>27915</v>
       </c>
       <c r="N80" t="n">
-        <v>33000</v>
+        <v>33049</v>
       </c>
       <c r="O80" t="n">
-        <v>15646</v>
+        <v>15668</v>
       </c>
       <c r="P80" t="n">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="Q80" t="n">
-        <v>4422.9</v>
+        <v>4422.6</v>
       </c>
       <c r="R80" t="n">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="S80" t="n">
-        <v>2414.1</v>
+        <v>2417.1</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19798</v>
+        <v>19800</v>
       </c>
       <c r="G81" t="n">
         <v>2545</v>
@@ -6225,37 +6225,37 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202020</v>
+        <v>202018</v>
       </c>
       <c r="J81" t="n">
-        <v>123989</v>
+        <v>124042</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57421</v>
+        <v>57419</v>
       </c>
       <c r="M81" t="n">
-        <v>26643</v>
+        <v>26641</v>
       </c>
       <c r="N81" t="n">
-        <v>30652</v>
+        <v>30700</v>
       </c>
       <c r="O81" t="n">
-        <v>14586</v>
+        <v>14608</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306.3</v>
+        <v>4306</v>
       </c>
       <c r="R81" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="S81" t="n">
-        <v>2359.6</v>
+        <v>2363</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,7 +6290,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19597</v>
+        <v>19599</v>
       </c>
       <c r="G82" t="n">
         <v>2494</v>
@@ -6299,37 +6299,37 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204943</v>
+        <v>204941</v>
       </c>
       <c r="J82" t="n">
-        <v>125715</v>
+        <v>125770</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55424</v>
+        <v>55422</v>
       </c>
       <c r="M82" t="n">
-        <v>25238</v>
+        <v>25236</v>
       </c>
       <c r="N82" t="n">
-        <v>29310</v>
+        <v>29355</v>
       </c>
       <c r="O82" t="n">
-        <v>13767</v>
+        <v>13786</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4223.7</v>
+        <v>4223.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="S82" t="n">
-        <v>2330.3</v>
+        <v>2333.7</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>19155</v>
+        <v>19157</v>
       </c>
       <c r="G83" t="n">
         <v>2417</v>
@@ -6373,37 +6373,37 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208717</v>
+        <v>208715</v>
       </c>
       <c r="J83" t="n">
-        <v>127541</v>
+        <v>127606</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53800</v>
+        <v>53798</v>
       </c>
       <c r="M83" t="n">
-        <v>24614</v>
+        <v>24612</v>
       </c>
       <c r="N83" t="n">
-        <v>28007</v>
+        <v>28057</v>
       </c>
       <c r="O83" t="n">
-        <v>10563</v>
+        <v>10587</v>
       </c>
       <c r="P83" t="n">
         <v>3774</v>
       </c>
       <c r="Q83" t="n">
-        <v>4144.6</v>
+        <v>4144.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="S83" t="n">
-        <v>2227.6</v>
+        <v>2231.7</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18265</v>
+        <v>18267</v>
       </c>
       <c r="G84" t="n">
         <v>2322</v>
@@ -6447,37 +6447,37 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213326</v>
+        <v>213324</v>
       </c>
       <c r="J84" t="n">
-        <v>129485</v>
+        <v>129561</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53417</v>
+        <v>53415</v>
       </c>
       <c r="M84" t="n">
-        <v>24514</v>
+        <v>24512</v>
       </c>
       <c r="N84" t="n">
-        <v>27328</v>
+        <v>27383</v>
       </c>
       <c r="O84" t="n">
-        <v>10145</v>
+        <v>10178</v>
       </c>
       <c r="P84" t="n">
         <v>4609</v>
       </c>
       <c r="Q84" t="n">
-        <v>4174.7</v>
+        <v>4174.4</v>
       </c>
       <c r="R84" t="n">
-        <v>1944</v>
+        <v>1955</v>
       </c>
       <c r="S84" t="n">
-        <v>1786.7</v>
+        <v>1791.7</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17335</v>
+        <v>17337</v>
       </c>
       <c r="G85" t="n">
         <v>2256</v>
@@ -6521,37 +6521,37 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217047</v>
+        <v>217045</v>
       </c>
       <c r="J85" t="n">
-        <v>130844</v>
+        <v>130926</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51983</v>
+        <v>51981</v>
       </c>
       <c r="M85" t="n">
-        <v>23136</v>
+        <v>23135</v>
       </c>
       <c r="N85" t="n">
-        <v>26398</v>
+        <v>26453</v>
       </c>
       <c r="O85" t="n">
-        <v>9206</v>
+        <v>9240</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
       </c>
       <c r="Q85" t="n">
-        <v>4033.6</v>
+        <v>4033.3</v>
       </c>
       <c r="R85" t="n">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="S85" t="n">
-        <v>1643.4</v>
+        <v>1649</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16549</v>
+        <v>16551</v>
       </c>
       <c r="G86" t="n">
         <v>2168</v>
@@ -6595,37 +6595,37 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220711</v>
+        <v>220709</v>
       </c>
       <c r="J86" t="n">
-        <v>132329</v>
+        <v>132419</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51878</v>
+        <v>51876</v>
       </c>
       <c r="M86" t="n">
         <v>20918</v>
       </c>
       <c r="N86" t="n">
-        <v>26110</v>
+        <v>26170</v>
       </c>
       <c r="O86" t="n">
-        <v>9211</v>
+        <v>9250</v>
       </c>
       <c r="P86" t="n">
         <v>3664</v>
       </c>
       <c r="Q86" t="n">
-        <v>3828.6</v>
+        <v>3828.4</v>
       </c>
       <c r="R86" t="n">
-        <v>1485</v>
+        <v>1493</v>
       </c>
       <c r="S86" t="n">
-        <v>1527.3</v>
+        <v>1533.3</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16832</v>
+        <v>16834</v>
       </c>
       <c r="G87" t="n">
         <v>2290</v>
@@ -6669,25 +6669,25 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223331</v>
+        <v>223329</v>
       </c>
       <c r="J87" t="n">
-        <v>133118</v>
+        <v>133210</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51455</v>
+        <v>51453</v>
       </c>
       <c r="M87" t="n">
         <v>21311</v>
       </c>
       <c r="N87" t="n">
-        <v>25646</v>
+        <v>25709</v>
       </c>
       <c r="O87" t="n">
-        <v>9129</v>
+        <v>9168</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
@@ -6696,10 +6696,10 @@
         <v>3362.6</v>
       </c>
       <c r="R87" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="S87" t="n">
-        <v>1428.6</v>
+        <v>1434.4</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16342</v>
+        <v>16344</v>
       </c>
       <c r="G88" t="n">
         <v>2219</v>
@@ -6743,25 +6743,25 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225705</v>
+        <v>225703</v>
       </c>
       <c r="J88" t="n">
-        <v>133627</v>
+        <v>133720</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50328</v>
+        <v>50326</v>
       </c>
       <c r="M88" t="n">
         <v>20762</v>
       </c>
       <c r="N88" t="n">
-        <v>24224</v>
+        <v>24286</v>
       </c>
       <c r="O88" t="n">
-        <v>7912</v>
+        <v>7950</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
@@ -6770,10 +6770,10 @@
         <v>3383.6</v>
       </c>
       <c r="R88" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S88" t="n">
-        <v>1376.9</v>
+        <v>1382.6</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16230</v>
+        <v>16232</v>
       </c>
       <c r="G89" t="n">
         <v>2241</v>
@@ -6817,25 +6817,25 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228402</v>
+        <v>228400</v>
       </c>
       <c r="J89" t="n">
-        <v>134700</v>
+        <v>134807</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48697</v>
+        <v>48695</v>
       </c>
       <c r="M89" t="n">
         <v>19685</v>
       </c>
       <c r="N89" t="n">
-        <v>22752</v>
+        <v>22823</v>
       </c>
       <c r="O89" t="n">
-        <v>7159</v>
+        <v>7201</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
@@ -6844,10 +6844,10 @@
         <v>3351.3</v>
       </c>
       <c r="R89" t="n">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="S89" t="n">
-        <v>1283.6</v>
+        <v>1291</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15702</v>
+        <v>15704</v>
       </c>
       <c r="G90" t="n">
         <v>2088</v>
@@ -6891,25 +6891,25 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228217</v>
+        <v>228215</v>
       </c>
       <c r="J90" t="n">
-        <v>135975</v>
+        <v>136091</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="M90" t="n">
         <v>14891</v>
       </c>
       <c r="N90" t="n">
-        <v>18997</v>
+        <v>19072</v>
       </c>
       <c r="O90" t="n">
-        <v>6490</v>
+        <v>6530</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
@@ -6918,10 +6918,10 @@
         <v>2785.7</v>
       </c>
       <c r="R90" t="n">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="S90" t="n">
-        <v>1204.9</v>
+        <v>1212.1</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>15123</v>
+        <v>15126</v>
       </c>
       <c r="G91" t="n">
         <v>2024</v>
@@ -6965,25 +6965,25 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231106</v>
+        <v>231104</v>
       </c>
       <c r="J91" t="n">
-        <v>136935</v>
+        <v>137063</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42294</v>
+        <v>42292</v>
       </c>
       <c r="M91" t="n">
         <v>14059</v>
       </c>
       <c r="N91" t="n">
-        <v>17595</v>
+        <v>17680</v>
       </c>
       <c r="O91" t="n">
-        <v>6091</v>
+        <v>6137</v>
       </c>
       <c r="P91" t="n">
         <v>2889</v>
@@ -6992,10 +6992,10 @@
         <v>2540</v>
       </c>
       <c r="R91" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="S91" t="n">
-        <v>1064.3</v>
+        <v>1071.7</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14496</v>
+        <v>14497</v>
       </c>
       <c r="G92" t="n">
         <v>1914</v>
@@ -7039,25 +7039,25 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234329</v>
+        <v>234327</v>
       </c>
       <c r="J92" t="n">
-        <v>137804</v>
+        <v>137941</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40418</v>
+        <v>40417</v>
       </c>
       <c r="M92" t="n">
         <v>13618</v>
       </c>
       <c r="N92" t="n">
-        <v>16166</v>
+        <v>16255</v>
       </c>
       <c r="O92" t="n">
-        <v>5475</v>
+        <v>5522</v>
       </c>
       <c r="P92" t="n">
         <v>3223</v>
@@ -7066,10 +7066,10 @@
         <v>2468.9</v>
       </c>
       <c r="R92" t="n">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="S92" t="n">
-        <v>994.3</v>
+        <v>1002.1</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7095,7 +7095,7 @@
         <v>1544</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D93" t="n">
         <v>9047</v>
@@ -7104,7 +7104,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15299</v>
+        <v>15301</v>
       </c>
       <c r="G93" t="n">
         <v>2240</v>
@@ -7113,37 +7113,37 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236487</v>
+        <v>236486</v>
       </c>
       <c r="J93" t="n">
-        <v>138324</v>
+        <v>138473</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36694</v>
+        <v>36695</v>
       </c>
       <c r="M93" t="n">
-        <v>13156</v>
+        <v>13157</v>
       </c>
       <c r="N93" t="n">
-        <v>15206</v>
+        <v>15304</v>
       </c>
       <c r="O93" t="n">
-        <v>5206</v>
+        <v>5263</v>
       </c>
       <c r="P93" t="n">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.7</v>
+        <v>2253.9</v>
       </c>
       <c r="R93" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="S93" t="n">
-        <v>856.4</v>
+        <v>864.9</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>15041</v>
+        <v>15043</v>
       </c>
       <c r="G94" t="n">
         <v>2246</v>
@@ -7187,37 +7187,37 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238145</v>
+        <v>238144</v>
       </c>
       <c r="J94" t="n">
-        <v>138662</v>
+        <v>138816</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36125</v>
+        <v>36126</v>
       </c>
       <c r="M94" t="n">
-        <v>12440</v>
+        <v>12441</v>
       </c>
       <c r="N94" t="n">
-        <v>14673</v>
+        <v>14774</v>
       </c>
       <c r="O94" t="n">
-        <v>5035</v>
+        <v>5096</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2116.3</v>
+        <v>2116.4</v>
       </c>
       <c r="R94" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="S94" t="n">
-        <v>792</v>
+        <v>800.9</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,7 +7252,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14942</v>
+        <v>14944</v>
       </c>
       <c r="G95" t="n">
         <v>2197</v>
@@ -7261,37 +7261,37 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239240</v>
+        <v>239239</v>
       </c>
       <c r="J95" t="n">
-        <v>138919</v>
+        <v>139085</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34297</v>
+        <v>34298</v>
       </c>
       <c r="M95" t="n">
-        <v>10838</v>
+        <v>10839</v>
       </c>
       <c r="N95" t="n">
-        <v>13204</v>
+        <v>13315</v>
       </c>
       <c r="O95" t="n">
-        <v>4219</v>
+        <v>4278</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.6</v>
+        <v>1933.7</v>
       </c>
       <c r="R95" t="n">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="S95" t="n">
-        <v>756</v>
+        <v>766.4</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7326,7 +7326,7 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14670</v>
+        <v>14672</v>
       </c>
       <c r="G96" t="n">
         <v>2099</v>
@@ -7335,37 +7335,37 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241013</v>
+        <v>241012</v>
       </c>
       <c r="J96" t="n">
-        <v>139721</v>
+        <v>139897</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32296</v>
+        <v>32297</v>
       </c>
       <c r="M96" t="n">
-        <v>12796</v>
+        <v>12797</v>
       </c>
       <c r="N96" t="n">
-        <v>12180</v>
+        <v>12291</v>
       </c>
       <c r="O96" t="n">
-        <v>3746</v>
+        <v>3806</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.6</v>
+        <v>1801.7</v>
       </c>
       <c r="R96" t="n">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="S96" t="n">
-        <v>717.3</v>
+        <v>727.1</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,7 +7400,7 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14357</v>
+        <v>14358</v>
       </c>
       <c r="G97" t="n">
         <v>2041</v>
@@ -7409,37 +7409,37 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243068</v>
+        <v>243067</v>
       </c>
       <c r="J97" t="n">
-        <v>152742</v>
+        <v>152930</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="M97" t="n">
-        <v>11962</v>
+        <v>11963</v>
       </c>
       <c r="N97" t="n">
-        <v>23257</v>
+        <v>23369</v>
       </c>
       <c r="O97" t="n">
-        <v>15807</v>
+        <v>15867</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.6</v>
+        <v>2121.7</v>
       </c>
       <c r="R97" t="n">
-        <v>13021</v>
+        <v>13033</v>
       </c>
       <c r="S97" t="n">
-        <v>2395.3</v>
+        <v>2405.6</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13809</v>
+        <v>13812</v>
       </c>
       <c r="G98" t="n">
         <v>1926</v>
@@ -7483,37 +7483,37 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246015</v>
+        <v>246014</v>
       </c>
       <c r="J98" t="n">
-        <v>153563</v>
+        <v>153754</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28968</v>
+        <v>28969</v>
       </c>
       <c r="M98" t="n">
-        <v>11686</v>
+        <v>11687</v>
       </c>
       <c r="N98" t="n">
-        <v>22719</v>
+        <v>22828</v>
       </c>
       <c r="O98" t="n">
-        <v>15759</v>
+        <v>15813</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2129.9</v>
+        <v>2130</v>
       </c>
       <c r="R98" t="n">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="S98" t="n">
-        <v>2375.4</v>
+        <v>2384.4</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7542,13 +7542,13 @@
         <v>272</v>
       </c>
       <c r="D99" t="n">
-        <v>10542</v>
+        <v>10541</v>
       </c>
       <c r="E99" t="n">
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13215</v>
+        <v>13217</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,10 +7557,10 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246390</v>
+        <v>246388</v>
       </c>
       <c r="J99" t="n">
-        <v>154257</v>
+        <v>154452</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
@@ -7569,25 +7569,25 @@
         <v>25679</v>
       </c>
       <c r="M99" t="n">
-        <v>9903</v>
+        <v>9902</v>
       </c>
       <c r="N99" t="n">
-        <v>21928</v>
+        <v>22033</v>
       </c>
       <c r="O99" t="n">
-        <v>15933</v>
+        <v>15979</v>
       </c>
       <c r="P99" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q99" t="n">
         <v>1723</v>
       </c>
       <c r="R99" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="S99" t="n">
-        <v>2350.4</v>
+        <v>2358.7</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7622,7 +7622,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12565</v>
+        <v>12567</v>
       </c>
       <c r="G100" t="n">
         <v>1782</v>
@@ -7631,10 +7631,10 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250926</v>
+        <v>250924</v>
       </c>
       <c r="J100" t="n">
-        <v>154921</v>
+        <v>155123</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
@@ -7643,25 +7643,25 @@
         <v>27595</v>
       </c>
       <c r="M100" t="n">
-        <v>12781</v>
+        <v>12780</v>
       </c>
       <c r="N100" t="n">
-        <v>21803</v>
+        <v>21913</v>
       </c>
       <c r="O100" t="n">
-        <v>16259</v>
+        <v>16307</v>
       </c>
       <c r="P100" t="n">
         <v>4536</v>
       </c>
       <c r="Q100" t="n">
-        <v>2062.7</v>
+        <v>2062.6</v>
       </c>
       <c r="R100" t="n">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S100" t="n">
-        <v>2371</v>
+        <v>2378.6</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,7 +7696,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12168</v>
+        <v>12170</v>
       </c>
       <c r="G101" t="n">
         <v>1705</v>
@@ -7705,10 +7705,10 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252744</v>
+        <v>252742</v>
       </c>
       <c r="J101" t="n">
-        <v>155216</v>
+        <v>155426</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
@@ -7717,25 +7717,25 @@
         <v>27039</v>
       </c>
       <c r="M101" t="n">
-        <v>13504</v>
+        <v>13503</v>
       </c>
       <c r="N101" t="n">
-        <v>21589</v>
+        <v>21706</v>
       </c>
       <c r="O101" t="n">
-        <v>16297</v>
+        <v>16341</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2085.6</v>
+        <v>2085.4</v>
       </c>
       <c r="R101" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="S101" t="n">
-        <v>2364.9</v>
+        <v>2372.9</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11793</v>
+        <v>11795</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,10 +7779,10 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251701</v>
+        <v>251699</v>
       </c>
       <c r="J102" t="n">
-        <v>155445</v>
+        <v>155663</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
@@ -7791,25 +7791,25 @@
         <v>23299</v>
       </c>
       <c r="M102" t="n">
-        <v>10688</v>
+        <v>10687</v>
       </c>
       <c r="N102" t="n">
-        <v>20745</v>
+        <v>20856</v>
       </c>
       <c r="O102" t="n">
-        <v>15724</v>
+        <v>15766</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
       </c>
       <c r="Q102" t="n">
-        <v>1780.1</v>
+        <v>1780</v>
       </c>
       <c r="R102" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="S102" t="n">
-        <v>2360.9</v>
+        <v>2368.3</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,7 +7844,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11700</v>
+        <v>11702</v>
       </c>
       <c r="G103" t="n">
         <v>1589</v>
@@ -7853,10 +7853,10 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255326</v>
+        <v>255324</v>
       </c>
       <c r="J103" t="n">
-        <v>156010</v>
+        <v>156236</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
@@ -7865,25 +7865,25 @@
         <v>27109</v>
       </c>
       <c r="M103" t="n">
-        <v>12258</v>
+        <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>20035</v>
+        <v>20145</v>
       </c>
       <c r="O103" t="n">
-        <v>3268</v>
+        <v>3306</v>
       </c>
       <c r="P103" t="n">
         <v>3625</v>
       </c>
       <c r="Q103" t="n">
-        <v>2044.7</v>
+        <v>2044.6</v>
       </c>
       <c r="R103" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="S103" t="n">
-        <v>2327</v>
+        <v>2334.1</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11352</v>
+        <v>11353</v>
       </c>
       <c r="G104" t="n">
         <v>1517</v>
@@ -7927,10 +7927,10 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257006</v>
+        <v>257004</v>
       </c>
       <c r="J104" t="n">
-        <v>156678</v>
+        <v>156914</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -7939,25 +7939,25 @@
         <v>25900</v>
       </c>
       <c r="M104" t="n">
-        <v>10991</v>
+        <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19743</v>
+        <v>19851</v>
       </c>
       <c r="O104" t="n">
-        <v>3115</v>
+        <v>3160</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
       </c>
       <c r="Q104" t="n">
-        <v>1991.1</v>
+        <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="S104" t="n">
-        <v>562.3</v>
+        <v>569.1</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,7 +7992,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10948</v>
+        <v>10949</v>
       </c>
       <c r="G105" t="n">
         <v>1436</v>
@@ -8001,10 +8001,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258605</v>
+        <v>258603</v>
       </c>
       <c r="J105" t="n">
-        <v>157374</v>
+        <v>157621</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -8016,22 +8016,22 @@
         <v>12215</v>
       </c>
       <c r="N105" t="n">
-        <v>19570</v>
+        <v>19680</v>
       </c>
       <c r="O105" t="n">
-        <v>3117</v>
+        <v>3169</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
       </c>
       <c r="Q105" t="n">
-        <v>1798.6</v>
+        <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="S105" t="n">
-        <v>544.4</v>
+        <v>552.4</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,7 +8066,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10525</v>
+        <v>10526</v>
       </c>
       <c r="G106" t="n">
         <v>1397</v>
@@ -8075,25 +8075,25 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203389</v>
+        <v>203387</v>
       </c>
       <c r="J106" t="n">
-        <v>185304</v>
+        <v>185565</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33098</v>
+        <v>-33099</v>
       </c>
       <c r="M106" t="n">
         <v>-47537</v>
       </c>
       <c r="N106" t="n">
-        <v>46980</v>
+        <v>47092</v>
       </c>
       <c r="O106" t="n">
-        <v>30383</v>
+        <v>30442</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6143</v>
       </c>
       <c r="R106" t="n">
-        <v>27930</v>
+        <v>27944</v>
       </c>
       <c r="S106" t="n">
-        <v>4435.3</v>
+        <v>4444.7</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8140,7 +8140,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10102</v>
+        <v>10104</v>
       </c>
       <c r="G107" t="n">
         <v>1410</v>
@@ -8149,25 +8149,25 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204685</v>
+        <v>204683</v>
       </c>
       <c r="J107" t="n">
-        <v>198725</v>
+        <v>198994</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33460</v>
+        <v>-33461</v>
       </c>
       <c r="M107" t="n">
         <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60063</v>
+        <v>60178</v>
       </c>
       <c r="O107" t="n">
-        <v>43509</v>
+        <v>43568</v>
       </c>
       <c r="P107" t="n">
         <v>1296</v>
@@ -8176,10 +8176,10 @@
         <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13421</v>
+        <v>13429</v>
       </c>
       <c r="S107" t="n">
-        <v>6257.7</v>
+        <v>6267.3</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,7 +8214,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9815</v>
+        <v>9817</v>
       </c>
       <c r="G108" t="n">
         <v>1370</v>
@@ -8223,25 +8223,25 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205298</v>
+        <v>205296</v>
       </c>
       <c r="J108" t="n">
-        <v>199045</v>
+        <v>199317</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33942</v>
+        <v>-33943</v>
       </c>
       <c r="M108" t="n">
         <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60126</v>
+        <v>60232</v>
       </c>
       <c r="O108" t="n">
-        <v>43600</v>
+        <v>43654</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
@@ -8250,10 +8250,10 @@
         <v>-6778</v>
       </c>
       <c r="R108" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S108" t="n">
-        <v>6261.3</v>
+        <v>6270.1</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9681</v>
+        <v>9685</v>
       </c>
       <c r="G109" t="n">
         <v>1333</v>
@@ -8297,25 +8297,25 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205646</v>
+        <v>205644</v>
       </c>
       <c r="J109" t="n">
-        <v>199294</v>
+        <v>199567</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35367</v>
+        <v>-35368</v>
       </c>
       <c r="M109" t="n">
         <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59573</v>
+        <v>59670</v>
       </c>
       <c r="O109" t="n">
-        <v>43284</v>
+        <v>43331</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
@@ -8324,10 +8324,10 @@
         <v>-6579.3</v>
       </c>
       <c r="R109" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S109" t="n">
-        <v>6264.1</v>
+        <v>6272</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,34 +8362,34 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9597</v>
+        <v>9600</v>
       </c>
       <c r="G110" t="n">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H110" t="n">
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179129</v>
+        <v>179127</v>
       </c>
       <c r="J110" t="n">
-        <v>224611</v>
+        <v>224895</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63939</v>
+        <v>-63940</v>
       </c>
       <c r="M110" t="n">
         <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71869</v>
+        <v>71965</v>
       </c>
       <c r="O110" t="n">
-        <v>67933</v>
+        <v>67981</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
@@ -8398,10 +8398,10 @@
         <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25317</v>
+        <v>25328</v>
       </c>
       <c r="S110" t="n">
-        <v>9800.1</v>
+        <v>9808.4</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8436,34 +8436,34 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9307</v>
+        <v>9310</v>
       </c>
       <c r="G111" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H111" t="n">
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175033</v>
+        <v>175031</v>
       </c>
       <c r="J111" t="n">
-        <v>230868</v>
+        <v>231158</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70982</v>
+        <v>-70983</v>
       </c>
       <c r="M111" t="n">
         <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77305</v>
+        <v>77404</v>
       </c>
       <c r="O111" t="n">
-        <v>73494</v>
+        <v>73537</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
@@ -8472,10 +8472,10 @@
         <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6257</v>
+        <v>6263</v>
       </c>
       <c r="S111" t="n">
-        <v>10598.6</v>
+        <v>10606.3</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8510,19 +8510,19 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8994</v>
+        <v>8998</v>
       </c>
       <c r="G112" t="n">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H112" t="n">
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175595</v>
+        <v>175593</v>
       </c>
       <c r="J112" t="n">
-        <v>231633</v>
+        <v>231943</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
@@ -8534,10 +8534,10 @@
         <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77376</v>
+        <v>77491</v>
       </c>
       <c r="O112" t="n">
-        <v>46329</v>
+        <v>46378</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
@@ -8546,10 +8546,10 @@
         <v>-11858.6</v>
       </c>
       <c r="R112" t="n">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="S112" t="n">
-        <v>10608.4</v>
+        <v>10617.4</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8584,7 +8584,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8651</v>
+        <v>8654</v>
       </c>
       <c r="G113" t="n">
         <v>780</v>
@@ -8593,10 +8593,10 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83767</v>
+        <v>83765</v>
       </c>
       <c r="J113" t="n">
-        <v>232497</v>
+        <v>232813</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
@@ -8608,10 +8608,10 @@
         <v>-120918</v>
       </c>
       <c r="N113" t="n">
-        <v>77576</v>
+        <v>77690</v>
       </c>
       <c r="O113" t="n">
-        <v>33772</v>
+        <v>33819</v>
       </c>
       <c r="P113" t="n">
         <v>-91828</v>
@@ -8620,10 +8620,10 @@
         <v>-17088.9</v>
       </c>
       <c r="R113" t="n">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="S113" t="n">
-        <v>6741.9</v>
+        <v>6749.7</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8658,7 +8658,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8341</v>
+        <v>8344</v>
       </c>
       <c r="G114" t="n">
         <v>710</v>
@@ -8667,10 +8667,10 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84254</v>
+        <v>84252</v>
       </c>
       <c r="J114" t="n">
-        <v>233357</v>
+        <v>233681</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -8682,10 +8682,10 @@
         <v>-121044</v>
       </c>
       <c r="N114" t="n">
-        <v>78141</v>
+        <v>78255</v>
       </c>
       <c r="O114" t="n">
-        <v>34312</v>
+        <v>34364</v>
       </c>
       <c r="P114" t="n">
         <v>487</v>
@@ -8694,10 +8694,10 @@
         <v>-17204.4</v>
       </c>
       <c r="R114" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="S114" t="n">
-        <v>4947.4</v>
+        <v>4955.3</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8103</v>
+        <v>8106</v>
       </c>
       <c r="G115" t="n">
         <v>719</v>
@@ -8741,10 +8741,10 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84468</v>
+        <v>84466</v>
       </c>
       <c r="J115" t="n">
-        <v>233689</v>
+        <v>234016</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -8756,10 +8756,10 @@
         <v>-121178</v>
       </c>
       <c r="N115" t="n">
-        <v>78244</v>
+        <v>78353</v>
       </c>
       <c r="O115" t="n">
-        <v>34395</v>
+        <v>34449</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8768,10 +8768,10 @@
         <v>-17261.4</v>
       </c>
       <c r="R115" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="S115" t="n">
-        <v>4949.1</v>
+        <v>4957</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7995</v>
+        <v>7998</v>
       </c>
       <c r="G116" t="n">
         <v>692</v>
@@ -8815,10 +8815,10 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84628</v>
+        <v>84626</v>
       </c>
       <c r="J116" t="n">
-        <v>233977</v>
+        <v>234307</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
@@ -8830,10 +8830,10 @@
         <v>-94501</v>
       </c>
       <c r="N116" t="n">
-        <v>77967</v>
+        <v>78071</v>
       </c>
       <c r="O116" t="n">
-        <v>9366</v>
+        <v>9412</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
@@ -8842,10 +8842,10 @@
         <v>-17288.3</v>
       </c>
       <c r="R116" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S116" t="n">
-        <v>4954.7</v>
+        <v>4962.9</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8871,7 +8871,7 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D117" t="n">
         <v>22</v>
@@ -8880,7 +8880,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7932</v>
+        <v>7934</v>
       </c>
       <c r="G117" t="n">
         <v>671</v>
@@ -8889,37 +8889,37 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84974</v>
+        <v>84971</v>
       </c>
       <c r="J117" t="n">
-        <v>234507</v>
+        <v>234848</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172032</v>
+        <v>-172033</v>
       </c>
       <c r="M117" t="n">
-        <v>-90059</v>
+        <v>-90060</v>
       </c>
       <c r="N117" t="n">
-        <v>77829</v>
+        <v>77934</v>
       </c>
       <c r="O117" t="n">
-        <v>3639</v>
+        <v>3690</v>
       </c>
       <c r="P117" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13450.7</v>
+        <v>-13450.9</v>
       </c>
       <c r="R117" t="n">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="S117" t="n">
-        <v>1413.7</v>
+        <v>1421.9</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7786</v>
+        <v>7789</v>
       </c>
       <c r="G118" t="n">
         <v>656</v>
@@ -8963,37 +8963,37 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85353</v>
+        <v>85350</v>
       </c>
       <c r="J118" t="n">
-        <v>235194</v>
+        <v>235544</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173252</v>
+        <v>-173253</v>
       </c>
       <c r="M118" t="n">
-        <v>-90242</v>
+        <v>-90243</v>
       </c>
       <c r="N118" t="n">
-        <v>77820</v>
+        <v>77923</v>
       </c>
       <c r="O118" t="n">
-        <v>3561</v>
+        <v>3601</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.4</v>
+        <v>-12811.6</v>
       </c>
       <c r="R118" t="n">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="S118" t="n">
-        <v>618</v>
+        <v>626.6</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9019,7 +9019,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="G119" t="n">
         <v>606</v>
@@ -9037,10 +9037,10 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85744</v>
+        <v>85742</v>
       </c>
       <c r="J119" t="n">
-        <v>235948</v>
+        <v>236321</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -9052,22 +9052,22 @@
         <v>1977</v>
       </c>
       <c r="N119" t="n">
-        <v>50644</v>
+        <v>50756</v>
       </c>
       <c r="O119" t="n">
-        <v>3451</v>
+        <v>3508</v>
       </c>
       <c r="P119" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q119" t="n">
         <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="S119" t="n">
-        <v>616.4</v>
+        <v>625.4</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3097</v>
+        <v>3101</v>
       </c>
       <c r="G120" t="n">
         <v>541</v>
@@ -9111,10 +9111,10 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83960</v>
+        <v>83958</v>
       </c>
       <c r="J120" t="n">
-        <v>236630</v>
+        <v>237011</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,10 +9126,10 @@
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>37905</v>
+        <v>38017</v>
       </c>
       <c r="O120" t="n">
-        <v>3273</v>
+        <v>3330</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9138,10 +9138,10 @@
         <v>27.6</v>
       </c>
       <c r="R120" t="n">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="S120" t="n">
-        <v>590.4</v>
+        <v>599.7</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="G121" t="n">
         <v>536</v>
@@ -9185,10 +9185,10 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86343</v>
+        <v>86341</v>
       </c>
       <c r="J121" t="n">
-        <v>237340</v>
+        <v>237730</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38295</v>
+        <v>38413</v>
       </c>
       <c r="O121" t="n">
-        <v>3651</v>
+        <v>3714</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9212,10 +9212,10 @@
         <v>298.4</v>
       </c>
       <c r="R121" t="n">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="S121" t="n">
-        <v>569</v>
+        <v>578.4</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9241,7 +9241,7 @@
         <v>73</v>
       </c>
       <c r="C122" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D122" t="n">
         <v>5</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="G122" t="n">
         <v>515</v>
@@ -9259,37 +9259,37 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86485</v>
+        <v>86482</v>
       </c>
       <c r="J122" t="n">
-        <v>237697</v>
+        <v>238091</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119161</v>
+        <v>-119162</v>
       </c>
       <c r="M122" t="n">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="N122" t="n">
-        <v>38403</v>
+        <v>38524</v>
       </c>
       <c r="O122" t="n">
-        <v>3720</v>
+        <v>3784</v>
       </c>
       <c r="P122" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q122" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="R122" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="S122" t="n">
-        <v>572.6</v>
+        <v>582.1</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="G123" t="n">
         <v>521</v>
@@ -9333,37 +9333,37 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86532</v>
+        <v>86529</v>
       </c>
       <c r="J123" t="n">
-        <v>237967</v>
+        <v>238364</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92597</v>
+        <v>-92598</v>
       </c>
       <c r="M123" t="n">
         <v>1558</v>
       </c>
       <c r="N123" t="n">
-        <v>13356</v>
+        <v>13469</v>
       </c>
       <c r="O123" t="n">
-        <v>3460</v>
+        <v>3516</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
       </c>
       <c r="Q123" t="n">
-        <v>272</v>
+        <v>271.9</v>
       </c>
       <c r="R123" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S123" t="n">
-        <v>570</v>
+        <v>579.6</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="G124" t="n">
         <v>515</v>
@@ -9407,25 +9407,25 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86609</v>
+        <v>86606</v>
       </c>
       <c r="J124" t="n">
-        <v>238326</v>
+        <v>238735</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88424</v>
+        <v>-88425</v>
       </c>
       <c r="M124" t="n">
         <v>1256</v>
       </c>
       <c r="N124" t="n">
-        <v>7458</v>
+        <v>7577</v>
       </c>
       <c r="O124" t="n">
-        <v>3132</v>
+        <v>3191</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>233.6</v>
       </c>
       <c r="R124" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="S124" t="n">
-        <v>545.6</v>
+        <v>555.3</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="G125" t="n">
         <v>480</v>
@@ -9481,25 +9481,25 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84785</v>
+        <v>84782</v>
       </c>
       <c r="J125" t="n">
-        <v>238920</v>
+        <v>239344</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90810</v>
+        <v>-90811</v>
       </c>
       <c r="M125" t="n">
-        <v>-959</v>
+        <v>-960</v>
       </c>
       <c r="N125" t="n">
-        <v>7287</v>
+        <v>7401</v>
       </c>
       <c r="O125" t="n">
-        <v>2972</v>
+        <v>3023</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
@@ -9508,10 +9508,10 @@
         <v>-81.1</v>
       </c>
       <c r="R125" t="n">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="S125" t="n">
-        <v>532.3</v>
+        <v>542.9</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="G126" t="n">
         <v>451</v>
@@ -9555,37 +9555,37 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87116</v>
+        <v>87113</v>
       </c>
       <c r="J126" t="n">
-        <v>239553</v>
+        <v>239991</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="M126" t="n">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="N126" t="n">
-        <v>7056</v>
+        <v>7178</v>
       </c>
       <c r="O126" t="n">
-        <v>2923</v>
+        <v>2980</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
       </c>
       <c r="Q126" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="R126" t="n">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="S126" t="n">
-        <v>515</v>
+        <v>524.3</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="G127" t="n">
         <v>427</v>
@@ -9629,37 +9629,37 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94588</v>
+        <v>94585</v>
       </c>
       <c r="J127" t="n">
-        <v>240111</v>
+        <v>240557</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10334</v>
+        <v>10333</v>
       </c>
       <c r="M127" t="n">
-        <v>8245</v>
+        <v>8244</v>
       </c>
       <c r="N127" t="n">
-        <v>6754</v>
+        <v>6876</v>
       </c>
       <c r="O127" t="n">
-        <v>2771</v>
+        <v>2827</v>
       </c>
       <c r="P127" t="n">
         <v>7472</v>
       </c>
       <c r="Q127" t="n">
-        <v>1518.3</v>
+        <v>1518.1</v>
       </c>
       <c r="R127" t="n">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="S127" t="n">
-        <v>497.3</v>
+        <v>506.6</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="G128" t="n">
         <v>404</v>
@@ -9703,37 +9703,37 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97100</v>
+        <v>97097</v>
       </c>
       <c r="J128" t="n">
-        <v>242816</v>
+        <v>243280</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12632</v>
+        <v>12631</v>
       </c>
       <c r="M128" t="n">
         <v>10615</v>
       </c>
       <c r="N128" t="n">
-        <v>9127</v>
+        <v>9264</v>
       </c>
       <c r="O128" t="n">
-        <v>5119</v>
+        <v>5189</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
       </c>
       <c r="Q128" t="n">
-        <v>1536.7</v>
+        <v>1536.6</v>
       </c>
       <c r="R128" t="n">
-        <v>2705</v>
+        <v>2723</v>
       </c>
       <c r="S128" t="n">
-        <v>782.3</v>
+        <v>792.9</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="G129" t="n">
         <v>405</v>
@@ -9777,25 +9777,25 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97092</v>
+        <v>97089</v>
       </c>
       <c r="J129" t="n">
-        <v>243164</v>
+        <v>243631</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12464</v>
+        <v>12463</v>
       </c>
       <c r="M129" t="n">
         <v>10560</v>
       </c>
       <c r="N129" t="n">
-        <v>9187</v>
+        <v>9324</v>
       </c>
       <c r="O129" t="n">
-        <v>5197</v>
+        <v>5267</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
@@ -9804,10 +9804,10 @@
         <v>1515.3</v>
       </c>
       <c r="R129" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S129" t="n">
-        <v>781</v>
+        <v>791.4</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="G130" t="n">
         <v>403</v>
@@ -9851,10 +9851,10 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97249</v>
+        <v>97246</v>
       </c>
       <c r="J130" t="n">
-        <v>243760</v>
+        <v>244227</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -9866,10 +9866,10 @@
         <v>10640</v>
       </c>
       <c r="N130" t="n">
-        <v>9253</v>
+        <v>9379</v>
       </c>
       <c r="O130" t="n">
-        <v>5434</v>
+        <v>5492</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
@@ -9881,7 +9881,7 @@
         <v>596</v>
       </c>
       <c r="S130" t="n">
-        <v>827.6</v>
+        <v>837.6</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="G131" t="n">
         <v>394</v>
@@ -9925,10 +9925,10 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97394</v>
+        <v>97391</v>
       </c>
       <c r="J131" t="n">
-        <v>244084</v>
+        <v>244553</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
@@ -9940,10 +9940,10 @@
         <v>12609</v>
       </c>
       <c r="N131" t="n">
-        <v>8890</v>
+        <v>9009</v>
       </c>
       <c r="O131" t="n">
-        <v>5164</v>
+        <v>5209</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
@@ -9952,10 +9952,10 @@
         <v>1540.7</v>
       </c>
       <c r="R131" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="S131" t="n">
-        <v>822.6</v>
+        <v>831.1</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="G132" t="n">
         <v>375</v>
@@ -9999,25 +9999,25 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97567</v>
+        <v>97564</v>
       </c>
       <c r="J132" t="n">
-        <v>244505</v>
+        <v>244985</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11823</v>
+        <v>11822</v>
       </c>
       <c r="M132" t="n">
         <v>10451</v>
       </c>
       <c r="N132" t="n">
-        <v>8557</v>
+        <v>8664</v>
       </c>
       <c r="O132" t="n">
-        <v>4952</v>
+        <v>4994</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
@@ -10026,10 +10026,10 @@
         <v>1826</v>
       </c>
       <c r="R132" t="n">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="S132" t="n">
-        <v>797.9</v>
+        <v>805.9</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,7 +10064,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="G133" t="n">
         <v>337</v>
@@ -10073,25 +10073,25 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97775</v>
+        <v>97772</v>
       </c>
       <c r="J133" t="n">
-        <v>244950</v>
+        <v>245437</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13815</v>
+        <v>13814</v>
       </c>
       <c r="M133" t="n">
         <v>3187</v>
       </c>
       <c r="N133" t="n">
-        <v>8320</v>
+        <v>8426</v>
       </c>
       <c r="O133" t="n">
-        <v>4839</v>
+        <v>4880</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
@@ -10100,10 +10100,10 @@
         <v>1522.7</v>
       </c>
       <c r="R133" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="S133" t="n">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,7 +10138,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G134" t="n">
         <v>336</v>
@@ -10147,25 +10147,25 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97928</v>
+        <v>97925</v>
       </c>
       <c r="J134" t="n">
-        <v>245381</v>
+        <v>245877</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11585</v>
+        <v>11584</v>
       </c>
       <c r="M134" t="n">
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>8041</v>
+        <v>8147</v>
       </c>
       <c r="O134" t="n">
-        <v>2565</v>
+        <v>2597</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
@@ -10174,10 +10174,10 @@
         <v>477.1</v>
       </c>
       <c r="R134" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="S134" t="n">
-        <v>752.9</v>
+        <v>760</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G135" t="n">
         <v>324</v>
@@ -10221,10 +10221,10 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98136</v>
+        <v>98133</v>
       </c>
       <c r="J135" t="n">
-        <v>245865</v>
+        <v>246367</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -10236,10 +10236,10 @@
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8168</v>
+        <v>8276</v>
       </c>
       <c r="O135" t="n">
-        <v>2701</v>
+        <v>2736</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="S135" t="n">
-        <v>435.6</v>
+        <v>441</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,7 +10286,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G136" t="n">
         <v>295</v>
@@ -10295,10 +10295,10 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98193</v>
+        <v>98190</v>
       </c>
       <c r="J136" t="n">
-        <v>246000</v>
+        <v>246503</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -10310,10 +10310,10 @@
         <v>944</v>
       </c>
       <c r="N136" t="n">
-        <v>8033</v>
+        <v>8139</v>
       </c>
       <c r="O136" t="n">
-        <v>2240</v>
+        <v>2276</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
@@ -10322,10 +10322,10 @@
         <v>157.3</v>
       </c>
       <c r="R136" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S136" t="n">
-        <v>405.1</v>
+        <v>410.3</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,7 +10360,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G137" t="n">
         <v>288</v>
@@ -10369,10 +10369,10 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98229</v>
+        <v>98226</v>
       </c>
       <c r="J137" t="n">
-        <v>246102</v>
+        <v>246605</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -10384,10 +10384,10 @@
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7776</v>
+        <v>7870</v>
       </c>
       <c r="O137" t="n">
-        <v>2018</v>
+        <v>2052</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
@@ -10399,7 +10399,7 @@
         <v>102</v>
       </c>
       <c r="S137" t="n">
-        <v>334.6</v>
+        <v>339.7</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,7 +10434,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G138" t="n">
         <v>301</v>
@@ -10443,10 +10443,10 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98341</v>
+        <v>98338</v>
       </c>
       <c r="J138" t="n">
-        <v>246453</v>
+        <v>246966</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10458,10 +10458,10 @@
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7533</v>
+        <v>7622</v>
       </c>
       <c r="O138" t="n">
-        <v>1948</v>
+        <v>1981</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="S138" t="n">
-        <v>338.4</v>
+        <v>344.7</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G139" t="n">
         <v>290</v>
@@ -10517,10 +10517,10 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98518</v>
+        <v>98515</v>
       </c>
       <c r="J139" t="n">
-        <v>244638</v>
+        <v>245167</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10532,10 +10532,10 @@
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5085</v>
+        <v>5176</v>
       </c>
       <c r="O139" t="n">
-        <v>-312</v>
+        <v>-270</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1815</v>
+        <v>-1799</v>
       </c>
       <c r="S139" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G140" t="n">
         <v>279</v>
@@ -10591,10 +10591,10 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98658</v>
+        <v>98655</v>
       </c>
       <c r="J140" t="n">
-        <v>244992</v>
+        <v>245529</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10606,10 +10606,10 @@
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4881</v>
+        <v>4972</v>
       </c>
       <c r="O140" t="n">
-        <v>-389</v>
+        <v>-348</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="S140" t="n">
-        <v>6</v>
+        <v>13.1</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10650,13 +10650,13 @@
         <v>205</v>
       </c>
       <c r="D141" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E141" t="n">
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G141" t="n">
         <v>264</v>
@@ -10665,37 +10665,37 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98871</v>
+        <v>98867</v>
       </c>
       <c r="J141" t="n">
-        <v>245509</v>
+        <v>246057</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
       </c>
       <c r="L141" t="n">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="M141" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N141" t="n">
-        <v>2693</v>
+        <v>2777</v>
       </c>
       <c r="O141" t="n">
-        <v>-356</v>
+        <v>-310</v>
       </c>
       <c r="P141" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q141" t="n">
-        <v>134.7</v>
+        <v>134.6</v>
       </c>
       <c r="R141" t="n">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="S141" t="n">
-        <v>18.3</v>
+        <v>25.7</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,7 +10730,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G142" t="n">
         <v>241</v>
@@ -10739,37 +10739,37 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99057</v>
+        <v>99053</v>
       </c>
       <c r="J142" t="n">
-        <v>245904</v>
+        <v>246458</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
       </c>
       <c r="L142" t="n">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="M142" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N142" t="n">
-        <v>2740</v>
+        <v>2827</v>
       </c>
       <c r="O142" t="n">
-        <v>-96</v>
+        <v>-45</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
       </c>
       <c r="Q142" t="n">
-        <v>131.6</v>
+        <v>131.4</v>
       </c>
       <c r="R142" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="S142" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,7 +10804,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G143" t="n">
         <v>229</v>
@@ -10813,37 +10813,37 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99140</v>
+        <v>99136</v>
       </c>
       <c r="J143" t="n">
-        <v>246135</v>
+        <v>246694</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
       </c>
       <c r="L143" t="n">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M143" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N143" t="n">
-        <v>2375</v>
+        <v>2467</v>
       </c>
       <c r="O143" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
       </c>
       <c r="Q143" t="n">
-        <v>135.3</v>
+        <v>135.1</v>
       </c>
       <c r="R143" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S143" t="n">
-        <v>19.3</v>
+        <v>27.3</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,7 +10878,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G144" t="n">
         <v>234</v>
@@ -10887,37 +10887,37 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99196</v>
+        <v>99192</v>
       </c>
       <c r="J144" t="n">
-        <v>246331</v>
+        <v>246893</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
       </c>
       <c r="L144" t="n">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="M144" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N144" t="n">
-        <v>2247</v>
+        <v>2340</v>
       </c>
       <c r="O144" t="n">
-        <v>-122</v>
+        <v>-73</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
       </c>
       <c r="Q144" t="n">
-        <v>138.1</v>
+        <v>138</v>
       </c>
       <c r="R144" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S144" t="n">
-        <v>32.7</v>
+        <v>41.1</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G145" t="n">
         <v>217</v>
@@ -10961,37 +10961,37 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99319</v>
+        <v>99315</v>
       </c>
       <c r="J145" t="n">
-        <v>246577</v>
+        <v>247144</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
       </c>
       <c r="L145" t="n">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="M145" t="n">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>2072</v>
+        <v>2159</v>
       </c>
       <c r="O145" t="n">
-        <v>1939</v>
+        <v>1977</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
       </c>
       <c r="Q145" t="n">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
       <c r="R145" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="S145" t="n">
-        <v>17.7</v>
+        <v>25.4</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,7 +11026,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="G146" t="n">
         <v>207</v>
@@ -11035,37 +11035,37 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99388</v>
+        <v>99384</v>
       </c>
       <c r="J146" t="n">
-        <v>246954</v>
+        <v>247535</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
       </c>
       <c r="L146" t="n">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="M146" t="n">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N146" t="n">
-        <v>2004</v>
+        <v>2098</v>
       </c>
       <c r="O146" t="n">
-        <v>1962</v>
+        <v>2006</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
       </c>
       <c r="Q146" t="n">
-        <v>124.3</v>
+        <v>124.1</v>
       </c>
       <c r="R146" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="S146" t="n">
-        <v>330.9</v>
+        <v>338.3</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11100,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="G147" t="n">
         <v>207</v>
@@ -11109,37 +11109,37 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97311</v>
+        <v>97307</v>
       </c>
       <c r="J147" t="n">
-        <v>247296</v>
+        <v>247885</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
       </c>
       <c r="L147" t="n">
-        <v>-617</v>
+        <v>-618</v>
       </c>
       <c r="M147" t="n">
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>1915</v>
+        <v>2008</v>
       </c>
       <c r="O147" t="n">
-        <v>1787</v>
+        <v>1828</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
       </c>
       <c r="Q147" t="n">
-        <v>-192.4</v>
+        <v>-192.6</v>
       </c>
       <c r="R147" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="S147" t="n">
-        <v>329.1</v>
+        <v>336.6</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11171,10 +11171,10 @@
         <v>22</v>
       </c>
       <c r="E148" t="n">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="F148" t="n">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G148" t="n">
         <v>210</v>
@@ -11183,37 +11183,37 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>99764</v>
+        <v>105808</v>
       </c>
       <c r="J148" t="n">
-        <v>247696</v>
+        <v>248293</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
       </c>
       <c r="L148" t="n">
-        <v>1628</v>
+        <v>7675</v>
       </c>
       <c r="M148" t="n">
-        <v>707</v>
+        <v>6755</v>
       </c>
       <c r="N148" t="n">
-        <v>1831</v>
+        <v>1926</v>
       </c>
       <c r="O148" t="n">
-        <v>1792</v>
+        <v>1835</v>
       </c>
       <c r="P148" t="n">
-        <v>2453</v>
+        <v>8501</v>
       </c>
       <c r="Q148" t="n">
-        <v>127.6</v>
+        <v>991.6</v>
       </c>
       <c r="R148" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="S148" t="n">
-        <v>312.4</v>
+        <v>319.4</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11257,37 +11257,37 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>100052</v>
+        <v>106183</v>
       </c>
       <c r="J149" t="n">
-        <v>248261</v>
+        <v>248854</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
       </c>
       <c r="L149" t="n">
-        <v>1859</v>
+        <v>7993</v>
       </c>
       <c r="M149" t="n">
-        <v>912</v>
+        <v>7047</v>
       </c>
       <c r="N149" t="n">
-        <v>2261</v>
+        <v>2351</v>
       </c>
       <c r="O149" t="n">
-        <v>2126</v>
+        <v>2160</v>
       </c>
       <c r="P149" t="n">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="Q149" t="n">
-        <v>142.1</v>
+        <v>1018.6</v>
       </c>
       <c r="R149" t="n">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="S149" t="n">
-        <v>336.7</v>
+        <v>342.3</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11331,37 +11331,37 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>97882</v>
+        <v>104044</v>
       </c>
       <c r="J150" t="n">
-        <v>248522</v>
+        <v>249118</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
       </c>
       <c r="L150" t="n">
-        <v>-347</v>
+        <v>5818</v>
       </c>
       <c r="M150" t="n">
-        <v>-1314</v>
+        <v>4852</v>
       </c>
       <c r="N150" t="n">
-        <v>2420</v>
+        <v>2513</v>
       </c>
       <c r="O150" t="n">
-        <v>2191</v>
+        <v>2225</v>
       </c>
       <c r="P150" t="n">
-        <v>-2170</v>
+        <v>-2139</v>
       </c>
       <c r="Q150" t="n">
-        <v>-179.7</v>
+        <v>701.1</v>
       </c>
       <c r="R150" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S150" t="n">
-        <v>341</v>
+        <v>346.3</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11405,37 +11405,37 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>97977</v>
+        <v>104187</v>
       </c>
       <c r="J151" t="n">
-        <v>248719</v>
+        <v>249315</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
       </c>
       <c r="L151" t="n">
-        <v>-364</v>
+        <v>5849</v>
       </c>
       <c r="M151" t="n">
-        <v>-1342</v>
+        <v>4872</v>
       </c>
       <c r="N151" t="n">
-        <v>2266</v>
+        <v>2349</v>
       </c>
       <c r="O151" t="n">
-        <v>2142</v>
+        <v>2171</v>
       </c>
       <c r="P151" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="Q151" t="n">
-        <v>-174.1</v>
+        <v>713.6</v>
       </c>
       <c r="R151" t="n">
         <v>197</v>
       </c>
       <c r="S151" t="n">
-        <v>341.1</v>
+        <v>346</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11479,37 +11479,37 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>100470</v>
+        <v>106695</v>
       </c>
       <c r="J152" t="n">
-        <v>248973</v>
+        <v>249573</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
       </c>
       <c r="L152" t="n">
-        <v>1952</v>
+        <v>8180</v>
       </c>
       <c r="M152" t="n">
-        <v>1082</v>
+        <v>7311</v>
       </c>
       <c r="N152" t="n">
-        <v>4335</v>
+        <v>4406</v>
       </c>
       <c r="O152" t="n">
-        <v>2019</v>
+        <v>2038</v>
       </c>
       <c r="P152" t="n">
-        <v>2493</v>
+        <v>2508</v>
       </c>
       <c r="Q152" t="n">
-        <v>164.4</v>
+        <v>1054.3</v>
       </c>
       <c r="R152" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="S152" t="n">
-        <v>342.3</v>
+        <v>347</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11553,37 +11553,37 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>100776</v>
+        <v>107013</v>
       </c>
       <c r="J153" t="n">
-        <v>249415</v>
+        <v>250024</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
       </c>
       <c r="L153" t="n">
-        <v>2118</v>
+        <v>8358</v>
       </c>
       <c r="M153" t="n">
-        <v>3465</v>
+        <v>9706</v>
       </c>
       <c r="N153" t="n">
-        <v>4423</v>
+        <v>4495</v>
       </c>
       <c r="O153" t="n">
-        <v>2119</v>
+        <v>2139</v>
       </c>
       <c r="P153" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q153" t="n">
-        <v>198.3</v>
+        <v>1089.9</v>
       </c>
       <c r="R153" t="n">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="S153" t="n">
-        <v>351.6</v>
+        <v>355.6</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11609,7 +11609,7 @@
         <v>27</v>
       </c>
       <c r="C154" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D154" t="n">
         <v>115</v>
@@ -11618,7 +11618,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G154" t="n">
         <v>175</v>
@@ -11627,37 +11627,37 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>101174</v>
+        <v>107433</v>
       </c>
       <c r="J154" t="n">
-        <v>249845</v>
+        <v>250461</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
       </c>
       <c r="L154" t="n">
-        <v>2303</v>
+        <v>8566</v>
       </c>
       <c r="M154" t="n">
-        <v>1410</v>
+        <v>1625</v>
       </c>
       <c r="N154" t="n">
-        <v>4336</v>
+        <v>4404</v>
       </c>
       <c r="O154" t="n">
-        <v>2149</v>
+        <v>2168</v>
       </c>
       <c r="P154" t="n">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="Q154" t="n">
-        <v>551.9</v>
+        <v>1446.6</v>
       </c>
       <c r="R154" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="S154" t="n">
-        <v>364.1</v>
+        <v>368</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11683,16 +11683,16 @@
         <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D155" t="n">
         <v>115</v>
       </c>
       <c r="E155" t="n">
-        <v>205</v>
+        <v>991</v>
       </c>
       <c r="F155" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G155" t="n">
         <v>163</v>
@@ -11701,37 +11701,37 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>101575</v>
+        <v>107853</v>
       </c>
       <c r="J155" t="n">
-        <v>250320</v>
+        <v>250937</v>
       </c>
       <c r="K155" t="n">
-        <v>65782</v>
+        <v>65793</v>
       </c>
       <c r="L155" t="n">
-        <v>2518</v>
+        <v>8800</v>
       </c>
       <c r="M155" t="n">
-        <v>1523</v>
+        <v>1670</v>
       </c>
       <c r="N155" t="n">
-        <v>4416</v>
+        <v>4479</v>
       </c>
       <c r="O155" t="n">
-        <v>2059</v>
+        <v>2083</v>
       </c>
       <c r="P155" t="n">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Q155" t="n">
-        <v>258.7</v>
+        <v>292.1</v>
       </c>
       <c r="R155" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S155" t="n">
-        <v>374.9</v>
+        <v>377.7</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11775,10 +11775,10 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102023</v>
+        <v>102019</v>
       </c>
       <c r="J156" t="n">
-        <v>250846</v>
+        <v>251509</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11787,25 +11787,25 @@
         <v>2883</v>
       </c>
       <c r="M156" t="n">
-        <v>4141</v>
+        <v>-2025</v>
       </c>
       <c r="N156" t="n">
-        <v>4711</v>
+        <v>4815</v>
       </c>
       <c r="O156" t="n">
-        <v>2324</v>
+        <v>2391</v>
       </c>
       <c r="P156" t="n">
-        <v>448</v>
+        <v>-5834</v>
       </c>
       <c r="Q156" t="n">
-        <v>281.6</v>
+        <v>-594.9</v>
       </c>
       <c r="R156" t="n">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="S156" t="n">
-        <v>369.3</v>
+        <v>379.3</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11840,7 +11840,7 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G157" t="n">
         <v>74</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99853</v>
+        <v>99849</v>
       </c>
       <c r="J157" t="n">
-        <v>251059</v>
+        <v>251724</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11861,25 +11861,25 @@
         <v>657</v>
       </c>
       <c r="M157" t="n">
-        <v>1876</v>
+        <v>-4338</v>
       </c>
       <c r="N157" t="n">
-        <v>4728</v>
+        <v>4831</v>
       </c>
       <c r="O157" t="n">
-        <v>2340</v>
+        <v>2409</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
       </c>
       <c r="Q157" t="n">
-        <v>281.6</v>
+        <v>-599.3</v>
       </c>
       <c r="R157" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S157" t="n">
-        <v>362.4</v>
+        <v>372.3</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11905,70 +11905,70 @@
         <v>4</v>
       </c>
       <c r="C158" t="n">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>63</v>
+        <v>882</v>
       </c>
       <c r="F158" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G158" t="n">
         <v>63</v>
       </c>
       <c r="H158" t="n">
-        <v>33772</v>
+        <v>33775</v>
       </c>
       <c r="I158" t="n">
-        <v>100034</v>
+        <v>106381</v>
       </c>
       <c r="J158" t="n">
-        <v>251218</v>
+        <v>251923</v>
       </c>
       <c r="K158" t="n">
-        <v>35407</v>
+        <v>40019</v>
       </c>
       <c r="L158" t="n">
-        <v>715</v>
+        <v>7066</v>
       </c>
       <c r="M158" t="n">
-        <v>-436</v>
+        <v>-314</v>
       </c>
       <c r="N158" t="n">
-        <v>4641</v>
+        <v>4779</v>
       </c>
       <c r="O158" t="n">
-        <v>2245</v>
+        <v>2350</v>
       </c>
       <c r="P158" t="n">
-        <v>181</v>
+        <v>6532</v>
       </c>
       <c r="Q158" t="n">
-        <v>293.9</v>
+        <v>313.4</v>
       </c>
       <c r="R158" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="S158" t="n">
-        <v>357</v>
+        <v>372.6</v>
       </c>
       <c r="T158" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
       </c>
       <c r="V158" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="W158" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="X158" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159">
@@ -11979,55 +11979,55 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D159" t="n">
         <v>118</v>
       </c>
       <c r="E159" t="n">
-        <v>205</v>
+        <v>1036</v>
       </c>
       <c r="F159" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G159" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H159" t="n">
-        <v>33782</v>
+        <v>33785</v>
       </c>
       <c r="I159" t="n">
-        <v>102673</v>
+        <v>109046</v>
       </c>
       <c r="J159" t="n">
-        <v>251544</v>
+        <v>252282</v>
       </c>
       <c r="K159" t="n">
-        <v>61621</v>
+        <v>66247</v>
       </c>
       <c r="L159" t="n">
-        <v>3285</v>
+        <v>9662</v>
       </c>
       <c r="M159" t="n">
-        <v>1897</v>
+        <v>2033</v>
       </c>
       <c r="N159" t="n">
-        <v>4590</v>
+        <v>4747</v>
       </c>
       <c r="O159" t="n">
-        <v>2129</v>
+        <v>2258</v>
       </c>
       <c r="P159" t="n">
-        <v>2639</v>
+        <v>2665</v>
       </c>
       <c r="Q159" t="n">
-        <v>314.7</v>
+        <v>335.9</v>
       </c>
       <c r="R159" t="n">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="S159" t="n">
-        <v>367.3</v>
+        <v>387</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12036,13 +12036,13 @@
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W159" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="X159" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160">
@@ -12053,70 +12053,70 @@
         <v>28</v>
       </c>
       <c r="C160" t="n">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D160" t="n">
         <v>147</v>
       </c>
       <c r="E160" t="n">
-        <v>200</v>
+        <v>1056</v>
       </c>
       <c r="F160" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G160" t="n">
         <v>146</v>
       </c>
       <c r="H160" t="n">
-        <v>33798</v>
+        <v>33802</v>
       </c>
       <c r="I160" t="n">
-        <v>103233</v>
+        <v>109661</v>
       </c>
       <c r="J160" t="n">
-        <v>252168</v>
+        <v>252953</v>
       </c>
       <c r="K160" t="n">
-        <v>61735</v>
+        <v>66390</v>
       </c>
       <c r="L160" t="n">
-        <v>5922</v>
+        <v>12354</v>
       </c>
       <c r="M160" t="n">
-        <v>2059</v>
+        <v>2228</v>
       </c>
       <c r="N160" t="n">
-        <v>4872</v>
+        <v>5068</v>
       </c>
       <c r="O160" t="n">
-        <v>2323</v>
+        <v>2492</v>
       </c>
       <c r="P160" t="n">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="Q160" t="n">
-        <v>351</v>
+        <v>378.3</v>
       </c>
       <c r="R160" t="n">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="S160" t="n">
-        <v>393.3</v>
+        <v>418.4</v>
       </c>
       <c r="T160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U160" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V160" t="n">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="W160" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="X160" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161">
@@ -12127,55 +12127,55 @@
         <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D161" t="n">
         <v>201</v>
       </c>
       <c r="E161" t="n">
-        <v>198</v>
+        <v>1086</v>
       </c>
       <c r="F161" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G161" t="n">
         <v>133</v>
       </c>
       <c r="H161" t="n">
-        <v>33807</v>
+        <v>33811</v>
       </c>
       <c r="I161" t="n">
-        <v>103912</v>
+        <v>110397</v>
       </c>
       <c r="J161" t="n">
-        <v>252756</v>
+        <v>253599</v>
       </c>
       <c r="K161" t="n">
-        <v>61867</v>
+        <v>66547</v>
       </c>
       <c r="L161" t="n">
-        <v>4148</v>
+        <v>4589</v>
       </c>
       <c r="M161" t="n">
-        <v>2337</v>
+        <v>2544</v>
       </c>
       <c r="N161" t="n">
-        <v>5060</v>
+        <v>5306</v>
       </c>
       <c r="O161" t="n">
-        <v>2436</v>
+        <v>2662</v>
       </c>
       <c r="P161" t="n">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="Q161" t="n">
-        <v>391.1</v>
+        <v>423.4</v>
       </c>
       <c r="R161" t="n">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="S161" t="n">
-        <v>415.9</v>
+        <v>448.3</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12184,13 +12184,13 @@
         <v>0</v>
       </c>
       <c r="V161" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="W161" t="n">
-        <v>9.3</v>
+        <v>9.9</v>
       </c>
       <c r="X161" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162">
@@ -12201,70 +12201,70 @@
         <v>43</v>
       </c>
       <c r="C162" t="n">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="D162" t="n">
         <v>177</v>
       </c>
       <c r="E162" t="n">
-        <v>1091</v>
+        <v>1142</v>
       </c>
       <c r="F162" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G162" t="n">
         <v>129</v>
       </c>
       <c r="H162" t="n">
-        <v>33823</v>
+        <v>33824</v>
       </c>
       <c r="I162" t="n">
-        <v>104684</v>
+        <v>111239</v>
       </c>
       <c r="J162" t="n">
-        <v>253752</v>
+        <v>254477</v>
       </c>
       <c r="K162" t="n">
-        <v>66701</v>
+        <v>66719</v>
       </c>
       <c r="L162" t="n">
-        <v>4632</v>
+        <v>5056</v>
       </c>
       <c r="M162" t="n">
-        <v>2661</v>
+        <v>9220</v>
       </c>
       <c r="N162" t="n">
-        <v>5491</v>
+        <v>5623</v>
       </c>
       <c r="O162" t="n">
-        <v>2906</v>
+        <v>2968</v>
       </c>
       <c r="P162" t="n">
-        <v>772</v>
+        <v>842</v>
       </c>
       <c r="Q162" t="n">
-        <v>444.1</v>
+        <v>483.7</v>
       </c>
       <c r="R162" t="n">
-        <v>996</v>
+        <v>878</v>
       </c>
       <c r="S162" t="n">
-        <v>490.3</v>
+        <v>505.7</v>
       </c>
       <c r="T162" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
       </c>
       <c r="V162" t="n">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="W162" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X162" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163">
@@ -12284,46 +12284,46 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G163" t="n">
         <v>124</v>
       </c>
       <c r="H163" t="n">
-        <v>33827</v>
+        <v>33828</v>
       </c>
       <c r="I163" t="n">
-        <v>105688</v>
+        <v>105684</v>
       </c>
       <c r="J163" t="n">
-        <v>254771</v>
+        <v>255556</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>7806</v>
+        <v>1640</v>
       </c>
       <c r="M163" t="n">
         <v>5835</v>
       </c>
       <c r="N163" t="n">
-        <v>6249</v>
+        <v>6438</v>
       </c>
       <c r="O163" t="n">
-        <v>3712</v>
+        <v>3832</v>
       </c>
       <c r="P163" t="n">
-        <v>1004</v>
+        <v>-5555</v>
       </c>
       <c r="Q163" t="n">
         <v>523.6</v>
       </c>
       <c r="R163" t="n">
-        <v>1019</v>
+        <v>1079</v>
       </c>
       <c r="S163" t="n">
-        <v>560.7</v>
+        <v>578.1</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12332,13 +12332,13 @@
         <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>9.7</v>
+        <v>8.7</v>
       </c>
       <c r="W163" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="X163" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164">
@@ -12358,34 +12358,34 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G164" t="n">
         <v>66</v>
       </c>
       <c r="H164" t="n">
-        <v>33831</v>
+        <v>33832</v>
       </c>
       <c r="I164" t="n">
-        <v>103667</v>
+        <v>103663</v>
       </c>
       <c r="J164" t="n">
-        <v>255199</v>
+        <v>256116</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>5690</v>
+        <v>-524</v>
       </c>
       <c r="M164" t="n">
-        <v>3633</v>
+        <v>-2718</v>
       </c>
       <c r="N164" t="n">
-        <v>6480</v>
+        <v>6801</v>
       </c>
       <c r="O164" t="n">
-        <v>3981</v>
+        <v>4193</v>
       </c>
       <c r="P164" t="n">
         <v>-2021</v>
@@ -12394,10 +12394,10 @@
         <v>544.9</v>
       </c>
       <c r="R164" t="n">
-        <v>428</v>
+        <v>560</v>
       </c>
       <c r="S164" t="n">
-        <v>591.4</v>
+        <v>627.4</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12406,13 +12406,13 @@
         <v>0</v>
       </c>
       <c r="V164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W164" t="n">
-        <v>9.3</v>
+        <v>9.4</v>
       </c>
       <c r="X164" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165">
@@ -12432,7 +12432,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G165" t="n">
         <v>66</v>
@@ -12441,52 +12441,52 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110675</v>
+        <v>110671</v>
       </c>
       <c r="J165" t="n">
-        <v>255812</v>
+        <v>256487</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>10205</v>
+        <v>3976</v>
       </c>
       <c r="M165" t="n">
-        <v>8002</v>
+        <v>1625</v>
       </c>
       <c r="N165" t="n">
-        <v>6839</v>
+        <v>6914</v>
       </c>
       <c r="O165" t="n">
-        <v>4268</v>
+        <v>4205</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
       </c>
       <c r="Q165" t="n">
-        <v>1520.1</v>
+        <v>612.9</v>
       </c>
       <c r="R165" t="n">
-        <v>613</v>
+        <v>371</v>
       </c>
       <c r="S165" t="n">
-        <v>656.3</v>
+        <v>652</v>
       </c>
       <c r="T165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U165" t="n">
         <v>0</v>
       </c>
       <c r="V165" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="W165" t="n">
-        <v>9.7</v>
+        <v>9.3</v>
       </c>
       <c r="X165" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166">
@@ -12506,7 +12506,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G166" t="n">
         <v>136</v>
@@ -12515,37 +12515,37 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114078</v>
+        <v>114074</v>
       </c>
       <c r="J166" t="n">
-        <v>256617</v>
+        <v>257275</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>13302</v>
+        <v>7061</v>
       </c>
       <c r="M166" t="n">
-        <v>10845</v>
+        <v>4413</v>
       </c>
       <c r="N166" t="n">
-        <v>7202</v>
+        <v>7251</v>
       </c>
       <c r="O166" t="n">
-        <v>4449</v>
+        <v>4322</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
       </c>
       <c r="Q166" t="n">
-        <v>1629.3</v>
+        <v>718.3</v>
       </c>
       <c r="R166" t="n">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="S166" t="n">
-        <v>724.7</v>
+        <v>713.3</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12554,13 +12554,13 @@
         <v>0</v>
       </c>
       <c r="V166" t="n">
-        <v>8.7</v>
+        <v>8.3</v>
       </c>
       <c r="W166" t="n">
-        <v>10.1</v>
+        <v>9.7</v>
       </c>
       <c r="X166" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167">
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,37 +12589,37 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115362</v>
+        <v>115358</v>
       </c>
       <c r="J167" t="n">
-        <v>257778</v>
+        <v>258417</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>14188</v>
+        <v>7925</v>
       </c>
       <c r="M167" t="n">
-        <v>11450</v>
+        <v>4961</v>
       </c>
       <c r="N167" t="n">
-        <v>7933</v>
+        <v>7956</v>
       </c>
       <c r="O167" t="n">
-        <v>5022</v>
+        <v>4818</v>
       </c>
       <c r="P167" t="n">
         <v>1284</v>
       </c>
       <c r="Q167" t="n">
-        <v>1732.7</v>
+        <v>813.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="S167" t="n">
-        <v>801.4</v>
+        <v>780.6</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12628,13 +12628,13 @@
         <v>0</v>
       </c>
       <c r="V167" t="n">
-        <v>9.3</v>
+        <v>9</v>
       </c>
       <c r="W167" t="n">
-        <v>8.7</v>
+        <v>8.1</v>
       </c>
       <c r="X167" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168">
@@ -12654,7 +12654,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="G168" t="n">
         <v>133</v>
@@ -12663,37 +12663,37 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109726</v>
+        <v>109722</v>
       </c>
       <c r="J168" t="n">
-        <v>259136</v>
+        <v>259765</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>8151</v>
+        <v>1869</v>
       </c>
       <c r="M168" t="n">
-        <v>5042</v>
+        <v>-1517</v>
       </c>
       <c r="N168" t="n">
-        <v>8816</v>
+        <v>8828</v>
       </c>
       <c r="O168" t="n">
-        <v>5384</v>
+        <v>5288</v>
       </c>
       <c r="P168" t="n">
         <v>-5636</v>
       </c>
       <c r="Q168" t="n">
-        <v>830.6</v>
+        <v>-96.4</v>
       </c>
       <c r="R168" t="n">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="S168" t="n">
-        <v>911.4</v>
+        <v>880.9</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12705,10 +12705,10 @@
         <v>8.3</v>
       </c>
       <c r="W168" t="n">
-        <v>8.3</v>
+        <v>7.7</v>
       </c>
       <c r="X168" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
@@ -12728,7 +12728,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G169" t="n">
         <v>130</v>
@@ -12737,10 +12737,10 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111046</v>
+        <v>111042</v>
       </c>
       <c r="J169" t="n">
-        <v>260693</v>
+        <v>261322</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -12752,22 +12752,22 @@
         <v>5358</v>
       </c>
       <c r="N169" t="n">
-        <v>9847</v>
+        <v>9813</v>
       </c>
       <c r="O169" t="n">
-        <v>5922</v>
+        <v>5766</v>
       </c>
       <c r="P169" t="n">
         <v>1320</v>
       </c>
       <c r="Q169" t="n">
-        <v>908.9</v>
+        <v>-28.1</v>
       </c>
       <c r="R169" t="n">
         <v>1557</v>
       </c>
       <c r="S169" t="n">
-        <v>991.6</v>
+        <v>977.9</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12779,10 +12779,10 @@
         <v>6.3</v>
       </c>
       <c r="W169" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X169" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170">
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G170" t="n">
         <v>129</v>
@@ -12811,10 +12811,10 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116144</v>
+        <v>116140</v>
       </c>
       <c r="J170" t="n">
-        <v>262618</v>
+        <v>263220</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -12826,10 +12826,10 @@
         <v>12477</v>
       </c>
       <c r="N170" t="n">
-        <v>11559</v>
+        <v>11496</v>
       </c>
       <c r="O170" t="n">
-        <v>7419</v>
+        <v>7104</v>
       </c>
       <c r="P170" t="n">
         <v>5098</v>
@@ -12838,10 +12838,10 @@
         <v>1493.7</v>
       </c>
       <c r="R170" t="n">
-        <v>1925</v>
+        <v>1898</v>
       </c>
       <c r="S170" t="n">
-        <v>1121</v>
+        <v>1094.9</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12853,10 +12853,10 @@
         <v>6.7</v>
       </c>
       <c r="W170" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X170" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171">
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G171" t="n">
         <v>76</v>
@@ -12885,25 +12885,25 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114453</v>
+        <v>114449</v>
       </c>
       <c r="J171" t="n">
-        <v>263910</v>
+        <v>264500</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>14419</v>
+        <v>8068</v>
       </c>
       <c r="M171" t="n">
         <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12692</v>
+        <v>12577</v>
       </c>
       <c r="O171" t="n">
-        <v>8098</v>
+        <v>8013</v>
       </c>
       <c r="P171" t="n">
         <v>-1691</v>
@@ -12912,10 +12912,10 @@
         <v>1540.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="S171" t="n">
-        <v>1244.4</v>
+        <v>1197.7</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12927,10 +12927,10 @@
         <v>6</v>
       </c>
       <c r="W171" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X171" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172">
@@ -12950,7 +12950,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G172" t="n">
         <v>79</v>
@@ -12959,25 +12959,25 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123355</v>
+        <v>123351</v>
       </c>
       <c r="J172" t="n">
-        <v>264963</v>
+        <v>265555</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>20682</v>
+        <v>14305</v>
       </c>
       <c r="M172" t="n">
         <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13419</v>
+        <v>13273</v>
       </c>
       <c r="O172" t="n">
-        <v>8346</v>
+        <v>8280</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12986,10 +12986,10 @@
         <v>1811.4</v>
       </c>
       <c r="R172" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="S172" t="n">
-        <v>1307.3</v>
+        <v>1295.4</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G173" t="n">
         <v>139</v>
@@ -13033,25 +13033,25 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127509</v>
+        <v>127505</v>
       </c>
       <c r="J173" t="n">
-        <v>266691</v>
+        <v>267275</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
       </c>
       <c r="L173" t="n">
-        <v>24276</v>
+        <v>17844</v>
       </c>
       <c r="M173" t="n">
         <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14523</v>
+        <v>14322</v>
       </c>
       <c r="O173" t="n">
-        <v>8913</v>
+        <v>8858</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13060,10 +13060,10 @@
         <v>1918.7</v>
       </c>
       <c r="R173" t="n">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="S173" t="n">
-        <v>1439.1</v>
+        <v>1428.6</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13098,7 +13098,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G174" t="n">
         <v>146</v>
@@ -13107,25 +13107,25 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129269</v>
+        <v>129265</v>
       </c>
       <c r="J174" t="n">
-        <v>268969</v>
+        <v>269549</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>25357</v>
+        <v>18868</v>
       </c>
       <c r="M174" t="n">
         <v>19543</v>
       </c>
       <c r="N174" t="n">
-        <v>16213</v>
+        <v>15950</v>
       </c>
       <c r="O174" t="n">
-        <v>9833</v>
+        <v>9784</v>
       </c>
       <c r="P174" t="n">
         <v>1760</v>
@@ -13134,10 +13134,10 @@
         <v>1986.7</v>
       </c>
       <c r="R174" t="n">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="S174" t="n">
-        <v>1598.7</v>
+        <v>1590.3</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G175" t="n">
         <v>159</v>
@@ -13181,25 +13181,25 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131538</v>
+        <v>131534</v>
       </c>
       <c r="J175" t="n">
-        <v>271231</v>
+        <v>271815</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>26854</v>
+        <v>20295</v>
       </c>
       <c r="M175" t="n">
         <v>20492</v>
       </c>
       <c r="N175" t="n">
-        <v>17479</v>
+        <v>17338</v>
       </c>
       <c r="O175" t="n">
-        <v>10538</v>
+        <v>10493</v>
       </c>
       <c r="P175" t="n">
         <v>2269</v>
@@ -13208,10 +13208,10 @@
         <v>3116</v>
       </c>
       <c r="R175" t="n">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="S175" t="n">
-        <v>1727.9</v>
+        <v>1721.4</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G176" t="n">
         <v>159</v>
@@ -13255,10 +13255,10 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133449</v>
+        <v>133445</v>
       </c>
       <c r="J176" t="n">
-        <v>273408</v>
+        <v>273998</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
@@ -13270,10 +13270,10 @@
         <v>17305</v>
       </c>
       <c r="N176" t="n">
-        <v>18637</v>
+        <v>18442</v>
       </c>
       <c r="O176" t="n">
-        <v>10790</v>
+        <v>10778</v>
       </c>
       <c r="P176" t="n">
         <v>1911</v>
@@ -13282,10 +13282,10 @@
         <v>3200.4</v>
       </c>
       <c r="R176" t="n">
-        <v>2177</v>
+        <v>2183</v>
       </c>
       <c r="S176" t="n">
-        <v>1816.4</v>
+        <v>1810.9</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13320,7 +13320,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G177" t="n">
         <v>177</v>
@@ -13329,10 +13329,10 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125448</v>
+        <v>125444</v>
       </c>
       <c r="J177" t="n">
-        <v>276036</v>
+        <v>276640</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
@@ -13344,10 +13344,10 @@
         <v>10995</v>
       </c>
       <c r="N177" t="n">
-        <v>20837</v>
+        <v>20524</v>
       </c>
       <c r="O177" t="n">
-        <v>12126</v>
+        <v>12140</v>
       </c>
       <c r="P177" t="n">
         <v>-8001</v>
@@ -13356,10 +13356,10 @@
         <v>1329.1</v>
       </c>
       <c r="R177" t="n">
-        <v>2628</v>
+        <v>2642</v>
       </c>
       <c r="S177" t="n">
-        <v>1916.9</v>
+        <v>1917.1</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G178" t="n">
         <v>116</v>
@@ -13403,10 +13403,10 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104452</v>
+        <v>104448</v>
       </c>
       <c r="J178" t="n">
-        <v>277522</v>
+        <v>278127</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
@@ -13418,10 +13418,10 @@
         <v>-18903</v>
       </c>
       <c r="N178" t="n">
-        <v>21710</v>
+        <v>21640</v>
       </c>
       <c r="O178" t="n">
-        <v>12559</v>
+        <v>12572</v>
       </c>
       <c r="P178" t="n">
         <v>-20996</v>
@@ -13430,10 +13430,10 @@
         <v>-1428.7</v>
       </c>
       <c r="R178" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="S178" t="n">
-        <v>1944.6</v>
+        <v>1946.7</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G179" t="n">
         <v>108</v>
@@ -13477,10 +13477,10 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115785</v>
+        <v>115781</v>
       </c>
       <c r="J179" t="n">
-        <v>278856</v>
+        <v>279463</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
@@ -13492,10 +13492,10 @@
         <v>-11724</v>
       </c>
       <c r="N179" t="n">
-        <v>22239</v>
+        <v>22188</v>
       </c>
       <c r="O179" t="n">
-        <v>12165</v>
+        <v>12188</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
@@ -13504,10 +13504,10 @@
         <v>-1081.4</v>
       </c>
       <c r="R179" t="n">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="S179" t="n">
-        <v>1984.7</v>
+        <v>1986.9</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G180" t="n">
         <v>199</v>
@@ -13551,10 +13551,10 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115777</v>
+        <v>115773</v>
       </c>
       <c r="J180" t="n">
-        <v>280947</v>
+        <v>281562</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
@@ -13566,10 +13566,10 @@
         <v>-13492</v>
       </c>
       <c r="N180" t="n">
-        <v>23169</v>
+        <v>23145</v>
       </c>
       <c r="O180" t="n">
-        <v>11978</v>
+        <v>12013</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
@@ -13578,10 +13578,10 @@
         <v>-1676</v>
       </c>
       <c r="R180" t="n">
-        <v>2091</v>
+        <v>2099</v>
       </c>
       <c r="S180" t="n">
-        <v>2036.6</v>
+        <v>2041</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G181" t="n">
         <v>215</v>
@@ -13625,10 +13625,10 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110093</v>
+        <v>110089</v>
       </c>
       <c r="J181" t="n">
-        <v>283704</v>
+        <v>284324</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
@@ -13640,10 +13640,10 @@
         <v>-21445</v>
       </c>
       <c r="N181" t="n">
-        <v>24568</v>
+        <v>24559</v>
       </c>
       <c r="O181" t="n">
-        <v>12473</v>
+        <v>12509</v>
       </c>
       <c r="P181" t="n">
         <v>-5684</v>
@@ -13652,10 +13652,10 @@
         <v>-2739.4</v>
       </c>
       <c r="R181" t="n">
-        <v>2757</v>
+        <v>2762</v>
       </c>
       <c r="S181" t="n">
-        <v>2105</v>
+        <v>2110.7</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G182" t="n">
         <v>207</v>
@@ -13699,10 +13699,10 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123651</v>
+        <v>123647</v>
       </c>
       <c r="J182" t="n">
-        <v>286491</v>
+        <v>287081</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
@@ -13714,7 +13714,7 @@
         <v>-9798</v>
       </c>
       <c r="N182" t="n">
-        <v>25798</v>
+        <v>25759</v>
       </c>
       <c r="O182" t="n">
         <v>13083</v>
@@ -13726,10 +13726,10 @@
         <v>-1126.7</v>
       </c>
       <c r="R182" t="n">
-        <v>2787</v>
+        <v>2757</v>
       </c>
       <c r="S182" t="n">
-        <v>2180</v>
+        <v>2180.9</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13758,13 +13758,13 @@
         <v>2298</v>
       </c>
       <c r="D183" t="n">
-        <v>63820</v>
+        <v>63819</v>
       </c>
       <c r="E183" t="n">
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="G183" t="n">
         <v>217</v>
@@ -13773,37 +13773,37 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113189</v>
+        <v>113184</v>
       </c>
       <c r="J183" t="n">
-        <v>292226</v>
+        <v>292777</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2955</v>
+        <v>-2956</v>
       </c>
       <c r="M183" t="n">
-        <v>-12259</v>
+        <v>-12260</v>
       </c>
       <c r="N183" t="n">
-        <v>29608</v>
+        <v>29557</v>
       </c>
       <c r="O183" t="n">
-        <v>16190</v>
+        <v>16137</v>
       </c>
       <c r="P183" t="n">
-        <v>-10462</v>
+        <v>-10463</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894.3</v>
+        <v>-2894.4</v>
       </c>
       <c r="R183" t="n">
-        <v>5735</v>
+        <v>5696</v>
       </c>
       <c r="S183" t="n">
-        <v>2688.3</v>
+        <v>2682.7</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="G184" t="n">
         <v>218</v>
@@ -13847,37 +13847,37 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114836</v>
+        <v>114831</v>
       </c>
       <c r="J184" t="n">
-        <v>295771</v>
+        <v>296334</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M184" t="n">
-        <v>10384</v>
+        <v>10383</v>
       </c>
       <c r="N184" t="n">
-        <v>31861</v>
+        <v>31834</v>
       </c>
       <c r="O184" t="n">
-        <v>18249</v>
+        <v>18207</v>
       </c>
       <c r="P184" t="n">
         <v>1647</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1516</v>
+        <v>-1516.1</v>
       </c>
       <c r="R184" t="n">
-        <v>3545</v>
+        <v>3557</v>
       </c>
       <c r="S184" t="n">
-        <v>2819.3</v>
+        <v>2813.4</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,37 +13921,37 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110286</v>
+        <v>110281</v>
       </c>
       <c r="J185" t="n">
-        <v>298556</v>
+        <v>299122</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13069</v>
+        <v>-13070</v>
       </c>
       <c r="M185" t="n">
-        <v>-5499</v>
+        <v>-5500</v>
       </c>
       <c r="N185" t="n">
-        <v>33593</v>
+        <v>33567</v>
       </c>
       <c r="O185" t="n">
-        <v>19700</v>
+        <v>19659</v>
       </c>
       <c r="P185" t="n">
         <v>-4550</v>
       </c>
       <c r="Q185" t="n">
-        <v>833.4</v>
+        <v>833.3</v>
       </c>
       <c r="R185" t="n">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="S185" t="n">
-        <v>3004.9</v>
+        <v>2999.3</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="G186" t="n">
         <v>131</v>
@@ -13995,37 +13995,37 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123813</v>
+        <v>123808</v>
       </c>
       <c r="J186" t="n">
-        <v>300119</v>
+        <v>300687</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3696</v>
+        <v>-3697</v>
       </c>
       <c r="M186" t="n">
-        <v>8036</v>
+        <v>8035</v>
       </c>
       <c r="N186" t="n">
-        <v>33428</v>
+        <v>33412</v>
       </c>
       <c r="O186" t="n">
-        <v>19172</v>
+        <v>19125</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
       </c>
       <c r="Q186" t="n">
-        <v>1146.9</v>
+        <v>1146.7</v>
       </c>
       <c r="R186" t="n">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="S186" t="n">
-        <v>3037.6</v>
+        <v>3032</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="G187" t="n">
         <v>248</v>
@@ -14069,37 +14069,37 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132256</v>
+        <v>132251</v>
       </c>
       <c r="J187" t="n">
-        <v>303034</v>
+        <v>303610</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="M187" t="n">
-        <v>22163</v>
+        <v>22162</v>
       </c>
       <c r="N187" t="n">
-        <v>34065</v>
+        <v>34061</v>
       </c>
       <c r="O187" t="n">
-        <v>19330</v>
+        <v>19286</v>
       </c>
       <c r="P187" t="n">
         <v>8443</v>
       </c>
       <c r="Q187" t="n">
-        <v>2354.1</v>
+        <v>2354</v>
       </c>
       <c r="R187" t="n">
-        <v>2915</v>
+        <v>2923</v>
       </c>
       <c r="S187" t="n">
-        <v>3155.3</v>
+        <v>3149.7</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="G188" t="n">
         <v>259</v>
@@ -14143,37 +14143,37 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134177</v>
+        <v>134172</v>
       </c>
       <c r="J188" t="n">
-        <v>307007</v>
+        <v>307598</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="M188" t="n">
-        <v>10526</v>
+        <v>10525</v>
       </c>
       <c r="N188" t="n">
-        <v>35776</v>
+        <v>35783</v>
       </c>
       <c r="O188" t="n">
-        <v>20516</v>
+        <v>20517</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
       </c>
       <c r="Q188" t="n">
-        <v>3440.6</v>
+        <v>3440.4</v>
       </c>
       <c r="R188" t="n">
-        <v>3973</v>
+        <v>3988</v>
       </c>
       <c r="S188" t="n">
-        <v>3329</v>
+        <v>3324.9</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="G189" t="n">
         <v>264</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136180</v>
+        <v>136175</v>
       </c>
       <c r="J189" t="n">
-        <v>310862</v>
+        <v>311463</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="M189" t="n">
         <v>22991</v>
       </c>
       <c r="N189" t="n">
-        <v>37454</v>
+        <v>37465</v>
       </c>
       <c r="O189" t="n">
-        <v>18636</v>
+        <v>18686</v>
       </c>
       <c r="P189" t="n">
         <v>2003</v>
       </c>
       <c r="Q189" t="n">
-        <v>1789.9</v>
+        <v>1789.7</v>
       </c>
       <c r="R189" t="n">
-        <v>3855</v>
+        <v>3865</v>
       </c>
       <c r="S189" t="n">
-        <v>3481.6</v>
+        <v>3483.1</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="G190" t="n">
         <v>268</v>
@@ -14291,25 +14291,25 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138297</v>
+        <v>138292</v>
       </c>
       <c r="J190" t="n">
-        <v>315351</v>
+        <v>315963</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12849</v>
+        <v>12848</v>
       </c>
       <c r="M190" t="n">
         <v>23461</v>
       </c>
       <c r="N190" t="n">
-        <v>39315</v>
+        <v>39323</v>
       </c>
       <c r="O190" t="n">
-        <v>19580</v>
+        <v>19629</v>
       </c>
       <c r="P190" t="n">
         <v>2117</v>
@@ -14318,10 +14318,10 @@
         <v>3586.9</v>
       </c>
       <c r="R190" t="n">
-        <v>4489</v>
+        <v>4500</v>
       </c>
       <c r="S190" t="n">
-        <v>3303.6</v>
+        <v>3312.3</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14356,7 +14356,7 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="G191" t="n">
         <v>279</v>
@@ -14365,25 +14365,25 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122882</v>
+        <v>122877</v>
       </c>
       <c r="J191" t="n">
-        <v>320602</v>
+        <v>321237</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18430</v>
+        <v>18429</v>
       </c>
       <c r="M191" t="n">
         <v>12596</v>
       </c>
       <c r="N191" t="n">
-        <v>43080</v>
+        <v>43110</v>
       </c>
       <c r="O191" t="n">
-        <v>22046</v>
+        <v>22115</v>
       </c>
       <c r="P191" t="n">
         <v>-15415</v>
@@ -14392,10 +14392,10 @@
         <v>1149.4</v>
       </c>
       <c r="R191" t="n">
-        <v>5251</v>
+        <v>5274</v>
       </c>
       <c r="S191" t="n">
-        <v>3547.3</v>
+        <v>3557.6</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="G192" t="n">
         <v>191</v>
@@ -14439,25 +14439,25 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120860</v>
+        <v>120855</v>
       </c>
       <c r="J192" t="n">
-        <v>323545</v>
+        <v>324182</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="M192" t="n">
         <v>-2953</v>
       </c>
       <c r="N192" t="n">
-        <v>44689</v>
+        <v>44719</v>
       </c>
       <c r="O192" t="n">
-        <v>23426</v>
+        <v>23495</v>
       </c>
       <c r="P192" t="n">
         <v>-2022</v>
@@ -14466,10 +14466,10 @@
         <v>1510.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="S192" t="n">
-        <v>3569.9</v>
+        <v>3580</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="G193" t="n">
         <v>221</v>
@@ -14513,25 +14513,25 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139674</v>
+        <v>139669</v>
       </c>
       <c r="J193" t="n">
-        <v>325599</v>
+        <v>326242</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23897</v>
+        <v>23896</v>
       </c>
       <c r="M193" t="n">
         <v>7418</v>
       </c>
       <c r="N193" t="n">
-        <v>44652</v>
+        <v>44680</v>
       </c>
       <c r="O193" t="n">
-        <v>22565</v>
+        <v>22632</v>
       </c>
       <c r="P193" t="n">
         <v>18814</v>
@@ -14540,10 +14540,10 @@
         <v>2265.9</v>
       </c>
       <c r="R193" t="n">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="S193" t="n">
-        <v>3640</v>
+        <v>3650.7</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="G194" t="n">
         <v>319</v>
@@ -14587,25 +14587,25 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140184</v>
+        <v>140179</v>
       </c>
       <c r="J194" t="n">
-        <v>329653</v>
+        <v>330301</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>30091</v>
+        <v>30090</v>
       </c>
       <c r="M194" t="n">
         <v>6007</v>
       </c>
       <c r="N194" t="n">
-        <v>45949</v>
+        <v>45977</v>
       </c>
       <c r="O194" t="n">
-        <v>22646</v>
+        <v>22703</v>
       </c>
       <c r="P194" t="n">
         <v>510</v>
@@ -14614,10 +14614,10 @@
         <v>1132.6</v>
       </c>
       <c r="R194" t="n">
-        <v>4054</v>
+        <v>4059</v>
       </c>
       <c r="S194" t="n">
-        <v>3802.7</v>
+        <v>3813</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14643,7 +14643,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -14652,7 +14652,7 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="G195" t="n">
         <v>342</v>
@@ -14661,10 +14661,10 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146933</v>
+        <v>146929</v>
       </c>
       <c r="J195" t="n">
-        <v>335349</v>
+        <v>336015</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
@@ -14673,25 +14673,25 @@
         <v>23282</v>
       </c>
       <c r="M195" t="n">
-        <v>10753</v>
+        <v>10754</v>
       </c>
       <c r="N195" t="n">
-        <v>48858</v>
+        <v>48934</v>
       </c>
       <c r="O195" t="n">
-        <v>24487</v>
+        <v>24552</v>
       </c>
       <c r="P195" t="n">
-        <v>6749</v>
+        <v>6750</v>
       </c>
       <c r="Q195" t="n">
-        <v>1822.3</v>
+        <v>1822.4</v>
       </c>
       <c r="R195" t="n">
-        <v>5696</v>
+        <v>5714</v>
       </c>
       <c r="S195" t="n">
-        <v>4048.9</v>
+        <v>4059.6</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,7 +14717,7 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D196" t="n">
         <v>64155</v>
@@ -14726,7 +14726,7 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="G196" t="n">
         <v>352</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149144</v>
+        <v>149141</v>
       </c>
       <c r="J196" t="n">
-        <v>340892</v>
+        <v>341570</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35955</v>
+        <v>35957</v>
       </c>
       <c r="M196" t="n">
-        <v>10847</v>
+        <v>10849</v>
       </c>
       <c r="N196" t="n">
-        <v>48666</v>
+        <v>48793</v>
       </c>
       <c r="O196" t="n">
-        <v>25541</v>
+        <v>25607</v>
       </c>
       <c r="P196" t="n">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="Q196" t="n">
-        <v>1852</v>
+        <v>1852.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5543</v>
+        <v>5555</v>
       </c>
       <c r="S196" t="n">
-        <v>4290</v>
+        <v>4301</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151516</v>
+        <v>151512</v>
       </c>
       <c r="J197" t="n">
-        <v>347086</v>
+        <v>347796</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36680</v>
+        <v>36681</v>
       </c>
       <c r="M197" t="n">
-        <v>28634</v>
+        <v>28635</v>
       </c>
       <c r="N197" t="n">
-        <v>51315</v>
+        <v>51462</v>
       </c>
       <c r="O197" t="n">
-        <v>26484</v>
+        <v>26559</v>
       </c>
       <c r="P197" t="n">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="Q197" t="n">
-        <v>1888.4</v>
+        <v>1888.6</v>
       </c>
       <c r="R197" t="n">
-        <v>6194</v>
+        <v>6226</v>
       </c>
       <c r="S197" t="n">
-        <v>4533.6</v>
+        <v>4547.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133211</v>
+        <v>133208</v>
       </c>
       <c r="J198" t="n">
-        <v>354154</v>
+        <v>354908</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22925</v>
+        <v>22927</v>
       </c>
       <c r="M198" t="n">
-        <v>12351</v>
+        <v>12353</v>
       </c>
       <c r="N198" t="n">
-        <v>55598</v>
+        <v>55786</v>
       </c>
       <c r="O198" t="n">
-        <v>30609</v>
+        <v>30726</v>
       </c>
       <c r="P198" t="n">
-        <v>-18305</v>
+        <v>-18304</v>
       </c>
       <c r="Q198" t="n">
-        <v>1475.6</v>
+        <v>1475.9</v>
       </c>
       <c r="R198" t="n">
-        <v>7068</v>
+        <v>7112</v>
       </c>
       <c r="S198" t="n">
-        <v>4793.1</v>
+        <v>4810.1</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14951,43 +14951,43 @@
         <v>3087</v>
       </c>
       <c r="G199" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H199" t="n">
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130079</v>
+        <v>130076</v>
       </c>
       <c r="J199" t="n">
-        <v>358114</v>
+        <v>358881</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6266</v>
+        <v>6268</v>
       </c>
       <c r="M199" t="n">
-        <v>-9595</v>
+        <v>-9593</v>
       </c>
       <c r="N199" t="n">
-        <v>57995</v>
+        <v>58194</v>
       </c>
       <c r="O199" t="n">
-        <v>32515</v>
+        <v>32639</v>
       </c>
       <c r="P199" t="n">
         <v>-3132</v>
       </c>
       <c r="Q199" t="n">
-        <v>1317</v>
+        <v>1317.3</v>
       </c>
       <c r="R199" t="n">
-        <v>3960</v>
+        <v>3973</v>
       </c>
       <c r="S199" t="n">
-        <v>4938.4</v>
+        <v>4957</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15025,43 +15025,43 @@
         <v>3204</v>
       </c>
       <c r="G200" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H200" t="n">
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130881</v>
+        <v>130878</v>
       </c>
       <c r="J200" t="n">
-        <v>360398</v>
+        <v>361173</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1375</v>
+        <v>-1373</v>
       </c>
       <c r="M200" t="n">
-        <v>-9303</v>
+        <v>-9301</v>
       </c>
       <c r="N200" t="n">
-        <v>57364</v>
+        <v>57563</v>
       </c>
       <c r="O200" t="n">
-        <v>30745</v>
+        <v>30872</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1256.1</v>
+        <v>-1255.9</v>
       </c>
       <c r="R200" t="n">
-        <v>2284</v>
+        <v>2292</v>
       </c>
       <c r="S200" t="n">
-        <v>4971.3</v>
+        <v>4990.1</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15087,7 +15087,7 @@
         <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15099,43 +15099,43 @@
         <v>3622</v>
       </c>
       <c r="G201" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H201" t="n">
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158922</v>
+        <v>158918</v>
       </c>
       <c r="J201" t="n">
-        <v>365663</v>
+        <v>366461</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24745</v>
+        <v>24746</v>
       </c>
       <c r="M201" t="n">
         <v>11989</v>
       </c>
       <c r="N201" t="n">
-        <v>58656</v>
+        <v>58863</v>
       </c>
       <c r="O201" t="n">
-        <v>30314</v>
+        <v>30446</v>
       </c>
       <c r="P201" t="n">
-        <v>28041</v>
+        <v>28040</v>
       </c>
       <c r="Q201" t="n">
-        <v>2676.9</v>
+        <v>2677</v>
       </c>
       <c r="R201" t="n">
-        <v>5265</v>
+        <v>5288</v>
       </c>
       <c r="S201" t="n">
-        <v>5144.3</v>
+        <v>5165.7</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15161,7 +15161,7 @@
         <v>994</v>
       </c>
       <c r="C202" t="n">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D202" t="n">
         <v>64395</v>
@@ -15170,7 +15170,7 @@
         <v>16980</v>
       </c>
       <c r="F202" t="n">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="G202" t="n">
         <v>472</v>
@@ -15179,37 +15179,37 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161372</v>
+        <v>161369</v>
       </c>
       <c r="J202" t="n">
-        <v>373089</v>
+        <v>373936</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25192</v>
+        <v>25194</v>
       </c>
       <c r="M202" t="n">
         <v>12228</v>
       </c>
       <c r="N202" t="n">
-        <v>62227</v>
+        <v>62473</v>
       </c>
       <c r="O202" t="n">
-        <v>32197</v>
+        <v>32366</v>
       </c>
       <c r="P202" t="n">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="Q202" t="n">
-        <v>2062.7</v>
+        <v>2062.9</v>
       </c>
       <c r="R202" t="n">
-        <v>7426</v>
+        <v>7475</v>
       </c>
       <c r="S202" t="n">
-        <v>5391.4</v>
+        <v>5417.3</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15235,7 +15235,7 @@
         <v>768</v>
       </c>
       <c r="C203" t="n">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="D203" t="n">
         <v>64475</v>
@@ -15244,7 +15244,7 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="G203" t="n">
         <v>477</v>
@@ -15253,37 +15253,37 @@
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164049</v>
+        <v>164048</v>
       </c>
       <c r="J203" t="n">
-        <v>380566</v>
+        <v>381481</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25752</v>
+        <v>25756</v>
       </c>
       <c r="M203" t="n">
-        <v>12533</v>
+        <v>12536</v>
       </c>
       <c r="N203" t="n">
-        <v>65215</v>
+        <v>65518</v>
       </c>
       <c r="O203" t="n">
-        <v>33480</v>
+        <v>33685</v>
       </c>
       <c r="P203" t="n">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="Q203" t="n">
-        <v>2129.3</v>
+        <v>2129.6</v>
       </c>
       <c r="R203" t="n">
-        <v>7477</v>
+        <v>7545</v>
       </c>
       <c r="S203" t="n">
-        <v>5667.7</v>
+        <v>5701.6</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15321,43 +15321,43 @@
         <v>4087</v>
       </c>
       <c r="G204" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H204" t="n">
         <v>34572</v>
       </c>
       <c r="I204" t="n">
-        <v>142981</v>
+        <v>142980</v>
       </c>
       <c r="J204" t="n">
-        <v>388122</v>
+        <v>389089</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20099</v>
+        <v>20103</v>
       </c>
       <c r="M204" t="n">
-        <v>9770</v>
+        <v>9772</v>
       </c>
       <c r="N204" t="n">
-        <v>67520</v>
+        <v>67852</v>
       </c>
       <c r="O204" t="n">
-        <v>33968</v>
+        <v>34181</v>
       </c>
       <c r="P204" t="n">
         <v>-21068</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1219.3</v>
+        <v>-1218.9</v>
       </c>
       <c r="R204" t="n">
-        <v>7556</v>
+        <v>7608</v>
       </c>
       <c r="S204" t="n">
-        <v>5862.3</v>
+        <v>5899</v>
       </c>
       <c r="T204" t="n">
         <v>22</v>
@@ -15383,7 +15383,7 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="D205" t="n">
         <v>64579</v>
@@ -15392,10 +15392,10 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="G205" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H205" t="n">
         <v>34600</v>
@@ -15404,34 +15404,34 @@
         <v>145386</v>
       </c>
       <c r="J205" t="n">
-        <v>396819</v>
+        <v>397958</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24526</v>
+        <v>24531</v>
       </c>
       <c r="M205" t="n">
-        <v>15307</v>
+        <v>15310</v>
       </c>
       <c r="N205" t="n">
-        <v>73274</v>
+        <v>73776</v>
       </c>
       <c r="O205" t="n">
-        <v>38705</v>
+        <v>39077</v>
       </c>
       <c r="P205" t="n">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="Q205" t="n">
-        <v>1739.3</v>
+        <v>1739.7</v>
       </c>
       <c r="R205" t="n">
-        <v>8697</v>
+        <v>8869</v>
       </c>
       <c r="S205" t="n">
-        <v>6095</v>
+        <v>6150</v>
       </c>
       <c r="T205" t="n">
         <v>28</v>
@@ -15457,7 +15457,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
@@ -15466,46 +15466,46 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="G206" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H206" t="n">
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>141318</v>
+        <v>141319</v>
       </c>
       <c r="J206" t="n">
-        <v>401777</v>
+        <v>402946</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="M206" t="n">
-        <v>10437</v>
+        <v>10441</v>
       </c>
       <c r="N206" t="n">
-        <v>76178</v>
+        <v>76704</v>
       </c>
       <c r="O206" t="n">
-        <v>41379</v>
+        <v>41773</v>
       </c>
       <c r="P206" t="n">
-        <v>-4068</v>
+        <v>-4067</v>
       </c>
       <c r="Q206" t="n">
-        <v>1605.6</v>
+        <v>1606.1</v>
       </c>
       <c r="R206" t="n">
-        <v>4958</v>
+        <v>4988</v>
       </c>
       <c r="S206" t="n">
-        <v>6237.6</v>
+        <v>6295</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -15531,7 +15531,7 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D207" t="n">
         <v>64558</v>
@@ -15540,46 +15540,46 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="G207" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H207" t="n">
         <v>34675</v>
       </c>
       <c r="I207" t="n">
-        <v>167098</v>
+        <v>167100</v>
       </c>
       <c r="J207" t="n">
-        <v>404692</v>
+        <v>405869</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26914</v>
+        <v>26921</v>
       </c>
       <c r="M207" t="n">
-        <v>8176</v>
+        <v>8182</v>
       </c>
       <c r="N207" t="n">
-        <v>75039</v>
+        <v>75568</v>
       </c>
       <c r="O207" t="n">
-        <v>39029</v>
+        <v>39408</v>
       </c>
       <c r="P207" t="n">
-        <v>25780</v>
+        <v>25781</v>
       </c>
       <c r="Q207" t="n">
-        <v>5173.9</v>
+        <v>5174.6</v>
       </c>
       <c r="R207" t="n">
-        <v>2915</v>
+        <v>2923</v>
       </c>
       <c r="S207" t="n">
-        <v>6327.7</v>
+        <v>6385.1</v>
       </c>
       <c r="T207" t="n">
         <v>61</v>
@@ -15614,46 +15614,46 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4814</v>
+        <v>4816</v>
       </c>
       <c r="G208" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H208" t="n">
         <v>34747</v>
       </c>
       <c r="I208" t="n">
-        <v>174887</v>
+        <v>174889</v>
       </c>
       <c r="J208" t="n">
-        <v>410694</v>
+        <v>411933</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>27954</v>
+        <v>27960</v>
       </c>
       <c r="M208" t="n">
-        <v>13515</v>
+        <v>13520</v>
       </c>
       <c r="N208" t="n">
-        <v>75345</v>
+        <v>75918</v>
       </c>
       <c r="O208" t="n">
-        <v>37605</v>
+        <v>37997</v>
       </c>
       <c r="P208" t="n">
         <v>7789</v>
       </c>
       <c r="Q208" t="n">
-        <v>2280.7</v>
+        <v>2281.6</v>
       </c>
       <c r="R208" t="n">
-        <v>6002</v>
+        <v>6064</v>
       </c>
       <c r="S208" t="n">
-        <v>6433</v>
+        <v>6496</v>
       </c>
       <c r="T208" t="n">
         <v>72</v>
@@ -15679,7 +15679,7 @@
         <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
@@ -15688,46 +15688,46 @@
         <v>16386</v>
       </c>
       <c r="F209" t="n">
-        <v>4993</v>
+        <v>4996</v>
       </c>
       <c r="G209" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H209" t="n">
         <v>34787</v>
       </c>
       <c r="I209" t="n">
-        <v>178376</v>
+        <v>178379</v>
       </c>
       <c r="J209" t="n">
-        <v>420032</v>
+        <v>421900</v>
       </c>
       <c r="K209" t="n">
         <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>29232</v>
+        <v>29238</v>
       </c>
       <c r="M209" t="n">
-        <v>14327</v>
+        <v>14331</v>
       </c>
       <c r="N209" t="n">
-        <v>79140</v>
+        <v>80330</v>
       </c>
       <c r="O209" t="n">
-        <v>39466</v>
+        <v>40419</v>
       </c>
       <c r="P209" t="n">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="Q209" t="n">
-        <v>2429.1</v>
+        <v>2430</v>
       </c>
       <c r="R209" t="n">
-        <v>9338</v>
+        <v>9967</v>
       </c>
       <c r="S209" t="n">
-        <v>6706.1</v>
+        <v>6852</v>
       </c>
       <c r="T209" t="n">
         <v>40</v>
@@ -15750,10 +15750,10 @@
         <v>44069</v>
       </c>
       <c r="B210" t="n">
-        <v>1332</v>
+        <v>1420</v>
       </c>
       <c r="C210" t="n">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="D210" t="n">
         <v>64782</v>
@@ -15762,61 +15762,61 @@
         <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>5065</v>
+        <v>5109</v>
       </c>
       <c r="G210" t="n">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="H210" t="n">
-        <v>34299</v>
+        <v>34825</v>
       </c>
       <c r="I210" t="n">
-        <v>181454</v>
+        <v>181459</v>
       </c>
       <c r="J210" t="n">
-        <v>423570</v>
+        <v>430986</v>
       </c>
       <c r="K210" t="n">
-        <v>78882</v>
+        <v>83830</v>
       </c>
       <c r="L210" t="n">
-        <v>29938</v>
+        <v>29947</v>
       </c>
       <c r="M210" t="n">
-        <v>38473</v>
+        <v>38479</v>
       </c>
       <c r="N210" t="n">
-        <v>76484</v>
+        <v>83190</v>
       </c>
       <c r="O210" t="n">
-        <v>35448</v>
+        <v>41897</v>
       </c>
       <c r="P210" t="n">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="Q210" t="n">
-        <v>2486.4</v>
+        <v>2487.3</v>
       </c>
       <c r="R210" t="n">
-        <v>3538</v>
+        <v>9086</v>
       </c>
       <c r="S210" t="n">
-        <v>6143.4</v>
+        <v>7072.1</v>
       </c>
       <c r="T210" t="n">
-        <v>-488</v>
+        <v>38</v>
       </c>
       <c r="U210" t="n">
-        <v>-1.4</v>
+        <v>0.1</v>
       </c>
       <c r="V210" t="n">
-        <v>-125.3</v>
+        <v>50</v>
       </c>
       <c r="W210" t="n">
-        <v>-35.9</v>
+        <v>39.3</v>
       </c>
       <c r="X210" t="n">
-        <v>-251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211">
@@ -15824,10 +15824,10 @@
         <v>44070</v>
       </c>
       <c r="B211" t="n">
-        <v>1654</v>
+        <v>1745</v>
       </c>
       <c r="C211" t="n">
-        <v>4384</v>
+        <v>4390</v>
       </c>
       <c r="D211" t="n">
         <v>64882</v>
@@ -15836,61 +15836,61 @@
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>5191</v>
+        <v>5238</v>
       </c>
       <c r="G211" t="n">
-        <v>541</v>
+        <v>668</v>
       </c>
       <c r="H211" t="n">
-        <v>34324</v>
+        <v>34858</v>
       </c>
       <c r="I211" t="n">
-        <v>158913</v>
+        <v>158924</v>
       </c>
       <c r="J211" t="n">
-        <v>430711</v>
+        <v>439495</v>
       </c>
       <c r="K211" t="n">
-        <v>66247</v>
+        <v>71219</v>
       </c>
       <c r="L211" t="n">
-        <v>25702</v>
+        <v>25716</v>
       </c>
       <c r="M211" t="n">
-        <v>13527</v>
+        <v>13538</v>
       </c>
       <c r="N211" t="n">
-        <v>76557</v>
+        <v>84587</v>
       </c>
       <c r="O211" t="n">
-        <v>33892</v>
+        <v>41537</v>
       </c>
       <c r="P211" t="n">
-        <v>-22541</v>
+        <v>-22535</v>
       </c>
       <c r="Q211" t="n">
-        <v>2276</v>
+        <v>2277.7</v>
       </c>
       <c r="R211" t="n">
-        <v>7141</v>
+        <v>8509</v>
       </c>
       <c r="S211" t="n">
-        <v>6084.1</v>
+        <v>7200.9</v>
       </c>
       <c r="T211" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="U211" t="n">
         <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>-141</v>
+        <v>37</v>
       </c>
       <c r="W211" t="n">
-        <v>-35.4</v>
+        <v>40.9</v>
       </c>
       <c r="X211" t="n">
-        <v>-248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="212">
@@ -15898,10 +15898,10 @@
         <v>44071</v>
       </c>
       <c r="B212" t="n">
-        <v>1271</v>
+        <v>1393</v>
       </c>
       <c r="C212" t="n">
-        <v>3080</v>
+        <v>4142</v>
       </c>
       <c r="D212" t="n">
         <v>64914</v>
@@ -15910,61 +15910,61 @@
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>4571</v>
+        <v>4864</v>
       </c>
       <c r="G212" t="n">
-        <v>410</v>
+        <v>518</v>
       </c>
       <c r="H212" t="n">
-        <v>29855</v>
+        <v>33714</v>
       </c>
       <c r="I212" t="n">
-        <v>156166</v>
+        <v>161428</v>
       </c>
       <c r="J212" t="n">
-        <v>380991</v>
+        <v>421246</v>
       </c>
       <c r="K212" t="n">
-        <v>63571</v>
+        <v>72209</v>
       </c>
       <c r="L212" t="n">
-        <v>26087</v>
+        <v>31352</v>
       </c>
       <c r="M212" t="n">
-        <v>14848</v>
+        <v>20109</v>
       </c>
       <c r="N212" t="n">
-        <v>22877</v>
+        <v>62365</v>
       </c>
       <c r="O212" t="n">
-        <v>-20786</v>
+        <v>18300</v>
       </c>
       <c r="P212" t="n">
-        <v>-2747</v>
+        <v>2504</v>
       </c>
       <c r="Q212" t="n">
-        <v>1540</v>
+        <v>2291.7</v>
       </c>
       <c r="R212" t="n">
-        <v>-49720</v>
+        <v>-18249</v>
       </c>
       <c r="S212" t="n">
-        <v>-2261.1</v>
+        <v>3326.9</v>
       </c>
       <c r="T212" t="n">
-        <v>-4469</v>
+        <v>-1144</v>
       </c>
       <c r="U212" t="n">
-        <v>-13</v>
+        <v>-3.3</v>
       </c>
       <c r="V212" t="n">
-        <v>-1644</v>
+        <v>-357.7</v>
       </c>
       <c r="W212" t="n">
-        <v>-677.9</v>
+        <v>-126.6</v>
       </c>
       <c r="X212" t="n">
-        <v>-4745</v>
+        <v>-886</v>
       </c>
     </row>
     <row r="213">
@@ -15972,10 +15972,10 @@
         <v>44072</v>
       </c>
       <c r="B213" t="n">
-        <v>1063</v>
+        <v>1169</v>
       </c>
       <c r="C213" t="n">
-        <v>1770</v>
+        <v>2191</v>
       </c>
       <c r="D213" t="n">
         <v>64892</v>
@@ -15984,61 +15984,61 @@
         <v>4549</v>
       </c>
       <c r="F213" t="n">
-        <v>2794</v>
+        <v>4742</v>
       </c>
       <c r="G213" t="n">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="H213" t="n">
-        <v>20453</v>
+        <v>30627</v>
       </c>
       <c r="I213" t="n">
-        <v>149308</v>
+        <v>154991</v>
       </c>
       <c r="J213" t="n">
-        <v>260466</v>
+        <v>400414</v>
       </c>
       <c r="K213" t="n">
-        <v>13888</v>
+        <v>40487</v>
       </c>
       <c r="L213" t="n">
-        <v>18427</v>
+        <v>24113</v>
       </c>
       <c r="M213" t="n">
-        <v>-17790</v>
+        <v>-12109</v>
       </c>
       <c r="N213" t="n">
-        <v>-99932</v>
+        <v>39241</v>
       </c>
       <c r="O213" t="n">
-        <v>-144226</v>
+        <v>-5455</v>
       </c>
       <c r="P213" t="n">
-        <v>-6858</v>
+        <v>-6437</v>
       </c>
       <c r="Q213" t="n">
-        <v>1141.4</v>
+        <v>1953.1</v>
       </c>
       <c r="R213" t="n">
-        <v>-120525</v>
+        <v>-20832</v>
       </c>
       <c r="S213" t="n">
-        <v>-20187.3</v>
+        <v>-361.7</v>
       </c>
       <c r="T213" t="n">
-        <v>-9402</v>
+        <v>-3087</v>
       </c>
       <c r="U213" t="n">
-        <v>-31.5</v>
+        <v>-9.2</v>
       </c>
       <c r="V213" t="n">
-        <v>-4615.3</v>
+        <v>-1399.3</v>
       </c>
       <c r="W213" t="n">
-        <v>-2023</v>
+        <v>-569.6</v>
       </c>
       <c r="X213" t="n">
-        <v>-14161</v>
+        <v>-3987</v>
       </c>
     </row>
     <row r="214">
@@ -16046,73 +16046,147 @@
         <v>44073</v>
       </c>
       <c r="B214" t="n">
-        <v>881</v>
+        <v>1300</v>
       </c>
       <c r="C214" t="n">
-        <v>398</v>
+        <v>914</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>64890</v>
       </c>
       <c r="E214" t="n">
         <v>5018</v>
       </c>
       <c r="F214" t="n">
-        <v>1000</v>
+        <v>4749</v>
       </c>
       <c r="G214" t="n">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="H214" t="n">
-        <v>4755</v>
+        <v>30105</v>
       </c>
       <c r="I214" t="n">
-        <v>7142</v>
+        <v>156095</v>
       </c>
       <c r="J214" t="n">
-        <v>82295</v>
+        <v>393061</v>
       </c>
       <c r="K214" t="n">
-        <v>11950</v>
+        <v>40596</v>
       </c>
       <c r="L214" t="n">
-        <v>-151780</v>
+        <v>-2823</v>
       </c>
       <c r="M214" t="n">
-        <v>-167745</v>
+        <v>-18794</v>
       </c>
       <c r="N214" t="n">
-        <v>-283368</v>
+        <v>26600</v>
       </c>
       <c r="O214" t="n">
-        <v>-328399</v>
+        <v>-18872</v>
       </c>
       <c r="P214" t="n">
-        <v>-142166</v>
+        <v>1104</v>
       </c>
       <c r="Q214" t="n">
-        <v>-22850.9</v>
+        <v>-1572.1</v>
       </c>
       <c r="R214" t="n">
-        <v>-178171</v>
+        <v>-7353</v>
       </c>
       <c r="S214" t="n">
-        <v>-46056.7</v>
+        <v>-1829.7</v>
       </c>
       <c r="T214" t="n">
-        <v>-15698</v>
+        <v>-522</v>
       </c>
       <c r="U214" t="n">
-        <v>-76.8</v>
+        <v>-1.7</v>
       </c>
       <c r="V214" t="n">
-        <v>-9856.3</v>
+        <v>-1584.3</v>
       </c>
       <c r="W214" t="n">
-        <v>-4274.3</v>
+        <v>-652.9</v>
       </c>
       <c r="X214" t="n">
-        <v>-29920</v>
+        <v>-4570</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B215" t="n">
+        <v>654</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4296</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3286</v>
+      </c>
+      <c r="G215" t="n">
+        <v>287</v>
+      </c>
+      <c r="H215" t="n">
+        <v>17016</v>
+      </c>
+      <c r="I215" t="n">
+        <v>24060</v>
+      </c>
+      <c r="J215" t="n">
+        <v>228540</v>
+      </c>
+      <c r="K215" t="n">
+        <v>31726</v>
+      </c>
+      <c r="L215" t="n">
+        <v>-137309</v>
+      </c>
+      <c r="M215" t="n">
+        <v>-154319</v>
+      </c>
+      <c r="N215" t="n">
+        <v>-145396</v>
+      </c>
+      <c r="O215" t="n">
+        <v>-193360</v>
+      </c>
+      <c r="P215" t="n">
+        <v>-132035</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>-21547</v>
+      </c>
+      <c r="R215" t="n">
+        <v>-164521</v>
+      </c>
+      <c r="S215" t="n">
+        <v>-26199</v>
+      </c>
+      <c r="T215" t="n">
+        <v>-13089</v>
+      </c>
+      <c r="U215" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="V215" t="n">
+        <v>-5566</v>
+      </c>
+      <c r="W215" t="n">
+        <v>-2533</v>
+      </c>
+      <c r="X215" t="n">
+        <v>-17731</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G32" t="n">
         <v>12</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3120,7 +3120,7 @@
         <v>1374</v>
       </c>
       <c r="J39" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>1241</v>
       </c>
       <c r="N39" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="O39" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="P39" t="n">
         <v>371</v>
@@ -3144,10 +3144,10 @@
         <v>185.7</v>
       </c>
       <c r="R39" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S39" t="n">
-        <v>163.1</v>
+        <v>163.3</v>
       </c>
       <c r="T39" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3194,7 +3194,7 @@
         <v>2032</v>
       </c>
       <c r="J40" t="n">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>1837</v>
       </c>
       <c r="N40" t="n">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="O40" t="n">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3221,7 +3221,7 @@
         <v>604</v>
       </c>
       <c r="S40" t="n">
-        <v>241.1</v>
+        <v>241.3</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3292,7 +3292,7 @@
         <v>398.1</v>
       </c>
       <c r="R41" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S41" t="n">
         <v>358.1</v>
@@ -3330,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -3342,7 +3342,7 @@
         <v>4040</v>
       </c>
       <c r="J42" t="n">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -3354,10 +3354,10 @@
         <v>3603</v>
       </c>
       <c r="N42" t="n">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="O42" t="n">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3366,10 +3366,10 @@
         <v>539.1</v>
       </c>
       <c r="R42" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="S42" t="n">
-        <v>483.6</v>
+        <v>483.4</v>
       </c>
       <c r="T42" t="n">
         <v>40</v>
@@ -3404,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="O43" t="n">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3443,7 +3443,7 @@
         <v>1161</v>
       </c>
       <c r="S43" t="n">
-        <v>629.3</v>
+        <v>629.1</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3478,7 +3478,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="G44" t="n">
         <v>219</v>
@@ -3514,7 +3514,7 @@
         <v>956.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="S44" t="n">
         <v>801.6</v>
@@ -3552,7 +3552,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G45" t="n">
         <v>232</v>
@@ -3579,7 +3579,7 @@
         <v>7551</v>
       </c>
       <c r="O45" t="n">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3653,7 +3653,7 @@
         <v>8956</v>
       </c>
       <c r="O46" t="n">
-        <v>7268</v>
+        <v>7267</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1463</v>
       </c>
       <c r="S46" t="n">
-        <v>1124.6</v>
+        <v>1124.4</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1347.7</v>
+        <v>1347.6</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="G48" t="n">
         <v>482</v>
@@ -3786,7 +3786,7 @@
         <v>17582</v>
       </c>
       <c r="J48" t="n">
-        <v>14289</v>
+        <v>14290</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13542</v>
       </c>
       <c r="N48" t="n">
-        <v>14044</v>
+        <v>14045</v>
       </c>
       <c r="O48" t="n">
-        <v>10659</v>
+        <v>10661</v>
       </c>
       <c r="P48" t="n">
         <v>3748</v>
@@ -3810,10 +3810,10 @@
         <v>2085.7</v>
       </c>
       <c r="R48" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="S48" t="n">
-        <v>1658.6</v>
+        <v>1658.7</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3848,7 +3848,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="G49" t="n">
         <v>681</v>
@@ -3860,7 +3860,7 @@
         <v>20760</v>
       </c>
       <c r="J49" t="n">
-        <v>17372</v>
+        <v>17373</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15431</v>
       </c>
       <c r="N49" t="n">
-        <v>16986</v>
+        <v>16987</v>
       </c>
       <c r="O49" t="n">
-        <v>12581</v>
+        <v>12583</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3887,7 +3887,7 @@
         <v>3083</v>
       </c>
       <c r="S49" t="n">
-        <v>1963.1</v>
+        <v>1963.4</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3922,7 +3922,7 @@
         <v>3103</v>
       </c>
       <c r="F50" t="n">
-        <v>7117</v>
+        <v>7119</v>
       </c>
       <c r="G50" t="n">
         <v>830</v>
@@ -3958,10 +3958,10 @@
         <v>3015.4</v>
       </c>
       <c r="R50" t="n">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="S50" t="n">
-        <v>2334.4</v>
+        <v>2334.6</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -3996,7 +3996,7 @@
         <v>3956</v>
       </c>
       <c r="F51" t="n">
-        <v>8699</v>
+        <v>8700</v>
       </c>
       <c r="G51" t="n">
         <v>974</v>
@@ -4008,7 +4008,7 @@
         <v>32043</v>
       </c>
       <c r="J51" t="n">
-        <v>25378</v>
+        <v>25377</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22715</v>
       </c>
       <c r="N51" t="n">
-        <v>24492</v>
+        <v>24491</v>
       </c>
       <c r="O51" t="n">
-        <v>17767</v>
+        <v>17766</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.6</v>
       </c>
       <c r="R51" t="n">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="S51" t="n">
-        <v>2735.3</v>
+        <v>2735.1</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4070,7 +4070,7 @@
         <v>4713</v>
       </c>
       <c r="F52" t="n">
-        <v>10249</v>
+        <v>10250</v>
       </c>
       <c r="G52" t="n">
         <v>1126</v>
@@ -4094,7 +4094,7 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27550</v>
+        <v>27549</v>
       </c>
       <c r="O52" t="n">
         <v>19678</v>
@@ -4106,7 +4106,7 @@
         <v>3915.9</v>
       </c>
       <c r="R52" t="n">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="S52" t="n">
         <v>3020.1</v>
@@ -4144,7 +4144,7 @@
         <v>5164</v>
       </c>
       <c r="F53" t="n">
-        <v>11851</v>
+        <v>11852</v>
       </c>
       <c r="G53" t="n">
         <v>1286</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31710</v>
+        <v>31708</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,10 +4168,10 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29904</v>
+        <v>29901</v>
       </c>
       <c r="O53" t="n">
-        <v>20470</v>
+        <v>20468</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4180,10 +4180,10 @@
         <v>4187.9</v>
       </c>
       <c r="R53" t="n">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="S53" t="n">
-        <v>3233.7</v>
+        <v>3233.4</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4218,7 +4218,7 @@
         <v>5942</v>
       </c>
       <c r="F54" t="n">
-        <v>13492</v>
+        <v>13493</v>
       </c>
       <c r="G54" t="n">
         <v>1493</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36512</v>
+        <v>36510</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33833</v>
+        <v>33831</v>
       </c>
       <c r="O54" t="n">
-        <v>22223</v>
+        <v>22220</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4257,7 +4257,7 @@
         <v>4802</v>
       </c>
       <c r="S54" t="n">
-        <v>3610.3</v>
+        <v>3610</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4292,7 +4292,7 @@
         <v>6463</v>
       </c>
       <c r="F55" t="n">
-        <v>15576</v>
+        <v>15577</v>
       </c>
       <c r="G55" t="n">
         <v>1863</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42047</v>
+        <v>42043</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38417</v>
+        <v>38414</v>
       </c>
       <c r="O55" t="n">
-        <v>24675</v>
+        <v>24670</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4328,10 +4328,10 @@
         <v>4975.1</v>
       </c>
       <c r="R55" t="n">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="S55" t="n">
-        <v>3965.4</v>
+        <v>3964.7</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4366,7 +4366,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17266</v>
+        <v>17267</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47582</v>
+        <v>47576</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42791</v>
+        <v>42786</v>
       </c>
       <c r="O56" t="n">
-        <v>26450</v>
+        <v>26444</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4402,10 +4402,10 @@
         <v>6048.6</v>
       </c>
       <c r="R56" t="n">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="S56" t="n">
-        <v>4315.7</v>
+        <v>4314.7</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4440,7 +4440,7 @@
         <v>10231</v>
       </c>
       <c r="F57" t="n">
-        <v>19398</v>
+        <v>19399</v>
       </c>
       <c r="G57" t="n">
         <v>2349</v>
@@ -4452,7 +4452,7 @@
         <v>72677</v>
       </c>
       <c r="J57" t="n">
-        <v>54379</v>
+        <v>54373</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,10 +4464,10 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48148</v>
+        <v>48142</v>
       </c>
       <c r="O57" t="n">
-        <v>29001</v>
+        <v>28996</v>
       </c>
       <c r="P57" t="n">
         <v>9577</v>
@@ -4479,7 +4479,7 @@
         <v>6797</v>
       </c>
       <c r="S57" t="n">
-        <v>4749.6</v>
+        <v>4748.7</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4526,7 +4526,7 @@
         <v>81189</v>
       </c>
       <c r="J58" t="n">
-        <v>59355</v>
+        <v>59349</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4538,10 +4538,10 @@
         <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51744</v>
+        <v>51738</v>
       </c>
       <c r="O58" t="n">
-        <v>30603</v>
+        <v>30597</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4553,7 +4553,7 @@
         <v>4976</v>
       </c>
       <c r="S58" t="n">
-        <v>4853.9</v>
+        <v>4853.1</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4588,7 +4588,7 @@
         <v>12037</v>
       </c>
       <c r="F59" t="n">
-        <v>23872</v>
+        <v>23873</v>
       </c>
       <c r="G59" t="n">
         <v>2909</v>
@@ -4600,7 +4600,7 @@
         <v>89781</v>
       </c>
       <c r="J59" t="n">
-        <v>62702</v>
+        <v>62695</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4612,10 +4612,10 @@
         <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53628</v>
+        <v>53621</v>
       </c>
       <c r="O59" t="n">
-        <v>30992</v>
+        <v>30987</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4624,10 +4624,10 @@
         <v>7577.4</v>
       </c>
       <c r="R59" t="n">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="S59" t="n">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4674,7 +4674,7 @@
         <v>96085</v>
       </c>
       <c r="J60" t="n">
-        <v>65375</v>
+        <v>65368</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4686,10 +4686,10 @@
         <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54135</v>
+        <v>54128</v>
       </c>
       <c r="O60" t="n">
-        <v>28863</v>
+        <v>28858</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2673</v>
       </c>
       <c r="S60" t="n">
-        <v>4809.3</v>
+        <v>4808.6</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4748,7 +4748,7 @@
         <v>103277</v>
       </c>
       <c r="J61" t="n">
-        <v>70235</v>
+        <v>70229</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,10 +4760,10 @@
         <v>50869</v>
       </c>
       <c r="N61" t="n">
-        <v>55946</v>
+        <v>55939</v>
       </c>
       <c r="O61" t="n">
-        <v>28188</v>
+        <v>28186</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4772,10 +4772,10 @@
         <v>8025.1</v>
       </c>
       <c r="R61" t="n">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="S61" t="n">
-        <v>4817.6</v>
+        <v>4817</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4822,7 +4822,7 @@
         <v>108825</v>
       </c>
       <c r="J62" t="n">
-        <v>74504</v>
+        <v>74500</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,10 +4834,10 @@
         <v>45725</v>
       </c>
       <c r="N62" t="n">
-        <v>57132</v>
+        <v>57127</v>
       </c>
       <c r="O62" t="n">
-        <v>26922</v>
+        <v>26924</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4846,7 +4846,7 @@
         <v>8059.6</v>
       </c>
       <c r="R62" t="n">
-        <v>4269</v>
+        <v>4271</v>
       </c>
       <c r="S62" t="n">
         <v>4636.7</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78334</v>
+        <v>78331</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,10 +4908,10 @@
         <v>44501</v>
       </c>
       <c r="N63" t="n">
-        <v>57202</v>
+        <v>57199</v>
       </c>
       <c r="O63" t="n">
-        <v>23955</v>
+        <v>23958</v>
       </c>
       <c r="P63" t="n">
         <v>8353</v>
@@ -4920,10 +4920,10 @@
         <v>7725.4</v>
       </c>
       <c r="R63" t="n">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="S63" t="n">
-        <v>4393.1</v>
+        <v>4393.6</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82156</v>
+        <v>82152</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,10 +4982,10 @@
         <v>42763</v>
       </c>
       <c r="N64" t="n">
-        <v>56778</v>
+        <v>56775</v>
       </c>
       <c r="O64" t="n">
-        <v>22801</v>
+        <v>22803</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7325</v>
       </c>
       <c r="R64" t="n">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="S64" t="n">
-        <v>3968.1</v>
+        <v>3968.4</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5044,7 +5044,7 @@
         <v>130639</v>
       </c>
       <c r="J65" t="n">
-        <v>86034</v>
+        <v>86028</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,10 +5056,10 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57282</v>
+        <v>57276</v>
       </c>
       <c r="O65" t="n">
-        <v>23332</v>
+        <v>23333</v>
       </c>
       <c r="P65" t="n">
         <v>6687</v>
@@ -5068,7 +5068,7 @@
         <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="S65" t="n">
         <v>3811.3</v>
@@ -5118,7 +5118,7 @@
         <v>135950</v>
       </c>
       <c r="J66" t="n">
-        <v>88464</v>
+        <v>88458</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -5130,10 +5130,10 @@
         <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56754</v>
+        <v>56750</v>
       </c>
       <c r="O66" t="n">
-        <v>23089</v>
+        <v>23090</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
@@ -5145,7 +5145,7 @@
         <v>2430</v>
       </c>
       <c r="S66" t="n">
-        <v>3680.3</v>
+        <v>3680.4</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5192,7 +5192,7 @@
         <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90120</v>
+        <v>90116</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,10 +5204,10 @@
         <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53608</v>
+        <v>53606</v>
       </c>
       <c r="O67" t="n">
-        <v>19885</v>
+        <v>19887</v>
       </c>
       <c r="P67" t="n">
         <v>3763</v>
@@ -5216,10 +5216,10 @@
         <v>6232.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="S67" t="n">
-        <v>3535</v>
+        <v>3535.4</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5266,7 +5266,7 @@
         <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93342</v>
+        <v>93337</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51295</v>
+        <v>51294</v>
       </c>
       <c r="O68" t="n">
-        <v>18838</v>
+        <v>18837</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5290,10 +5290,10 @@
         <v>5903.1</v>
       </c>
       <c r="R68" t="n">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="S68" t="n">
-        <v>3301</v>
+        <v>3301.1</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5340,7 +5340,7 @@
         <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96415</v>
+        <v>96410</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48833</v>
+        <v>48834</v>
       </c>
       <c r="O69" t="n">
-        <v>18081</v>
+        <v>18079</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5367,7 +5367,7 @@
         <v>3073</v>
       </c>
       <c r="S69" t="n">
-        <v>3130.1</v>
+        <v>3130</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5393,7 +5393,7 @@
         <v>2507</v>
       </c>
       <c r="C70" t="n">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D70" t="n">
         <v>119</v>
@@ -5411,37 +5411,37 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154917</v>
+        <v>154916</v>
       </c>
       <c r="J70" t="n">
-        <v>99549</v>
+        <v>99535</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
       </c>
       <c r="L70" t="n">
-        <v>82240</v>
+        <v>82239</v>
       </c>
       <c r="M70" t="n">
-        <v>30965</v>
+        <v>30964</v>
       </c>
       <c r="N70" t="n">
-        <v>45170</v>
+        <v>45162</v>
       </c>
       <c r="O70" t="n">
-        <v>17393</v>
+        <v>17383</v>
       </c>
       <c r="P70" t="n">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="Q70" t="n">
-        <v>5391.3</v>
+        <v>5391.1</v>
       </c>
       <c r="R70" t="n">
-        <v>3134</v>
+        <v>3125</v>
       </c>
       <c r="S70" t="n">
-        <v>3030.7</v>
+        <v>3029.1</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5485,37 +5485,37 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159909</v>
+        <v>159908</v>
       </c>
       <c r="J71" t="n">
-        <v>102178</v>
+        <v>102157</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
       </c>
       <c r="L71" t="n">
-        <v>78720</v>
+        <v>78719</v>
       </c>
       <c r="M71" t="n">
-        <v>29270</v>
+        <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42823</v>
+        <v>42808</v>
       </c>
       <c r="O71" t="n">
-        <v>16144</v>
+        <v>16129</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
       </c>
       <c r="Q71" t="n">
-        <v>5136.7</v>
+        <v>5136.6</v>
       </c>
       <c r="R71" t="n">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="S71" t="n">
-        <v>2860.3</v>
+        <v>2857.9</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>26325</v>
+        <v>26326</v>
       </c>
       <c r="G72" t="n">
         <v>3255</v>
@@ -5559,37 +5559,37 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165064</v>
+        <v>165063</v>
       </c>
       <c r="J72" t="n">
-        <v>104473</v>
+        <v>104443</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
       </c>
       <c r="L72" t="n">
-        <v>75283</v>
+        <v>75282</v>
       </c>
       <c r="M72" t="n">
-        <v>29114</v>
+        <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41771</v>
+        <v>41748</v>
       </c>
       <c r="O72" t="n">
-        <v>16009</v>
+        <v>15985</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
       </c>
       <c r="Q72" t="n">
-        <v>4917.9</v>
+        <v>4917.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2295</v>
+        <v>2286</v>
       </c>
       <c r="S72" t="n">
-        <v>2634.1</v>
+        <v>2630.7</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25501</v>
+        <v>25502</v>
       </c>
       <c r="G73" t="n">
         <v>3205</v>
@@ -5633,37 +5633,37 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168833</v>
+        <v>168832</v>
       </c>
       <c r="J73" t="n">
-        <v>106249</v>
+        <v>106217</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>72748</v>
+        <v>72747</v>
       </c>
       <c r="M73" t="n">
-        <v>29120</v>
+        <v>29119</v>
       </c>
       <c r="N73" t="n">
-        <v>40874</v>
+        <v>40849</v>
       </c>
       <c r="O73" t="n">
-        <v>16129</v>
+        <v>16101</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
       </c>
       <c r="Q73" t="n">
-        <v>4697.6</v>
+        <v>4697.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="S73" t="n">
-        <v>2540.7</v>
+        <v>2537</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24841</v>
+        <v>24842</v>
       </c>
       <c r="G74" t="n">
         <v>3140</v>
@@ -5707,37 +5707,37 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171876</v>
+        <v>171875</v>
       </c>
       <c r="J74" t="n">
-        <v>107501</v>
+        <v>107464</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
       </c>
       <c r="L74" t="n">
-        <v>68599</v>
+        <v>68598</v>
       </c>
       <c r="M74" t="n">
-        <v>27277</v>
+        <v>27276</v>
       </c>
       <c r="N74" t="n">
-        <v>37266</v>
+        <v>37235</v>
       </c>
       <c r="O74" t="n">
-        <v>14159</v>
+        <v>14127</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
       </c>
       <c r="Q74" t="n">
-        <v>4594.7</v>
+        <v>4594.6</v>
       </c>
       <c r="R74" t="n">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="S74" t="n">
-        <v>2483</v>
+        <v>2478.3</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5781,37 +5781,37 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175377</v>
+        <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109434</v>
+        <v>109393</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66552</v>
+        <v>66551</v>
       </c>
       <c r="M75" t="n">
-        <v>25858</v>
+        <v>25857</v>
       </c>
       <c r="N75" t="n">
-        <v>34930</v>
+        <v>34893</v>
       </c>
       <c r="O75" t="n">
-        <v>13019</v>
+        <v>12983</v>
       </c>
       <c r="P75" t="n">
         <v>3501</v>
       </c>
       <c r="Q75" t="n">
-        <v>4396.9</v>
+        <v>4396.7</v>
       </c>
       <c r="R75" t="n">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="S75" t="n">
-        <v>2298.9</v>
+        <v>2293.7</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5855,37 +5855,37 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179705</v>
+        <v>179704</v>
       </c>
       <c r="J76" t="n">
-        <v>111984</v>
+        <v>111939</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
       </c>
       <c r="L76" t="n">
-        <v>62527</v>
+        <v>62526</v>
       </c>
       <c r="M76" t="n">
         <v>24788</v>
       </c>
       <c r="N76" t="n">
-        <v>33650</v>
+        <v>33608</v>
       </c>
       <c r="O76" t="n">
-        <v>12435</v>
+        <v>12404</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
       </c>
       <c r="Q76" t="n">
-        <v>4312.3</v>
+        <v>4312.1</v>
       </c>
       <c r="R76" t="n">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="S76" t="n">
-        <v>2224.1</v>
+        <v>2218.4</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5929,25 +5929,25 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184103</v>
+        <v>184102</v>
       </c>
       <c r="J77" t="n">
-        <v>117019</v>
+        <v>116970</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
       </c>
       <c r="L77" t="n">
-        <v>60151</v>
+        <v>60150</v>
       </c>
       <c r="M77" t="n">
         <v>24194</v>
       </c>
       <c r="N77" t="n">
-        <v>34863</v>
+        <v>34818</v>
       </c>
       <c r="O77" t="n">
-        <v>14841</v>
+        <v>14813</v>
       </c>
       <c r="P77" t="n">
         <v>4398</v>
@@ -5956,10 +5956,10 @@
         <v>4169.4</v>
       </c>
       <c r="R77" t="n">
-        <v>5035</v>
+        <v>5031</v>
       </c>
       <c r="S77" t="n">
-        <v>2495.7</v>
+        <v>2490.7</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -6003,25 +6003,25 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188812</v>
+        <v>188811</v>
       </c>
       <c r="J78" t="n">
-        <v>119383</v>
+        <v>119328</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58173</v>
+        <v>58172</v>
       </c>
       <c r="M78" t="n">
         <v>23748</v>
       </c>
       <c r="N78" t="n">
-        <v>33349</v>
+        <v>33300</v>
       </c>
       <c r="O78" t="n">
-        <v>14910</v>
+        <v>14885</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
@@ -6030,10 +6030,10 @@
         <v>4129</v>
       </c>
       <c r="R78" t="n">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="S78" t="n">
-        <v>2457.9</v>
+        <v>2453</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6077,25 +6077,25 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193910</v>
+        <v>193909</v>
       </c>
       <c r="J79" t="n">
-        <v>121686</v>
+        <v>121624</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57960</v>
+        <v>57959</v>
       </c>
       <c r="M79" t="n">
         <v>25077</v>
       </c>
       <c r="N79" t="n">
-        <v>33222</v>
+        <v>33166</v>
       </c>
       <c r="O79" t="n">
-        <v>15437</v>
+        <v>15407</v>
       </c>
       <c r="P79" t="n">
         <v>5098</v>
@@ -6104,10 +6104,10 @@
         <v>4120.9</v>
       </c>
       <c r="R79" t="n">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="S79" t="n">
-        <v>2459</v>
+        <v>2454.4</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6151,25 +6151,25 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199791</v>
+        <v>199790</v>
       </c>
       <c r="J80" t="n">
-        <v>123169</v>
+        <v>123106</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60078</v>
+        <v>60077</v>
       </c>
       <c r="M80" t="n">
         <v>27915</v>
       </c>
       <c r="N80" t="n">
-        <v>33049</v>
+        <v>32990</v>
       </c>
       <c r="O80" t="n">
-        <v>15668</v>
+        <v>15642</v>
       </c>
       <c r="P80" t="n">
         <v>5881</v>
@@ -6178,10 +6178,10 @@
         <v>4422.6</v>
       </c>
       <c r="R80" t="n">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="S80" t="n">
-        <v>2417.1</v>
+        <v>2412.7</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6225,25 +6225,25 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202018</v>
+        <v>202017</v>
       </c>
       <c r="J81" t="n">
-        <v>124042</v>
+        <v>123979</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57419</v>
+        <v>57418</v>
       </c>
       <c r="M81" t="n">
         <v>26641</v>
       </c>
       <c r="N81" t="n">
-        <v>30700</v>
+        <v>30642</v>
       </c>
       <c r="O81" t="n">
-        <v>14608</v>
+        <v>14586</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
@@ -6255,7 +6255,7 @@
         <v>873</v>
       </c>
       <c r="S81" t="n">
-        <v>2363</v>
+        <v>2359.3</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6299,25 +6299,25 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204941</v>
+        <v>204940</v>
       </c>
       <c r="J82" t="n">
-        <v>125770</v>
+        <v>125705</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55422</v>
+        <v>55421</v>
       </c>
       <c r="M82" t="n">
         <v>25236</v>
       </c>
       <c r="N82" t="n">
-        <v>29355</v>
+        <v>29295</v>
       </c>
       <c r="O82" t="n">
-        <v>13786</v>
+        <v>13766</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
@@ -6326,10 +6326,10 @@
         <v>4223.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="S82" t="n">
-        <v>2333.7</v>
+        <v>2330.3</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6373,10 +6373,10 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208715</v>
+        <v>208714</v>
       </c>
       <c r="J83" t="n">
-        <v>127606</v>
+        <v>127537</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -6388,10 +6388,10 @@
         <v>24612</v>
       </c>
       <c r="N83" t="n">
-        <v>28057</v>
+        <v>28002</v>
       </c>
       <c r="O83" t="n">
-        <v>10587</v>
+        <v>10567</v>
       </c>
       <c r="P83" t="n">
         <v>3774</v>
@@ -6400,10 +6400,10 @@
         <v>4144.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="S83" t="n">
-        <v>2231.7</v>
+        <v>2228.3</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6447,10 +6447,10 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213324</v>
+        <v>213323</v>
       </c>
       <c r="J84" t="n">
-        <v>129561</v>
+        <v>129487</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -6462,10 +6462,10 @@
         <v>24512</v>
       </c>
       <c r="N84" t="n">
-        <v>27383</v>
+        <v>27330</v>
       </c>
       <c r="O84" t="n">
-        <v>10178</v>
+        <v>10159</v>
       </c>
       <c r="P84" t="n">
         <v>4609</v>
@@ -6474,10 +6474,10 @@
         <v>4174.4</v>
       </c>
       <c r="R84" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="S84" t="n">
-        <v>1791.7</v>
+        <v>1788.1</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6521,10 +6521,10 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217045</v>
+        <v>217044</v>
       </c>
       <c r="J85" t="n">
-        <v>130926</v>
+        <v>130851</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -6536,10 +6536,10 @@
         <v>23135</v>
       </c>
       <c r="N85" t="n">
-        <v>26453</v>
+        <v>26408</v>
       </c>
       <c r="O85" t="n">
-        <v>9240</v>
+        <v>9227</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
@@ -6548,10 +6548,10 @@
         <v>4033.3</v>
       </c>
       <c r="R85" t="n">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="S85" t="n">
-        <v>1649</v>
+        <v>1646.1</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6580,7 +6580,7 @@
         <v>715</v>
       </c>
       <c r="D86" t="n">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="E86" t="n">
         <v>19892</v>
@@ -6595,37 +6595,37 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220709</v>
+        <v>220707</v>
       </c>
       <c r="J86" t="n">
-        <v>132419</v>
+        <v>132342</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51876</v>
+        <v>51875</v>
       </c>
       <c r="M86" t="n">
-        <v>20918</v>
+        <v>20917</v>
       </c>
       <c r="N86" t="n">
-        <v>26170</v>
+        <v>26125</v>
       </c>
       <c r="O86" t="n">
-        <v>9250</v>
+        <v>9236</v>
       </c>
       <c r="P86" t="n">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="Q86" t="n">
-        <v>3828.4</v>
+        <v>3828.3</v>
       </c>
       <c r="R86" t="n">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="S86" t="n">
-        <v>1533.3</v>
+        <v>1531.1</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6669,37 +6669,37 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223329</v>
+        <v>223327</v>
       </c>
       <c r="J87" t="n">
-        <v>133210</v>
+        <v>133133</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51453</v>
+        <v>51452</v>
       </c>
       <c r="M87" t="n">
-        <v>21311</v>
+        <v>21310</v>
       </c>
       <c r="N87" t="n">
-        <v>25709</v>
+        <v>25669</v>
       </c>
       <c r="O87" t="n">
-        <v>9168</v>
+        <v>9154</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
       </c>
       <c r="Q87" t="n">
-        <v>3362.6</v>
+        <v>3362.4</v>
       </c>
       <c r="R87" t="n">
         <v>791</v>
       </c>
       <c r="S87" t="n">
-        <v>1434.4</v>
+        <v>1432.4</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6743,37 +6743,37 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225703</v>
+        <v>225701</v>
       </c>
       <c r="J88" t="n">
-        <v>133720</v>
+        <v>133643</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50326</v>
+        <v>50325</v>
       </c>
       <c r="M88" t="n">
-        <v>20762</v>
+        <v>20761</v>
       </c>
       <c r="N88" t="n">
-        <v>24286</v>
+        <v>24250</v>
       </c>
       <c r="O88" t="n">
-        <v>7950</v>
+        <v>7938</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
       </c>
       <c r="Q88" t="n">
-        <v>3383.6</v>
+        <v>3383.4</v>
       </c>
       <c r="R88" t="n">
         <v>510</v>
       </c>
       <c r="S88" t="n">
-        <v>1382.6</v>
+        <v>1380.6</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6817,37 +6817,37 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228400</v>
+        <v>228398</v>
       </c>
       <c r="J89" t="n">
-        <v>134807</v>
+        <v>134725</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48695</v>
+        <v>48694</v>
       </c>
       <c r="M89" t="n">
-        <v>19685</v>
+        <v>19684</v>
       </c>
       <c r="N89" t="n">
-        <v>22823</v>
+        <v>22786</v>
       </c>
       <c r="O89" t="n">
-        <v>7201</v>
+        <v>7188</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
       </c>
       <c r="Q89" t="n">
-        <v>3351.3</v>
+        <v>3351.1</v>
       </c>
       <c r="R89" t="n">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="S89" t="n">
-        <v>1291</v>
+        <v>1288.6</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6891,37 +6891,37 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228215</v>
+        <v>228213</v>
       </c>
       <c r="J90" t="n">
-        <v>136091</v>
+        <v>136007</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="M90" t="n">
-        <v>14891</v>
+        <v>14890</v>
       </c>
       <c r="N90" t="n">
-        <v>19072</v>
+        <v>19037</v>
       </c>
       <c r="O90" t="n">
-        <v>6530</v>
+        <v>6520</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
       </c>
       <c r="Q90" t="n">
-        <v>2785.7</v>
+        <v>2785.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="S90" t="n">
-        <v>1212.1</v>
+        <v>1210</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6950,7 +6950,7 @@
         <v>337</v>
       </c>
       <c r="D91" t="n">
-        <v>8627</v>
+        <v>8626</v>
       </c>
       <c r="E91" t="n">
         <v>20627</v>
@@ -6965,37 +6965,37 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231104</v>
+        <v>231101</v>
       </c>
       <c r="J91" t="n">
-        <v>137063</v>
+        <v>136977</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42292</v>
+        <v>42290</v>
       </c>
       <c r="M91" t="n">
-        <v>14059</v>
+        <v>14057</v>
       </c>
       <c r="N91" t="n">
-        <v>17680</v>
+        <v>17649</v>
       </c>
       <c r="O91" t="n">
-        <v>6137</v>
+        <v>6126</v>
       </c>
       <c r="P91" t="n">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="Q91" t="n">
-        <v>2540</v>
+        <v>2539.7</v>
       </c>
       <c r="R91" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="S91" t="n">
-        <v>1071.7</v>
+        <v>1070</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14497</v>
+        <v>14498</v>
       </c>
       <c r="G92" t="n">
         <v>1914</v>
@@ -7039,37 +7039,37 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234327</v>
+        <v>234324</v>
       </c>
       <c r="J92" t="n">
-        <v>137941</v>
+        <v>137853</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40417</v>
+        <v>40415</v>
       </c>
       <c r="M92" t="n">
-        <v>13618</v>
+        <v>13617</v>
       </c>
       <c r="N92" t="n">
-        <v>16255</v>
+        <v>16229</v>
       </c>
       <c r="O92" t="n">
-        <v>5522</v>
+        <v>5511</v>
       </c>
       <c r="P92" t="n">
         <v>3223</v>
       </c>
       <c r="Q92" t="n">
-        <v>2468.9</v>
+        <v>2468.6</v>
       </c>
       <c r="R92" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="S92" t="n">
-        <v>1002.1</v>
+        <v>1000.3</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7104,7 +7104,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15301</v>
+        <v>15302</v>
       </c>
       <c r="G93" t="n">
         <v>2240</v>
@@ -7113,37 +7113,37 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236486</v>
+        <v>236483</v>
       </c>
       <c r="J93" t="n">
-        <v>138473</v>
+        <v>138378</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36695</v>
+        <v>36693</v>
       </c>
       <c r="M93" t="n">
-        <v>13157</v>
+        <v>13156</v>
       </c>
       <c r="N93" t="n">
-        <v>15304</v>
+        <v>15272</v>
       </c>
       <c r="O93" t="n">
-        <v>5263</v>
+        <v>5245</v>
       </c>
       <c r="P93" t="n">
         <v>2159</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.9</v>
+        <v>2253.7</v>
       </c>
       <c r="R93" t="n">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="S93" t="n">
-        <v>864.9</v>
+        <v>862.3</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>15043</v>
+        <v>15044</v>
       </c>
       <c r="G94" t="n">
         <v>2246</v>
@@ -7187,37 +7187,37 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238144</v>
+        <v>238141</v>
       </c>
       <c r="J94" t="n">
-        <v>138816</v>
+        <v>138721</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36126</v>
+        <v>36124</v>
       </c>
       <c r="M94" t="n">
-        <v>12441</v>
+        <v>12440</v>
       </c>
       <c r="N94" t="n">
-        <v>14774</v>
+        <v>14742</v>
       </c>
       <c r="O94" t="n">
-        <v>5096</v>
+        <v>5078</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2116.4</v>
+        <v>2116.3</v>
       </c>
       <c r="R94" t="n">
         <v>343</v>
       </c>
       <c r="S94" t="n">
-        <v>800.9</v>
+        <v>798.3</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7261,37 +7261,37 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239239</v>
+        <v>239236</v>
       </c>
       <c r="J95" t="n">
-        <v>139085</v>
+        <v>138981</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34298</v>
+        <v>34296</v>
       </c>
       <c r="M95" t="n">
-        <v>10839</v>
+        <v>10838</v>
       </c>
       <c r="N95" t="n">
-        <v>13315</v>
+        <v>13276</v>
       </c>
       <c r="O95" t="n">
-        <v>4278</v>
+        <v>4256</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.7</v>
+        <v>1933.6</v>
       </c>
       <c r="R95" t="n">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="S95" t="n">
-        <v>766.4</v>
+        <v>762.6</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7335,37 +7335,37 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241012</v>
+        <v>241009</v>
       </c>
       <c r="J96" t="n">
-        <v>139897</v>
+        <v>139798</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32297</v>
+        <v>32295</v>
       </c>
       <c r="M96" t="n">
-        <v>12797</v>
+        <v>12796</v>
       </c>
       <c r="N96" t="n">
-        <v>12291</v>
+        <v>12261</v>
       </c>
       <c r="O96" t="n">
-        <v>3806</v>
+        <v>3791</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.7</v>
+        <v>1801.6</v>
       </c>
       <c r="R96" t="n">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="S96" t="n">
-        <v>727.1</v>
+        <v>724.7</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7409,37 +7409,37 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243067</v>
+        <v>243064</v>
       </c>
       <c r="J97" t="n">
-        <v>152930</v>
+        <v>152822</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29743</v>
+        <v>29741</v>
       </c>
       <c r="M97" t="n">
         <v>11963</v>
       </c>
       <c r="N97" t="n">
-        <v>23369</v>
+        <v>23335</v>
       </c>
       <c r="O97" t="n">
-        <v>15867</v>
+        <v>15845</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.7</v>
+        <v>2121.6</v>
       </c>
       <c r="R97" t="n">
-        <v>13033</v>
+        <v>13024</v>
       </c>
       <c r="S97" t="n">
-        <v>2405.6</v>
+        <v>2402.1</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13812</v>
+        <v>13813</v>
       </c>
       <c r="G98" t="n">
         <v>1926</v>
@@ -7483,25 +7483,25 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246014</v>
+        <v>246011</v>
       </c>
       <c r="J98" t="n">
-        <v>153754</v>
+        <v>153649</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28969</v>
+        <v>28967</v>
       </c>
       <c r="M98" t="n">
         <v>11687</v>
       </c>
       <c r="N98" t="n">
-        <v>22828</v>
+        <v>22798</v>
       </c>
       <c r="O98" t="n">
-        <v>15813</v>
+        <v>15796</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
@@ -7510,10 +7510,10 @@
         <v>2130</v>
       </c>
       <c r="R98" t="n">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="S98" t="n">
-        <v>2384.4</v>
+        <v>2381.7</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7548,7 +7548,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13217</v>
+        <v>13218</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,25 +7557,25 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246388</v>
+        <v>246385</v>
       </c>
       <c r="J99" t="n">
-        <v>154452</v>
+        <v>154346</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25679</v>
+        <v>25678</v>
       </c>
       <c r="M99" t="n">
         <v>9902</v>
       </c>
       <c r="N99" t="n">
-        <v>22033</v>
+        <v>22004</v>
       </c>
       <c r="O99" t="n">
-        <v>15979</v>
+        <v>15968</v>
       </c>
       <c r="P99" t="n">
         <v>374</v>
@@ -7584,10 +7584,10 @@
         <v>1723</v>
       </c>
       <c r="R99" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S99" t="n">
-        <v>2358.7</v>
+        <v>2356.1</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7622,7 +7622,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12567</v>
+        <v>12568</v>
       </c>
       <c r="G100" t="n">
         <v>1782</v>
@@ -7631,25 +7631,25 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250924</v>
+        <v>250921</v>
       </c>
       <c r="J100" t="n">
-        <v>155123</v>
+        <v>155019</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27595</v>
+        <v>27594</v>
       </c>
       <c r="M100" t="n">
         <v>12780</v>
       </c>
       <c r="N100" t="n">
-        <v>21913</v>
+        <v>21886</v>
       </c>
       <c r="O100" t="n">
-        <v>16307</v>
+        <v>16298</v>
       </c>
       <c r="P100" t="n">
         <v>4536</v>
@@ -7658,10 +7658,10 @@
         <v>2062.6</v>
       </c>
       <c r="R100" t="n">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="S100" t="n">
-        <v>2378.6</v>
+        <v>2377.3</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,7 +7696,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12170</v>
+        <v>12171</v>
       </c>
       <c r="G101" t="n">
         <v>1705</v>
@@ -7705,25 +7705,25 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252742</v>
+        <v>252739</v>
       </c>
       <c r="J101" t="n">
-        <v>155426</v>
+        <v>155317</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27039</v>
+        <v>27038</v>
       </c>
       <c r="M101" t="n">
         <v>13503</v>
       </c>
       <c r="N101" t="n">
-        <v>21706</v>
+        <v>21674</v>
       </c>
       <c r="O101" t="n">
-        <v>16341</v>
+        <v>16336</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
@@ -7732,10 +7732,10 @@
         <v>2085.4</v>
       </c>
       <c r="R101" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="S101" t="n">
-        <v>2372.9</v>
+        <v>2370.9</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11795</v>
+        <v>11796</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,25 +7779,25 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251699</v>
+        <v>251696</v>
       </c>
       <c r="J102" t="n">
-        <v>155663</v>
+        <v>155548</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23299</v>
+        <v>23298</v>
       </c>
       <c r="M102" t="n">
         <v>10687</v>
       </c>
       <c r="N102" t="n">
-        <v>20856</v>
+        <v>20823</v>
       </c>
       <c r="O102" t="n">
-        <v>15766</v>
+        <v>15750</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
@@ -7806,10 +7806,10 @@
         <v>1780</v>
       </c>
       <c r="R102" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="S102" t="n">
-        <v>2368.3</v>
+        <v>2366.7</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,7 +7844,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11702</v>
+        <v>11703</v>
       </c>
       <c r="G103" t="n">
         <v>1589</v>
@@ -7853,25 +7853,25 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255324</v>
+        <v>255321</v>
       </c>
       <c r="J103" t="n">
-        <v>156236</v>
+        <v>156121</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27109</v>
+        <v>27108</v>
       </c>
       <c r="M103" t="n">
         <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>20145</v>
+        <v>20114</v>
       </c>
       <c r="O103" t="n">
-        <v>3306</v>
+        <v>3299</v>
       </c>
       <c r="P103" t="n">
         <v>3625</v>
@@ -7883,7 +7883,7 @@
         <v>573</v>
       </c>
       <c r="S103" t="n">
-        <v>2334.1</v>
+        <v>2331.9</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11353</v>
+        <v>11355</v>
       </c>
       <c r="G104" t="n">
         <v>1517</v>
@@ -7927,10 +7927,10 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257004</v>
+        <v>257001</v>
       </c>
       <c r="J104" t="n">
-        <v>156914</v>
+        <v>156801</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
@@ -7942,10 +7942,10 @@
         <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19851</v>
+        <v>19824</v>
       </c>
       <c r="O104" t="n">
-        <v>3160</v>
+        <v>3152</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
@@ -7954,10 +7954,10 @@
         <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="S104" t="n">
-        <v>569.1</v>
+        <v>568.4</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,7 +7992,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10949</v>
+        <v>10951</v>
       </c>
       <c r="G105" t="n">
         <v>1436</v>
@@ -8001,10 +8001,10 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258603</v>
+        <v>258600</v>
       </c>
       <c r="J105" t="n">
-        <v>157621</v>
+        <v>157509</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
@@ -8016,10 +8016,10 @@
         <v>12215</v>
       </c>
       <c r="N105" t="n">
-        <v>19680</v>
+        <v>19656</v>
       </c>
       <c r="O105" t="n">
-        <v>3169</v>
+        <v>3163</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
@@ -8028,10 +8028,10 @@
         <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="S105" t="n">
-        <v>552.4</v>
+        <v>551.4</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,7 +8066,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10526</v>
+        <v>10529</v>
       </c>
       <c r="G106" t="n">
         <v>1397</v>
@@ -8075,10 +8075,10 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203387</v>
+        <v>203384</v>
       </c>
       <c r="J106" t="n">
-        <v>185565</v>
+        <v>185450</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -8090,10 +8090,10 @@
         <v>-47537</v>
       </c>
       <c r="N106" t="n">
-        <v>47092</v>
+        <v>47072</v>
       </c>
       <c r="O106" t="n">
-        <v>30442</v>
+        <v>30431</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6143</v>
       </c>
       <c r="R106" t="n">
-        <v>27944</v>
+        <v>27941</v>
       </c>
       <c r="S106" t="n">
-        <v>4444.7</v>
+        <v>4443.4</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8140,7 +8140,7 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="G107" t="n">
         <v>1410</v>
@@ -8149,10 +8149,10 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204683</v>
+        <v>204680</v>
       </c>
       <c r="J107" t="n">
-        <v>198994</v>
+        <v>198878</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
@@ -8164,10 +8164,10 @@
         <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60178</v>
+        <v>60157</v>
       </c>
       <c r="O107" t="n">
-        <v>43568</v>
+        <v>43561</v>
       </c>
       <c r="P107" t="n">
         <v>1296</v>
@@ -8176,10 +8176,10 @@
         <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13429</v>
+        <v>13428</v>
       </c>
       <c r="S107" t="n">
-        <v>6267.3</v>
+        <v>6265.6</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,7 +8214,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9817</v>
+        <v>9818</v>
       </c>
       <c r="G108" t="n">
         <v>1370</v>
@@ -8223,10 +8223,10 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205296</v>
+        <v>205293</v>
       </c>
       <c r="J108" t="n">
-        <v>199317</v>
+        <v>199197</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
@@ -8238,10 +8238,10 @@
         <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60232</v>
+        <v>60216</v>
       </c>
       <c r="O108" t="n">
-        <v>43654</v>
+        <v>43649</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
@@ -8250,10 +8250,10 @@
         <v>-6778</v>
       </c>
       <c r="R108" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S108" t="n">
-        <v>6270.1</v>
+        <v>6268.6</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9685</v>
+        <v>9686</v>
       </c>
       <c r="G109" t="n">
         <v>1333</v>
@@ -8297,10 +8297,10 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205644</v>
+        <v>205641</v>
       </c>
       <c r="J109" t="n">
-        <v>199567</v>
+        <v>199449</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
@@ -8312,10 +8312,10 @@
         <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59670</v>
+        <v>59651</v>
       </c>
       <c r="O109" t="n">
-        <v>43331</v>
+        <v>43328</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
@@ -8324,10 +8324,10 @@
         <v>-6579.3</v>
       </c>
       <c r="R109" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S109" t="n">
-        <v>6272</v>
+        <v>6271.6</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,7 +8362,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9600</v>
+        <v>9601</v>
       </c>
       <c r="G110" t="n">
         <v>1303</v>
@@ -8371,10 +8371,10 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179127</v>
+        <v>179124</v>
       </c>
       <c r="J110" t="n">
-        <v>224895</v>
+        <v>224775</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
@@ -8386,10 +8386,10 @@
         <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71965</v>
+        <v>71953</v>
       </c>
       <c r="O110" t="n">
-        <v>67981</v>
+        <v>67974</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
@@ -8398,10 +8398,10 @@
         <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25328</v>
+        <v>25326</v>
       </c>
       <c r="S110" t="n">
-        <v>9808.4</v>
+        <v>9807.7</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8436,7 +8436,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9310</v>
+        <v>9311</v>
       </c>
       <c r="G111" t="n">
         <v>1250</v>
@@ -8445,10 +8445,10 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175031</v>
+        <v>175028</v>
       </c>
       <c r="J111" t="n">
-        <v>231158</v>
+        <v>231039</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
@@ -8460,10 +8460,10 @@
         <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77404</v>
+        <v>77390</v>
       </c>
       <c r="O111" t="n">
-        <v>73537</v>
+        <v>73530</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
@@ -8472,10 +8472,10 @@
         <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6263</v>
+        <v>6264</v>
       </c>
       <c r="S111" t="n">
-        <v>10606.3</v>
+        <v>10605.4</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8510,7 +8510,7 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8998</v>
+        <v>8999</v>
       </c>
       <c r="G112" t="n">
         <v>1182</v>
@@ -8519,10 +8519,10 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175593</v>
+        <v>175590</v>
       </c>
       <c r="J112" t="n">
-        <v>231943</v>
+        <v>231821</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
@@ -8534,10 +8534,10 @@
         <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77491</v>
+        <v>77475</v>
       </c>
       <c r="O112" t="n">
-        <v>46378</v>
+        <v>46371</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
@@ -8546,10 +8546,10 @@
         <v>-11858.6</v>
       </c>
       <c r="R112" t="n">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="S112" t="n">
-        <v>10617.4</v>
+        <v>10616</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8584,7 +8584,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8654</v>
+        <v>8655</v>
       </c>
       <c r="G113" t="n">
         <v>780</v>
@@ -8593,10 +8593,10 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83765</v>
+        <v>83762</v>
       </c>
       <c r="J113" t="n">
-        <v>232813</v>
+        <v>232690</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
@@ -8608,10 +8608,10 @@
         <v>-120918</v>
       </c>
       <c r="N113" t="n">
-        <v>77690</v>
+        <v>77671</v>
       </c>
       <c r="O113" t="n">
-        <v>33819</v>
+        <v>33812</v>
       </c>
       <c r="P113" t="n">
         <v>-91828</v>
@@ -8620,10 +8620,10 @@
         <v>-17088.9</v>
       </c>
       <c r="R113" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S113" t="n">
-        <v>6749.7</v>
+        <v>6748.6</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8658,7 +8658,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8344</v>
+        <v>8345</v>
       </c>
       <c r="G114" t="n">
         <v>710</v>
@@ -8667,10 +8667,10 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84252</v>
+        <v>84249</v>
       </c>
       <c r="J114" t="n">
-        <v>233681</v>
+        <v>233560</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -8682,10 +8682,10 @@
         <v>-121044</v>
       </c>
       <c r="N114" t="n">
-        <v>78255</v>
+        <v>78243</v>
       </c>
       <c r="O114" t="n">
-        <v>34364</v>
+        <v>34363</v>
       </c>
       <c r="P114" t="n">
         <v>487</v>
@@ -8694,10 +8694,10 @@
         <v>-17204.4</v>
       </c>
       <c r="R114" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="S114" t="n">
-        <v>4955.3</v>
+        <v>4954.6</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,7 +8732,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8106</v>
+        <v>8107</v>
       </c>
       <c r="G115" t="n">
         <v>719</v>
@@ -8741,10 +8741,10 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84466</v>
+        <v>84463</v>
       </c>
       <c r="J115" t="n">
-        <v>234016</v>
+        <v>233896</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -8756,10 +8756,10 @@
         <v>-121178</v>
       </c>
       <c r="N115" t="n">
-        <v>78353</v>
+        <v>78348</v>
       </c>
       <c r="O115" t="n">
-        <v>34449</v>
+        <v>34447</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8768,7 +8768,7 @@
         <v>-17261.4</v>
       </c>
       <c r="R115" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S115" t="n">
         <v>4957</v>
@@ -8806,7 +8806,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="G116" t="n">
         <v>692</v>
@@ -8815,10 +8815,10 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84626</v>
+        <v>84623</v>
       </c>
       <c r="J116" t="n">
-        <v>234307</v>
+        <v>234187</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
@@ -8830,7 +8830,7 @@
         <v>-94501</v>
       </c>
       <c r="N116" t="n">
-        <v>78071</v>
+        <v>78066</v>
       </c>
       <c r="O116" t="n">
         <v>9412</v>
@@ -8845,7 +8845,7 @@
         <v>291</v>
       </c>
       <c r="S116" t="n">
-        <v>4962.9</v>
+        <v>4962.6</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8871,7 +8871,7 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D117" t="n">
         <v>22</v>
@@ -8880,7 +8880,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7934</v>
+        <v>7935</v>
       </c>
       <c r="G117" t="n">
         <v>671</v>
@@ -8889,37 +8889,37 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84971</v>
+        <v>84966</v>
       </c>
       <c r="J117" t="n">
-        <v>234848</v>
+        <v>234725</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172033</v>
+        <v>-172035</v>
       </c>
       <c r="M117" t="n">
-        <v>-90060</v>
+        <v>-90062</v>
       </c>
       <c r="N117" t="n">
-        <v>77934</v>
+        <v>77924</v>
       </c>
       <c r="O117" t="n">
-        <v>3690</v>
+        <v>3686</v>
       </c>
       <c r="P117" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13450.9</v>
+        <v>-13451.1</v>
       </c>
       <c r="R117" t="n">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="S117" t="n">
-        <v>1421.9</v>
+        <v>1421.4</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7789</v>
+        <v>7790</v>
       </c>
       <c r="G118" t="n">
         <v>656</v>
@@ -8963,37 +8963,37 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85350</v>
+        <v>85345</v>
       </c>
       <c r="J118" t="n">
-        <v>235544</v>
+        <v>235421</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173253</v>
+        <v>-173255</v>
       </c>
       <c r="M118" t="n">
-        <v>-90243</v>
+        <v>-90245</v>
       </c>
       <c r="N118" t="n">
-        <v>77923</v>
+        <v>77912</v>
       </c>
       <c r="O118" t="n">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.6</v>
+        <v>-12811.9</v>
       </c>
       <c r="R118" t="n">
         <v>696</v>
       </c>
       <c r="S118" t="n">
-        <v>626.6</v>
+        <v>626</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9019,7 +9019,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="G119" t="n">
         <v>606</v>
@@ -9037,10 +9037,10 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85742</v>
+        <v>85739</v>
       </c>
       <c r="J119" t="n">
-        <v>236321</v>
+        <v>236196</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -9052,22 +9052,22 @@
         <v>1977</v>
       </c>
       <c r="N119" t="n">
-        <v>50756</v>
+        <v>50746</v>
       </c>
       <c r="O119" t="n">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="P119" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q119" t="n">
         <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="S119" t="n">
-        <v>625.4</v>
+        <v>625</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="G120" t="n">
         <v>541</v>
@@ -9111,10 +9111,10 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83958</v>
+        <v>83955</v>
       </c>
       <c r="J120" t="n">
-        <v>237011</v>
+        <v>236886</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,10 +9126,10 @@
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>38017</v>
+        <v>38008</v>
       </c>
       <c r="O120" t="n">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9141,7 +9141,7 @@
         <v>690</v>
       </c>
       <c r="S120" t="n">
-        <v>599.7</v>
+        <v>599.4</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="G121" t="n">
         <v>536</v>
@@ -9185,10 +9185,10 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86341</v>
+        <v>86338</v>
       </c>
       <c r="J121" t="n">
-        <v>237730</v>
+        <v>237605</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38413</v>
+        <v>38408</v>
       </c>
       <c r="O121" t="n">
-        <v>3714</v>
+        <v>3709</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9215,7 +9215,7 @@
         <v>719</v>
       </c>
       <c r="S121" t="n">
-        <v>578.4</v>
+        <v>577.9</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="G122" t="n">
         <v>515</v>
@@ -9259,10 +9259,10 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86482</v>
+        <v>86479</v>
       </c>
       <c r="J122" t="n">
-        <v>238091</v>
+        <v>237967</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -9274,10 +9274,10 @@
         <v>1856</v>
       </c>
       <c r="N122" t="n">
-        <v>38524</v>
+        <v>38518</v>
       </c>
       <c r="O122" t="n">
-        <v>3784</v>
+        <v>3780</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9286,10 +9286,10 @@
         <v>288</v>
       </c>
       <c r="R122" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S122" t="n">
-        <v>582.1</v>
+        <v>581.6</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="G123" t="n">
         <v>521</v>
@@ -9333,10 +9333,10 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86529</v>
+        <v>86526</v>
       </c>
       <c r="J123" t="n">
-        <v>238364</v>
+        <v>238242</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -9345,13 +9345,13 @@
         <v>-92598</v>
       </c>
       <c r="M123" t="n">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="N123" t="n">
-        <v>13469</v>
+        <v>13467</v>
       </c>
       <c r="O123" t="n">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9360,10 +9360,10 @@
         <v>271.9</v>
       </c>
       <c r="R123" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S123" t="n">
-        <v>579.6</v>
+        <v>579.3</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="G124" t="n">
         <v>515</v>
@@ -9407,10 +9407,10 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86606</v>
+        <v>86603</v>
       </c>
       <c r="J124" t="n">
-        <v>238735</v>
+        <v>238613</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -9419,25 +9419,25 @@
         <v>-88425</v>
       </c>
       <c r="M124" t="n">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="N124" t="n">
-        <v>7577</v>
+        <v>7574</v>
       </c>
       <c r="O124" t="n">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
       </c>
       <c r="Q124" t="n">
-        <v>233.6</v>
+        <v>233.9</v>
       </c>
       <c r="R124" t="n">
         <v>371</v>
       </c>
       <c r="S124" t="n">
-        <v>555.3</v>
+        <v>555.4</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="G125" t="n">
         <v>480</v>
@@ -9481,10 +9481,10 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84782</v>
+        <v>84779</v>
       </c>
       <c r="J125" t="n">
-        <v>239344</v>
+        <v>239216</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -9496,22 +9496,22 @@
         <v>-960</v>
       </c>
       <c r="N125" t="n">
-        <v>7401</v>
+        <v>7395</v>
       </c>
       <c r="O125" t="n">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
       </c>
       <c r="Q125" t="n">
-        <v>-81.1</v>
+        <v>-80.9</v>
       </c>
       <c r="R125" t="n">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="S125" t="n">
-        <v>542.9</v>
+        <v>542.1</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9546,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="G126" t="n">
         <v>451</v>
@@ -9555,10 +9555,10 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87113</v>
+        <v>87110</v>
       </c>
       <c r="J126" t="n">
-        <v>239991</v>
+        <v>239858</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
@@ -9570,10 +9570,10 @@
         <v>3155</v>
       </c>
       <c r="N126" t="n">
-        <v>7178</v>
+        <v>7168</v>
       </c>
       <c r="O126" t="n">
-        <v>2980</v>
+        <v>2972</v>
       </c>
       <c r="P126" t="n">
         <v>2331</v>
@@ -9582,10 +9582,10 @@
         <v>195.9</v>
       </c>
       <c r="R126" t="n">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="S126" t="n">
-        <v>524.3</v>
+        <v>523.1</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="G127" t="n">
         <v>427</v>
@@ -9629,10 +9629,10 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94585</v>
+        <v>94582</v>
       </c>
       <c r="J127" t="n">
-        <v>240557</v>
+        <v>240422</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -9644,10 +9644,10 @@
         <v>8244</v>
       </c>
       <c r="N127" t="n">
-        <v>6876</v>
+        <v>6862</v>
       </c>
       <c r="O127" t="n">
-        <v>2827</v>
+        <v>2817</v>
       </c>
       <c r="P127" t="n">
         <v>7472</v>
@@ -9656,10 +9656,10 @@
         <v>1518.1</v>
       </c>
       <c r="R127" t="n">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S127" t="n">
-        <v>506.6</v>
+        <v>505.1</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="G128" t="n">
         <v>404</v>
@@ -9703,10 +9703,10 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97097</v>
+        <v>97094</v>
       </c>
       <c r="J128" t="n">
-        <v>243280</v>
+        <v>243138</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -9718,10 +9718,10 @@
         <v>10615</v>
       </c>
       <c r="N128" t="n">
-        <v>9264</v>
+        <v>9242</v>
       </c>
       <c r="O128" t="n">
-        <v>5189</v>
+        <v>5171</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
@@ -9730,10 +9730,10 @@
         <v>1536.6</v>
       </c>
       <c r="R128" t="n">
-        <v>2723</v>
+        <v>2716</v>
       </c>
       <c r="S128" t="n">
-        <v>792.9</v>
+        <v>790.4</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G129" t="n">
         <v>405</v>
@@ -9777,10 +9777,10 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97089</v>
+        <v>97086</v>
       </c>
       <c r="J129" t="n">
-        <v>243631</v>
+        <v>243488</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -9792,10 +9792,10 @@
         <v>10560</v>
       </c>
       <c r="N129" t="n">
-        <v>9324</v>
+        <v>9301</v>
       </c>
       <c r="O129" t="n">
-        <v>5267</v>
+        <v>5246</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
@@ -9804,10 +9804,10 @@
         <v>1515.3</v>
       </c>
       <c r="R129" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S129" t="n">
-        <v>791.4</v>
+        <v>788.7</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="G130" t="n">
         <v>403</v>
@@ -9851,25 +9851,25 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97246</v>
+        <v>97243</v>
       </c>
       <c r="J130" t="n">
-        <v>244227</v>
+        <v>244085</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12275</v>
+        <v>12277</v>
       </c>
       <c r="M130" t="n">
         <v>10640</v>
       </c>
       <c r="N130" t="n">
-        <v>9379</v>
+        <v>9360</v>
       </c>
       <c r="O130" t="n">
-        <v>5492</v>
+        <v>5472</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
@@ -9878,10 +9878,10 @@
         <v>1531</v>
       </c>
       <c r="R130" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S130" t="n">
-        <v>837.6</v>
+        <v>834.7</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="G131" t="n">
         <v>394</v>
@@ -9925,25 +9925,25 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97391</v>
+        <v>97388</v>
       </c>
       <c r="J131" t="n">
-        <v>244553</v>
+        <v>244412</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12041</v>
+        <v>12043</v>
       </c>
       <c r="M131" t="n">
         <v>12609</v>
       </c>
       <c r="N131" t="n">
-        <v>9009</v>
+        <v>8991</v>
       </c>
       <c r="O131" t="n">
-        <v>5209</v>
+        <v>5196</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
@@ -9952,10 +9952,10 @@
         <v>1540.7</v>
       </c>
       <c r="R131" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S131" t="n">
-        <v>831.1</v>
+        <v>828.4</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="G132" t="n">
         <v>375</v>
@@ -9999,10 +9999,10 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97564</v>
+        <v>97561</v>
       </c>
       <c r="J132" t="n">
-        <v>244985</v>
+        <v>244843</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -10014,10 +10014,10 @@
         <v>10451</v>
       </c>
       <c r="N132" t="n">
-        <v>8664</v>
+        <v>8647</v>
       </c>
       <c r="O132" t="n">
-        <v>4994</v>
+        <v>4985</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
@@ -10026,10 +10026,10 @@
         <v>1826</v>
       </c>
       <c r="R132" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S132" t="n">
-        <v>805.9</v>
+        <v>803.9</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,7 +10064,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="G133" t="n">
         <v>337</v>
@@ -10073,10 +10073,10 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97772</v>
+        <v>97769</v>
       </c>
       <c r="J133" t="n">
-        <v>245437</v>
+        <v>245295</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -10088,10 +10088,10 @@
         <v>3187</v>
       </c>
       <c r="N133" t="n">
-        <v>8426</v>
+        <v>8409</v>
       </c>
       <c r="O133" t="n">
-        <v>4880</v>
+        <v>4873</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
@@ -10103,7 +10103,7 @@
         <v>452</v>
       </c>
       <c r="S133" t="n">
-        <v>778</v>
+        <v>776.7</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,7 +10138,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="G134" t="n">
         <v>336</v>
@@ -10147,10 +10147,10 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97925</v>
+        <v>97922</v>
       </c>
       <c r="J134" t="n">
-        <v>245877</v>
+        <v>245736</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -10162,10 +10162,10 @@
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>8147</v>
+        <v>8131</v>
       </c>
       <c r="O134" t="n">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
@@ -10174,10 +10174,10 @@
         <v>477.1</v>
       </c>
       <c r="R134" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S134" t="n">
-        <v>760</v>
+        <v>759.1</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="G135" t="n">
         <v>324</v>
@@ -10221,10 +10221,10 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98133</v>
+        <v>98130</v>
       </c>
       <c r="J135" t="n">
-        <v>246367</v>
+        <v>246229</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -10236,10 +10236,10 @@
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8276</v>
+        <v>8262</v>
       </c>
       <c r="O135" t="n">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="S135" t="n">
-        <v>441</v>
+        <v>441.6</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,7 +10286,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G136" t="n">
         <v>295</v>
@@ -10295,10 +10295,10 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98190</v>
+        <v>98187</v>
       </c>
       <c r="J136" t="n">
-        <v>246503</v>
+        <v>246366</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -10310,10 +10310,10 @@
         <v>944</v>
       </c>
       <c r="N136" t="n">
-        <v>8139</v>
+        <v>8124</v>
       </c>
       <c r="O136" t="n">
-        <v>2276</v>
+        <v>2281</v>
       </c>
       <c r="P136" t="n">
         <v>57</v>
@@ -10322,10 +10322,10 @@
         <v>157.3</v>
       </c>
       <c r="R136" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S136" t="n">
-        <v>410.3</v>
+        <v>411.1</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,7 +10360,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G137" t="n">
         <v>288</v>
@@ -10369,10 +10369,10 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98226</v>
+        <v>98223</v>
       </c>
       <c r="J137" t="n">
-        <v>246605</v>
+        <v>246468</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -10384,10 +10384,10 @@
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7870</v>
+        <v>7855</v>
       </c>
       <c r="O137" t="n">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="P137" t="n">
         <v>36</v>
@@ -10399,7 +10399,7 @@
         <v>102</v>
       </c>
       <c r="S137" t="n">
-        <v>339.7</v>
+        <v>340.4</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,7 +10434,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G138" t="n">
         <v>301</v>
@@ -10443,10 +10443,10 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98338</v>
+        <v>98335</v>
       </c>
       <c r="J138" t="n">
-        <v>246966</v>
+        <v>246823</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10458,10 +10458,10 @@
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7622</v>
+        <v>7607</v>
       </c>
       <c r="O138" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S138" t="n">
-        <v>344.7</v>
+        <v>344.4</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G139" t="n">
         <v>290</v>
@@ -10517,10 +10517,10 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98515</v>
+        <v>98512</v>
       </c>
       <c r="J139" t="n">
-        <v>245167</v>
+        <v>245015</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10532,10 +10532,10 @@
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5176</v>
+        <v>5157</v>
       </c>
       <c r="O139" t="n">
-        <v>-270</v>
+        <v>-280</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1799</v>
+        <v>-1808</v>
       </c>
       <c r="S139" t="n">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="G140" t="n">
         <v>279</v>
@@ -10591,10 +10591,10 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98655</v>
+        <v>98652</v>
       </c>
       <c r="J140" t="n">
-        <v>245529</v>
+        <v>245380</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10606,10 +10606,10 @@
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4972</v>
+        <v>4958</v>
       </c>
       <c r="O140" t="n">
-        <v>-348</v>
+        <v>-356</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S140" t="n">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10665,10 +10665,10 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98867</v>
+        <v>98864</v>
       </c>
       <c r="J141" t="n">
-        <v>246057</v>
+        <v>245910</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10680,10 +10680,10 @@
         <v>734</v>
       </c>
       <c r="N141" t="n">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="O141" t="n">
-        <v>-310</v>
+        <v>-319</v>
       </c>
       <c r="P141" t="n">
         <v>212</v>
@@ -10692,10 +10692,10 @@
         <v>134.6</v>
       </c>
       <c r="R141" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="S141" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10739,10 +10739,10 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99053</v>
+        <v>99050</v>
       </c>
       <c r="J142" t="n">
-        <v>246458</v>
+        <v>246313</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10754,10 +10754,10 @@
         <v>863</v>
       </c>
       <c r="N142" t="n">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="O142" t="n">
-        <v>-45</v>
+        <v>-53</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10766,10 +10766,10 @@
         <v>131.4</v>
       </c>
       <c r="R142" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10813,10 +10813,10 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99136</v>
+        <v>99133</v>
       </c>
       <c r="J143" t="n">
-        <v>246694</v>
+        <v>246548</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10828,10 +10828,10 @@
         <v>910</v>
       </c>
       <c r="N143" t="n">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="O143" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
@@ -10840,10 +10840,10 @@
         <v>135.1</v>
       </c>
       <c r="R143" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S143" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10887,10 +10887,10 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99192</v>
+        <v>99189</v>
       </c>
       <c r="J144" t="n">
-        <v>246893</v>
+        <v>246747</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>854</v>
       </c>
       <c r="N144" t="n">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="O144" t="n">
-        <v>-73</v>
+        <v>-76</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10917,7 +10917,7 @@
         <v>199</v>
       </c>
       <c r="S144" t="n">
-        <v>41.1</v>
+        <v>39.9</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10961,10 +10961,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99315</v>
+        <v>99312</v>
       </c>
       <c r="J145" t="n">
-        <v>247144</v>
+        <v>246998</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="O145" t="n">
-        <v>1977</v>
+        <v>1983</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10991,7 +10991,7 @@
         <v>251</v>
       </c>
       <c r="S145" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99384</v>
+        <v>99381</v>
       </c>
       <c r="J146" t="n">
-        <v>247535</v>
+        <v>247389</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>729</v>
       </c>
       <c r="N146" t="n">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="O146" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11065,7 +11065,7 @@
         <v>391</v>
       </c>
       <c r="S146" t="n">
-        <v>338.3</v>
+        <v>339.1</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11109,10 +11109,10 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97307</v>
+        <v>97304</v>
       </c>
       <c r="J147" t="n">
-        <v>247885</v>
+        <v>247738</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,7 +11124,7 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O147" t="n">
         <v>1828</v>
@@ -11136,10 +11136,10 @@
         <v>-192.6</v>
       </c>
       <c r="R147" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S147" t="n">
-        <v>336.6</v>
+        <v>336.9</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11183,10 +11183,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>105808</v>
+        <v>105805</v>
       </c>
       <c r="J148" t="n">
-        <v>248293</v>
+        <v>248146</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>6755</v>
       </c>
       <c r="N148" t="n">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="O148" t="n">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="P148" t="n">
         <v>8501</v>
@@ -11248,7 +11248,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G149" t="n">
         <v>191</v>
@@ -11257,10 +11257,10 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>106183</v>
+        <v>106180</v>
       </c>
       <c r="J149" t="n">
-        <v>248854</v>
+        <v>248710</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11272,10 +11272,10 @@
         <v>7047</v>
       </c>
       <c r="N149" t="n">
-        <v>2351</v>
+        <v>2344</v>
       </c>
       <c r="O149" t="n">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="P149" t="n">
         <v>375</v>
@@ -11284,10 +11284,10 @@
         <v>1018.6</v>
       </c>
       <c r="R149" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="S149" t="n">
-        <v>342.3</v>
+        <v>342.4</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11322,7 +11322,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G150" t="n">
         <v>183</v>
@@ -11331,10 +11331,10 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>104044</v>
+        <v>104041</v>
       </c>
       <c r="J150" t="n">
-        <v>249118</v>
+        <v>248975</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>4852</v>
       </c>
       <c r="N150" t="n">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="O150" t="n">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="P150" t="n">
         <v>-2139</v>
@@ -11358,10 +11358,10 @@
         <v>701.1</v>
       </c>
       <c r="R150" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S150" t="n">
-        <v>346.3</v>
+        <v>346.7</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11396,7 +11396,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G151" t="n">
         <v>150</v>
@@ -11405,10 +11405,10 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>104187</v>
+        <v>104184</v>
       </c>
       <c r="J151" t="n">
-        <v>249315</v>
+        <v>249172</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11423,7 +11423,7 @@
         <v>2349</v>
       </c>
       <c r="O151" t="n">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="P151" t="n">
         <v>143</v>
@@ -11435,7 +11435,7 @@
         <v>197</v>
       </c>
       <c r="S151" t="n">
-        <v>346</v>
+        <v>346.4</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="G152" t="n">
         <v>181</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>106695</v>
+        <v>106692</v>
       </c>
       <c r="J152" t="n">
-        <v>249573</v>
+        <v>249432</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>7311</v>
       </c>
       <c r="N152" t="n">
-        <v>4406</v>
+        <v>4417</v>
       </c>
       <c r="O152" t="n">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="P152" t="n">
         <v>2508</v>
@@ -11506,10 +11506,10 @@
         <v>1054.3</v>
       </c>
       <c r="R152" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S152" t="n">
-        <v>347</v>
+        <v>347.7</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,7 +11544,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="G153" t="n">
         <v>178</v>
@@ -11553,10 +11553,10 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>107013</v>
+        <v>107010</v>
       </c>
       <c r="J153" t="n">
-        <v>250024</v>
+        <v>249881</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>9706</v>
       </c>
       <c r="N153" t="n">
-        <v>4495</v>
+        <v>4501</v>
       </c>
       <c r="O153" t="n">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="P153" t="n">
         <v>318</v>
@@ -11580,10 +11580,10 @@
         <v>1089.9</v>
       </c>
       <c r="R153" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S153" t="n">
-        <v>355.6</v>
+        <v>356</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11618,7 +11618,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="G154" t="n">
         <v>175</v>
@@ -11627,10 +11627,10 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>107433</v>
+        <v>107430</v>
       </c>
       <c r="J154" t="n">
-        <v>250461</v>
+        <v>250321</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11642,10 +11642,10 @@
         <v>1625</v>
       </c>
       <c r="N154" t="n">
-        <v>4404</v>
+        <v>4411</v>
       </c>
       <c r="O154" t="n">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="P154" t="n">
         <v>420</v>
@@ -11654,10 +11654,10 @@
         <v>1446.6</v>
       </c>
       <c r="R154" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="S154" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11692,7 +11692,7 @@
         <v>991</v>
       </c>
       <c r="F155" t="n">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="G155" t="n">
         <v>163</v>
@@ -11701,10 +11701,10 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>107853</v>
+        <v>107850</v>
       </c>
       <c r="J155" t="n">
-        <v>250937</v>
+        <v>250796</v>
       </c>
       <c r="K155" t="n">
         <v>65793</v>
@@ -11716,10 +11716,10 @@
         <v>1670</v>
       </c>
       <c r="N155" t="n">
-        <v>4479</v>
+        <v>4483</v>
       </c>
       <c r="O155" t="n">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="P155" t="n">
         <v>420</v>
@@ -11728,10 +11728,10 @@
         <v>292.1</v>
       </c>
       <c r="R155" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S155" t="n">
-        <v>377.7</v>
+        <v>378.6</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11766,7 +11766,7 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G156" t="n">
         <v>155</v>
@@ -11775,10 +11775,10 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102019</v>
+        <v>102016</v>
       </c>
       <c r="J156" t="n">
-        <v>251509</v>
+        <v>251368</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11790,10 +11790,10 @@
         <v>-2025</v>
       </c>
       <c r="N156" t="n">
-        <v>4815</v>
+        <v>4820</v>
       </c>
       <c r="O156" t="n">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="P156" t="n">
         <v>-5834</v>
@@ -11805,7 +11805,7 @@
         <v>572</v>
       </c>
       <c r="S156" t="n">
-        <v>379.3</v>
+        <v>379.7</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11840,7 +11840,7 @@
         <v>63</v>
       </c>
       <c r="F157" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="G157" t="n">
         <v>74</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99849</v>
+        <v>99846</v>
       </c>
       <c r="J157" t="n">
-        <v>251724</v>
+        <v>251583</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11864,10 +11864,10 @@
         <v>-4338</v>
       </c>
       <c r="N157" t="n">
-        <v>4831</v>
+        <v>4836</v>
       </c>
       <c r="O157" t="n">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
@@ -11879,7 +11879,7 @@
         <v>215</v>
       </c>
       <c r="S157" t="n">
-        <v>372.3</v>
+        <v>372.6</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11914,7 +11914,7 @@
         <v>882</v>
       </c>
       <c r="F158" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="G158" t="n">
         <v>63</v>
@@ -11923,10 +11923,10 @@
         <v>33775</v>
       </c>
       <c r="I158" t="n">
-        <v>106381</v>
+        <v>106378</v>
       </c>
       <c r="J158" t="n">
-        <v>251923</v>
+        <v>251781</v>
       </c>
       <c r="K158" t="n">
         <v>40019</v>
@@ -11938,10 +11938,10 @@
         <v>-314</v>
       </c>
       <c r="N158" t="n">
-        <v>4779</v>
+        <v>4783</v>
       </c>
       <c r="O158" t="n">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="P158" t="n">
         <v>6532</v>
@@ -11950,10 +11950,10 @@
         <v>313.4</v>
       </c>
       <c r="R158" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S158" t="n">
-        <v>372.6</v>
+        <v>372.7</v>
       </c>
       <c r="T158" t="n">
         <v>9</v>
@@ -11988,7 +11988,7 @@
         <v>1036</v>
       </c>
       <c r="F159" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="G159" t="n">
         <v>152</v>
@@ -11997,10 +11997,10 @@
         <v>33785</v>
       </c>
       <c r="I159" t="n">
-        <v>109046</v>
+        <v>109043</v>
       </c>
       <c r="J159" t="n">
-        <v>252282</v>
+        <v>252143</v>
       </c>
       <c r="K159" t="n">
         <v>66247</v>
@@ -12012,10 +12012,10 @@
         <v>2033</v>
       </c>
       <c r="N159" t="n">
-        <v>4747</v>
+        <v>4754</v>
       </c>
       <c r="O159" t="n">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="P159" t="n">
         <v>2665</v>
@@ -12024,10 +12024,10 @@
         <v>335.9</v>
       </c>
       <c r="R159" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S159" t="n">
-        <v>387</v>
+        <v>387.3</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12062,7 +12062,7 @@
         <v>1056</v>
       </c>
       <c r="F160" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="G160" t="n">
         <v>146</v>
@@ -12071,10 +12071,10 @@
         <v>33802</v>
       </c>
       <c r="I160" t="n">
-        <v>109661</v>
+        <v>109658</v>
       </c>
       <c r="J160" t="n">
-        <v>252953</v>
+        <v>252827</v>
       </c>
       <c r="K160" t="n">
         <v>66390</v>
@@ -12086,10 +12086,10 @@
         <v>2228</v>
       </c>
       <c r="N160" t="n">
-        <v>5068</v>
+        <v>5089</v>
       </c>
       <c r="O160" t="n">
-        <v>2492</v>
+        <v>2506</v>
       </c>
       <c r="P160" t="n">
         <v>615</v>
@@ -12098,10 +12098,10 @@
         <v>378.3</v>
       </c>
       <c r="R160" t="n">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="S160" t="n">
-        <v>418.4</v>
+        <v>420.9</v>
       </c>
       <c r="T160" t="n">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>1086</v>
       </c>
       <c r="F161" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G161" t="n">
         <v>133</v>
@@ -12145,10 +12145,10 @@
         <v>33811</v>
       </c>
       <c r="I161" t="n">
-        <v>110397</v>
+        <v>110394</v>
       </c>
       <c r="J161" t="n">
-        <v>253599</v>
+        <v>253477</v>
       </c>
       <c r="K161" t="n">
         <v>66547</v>
@@ -12160,10 +12160,10 @@
         <v>2544</v>
       </c>
       <c r="N161" t="n">
-        <v>5306</v>
+        <v>5331</v>
       </c>
       <c r="O161" t="n">
-        <v>2662</v>
+        <v>2681</v>
       </c>
       <c r="P161" t="n">
         <v>736</v>
@@ -12172,10 +12172,10 @@
         <v>423.4</v>
       </c>
       <c r="R161" t="n">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="S161" t="n">
-        <v>448.3</v>
+        <v>450.9</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12210,7 +12210,7 @@
         <v>1142</v>
       </c>
       <c r="F162" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G162" t="n">
         <v>129</v>
@@ -12219,10 +12219,10 @@
         <v>33824</v>
       </c>
       <c r="I162" t="n">
-        <v>111239</v>
+        <v>111236</v>
       </c>
       <c r="J162" t="n">
-        <v>254477</v>
+        <v>254356</v>
       </c>
       <c r="K162" t="n">
         <v>66719</v>
@@ -12234,10 +12234,10 @@
         <v>9220</v>
       </c>
       <c r="N162" t="n">
-        <v>5623</v>
+        <v>5646</v>
       </c>
       <c r="O162" t="n">
-        <v>2968</v>
+        <v>2988</v>
       </c>
       <c r="P162" t="n">
         <v>842</v>
@@ -12246,10 +12246,10 @@
         <v>483.7</v>
       </c>
       <c r="R162" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="S162" t="n">
-        <v>505.7</v>
+        <v>508.6</v>
       </c>
       <c r="T162" t="n">
         <v>13</v>
@@ -12284,7 +12284,7 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G163" t="n">
         <v>124</v>
@@ -12293,10 +12293,10 @@
         <v>33828</v>
       </c>
       <c r="I163" t="n">
-        <v>105684</v>
+        <v>105681</v>
       </c>
       <c r="J163" t="n">
-        <v>255556</v>
+        <v>255448</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -12308,10 +12308,10 @@
         <v>5835</v>
       </c>
       <c r="N163" t="n">
-        <v>6438</v>
+        <v>6473</v>
       </c>
       <c r="O163" t="n">
-        <v>3832</v>
+        <v>3865</v>
       </c>
       <c r="P163" t="n">
         <v>-5555</v>
@@ -12320,10 +12320,10 @@
         <v>523.6</v>
       </c>
       <c r="R163" t="n">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="S163" t="n">
-        <v>578.1</v>
+        <v>582.9</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12358,7 +12358,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G164" t="n">
         <v>66</v>
@@ -12367,10 +12367,10 @@
         <v>33832</v>
       </c>
       <c r="I164" t="n">
-        <v>103663</v>
+        <v>103660</v>
       </c>
       <c r="J164" t="n">
-        <v>256116</v>
+        <v>256011</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
@@ -12382,10 +12382,10 @@
         <v>-2718</v>
       </c>
       <c r="N164" t="n">
-        <v>6801</v>
+        <v>6839</v>
       </c>
       <c r="O164" t="n">
-        <v>4193</v>
+        <v>4230</v>
       </c>
       <c r="P164" t="n">
         <v>-2021</v>
@@ -12394,10 +12394,10 @@
         <v>544.9</v>
       </c>
       <c r="R164" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="S164" t="n">
-        <v>627.4</v>
+        <v>632.6</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12432,7 +12432,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G165" t="n">
         <v>66</v>
@@ -12441,10 +12441,10 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110671</v>
+        <v>110668</v>
       </c>
       <c r="J165" t="n">
-        <v>256487</v>
+        <v>256383</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
@@ -12456,10 +12456,10 @@
         <v>1625</v>
       </c>
       <c r="N165" t="n">
-        <v>6914</v>
+        <v>6951</v>
       </c>
       <c r="O165" t="n">
-        <v>4205</v>
+        <v>4240</v>
       </c>
       <c r="P165" t="n">
         <v>7008</v>
@@ -12468,10 +12468,10 @@
         <v>612.9</v>
       </c>
       <c r="R165" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S165" t="n">
-        <v>652</v>
+        <v>657.4</v>
       </c>
       <c r="T165" t="n">
         <v>8</v>
@@ -12506,7 +12506,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G166" t="n">
         <v>136</v>
@@ -12515,10 +12515,10 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114074</v>
+        <v>114071</v>
       </c>
       <c r="J166" t="n">
-        <v>257275</v>
+        <v>257191</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
@@ -12530,10 +12530,10 @@
         <v>4413</v>
       </c>
       <c r="N166" t="n">
-        <v>7251</v>
+        <v>7310</v>
       </c>
       <c r="O166" t="n">
-        <v>4322</v>
+        <v>4364</v>
       </c>
       <c r="P166" t="n">
         <v>3403</v>
@@ -12542,10 +12542,10 @@
         <v>718.3</v>
       </c>
       <c r="R166" t="n">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="S166" t="n">
-        <v>713.3</v>
+        <v>721.1</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,10 +12589,10 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115358</v>
+        <v>115355</v>
       </c>
       <c r="J167" t="n">
-        <v>258417</v>
+        <v>258363</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
@@ -12604,10 +12604,10 @@
         <v>4961</v>
       </c>
       <c r="N167" t="n">
-        <v>7956</v>
+        <v>8042</v>
       </c>
       <c r="O167" t="n">
-        <v>4818</v>
+        <v>4886</v>
       </c>
       <c r="P167" t="n">
         <v>1284</v>
@@ -12616,10 +12616,10 @@
         <v>813.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1142</v>
+        <v>1172</v>
       </c>
       <c r="S167" t="n">
-        <v>780.6</v>
+        <v>790.9</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12654,7 +12654,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G168" t="n">
         <v>133</v>
@@ -12663,10 +12663,10 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109722</v>
+        <v>109719</v>
       </c>
       <c r="J168" t="n">
-        <v>259765</v>
+        <v>259730</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
@@ -12678,10 +12678,10 @@
         <v>-1517</v>
       </c>
       <c r="N168" t="n">
-        <v>8828</v>
+        <v>8934</v>
       </c>
       <c r="O168" t="n">
-        <v>5288</v>
+        <v>5374</v>
       </c>
       <c r="P168" t="n">
         <v>-5636</v>
@@ -12690,10 +12690,10 @@
         <v>-96.4</v>
       </c>
       <c r="R168" t="n">
-        <v>1348</v>
+        <v>1367</v>
       </c>
       <c r="S168" t="n">
-        <v>880.9</v>
+        <v>893.3</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12728,7 +12728,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G169" t="n">
         <v>130</v>
@@ -12737,10 +12737,10 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111042</v>
+        <v>111039</v>
       </c>
       <c r="J169" t="n">
-        <v>261322</v>
+        <v>261295</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
@@ -12752,10 +12752,10 @@
         <v>5358</v>
       </c>
       <c r="N169" t="n">
-        <v>9813</v>
+        <v>9927</v>
       </c>
       <c r="O169" t="n">
-        <v>5766</v>
+        <v>5847</v>
       </c>
       <c r="P169" t="n">
         <v>1320</v>
@@ -12764,10 +12764,10 @@
         <v>-28.1</v>
       </c>
       <c r="R169" t="n">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="S169" t="n">
-        <v>977.9</v>
+        <v>991.3</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12802,7 +12802,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G170" t="n">
         <v>129</v>
@@ -12811,10 +12811,10 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116140</v>
+        <v>116137</v>
       </c>
       <c r="J170" t="n">
-        <v>263220</v>
+        <v>263229</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -12826,10 +12826,10 @@
         <v>12477</v>
       </c>
       <c r="N170" t="n">
-        <v>11496</v>
+        <v>11646</v>
       </c>
       <c r="O170" t="n">
-        <v>7104</v>
+        <v>7218</v>
       </c>
       <c r="P170" t="n">
         <v>5098</v>
@@ -12838,10 +12838,10 @@
         <v>1493.7</v>
       </c>
       <c r="R170" t="n">
-        <v>1898</v>
+        <v>1934</v>
       </c>
       <c r="S170" t="n">
-        <v>1094.9</v>
+        <v>1111.6</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12876,7 +12876,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G171" t="n">
         <v>76</v>
@@ -12885,10 +12885,10 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114449</v>
+        <v>114446</v>
       </c>
       <c r="J171" t="n">
-        <v>264500</v>
+        <v>264521</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -12900,10 +12900,10 @@
         <v>3778</v>
       </c>
       <c r="N171" t="n">
-        <v>12577</v>
+        <v>12740</v>
       </c>
       <c r="O171" t="n">
-        <v>8013</v>
+        <v>8138</v>
       </c>
       <c r="P171" t="n">
         <v>-1691</v>
@@ -12912,10 +12912,10 @@
         <v>1540.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="S171" t="n">
-        <v>1197.7</v>
+        <v>1215.7</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12950,7 +12950,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G172" t="n">
         <v>79</v>
@@ -12959,10 +12959,10 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123351</v>
+        <v>123348</v>
       </c>
       <c r="J172" t="n">
-        <v>265555</v>
+        <v>265576</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -12974,10 +12974,10 @@
         <v>9277</v>
       </c>
       <c r="N172" t="n">
-        <v>13273</v>
+        <v>13433</v>
       </c>
       <c r="O172" t="n">
-        <v>8280</v>
+        <v>8385</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12989,7 +12989,7 @@
         <v>1055</v>
       </c>
       <c r="S172" t="n">
-        <v>1295.4</v>
+        <v>1313.3</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G173" t="n">
         <v>139</v>
@@ -13033,10 +13033,10 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127505</v>
+        <v>127502</v>
       </c>
       <c r="J173" t="n">
-        <v>267275</v>
+        <v>267310</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
@@ -13048,10 +13048,10 @@
         <v>12147</v>
       </c>
       <c r="N173" t="n">
-        <v>14322</v>
+        <v>14483</v>
       </c>
       <c r="O173" t="n">
-        <v>8858</v>
+        <v>8947</v>
       </c>
       <c r="P173" t="n">
         <v>4154</v>
@@ -13060,10 +13060,10 @@
         <v>1918.7</v>
       </c>
       <c r="R173" t="n">
-        <v>1720</v>
+        <v>1734</v>
       </c>
       <c r="S173" t="n">
-        <v>1428.6</v>
+        <v>1445.6</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13098,7 +13098,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="G174" t="n">
         <v>146</v>
@@ -13107,10 +13107,10 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129265</v>
+        <v>129262</v>
       </c>
       <c r="J174" t="n">
-        <v>269549</v>
+        <v>269601</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
@@ -13122,10 +13122,10 @@
         <v>19543</v>
       </c>
       <c r="N174" t="n">
-        <v>15950</v>
+        <v>16124</v>
       </c>
       <c r="O174" t="n">
-        <v>9784</v>
+        <v>9871</v>
       </c>
       <c r="P174" t="n">
         <v>1760</v>
@@ -13134,10 +13134,10 @@
         <v>1986.7</v>
       </c>
       <c r="R174" t="n">
-        <v>2274</v>
+        <v>2291</v>
       </c>
       <c r="S174" t="n">
-        <v>1590.3</v>
+        <v>1605.4</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="G175" t="n">
         <v>159</v>
@@ -13181,10 +13181,10 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131534</v>
+        <v>131531</v>
       </c>
       <c r="J175" t="n">
-        <v>271815</v>
+        <v>271878</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
@@ -13196,10 +13196,10 @@
         <v>20492</v>
       </c>
       <c r="N175" t="n">
-        <v>17338</v>
+        <v>17522</v>
       </c>
       <c r="O175" t="n">
-        <v>10493</v>
+        <v>10583</v>
       </c>
       <c r="P175" t="n">
         <v>2269</v>
@@ -13208,10 +13208,10 @@
         <v>3116</v>
       </c>
       <c r="R175" t="n">
-        <v>2266</v>
+        <v>2277</v>
       </c>
       <c r="S175" t="n">
-        <v>1721.4</v>
+        <v>1735.4</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13237,7 +13237,7 @@
         <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D176" t="n">
         <v>296</v>
@@ -13246,7 +13246,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="G176" t="n">
         <v>159</v>
@@ -13255,37 +13255,37 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133445</v>
+        <v>133441</v>
       </c>
       <c r="J176" t="n">
-        <v>273998</v>
+        <v>274058</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>27761</v>
+        <v>27760</v>
       </c>
       <c r="M176" t="n">
-        <v>17305</v>
+        <v>17304</v>
       </c>
       <c r="N176" t="n">
-        <v>18442</v>
+        <v>18610</v>
       </c>
       <c r="O176" t="n">
-        <v>10778</v>
+        <v>10829</v>
       </c>
       <c r="P176" t="n">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="Q176" t="n">
-        <v>3200.4</v>
+        <v>3200.3</v>
       </c>
       <c r="R176" t="n">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="S176" t="n">
-        <v>1810.9</v>
+        <v>1823.3</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13311,7 +13311,7 @@
         <v>44</v>
       </c>
       <c r="C177" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D177" t="n">
         <v>199</v>
@@ -13320,7 +13320,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G177" t="n">
         <v>177</v>
@@ -13329,10 +13329,10 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125444</v>
+        <v>125441</v>
       </c>
       <c r="J177" t="n">
-        <v>276640</v>
+        <v>276703</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
@@ -13344,22 +13344,22 @@
         <v>10995</v>
       </c>
       <c r="N177" t="n">
-        <v>20524</v>
+        <v>20692</v>
       </c>
       <c r="O177" t="n">
-        <v>12140</v>
+        <v>12182</v>
       </c>
       <c r="P177" t="n">
-        <v>-8001</v>
+        <v>-8000</v>
       </c>
       <c r="Q177" t="n">
         <v>1329.1</v>
       </c>
       <c r="R177" t="n">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="S177" t="n">
-        <v>1917.1</v>
+        <v>1924.9</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G178" t="n">
         <v>116</v>
@@ -13403,10 +13403,10 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104448</v>
+        <v>104445</v>
       </c>
       <c r="J178" t="n">
-        <v>278127</v>
+        <v>278191</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
@@ -13418,10 +13418,10 @@
         <v>-18903</v>
       </c>
       <c r="N178" t="n">
-        <v>21640</v>
+        <v>21808</v>
       </c>
       <c r="O178" t="n">
-        <v>12572</v>
+        <v>12615</v>
       </c>
       <c r="P178" t="n">
         <v>-20996</v>
@@ -13430,10 +13430,10 @@
         <v>-1428.7</v>
       </c>
       <c r="R178" t="n">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="S178" t="n">
-        <v>1946.7</v>
+        <v>1952.9</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G179" t="n">
         <v>108</v>
@@ -13477,10 +13477,10 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115781</v>
+        <v>115778</v>
       </c>
       <c r="J179" t="n">
-        <v>279463</v>
+        <v>279529</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
@@ -13492,10 +13492,10 @@
         <v>-11724</v>
       </c>
       <c r="N179" t="n">
-        <v>22188</v>
+        <v>22338</v>
       </c>
       <c r="O179" t="n">
-        <v>12188</v>
+        <v>12219</v>
       </c>
       <c r="P179" t="n">
         <v>11333</v>
@@ -13504,10 +13504,10 @@
         <v>-1081.4</v>
       </c>
       <c r="R179" t="n">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="S179" t="n">
-        <v>1986.9</v>
+        <v>1993.3</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13542,7 +13542,7 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G180" t="n">
         <v>199</v>
@@ -13551,10 +13551,10 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115773</v>
+        <v>115770</v>
       </c>
       <c r="J180" t="n">
-        <v>281562</v>
+        <v>281630</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
@@ -13566,10 +13566,10 @@
         <v>-13492</v>
       </c>
       <c r="N180" t="n">
-        <v>23145</v>
+        <v>23267</v>
       </c>
       <c r="O180" t="n">
-        <v>12013</v>
+        <v>12029</v>
       </c>
       <c r="P180" t="n">
         <v>-8</v>
@@ -13578,10 +13578,10 @@
         <v>-1676</v>
       </c>
       <c r="R180" t="n">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="S180" t="n">
-        <v>2041</v>
+        <v>2045.7</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G181" t="n">
         <v>215</v>
@@ -13625,10 +13625,10 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110089</v>
+        <v>110086</v>
       </c>
       <c r="J181" t="n">
-        <v>284324</v>
+        <v>284397</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
@@ -13640,10 +13640,10 @@
         <v>-21445</v>
       </c>
       <c r="N181" t="n">
-        <v>24559</v>
+        <v>24667</v>
       </c>
       <c r="O181" t="n">
-        <v>12509</v>
+        <v>12519</v>
       </c>
       <c r="P181" t="n">
         <v>-5684</v>
@@ -13652,10 +13652,10 @@
         <v>-2739.4</v>
       </c>
       <c r="R181" t="n">
-        <v>2762</v>
+        <v>2767</v>
       </c>
       <c r="S181" t="n">
-        <v>2110.7</v>
+        <v>2113.7</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="G182" t="n">
         <v>207</v>
@@ -13699,10 +13699,10 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123647</v>
+        <v>123644</v>
       </c>
       <c r="J182" t="n">
-        <v>287081</v>
+        <v>287195</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
@@ -13711,13 +13711,13 @@
         <v>12605</v>
       </c>
       <c r="M182" t="n">
-        <v>-9798</v>
+        <v>-9797</v>
       </c>
       <c r="N182" t="n">
-        <v>25759</v>
+        <v>25900</v>
       </c>
       <c r="O182" t="n">
-        <v>13083</v>
+        <v>13137</v>
       </c>
       <c r="P182" t="n">
         <v>13558</v>
@@ -13726,10 +13726,10 @@
         <v>-1126.7</v>
       </c>
       <c r="R182" t="n">
-        <v>2757</v>
+        <v>2798</v>
       </c>
       <c r="S182" t="n">
-        <v>2180.9</v>
+        <v>2188.1</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="G183" t="n">
         <v>217</v>
@@ -13773,10 +13773,10 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113184</v>
+        <v>113181</v>
       </c>
       <c r="J183" t="n">
-        <v>292777</v>
+        <v>292939</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
@@ -13788,22 +13788,22 @@
         <v>-12260</v>
       </c>
       <c r="N183" t="n">
-        <v>29557</v>
+        <v>29710</v>
       </c>
       <c r="O183" t="n">
-        <v>16137</v>
+        <v>16236</v>
       </c>
       <c r="P183" t="n">
         <v>-10463</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894.4</v>
+        <v>-2894.3</v>
       </c>
       <c r="R183" t="n">
-        <v>5696</v>
+        <v>5744</v>
       </c>
       <c r="S183" t="n">
-        <v>2682.7</v>
+        <v>2697.3</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="G184" t="n">
         <v>218</v>
@@ -13847,10 +13847,10 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114831</v>
+        <v>114828</v>
       </c>
       <c r="J184" t="n">
-        <v>296334</v>
+        <v>296508</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
@@ -13862,10 +13862,10 @@
         <v>10383</v>
       </c>
       <c r="N184" t="n">
-        <v>31834</v>
+        <v>31987</v>
       </c>
       <c r="O184" t="n">
-        <v>18207</v>
+        <v>18317</v>
       </c>
       <c r="P184" t="n">
         <v>1647</v>
@@ -13874,10 +13874,10 @@
         <v>-1516.1</v>
       </c>
       <c r="R184" t="n">
-        <v>3557</v>
+        <v>3569</v>
       </c>
       <c r="S184" t="n">
-        <v>2813.4</v>
+        <v>2829.3</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,10 +13921,10 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110281</v>
+        <v>110278</v>
       </c>
       <c r="J185" t="n">
-        <v>299122</v>
+        <v>299297</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
@@ -13936,10 +13936,10 @@
         <v>-5500</v>
       </c>
       <c r="N185" t="n">
-        <v>33567</v>
+        <v>33721</v>
       </c>
       <c r="O185" t="n">
-        <v>19659</v>
+        <v>19768</v>
       </c>
       <c r="P185" t="n">
         <v>-4550</v>
@@ -13948,10 +13948,10 @@
         <v>833.3</v>
       </c>
       <c r="R185" t="n">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="S185" t="n">
-        <v>2999.3</v>
+        <v>3015.1</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13986,7 +13986,7 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="G186" t="n">
         <v>131</v>
@@ -13995,10 +13995,10 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123808</v>
+        <v>123805</v>
       </c>
       <c r="J186" t="n">
-        <v>300687</v>
+        <v>300862</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
@@ -14010,10 +14010,10 @@
         <v>8035</v>
       </c>
       <c r="N186" t="n">
-        <v>33412</v>
+        <v>33552</v>
       </c>
       <c r="O186" t="n">
-        <v>19125</v>
+        <v>19232</v>
       </c>
       <c r="P186" t="n">
         <v>13527</v>
@@ -14025,7 +14025,7 @@
         <v>1565</v>
       </c>
       <c r="S186" t="n">
-        <v>3032</v>
+        <v>3047.6</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14060,7 +14060,7 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="G187" t="n">
         <v>248</v>
@@ -14069,10 +14069,10 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132251</v>
+        <v>132248</v>
       </c>
       <c r="J187" t="n">
-        <v>303610</v>
+        <v>303790</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
@@ -14084,10 +14084,10 @@
         <v>22162</v>
       </c>
       <c r="N187" t="n">
-        <v>34061</v>
+        <v>34189</v>
       </c>
       <c r="O187" t="n">
-        <v>19286</v>
+        <v>19393</v>
       </c>
       <c r="P187" t="n">
         <v>8443</v>
@@ -14096,10 +14096,10 @@
         <v>2354</v>
       </c>
       <c r="R187" t="n">
-        <v>2923</v>
+        <v>2928</v>
       </c>
       <c r="S187" t="n">
-        <v>3149.7</v>
+        <v>3165.7</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14134,7 +14134,7 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="G188" t="n">
         <v>259</v>
@@ -14143,10 +14143,10 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134172</v>
+        <v>134169</v>
       </c>
       <c r="J188" t="n">
-        <v>307598</v>
+        <v>307783</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
@@ -14158,10 +14158,10 @@
         <v>10525</v>
       </c>
       <c r="N188" t="n">
-        <v>35783</v>
+        <v>35905</v>
       </c>
       <c r="O188" t="n">
-        <v>20517</v>
+        <v>20588</v>
       </c>
       <c r="P188" t="n">
         <v>1921</v>
@@ -14170,10 +14170,10 @@
         <v>3440.4</v>
       </c>
       <c r="R188" t="n">
-        <v>3988</v>
+        <v>3993</v>
       </c>
       <c r="S188" t="n">
-        <v>3324.9</v>
+        <v>3340.9</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14208,7 +14208,7 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="G189" t="n">
         <v>264</v>
@@ -14217,25 +14217,25 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136175</v>
+        <v>136172</v>
       </c>
       <c r="J189" t="n">
-        <v>311463</v>
+        <v>311646</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="M189" t="n">
         <v>22991</v>
       </c>
       <c r="N189" t="n">
-        <v>37465</v>
+        <v>37588</v>
       </c>
       <c r="O189" t="n">
-        <v>18686</v>
+        <v>18707</v>
       </c>
       <c r="P189" t="n">
         <v>2003</v>
@@ -14244,10 +14244,10 @@
         <v>1789.7</v>
       </c>
       <c r="R189" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="S189" t="n">
-        <v>3483.1</v>
+        <v>3493</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="G190" t="n">
         <v>268</v>
@@ -14291,10 +14291,10 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138292</v>
+        <v>138289</v>
       </c>
       <c r="J190" t="n">
-        <v>315963</v>
+        <v>316149</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
@@ -14306,10 +14306,10 @@
         <v>23461</v>
       </c>
       <c r="N190" t="n">
-        <v>39323</v>
+        <v>39446</v>
       </c>
       <c r="O190" t="n">
-        <v>19629</v>
+        <v>19641</v>
       </c>
       <c r="P190" t="n">
         <v>2117</v>
@@ -14318,10 +14318,10 @@
         <v>3586.9</v>
       </c>
       <c r="R190" t="n">
-        <v>4500</v>
+        <v>4503</v>
       </c>
       <c r="S190" t="n">
-        <v>3312.3</v>
+        <v>3315.7</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14356,7 +14356,7 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="G191" t="n">
         <v>279</v>
@@ -14365,10 +14365,10 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122877</v>
+        <v>122874</v>
       </c>
       <c r="J191" t="n">
-        <v>321237</v>
+        <v>321424</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
@@ -14380,10 +14380,10 @@
         <v>12596</v>
       </c>
       <c r="N191" t="n">
-        <v>43110</v>
+        <v>43233</v>
       </c>
       <c r="O191" t="n">
-        <v>22115</v>
+        <v>22127</v>
       </c>
       <c r="P191" t="n">
         <v>-15415</v>
@@ -14392,10 +14392,10 @@
         <v>1149.4</v>
       </c>
       <c r="R191" t="n">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="S191" t="n">
-        <v>3557.6</v>
+        <v>3559.4</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="G192" t="n">
         <v>191</v>
@@ -14439,10 +14439,10 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120855</v>
+        <v>120852</v>
       </c>
       <c r="J192" t="n">
-        <v>324182</v>
+        <v>324371</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
@@ -14454,10 +14454,10 @@
         <v>-2953</v>
       </c>
       <c r="N192" t="n">
-        <v>44719</v>
+        <v>44842</v>
       </c>
       <c r="O192" t="n">
-        <v>23495</v>
+        <v>23509</v>
       </c>
       <c r="P192" t="n">
         <v>-2022</v>
@@ -14466,10 +14466,10 @@
         <v>1510.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="S192" t="n">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="G193" t="n">
         <v>221</v>
@@ -14513,10 +14513,10 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139669</v>
+        <v>139666</v>
       </c>
       <c r="J193" t="n">
-        <v>326242</v>
+        <v>326431</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
@@ -14528,10 +14528,10 @@
         <v>7418</v>
       </c>
       <c r="N193" t="n">
-        <v>44680</v>
+        <v>44801</v>
       </c>
       <c r="O193" t="n">
-        <v>22632</v>
+        <v>22641</v>
       </c>
       <c r="P193" t="n">
         <v>18814</v>
@@ -14543,7 +14543,7 @@
         <v>2060</v>
       </c>
       <c r="S193" t="n">
-        <v>3650.7</v>
+        <v>3652.7</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="G194" t="n">
         <v>319</v>
@@ -14587,10 +14587,10 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140179</v>
+        <v>140176</v>
       </c>
       <c r="J194" t="n">
-        <v>330301</v>
+        <v>330494</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
@@ -14602,10 +14602,10 @@
         <v>6007</v>
       </c>
       <c r="N194" t="n">
-        <v>45977</v>
+        <v>46097</v>
       </c>
       <c r="O194" t="n">
-        <v>22703</v>
+        <v>22711</v>
       </c>
       <c r="P194" t="n">
         <v>510</v>
@@ -14614,10 +14614,10 @@
         <v>1132.6</v>
       </c>
       <c r="R194" t="n">
-        <v>4059</v>
+        <v>4063</v>
       </c>
       <c r="S194" t="n">
-        <v>3813</v>
+        <v>3814.9</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14661,10 +14661,10 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146929</v>
+        <v>146926</v>
       </c>
       <c r="J195" t="n">
-        <v>336015</v>
+        <v>336208</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
@@ -14676,10 +14676,10 @@
         <v>10754</v>
       </c>
       <c r="N195" t="n">
-        <v>48934</v>
+        <v>49013</v>
       </c>
       <c r="O195" t="n">
-        <v>24552</v>
+        <v>24562</v>
       </c>
       <c r="P195" t="n">
         <v>6750</v>
@@ -14691,7 +14691,7 @@
         <v>5714</v>
       </c>
       <c r="S195" t="n">
-        <v>4059.6</v>
+        <v>4060.7</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14735,10 +14735,10 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149141</v>
+        <v>149138</v>
       </c>
       <c r="J196" t="n">
-        <v>341570</v>
+        <v>341773</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
@@ -14750,10 +14750,10 @@
         <v>10849</v>
       </c>
       <c r="N196" t="n">
-        <v>48793</v>
+        <v>48834</v>
       </c>
       <c r="O196" t="n">
-        <v>25607</v>
+        <v>25624</v>
       </c>
       <c r="P196" t="n">
         <v>2212</v>
@@ -14762,10 +14762,10 @@
         <v>1852.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5555</v>
+        <v>5565</v>
       </c>
       <c r="S196" t="n">
-        <v>4301</v>
+        <v>4303.9</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14809,10 +14809,10 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151512</v>
+        <v>151509</v>
       </c>
       <c r="J197" t="n">
-        <v>347796</v>
+        <v>348003</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
@@ -14824,10 +14824,10 @@
         <v>28635</v>
       </c>
       <c r="N197" t="n">
-        <v>51462</v>
+        <v>51495</v>
       </c>
       <c r="O197" t="n">
-        <v>26559</v>
+        <v>26579</v>
       </c>
       <c r="P197" t="n">
         <v>2371</v>
@@ -14836,10 +14836,10 @@
         <v>1888.6</v>
       </c>
       <c r="R197" t="n">
-        <v>6226</v>
+        <v>6230</v>
       </c>
       <c r="S197" t="n">
-        <v>4547.6</v>
+        <v>4550.6</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14883,10 +14883,10 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133208</v>
+        <v>133205</v>
       </c>
       <c r="J198" t="n">
-        <v>354908</v>
+        <v>355130</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
@@ -14898,10 +14898,10 @@
         <v>12353</v>
       </c>
       <c r="N198" t="n">
-        <v>55786</v>
+        <v>55833</v>
       </c>
       <c r="O198" t="n">
-        <v>30726</v>
+        <v>30759</v>
       </c>
       <c r="P198" t="n">
         <v>-18304</v>
@@ -14910,10 +14910,10 @@
         <v>1475.9</v>
       </c>
       <c r="R198" t="n">
-        <v>7112</v>
+        <v>7127</v>
       </c>
       <c r="S198" t="n">
-        <v>4810.1</v>
+        <v>4815.1</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14957,10 +14957,10 @@
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130076</v>
+        <v>130073</v>
       </c>
       <c r="J199" t="n">
-        <v>358881</v>
+        <v>359105</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
@@ -14972,10 +14972,10 @@
         <v>-9593</v>
       </c>
       <c r="N199" t="n">
-        <v>58194</v>
+        <v>58243</v>
       </c>
       <c r="O199" t="n">
-        <v>32639</v>
+        <v>32674</v>
       </c>
       <c r="P199" t="n">
         <v>-3132</v>
@@ -14984,10 +14984,10 @@
         <v>1317.3</v>
       </c>
       <c r="R199" t="n">
-        <v>3973</v>
+        <v>3975</v>
       </c>
       <c r="S199" t="n">
-        <v>4957</v>
+        <v>4962</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15031,10 +15031,10 @@
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130878</v>
+        <v>130875</v>
       </c>
       <c r="J200" t="n">
-        <v>361173</v>
+        <v>361399</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
@@ -15046,10 +15046,10 @@
         <v>-9301</v>
       </c>
       <c r="N200" t="n">
-        <v>57563</v>
+        <v>57609</v>
       </c>
       <c r="O200" t="n">
-        <v>30872</v>
+        <v>30905</v>
       </c>
       <c r="P200" t="n">
         <v>802</v>
@@ -15058,10 +15058,10 @@
         <v>-1255.9</v>
       </c>
       <c r="R200" t="n">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="S200" t="n">
-        <v>4990.1</v>
+        <v>4995.4</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15105,10 +15105,10 @@
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158918</v>
+        <v>158915</v>
       </c>
       <c r="J201" t="n">
-        <v>366461</v>
+        <v>366697</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
@@ -15120,10 +15120,10 @@
         <v>11989</v>
       </c>
       <c r="N201" t="n">
-        <v>58863</v>
+        <v>58914</v>
       </c>
       <c r="O201" t="n">
-        <v>30446</v>
+        <v>30489</v>
       </c>
       <c r="P201" t="n">
         <v>28040</v>
@@ -15132,10 +15132,10 @@
         <v>2677</v>
       </c>
       <c r="R201" t="n">
-        <v>5288</v>
+        <v>5298</v>
       </c>
       <c r="S201" t="n">
-        <v>5165.7</v>
+        <v>5171.9</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15179,10 +15179,10 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161369</v>
+        <v>161366</v>
       </c>
       <c r="J202" t="n">
-        <v>373936</v>
+        <v>374197</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
@@ -15194,10 +15194,10 @@
         <v>12228</v>
       </c>
       <c r="N202" t="n">
-        <v>62473</v>
+        <v>62551</v>
       </c>
       <c r="O202" t="n">
-        <v>32366</v>
+        <v>32424</v>
       </c>
       <c r="P202" t="n">
         <v>2451</v>
@@ -15206,10 +15206,10 @@
         <v>2062.9</v>
       </c>
       <c r="R202" t="n">
-        <v>7475</v>
+        <v>7500</v>
       </c>
       <c r="S202" t="n">
-        <v>5417.3</v>
+        <v>5427</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15244,7 +15244,7 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="G203" t="n">
         <v>477</v>
@@ -15253,10 +15253,10 @@
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164048</v>
+        <v>164045</v>
       </c>
       <c r="J203" t="n">
-        <v>381481</v>
+        <v>381750</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
@@ -15268,10 +15268,10 @@
         <v>12536</v>
       </c>
       <c r="N203" t="n">
-        <v>65518</v>
+        <v>65601</v>
       </c>
       <c r="O203" t="n">
-        <v>33685</v>
+        <v>33747</v>
       </c>
       <c r="P203" t="n">
         <v>2679</v>
@@ -15280,10 +15280,10 @@
         <v>2129.6</v>
       </c>
       <c r="R203" t="n">
-        <v>7545</v>
+        <v>7553</v>
       </c>
       <c r="S203" t="n">
-        <v>5701.6</v>
+        <v>5711</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15318,7 +15318,7 @@
         <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="G204" t="n">
         <v>501</v>
@@ -15327,10 +15327,10 @@
         <v>34572</v>
       </c>
       <c r="I204" t="n">
-        <v>142980</v>
+        <v>142977</v>
       </c>
       <c r="J204" t="n">
-        <v>389089</v>
+        <v>389365</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
@@ -15342,10 +15342,10 @@
         <v>9772</v>
       </c>
       <c r="N204" t="n">
-        <v>67852</v>
+        <v>67941</v>
       </c>
       <c r="O204" t="n">
-        <v>34181</v>
+        <v>34235</v>
       </c>
       <c r="P204" t="n">
         <v>-21068</v>
@@ -15354,10 +15354,10 @@
         <v>-1218.9</v>
       </c>
       <c r="R204" t="n">
-        <v>7608</v>
+        <v>7615</v>
       </c>
       <c r="S204" t="n">
-        <v>5899</v>
+        <v>5908.9</v>
       </c>
       <c r="T204" t="n">
         <v>22</v>
@@ -15392,7 +15392,7 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4162</v>
+        <v>4164</v>
       </c>
       <c r="G205" t="n">
         <v>526</v>
@@ -15401,10 +15401,10 @@
         <v>34600</v>
       </c>
       <c r="I205" t="n">
-        <v>145386</v>
+        <v>145383</v>
       </c>
       <c r="J205" t="n">
-        <v>397958</v>
+        <v>398245</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
@@ -15416,10 +15416,10 @@
         <v>15310</v>
       </c>
       <c r="N205" t="n">
-        <v>73776</v>
+        <v>73874</v>
       </c>
       <c r="O205" t="n">
-        <v>39077</v>
+        <v>39140</v>
       </c>
       <c r="P205" t="n">
         <v>2406</v>
@@ -15428,10 +15428,10 @@
         <v>1739.7</v>
       </c>
       <c r="R205" t="n">
-        <v>8869</v>
+        <v>8880</v>
       </c>
       <c r="S205" t="n">
-        <v>6150</v>
+        <v>6159.3</v>
       </c>
       <c r="T205" t="n">
         <v>28</v>
@@ -15457,7 +15457,7 @@
         <v>780</v>
       </c>
       <c r="C206" t="n">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D206" t="n">
         <v>64559</v>
@@ -15466,7 +15466,7 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4174</v>
+        <v>4177</v>
       </c>
       <c r="G206" t="n">
         <v>327</v>
@@ -15475,37 +15475,37 @@
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>141319</v>
+        <v>141315</v>
       </c>
       <c r="J206" t="n">
-        <v>402946</v>
+        <v>403239</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M206" t="n">
-        <v>10441</v>
+        <v>10440</v>
       </c>
       <c r="N206" t="n">
-        <v>76704</v>
+        <v>76808</v>
       </c>
       <c r="O206" t="n">
-        <v>41773</v>
+        <v>41840</v>
       </c>
       <c r="P206" t="n">
-        <v>-4067</v>
+        <v>-4068</v>
       </c>
       <c r="Q206" t="n">
-        <v>1606.1</v>
+        <v>1606</v>
       </c>
       <c r="R206" t="n">
-        <v>4988</v>
+        <v>4994</v>
       </c>
       <c r="S206" t="n">
-        <v>6295</v>
+        <v>6304.9</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -15540,61 +15540,61 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4246</v>
+        <v>4250</v>
       </c>
       <c r="G207" t="n">
         <v>338</v>
       </c>
       <c r="H207" t="n">
-        <v>34675</v>
+        <v>34676</v>
       </c>
       <c r="I207" t="n">
-        <v>167100</v>
+        <v>167096</v>
       </c>
       <c r="J207" t="n">
-        <v>405869</v>
+        <v>406173</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26921</v>
+        <v>26920</v>
       </c>
       <c r="M207" t="n">
-        <v>8182</v>
+        <v>8181</v>
       </c>
       <c r="N207" t="n">
-        <v>75568</v>
+        <v>75679</v>
       </c>
       <c r="O207" t="n">
-        <v>39408</v>
+        <v>39476</v>
       </c>
       <c r="P207" t="n">
         <v>25781</v>
       </c>
       <c r="Q207" t="n">
-        <v>5174.6</v>
+        <v>5174.4</v>
       </c>
       <c r="R207" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="S207" t="n">
-        <v>6385.1</v>
+        <v>6396.3</v>
       </c>
       <c r="T207" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U207" t="n">
         <v>0.2</v>
       </c>
       <c r="V207" t="n">
-        <v>34.3</v>
+        <v>34.7</v>
       </c>
       <c r="W207" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="X207" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208">
@@ -15605,7 +15605,7 @@
         <v>969</v>
       </c>
       <c r="C208" t="n">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
@@ -15614,19 +15614,19 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4816</v>
+        <v>4821</v>
       </c>
       <c r="G208" t="n">
         <v>605</v>
       </c>
       <c r="H208" t="n">
-        <v>34747</v>
+        <v>34748</v>
       </c>
       <c r="I208" t="n">
-        <v>174889</v>
+        <v>174886</v>
       </c>
       <c r="J208" t="n">
-        <v>411933</v>
+        <v>412258</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
@@ -15638,22 +15638,22 @@
         <v>13520</v>
       </c>
       <c r="N208" t="n">
-        <v>75918</v>
+        <v>76050</v>
       </c>
       <c r="O208" t="n">
-        <v>37997</v>
+        <v>38061</v>
       </c>
       <c r="P208" t="n">
-        <v>7789</v>
+        <v>7790</v>
       </c>
       <c r="Q208" t="n">
         <v>2281.6</v>
       </c>
       <c r="R208" t="n">
-        <v>6064</v>
+        <v>6085</v>
       </c>
       <c r="S208" t="n">
-        <v>6496</v>
+        <v>6508.7</v>
       </c>
       <c r="T208" t="n">
         <v>72</v>
@@ -15662,13 +15662,13 @@
         <v>0.2</v>
       </c>
       <c r="V208" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="W208" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="X208" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="209">
@@ -15679,7 +15679,7 @@
         <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>5015</v>
+        <v>5026</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
@@ -15688,61 +15688,61 @@
         <v>16386</v>
       </c>
       <c r="F209" t="n">
-        <v>4996</v>
+        <v>5001</v>
       </c>
       <c r="G209" t="n">
         <v>631</v>
       </c>
       <c r="H209" t="n">
-        <v>34787</v>
+        <v>34789</v>
       </c>
       <c r="I209" t="n">
-        <v>178379</v>
+        <v>178387</v>
       </c>
       <c r="J209" t="n">
-        <v>421900</v>
+        <v>422263</v>
       </c>
       <c r="K209" t="n">
         <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>29238</v>
+        <v>29249</v>
       </c>
       <c r="M209" t="n">
-        <v>14331</v>
+        <v>14342</v>
       </c>
       <c r="N209" t="n">
-        <v>80330</v>
+        <v>80490</v>
       </c>
       <c r="O209" t="n">
-        <v>40419</v>
+        <v>40513</v>
       </c>
       <c r="P209" t="n">
-        <v>3490</v>
+        <v>3501</v>
       </c>
       <c r="Q209" t="n">
-        <v>2430</v>
+        <v>2431.6</v>
       </c>
       <c r="R209" t="n">
-        <v>9967</v>
+        <v>10005</v>
       </c>
       <c r="S209" t="n">
-        <v>6852</v>
+        <v>6866.6</v>
       </c>
       <c r="T209" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U209" t="n">
         <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>57.7</v>
+        <v>58.3</v>
       </c>
       <c r="W209" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="X209" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210">
@@ -15753,7 +15753,7 @@
         <v>1420</v>
       </c>
       <c r="C210" t="n">
-        <v>4673</v>
+        <v>4681</v>
       </c>
       <c r="D210" t="n">
         <v>64782</v>
@@ -15762,46 +15762,46 @@
         <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>5109</v>
+        <v>5115</v>
       </c>
       <c r="G210" t="n">
         <v>642</v>
       </c>
       <c r="H210" t="n">
-        <v>34825</v>
+        <v>34827</v>
       </c>
       <c r="I210" t="n">
-        <v>181459</v>
+        <v>181475</v>
       </c>
       <c r="J210" t="n">
-        <v>430986</v>
+        <v>431401</v>
       </c>
       <c r="K210" t="n">
         <v>83830</v>
       </c>
       <c r="L210" t="n">
-        <v>29947</v>
+        <v>29966</v>
       </c>
       <c r="M210" t="n">
-        <v>38479</v>
+        <v>38498</v>
       </c>
       <c r="N210" t="n">
-        <v>83190</v>
+        <v>83398</v>
       </c>
       <c r="O210" t="n">
-        <v>41897</v>
+        <v>42036</v>
       </c>
       <c r="P210" t="n">
-        <v>3080</v>
+        <v>3088</v>
       </c>
       <c r="Q210" t="n">
-        <v>2487.3</v>
+        <v>2490</v>
       </c>
       <c r="R210" t="n">
-        <v>9086</v>
+        <v>9138</v>
       </c>
       <c r="S210" t="n">
-        <v>7072.1</v>
+        <v>7093</v>
       </c>
       <c r="T210" t="n">
         <v>38</v>
@@ -15810,13 +15810,13 @@
         <v>0.1</v>
       </c>
       <c r="V210" t="n">
-        <v>50</v>
+        <v>50.3</v>
       </c>
       <c r="W210" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="X210" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211">
@@ -15827,7 +15827,7 @@
         <v>1745</v>
       </c>
       <c r="C211" t="n">
-        <v>4390</v>
+        <v>4409</v>
       </c>
       <c r="D211" t="n">
         <v>64882</v>
@@ -15836,61 +15836,61 @@
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>5238</v>
+        <v>5244</v>
       </c>
       <c r="G211" t="n">
         <v>668</v>
       </c>
       <c r="H211" t="n">
-        <v>34858</v>
+        <v>34862</v>
       </c>
       <c r="I211" t="n">
-        <v>158924</v>
+        <v>158959</v>
       </c>
       <c r="J211" t="n">
-        <v>439495</v>
+        <v>440255</v>
       </c>
       <c r="K211" t="n">
         <v>71219</v>
       </c>
       <c r="L211" t="n">
-        <v>25716</v>
+        <v>25754</v>
       </c>
       <c r="M211" t="n">
-        <v>13538</v>
+        <v>13576</v>
       </c>
       <c r="N211" t="n">
-        <v>84587</v>
+        <v>85125</v>
       </c>
       <c r="O211" t="n">
-        <v>41537</v>
+        <v>42010</v>
       </c>
       <c r="P211" t="n">
-        <v>-22535</v>
+        <v>-22516</v>
       </c>
       <c r="Q211" t="n">
-        <v>2277.7</v>
+        <v>2283.1</v>
       </c>
       <c r="R211" t="n">
-        <v>8509</v>
+        <v>8854</v>
       </c>
       <c r="S211" t="n">
-        <v>7200.9</v>
+        <v>7270</v>
       </c>
       <c r="T211" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U211" t="n">
         <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W211" t="n">
-        <v>40.9</v>
+        <v>41.4</v>
       </c>
       <c r="X211" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212">
@@ -15901,7 +15901,7 @@
         <v>1393</v>
       </c>
       <c r="C212" t="n">
-        <v>4142</v>
+        <v>4573</v>
       </c>
       <c r="D212" t="n">
         <v>64914</v>
@@ -15910,61 +15910,61 @@
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>4864</v>
+        <v>5358</v>
       </c>
       <c r="G212" t="n">
-        <v>518</v>
+        <v>697</v>
       </c>
       <c r="H212" t="n">
-        <v>33714</v>
+        <v>34906</v>
       </c>
       <c r="I212" t="n">
-        <v>161428</v>
+        <v>161563</v>
       </c>
       <c r="J212" t="n">
-        <v>421246</v>
+        <v>449372</v>
       </c>
       <c r="K212" t="n">
         <v>72209</v>
       </c>
       <c r="L212" t="n">
-        <v>31352</v>
+        <v>31490</v>
       </c>
       <c r="M212" t="n">
-        <v>20109</v>
+        <v>20248</v>
       </c>
       <c r="N212" t="n">
-        <v>62365</v>
+        <v>90267</v>
       </c>
       <c r="O212" t="n">
-        <v>18300</v>
+        <v>46133</v>
       </c>
       <c r="P212" t="n">
-        <v>2504</v>
+        <v>2604</v>
       </c>
       <c r="Q212" t="n">
-        <v>2291.7</v>
+        <v>2311.4</v>
       </c>
       <c r="R212" t="n">
-        <v>-18249</v>
+        <v>9117</v>
       </c>
       <c r="S212" t="n">
-        <v>3326.9</v>
+        <v>7303.9</v>
       </c>
       <c r="T212" t="n">
-        <v>-1144</v>
+        <v>44</v>
       </c>
       <c r="U212" t="n">
-        <v>-3.3</v>
+        <v>0.1</v>
       </c>
       <c r="V212" t="n">
-        <v>-357.7</v>
+        <v>39</v>
       </c>
       <c r="W212" t="n">
-        <v>-126.6</v>
+        <v>43.7</v>
       </c>
       <c r="X212" t="n">
-        <v>-886</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213">
@@ -15975,70 +15975,70 @@
         <v>1169</v>
       </c>
       <c r="C213" t="n">
-        <v>2191</v>
+        <v>2595</v>
       </c>
       <c r="D213" t="n">
         <v>64892</v>
       </c>
       <c r="E213" t="n">
-        <v>4549</v>
+        <v>4710</v>
       </c>
       <c r="F213" t="n">
-        <v>4742</v>
+        <v>5221</v>
       </c>
       <c r="G213" t="n">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="H213" t="n">
-        <v>30627</v>
+        <v>31819</v>
       </c>
       <c r="I213" t="n">
-        <v>154991</v>
+        <v>155233</v>
       </c>
       <c r="J213" t="n">
-        <v>400414</v>
+        <v>429711</v>
       </c>
       <c r="K213" t="n">
-        <v>40487</v>
+        <v>40644</v>
       </c>
       <c r="L213" t="n">
-        <v>24113</v>
+        <v>24358</v>
       </c>
       <c r="M213" t="n">
-        <v>-12109</v>
+        <v>-11863</v>
       </c>
       <c r="N213" t="n">
-        <v>39241</v>
+        <v>68312</v>
       </c>
       <c r="O213" t="n">
-        <v>-5455</v>
+        <v>23538</v>
       </c>
       <c r="P213" t="n">
-        <v>-6437</v>
+        <v>-6330</v>
       </c>
       <c r="Q213" t="n">
-        <v>1953.1</v>
+        <v>1988.3</v>
       </c>
       <c r="R213" t="n">
-        <v>-20832</v>
+        <v>-19661</v>
       </c>
       <c r="S213" t="n">
-        <v>-361.7</v>
+        <v>3781.7</v>
       </c>
       <c r="T213" t="n">
         <v>-3087</v>
       </c>
       <c r="U213" t="n">
-        <v>-9.2</v>
+        <v>-8.8</v>
       </c>
       <c r="V213" t="n">
-        <v>-1399.3</v>
+        <v>-1002.7</v>
       </c>
       <c r="W213" t="n">
-        <v>-569.6</v>
+        <v>-399.3</v>
       </c>
       <c r="X213" t="n">
-        <v>-3987</v>
+        <v>-2795</v>
       </c>
     </row>
     <row r="214">
@@ -16049,70 +16049,70 @@
         <v>1300</v>
       </c>
       <c r="C214" t="n">
-        <v>914</v>
+        <v>1518</v>
       </c>
       <c r="D214" t="n">
         <v>64890</v>
       </c>
       <c r="E214" t="n">
-        <v>5018</v>
+        <v>14817</v>
       </c>
       <c r="F214" t="n">
-        <v>4749</v>
+        <v>5305</v>
       </c>
       <c r="G214" t="n">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="H214" t="n">
-        <v>30105</v>
+        <v>31846</v>
       </c>
       <c r="I214" t="n">
-        <v>156095</v>
+        <v>182927</v>
       </c>
       <c r="J214" t="n">
-        <v>393061</v>
+        <v>433442</v>
       </c>
       <c r="K214" t="n">
-        <v>40596</v>
+        <v>56259</v>
       </c>
       <c r="L214" t="n">
-        <v>-2823</v>
+        <v>24012</v>
       </c>
       <c r="M214" t="n">
-        <v>-18794</v>
+        <v>8041</v>
       </c>
       <c r="N214" t="n">
-        <v>26600</v>
+        <v>66745</v>
       </c>
       <c r="O214" t="n">
-        <v>-18872</v>
+        <v>21184</v>
       </c>
       <c r="P214" t="n">
-        <v>1104</v>
+        <v>27694</v>
       </c>
       <c r="Q214" t="n">
-        <v>-1572.1</v>
+        <v>2261.6</v>
       </c>
       <c r="R214" t="n">
-        <v>-7353</v>
+        <v>3731</v>
       </c>
       <c r="S214" t="n">
-        <v>-1829.7</v>
+        <v>3895.6</v>
       </c>
       <c r="T214" t="n">
-        <v>-522</v>
+        <v>27</v>
       </c>
       <c r="U214" t="n">
-        <v>-1.7</v>
+        <v>0.1</v>
       </c>
       <c r="V214" t="n">
-        <v>-1584.3</v>
+        <v>-1005.3</v>
       </c>
       <c r="W214" t="n">
-        <v>-652.9</v>
+        <v>-404.3</v>
       </c>
       <c r="X214" t="n">
-        <v>-4570</v>
+        <v>-2830</v>
       </c>
     </row>
     <row r="215">
@@ -16120,73 +16120,147 @@
         <v>44074</v>
       </c>
       <c r="B215" t="n">
-        <v>654</v>
+        <v>1463</v>
       </c>
       <c r="C215" t="n">
-        <v>1720</v>
+        <v>4325</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>65078</v>
       </c>
       <c r="E215" t="n">
-        <v>4296</v>
+        <v>8497</v>
       </c>
       <c r="F215" t="n">
-        <v>3286</v>
+        <v>5943</v>
       </c>
       <c r="G215" t="n">
-        <v>287</v>
+        <v>655</v>
       </c>
       <c r="H215" t="n">
-        <v>17016</v>
+        <v>34272</v>
       </c>
       <c r="I215" t="n">
-        <v>24060</v>
+        <v>160825</v>
       </c>
       <c r="J215" t="n">
-        <v>228540</v>
+        <v>455179</v>
       </c>
       <c r="K215" t="n">
-        <v>31726</v>
+        <v>64924</v>
       </c>
       <c r="L215" t="n">
-        <v>-137309</v>
+        <v>-541</v>
       </c>
       <c r="M215" t="n">
-        <v>-154319</v>
+        <v>-17562</v>
       </c>
       <c r="N215" t="n">
-        <v>-145396</v>
+        <v>80982</v>
       </c>
       <c r="O215" t="n">
-        <v>-193360</v>
+        <v>32916</v>
       </c>
       <c r="P215" t="n">
-        <v>-132035</v>
+        <v>-22102</v>
       </c>
       <c r="Q215" t="n">
-        <v>-21547</v>
+        <v>-2008.7</v>
       </c>
       <c r="R215" t="n">
-        <v>-164521</v>
+        <v>21737</v>
       </c>
       <c r="S215" t="n">
-        <v>-26199</v>
+        <v>6131.6</v>
       </c>
       <c r="T215" t="n">
-        <v>-13089</v>
+        <v>2426</v>
       </c>
       <c r="U215" t="n">
-        <v>-43.5</v>
+        <v>7.6</v>
       </c>
       <c r="V215" t="n">
-        <v>-5566</v>
+        <v>-211.3</v>
       </c>
       <c r="W215" t="n">
-        <v>-2533</v>
+        <v>-68</v>
       </c>
       <c r="X215" t="n">
-        <v>-17731</v>
+        <v>-476</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B216" t="n">
+        <v>853</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1396</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>7868</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3857</v>
+      </c>
+      <c r="G216" t="n">
+        <v>447</v>
+      </c>
+      <c r="H216" t="n">
+        <v>16414</v>
+      </c>
+      <c r="I216" t="n">
+        <v>33278</v>
+      </c>
+      <c r="J216" t="n">
+        <v>248253</v>
+      </c>
+      <c r="K216" t="n">
+        <v>48582</v>
+      </c>
+      <c r="L216" t="n">
+        <v>-130767</v>
+      </c>
+      <c r="M216" t="n">
+        <v>-148197</v>
+      </c>
+      <c r="N216" t="n">
+        <v>-133497</v>
+      </c>
+      <c r="O216" t="n">
+        <v>-183148</v>
+      </c>
+      <c r="P216" t="n">
+        <v>-127547</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>-20729.9</v>
+      </c>
+      <c r="R216" t="n">
+        <v>-206926</v>
+      </c>
+      <c r="S216" t="n">
+        <v>-24858.6</v>
+      </c>
+      <c r="T216" t="n">
+        <v>-17858</v>
+      </c>
+      <c r="U216" t="n">
+        <v>-52.1</v>
+      </c>
+      <c r="V216" t="n">
+        <v>-5135</v>
+      </c>
+      <c r="W216" t="n">
+        <v>-2625</v>
+      </c>
+      <c r="X216" t="n">
+        <v>-18375</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G32" t="n">
         <v>12</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3330,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="O43" t="n">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3440,10 +3440,10 @@
         <v>698.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="S43" t="n">
-        <v>629.1</v>
+        <v>629.3</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6231</v>
+        <v>6232</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6198</v>
+        <v>6199</v>
       </c>
       <c r="O44" t="n">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3517,7 +3517,7 @@
         <v>1441</v>
       </c>
       <c r="S44" t="n">
-        <v>801.6</v>
+        <v>801.7</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7611</v>
+        <v>7615</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7551</v>
+        <v>7555</v>
       </c>
       <c r="O45" t="n">
-        <v>6408</v>
+        <v>6412</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3588,10 +3588,10 @@
         <v>1189.3</v>
       </c>
       <c r="R45" t="n">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="S45" t="n">
-        <v>960.7</v>
+        <v>961.3</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9074</v>
+        <v>9078</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8956</v>
+        <v>8960</v>
       </c>
       <c r="O46" t="n">
-        <v>7267</v>
+        <v>7271</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1463</v>
       </c>
       <c r="S46" t="n">
-        <v>1124.4</v>
+        <v>1125</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11240</v>
+        <v>11244</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11068</v>
+        <v>11072</v>
       </c>
       <c r="O47" t="n">
-        <v>8561</v>
+        <v>8565</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1347.6</v>
+        <v>1348.1</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3786,7 +3786,7 @@
         <v>17582</v>
       </c>
       <c r="J48" t="n">
-        <v>14290</v>
+        <v>14294</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13542</v>
       </c>
       <c r="N48" t="n">
-        <v>14045</v>
+        <v>14049</v>
       </c>
       <c r="O48" t="n">
-        <v>10661</v>
+        <v>10665</v>
       </c>
       <c r="P48" t="n">
         <v>3748</v>
@@ -3813,7 +3813,7 @@
         <v>3050</v>
       </c>
       <c r="S48" t="n">
-        <v>1658.7</v>
+        <v>1659.3</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3860,7 +3860,7 @@
         <v>20760</v>
       </c>
       <c r="J49" t="n">
-        <v>17373</v>
+        <v>17377</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15431</v>
       </c>
       <c r="N49" t="n">
-        <v>16987</v>
+        <v>16991</v>
       </c>
       <c r="O49" t="n">
-        <v>12583</v>
+        <v>12586</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3887,7 +3887,7 @@
         <v>3083</v>
       </c>
       <c r="S49" t="n">
-        <v>1963.4</v>
+        <v>1964</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3934,7 +3934,7 @@
         <v>26437</v>
       </c>
       <c r="J50" t="n">
-        <v>21132</v>
+        <v>21136</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19038</v>
       </c>
       <c r="N50" t="n">
-        <v>20512</v>
+        <v>20516</v>
       </c>
       <c r="O50" t="n">
-        <v>14901</v>
+        <v>14904</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3961,7 +3961,7 @@
         <v>3759</v>
       </c>
       <c r="S50" t="n">
-        <v>2334.6</v>
+        <v>2335</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>32043</v>
       </c>
       <c r="J51" t="n">
-        <v>25377</v>
+        <v>25382</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22715</v>
       </c>
       <c r="N51" t="n">
-        <v>24491</v>
+        <v>24496</v>
       </c>
       <c r="O51" t="n">
-        <v>17766</v>
+        <v>17767</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.6</v>
       </c>
       <c r="R51" t="n">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="S51" t="n">
-        <v>2735.1</v>
+        <v>2735.7</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4082,7 +4082,7 @@
         <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28752</v>
+        <v>28756</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,7 +4094,7 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27549</v>
+        <v>27553</v>
       </c>
       <c r="O52" t="n">
         <v>19678</v>
@@ -4106,7 +4106,7 @@
         <v>3915.9</v>
       </c>
       <c r="R52" t="n">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="S52" t="n">
         <v>3020.1</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31708</v>
+        <v>31712</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,7 +4168,7 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29901</v>
+        <v>29905</v>
       </c>
       <c r="O53" t="n">
         <v>20468</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36510</v>
+        <v>36514</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,7 +4242,7 @@
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33831</v>
+        <v>33835</v>
       </c>
       <c r="O54" t="n">
         <v>22220</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42043</v>
+        <v>42047</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,7 +4316,7 @@
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38414</v>
+        <v>38418</v>
       </c>
       <c r="O55" t="n">
         <v>24670</v>
@@ -4366,7 +4366,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17267</v>
+        <v>17269</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47576</v>
+        <v>47581</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42786</v>
+        <v>42790</v>
       </c>
       <c r="O56" t="n">
-        <v>26444</v>
+        <v>26445</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4402,10 +4402,10 @@
         <v>6048.6</v>
       </c>
       <c r="R56" t="n">
-        <v>5533</v>
+        <v>5534</v>
       </c>
       <c r="S56" t="n">
-        <v>4314.7</v>
+        <v>4314.9</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4440,7 +4440,7 @@
         <v>10231</v>
       </c>
       <c r="F57" t="n">
-        <v>19399</v>
+        <v>19400</v>
       </c>
       <c r="G57" t="n">
         <v>2349</v>
@@ -4452,7 +4452,7 @@
         <v>72677</v>
       </c>
       <c r="J57" t="n">
-        <v>54373</v>
+        <v>54379</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,10 +4464,10 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48142</v>
+        <v>48147</v>
       </c>
       <c r="O57" t="n">
-        <v>28996</v>
+        <v>28997</v>
       </c>
       <c r="P57" t="n">
         <v>9577</v>
@@ -4476,10 +4476,10 @@
         <v>6605.7</v>
       </c>
       <c r="R57" t="n">
-        <v>6797</v>
+        <v>6798</v>
       </c>
       <c r="S57" t="n">
-        <v>4748.7</v>
+        <v>4749</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4526,7 +4526,7 @@
         <v>81189</v>
       </c>
       <c r="J58" t="n">
-        <v>59349</v>
+        <v>59355</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4538,10 +4538,10 @@
         <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51738</v>
+        <v>51740</v>
       </c>
       <c r="O58" t="n">
-        <v>30597</v>
+        <v>30599</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4553,7 +4553,7 @@
         <v>4976</v>
       </c>
       <c r="S58" t="n">
-        <v>4853.1</v>
+        <v>4853.3</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4600,7 +4600,7 @@
         <v>89781</v>
       </c>
       <c r="J59" t="n">
-        <v>62695</v>
+        <v>62701</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4612,10 +4612,10 @@
         <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53621</v>
+        <v>53623</v>
       </c>
       <c r="O59" t="n">
-        <v>30987</v>
+        <v>30989</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4627,7 +4627,7 @@
         <v>3346</v>
       </c>
       <c r="S59" t="n">
-        <v>4849</v>
+        <v>4849.3</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4662,7 +4662,7 @@
         <v>10255</v>
       </c>
       <c r="F60" t="n">
-        <v>27733</v>
+        <v>27734</v>
       </c>
       <c r="G60" t="n">
         <v>3033</v>
@@ -4674,7 +4674,7 @@
         <v>96085</v>
       </c>
       <c r="J60" t="n">
-        <v>65368</v>
+        <v>65374</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4686,10 +4686,10 @@
         <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54128</v>
+        <v>54130</v>
       </c>
       <c r="O60" t="n">
-        <v>28858</v>
+        <v>28860</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2673</v>
       </c>
       <c r="S60" t="n">
-        <v>4808.6</v>
+        <v>4808.9</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4736,7 +4736,7 @@
         <v>13367</v>
       </c>
       <c r="F61" t="n">
-        <v>28691</v>
+        <v>28692</v>
       </c>
       <c r="G61" t="n">
         <v>3442</v>
@@ -4748,7 +4748,7 @@
         <v>103277</v>
       </c>
       <c r="J61" t="n">
-        <v>70229</v>
+        <v>70234</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,10 +4760,10 @@
         <v>50869</v>
       </c>
       <c r="N61" t="n">
-        <v>55939</v>
+        <v>55940</v>
       </c>
       <c r="O61" t="n">
-        <v>28186</v>
+        <v>28187</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4772,10 +4772,10 @@
         <v>8025.1</v>
       </c>
       <c r="R61" t="n">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="S61" t="n">
-        <v>4817</v>
+        <v>4817.1</v>
       </c>
       <c r="T61" t="n">
         <v>946</v>
@@ -4810,7 +4810,7 @@
         <v>13914</v>
       </c>
       <c r="F62" t="n">
-        <v>29571</v>
+        <v>29572</v>
       </c>
       <c r="G62" t="n">
         <v>3287</v>
@@ -4822,7 +4822,7 @@
         <v>108825</v>
       </c>
       <c r="J62" t="n">
-        <v>74500</v>
+        <v>74505</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,7 +4834,7 @@
         <v>45725</v>
       </c>
       <c r="N62" t="n">
-        <v>57127</v>
+        <v>57128</v>
       </c>
       <c r="O62" t="n">
         <v>26924</v>
@@ -4849,7 +4849,7 @@
         <v>4271</v>
       </c>
       <c r="S62" t="n">
-        <v>4636.7</v>
+        <v>4636.9</v>
       </c>
       <c r="T62" t="n">
         <v>1066</v>
@@ -4884,7 +4884,7 @@
         <v>19858</v>
       </c>
       <c r="F63" t="n">
-        <v>30807</v>
+        <v>30808</v>
       </c>
       <c r="G63" t="n">
         <v>3460</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78331</v>
+        <v>78337</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,7 +4908,7 @@
         <v>44501</v>
       </c>
       <c r="N63" t="n">
-        <v>57199</v>
+        <v>57201</v>
       </c>
       <c r="O63" t="n">
         <v>23958</v>
@@ -4920,10 +4920,10 @@
         <v>7725.4</v>
       </c>
       <c r="R63" t="n">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="S63" t="n">
-        <v>4393.6</v>
+        <v>4393.7</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82152</v>
+        <v>82159</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,10 +4982,10 @@
         <v>42763</v>
       </c>
       <c r="N64" t="n">
-        <v>56775</v>
+        <v>56777</v>
       </c>
       <c r="O64" t="n">
-        <v>22803</v>
+        <v>22804</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7325</v>
       </c>
       <c r="R64" t="n">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="S64" t="n">
-        <v>3968.4</v>
+        <v>3968.6</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5044,7 +5044,7 @@
         <v>130639</v>
       </c>
       <c r="J65" t="n">
-        <v>86028</v>
+        <v>86038</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,10 +5056,10 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57276</v>
+        <v>57282</v>
       </c>
       <c r="O65" t="n">
-        <v>23333</v>
+        <v>23337</v>
       </c>
       <c r="P65" t="n">
         <v>6687</v>
@@ -5068,10 +5068,10 @@
         <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3876</v>
+        <v>3879</v>
       </c>
       <c r="S65" t="n">
-        <v>3811.3</v>
+        <v>3811.9</v>
       </c>
       <c r="T65" t="n">
         <v>1012</v>
@@ -5118,7 +5118,7 @@
         <v>135950</v>
       </c>
       <c r="J66" t="n">
-        <v>88458</v>
+        <v>88468</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -5130,10 +5130,10 @@
         <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56750</v>
+        <v>56756</v>
       </c>
       <c r="O66" t="n">
-        <v>23090</v>
+        <v>23094</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
@@ -5145,7 +5145,7 @@
         <v>2430</v>
       </c>
       <c r="S66" t="n">
-        <v>3680.4</v>
+        <v>3681</v>
       </c>
       <c r="T66" t="n">
         <v>915</v>
@@ -5192,7 +5192,7 @@
         <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90116</v>
+        <v>90125</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,10 +5204,10 @@
         <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53606</v>
+        <v>53611</v>
       </c>
       <c r="O67" t="n">
-        <v>19887</v>
+        <v>19891</v>
       </c>
       <c r="P67" t="n">
         <v>3763</v>
@@ -5216,10 +5216,10 @@
         <v>6232.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="S67" t="n">
-        <v>3535.4</v>
+        <v>3535.9</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5266,7 +5266,7 @@
         <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93337</v>
+        <v>93345</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51294</v>
+        <v>51298</v>
       </c>
       <c r="O68" t="n">
-        <v>18837</v>
+        <v>18840</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5290,10 +5290,10 @@
         <v>5903.1</v>
       </c>
       <c r="R68" t="n">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="S68" t="n">
-        <v>3301.1</v>
+        <v>3301.6</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5340,7 +5340,7 @@
         <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96410</v>
+        <v>96418</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48834</v>
+        <v>48837</v>
       </c>
       <c r="O69" t="n">
-        <v>18079</v>
+        <v>18081</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5367,7 +5367,7 @@
         <v>3073</v>
       </c>
       <c r="S69" t="n">
-        <v>3130</v>
+        <v>3130.4</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5414,7 +5414,7 @@
         <v>154916</v>
       </c>
       <c r="J70" t="n">
-        <v>99535</v>
+        <v>99542</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,7 +5426,7 @@
         <v>30964</v>
       </c>
       <c r="N70" t="n">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="O70" t="n">
         <v>17383</v>
@@ -5438,10 +5438,10 @@
         <v>5391.1</v>
       </c>
       <c r="R70" t="n">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="S70" t="n">
-        <v>3029.1</v>
+        <v>3029.3</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5488,7 +5488,7 @@
         <v>159908</v>
       </c>
       <c r="J71" t="n">
-        <v>102157</v>
+        <v>102167</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5500,7 +5500,7 @@
         <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42808</v>
+        <v>42812</v>
       </c>
       <c r="O71" t="n">
         <v>16129</v>
@@ -5512,10 +5512,10 @@
         <v>5136.6</v>
       </c>
       <c r="R71" t="n">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="S71" t="n">
-        <v>2857.9</v>
+        <v>2858.3</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5550,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>26326</v>
+        <v>26325</v>
       </c>
       <c r="G72" t="n">
         <v>3255</v>
@@ -5562,7 +5562,7 @@
         <v>165063</v>
       </c>
       <c r="J72" t="n">
-        <v>104443</v>
+        <v>104457</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5574,10 +5574,10 @@
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41748</v>
+        <v>41756</v>
       </c>
       <c r="O72" t="n">
-        <v>15985</v>
+        <v>15989</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
@@ -5586,10 +5586,10 @@
         <v>4917.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="S72" t="n">
-        <v>2630.7</v>
+        <v>2631.3</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5624,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25502</v>
+        <v>25501</v>
       </c>
       <c r="G73" t="n">
         <v>3205</v>
@@ -5636,7 +5636,7 @@
         <v>168832</v>
       </c>
       <c r="J73" t="n">
-        <v>106217</v>
+        <v>106232</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
@@ -5648,10 +5648,10 @@
         <v>29119</v>
       </c>
       <c r="N73" t="n">
-        <v>40849</v>
+        <v>40858</v>
       </c>
       <c r="O73" t="n">
-        <v>16101</v>
+        <v>16107</v>
       </c>
       <c r="P73" t="n">
         <v>3769</v>
@@ -5660,10 +5660,10 @@
         <v>4697.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="S73" t="n">
-        <v>2537</v>
+        <v>2537.7</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5698,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24842</v>
+        <v>24841</v>
       </c>
       <c r="G74" t="n">
         <v>3140</v>
@@ -5710,7 +5710,7 @@
         <v>171875</v>
       </c>
       <c r="J74" t="n">
-        <v>107464</v>
+        <v>107479</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
@@ -5722,10 +5722,10 @@
         <v>27276</v>
       </c>
       <c r="N74" t="n">
-        <v>37235</v>
+        <v>37245</v>
       </c>
       <c r="O74" t="n">
-        <v>14127</v>
+        <v>14134</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
@@ -5737,7 +5737,7 @@
         <v>1247</v>
       </c>
       <c r="S74" t="n">
-        <v>2478.3</v>
+        <v>2479.1</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5772,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24572</v>
+        <v>24573</v>
       </c>
       <c r="G75" t="n">
         <v>3094</v>
@@ -5784,7 +5784,7 @@
         <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109393</v>
+        <v>109407</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
@@ -5796,10 +5796,10 @@
         <v>25857</v>
       </c>
       <c r="N75" t="n">
-        <v>34893</v>
+        <v>34902</v>
       </c>
       <c r="O75" t="n">
-        <v>12983</v>
+        <v>12989</v>
       </c>
       <c r="P75" t="n">
         <v>3501</v>
@@ -5808,10 +5808,10 @@
         <v>4396.7</v>
       </c>
       <c r="R75" t="n">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="S75" t="n">
-        <v>2293.7</v>
+        <v>2294.6</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5846,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23742</v>
+        <v>23743</v>
       </c>
       <c r="G76" t="n">
         <v>3037</v>
@@ -5858,7 +5858,7 @@
         <v>179704</v>
       </c>
       <c r="J76" t="n">
-        <v>111939</v>
+        <v>111956</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
@@ -5870,10 +5870,10 @@
         <v>24788</v>
       </c>
       <c r="N76" t="n">
-        <v>33608</v>
+        <v>33619</v>
       </c>
       <c r="O76" t="n">
-        <v>12404</v>
+        <v>12414</v>
       </c>
       <c r="P76" t="n">
         <v>4328</v>
@@ -5882,10 +5882,10 @@
         <v>4312.1</v>
       </c>
       <c r="R76" t="n">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="S76" t="n">
-        <v>2218.4</v>
+        <v>2219.7</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5920,7 +5920,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22678</v>
+        <v>22679</v>
       </c>
       <c r="G77" t="n">
         <v>2919</v>
@@ -5932,7 +5932,7 @@
         <v>184102</v>
       </c>
       <c r="J77" t="n">
-        <v>116970</v>
+        <v>116987</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
@@ -5944,10 +5944,10 @@
         <v>24194</v>
       </c>
       <c r="N77" t="n">
-        <v>34818</v>
+        <v>34828</v>
       </c>
       <c r="O77" t="n">
-        <v>14813</v>
+        <v>14820</v>
       </c>
       <c r="P77" t="n">
         <v>4398</v>
@@ -5959,7 +5959,7 @@
         <v>5031</v>
       </c>
       <c r="S77" t="n">
-        <v>2490.7</v>
+        <v>2492.1</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5994,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21885</v>
+        <v>21886</v>
       </c>
       <c r="G78" t="n">
         <v>2687</v>
@@ -6006,7 +6006,7 @@
         <v>188811</v>
       </c>
       <c r="J78" t="n">
-        <v>119328</v>
+        <v>119346</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
@@ -6018,10 +6018,10 @@
         <v>23748</v>
       </c>
       <c r="N78" t="n">
-        <v>33300</v>
+        <v>33308</v>
       </c>
       <c r="O78" t="n">
-        <v>14885</v>
+        <v>14889</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
@@ -6030,10 +6030,10 @@
         <v>4129</v>
       </c>
       <c r="R78" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="S78" t="n">
-        <v>2453</v>
+        <v>2454.1</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6068,7 +6068,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20979</v>
+        <v>20980</v>
       </c>
       <c r="G79" t="n">
         <v>2602</v>
@@ -6080,7 +6080,7 @@
         <v>193909</v>
       </c>
       <c r="J79" t="n">
-        <v>121624</v>
+        <v>121642</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
@@ -6092,10 +6092,10 @@
         <v>25077</v>
       </c>
       <c r="N79" t="n">
-        <v>33166</v>
+        <v>33174</v>
       </c>
       <c r="O79" t="n">
-        <v>15407</v>
+        <v>15410</v>
       </c>
       <c r="P79" t="n">
         <v>5098</v>
@@ -6107,7 +6107,7 @@
         <v>2296</v>
       </c>
       <c r="S79" t="n">
-        <v>2454.4</v>
+        <v>2455</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,7 +6142,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>20252</v>
+        <v>20254</v>
       </c>
       <c r="G80" t="n">
         <v>2533</v>
@@ -6154,7 +6154,7 @@
         <v>199790</v>
       </c>
       <c r="J80" t="n">
-        <v>123106</v>
+        <v>123124</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
@@ -6166,10 +6166,10 @@
         <v>27915</v>
       </c>
       <c r="N80" t="n">
-        <v>32990</v>
+        <v>32999</v>
       </c>
       <c r="O80" t="n">
-        <v>15642</v>
+        <v>15645</v>
       </c>
       <c r="P80" t="n">
         <v>5881</v>
@@ -6181,7 +6181,7 @@
         <v>1482</v>
       </c>
       <c r="S80" t="n">
-        <v>2412.7</v>
+        <v>2413.1</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6216,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19800</v>
+        <v>19803</v>
       </c>
       <c r="G81" t="n">
         <v>2545</v>
@@ -6228,7 +6228,7 @@
         <v>202017</v>
       </c>
       <c r="J81" t="n">
-        <v>123979</v>
+        <v>123999</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
@@ -6240,10 +6240,10 @@
         <v>26641</v>
       </c>
       <c r="N81" t="n">
-        <v>30642</v>
+        <v>30654</v>
       </c>
       <c r="O81" t="n">
-        <v>14586</v>
+        <v>14592</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
@@ -6252,10 +6252,10 @@
         <v>4306</v>
       </c>
       <c r="R81" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="S81" t="n">
-        <v>2359.3</v>
+        <v>2360</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6290,7 +6290,7 @@
         <v>10220</v>
       </c>
       <c r="F82" t="n">
-        <v>19599</v>
+        <v>19601</v>
       </c>
       <c r="G82" t="n">
         <v>2494</v>
@@ -6302,7 +6302,7 @@
         <v>204940</v>
       </c>
       <c r="J82" t="n">
-        <v>125705</v>
+        <v>125729</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
@@ -6314,10 +6314,10 @@
         <v>25236</v>
       </c>
       <c r="N82" t="n">
-        <v>29295</v>
+        <v>29311</v>
       </c>
       <c r="O82" t="n">
-        <v>13766</v>
+        <v>13773</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
@@ -6326,10 +6326,10 @@
         <v>4223.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="S82" t="n">
-        <v>2330.3</v>
+        <v>2331.7</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6364,7 +6364,7 @@
         <v>10149</v>
       </c>
       <c r="F83" t="n">
-        <v>19157</v>
+        <v>19158</v>
       </c>
       <c r="G83" t="n">
         <v>2417</v>
@@ -6376,7 +6376,7 @@
         <v>208714</v>
       </c>
       <c r="J83" t="n">
-        <v>127537</v>
+        <v>127564</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
@@ -6388,10 +6388,10 @@
         <v>24612</v>
       </c>
       <c r="N83" t="n">
-        <v>28002</v>
+        <v>28022</v>
       </c>
       <c r="O83" t="n">
-        <v>10567</v>
+        <v>10577</v>
       </c>
       <c r="P83" t="n">
         <v>3774</v>
@@ -6400,10 +6400,10 @@
         <v>4144.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="S83" t="n">
-        <v>2228.3</v>
+        <v>2229.7</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6438,7 +6438,7 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18267</v>
+        <v>18269</v>
       </c>
       <c r="G84" t="n">
         <v>2322</v>
@@ -6450,7 +6450,7 @@
         <v>213323</v>
       </c>
       <c r="J84" t="n">
-        <v>129487</v>
+        <v>129515</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
@@ -6462,10 +6462,10 @@
         <v>24512</v>
       </c>
       <c r="N84" t="n">
-        <v>27330</v>
+        <v>27348</v>
       </c>
       <c r="O84" t="n">
-        <v>10159</v>
+        <v>10169</v>
       </c>
       <c r="P84" t="n">
         <v>4609</v>
@@ -6474,10 +6474,10 @@
         <v>4174.4</v>
       </c>
       <c r="R84" t="n">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="S84" t="n">
-        <v>1788.1</v>
+        <v>1789.7</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,7 +6512,7 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17337</v>
+        <v>17338</v>
       </c>
       <c r="G85" t="n">
         <v>2256</v>
@@ -6524,7 +6524,7 @@
         <v>217044</v>
       </c>
       <c r="J85" t="n">
-        <v>130851</v>
+        <v>130879</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
@@ -6536,10 +6536,10 @@
         <v>23135</v>
       </c>
       <c r="N85" t="n">
-        <v>26408</v>
+        <v>26422</v>
       </c>
       <c r="O85" t="n">
-        <v>9227</v>
+        <v>9237</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
@@ -6551,7 +6551,7 @@
         <v>1364</v>
       </c>
       <c r="S85" t="n">
-        <v>1646.1</v>
+        <v>1647.6</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,7 +6586,7 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16551</v>
+        <v>16552</v>
       </c>
       <c r="G86" t="n">
         <v>2168</v>
@@ -6598,7 +6598,7 @@
         <v>220707</v>
       </c>
       <c r="J86" t="n">
-        <v>132342</v>
+        <v>132372</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
@@ -6610,10 +6610,10 @@
         <v>20917</v>
       </c>
       <c r="N86" t="n">
-        <v>26125</v>
+        <v>26140</v>
       </c>
       <c r="O86" t="n">
-        <v>9236</v>
+        <v>9248</v>
       </c>
       <c r="P86" t="n">
         <v>3663</v>
@@ -6622,10 +6622,10 @@
         <v>3828.3</v>
       </c>
       <c r="R86" t="n">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="S86" t="n">
-        <v>1531.1</v>
+        <v>1532.9</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6660,7 +6660,7 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16834</v>
+        <v>16835</v>
       </c>
       <c r="G87" t="n">
         <v>2290</v>
@@ -6672,7 +6672,7 @@
         <v>223327</v>
       </c>
       <c r="J87" t="n">
-        <v>133133</v>
+        <v>133164</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
@@ -6684,10 +6684,10 @@
         <v>21310</v>
       </c>
       <c r="N87" t="n">
-        <v>25669</v>
+        <v>25685</v>
       </c>
       <c r="O87" t="n">
-        <v>9154</v>
+        <v>9165</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
@@ -6696,10 +6696,10 @@
         <v>3362.4</v>
       </c>
       <c r="R87" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="S87" t="n">
-        <v>1432.4</v>
+        <v>1434.3</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6734,7 +6734,7 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16344</v>
+        <v>16345</v>
       </c>
       <c r="G88" t="n">
         <v>2219</v>
@@ -6746,7 +6746,7 @@
         <v>225701</v>
       </c>
       <c r="J88" t="n">
-        <v>133643</v>
+        <v>133676</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
@@ -6758,10 +6758,10 @@
         <v>20761</v>
       </c>
       <c r="N88" t="n">
-        <v>24250</v>
+        <v>24269</v>
       </c>
       <c r="O88" t="n">
-        <v>7938</v>
+        <v>7947</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
@@ -6770,10 +6770,10 @@
         <v>3383.4</v>
       </c>
       <c r="R88" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="S88" t="n">
-        <v>1380.6</v>
+        <v>1382.4</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6808,7 +6808,7 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16232</v>
+        <v>16233</v>
       </c>
       <c r="G89" t="n">
         <v>2241</v>
@@ -6820,7 +6820,7 @@
         <v>228398</v>
       </c>
       <c r="J89" t="n">
-        <v>134725</v>
+        <v>134762</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
@@ -6832,10 +6832,10 @@
         <v>19684</v>
       </c>
       <c r="N89" t="n">
-        <v>22786</v>
+        <v>22806</v>
       </c>
       <c r="O89" t="n">
-        <v>7188</v>
+        <v>7198</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
@@ -6844,10 +6844,10 @@
         <v>3351.1</v>
       </c>
       <c r="R89" t="n">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="S89" t="n">
-        <v>1288.6</v>
+        <v>1290.4</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6882,7 +6882,7 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15704</v>
+        <v>15705</v>
       </c>
       <c r="G90" t="n">
         <v>2088</v>
@@ -6894,7 +6894,7 @@
         <v>228213</v>
       </c>
       <c r="J90" t="n">
-        <v>136007</v>
+        <v>136046</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -6906,10 +6906,10 @@
         <v>14890</v>
       </c>
       <c r="N90" t="n">
-        <v>19037</v>
+        <v>19059</v>
       </c>
       <c r="O90" t="n">
-        <v>6520</v>
+        <v>6531</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
@@ -6918,10 +6918,10 @@
         <v>2785.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="S90" t="n">
-        <v>1210</v>
+        <v>1211.7</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6956,7 +6956,7 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>15126</v>
+        <v>15127</v>
       </c>
       <c r="G91" t="n">
         <v>2024</v>
@@ -6968,7 +6968,7 @@
         <v>231101</v>
       </c>
       <c r="J91" t="n">
-        <v>136977</v>
+        <v>137018</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -6980,10 +6980,10 @@
         <v>14057</v>
       </c>
       <c r="N91" t="n">
-        <v>17649</v>
+        <v>17672</v>
       </c>
       <c r="O91" t="n">
-        <v>6126</v>
+        <v>6139</v>
       </c>
       <c r="P91" t="n">
         <v>2888</v>
@@ -6992,10 +6992,10 @@
         <v>2539.7</v>
       </c>
       <c r="R91" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="S91" t="n">
-        <v>1070</v>
+        <v>1071.9</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7030,7 +7030,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14498</v>
+        <v>14499</v>
       </c>
       <c r="G92" t="n">
         <v>1914</v>
@@ -7042,7 +7042,7 @@
         <v>234324</v>
       </c>
       <c r="J92" t="n">
-        <v>137853</v>
+        <v>137897</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
@@ -7054,10 +7054,10 @@
         <v>13617</v>
       </c>
       <c r="N92" t="n">
-        <v>16229</v>
+        <v>16255</v>
       </c>
       <c r="O92" t="n">
-        <v>5511</v>
+        <v>5525</v>
       </c>
       <c r="P92" t="n">
         <v>3223</v>
@@ -7066,10 +7066,10 @@
         <v>2468.6</v>
       </c>
       <c r="R92" t="n">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="S92" t="n">
-        <v>1000.3</v>
+        <v>1002.6</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7098,13 +7098,13 @@
         <v>238</v>
       </c>
       <c r="D93" t="n">
-        <v>9047</v>
+        <v>9046</v>
       </c>
       <c r="E93" t="n">
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15302</v>
+        <v>15304</v>
       </c>
       <c r="G93" t="n">
         <v>2240</v>
@@ -7113,37 +7113,37 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236483</v>
+        <v>236482</v>
       </c>
       <c r="J93" t="n">
-        <v>138378</v>
+        <v>138422</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36693</v>
+        <v>36692</v>
       </c>
       <c r="M93" t="n">
-        <v>13156</v>
+        <v>13155</v>
       </c>
       <c r="N93" t="n">
-        <v>15272</v>
+        <v>15298</v>
       </c>
       <c r="O93" t="n">
-        <v>5245</v>
+        <v>5258</v>
       </c>
       <c r="P93" t="n">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.7</v>
+        <v>2253.6</v>
       </c>
       <c r="R93" t="n">
         <v>525</v>
       </c>
       <c r="S93" t="n">
-        <v>862.3</v>
+        <v>864.3</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,7 +7178,7 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>15044</v>
+        <v>15046</v>
       </c>
       <c r="G94" t="n">
         <v>2246</v>
@@ -7187,37 +7187,37 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238141</v>
+        <v>238140</v>
       </c>
       <c r="J94" t="n">
-        <v>138721</v>
+        <v>138765</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36124</v>
+        <v>36123</v>
       </c>
       <c r="M94" t="n">
-        <v>12440</v>
+        <v>12439</v>
       </c>
       <c r="N94" t="n">
-        <v>14742</v>
+        <v>14766</v>
       </c>
       <c r="O94" t="n">
-        <v>5078</v>
+        <v>5089</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2116.3</v>
+        <v>2116.1</v>
       </c>
       <c r="R94" t="n">
         <v>343</v>
       </c>
       <c r="S94" t="n">
-        <v>798.3</v>
+        <v>800.1</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,7 +7252,7 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14944</v>
+        <v>14946</v>
       </c>
       <c r="G95" t="n">
         <v>2197</v>
@@ -7261,37 +7261,37 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239236</v>
+        <v>239235</v>
       </c>
       <c r="J95" t="n">
-        <v>138981</v>
+        <v>139027</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34296</v>
+        <v>34295</v>
       </c>
       <c r="M95" t="n">
-        <v>10838</v>
+        <v>10837</v>
       </c>
       <c r="N95" t="n">
-        <v>13276</v>
+        <v>13298</v>
       </c>
       <c r="O95" t="n">
-        <v>4256</v>
+        <v>4265</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.6</v>
+        <v>1933.4</v>
       </c>
       <c r="R95" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S95" t="n">
-        <v>762.6</v>
+        <v>764.4</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7326,7 +7326,7 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14672</v>
+        <v>14674</v>
       </c>
       <c r="G96" t="n">
         <v>2099</v>
@@ -7335,37 +7335,37 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241009</v>
+        <v>241008</v>
       </c>
       <c r="J96" t="n">
-        <v>139798</v>
+        <v>139845</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32295</v>
+        <v>32294</v>
       </c>
       <c r="M96" t="n">
-        <v>12796</v>
+        <v>12795</v>
       </c>
       <c r="N96" t="n">
-        <v>12261</v>
+        <v>12281</v>
       </c>
       <c r="O96" t="n">
-        <v>3791</v>
+        <v>3799</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.6</v>
+        <v>1801.4</v>
       </c>
       <c r="R96" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="S96" t="n">
-        <v>724.7</v>
+        <v>726.1</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,7 +7400,7 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14358</v>
+        <v>14360</v>
       </c>
       <c r="G97" t="n">
         <v>2041</v>
@@ -7409,37 +7409,37 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243064</v>
+        <v>243063</v>
       </c>
       <c r="J97" t="n">
-        <v>152822</v>
+        <v>152870</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29741</v>
+        <v>29740</v>
       </c>
       <c r="M97" t="n">
-        <v>11963</v>
+        <v>11962</v>
       </c>
       <c r="N97" t="n">
-        <v>23335</v>
+        <v>23355</v>
       </c>
       <c r="O97" t="n">
-        <v>15845</v>
+        <v>15852</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.6</v>
+        <v>2121.4</v>
       </c>
       <c r="R97" t="n">
-        <v>13024</v>
+        <v>13025</v>
       </c>
       <c r="S97" t="n">
-        <v>2402.1</v>
+        <v>2403.4</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,7 +7474,7 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13813</v>
+        <v>13814</v>
       </c>
       <c r="G98" t="n">
         <v>1926</v>
@@ -7483,37 +7483,37 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246011</v>
+        <v>246010</v>
       </c>
       <c r="J98" t="n">
-        <v>153649</v>
+        <v>153697</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28967</v>
+        <v>28966</v>
       </c>
       <c r="M98" t="n">
-        <v>11687</v>
+        <v>11686</v>
       </c>
       <c r="N98" t="n">
-        <v>22798</v>
+        <v>22818</v>
       </c>
       <c r="O98" t="n">
-        <v>15796</v>
+        <v>15800</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2130</v>
+        <v>2129.9</v>
       </c>
       <c r="R98" t="n">
         <v>827</v>
       </c>
       <c r="S98" t="n">
-        <v>2381.7</v>
+        <v>2382.7</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7548,7 +7548,7 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13218</v>
+        <v>13220</v>
       </c>
       <c r="G99" t="n">
         <v>1825</v>
@@ -7557,37 +7557,37 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246385</v>
+        <v>246384</v>
       </c>
       <c r="J99" t="n">
-        <v>154346</v>
+        <v>154397</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25678</v>
+        <v>25677</v>
       </c>
       <c r="M99" t="n">
         <v>9902</v>
       </c>
       <c r="N99" t="n">
-        <v>22004</v>
+        <v>22025</v>
       </c>
       <c r="O99" t="n">
-        <v>15968</v>
+        <v>15975</v>
       </c>
       <c r="P99" t="n">
         <v>374</v>
       </c>
       <c r="Q99" t="n">
-        <v>1723</v>
+        <v>1722.9</v>
       </c>
       <c r="R99" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="S99" t="n">
-        <v>2356.1</v>
+        <v>2357.1</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7622,7 +7622,7 @@
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12568</v>
+        <v>12571</v>
       </c>
       <c r="G100" t="n">
         <v>1782</v>
@@ -7631,25 +7631,25 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250921</v>
+        <v>250920</v>
       </c>
       <c r="J100" t="n">
-        <v>155019</v>
+        <v>155076</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27594</v>
+        <v>27593</v>
       </c>
       <c r="M100" t="n">
         <v>12780</v>
       </c>
       <c r="N100" t="n">
-        <v>21886</v>
+        <v>21912</v>
       </c>
       <c r="O100" t="n">
-        <v>16298</v>
+        <v>16311</v>
       </c>
       <c r="P100" t="n">
         <v>4536</v>
@@ -7658,10 +7658,10 @@
         <v>2062.6</v>
       </c>
       <c r="R100" t="n">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="S100" t="n">
-        <v>2377.3</v>
+        <v>2379.1</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,7 +7696,7 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12171</v>
+        <v>12174</v>
       </c>
       <c r="G101" t="n">
         <v>1705</v>
@@ -7705,25 +7705,25 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252739</v>
+        <v>252738</v>
       </c>
       <c r="J101" t="n">
-        <v>155317</v>
+        <v>155374</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27038</v>
+        <v>27037</v>
       </c>
       <c r="M101" t="n">
         <v>13503</v>
       </c>
       <c r="N101" t="n">
-        <v>21674</v>
+        <v>21698</v>
       </c>
       <c r="O101" t="n">
-        <v>16336</v>
+        <v>16347</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
@@ -7735,7 +7735,7 @@
         <v>298</v>
       </c>
       <c r="S101" t="n">
-        <v>2370.9</v>
+        <v>2372.7</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,7 +7770,7 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11796</v>
+        <v>11798</v>
       </c>
       <c r="G102" t="n">
         <v>1624</v>
@@ -7779,25 +7779,25 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251696</v>
+        <v>251695</v>
       </c>
       <c r="J102" t="n">
-        <v>155548</v>
+        <v>155605</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23298</v>
+        <v>23297</v>
       </c>
       <c r="M102" t="n">
         <v>10687</v>
       </c>
       <c r="N102" t="n">
-        <v>20823</v>
+        <v>20843</v>
       </c>
       <c r="O102" t="n">
-        <v>15750</v>
+        <v>15760</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
@@ -7809,7 +7809,7 @@
         <v>231</v>
       </c>
       <c r="S102" t="n">
-        <v>2366.7</v>
+        <v>2368.3</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,7 +7844,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11703</v>
+        <v>11705</v>
       </c>
       <c r="G103" t="n">
         <v>1589</v>
@@ -7853,25 +7853,25 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255321</v>
+        <v>255320</v>
       </c>
       <c r="J103" t="n">
-        <v>156121</v>
+        <v>156177</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27108</v>
+        <v>27107</v>
       </c>
       <c r="M103" t="n">
         <v>12257</v>
       </c>
       <c r="N103" t="n">
-        <v>20114</v>
+        <v>20131</v>
       </c>
       <c r="O103" t="n">
-        <v>3299</v>
+        <v>3307</v>
       </c>
       <c r="P103" t="n">
         <v>3625</v>
@@ -7880,10 +7880,10 @@
         <v>2044.6</v>
       </c>
       <c r="R103" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S103" t="n">
-        <v>2331.9</v>
+        <v>2333.1</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7918,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11355</v>
+        <v>11357</v>
       </c>
       <c r="G104" t="n">
         <v>1517</v>
@@ -7927,25 +7927,25 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257001</v>
+        <v>257000</v>
       </c>
       <c r="J104" t="n">
-        <v>156801</v>
+        <v>156859</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25900</v>
+        <v>25899</v>
       </c>
       <c r="M104" t="n">
         <v>10990</v>
       </c>
       <c r="N104" t="n">
-        <v>19824</v>
+        <v>19841</v>
       </c>
       <c r="O104" t="n">
-        <v>3152</v>
+        <v>3162</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
@@ -7954,10 +7954,10 @@
         <v>1991</v>
       </c>
       <c r="R104" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="S104" t="n">
-        <v>568.4</v>
+        <v>569.9</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,7 +7992,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10951</v>
+        <v>10952</v>
       </c>
       <c r="G105" t="n">
         <v>1436</v>
@@ -8001,25 +8001,25 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258600</v>
+        <v>258599</v>
       </c>
       <c r="J105" t="n">
-        <v>157509</v>
+        <v>157569</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24276</v>
+        <v>24275</v>
       </c>
       <c r="M105" t="n">
         <v>12215</v>
       </c>
       <c r="N105" t="n">
-        <v>19656</v>
+        <v>19672</v>
       </c>
       <c r="O105" t="n">
-        <v>3163</v>
+        <v>3172</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
@@ -8028,10 +8028,10 @@
         <v>1798.4</v>
       </c>
       <c r="R105" t="n">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="S105" t="n">
-        <v>551.4</v>
+        <v>553.1</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,7 +8066,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10529</v>
+        <v>10530</v>
       </c>
       <c r="G106" t="n">
         <v>1397</v>
@@ -8075,10 +8075,10 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203384</v>
+        <v>203383</v>
       </c>
       <c r="J106" t="n">
-        <v>185450</v>
+        <v>185513</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
@@ -8090,10 +8090,10 @@
         <v>-47537</v>
       </c>
       <c r="N106" t="n">
-        <v>47072</v>
+        <v>47091</v>
       </c>
       <c r="O106" t="n">
-        <v>30431</v>
+        <v>30437</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8102,10 +8102,10 @@
         <v>-6143</v>
       </c>
       <c r="R106" t="n">
-        <v>27941</v>
+        <v>27944</v>
       </c>
       <c r="S106" t="n">
-        <v>4443.4</v>
+        <v>4445.1</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8149,10 +8149,10 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204680</v>
+        <v>204679</v>
       </c>
       <c r="J107" t="n">
-        <v>198878</v>
+        <v>198942</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
@@ -8164,10 +8164,10 @@
         <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60157</v>
+        <v>60177</v>
       </c>
       <c r="O107" t="n">
-        <v>43561</v>
+        <v>43568</v>
       </c>
       <c r="P107" t="n">
         <v>1296</v>
@@ -8176,10 +8176,10 @@
         <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13428</v>
+        <v>13429</v>
       </c>
       <c r="S107" t="n">
-        <v>6265.6</v>
+        <v>6266.6</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8223,10 +8223,10 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205293</v>
+        <v>205292</v>
       </c>
       <c r="J108" t="n">
-        <v>199197</v>
+        <v>199262</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
@@ -8238,10 +8238,10 @@
         <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60216</v>
+        <v>60235</v>
       </c>
       <c r="O108" t="n">
-        <v>43649</v>
+        <v>43657</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
@@ -8250,10 +8250,10 @@
         <v>-6778</v>
       </c>
       <c r="R108" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S108" t="n">
-        <v>6268.6</v>
+        <v>6269.7</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8288,7 +8288,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9686</v>
+        <v>9687</v>
       </c>
       <c r="G109" t="n">
         <v>1333</v>
@@ -8297,10 +8297,10 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205641</v>
+        <v>205640</v>
       </c>
       <c r="J109" t="n">
-        <v>199449</v>
+        <v>199514</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
@@ -8312,10 +8312,10 @@
         <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59651</v>
+        <v>59669</v>
       </c>
       <c r="O109" t="n">
-        <v>43328</v>
+        <v>43337</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
@@ -8327,7 +8327,7 @@
         <v>252</v>
       </c>
       <c r="S109" t="n">
-        <v>6271.6</v>
+        <v>6272.7</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,7 +8362,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9601</v>
+        <v>9602</v>
       </c>
       <c r="G110" t="n">
         <v>1303</v>
@@ -8371,10 +8371,10 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179124</v>
+        <v>179123</v>
       </c>
       <c r="J110" t="n">
-        <v>224775</v>
+        <v>224844</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
@@ -8386,10 +8386,10 @@
         <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71953</v>
+        <v>71974</v>
       </c>
       <c r="O110" t="n">
-        <v>67974</v>
+        <v>67985</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
@@ -8398,10 +8398,10 @@
         <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25326</v>
+        <v>25330</v>
       </c>
       <c r="S110" t="n">
-        <v>9807.7</v>
+        <v>9809.6</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8445,10 +8445,10 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175028</v>
+        <v>175027</v>
       </c>
       <c r="J111" t="n">
-        <v>231039</v>
+        <v>231112</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
@@ -8460,10 +8460,10 @@
         <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77390</v>
+        <v>77415</v>
       </c>
       <c r="O111" t="n">
-        <v>73530</v>
+        <v>73543</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
@@ -8472,10 +8472,10 @@
         <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6264</v>
+        <v>6268</v>
       </c>
       <c r="S111" t="n">
-        <v>10605.4</v>
+        <v>10607.6</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8519,10 +8519,10 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175590</v>
+        <v>175589</v>
       </c>
       <c r="J112" t="n">
-        <v>231821</v>
+        <v>231898</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
@@ -8534,10 +8534,10 @@
         <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77475</v>
+        <v>77501</v>
       </c>
       <c r="O112" t="n">
-        <v>46371</v>
+        <v>46385</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
@@ -8546,10 +8546,10 @@
         <v>-11858.6</v>
       </c>
       <c r="R112" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="S112" t="n">
-        <v>10616</v>
+        <v>10618.4</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8593,10 +8593,10 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83762</v>
+        <v>83761</v>
       </c>
       <c r="J113" t="n">
-        <v>232690</v>
+        <v>232770</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
@@ -8608,10 +8608,10 @@
         <v>-120918</v>
       </c>
       <c r="N113" t="n">
-        <v>77671</v>
+        <v>77694</v>
       </c>
       <c r="O113" t="n">
-        <v>33812</v>
+        <v>33828</v>
       </c>
       <c r="P113" t="n">
         <v>-91828</v>
@@ -8620,10 +8620,10 @@
         <v>-17088.9</v>
       </c>
       <c r="R113" t="n">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="S113" t="n">
-        <v>6748.6</v>
+        <v>6751</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8667,10 +8667,10 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84249</v>
+        <v>84248</v>
       </c>
       <c r="J114" t="n">
-        <v>233560</v>
+        <v>233641</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -8682,10 +8682,10 @@
         <v>-121044</v>
       </c>
       <c r="N114" t="n">
-        <v>78243</v>
+        <v>78267</v>
       </c>
       <c r="O114" t="n">
-        <v>34363</v>
+        <v>34379</v>
       </c>
       <c r="P114" t="n">
         <v>487</v>
@@ -8694,10 +8694,10 @@
         <v>-17204.4</v>
       </c>
       <c r="R114" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="S114" t="n">
-        <v>4954.6</v>
+        <v>4957</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8741,10 +8741,10 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84463</v>
+        <v>84462</v>
       </c>
       <c r="J115" t="n">
-        <v>233896</v>
+        <v>233977</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -8756,10 +8756,10 @@
         <v>-121178</v>
       </c>
       <c r="N115" t="n">
-        <v>78348</v>
+        <v>78372</v>
       </c>
       <c r="O115" t="n">
-        <v>34447</v>
+        <v>34463</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8771,7 +8771,7 @@
         <v>336</v>
       </c>
       <c r="S115" t="n">
-        <v>4957</v>
+        <v>4959.3</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8815,10 +8815,10 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84623</v>
+        <v>84622</v>
       </c>
       <c r="J116" t="n">
-        <v>234187</v>
+        <v>234268</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
@@ -8830,10 +8830,10 @@
         <v>-94501</v>
       </c>
       <c r="N116" t="n">
-        <v>78066</v>
+        <v>78091</v>
       </c>
       <c r="O116" t="n">
-        <v>9412</v>
+        <v>9424</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
@@ -8845,7 +8845,7 @@
         <v>291</v>
       </c>
       <c r="S116" t="n">
-        <v>4962.6</v>
+        <v>4964.9</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8871,7 +8871,7 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D117" t="n">
         <v>22</v>
@@ -8889,37 +8889,37 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84966</v>
+        <v>84963</v>
       </c>
       <c r="J117" t="n">
-        <v>234725</v>
+        <v>234810</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172035</v>
+        <v>-172037</v>
       </c>
       <c r="M117" t="n">
-        <v>-90062</v>
+        <v>-90064</v>
       </c>
       <c r="N117" t="n">
-        <v>77924</v>
+        <v>77951</v>
       </c>
       <c r="O117" t="n">
-        <v>3686</v>
+        <v>3698</v>
       </c>
       <c r="P117" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13451.1</v>
+        <v>-13451.4</v>
       </c>
       <c r="R117" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="S117" t="n">
-        <v>1421.4</v>
+        <v>1423.7</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,7 +8954,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7790</v>
+        <v>7791</v>
       </c>
       <c r="G118" t="n">
         <v>656</v>
@@ -8963,37 +8963,37 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85345</v>
+        <v>85342</v>
       </c>
       <c r="J118" t="n">
-        <v>235421</v>
+        <v>235514</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173255</v>
+        <v>-173257</v>
       </c>
       <c r="M118" t="n">
-        <v>-90245</v>
+        <v>-90247</v>
       </c>
       <c r="N118" t="n">
-        <v>77912</v>
+        <v>77945</v>
       </c>
       <c r="O118" t="n">
-        <v>3600</v>
+        <v>3616</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12811.9</v>
+        <v>-12812.1</v>
       </c>
       <c r="R118" t="n">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="S118" t="n">
-        <v>626</v>
+        <v>628.9</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9019,7 +9019,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -9028,7 +9028,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="G119" t="n">
         <v>606</v>
@@ -9037,10 +9037,10 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85739</v>
+        <v>85738</v>
       </c>
       <c r="J119" t="n">
-        <v>236196</v>
+        <v>236296</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -9052,22 +9052,22 @@
         <v>1977</v>
       </c>
       <c r="N119" t="n">
-        <v>50746</v>
+        <v>50783</v>
       </c>
       <c r="O119" t="n">
-        <v>3506</v>
+        <v>3526</v>
       </c>
       <c r="P119" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q119" t="n">
         <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="S119" t="n">
-        <v>625</v>
+        <v>628.3</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,7 +9102,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="G120" t="n">
         <v>541</v>
@@ -9111,10 +9111,10 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83955</v>
+        <v>83954</v>
       </c>
       <c r="J120" t="n">
-        <v>236886</v>
+        <v>236989</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,10 +9126,10 @@
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>38008</v>
+        <v>38047</v>
       </c>
       <c r="O120" t="n">
-        <v>3326</v>
+        <v>3348</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9138,10 +9138,10 @@
         <v>27.6</v>
       </c>
       <c r="R120" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="S120" t="n">
-        <v>599.4</v>
+        <v>602.7</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,7 +9176,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="G121" t="n">
         <v>536</v>
@@ -9185,10 +9185,10 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86338</v>
+        <v>86337</v>
       </c>
       <c r="J121" t="n">
-        <v>237605</v>
+        <v>237714</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38408</v>
+        <v>38452</v>
       </c>
       <c r="O121" t="n">
-        <v>3709</v>
+        <v>3737</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9212,10 +9212,10 @@
         <v>298.4</v>
       </c>
       <c r="R121" t="n">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="S121" t="n">
-        <v>577.9</v>
+        <v>581.9</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9250,7 +9250,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="G122" t="n">
         <v>515</v>
@@ -9259,10 +9259,10 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86479</v>
+        <v>86478</v>
       </c>
       <c r="J122" t="n">
-        <v>237967</v>
+        <v>238076</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -9274,10 +9274,10 @@
         <v>1856</v>
       </c>
       <c r="N122" t="n">
-        <v>38518</v>
+        <v>38562</v>
       </c>
       <c r="O122" t="n">
-        <v>3780</v>
+        <v>3808</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9289,7 +9289,7 @@
         <v>362</v>
       </c>
       <c r="S122" t="n">
-        <v>581.6</v>
+        <v>585.6</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,7 +9324,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="G123" t="n">
         <v>521</v>
@@ -9333,10 +9333,10 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86526</v>
+        <v>86525</v>
       </c>
       <c r="J123" t="n">
-        <v>238242</v>
+        <v>238352</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -9345,13 +9345,13 @@
         <v>-92598</v>
       </c>
       <c r="M123" t="n">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="N123" t="n">
-        <v>13467</v>
+        <v>13508</v>
       </c>
       <c r="O123" t="n">
-        <v>3517</v>
+        <v>3542</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9360,10 +9360,10 @@
         <v>271.9</v>
       </c>
       <c r="R123" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S123" t="n">
-        <v>579.3</v>
+        <v>583.4</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,7 +9398,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="G124" t="n">
         <v>515</v>
@@ -9407,10 +9407,10 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86603</v>
+        <v>86602</v>
       </c>
       <c r="J124" t="n">
-        <v>238613</v>
+        <v>238728</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -9419,25 +9419,25 @@
         <v>-88425</v>
       </c>
       <c r="M124" t="n">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="N124" t="n">
-        <v>7574</v>
+        <v>7616</v>
       </c>
       <c r="O124" t="n">
-        <v>3192</v>
+        <v>3214</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
       </c>
       <c r="Q124" t="n">
-        <v>233.9</v>
+        <v>234.1</v>
       </c>
       <c r="R124" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="S124" t="n">
-        <v>555.4</v>
+        <v>559.7</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,7 +9472,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="G125" t="n">
         <v>480</v>
@@ -9481,10 +9481,10 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84779</v>
+        <v>84778</v>
       </c>
       <c r="J125" t="n">
-        <v>239216</v>
+        <v>239335</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -9496,22 +9496,22 @@
         <v>-960</v>
       </c>
       <c r="N125" t="n">
-        <v>7395</v>
+        <v>7437</v>
       </c>
       <c r="O125" t="n">
-        <v>3020</v>
+        <v>3039</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
       </c>
       <c r="Q125" t="n">
-        <v>-80.9</v>
+        <v>-80.6</v>
       </c>
       <c r="R125" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="S125" t="n">
-        <v>542.1</v>
+        <v>545.9</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9537,16 +9537,16 @@
         <v>35</v>
       </c>
       <c r="C126" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D126" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126" t="n">
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="G126" t="n">
         <v>451</v>
@@ -9555,37 +9555,37 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87110</v>
+        <v>87107</v>
       </c>
       <c r="J126" t="n">
-        <v>239858</v>
+        <v>239979</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="M126" t="n">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="N126" t="n">
-        <v>7168</v>
+        <v>7209</v>
       </c>
       <c r="O126" t="n">
-        <v>2972</v>
+        <v>2990</v>
       </c>
       <c r="P126" t="n">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="Q126" t="n">
-        <v>195.9</v>
+        <v>195.6</v>
       </c>
       <c r="R126" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="S126" t="n">
-        <v>523.1</v>
+        <v>526.1</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9611,7 +9611,7 @@
         <v>61</v>
       </c>
       <c r="C127" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D127" t="n">
         <v>25</v>
@@ -9620,7 +9620,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="G127" t="n">
         <v>427</v>
@@ -9629,37 +9629,37 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94582</v>
+        <v>94580</v>
       </c>
       <c r="J127" t="n">
-        <v>240422</v>
+        <v>240546</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10333</v>
+        <v>10332</v>
       </c>
       <c r="M127" t="n">
-        <v>8244</v>
+        <v>8243</v>
       </c>
       <c r="N127" t="n">
-        <v>6862</v>
+        <v>6905</v>
       </c>
       <c r="O127" t="n">
-        <v>2817</v>
+        <v>2832</v>
       </c>
       <c r="P127" t="n">
-        <v>7472</v>
+        <v>7473</v>
       </c>
       <c r="Q127" t="n">
-        <v>1518.1</v>
+        <v>1518</v>
       </c>
       <c r="R127" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="S127" t="n">
-        <v>505.1</v>
+        <v>508.1</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,7 +9694,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="G128" t="n">
         <v>404</v>
@@ -9703,37 +9703,37 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97094</v>
+        <v>97092</v>
       </c>
       <c r="J128" t="n">
-        <v>243138</v>
+        <v>243262</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12631</v>
+        <v>12630</v>
       </c>
       <c r="M128" t="n">
-        <v>10615</v>
+        <v>10614</v>
       </c>
       <c r="N128" t="n">
-        <v>9242</v>
+        <v>9285</v>
       </c>
       <c r="O128" t="n">
-        <v>5171</v>
+        <v>5186</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
       </c>
       <c r="Q128" t="n">
-        <v>1536.6</v>
+        <v>1536.4</v>
       </c>
       <c r="R128" t="n">
         <v>2716</v>
       </c>
       <c r="S128" t="n">
-        <v>790.4</v>
+        <v>792.6</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,7 +9768,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="G129" t="n">
         <v>405</v>
@@ -9777,37 +9777,37 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97086</v>
+        <v>97084</v>
       </c>
       <c r="J129" t="n">
-        <v>243488</v>
+        <v>243613</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12463</v>
+        <v>12462</v>
       </c>
       <c r="M129" t="n">
-        <v>10560</v>
+        <v>10559</v>
       </c>
       <c r="N129" t="n">
-        <v>9301</v>
+        <v>9345</v>
       </c>
       <c r="O129" t="n">
-        <v>5246</v>
+        <v>5261</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
       </c>
       <c r="Q129" t="n">
-        <v>1515.3</v>
+        <v>1515.1</v>
       </c>
       <c r="R129" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S129" t="n">
-        <v>788.7</v>
+        <v>791</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,7 +9842,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="G130" t="n">
         <v>403</v>
@@ -9851,37 +9851,37 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97243</v>
+        <v>97241</v>
       </c>
       <c r="J130" t="n">
-        <v>244085</v>
+        <v>244210</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12277</v>
+        <v>12278</v>
       </c>
       <c r="M130" t="n">
-        <v>10640</v>
+        <v>10639</v>
       </c>
       <c r="N130" t="n">
-        <v>9360</v>
+        <v>9400</v>
       </c>
       <c r="O130" t="n">
-        <v>5472</v>
+        <v>5482</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
       </c>
       <c r="Q130" t="n">
-        <v>1531</v>
+        <v>1530.9</v>
       </c>
       <c r="R130" t="n">
         <v>597</v>
       </c>
       <c r="S130" t="n">
-        <v>834.7</v>
+        <v>836.9</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,7 +9916,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="G131" t="n">
         <v>394</v>
@@ -9925,37 +9925,37 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97388</v>
+        <v>97386</v>
       </c>
       <c r="J131" t="n">
-        <v>244412</v>
+        <v>244540</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12043</v>
+        <v>12044</v>
       </c>
       <c r="M131" t="n">
-        <v>12609</v>
+        <v>12608</v>
       </c>
       <c r="N131" t="n">
-        <v>8991</v>
+        <v>9026</v>
       </c>
       <c r="O131" t="n">
-        <v>5196</v>
+        <v>5205</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
       </c>
       <c r="Q131" t="n">
-        <v>1540.7</v>
+        <v>1540.6</v>
       </c>
       <c r="R131" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="S131" t="n">
-        <v>828.4</v>
+        <v>830.3</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,7 +9990,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="G132" t="n">
         <v>375</v>
@@ -9999,37 +9999,37 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97561</v>
+        <v>97559</v>
       </c>
       <c r="J132" t="n">
-        <v>244843</v>
+        <v>244975</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11822</v>
+        <v>11821</v>
       </c>
       <c r="M132" t="n">
-        <v>10451</v>
+        <v>10452</v>
       </c>
       <c r="N132" t="n">
-        <v>8647</v>
+        <v>8679</v>
       </c>
       <c r="O132" t="n">
-        <v>4985</v>
+        <v>4996</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
       </c>
       <c r="Q132" t="n">
-        <v>1826</v>
+        <v>1825.9</v>
       </c>
       <c r="R132" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S132" t="n">
-        <v>803.9</v>
+        <v>805.7</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10073,37 +10073,37 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97769</v>
+        <v>97767</v>
       </c>
       <c r="J133" t="n">
-        <v>245295</v>
+        <v>245430</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13814</v>
+        <v>13813</v>
       </c>
       <c r="M133" t="n">
         <v>3187</v>
       </c>
       <c r="N133" t="n">
-        <v>8409</v>
+        <v>8441</v>
       </c>
       <c r="O133" t="n">
-        <v>4873</v>
+        <v>4884</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
       </c>
       <c r="Q133" t="n">
-        <v>1522.7</v>
+        <v>1522.9</v>
       </c>
       <c r="R133" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="S133" t="n">
-        <v>776.7</v>
+        <v>778.7</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,7 +10138,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G134" t="n">
         <v>336</v>
@@ -10147,25 +10147,25 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97922</v>
+        <v>97920</v>
       </c>
       <c r="J134" t="n">
-        <v>245736</v>
+        <v>245874</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11584</v>
+        <v>11583</v>
       </c>
       <c r="M134" t="n">
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>8131</v>
+        <v>8160</v>
       </c>
       <c r="O134" t="n">
-        <v>2598</v>
+        <v>2612</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
@@ -10174,10 +10174,10 @@
         <v>477.1</v>
       </c>
       <c r="R134" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="S134" t="n">
-        <v>759.1</v>
+        <v>761.1</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G135" t="n">
         <v>324</v>
@@ -10221,25 +10221,25 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98130</v>
+        <v>98128</v>
       </c>
       <c r="J135" t="n">
-        <v>246229</v>
+        <v>246373</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11651</v>
+        <v>11650</v>
       </c>
       <c r="M135" t="n">
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8262</v>
+        <v>8297</v>
       </c>
       <c r="O135" t="n">
-        <v>2741</v>
+        <v>2760</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="S135" t="n">
-        <v>441.6</v>
+        <v>444.4</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10277,7 +10277,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D136" t="n">
         <v>3</v>
@@ -10286,7 +10286,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G136" t="n">
         <v>295</v>
@@ -10295,37 +10295,37 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98187</v>
+        <v>98184</v>
       </c>
       <c r="J136" t="n">
-        <v>246366</v>
+        <v>246509</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11661</v>
+        <v>11659</v>
       </c>
       <c r="M136" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N136" t="n">
-        <v>8124</v>
+        <v>8157</v>
       </c>
       <c r="O136" t="n">
-        <v>2281</v>
+        <v>2299</v>
       </c>
       <c r="P136" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q136" t="n">
-        <v>157.3</v>
+        <v>157.1</v>
       </c>
       <c r="R136" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S136" t="n">
-        <v>411.1</v>
+        <v>413.7</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10351,7 +10351,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
@@ -10360,7 +10360,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G137" t="n">
         <v>288</v>
@@ -10369,37 +10369,37 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98223</v>
+        <v>98221</v>
       </c>
       <c r="J137" t="n">
-        <v>246468</v>
+        <v>246612</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="M137" t="n">
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7855</v>
+        <v>7884</v>
       </c>
       <c r="O137" t="n">
-        <v>2056</v>
+        <v>2072</v>
       </c>
       <c r="P137" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q137" t="n">
         <v>140</v>
       </c>
       <c r="R137" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S137" t="n">
-        <v>340.4</v>
+        <v>343.1</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,7 +10434,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G138" t="n">
         <v>301</v>
@@ -10443,25 +10443,25 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98335</v>
+        <v>98333</v>
       </c>
       <c r="J138" t="n">
-        <v>246823</v>
+        <v>246969</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
       </c>
       <c r="L138" t="n">
-        <v>13556</v>
+        <v>13555</v>
       </c>
       <c r="M138" t="n">
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7607</v>
+        <v>7634</v>
       </c>
       <c r="O138" t="n">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S138" t="n">
-        <v>344.4</v>
+        <v>347</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,7 +10508,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G139" t="n">
         <v>290</v>
@@ -10517,25 +10517,25 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98512</v>
+        <v>98510</v>
       </c>
       <c r="J139" t="n">
-        <v>245015</v>
+        <v>245162</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
       </c>
       <c r="L139" t="n">
-        <v>11402</v>
+        <v>11403</v>
       </c>
       <c r="M139" t="n">
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5157</v>
+        <v>5183</v>
       </c>
       <c r="O139" t="n">
-        <v>-280</v>
+        <v>-268</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1808</v>
+        <v>-1807</v>
       </c>
       <c r="S139" t="n">
-        <v>24.6</v>
+        <v>26.7</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10582,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G140" t="n">
         <v>279</v>
@@ -10591,10 +10591,10 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98652</v>
+        <v>98650</v>
       </c>
       <c r="J140" t="n">
-        <v>245380</v>
+        <v>245527</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10606,10 +10606,10 @@
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4958</v>
+        <v>4981</v>
       </c>
       <c r="O140" t="n">
-        <v>-356</v>
+        <v>-347</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10621,7 +10621,7 @@
         <v>365</v>
       </c>
       <c r="S140" t="n">
-        <v>12.1</v>
+        <v>13.9</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10665,10 +10665,10 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98864</v>
+        <v>98862</v>
       </c>
       <c r="J141" t="n">
-        <v>245910</v>
+        <v>246060</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10680,10 +10680,10 @@
         <v>734</v>
       </c>
       <c r="N141" t="n">
-        <v>2772</v>
+        <v>2798</v>
       </c>
       <c r="O141" t="n">
-        <v>-319</v>
+        <v>-313</v>
       </c>
       <c r="P141" t="n">
         <v>212</v>
@@ -10692,10 +10692,10 @@
         <v>134.6</v>
       </c>
       <c r="R141" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="S141" t="n">
-        <v>24.9</v>
+        <v>26.6</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,7 +10730,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G142" t="n">
         <v>241</v>
@@ -10739,10 +10739,10 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99050</v>
+        <v>99048</v>
       </c>
       <c r="J142" t="n">
-        <v>246313</v>
+        <v>246463</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10751,13 +10751,13 @@
         <v>1964</v>
       </c>
       <c r="M142" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N142" t="n">
-        <v>2825</v>
+        <v>2850</v>
       </c>
       <c r="O142" t="n">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10769,7 +10769,7 @@
         <v>403</v>
       </c>
       <c r="S142" t="n">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,7 +10804,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G143" t="n">
         <v>229</v>
@@ -10813,10 +10813,10 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99133</v>
+        <v>99131</v>
       </c>
       <c r="J143" t="n">
-        <v>246548</v>
+        <v>246700</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10828,22 +10828,22 @@
         <v>910</v>
       </c>
       <c r="N143" t="n">
-        <v>2463</v>
+        <v>2490</v>
       </c>
       <c r="O143" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
       </c>
       <c r="Q143" t="n">
-        <v>135.1</v>
+        <v>135.3</v>
       </c>
       <c r="R143" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S143" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10887,10 +10887,10 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99189</v>
+        <v>99187</v>
       </c>
       <c r="J144" t="n">
-        <v>246747</v>
+        <v>246899</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>854</v>
       </c>
       <c r="N144" t="n">
-        <v>2335</v>
+        <v>2359</v>
       </c>
       <c r="O144" t="n">
-        <v>-76</v>
+        <v>-70</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10917,7 +10917,7 @@
         <v>199</v>
       </c>
       <c r="S144" t="n">
-        <v>39.9</v>
+        <v>41</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10961,10 +10961,10 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99312</v>
+        <v>99310</v>
       </c>
       <c r="J145" t="n">
-        <v>246998</v>
+        <v>247152</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>2155</v>
+        <v>2177</v>
       </c>
       <c r="O145" t="n">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10988,10 +10988,10 @@
         <v>139.6</v>
       </c>
       <c r="R145" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S145" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99381</v>
+        <v>99379</v>
       </c>
       <c r="J146" t="n">
-        <v>247389</v>
+        <v>247544</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>729</v>
       </c>
       <c r="N146" t="n">
-        <v>2094</v>
+        <v>2114</v>
       </c>
       <c r="O146" t="n">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11062,10 +11062,10 @@
         <v>124.1</v>
       </c>
       <c r="R146" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S146" t="n">
-        <v>339.1</v>
+        <v>340.3</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11109,10 +11109,10 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97304</v>
+        <v>97302</v>
       </c>
       <c r="J147" t="n">
-        <v>247738</v>
+        <v>247897</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,10 +11124,10 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>2002</v>
+        <v>2023</v>
       </c>
       <c r="O147" t="n">
-        <v>1828</v>
+        <v>1837</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.6</v>
       </c>
       <c r="R147" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="S147" t="n">
-        <v>336.9</v>
+        <v>338.6</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11183,10 +11183,10 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>105805</v>
+        <v>105803</v>
       </c>
       <c r="J148" t="n">
-        <v>248146</v>
+        <v>248305</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>6755</v>
       </c>
       <c r="N148" t="n">
-        <v>1917</v>
+        <v>1932</v>
       </c>
       <c r="O148" t="n">
-        <v>1833</v>
+        <v>1842</v>
       </c>
       <c r="P148" t="n">
         <v>8501</v>
@@ -11213,7 +11213,7 @@
         <v>408</v>
       </c>
       <c r="S148" t="n">
-        <v>319.4</v>
+        <v>320.7</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11248,7 +11248,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G149" t="n">
         <v>191</v>
@@ -11257,25 +11257,25 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>106180</v>
+        <v>106178</v>
       </c>
       <c r="J149" t="n">
-        <v>248710</v>
+        <v>248869</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
       </c>
       <c r="L149" t="n">
-        <v>7993</v>
+        <v>7994</v>
       </c>
       <c r="M149" t="n">
         <v>7047</v>
       </c>
       <c r="N149" t="n">
-        <v>2344</v>
+        <v>2360</v>
       </c>
       <c r="O149" t="n">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="P149" t="n">
         <v>375</v>
@@ -11287,7 +11287,7 @@
         <v>564</v>
       </c>
       <c r="S149" t="n">
-        <v>342.4</v>
+        <v>343.7</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11322,7 +11322,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G150" t="n">
         <v>183</v>
@@ -11331,10 +11331,10 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>104041</v>
+        <v>104039</v>
       </c>
       <c r="J150" t="n">
-        <v>248975</v>
+        <v>249136</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>4852</v>
       </c>
       <c r="N150" t="n">
-        <v>2507</v>
+        <v>2524</v>
       </c>
       <c r="O150" t="n">
-        <v>2228</v>
+        <v>2237</v>
       </c>
       <c r="P150" t="n">
         <v>-2139</v>
@@ -11358,10 +11358,10 @@
         <v>701.1</v>
       </c>
       <c r="R150" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S150" t="n">
-        <v>346.7</v>
+        <v>348</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11396,7 +11396,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G151" t="n">
         <v>150</v>
@@ -11405,10 +11405,10 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>104184</v>
+        <v>104182</v>
       </c>
       <c r="J151" t="n">
-        <v>249172</v>
+        <v>249333</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11420,10 +11420,10 @@
         <v>4872</v>
       </c>
       <c r="N151" t="n">
-        <v>2349</v>
+        <v>2364</v>
       </c>
       <c r="O151" t="n">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="P151" t="n">
         <v>143</v>
@@ -11435,7 +11435,7 @@
         <v>197</v>
       </c>
       <c r="S151" t="n">
-        <v>346.4</v>
+        <v>347.7</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G152" t="n">
         <v>181</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>106692</v>
+        <v>106690</v>
       </c>
       <c r="J152" t="n">
-        <v>249432</v>
+        <v>249593</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>7311</v>
       </c>
       <c r="N152" t="n">
-        <v>4417</v>
+        <v>4431</v>
       </c>
       <c r="O152" t="n">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="P152" t="n">
         <v>2508</v>
@@ -11509,7 +11509,7 @@
         <v>260</v>
       </c>
       <c r="S152" t="n">
-        <v>347.7</v>
+        <v>348.7</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,7 +11544,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G153" t="n">
         <v>178</v>
@@ -11553,10 +11553,10 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>107010</v>
+        <v>107008</v>
       </c>
       <c r="J153" t="n">
-        <v>249881</v>
+        <v>250046</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>9706</v>
       </c>
       <c r="N153" t="n">
-        <v>4501</v>
+        <v>4519</v>
       </c>
       <c r="O153" t="n">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="P153" t="n">
         <v>318</v>
@@ -11580,10 +11580,10 @@
         <v>1089.9</v>
       </c>
       <c r="R153" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="S153" t="n">
-        <v>356</v>
+        <v>357.4</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11609,7 +11609,7 @@
         <v>27</v>
       </c>
       <c r="C154" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D154" t="n">
         <v>115</v>
@@ -11627,37 +11627,37 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>107430</v>
+        <v>107429</v>
       </c>
       <c r="J154" t="n">
-        <v>250321</v>
+        <v>250488</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
       </c>
       <c r="L154" t="n">
-        <v>8566</v>
+        <v>8567</v>
       </c>
       <c r="M154" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="N154" t="n">
-        <v>4411</v>
+        <v>4428</v>
       </c>
       <c r="O154" t="n">
-        <v>2175</v>
+        <v>2183</v>
       </c>
       <c r="P154" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q154" t="n">
-        <v>1446.6</v>
+        <v>1446.7</v>
       </c>
       <c r="R154" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="S154" t="n">
-        <v>369</v>
+        <v>370.1</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11701,37 +11701,37 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>107850</v>
+        <v>107849</v>
       </c>
       <c r="J155" t="n">
-        <v>250796</v>
+        <v>250966</v>
       </c>
       <c r="K155" t="n">
         <v>65793</v>
       </c>
       <c r="L155" t="n">
-        <v>8800</v>
+        <v>8801</v>
       </c>
       <c r="M155" t="n">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="N155" t="n">
-        <v>4483</v>
+        <v>4503</v>
       </c>
       <c r="O155" t="n">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="P155" t="n">
         <v>420</v>
       </c>
       <c r="Q155" t="n">
-        <v>292.1</v>
+        <v>292.3</v>
       </c>
       <c r="R155" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="S155" t="n">
-        <v>378.6</v>
+        <v>380.1</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11775,37 +11775,37 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102016</v>
+        <v>102015</v>
       </c>
       <c r="J156" t="n">
-        <v>251368</v>
+        <v>251538</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
       </c>
       <c r="L156" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="M156" t="n">
-        <v>-2025</v>
+        <v>-2024</v>
       </c>
       <c r="N156" t="n">
-        <v>4820</v>
+        <v>4838</v>
       </c>
       <c r="O156" t="n">
-        <v>2393</v>
+        <v>2402</v>
       </c>
       <c r="P156" t="n">
         <v>-5834</v>
       </c>
       <c r="Q156" t="n">
-        <v>-594.9</v>
+        <v>-594.7</v>
       </c>
       <c r="R156" t="n">
         <v>572</v>
       </c>
       <c r="S156" t="n">
-        <v>379.7</v>
+        <v>381.3</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11849,37 +11849,37 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99846</v>
+        <v>99845</v>
       </c>
       <c r="J157" t="n">
-        <v>251583</v>
+        <v>251755</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
       </c>
       <c r="L157" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M157" t="n">
-        <v>-4338</v>
+        <v>-4337</v>
       </c>
       <c r="N157" t="n">
-        <v>4836</v>
+        <v>4856</v>
       </c>
       <c r="O157" t="n">
-        <v>2411</v>
+        <v>2422</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
       </c>
       <c r="Q157" t="n">
-        <v>-599.3</v>
+        <v>-599.1</v>
       </c>
       <c r="R157" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S157" t="n">
-        <v>372.6</v>
+        <v>374.1</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11923,37 +11923,37 @@
         <v>33775</v>
       </c>
       <c r="I158" t="n">
-        <v>106378</v>
+        <v>106377</v>
       </c>
       <c r="J158" t="n">
-        <v>251781</v>
+        <v>251954</v>
       </c>
       <c r="K158" t="n">
         <v>40019</v>
       </c>
       <c r="L158" t="n">
-        <v>7066</v>
+        <v>7067</v>
       </c>
       <c r="M158" t="n">
-        <v>-314</v>
+        <v>-313</v>
       </c>
       <c r="N158" t="n">
-        <v>4783</v>
+        <v>4802</v>
       </c>
       <c r="O158" t="n">
-        <v>2349</v>
+        <v>2361</v>
       </c>
       <c r="P158" t="n">
         <v>6532</v>
       </c>
       <c r="Q158" t="n">
-        <v>313.4</v>
+        <v>313.6</v>
       </c>
       <c r="R158" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S158" t="n">
-        <v>372.7</v>
+        <v>374.4</v>
       </c>
       <c r="T158" t="n">
         <v>9</v>
@@ -11997,37 +11997,37 @@
         <v>33785</v>
       </c>
       <c r="I159" t="n">
-        <v>109043</v>
+        <v>109042</v>
       </c>
       <c r="J159" t="n">
-        <v>252143</v>
+        <v>252319</v>
       </c>
       <c r="K159" t="n">
         <v>66247</v>
       </c>
       <c r="L159" t="n">
-        <v>9662</v>
+        <v>9663</v>
       </c>
       <c r="M159" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N159" t="n">
-        <v>4754</v>
+        <v>4775</v>
       </c>
       <c r="O159" t="n">
-        <v>2262</v>
+        <v>2273</v>
       </c>
       <c r="P159" t="n">
         <v>2665</v>
       </c>
       <c r="Q159" t="n">
-        <v>335.9</v>
+        <v>336</v>
       </c>
       <c r="R159" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S159" t="n">
-        <v>387.3</v>
+        <v>389.4</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12053,7 +12053,7 @@
         <v>28</v>
       </c>
       <c r="C160" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D160" t="n">
         <v>147</v>
@@ -12074,34 +12074,34 @@
         <v>109658</v>
       </c>
       <c r="J160" t="n">
-        <v>252827</v>
+        <v>253007</v>
       </c>
       <c r="K160" t="n">
         <v>66390</v>
       </c>
       <c r="L160" t="n">
-        <v>12354</v>
+        <v>12356</v>
       </c>
       <c r="M160" t="n">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="N160" t="n">
-        <v>5089</v>
+        <v>5110</v>
       </c>
       <c r="O160" t="n">
-        <v>2506</v>
+        <v>2519</v>
       </c>
       <c r="P160" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q160" t="n">
-        <v>378.3</v>
+        <v>378.6</v>
       </c>
       <c r="R160" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="S160" t="n">
-        <v>420.9</v>
+        <v>423</v>
       </c>
       <c r="T160" t="n">
         <v>17</v>
@@ -12148,34 +12148,34 @@
         <v>110394</v>
       </c>
       <c r="J161" t="n">
-        <v>253477</v>
+        <v>253659</v>
       </c>
       <c r="K161" t="n">
         <v>66547</v>
       </c>
       <c r="L161" t="n">
-        <v>4589</v>
+        <v>4591</v>
       </c>
       <c r="M161" t="n">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="N161" t="n">
-        <v>5331</v>
+        <v>5354</v>
       </c>
       <c r="O161" t="n">
-        <v>2681</v>
+        <v>2693</v>
       </c>
       <c r="P161" t="n">
         <v>736</v>
       </c>
       <c r="Q161" t="n">
-        <v>423.4</v>
+        <v>423.6</v>
       </c>
       <c r="R161" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S161" t="n">
-        <v>450.9</v>
+        <v>453</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12222,34 +12222,34 @@
         <v>111236</v>
       </c>
       <c r="J162" t="n">
-        <v>254356</v>
+        <v>254539</v>
       </c>
       <c r="K162" t="n">
         <v>66719</v>
       </c>
       <c r="L162" t="n">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="M162" t="n">
-        <v>9220</v>
+        <v>9221</v>
       </c>
       <c r="N162" t="n">
-        <v>5646</v>
+        <v>5670</v>
       </c>
       <c r="O162" t="n">
-        <v>2988</v>
+        <v>3001</v>
       </c>
       <c r="P162" t="n">
         <v>842</v>
       </c>
       <c r="Q162" t="n">
-        <v>483.7</v>
+        <v>483.9</v>
       </c>
       <c r="R162" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="S162" t="n">
-        <v>508.6</v>
+        <v>510.4</v>
       </c>
       <c r="T162" t="n">
         <v>13</v>
@@ -12275,7 +12275,7 @@
         <v>64</v>
       </c>
       <c r="C163" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D163" t="n">
         <v>220</v>
@@ -12293,37 +12293,37 @@
         <v>33828</v>
       </c>
       <c r="I163" t="n">
-        <v>105681</v>
+        <v>105695</v>
       </c>
       <c r="J163" t="n">
-        <v>255448</v>
+        <v>255649</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>1640</v>
+        <v>1656</v>
       </c>
       <c r="M163" t="n">
-        <v>5835</v>
+        <v>5850</v>
       </c>
       <c r="N163" t="n">
-        <v>6473</v>
+        <v>6513</v>
       </c>
       <c r="O163" t="n">
-        <v>3865</v>
+        <v>3894</v>
       </c>
       <c r="P163" t="n">
-        <v>-5555</v>
+        <v>-5541</v>
       </c>
       <c r="Q163" t="n">
-        <v>523.6</v>
+        <v>525.7</v>
       </c>
       <c r="R163" t="n">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="S163" t="n">
-        <v>582.9</v>
+        <v>587.3</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12349,7 +12349,7 @@
         <v>33</v>
       </c>
       <c r="C164" t="n">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D164" t="n">
         <v>7</v>
@@ -12367,37 +12367,37 @@
         <v>33832</v>
       </c>
       <c r="I164" t="n">
-        <v>103660</v>
+        <v>103695</v>
       </c>
       <c r="J164" t="n">
-        <v>256011</v>
+        <v>256233</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>-524</v>
+        <v>-487</v>
       </c>
       <c r="M164" t="n">
-        <v>-2718</v>
+        <v>-2682</v>
       </c>
       <c r="N164" t="n">
-        <v>6839</v>
+        <v>6900</v>
       </c>
       <c r="O164" t="n">
-        <v>4230</v>
+        <v>4279</v>
       </c>
       <c r="P164" t="n">
-        <v>-2021</v>
+        <v>-2000</v>
       </c>
       <c r="Q164" t="n">
-        <v>544.9</v>
+        <v>550</v>
       </c>
       <c r="R164" t="n">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="S164" t="n">
-        <v>632.6</v>
+        <v>639.7</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12423,7 +12423,7 @@
         <v>18</v>
       </c>
       <c r="C165" t="n">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -12441,37 +12441,37 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110668</v>
+        <v>110727</v>
       </c>
       <c r="J165" t="n">
-        <v>256383</v>
+        <v>256629</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>3976</v>
+        <v>4037</v>
       </c>
       <c r="M165" t="n">
-        <v>1625</v>
+        <v>1685</v>
       </c>
       <c r="N165" t="n">
-        <v>6951</v>
+        <v>7036</v>
       </c>
       <c r="O165" t="n">
-        <v>4240</v>
+        <v>4310</v>
       </c>
       <c r="P165" t="n">
-        <v>7008</v>
+        <v>7032</v>
       </c>
       <c r="Q165" t="n">
-        <v>612.9</v>
+        <v>621.4</v>
       </c>
       <c r="R165" t="n">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="S165" t="n">
-        <v>657.4</v>
+        <v>667.9</v>
       </c>
       <c r="T165" t="n">
         <v>8</v>
@@ -12497,7 +12497,7 @@
         <v>16</v>
       </c>
       <c r="C166" t="n">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="D166" t="n">
         <v>401</v>
@@ -12515,37 +12515,37 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114071</v>
+        <v>114176</v>
       </c>
       <c r="J166" t="n">
-        <v>257191</v>
+        <v>257486</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>7061</v>
+        <v>7168</v>
       </c>
       <c r="M166" t="n">
-        <v>4413</v>
+        <v>4518</v>
       </c>
       <c r="N166" t="n">
-        <v>7310</v>
+        <v>7440</v>
       </c>
       <c r="O166" t="n">
-        <v>4364</v>
+        <v>4479</v>
       </c>
       <c r="P166" t="n">
-        <v>3403</v>
+        <v>3449</v>
       </c>
       <c r="Q166" t="n">
-        <v>718.3</v>
+        <v>733.4</v>
       </c>
       <c r="R166" t="n">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="S166" t="n">
-        <v>721.1</v>
+        <v>738.1</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12571,7 +12571,7 @@
         <v>54</v>
       </c>
       <c r="C167" t="n">
-        <v>905</v>
+        <v>1003</v>
       </c>
       <c r="D167" t="n">
         <v>467</v>
@@ -12589,37 +12589,37 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115355</v>
+        <v>115558</v>
       </c>
       <c r="J167" t="n">
-        <v>258363</v>
+        <v>258760</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>7925</v>
+        <v>8129</v>
       </c>
       <c r="M167" t="n">
-        <v>4961</v>
+        <v>5164</v>
       </c>
       <c r="N167" t="n">
-        <v>8042</v>
+        <v>8272</v>
       </c>
       <c r="O167" t="n">
-        <v>4886</v>
+        <v>5101</v>
       </c>
       <c r="P167" t="n">
-        <v>1284</v>
+        <v>1382</v>
       </c>
       <c r="Q167" t="n">
-        <v>813.9</v>
+        <v>842.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1172</v>
+        <v>1274</v>
       </c>
       <c r="S167" t="n">
-        <v>790.9</v>
+        <v>821.9</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12645,7 +12645,7 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>1154</v>
+        <v>1262</v>
       </c>
       <c r="D168" t="n">
         <v>521</v>
@@ -12663,37 +12663,37 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>109719</v>
+        <v>110030</v>
       </c>
       <c r="J168" t="n">
-        <v>259730</v>
+        <v>260237</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>1869</v>
+        <v>2181</v>
       </c>
       <c r="M168" t="n">
-        <v>-1517</v>
+        <v>-1206</v>
       </c>
       <c r="N168" t="n">
-        <v>8934</v>
+        <v>9271</v>
       </c>
       <c r="O168" t="n">
-        <v>5374</v>
+        <v>5698</v>
       </c>
       <c r="P168" t="n">
-        <v>-5636</v>
+        <v>-5528</v>
       </c>
       <c r="Q168" t="n">
-        <v>-96.4</v>
+        <v>-52</v>
       </c>
       <c r="R168" t="n">
-        <v>1367</v>
+        <v>1477</v>
       </c>
       <c r="S168" t="n">
-        <v>893.3</v>
+        <v>939.7</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12719,7 +12719,7 @@
         <v>61</v>
       </c>
       <c r="C169" t="n">
-        <v>1199</v>
+        <v>1301</v>
       </c>
       <c r="D169" t="n">
         <v>387</v>
@@ -12737,37 +12737,37 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111039</v>
+        <v>111452</v>
       </c>
       <c r="J169" t="n">
-        <v>261295</v>
+        <v>261904</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9023</v>
+        <v>9437</v>
       </c>
       <c r="M169" t="n">
-        <v>5358</v>
+        <v>5757</v>
       </c>
       <c r="N169" t="n">
-        <v>9927</v>
+        <v>10366</v>
       </c>
       <c r="O169" t="n">
-        <v>5847</v>
+        <v>6255</v>
       </c>
       <c r="P169" t="n">
-        <v>1320</v>
+        <v>1422</v>
       </c>
       <c r="Q169" t="n">
-        <v>-28.1</v>
+        <v>30.9</v>
       </c>
       <c r="R169" t="n">
-        <v>1565</v>
+        <v>1667</v>
       </c>
       <c r="S169" t="n">
-        <v>991.3</v>
+        <v>1052.1</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12793,7 +12793,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>1558</v>
+        <v>1611</v>
       </c>
       <c r="D170" t="n">
         <v>455</v>
@@ -12811,37 +12811,37 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116137</v>
+        <v>116603</v>
       </c>
       <c r="J170" t="n">
-        <v>263229</v>
+        <v>263894</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16291</v>
+        <v>16758</v>
       </c>
       <c r="M170" t="n">
-        <v>12477</v>
+        <v>12908</v>
       </c>
       <c r="N170" t="n">
-        <v>11646</v>
+        <v>12139</v>
       </c>
       <c r="O170" t="n">
-        <v>7218</v>
+        <v>7661</v>
       </c>
       <c r="P170" t="n">
-        <v>5098</v>
+        <v>5151</v>
       </c>
       <c r="Q170" t="n">
-        <v>1493.7</v>
+        <v>1558.3</v>
       </c>
       <c r="R170" t="n">
-        <v>1934</v>
+        <v>1990</v>
       </c>
       <c r="S170" t="n">
-        <v>1111.6</v>
+        <v>1177.9</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12867,7 +12867,7 @@
         <v>70</v>
       </c>
       <c r="C171" t="n">
-        <v>1016</v>
+        <v>1091</v>
       </c>
       <c r="D171" t="n">
         <v>3</v>
@@ -12885,37 +12885,37 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114446</v>
+        <v>114987</v>
       </c>
       <c r="J171" t="n">
-        <v>264521</v>
+        <v>265262</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>8068</v>
+        <v>8610</v>
       </c>
       <c r="M171" t="n">
-        <v>3778</v>
+        <v>4260</v>
       </c>
       <c r="N171" t="n">
-        <v>12740</v>
+        <v>13308</v>
       </c>
       <c r="O171" t="n">
-        <v>8138</v>
+        <v>8633</v>
       </c>
       <c r="P171" t="n">
-        <v>-1691</v>
+        <v>-1616</v>
       </c>
       <c r="Q171" t="n">
-        <v>1540.9</v>
+        <v>1613.1</v>
       </c>
       <c r="R171" t="n">
-        <v>1292</v>
+        <v>1368</v>
       </c>
       <c r="S171" t="n">
-        <v>1215.7</v>
+        <v>1289.9</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12959,37 +12959,37 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123348</v>
+        <v>123889</v>
       </c>
       <c r="J172" t="n">
-        <v>265576</v>
+        <v>266319</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>14305</v>
+        <v>14847</v>
       </c>
       <c r="M172" t="n">
-        <v>9277</v>
+        <v>9713</v>
       </c>
       <c r="N172" t="n">
-        <v>13433</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>8385</v>
+        <v>8833</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
       </c>
       <c r="Q172" t="n">
-        <v>1811.4</v>
+        <v>1880.3</v>
       </c>
       <c r="R172" t="n">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="S172" t="n">
-        <v>1313.3</v>
+        <v>1384.3</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13015,7 +13015,7 @@
         <v>61</v>
       </c>
       <c r="C173" t="n">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D173" t="n">
         <v>306</v>
@@ -13024,7 +13024,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G173" t="n">
         <v>139</v>
@@ -13033,37 +13033,37 @@
         <v>33900</v>
       </c>
       <c r="I173" t="n">
-        <v>127502</v>
+        <v>128042</v>
       </c>
       <c r="J173" t="n">
-        <v>267310</v>
+        <v>268054</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
       </c>
       <c r="L173" t="n">
-        <v>17844</v>
+        <v>18384</v>
       </c>
       <c r="M173" t="n">
-        <v>12147</v>
+        <v>12484</v>
       </c>
       <c r="N173" t="n">
-        <v>14483</v>
+        <v>15047</v>
       </c>
       <c r="O173" t="n">
-        <v>8947</v>
+        <v>9294</v>
       </c>
       <c r="P173" t="n">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="Q173" t="n">
-        <v>1918.7</v>
+        <v>1980.9</v>
       </c>
       <c r="R173" t="n">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="S173" t="n">
-        <v>1445.6</v>
+        <v>1509.7</v>
       </c>
       <c r="T173" t="n">
         <v>11</v>
@@ -13089,7 +13089,7 @@
         <v>69</v>
       </c>
       <c r="C174" t="n">
-        <v>1881</v>
+        <v>1916</v>
       </c>
       <c r="D174" t="n">
         <v>349</v>
@@ -13098,7 +13098,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G174" t="n">
         <v>146</v>
@@ -13107,37 +13107,37 @@
         <v>33916</v>
       </c>
       <c r="I174" t="n">
-        <v>129262</v>
+        <v>129837</v>
       </c>
       <c r="J174" t="n">
-        <v>269601</v>
+        <v>270383</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>18868</v>
+        <v>19443</v>
       </c>
       <c r="M174" t="n">
-        <v>19543</v>
+        <v>19807</v>
       </c>
       <c r="N174" t="n">
-        <v>16124</v>
+        <v>16724</v>
       </c>
       <c r="O174" t="n">
-        <v>9871</v>
+        <v>10146</v>
       </c>
       <c r="P174" t="n">
-        <v>1760</v>
+        <v>1795</v>
       </c>
       <c r="Q174" t="n">
-        <v>1986.7</v>
+        <v>2039.9</v>
       </c>
       <c r="R174" t="n">
-        <v>2291</v>
+        <v>2329</v>
       </c>
       <c r="S174" t="n">
-        <v>1605.4</v>
+        <v>1660.4</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -13163,7 +13163,7 @@
         <v>37</v>
       </c>
       <c r="C175" t="n">
-        <v>1876</v>
+        <v>1904</v>
       </c>
       <c r="D175" t="n">
         <v>292</v>
@@ -13172,7 +13172,7 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G175" t="n">
         <v>159</v>
@@ -13181,37 +13181,37 @@
         <v>33924</v>
       </c>
       <c r="I175" t="n">
-        <v>131531</v>
+        <v>132134</v>
       </c>
       <c r="J175" t="n">
-        <v>271878</v>
+        <v>272690</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>20295</v>
+        <v>20898</v>
       </c>
       <c r="M175" t="n">
-        <v>20492</v>
+        <v>20682</v>
       </c>
       <c r="N175" t="n">
-        <v>17522</v>
+        <v>18151</v>
       </c>
       <c r="O175" t="n">
-        <v>10583</v>
+        <v>10786</v>
       </c>
       <c r="P175" t="n">
-        <v>2269</v>
+        <v>2297</v>
       </c>
       <c r="Q175" t="n">
-        <v>3116</v>
+        <v>3157.7</v>
       </c>
       <c r="R175" t="n">
-        <v>2277</v>
+        <v>2307</v>
       </c>
       <c r="S175" t="n">
-        <v>1735.4</v>
+        <v>1779</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13237,7 +13237,7 @@
         <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>1772</v>
+        <v>1778</v>
       </c>
       <c r="D176" t="n">
         <v>296</v>
@@ -13255,37 +13255,37 @@
         <v>33931</v>
       </c>
       <c r="I176" t="n">
-        <v>133441</v>
+        <v>134050</v>
       </c>
       <c r="J176" t="n">
-        <v>274058</v>
+        <v>274880</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>27760</v>
+        <v>28355</v>
       </c>
       <c r="M176" t="n">
-        <v>17304</v>
+        <v>17447</v>
       </c>
       <c r="N176" t="n">
-        <v>18610</v>
+        <v>19231</v>
       </c>
       <c r="O176" t="n">
-        <v>10829</v>
+        <v>10986</v>
       </c>
       <c r="P176" t="n">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="Q176" t="n">
-        <v>3200.3</v>
+        <v>3228.3</v>
       </c>
       <c r="R176" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="S176" t="n">
-        <v>1823.3</v>
+        <v>1853.7</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -13311,16 +13311,16 @@
         <v>44</v>
       </c>
       <c r="C177" t="n">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="D177" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E177" t="n">
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G177" t="n">
         <v>177</v>
@@ -13329,37 +13329,37 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>125441</v>
+        <v>126055</v>
       </c>
       <c r="J177" t="n">
-        <v>276703</v>
+        <v>277534</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>21781</v>
+        <v>22360</v>
       </c>
       <c r="M177" t="n">
-        <v>10995</v>
+        <v>11068</v>
       </c>
       <c r="N177" t="n">
-        <v>20692</v>
+        <v>21301</v>
       </c>
       <c r="O177" t="n">
-        <v>12182</v>
+        <v>12272</v>
       </c>
       <c r="P177" t="n">
-        <v>-8000</v>
+        <v>-7995</v>
       </c>
       <c r="Q177" t="n">
-        <v>1329.1</v>
+        <v>1350.3</v>
       </c>
       <c r="R177" t="n">
-        <v>2645</v>
+        <v>2654</v>
       </c>
       <c r="S177" t="n">
-        <v>1924.9</v>
+        <v>1948.6</v>
       </c>
       <c r="T177" t="n">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>45</v>
       </c>
       <c r="C178" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="D178" t="n">
         <v>63416</v>
@@ -13394,7 +13394,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G178" t="n">
         <v>116</v>
@@ -13403,37 +13403,37 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>104445</v>
+        <v>105066</v>
       </c>
       <c r="J178" t="n">
-        <v>278191</v>
+        <v>279030</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-6223</v>
+        <v>-5661</v>
       </c>
       <c r="M178" t="n">
-        <v>-18903</v>
+        <v>-18823</v>
       </c>
       <c r="N178" t="n">
-        <v>21808</v>
+        <v>22401</v>
       </c>
       <c r="O178" t="n">
-        <v>12615</v>
+        <v>12711</v>
       </c>
       <c r="P178" t="n">
-        <v>-20996</v>
+        <v>-20989</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1428.7</v>
+        <v>-1417.3</v>
       </c>
       <c r="R178" t="n">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="S178" t="n">
-        <v>1952.9</v>
+        <v>1966.9</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13459,7 +13459,7 @@
         <v>22</v>
       </c>
       <c r="C179" t="n">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D179" t="n">
         <v>63423</v>
@@ -13468,7 +13468,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G179" t="n">
         <v>108</v>
@@ -13477,37 +13477,37 @@
         <v>33967</v>
       </c>
       <c r="I179" t="n">
-        <v>115778</v>
+        <v>116403</v>
       </c>
       <c r="J179" t="n">
-        <v>279529</v>
+        <v>280372</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
       </c>
       <c r="L179" t="n">
-        <v>1707</v>
+        <v>2227</v>
       </c>
       <c r="M179" t="n">
-        <v>-11724</v>
+        <v>-11639</v>
       </c>
       <c r="N179" t="n">
-        <v>22338</v>
+        <v>22886</v>
       </c>
       <c r="O179" t="n">
-        <v>12219</v>
+        <v>12318</v>
       </c>
       <c r="P179" t="n">
-        <v>11333</v>
+        <v>11337</v>
       </c>
       <c r="Q179" t="n">
-        <v>-1081.4</v>
+        <v>-1069.4</v>
       </c>
       <c r="R179" t="n">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="S179" t="n">
-        <v>1993.3</v>
+        <v>2007.6</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -13533,7 +13533,7 @@
         <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D180" t="n">
         <v>151</v>
@@ -13551,37 +13551,37 @@
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>115770</v>
+        <v>116396</v>
       </c>
       <c r="J180" t="n">
-        <v>281630</v>
+        <v>282474</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
       </c>
       <c r="L180" t="n">
-        <v>415</v>
+        <v>838</v>
       </c>
       <c r="M180" t="n">
-        <v>-13492</v>
+        <v>-13441</v>
       </c>
       <c r="N180" t="n">
-        <v>23267</v>
+        <v>23714</v>
       </c>
       <c r="O180" t="n">
-        <v>12029</v>
+        <v>12091</v>
       </c>
       <c r="P180" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="Q180" t="n">
-        <v>-1676</v>
+        <v>-1663.7</v>
       </c>
       <c r="R180" t="n">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="S180" t="n">
-        <v>2045.7</v>
+        <v>2060</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -13607,7 +13607,7 @@
         <v>85</v>
       </c>
       <c r="C181" t="n">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="D181" t="n">
         <v>63727</v>
@@ -13616,7 +13616,7 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G181" t="n">
         <v>215</v>
@@ -13625,37 +13625,37 @@
         <v>33994</v>
       </c>
       <c r="I181" t="n">
-        <v>110086</v>
+        <v>110718</v>
       </c>
       <c r="J181" t="n">
-        <v>284397</v>
+        <v>285256</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>367</v>
+        <v>688</v>
       </c>
       <c r="M181" t="n">
-        <v>-21445</v>
+        <v>-21416</v>
       </c>
       <c r="N181" t="n">
-        <v>24667</v>
+        <v>25019</v>
       </c>
       <c r="O181" t="n">
-        <v>12519</v>
+        <v>12566</v>
       </c>
       <c r="P181" t="n">
-        <v>-5684</v>
+        <v>-5678</v>
       </c>
       <c r="Q181" t="n">
-        <v>-2739.4</v>
+        <v>-2731.3</v>
       </c>
       <c r="R181" t="n">
-        <v>2767</v>
+        <v>2782</v>
       </c>
       <c r="S181" t="n">
-        <v>2113.7</v>
+        <v>2124.7</v>
       </c>
       <c r="T181" t="n">
         <v>13</v>
@@ -13681,7 +13681,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="D182" t="n">
         <v>63776</v>
@@ -13690,7 +13690,7 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G182" t="n">
         <v>207</v>
@@ -13699,37 +13699,37 @@
         <v>34013</v>
       </c>
       <c r="I182" t="n">
-        <v>123644</v>
+        <v>124279</v>
       </c>
       <c r="J182" t="n">
-        <v>287195</v>
+        <v>288061</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12605</v>
+        <v>12827</v>
       </c>
       <c r="M182" t="n">
-        <v>-9797</v>
+        <v>-9771</v>
       </c>
       <c r="N182" t="n">
-        <v>25900</v>
+        <v>26157</v>
       </c>
       <c r="O182" t="n">
-        <v>13137</v>
+        <v>13181</v>
       </c>
       <c r="P182" t="n">
-        <v>13558</v>
+        <v>13561</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1126.7</v>
+        <v>-1122.1</v>
       </c>
       <c r="R182" t="n">
-        <v>2798</v>
+        <v>2805</v>
       </c>
       <c r="S182" t="n">
-        <v>2188.1</v>
+        <v>2195.9</v>
       </c>
       <c r="T182" t="n">
         <v>19</v>
@@ -13755,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="n">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="D183" t="n">
         <v>63819</v>
@@ -13764,7 +13764,7 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G183" t="n">
         <v>217</v>
@@ -13773,37 +13773,37 @@
         <v>34030</v>
       </c>
       <c r="I183" t="n">
-        <v>113181</v>
+        <v>113818</v>
       </c>
       <c r="J183" t="n">
-        <v>292939</v>
+        <v>293813</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2956</v>
+        <v>-2785</v>
       </c>
       <c r="M183" t="n">
-        <v>-12260</v>
+        <v>-12237</v>
       </c>
       <c r="N183" t="n">
-        <v>29710</v>
+        <v>29919</v>
       </c>
       <c r="O183" t="n">
-        <v>16236</v>
+        <v>16279</v>
       </c>
       <c r="P183" t="n">
-        <v>-10463</v>
+        <v>-10461</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2894.3</v>
+        <v>-2890.3</v>
       </c>
       <c r="R183" t="n">
-        <v>5744</v>
+        <v>5752</v>
       </c>
       <c r="S183" t="n">
-        <v>2697.3</v>
+        <v>2704.7</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13829,7 +13829,7 @@
         <v>236</v>
       </c>
       <c r="C184" t="n">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="D184" t="n">
         <v>135</v>
@@ -13838,7 +13838,7 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G184" t="n">
         <v>218</v>
@@ -13847,37 +13847,37 @@
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>114828</v>
+        <v>115460</v>
       </c>
       <c r="J184" t="n">
-        <v>296508</v>
+        <v>297380</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
       </c>
       <c r="L184" t="n">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="M184" t="n">
-        <v>10383</v>
+        <v>10394</v>
       </c>
       <c r="N184" t="n">
-        <v>31987</v>
+        <v>32118</v>
       </c>
       <c r="O184" t="n">
-        <v>18317</v>
+        <v>18350</v>
       </c>
       <c r="P184" t="n">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="Q184" t="n">
-        <v>-1516.1</v>
+        <v>-1513.6</v>
       </c>
       <c r="R184" t="n">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="S184" t="n">
-        <v>2829.3</v>
+        <v>2835.1</v>
       </c>
       <c r="T184" t="n">
         <v>13</v>
@@ -13903,7 +13903,7 @@
         <v>107</v>
       </c>
       <c r="C185" t="n">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -13912,7 +13912,7 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G185" t="n">
         <v>155</v>
@@ -13921,37 +13921,37 @@
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110278</v>
+        <v>110907</v>
       </c>
       <c r="J185" t="n">
-        <v>299297</v>
+        <v>300167</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
       </c>
       <c r="L185" t="n">
-        <v>-13070</v>
+        <v>-12982</v>
       </c>
       <c r="M185" t="n">
-        <v>-5500</v>
+        <v>-5496</v>
       </c>
       <c r="N185" t="n">
-        <v>33721</v>
+        <v>33848</v>
       </c>
       <c r="O185" t="n">
-        <v>19768</v>
+        <v>19795</v>
       </c>
       <c r="P185" t="n">
-        <v>-4550</v>
+        <v>-4553</v>
       </c>
       <c r="Q185" t="n">
-        <v>833.3</v>
+        <v>834.4</v>
       </c>
       <c r="R185" t="n">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="S185" t="n">
-        <v>3015.1</v>
+        <v>3019.6</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13977,16 +13977,16 @@
         <v>30</v>
       </c>
       <c r="C186" t="n">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G186" t="n">
         <v>131</v>
@@ -13995,37 +13995,37 @@
         <v>34074</v>
       </c>
       <c r="I186" t="n">
-        <v>123805</v>
+        <v>124436</v>
       </c>
       <c r="J186" t="n">
-        <v>300862</v>
+        <v>301736</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
       </c>
       <c r="L186" t="n">
-        <v>-3697</v>
+        <v>-3606</v>
       </c>
       <c r="M186" t="n">
-        <v>8035</v>
+        <v>8040</v>
       </c>
       <c r="N186" t="n">
-        <v>33552</v>
+        <v>33682</v>
       </c>
       <c r="O186" t="n">
-        <v>19232</v>
+        <v>19262</v>
       </c>
       <c r="P186" t="n">
-        <v>13527</v>
+        <v>13529</v>
       </c>
       <c r="Q186" t="n">
-        <v>1146.7</v>
+        <v>1147.6</v>
       </c>
       <c r="R186" t="n">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="S186" t="n">
-        <v>3047.6</v>
+        <v>3052</v>
       </c>
       <c r="T186" t="n">
         <v>20</v>
@@ -14051,7 +14051,7 @@
         <v>178</v>
       </c>
       <c r="C187" t="n">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="D187" t="n">
         <v>63872</v>
@@ -14069,37 +14069,37 @@
         <v>34095</v>
       </c>
       <c r="I187" t="n">
-        <v>132248</v>
+        <v>132883</v>
       </c>
       <c r="J187" t="n">
-        <v>303790</v>
+        <v>304670</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
       </c>
       <c r="L187" t="n">
-        <v>2986</v>
+        <v>3046</v>
       </c>
       <c r="M187" t="n">
-        <v>22162</v>
+        <v>22165</v>
       </c>
       <c r="N187" t="n">
-        <v>34189</v>
+        <v>34287</v>
       </c>
       <c r="O187" t="n">
-        <v>19393</v>
+        <v>19414</v>
       </c>
       <c r="P187" t="n">
-        <v>8443</v>
+        <v>8447</v>
       </c>
       <c r="Q187" t="n">
-        <v>2354</v>
+        <v>2355.3</v>
       </c>
       <c r="R187" t="n">
-        <v>2928</v>
+        <v>2934</v>
       </c>
       <c r="S187" t="n">
-        <v>3165.7</v>
+        <v>3170.9</v>
       </c>
       <c r="T187" t="n">
         <v>21</v>
@@ -14125,7 +14125,7 @@
         <v>330</v>
       </c>
       <c r="C188" t="n">
-        <v>2490</v>
+        <v>2483</v>
       </c>
       <c r="D188" t="n">
         <v>63952</v>
@@ -14143,37 +14143,37 @@
         <v>34123</v>
       </c>
       <c r="I188" t="n">
-        <v>134169</v>
+        <v>134797</v>
       </c>
       <c r="J188" t="n">
-        <v>307783</v>
+        <v>308659</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
       </c>
       <c r="L188" t="n">
-        <v>2638</v>
+        <v>2663</v>
       </c>
       <c r="M188" t="n">
-        <v>10525</v>
+        <v>10518</v>
       </c>
       <c r="N188" t="n">
-        <v>35905</v>
+        <v>35969</v>
       </c>
       <c r="O188" t="n">
-        <v>20588</v>
+        <v>20598</v>
       </c>
       <c r="P188" t="n">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="Q188" t="n">
-        <v>3440.4</v>
+        <v>3439.9</v>
       </c>
       <c r="R188" t="n">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="S188" t="n">
-        <v>3340.9</v>
+        <v>3343.3</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14217,37 +14217,37 @@
         <v>34136</v>
       </c>
       <c r="I189" t="n">
-        <v>136172</v>
+        <v>136800</v>
       </c>
       <c r="J189" t="n">
-        <v>311646</v>
+        <v>312528</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
       </c>
       <c r="L189" t="n">
-        <v>2731</v>
+        <v>2750</v>
       </c>
       <c r="M189" t="n">
-        <v>22991</v>
+        <v>22982</v>
       </c>
       <c r="N189" t="n">
-        <v>37588</v>
+        <v>37648</v>
       </c>
       <c r="O189" t="n">
-        <v>18707</v>
+        <v>18715</v>
       </c>
       <c r="P189" t="n">
         <v>2003</v>
       </c>
       <c r="Q189" t="n">
-        <v>1789.7</v>
+        <v>1788.7</v>
       </c>
       <c r="R189" t="n">
-        <v>3863</v>
+        <v>3869</v>
       </c>
       <c r="S189" t="n">
-        <v>3493</v>
+        <v>3495.3</v>
       </c>
       <c r="T189" t="n">
         <v>13</v>
@@ -14282,7 +14282,7 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="G190" t="n">
         <v>268</v>
@@ -14291,37 +14291,37 @@
         <v>34156</v>
       </c>
       <c r="I190" t="n">
-        <v>138289</v>
+        <v>138917</v>
       </c>
       <c r="J190" t="n">
-        <v>316149</v>
+        <v>317033</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
       </c>
       <c r="L190" t="n">
-        <v>12848</v>
+        <v>12862</v>
       </c>
       <c r="M190" t="n">
-        <v>23461</v>
+        <v>23457</v>
       </c>
       <c r="N190" t="n">
-        <v>39446</v>
+        <v>39499</v>
       </c>
       <c r="O190" t="n">
-        <v>19641</v>
+        <v>19653</v>
       </c>
       <c r="P190" t="n">
         <v>2117</v>
       </c>
       <c r="Q190" t="n">
-        <v>3586.9</v>
+        <v>3585.6</v>
       </c>
       <c r="R190" t="n">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="S190" t="n">
-        <v>3315.7</v>
+        <v>3317.1</v>
       </c>
       <c r="T190" t="n">
         <v>20</v>
@@ -14347,16 +14347,16 @@
         <v>461</v>
       </c>
       <c r="C191" t="n">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D191" t="n">
-        <v>63997</v>
+        <v>63996</v>
       </c>
       <c r="E191" t="n">
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="G191" t="n">
         <v>279</v>
@@ -14365,37 +14365,37 @@
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>122874</v>
+        <v>123502</v>
       </c>
       <c r="J191" t="n">
-        <v>321424</v>
+        <v>322315</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
       </c>
       <c r="L191" t="n">
-        <v>18429</v>
+        <v>18436</v>
       </c>
       <c r="M191" t="n">
-        <v>12596</v>
+        <v>12595</v>
       </c>
       <c r="N191" t="n">
-        <v>43233</v>
+        <v>43285</v>
       </c>
       <c r="O191" t="n">
-        <v>22127</v>
+        <v>22148</v>
       </c>
       <c r="P191" t="n">
         <v>-15415</v>
       </c>
       <c r="Q191" t="n">
-        <v>1149.4</v>
+        <v>1148.9</v>
       </c>
       <c r="R191" t="n">
-        <v>5275</v>
+        <v>5282</v>
       </c>
       <c r="S191" t="n">
-        <v>3559.4</v>
+        <v>3562.1</v>
       </c>
       <c r="T191" t="n">
         <v>13</v>
@@ -14421,7 +14421,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D192" t="n">
         <v>64006</v>
@@ -14430,7 +14430,7 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G192" t="n">
         <v>191</v>
@@ -14439,37 +14439,37 @@
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>120852</v>
+        <v>121482</v>
       </c>
       <c r="J192" t="n">
-        <v>324371</v>
+        <v>325266</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
       </c>
       <c r="L192" t="n">
-        <v>5074</v>
+        <v>5079</v>
       </c>
       <c r="M192" t="n">
-        <v>-2953</v>
+        <v>-2954</v>
       </c>
       <c r="N192" t="n">
-        <v>44842</v>
+        <v>44894</v>
       </c>
       <c r="O192" t="n">
-        <v>23509</v>
+        <v>23530</v>
       </c>
       <c r="P192" t="n">
-        <v>-2022</v>
+        <v>-2020</v>
       </c>
       <c r="Q192" t="n">
-        <v>1510.6</v>
+        <v>1510.7</v>
       </c>
       <c r="R192" t="n">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="S192" t="n">
-        <v>3582</v>
+        <v>3585.6</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14495,7 +14495,7 @@
         <v>122</v>
       </c>
       <c r="C193" t="n">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="D193" t="n">
         <v>64004</v>
@@ -14504,7 +14504,7 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="G193" t="n">
         <v>221</v>
@@ -14513,37 +14513,37 @@
         <v>34221</v>
       </c>
       <c r="I193" t="n">
-        <v>139666</v>
+        <v>140303</v>
       </c>
       <c r="J193" t="n">
-        <v>326431</v>
+        <v>327334</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
       </c>
       <c r="L193" t="n">
-        <v>23896</v>
+        <v>23907</v>
       </c>
       <c r="M193" t="n">
-        <v>7418</v>
+        <v>7420</v>
       </c>
       <c r="N193" t="n">
-        <v>44801</v>
+        <v>44860</v>
       </c>
       <c r="O193" t="n">
-        <v>22641</v>
+        <v>22664</v>
       </c>
       <c r="P193" t="n">
-        <v>18814</v>
+        <v>18821</v>
       </c>
       <c r="Q193" t="n">
-        <v>2265.9</v>
+        <v>2266.7</v>
       </c>
       <c r="R193" t="n">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="S193" t="n">
-        <v>3652.7</v>
+        <v>3656.9</v>
       </c>
       <c r="T193" t="n">
         <v>42</v>
@@ -14569,7 +14569,7 @@
         <v>311</v>
       </c>
       <c r="C194" t="n">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D194" t="n">
         <v>48</v>
@@ -14578,7 +14578,7 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G194" t="n">
         <v>319</v>
@@ -14587,37 +14587,37 @@
         <v>34264</v>
       </c>
       <c r="I194" t="n">
-        <v>140176</v>
+        <v>140812</v>
       </c>
       <c r="J194" t="n">
-        <v>330494</v>
+        <v>331398</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
       </c>
       <c r="L194" t="n">
-        <v>30090</v>
+        <v>30094</v>
       </c>
       <c r="M194" t="n">
-        <v>6007</v>
+        <v>6015</v>
       </c>
       <c r="N194" t="n">
-        <v>46097</v>
+        <v>46142</v>
       </c>
       <c r="O194" t="n">
-        <v>22711</v>
+        <v>22739</v>
       </c>
       <c r="P194" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q194" t="n">
-        <v>1132.6</v>
+        <v>1132.7</v>
       </c>
       <c r="R194" t="n">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="S194" t="n">
-        <v>3814.9</v>
+        <v>3818.3</v>
       </c>
       <c r="T194" t="n">
         <v>43</v>
@@ -14643,7 +14643,7 @@
         <v>951</v>
       </c>
       <c r="C195" t="n">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="D195" t="n">
         <v>64117</v>
@@ -14652,7 +14652,7 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="G195" t="n">
         <v>342</v>
@@ -14661,37 +14661,37 @@
         <v>34296</v>
       </c>
       <c r="I195" t="n">
-        <v>146926</v>
+        <v>147565</v>
       </c>
       <c r="J195" t="n">
-        <v>336208</v>
+        <v>337119</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
       </c>
       <c r="L195" t="n">
-        <v>23282</v>
+        <v>23286</v>
       </c>
       <c r="M195" t="n">
-        <v>10754</v>
+        <v>10765</v>
       </c>
       <c r="N195" t="n">
-        <v>49013</v>
+        <v>49058</v>
       </c>
       <c r="O195" t="n">
-        <v>24562</v>
+        <v>24591</v>
       </c>
       <c r="P195" t="n">
-        <v>6750</v>
+        <v>6753</v>
       </c>
       <c r="Q195" t="n">
-        <v>1822.4</v>
+        <v>1824</v>
       </c>
       <c r="R195" t="n">
-        <v>5714</v>
+        <v>5721</v>
       </c>
       <c r="S195" t="n">
-        <v>4060.7</v>
+        <v>4065.7</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14717,16 +14717,16 @@
         <v>579</v>
       </c>
       <c r="C196" t="n">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D196" t="n">
-        <v>64155</v>
+        <v>64152</v>
       </c>
       <c r="E196" t="n">
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="G196" t="n">
         <v>352</v>
@@ -14735,37 +14735,37 @@
         <v>34327</v>
       </c>
       <c r="I196" t="n">
-        <v>149138</v>
+        <v>149773</v>
       </c>
       <c r="J196" t="n">
-        <v>341773</v>
+        <v>342685</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35957</v>
+        <v>35955</v>
       </c>
       <c r="M196" t="n">
-        <v>10849</v>
+        <v>10856</v>
       </c>
       <c r="N196" t="n">
-        <v>48834</v>
+        <v>48872</v>
       </c>
       <c r="O196" t="n">
-        <v>25624</v>
+        <v>25652</v>
       </c>
       <c r="P196" t="n">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="Q196" t="n">
-        <v>1852.3</v>
+        <v>1853.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="S196" t="n">
-        <v>4303.9</v>
+        <v>4308.1</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3235</v>
+        <v>3242</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
@@ -14800,7 +14800,7 @@
         <v>15048</v>
       </c>
       <c r="F197" t="n">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="G197" t="n">
         <v>371</v>
@@ -14809,37 +14809,37 @@
         <v>34353</v>
       </c>
       <c r="I197" t="n">
-        <v>151509</v>
+        <v>152151</v>
       </c>
       <c r="J197" t="n">
-        <v>348003</v>
+        <v>348944</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36681</v>
+        <v>36691</v>
       </c>
       <c r="M197" t="n">
-        <v>28635</v>
+        <v>28649</v>
       </c>
       <c r="N197" t="n">
-        <v>51495</v>
+        <v>51564</v>
       </c>
       <c r="O197" t="n">
-        <v>26579</v>
+        <v>26629</v>
       </c>
       <c r="P197" t="n">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="Q197" t="n">
-        <v>1888.6</v>
+        <v>1890.6</v>
       </c>
       <c r="R197" t="n">
-        <v>6230</v>
+        <v>6259</v>
       </c>
       <c r="S197" t="n">
-        <v>4550.6</v>
+        <v>4558.7</v>
       </c>
       <c r="T197" t="n">
         <v>26</v>
@@ -14865,7 +14865,7 @@
         <v>579</v>
       </c>
       <c r="C198" t="n">
-        <v>3620</v>
+        <v>3628</v>
       </c>
       <c r="D198" t="n">
         <v>64231</v>
@@ -14874,7 +14874,7 @@
         <v>3952</v>
       </c>
       <c r="F198" t="n">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="G198" t="n">
         <v>387</v>
@@ -14883,37 +14883,37 @@
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133205</v>
+        <v>133855</v>
       </c>
       <c r="J198" t="n">
-        <v>355130</v>
+        <v>356094</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22927</v>
+        <v>22948</v>
       </c>
       <c r="M198" t="n">
-        <v>12353</v>
+        <v>12373</v>
       </c>
       <c r="N198" t="n">
-        <v>55833</v>
+        <v>55927</v>
       </c>
       <c r="O198" t="n">
-        <v>30759</v>
+        <v>30828</v>
       </c>
       <c r="P198" t="n">
-        <v>-18304</v>
+        <v>-18296</v>
       </c>
       <c r="Q198" t="n">
-        <v>1475.9</v>
+        <v>1479</v>
       </c>
       <c r="R198" t="n">
-        <v>7127</v>
+        <v>7150</v>
       </c>
       <c r="S198" t="n">
-        <v>4815.1</v>
+        <v>4825.6</v>
       </c>
       <c r="T198" t="n">
         <v>25</v>
@@ -14939,7 +14939,7 @@
         <v>539</v>
       </c>
       <c r="C199" t="n">
-        <v>2054</v>
+        <v>2070</v>
       </c>
       <c r="D199" t="n">
         <v>64260</v>
@@ -14948,7 +14948,7 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="G199" t="n">
         <v>261</v>
@@ -14957,37 +14957,37 @@
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130073</v>
+        <v>130739</v>
       </c>
       <c r="J199" t="n">
-        <v>359105</v>
+        <v>360088</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6268</v>
+        <v>6303</v>
       </c>
       <c r="M199" t="n">
-        <v>-9593</v>
+        <v>-9564</v>
       </c>
       <c r="N199" t="n">
-        <v>58243</v>
+        <v>58352</v>
       </c>
       <c r="O199" t="n">
-        <v>32674</v>
+        <v>32754</v>
       </c>
       <c r="P199" t="n">
-        <v>-3132</v>
+        <v>-3116</v>
       </c>
       <c r="Q199" t="n">
-        <v>1317.3</v>
+        <v>1322.4</v>
       </c>
       <c r="R199" t="n">
-        <v>3975</v>
+        <v>3994</v>
       </c>
       <c r="S199" t="n">
-        <v>4962</v>
+        <v>4974.6</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -15013,7 +15013,7 @@
         <v>273</v>
       </c>
       <c r="C200" t="n">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="D200" t="n">
         <v>64261</v>
@@ -15022,7 +15022,7 @@
         <v>1396</v>
       </c>
       <c r="F200" t="n">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="G200" t="n">
         <v>283</v>
@@ -15031,37 +15031,37 @@
         <v>34405</v>
       </c>
       <c r="I200" t="n">
-        <v>130875</v>
+        <v>131550</v>
       </c>
       <c r="J200" t="n">
-        <v>361399</v>
+        <v>362391</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1373</v>
+        <v>-1333</v>
       </c>
       <c r="M200" t="n">
-        <v>-9301</v>
+        <v>-9262</v>
       </c>
       <c r="N200" t="n">
-        <v>57609</v>
+        <v>57721</v>
       </c>
       <c r="O200" t="n">
-        <v>30905</v>
+        <v>30993</v>
       </c>
       <c r="P200" t="n">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1255.9</v>
+        <v>-1250.4</v>
       </c>
       <c r="R200" t="n">
-        <v>2294</v>
+        <v>2303</v>
       </c>
       <c r="S200" t="n">
-        <v>4995.4</v>
+        <v>5008.1</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -15087,7 +15087,7 @@
         <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>3413</v>
+        <v>3417</v>
       </c>
       <c r="D201" t="n">
         <v>64343</v>
@@ -15096,7 +15096,7 @@
         <v>16780</v>
       </c>
       <c r="F201" t="n">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="G201" t="n">
         <v>459</v>
@@ -15105,37 +15105,37 @@
         <v>34466</v>
       </c>
       <c r="I201" t="n">
-        <v>158915</v>
+        <v>159594</v>
       </c>
       <c r="J201" t="n">
-        <v>366697</v>
+        <v>367697</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24746</v>
+        <v>24797</v>
       </c>
       <c r="M201" t="n">
-        <v>11989</v>
+        <v>12029</v>
       </c>
       <c r="N201" t="n">
-        <v>58914</v>
+        <v>59038</v>
       </c>
       <c r="O201" t="n">
-        <v>30489</v>
+        <v>30578</v>
       </c>
       <c r="P201" t="n">
-        <v>28040</v>
+        <v>28044</v>
       </c>
       <c r="Q201" t="n">
-        <v>2677</v>
+        <v>2683.1</v>
       </c>
       <c r="R201" t="n">
-        <v>5298</v>
+        <v>5306</v>
       </c>
       <c r="S201" t="n">
-        <v>5171.9</v>
+        <v>5185.6</v>
       </c>
       <c r="T201" t="n">
         <v>61</v>
@@ -15161,7 +15161,7 @@
         <v>994</v>
       </c>
       <c r="C202" t="n">
-        <v>3281</v>
+        <v>3288</v>
       </c>
       <c r="D202" t="n">
         <v>64395</v>
@@ -15179,37 +15179,37 @@
         <v>34510</v>
       </c>
       <c r="I202" t="n">
-        <v>161366</v>
+        <v>162052</v>
       </c>
       <c r="J202" t="n">
-        <v>374197</v>
+        <v>375215</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25194</v>
+        <v>25252</v>
       </c>
       <c r="M202" t="n">
-        <v>12228</v>
+        <v>12279</v>
       </c>
       <c r="N202" t="n">
-        <v>62551</v>
+        <v>62687</v>
       </c>
       <c r="O202" t="n">
-        <v>32424</v>
+        <v>32530</v>
       </c>
       <c r="P202" t="n">
-        <v>2451</v>
+        <v>2458</v>
       </c>
       <c r="Q202" t="n">
-        <v>2062.9</v>
+        <v>2069.6</v>
       </c>
       <c r="R202" t="n">
-        <v>7500</v>
+        <v>7518</v>
       </c>
       <c r="S202" t="n">
-        <v>5427</v>
+        <v>5442.3</v>
       </c>
       <c r="T202" t="n">
         <v>44</v>
@@ -15235,7 +15235,7 @@
         <v>768</v>
       </c>
       <c r="C203" t="n">
-        <v>3334</v>
+        <v>3339</v>
       </c>
       <c r="D203" t="n">
         <v>64475</v>
@@ -15244,7 +15244,7 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="G203" t="n">
         <v>477</v>
@@ -15253,37 +15253,37 @@
         <v>34550</v>
       </c>
       <c r="I203" t="n">
-        <v>164045</v>
+        <v>164736</v>
       </c>
       <c r="J203" t="n">
-        <v>381750</v>
+        <v>382785</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25756</v>
+        <v>25819</v>
       </c>
       <c r="M203" t="n">
-        <v>12536</v>
+        <v>12585</v>
       </c>
       <c r="N203" t="n">
-        <v>65601</v>
+        <v>65752</v>
       </c>
       <c r="O203" t="n">
-        <v>33747</v>
+        <v>33841</v>
       </c>
       <c r="P203" t="n">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="Q203" t="n">
-        <v>2129.6</v>
+        <v>2137.6</v>
       </c>
       <c r="R203" t="n">
-        <v>7553</v>
+        <v>7570</v>
       </c>
       <c r="S203" t="n">
-        <v>5711</v>
+        <v>5728.6</v>
       </c>
       <c r="T203" t="n">
         <v>40</v>
@@ -15309,7 +15309,7 @@
         <v>860</v>
       </c>
       <c r="C204" t="n">
-        <v>3798</v>
+        <v>3806</v>
       </c>
       <c r="D204" t="n">
         <v>64538</v>
@@ -15318,7 +15318,7 @@
         <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="G204" t="n">
         <v>501</v>
@@ -15327,37 +15327,37 @@
         <v>34572</v>
       </c>
       <c r="I204" t="n">
-        <v>142977</v>
+        <v>143676</v>
       </c>
       <c r="J204" t="n">
-        <v>389365</v>
+        <v>390419</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20103</v>
+        <v>20174</v>
       </c>
       <c r="M204" t="n">
-        <v>9772</v>
+        <v>9821</v>
       </c>
       <c r="N204" t="n">
-        <v>67941</v>
+        <v>68104</v>
       </c>
       <c r="O204" t="n">
-        <v>34235</v>
+        <v>34325</v>
       </c>
       <c r="P204" t="n">
-        <v>-21068</v>
+        <v>-21060</v>
       </c>
       <c r="Q204" t="n">
-        <v>-1218.9</v>
+        <v>-1210.7</v>
       </c>
       <c r="R204" t="n">
-        <v>7615</v>
+        <v>7634</v>
       </c>
       <c r="S204" t="n">
-        <v>5908.9</v>
+        <v>5925</v>
       </c>
       <c r="T204" t="n">
         <v>22</v>
@@ -15383,7 +15383,7 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="D205" t="n">
         <v>64579</v>
@@ -15392,7 +15392,7 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="G205" t="n">
         <v>526</v>
@@ -15401,37 +15401,37 @@
         <v>34600</v>
       </c>
       <c r="I205" t="n">
-        <v>145383</v>
+        <v>146084</v>
       </c>
       <c r="J205" t="n">
-        <v>398245</v>
+        <v>399322</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24531</v>
+        <v>24602</v>
       </c>
       <c r="M205" t="n">
-        <v>15310</v>
+        <v>15345</v>
       </c>
       <c r="N205" t="n">
-        <v>73874</v>
+        <v>74056</v>
       </c>
       <c r="O205" t="n">
-        <v>39140</v>
+        <v>39234</v>
       </c>
       <c r="P205" t="n">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="Q205" t="n">
-        <v>1739.7</v>
+        <v>1747</v>
       </c>
       <c r="R205" t="n">
-        <v>8880</v>
+        <v>8903</v>
       </c>
       <c r="S205" t="n">
-        <v>6159.3</v>
+        <v>6175.4</v>
       </c>
       <c r="T205" t="n">
         <v>28</v>
@@ -15466,7 +15466,7 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="G206" t="n">
         <v>327</v>
@@ -15475,37 +15475,37 @@
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>141315</v>
+        <v>142016</v>
       </c>
       <c r="J206" t="n">
-        <v>403239</v>
+        <v>404319</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1649</v>
+        <v>1713</v>
       </c>
       <c r="M206" t="n">
-        <v>10440</v>
+        <v>10466</v>
       </c>
       <c r="N206" t="n">
-        <v>76808</v>
+        <v>76985</v>
       </c>
       <c r="O206" t="n">
-        <v>41840</v>
+        <v>41928</v>
       </c>
       <c r="P206" t="n">
         <v>-4068</v>
       </c>
       <c r="Q206" t="n">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="R206" t="n">
-        <v>4994</v>
+        <v>4997</v>
       </c>
       <c r="S206" t="n">
-        <v>6304.9</v>
+        <v>6318.7</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -15531,7 +15531,7 @@
         <v>587</v>
       </c>
       <c r="C207" t="n">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D207" t="n">
         <v>64558</v>
@@ -15540,7 +15540,7 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4250</v>
+        <v>4247</v>
       </c>
       <c r="G207" t="n">
         <v>338</v>
@@ -15549,37 +15549,37 @@
         <v>34676</v>
       </c>
       <c r="I207" t="n">
-        <v>167096</v>
+        <v>167798</v>
       </c>
       <c r="J207" t="n">
-        <v>406173</v>
+        <v>407257</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26920</v>
+        <v>26986</v>
       </c>
       <c r="M207" t="n">
-        <v>8181</v>
+        <v>8204</v>
       </c>
       <c r="N207" t="n">
-        <v>75679</v>
+        <v>75859</v>
       </c>
       <c r="O207" t="n">
-        <v>39476</v>
+        <v>39560</v>
       </c>
       <c r="P207" t="n">
-        <v>25781</v>
+        <v>25782</v>
       </c>
       <c r="Q207" t="n">
-        <v>5174.4</v>
+        <v>5178.3</v>
       </c>
       <c r="R207" t="n">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="S207" t="n">
-        <v>6396.3</v>
+        <v>6409.4</v>
       </c>
       <c r="T207" t="n">
         <v>62</v>
@@ -15605,7 +15605,7 @@
         <v>969</v>
       </c>
       <c r="C208" t="n">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
@@ -15614,7 +15614,7 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4821</v>
+        <v>4817</v>
       </c>
       <c r="G208" t="n">
         <v>605</v>
@@ -15623,37 +15623,37 @@
         <v>34748</v>
       </c>
       <c r="I208" t="n">
-        <v>174886</v>
+        <v>175586</v>
       </c>
       <c r="J208" t="n">
-        <v>412258</v>
+        <v>413354</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>27960</v>
+        <v>28021</v>
       </c>
       <c r="M208" t="n">
-        <v>13520</v>
+        <v>13534</v>
       </c>
       <c r="N208" t="n">
-        <v>76050</v>
+        <v>76235</v>
       </c>
       <c r="O208" t="n">
-        <v>38061</v>
+        <v>38139</v>
       </c>
       <c r="P208" t="n">
-        <v>7790</v>
+        <v>7788</v>
       </c>
       <c r="Q208" t="n">
-        <v>2281.6</v>
+        <v>2284.6</v>
       </c>
       <c r="R208" t="n">
-        <v>6085</v>
+        <v>6097</v>
       </c>
       <c r="S208" t="n">
-        <v>6508.7</v>
+        <v>6522.4</v>
       </c>
       <c r="T208" t="n">
         <v>72</v>
@@ -15679,7 +15679,7 @@
         <v>2157</v>
       </c>
       <c r="C209" t="n">
-        <v>5026</v>
+        <v>5032</v>
       </c>
       <c r="D209" t="n">
         <v>64712</v>
@@ -15688,7 +15688,7 @@
         <v>16386</v>
       </c>
       <c r="F209" t="n">
-        <v>5001</v>
+        <v>4997</v>
       </c>
       <c r="G209" t="n">
         <v>631</v>
@@ -15697,37 +15697,37 @@
         <v>34789</v>
       </c>
       <c r="I209" t="n">
-        <v>178387</v>
+        <v>179093</v>
       </c>
       <c r="J209" t="n">
-        <v>422263</v>
+        <v>423394</v>
       </c>
       <c r="K209" t="n">
         <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>29249</v>
+        <v>29320</v>
       </c>
       <c r="M209" t="n">
-        <v>14342</v>
+        <v>14357</v>
       </c>
       <c r="N209" t="n">
-        <v>80490</v>
+        <v>80709</v>
       </c>
       <c r="O209" t="n">
-        <v>40513</v>
+        <v>40609</v>
       </c>
       <c r="P209" t="n">
-        <v>3501</v>
+        <v>3507</v>
       </c>
       <c r="Q209" t="n">
-        <v>2431.6</v>
+        <v>2434.4</v>
       </c>
       <c r="R209" t="n">
-        <v>10005</v>
+        <v>10040</v>
       </c>
       <c r="S209" t="n">
-        <v>6866.6</v>
+        <v>6882.7</v>
       </c>
       <c r="T209" t="n">
         <v>41</v>
@@ -15753,16 +15753,16 @@
         <v>1420</v>
       </c>
       <c r="C210" t="n">
-        <v>4681</v>
+        <v>4697</v>
       </c>
       <c r="D210" t="n">
-        <v>64782</v>
+        <v>64780</v>
       </c>
       <c r="E210" t="n">
         <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>5115</v>
+        <v>5110</v>
       </c>
       <c r="G210" t="n">
         <v>642</v>
@@ -15771,37 +15771,37 @@
         <v>34827</v>
       </c>
       <c r="I210" t="n">
-        <v>181475</v>
+        <v>182195</v>
       </c>
       <c r="J210" t="n">
-        <v>431401</v>
+        <v>432584</v>
       </c>
       <c r="K210" t="n">
         <v>83830</v>
       </c>
       <c r="L210" t="n">
-        <v>29966</v>
+        <v>30044</v>
       </c>
       <c r="M210" t="n">
-        <v>38498</v>
+        <v>38519</v>
       </c>
       <c r="N210" t="n">
-        <v>83398</v>
+        <v>83640</v>
       </c>
       <c r="O210" t="n">
-        <v>42036</v>
+        <v>42165</v>
       </c>
       <c r="P210" t="n">
-        <v>3088</v>
+        <v>3102</v>
       </c>
       <c r="Q210" t="n">
-        <v>2490</v>
+        <v>2494.1</v>
       </c>
       <c r="R210" t="n">
-        <v>9138</v>
+        <v>9190</v>
       </c>
       <c r="S210" t="n">
-        <v>7093</v>
+        <v>7114.1</v>
       </c>
       <c r="T210" t="n">
         <v>38</v>
@@ -15827,70 +15827,70 @@
         <v>1745</v>
       </c>
       <c r="C211" t="n">
-        <v>4409</v>
+        <v>4395</v>
       </c>
       <c r="D211" t="n">
-        <v>64882</v>
+        <v>64881</v>
       </c>
       <c r="E211" t="n">
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>5244</v>
+        <v>5239</v>
       </c>
       <c r="G211" t="n">
         <v>668</v>
       </c>
       <c r="H211" t="n">
-        <v>34862</v>
+        <v>34863</v>
       </c>
       <c r="I211" t="n">
-        <v>158959</v>
+        <v>159664</v>
       </c>
       <c r="J211" t="n">
-        <v>440255</v>
+        <v>441591</v>
       </c>
       <c r="K211" t="n">
         <v>71219</v>
       </c>
       <c r="L211" t="n">
-        <v>25754</v>
+        <v>25809</v>
       </c>
       <c r="M211" t="n">
-        <v>13576</v>
+        <v>13580</v>
       </c>
       <c r="N211" t="n">
-        <v>85125</v>
+        <v>85497</v>
       </c>
       <c r="O211" t="n">
-        <v>42010</v>
+        <v>42269</v>
       </c>
       <c r="P211" t="n">
-        <v>-22516</v>
+        <v>-22531</v>
       </c>
       <c r="Q211" t="n">
-        <v>2283.1</v>
+        <v>2284</v>
       </c>
       <c r="R211" t="n">
-        <v>8854</v>
+        <v>9007</v>
       </c>
       <c r="S211" t="n">
-        <v>7270</v>
+        <v>7310.3</v>
       </c>
       <c r="T211" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U211" t="n">
         <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="W211" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="X211" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212">
@@ -15901,7 +15901,7 @@
         <v>1393</v>
       </c>
       <c r="C212" t="n">
-        <v>4573</v>
+        <v>4579</v>
       </c>
       <c r="D212" t="n">
         <v>64914</v>
@@ -15910,61 +15910,61 @@
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>5358</v>
+        <v>5353</v>
       </c>
       <c r="G212" t="n">
         <v>697</v>
       </c>
       <c r="H212" t="n">
-        <v>34906</v>
+        <v>34908</v>
       </c>
       <c r="I212" t="n">
-        <v>161563</v>
+        <v>162274</v>
       </c>
       <c r="J212" t="n">
-        <v>449372</v>
+        <v>451213</v>
       </c>
       <c r="K212" t="n">
         <v>72209</v>
       </c>
       <c r="L212" t="n">
-        <v>31490</v>
+        <v>31535</v>
       </c>
       <c r="M212" t="n">
-        <v>20248</v>
+        <v>20258</v>
       </c>
       <c r="N212" t="n">
-        <v>90267</v>
+        <v>91125</v>
       </c>
       <c r="O212" t="n">
-        <v>46133</v>
+        <v>46894</v>
       </c>
       <c r="P212" t="n">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="Q212" t="n">
-        <v>2311.4</v>
+        <v>2312.9</v>
       </c>
       <c r="R212" t="n">
-        <v>9117</v>
+        <v>9622</v>
       </c>
       <c r="S212" t="n">
-        <v>7303.9</v>
+        <v>7413</v>
       </c>
       <c r="T212" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U212" t="n">
         <v>0.1</v>
       </c>
       <c r="V212" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="W212" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="X212" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213">
@@ -15975,7 +15975,7 @@
         <v>1169</v>
       </c>
       <c r="C213" t="n">
-        <v>2595</v>
+        <v>2654</v>
       </c>
       <c r="D213" t="n">
         <v>64892</v>
@@ -15984,61 +15984,61 @@
         <v>4710</v>
       </c>
       <c r="F213" t="n">
-        <v>5221</v>
+        <v>5246</v>
       </c>
       <c r="G213" t="n">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="H213" t="n">
-        <v>31819</v>
+        <v>31827</v>
       </c>
       <c r="I213" t="n">
-        <v>155233</v>
+        <v>156003</v>
       </c>
       <c r="J213" t="n">
-        <v>429711</v>
+        <v>431661</v>
       </c>
       <c r="K213" t="n">
         <v>40644</v>
       </c>
       <c r="L213" t="n">
-        <v>24358</v>
+        <v>24453</v>
       </c>
       <c r="M213" t="n">
-        <v>-11863</v>
+        <v>-11795</v>
       </c>
       <c r="N213" t="n">
-        <v>68312</v>
+        <v>69270</v>
       </c>
       <c r="O213" t="n">
-        <v>23538</v>
+        <v>24404</v>
       </c>
       <c r="P213" t="n">
-        <v>-6330</v>
+        <v>-6271</v>
       </c>
       <c r="Q213" t="n">
-        <v>1988.3</v>
+        <v>1998.1</v>
       </c>
       <c r="R213" t="n">
-        <v>-19661</v>
+        <v>-19552</v>
       </c>
       <c r="S213" t="n">
-        <v>3781.7</v>
+        <v>3906</v>
       </c>
       <c r="T213" t="n">
-        <v>-3087</v>
+        <v>-3081</v>
       </c>
       <c r="U213" t="n">
         <v>-8.8</v>
       </c>
       <c r="V213" t="n">
-        <v>-1002.7</v>
+        <v>-1000</v>
       </c>
       <c r="W213" t="n">
-        <v>-399.3</v>
+        <v>-398.1</v>
       </c>
       <c r="X213" t="n">
-        <v>-2795</v>
+        <v>-2787</v>
       </c>
     </row>
     <row r="214">
@@ -16049,7 +16049,7 @@
         <v>1300</v>
       </c>
       <c r="C214" t="n">
-        <v>1518</v>
+        <v>1632</v>
       </c>
       <c r="D214" t="n">
         <v>64890</v>
@@ -16058,46 +16058,46 @@
         <v>14817</v>
       </c>
       <c r="F214" t="n">
-        <v>5305</v>
+        <v>5330</v>
       </c>
       <c r="G214" t="n">
         <v>290</v>
       </c>
       <c r="H214" t="n">
-        <v>31846</v>
+        <v>31854</v>
       </c>
       <c r="I214" t="n">
-        <v>182927</v>
+        <v>183811</v>
       </c>
       <c r="J214" t="n">
-        <v>433442</v>
+        <v>435543</v>
       </c>
       <c r="K214" t="n">
         <v>56259</v>
       </c>
       <c r="L214" t="n">
-        <v>24012</v>
+        <v>24217</v>
       </c>
       <c r="M214" t="n">
-        <v>8041</v>
+        <v>8225</v>
       </c>
       <c r="N214" t="n">
-        <v>66745</v>
+        <v>67846</v>
       </c>
       <c r="O214" t="n">
-        <v>21184</v>
+        <v>22189</v>
       </c>
       <c r="P214" t="n">
-        <v>27694</v>
+        <v>27808</v>
       </c>
       <c r="Q214" t="n">
-        <v>2261.6</v>
+        <v>2287.6</v>
       </c>
       <c r="R214" t="n">
-        <v>3731</v>
+        <v>3882</v>
       </c>
       <c r="S214" t="n">
-        <v>3895.6</v>
+        <v>4040.9</v>
       </c>
       <c r="T214" t="n">
         <v>27</v>
@@ -16106,13 +16106,13 @@
         <v>0.1</v>
       </c>
       <c r="V214" t="n">
-        <v>-1005.3</v>
+        <v>-1003</v>
       </c>
       <c r="W214" t="n">
-        <v>-404.3</v>
+        <v>-403.1</v>
       </c>
       <c r="X214" t="n">
-        <v>-2830</v>
+        <v>-2822</v>
       </c>
     </row>
     <row r="215">
@@ -16123,55 +16123,55 @@
         <v>1463</v>
       </c>
       <c r="C215" t="n">
-        <v>4325</v>
+        <v>4967</v>
       </c>
       <c r="D215" t="n">
-        <v>65078</v>
+        <v>65084</v>
       </c>
       <c r="E215" t="n">
         <v>8497</v>
       </c>
       <c r="F215" t="n">
-        <v>5943</v>
+        <v>5968</v>
       </c>
       <c r="G215" t="n">
         <v>655</v>
       </c>
       <c r="H215" t="n">
-        <v>34272</v>
+        <v>34280</v>
       </c>
       <c r="I215" t="n">
-        <v>160825</v>
+        <v>162357</v>
       </c>
       <c r="J215" t="n">
-        <v>455179</v>
+        <v>458229</v>
       </c>
       <c r="K215" t="n">
         <v>64924</v>
       </c>
       <c r="L215" t="n">
-        <v>-541</v>
+        <v>305</v>
       </c>
       <c r="M215" t="n">
-        <v>-17562</v>
+        <v>-16736</v>
       </c>
       <c r="N215" t="n">
-        <v>80982</v>
+        <v>83014</v>
       </c>
       <c r="O215" t="n">
-        <v>32916</v>
+        <v>34835</v>
       </c>
       <c r="P215" t="n">
-        <v>-22102</v>
+        <v>-21454</v>
       </c>
       <c r="Q215" t="n">
-        <v>-2008.7</v>
+        <v>-1889.9</v>
       </c>
       <c r="R215" t="n">
-        <v>21737</v>
+        <v>22686</v>
       </c>
       <c r="S215" t="n">
-        <v>6131.6</v>
+        <v>6410.7</v>
       </c>
       <c r="T215" t="n">
         <v>2426</v>
@@ -16180,13 +16180,13 @@
         <v>7.6</v>
       </c>
       <c r="V215" t="n">
-        <v>-211.3</v>
+        <v>-209.3</v>
       </c>
       <c r="W215" t="n">
-        <v>-68</v>
+        <v>-66.9</v>
       </c>
       <c r="X215" t="n">
-        <v>-476</v>
+        <v>-468</v>
       </c>
     </row>
     <row r="216">
@@ -16194,73 +16194,147 @@
         <v>44075</v>
       </c>
       <c r="B216" t="n">
-        <v>853</v>
+        <v>1154</v>
       </c>
       <c r="C216" t="n">
-        <v>1396</v>
+        <v>2561</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>65179</v>
       </c>
       <c r="E216" t="n">
         <v>7868</v>
       </c>
       <c r="F216" t="n">
-        <v>3857</v>
+        <v>5475</v>
       </c>
       <c r="G216" t="n">
-        <v>447</v>
+        <v>608</v>
       </c>
       <c r="H216" t="n">
-        <v>16414</v>
+        <v>33131</v>
       </c>
       <c r="I216" t="n">
-        <v>33278</v>
+        <v>163346</v>
       </c>
       <c r="J216" t="n">
-        <v>248253</v>
+        <v>435592</v>
       </c>
       <c r="K216" t="n">
         <v>48582</v>
       </c>
       <c r="L216" t="n">
-        <v>-130767</v>
+        <v>-1390</v>
       </c>
       <c r="M216" t="n">
-        <v>-148197</v>
+        <v>-18849</v>
       </c>
       <c r="N216" t="n">
-        <v>-133497</v>
+        <v>52807</v>
       </c>
       <c r="O216" t="n">
-        <v>-183148</v>
+        <v>3008</v>
       </c>
       <c r="P216" t="n">
-        <v>-127547</v>
+        <v>989</v>
       </c>
       <c r="Q216" t="n">
-        <v>-20729.9</v>
+        <v>-2249.6</v>
       </c>
       <c r="R216" t="n">
-        <v>-206926</v>
+        <v>-22637</v>
       </c>
       <c r="S216" t="n">
-        <v>-24858.6</v>
+        <v>1742.6</v>
       </c>
       <c r="T216" t="n">
-        <v>-17858</v>
+        <v>-1149</v>
       </c>
       <c r="U216" t="n">
-        <v>-52.1</v>
+        <v>-3.4</v>
       </c>
       <c r="V216" t="n">
-        <v>-5135</v>
+        <v>434.7</v>
       </c>
       <c r="W216" t="n">
-        <v>-2625</v>
+        <v>-236.9</v>
       </c>
       <c r="X216" t="n">
-        <v>-18375</v>
+        <v>-1658</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>44076</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>8062</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3860</v>
+      </c>
+      <c r="G217" t="n">
+        <v>496</v>
+      </c>
+      <c r="H217" t="n">
+        <v>16438</v>
+      </c>
+      <c r="I217" t="n">
+        <v>34075</v>
+      </c>
+      <c r="J217" t="n">
+        <v>252491</v>
+      </c>
+      <c r="K217" t="n">
+        <v>24444</v>
+      </c>
+      <c r="L217" t="n">
+        <v>-109601</v>
+      </c>
+      <c r="M217" t="n">
+        <v>-125589</v>
+      </c>
+      <c r="N217" t="n">
+        <v>-137928</v>
+      </c>
+      <c r="O217" t="n">
+        <v>-189100</v>
+      </c>
+      <c r="P217" t="n">
+        <v>-129271</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>-21160</v>
+      </c>
+      <c r="R217" t="n">
+        <v>-183101</v>
+      </c>
+      <c r="S217" t="n">
+        <v>-25727.6</v>
+      </c>
+      <c r="T217" t="n">
+        <v>-16693</v>
+      </c>
+      <c r="U217" t="n">
+        <v>-50.4</v>
+      </c>
+      <c r="V217" t="n">
+        <v>-5138.7</v>
+      </c>
+      <c r="W217" t="n">
+        <v>-2627</v>
+      </c>
+      <c r="X217" t="n">
+        <v>-18389</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G37" t="n">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3330,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -3404,7 +3404,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -3416,7 +3416,7 @@
         <v>5329</v>
       </c>
       <c r="J43" t="n">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>4628</v>
       </c>
       <c r="N43" t="n">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="O43" t="n">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3440,10 +3440,10 @@
         <v>698.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="S43" t="n">
-        <v>629.3</v>
+        <v>629.4</v>
       </c>
       <c r="T43" t="n">
         <v>45</v>
@@ -3490,7 +3490,7 @@
         <v>7399</v>
       </c>
       <c r="J44" t="n">
-        <v>6232</v>
+        <v>6234</v>
       </c>
       <c r="K44" t="n">
         <v>10</v>
@@ -3502,10 +3502,10 @@
         <v>6396</v>
       </c>
       <c r="N44" t="n">
-        <v>6199</v>
+        <v>6201</v>
       </c>
       <c r="O44" t="n">
-        <v>5346</v>
+        <v>5348</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3514,10 +3514,10 @@
         <v>956.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="S44" t="n">
-        <v>801.7</v>
+        <v>802</v>
       </c>
       <c r="T44" t="n">
         <v>59</v>
@@ -3564,7 +3564,7 @@
         <v>9328</v>
       </c>
       <c r="J45" t="n">
-        <v>7615</v>
+        <v>7617</v>
       </c>
       <c r="K45" t="n">
         <v>14</v>
@@ -3576,10 +3576,10 @@
         <v>7954</v>
       </c>
       <c r="N45" t="n">
-        <v>7555</v>
+        <v>7557</v>
       </c>
       <c r="O45" t="n">
-        <v>6412</v>
+        <v>6414</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3591,7 +3591,7 @@
         <v>1383</v>
       </c>
       <c r="S45" t="n">
-        <v>961.3</v>
+        <v>961.6</v>
       </c>
       <c r="T45" t="n">
         <v>190</v>
@@ -3638,7 +3638,7 @@
         <v>11391</v>
       </c>
       <c r="J46" t="n">
-        <v>9078</v>
+        <v>9080</v>
       </c>
       <c r="K46" t="n">
         <v>13</v>
@@ -3650,10 +3650,10 @@
         <v>9359</v>
       </c>
       <c r="N46" t="n">
-        <v>8960</v>
+        <v>8962</v>
       </c>
       <c r="O46" t="n">
-        <v>7271</v>
+        <v>7273</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3665,7 +3665,7 @@
         <v>1463</v>
       </c>
       <c r="S46" t="n">
-        <v>1125</v>
+        <v>1125.3</v>
       </c>
       <c r="T46" t="n">
         <v>62</v>
@@ -3700,7 +3700,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="G47" t="n">
         <v>346</v>
@@ -3712,7 +3712,7 @@
         <v>13834</v>
       </c>
       <c r="J47" t="n">
-        <v>11244</v>
+        <v>11246</v>
       </c>
       <c r="K47" t="n">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>10852</v>
       </c>
       <c r="N47" t="n">
-        <v>11072</v>
+        <v>11074</v>
       </c>
       <c r="O47" t="n">
-        <v>8565</v>
+        <v>8567</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3739,7 +3739,7 @@
         <v>2166</v>
       </c>
       <c r="S47" t="n">
-        <v>1348.1</v>
+        <v>1348.4</v>
       </c>
       <c r="T47" t="n">
         <v>223</v>
@@ -3774,7 +3774,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="G48" t="n">
         <v>482</v>
@@ -3786,7 +3786,7 @@
         <v>17582</v>
       </c>
       <c r="J48" t="n">
-        <v>14294</v>
+        <v>14297</v>
       </c>
       <c r="K48" t="n">
         <v>34</v>
@@ -3798,10 +3798,10 @@
         <v>13542</v>
       </c>
       <c r="N48" t="n">
-        <v>14049</v>
+        <v>14052</v>
       </c>
       <c r="O48" t="n">
-        <v>10665</v>
+        <v>10668</v>
       </c>
       <c r="P48" t="n">
         <v>3748</v>
@@ -3810,10 +3810,10 @@
         <v>2085.7</v>
       </c>
       <c r="R48" t="n">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="S48" t="n">
-        <v>1659.3</v>
+        <v>1659.7</v>
       </c>
       <c r="T48" t="n">
         <v>123</v>
@@ -3848,7 +3848,7 @@
         <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>5407</v>
+        <v>5408</v>
       </c>
       <c r="G49" t="n">
         <v>681</v>
@@ -3860,7 +3860,7 @@
         <v>20760</v>
       </c>
       <c r="J49" t="n">
-        <v>17377</v>
+        <v>17381</v>
       </c>
       <c r="K49" t="n">
         <v>43</v>
@@ -3872,10 +3872,10 @@
         <v>15431</v>
       </c>
       <c r="N49" t="n">
-        <v>16991</v>
+        <v>16995</v>
       </c>
       <c r="O49" t="n">
-        <v>12586</v>
+        <v>12589</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3884,10 +3884,10 @@
         <v>2388.6</v>
       </c>
       <c r="R49" t="n">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="S49" t="n">
-        <v>1964</v>
+        <v>1964.6</v>
       </c>
       <c r="T49" t="n">
         <v>223</v>
@@ -3922,7 +3922,7 @@
         <v>3103</v>
       </c>
       <c r="F50" t="n">
-        <v>7119</v>
+        <v>7120</v>
       </c>
       <c r="G50" t="n">
         <v>830</v>
@@ -3934,7 +3934,7 @@
         <v>26437</v>
       </c>
       <c r="J50" t="n">
-        <v>21136</v>
+        <v>21139</v>
       </c>
       <c r="K50" t="n">
         <v>121</v>
@@ -3946,10 +3946,10 @@
         <v>19038</v>
       </c>
       <c r="N50" t="n">
-        <v>20516</v>
+        <v>20519</v>
       </c>
       <c r="O50" t="n">
-        <v>14904</v>
+        <v>14905</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -3958,10 +3958,10 @@
         <v>3015.4</v>
       </c>
       <c r="R50" t="n">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="S50" t="n">
-        <v>2335</v>
+        <v>2335.3</v>
       </c>
       <c r="T50" t="n">
         <v>300</v>
@@ -3996,7 +3996,7 @@
         <v>3956</v>
       </c>
       <c r="F51" t="n">
-        <v>8700</v>
+        <v>8701</v>
       </c>
       <c r="G51" t="n">
         <v>974</v>
@@ -4008,7 +4008,7 @@
         <v>32043</v>
       </c>
       <c r="J51" t="n">
-        <v>25382</v>
+        <v>25386</v>
       </c>
       <c r="K51" t="n">
         <v>84</v>
@@ -4020,10 +4020,10 @@
         <v>22715</v>
       </c>
       <c r="N51" t="n">
-        <v>24496</v>
+        <v>24500</v>
       </c>
       <c r="O51" t="n">
-        <v>17767</v>
+        <v>17769</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4032,10 +4032,10 @@
         <v>3520.6</v>
       </c>
       <c r="R51" t="n">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="S51" t="n">
-        <v>2735.7</v>
+        <v>2736</v>
       </c>
       <c r="T51" t="n">
         <v>377</v>
@@ -4070,7 +4070,7 @@
         <v>4713</v>
       </c>
       <c r="F52" t="n">
-        <v>10250</v>
+        <v>10251</v>
       </c>
       <c r="G52" t="n">
         <v>1126</v>
@@ -4082,7 +4082,7 @@
         <v>36739</v>
       </c>
       <c r="J52" t="n">
-        <v>28756</v>
+        <v>28761</v>
       </c>
       <c r="K52" t="n">
         <v>120</v>
@@ -4094,10 +4094,10 @@
         <v>25348</v>
       </c>
       <c r="N52" t="n">
-        <v>27553</v>
+        <v>27558</v>
       </c>
       <c r="O52" t="n">
-        <v>19678</v>
+        <v>19681</v>
       </c>
       <c r="P52" t="n">
         <v>4696</v>
@@ -4106,10 +4106,10 @@
         <v>3915.9</v>
       </c>
       <c r="R52" t="n">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="S52" t="n">
-        <v>3020.1</v>
+        <v>3020.6</v>
       </c>
       <c r="T52" t="n">
         <v>431</v>
@@ -4144,7 +4144,7 @@
         <v>5164</v>
       </c>
       <c r="F53" t="n">
-        <v>11852</v>
+        <v>11853</v>
       </c>
       <c r="G53" t="n">
         <v>1286</v>
@@ -4156,7 +4156,7 @@
         <v>40706</v>
       </c>
       <c r="J53" t="n">
-        <v>31712</v>
+        <v>31719</v>
       </c>
       <c r="K53" t="n">
         <v>204</v>
@@ -4168,10 +4168,10 @@
         <v>26872</v>
       </c>
       <c r="N53" t="n">
-        <v>29905</v>
+        <v>29912</v>
       </c>
       <c r="O53" t="n">
-        <v>20468</v>
+        <v>20473</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4180,10 +4180,10 @@
         <v>4187.9</v>
       </c>
       <c r="R53" t="n">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="S53" t="n">
-        <v>3233.4</v>
+        <v>3234.1</v>
       </c>
       <c r="T53" t="n">
         <v>509</v>
@@ -4218,7 +4218,7 @@
         <v>5942</v>
       </c>
       <c r="F54" t="n">
-        <v>13493</v>
+        <v>13494</v>
       </c>
       <c r="G54" t="n">
         <v>1493</v>
@@ -4230,7 +4230,7 @@
         <v>47101</v>
       </c>
       <c r="J54" t="n">
-        <v>36514</v>
+        <v>36522</v>
       </c>
       <c r="K54" t="n">
         <v>251</v>
@@ -4242,10 +4242,10 @@
         <v>29519</v>
       </c>
       <c r="N54" t="n">
-        <v>33835</v>
+        <v>33843</v>
       </c>
       <c r="O54" t="n">
-        <v>22220</v>
+        <v>22225</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4254,10 +4254,10 @@
         <v>4752.4</v>
       </c>
       <c r="R54" t="n">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="S54" t="n">
-        <v>3610</v>
+        <v>3610.9</v>
       </c>
       <c r="T54" t="n">
         <v>592</v>
@@ -4292,7 +4292,7 @@
         <v>6463</v>
       </c>
       <c r="F55" t="n">
-        <v>15577</v>
+        <v>15578</v>
       </c>
       <c r="G55" t="n">
         <v>1863</v>
@@ -4304,7 +4304,7 @@
         <v>52408</v>
       </c>
       <c r="J55" t="n">
-        <v>42047</v>
+        <v>42055</v>
       </c>
       <c r="K55" t="n">
         <v>342</v>
@@ -4316,10 +4316,10 @@
         <v>31648</v>
       </c>
       <c r="N55" t="n">
-        <v>38418</v>
+        <v>38426</v>
       </c>
       <c r="O55" t="n">
-        <v>24670</v>
+        <v>24674</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4331,7 +4331,7 @@
         <v>5533</v>
       </c>
       <c r="S55" t="n">
-        <v>3964.7</v>
+        <v>3965.4</v>
       </c>
       <c r="T55" t="n">
         <v>773</v>
@@ -4366,7 +4366,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17269</v>
+        <v>17270</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4378,7 +4378,7 @@
         <v>63100</v>
       </c>
       <c r="J56" t="n">
-        <v>47581</v>
+        <v>47588</v>
       </c>
       <c r="K56" t="n">
         <v>476</v>
@@ -4390,10 +4390,10 @@
         <v>36663</v>
       </c>
       <c r="N56" t="n">
-        <v>42790</v>
+        <v>42796</v>
       </c>
       <c r="O56" t="n">
-        <v>26445</v>
+        <v>26449</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4402,10 +4402,10 @@
         <v>6048.6</v>
       </c>
       <c r="R56" t="n">
-        <v>5534</v>
+        <v>5533</v>
       </c>
       <c r="S56" t="n">
-        <v>4314.9</v>
+        <v>4315.3</v>
       </c>
       <c r="T56" t="n">
         <v>738</v>
@@ -4452,7 +4452,7 @@
         <v>72677</v>
       </c>
       <c r="J57" t="n">
-        <v>54379</v>
+        <v>54387</v>
       </c>
       <c r="K57" t="n">
         <v>762</v>
@@ -4464,10 +4464,10 @@
         <v>40634</v>
       </c>
       <c r="N57" t="n">
-        <v>48147</v>
+        <v>48153</v>
       </c>
       <c r="O57" t="n">
-        <v>28997</v>
+        <v>29001</v>
       </c>
       <c r="P57" t="n">
         <v>9577</v>
@@ -4476,10 +4476,10 @@
         <v>6605.7</v>
       </c>
       <c r="R57" t="n">
-        <v>6798</v>
+        <v>6799</v>
       </c>
       <c r="S57" t="n">
-        <v>4749</v>
+        <v>4749.7</v>
       </c>
       <c r="T57" t="n">
         <v>863</v>
@@ -4526,7 +4526,7 @@
         <v>81189</v>
       </c>
       <c r="J58" t="n">
-        <v>59355</v>
+        <v>59364</v>
       </c>
       <c r="K58" t="n">
         <v>926</v>
@@ -4538,10 +4538,10 @@
         <v>44450</v>
       </c>
       <c r="N58" t="n">
-        <v>51740</v>
+        <v>51747</v>
       </c>
       <c r="O58" t="n">
-        <v>30599</v>
+        <v>30603</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4550,10 +4550,10 @@
         <v>7020.9</v>
       </c>
       <c r="R58" t="n">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="S58" t="n">
-        <v>4853.3</v>
+        <v>4854</v>
       </c>
       <c r="T58" t="n">
         <v>973</v>
@@ -4600,7 +4600,7 @@
         <v>89781</v>
       </c>
       <c r="J59" t="n">
-        <v>62701</v>
+        <v>62710</v>
       </c>
       <c r="K59" t="n">
         <v>1281</v>
@@ -4612,10 +4612,10 @@
         <v>49075</v>
       </c>
       <c r="N59" t="n">
-        <v>53623</v>
+        <v>53630</v>
       </c>
       <c r="O59" t="n">
-        <v>30989</v>
+        <v>30991</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4627,7 +4627,7 @@
         <v>3346</v>
       </c>
       <c r="S59" t="n">
-        <v>4849.3</v>
+        <v>4849.9</v>
       </c>
       <c r="T59" t="n">
         <v>1053</v>
@@ -4674,7 +4674,7 @@
         <v>96085</v>
       </c>
       <c r="J60" t="n">
-        <v>65374</v>
+        <v>65383</v>
       </c>
       <c r="K60" t="n">
         <v>1818</v>
@@ -4686,10 +4686,10 @@
         <v>48984</v>
       </c>
       <c r="N60" t="n">
-        <v>54130</v>
+        <v>54137</v>
       </c>
       <c r="O60" t="n">
-        <v>28860</v>
+        <v>28861</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4701,7 +4701,7 @@
         <v>2673</v>
       </c>
       <c r="S60" t="n">
-        <v>4808.9</v>
+        <v>4809.1</v>
       </c>
       <c r="T60" t="n">
         <v>974</v>
@@ -4748,7 +4748,7 @@
         <v>103277</v>
       </c>
       <c r="J61" t="n">
-        <v>70234</v>
+        <v>70242</v>
       </c>
       <c r="K61" t="n">
         <v>1828</v>
@@ -4760,7 +4760,7 @@
         <v>50869</v>
       </c>
       <c r="N61" t="n">
-        <v>55940</v>
+        <v>55945</v>
       </c>
       <c r="O61" t="n">
         <v>28187</v>
@@ -4772,7 +4772,7 @@
         <v>8025.1</v>
       </c>
       <c r="R61" t="n">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="S61" t="n">
         <v>4817.1</v>
@@ -4822,7 +4822,7 @@
         <v>108825</v>
       </c>
       <c r="J62" t="n">
-        <v>74505</v>
+        <v>74513</v>
       </c>
       <c r="K62" t="n">
         <v>2196</v>
@@ -4834,10 +4834,10 @@
         <v>45725</v>
       </c>
       <c r="N62" t="n">
-        <v>57128</v>
+        <v>57132</v>
       </c>
       <c r="O62" t="n">
-        <v>26924</v>
+        <v>26925</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4896,7 +4896,7 @@
         <v>117178</v>
       </c>
       <c r="J63" t="n">
-        <v>78337</v>
+        <v>78345</v>
       </c>
       <c r="K63" t="n">
         <v>2687</v>
@@ -4908,7 +4908,7 @@
         <v>44501</v>
       </c>
       <c r="N63" t="n">
-        <v>57201</v>
+        <v>57206</v>
       </c>
       <c r="O63" t="n">
         <v>23958</v>
@@ -4923,7 +4923,7 @@
         <v>3832</v>
       </c>
       <c r="S63" t="n">
-        <v>4393.7</v>
+        <v>4393.9</v>
       </c>
       <c r="T63" t="n">
         <v>1023</v>
@@ -4970,7 +4970,7 @@
         <v>123952</v>
       </c>
       <c r="J64" t="n">
-        <v>82159</v>
+        <v>82169</v>
       </c>
       <c r="K64" t="n">
         <v>3377</v>
@@ -4982,10 +4982,10 @@
         <v>42763</v>
       </c>
       <c r="N64" t="n">
-        <v>56777</v>
+        <v>56783</v>
       </c>
       <c r="O64" t="n">
-        <v>22804</v>
+        <v>22805</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -4994,10 +4994,10 @@
         <v>7325</v>
       </c>
       <c r="R64" t="n">
-        <v>3822</v>
+        <v>3824</v>
       </c>
       <c r="S64" t="n">
-        <v>3968.6</v>
+        <v>3968.9</v>
       </c>
       <c r="T64" t="n">
         <v>1082</v>
@@ -5044,7 +5044,7 @@
         <v>130639</v>
       </c>
       <c r="J65" t="n">
-        <v>86038</v>
+        <v>86047</v>
       </c>
       <c r="K65" t="n">
         <v>4274</v>
@@ -5056,7 +5056,7 @@
         <v>40858</v>
       </c>
       <c r="N65" t="n">
-        <v>57282</v>
+        <v>57286</v>
       </c>
       <c r="O65" t="n">
         <v>23337</v>
@@ -5068,7 +5068,7 @@
         <v>7064.3</v>
       </c>
       <c r="R65" t="n">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="S65" t="n">
         <v>3811.9</v>
@@ -5118,7 +5118,7 @@
         <v>135950</v>
       </c>
       <c r="J66" t="n">
-        <v>88468</v>
+        <v>88477</v>
       </c>
       <c r="K66" t="n">
         <v>5120</v>
@@ -5130,7 +5130,7 @@
         <v>39865</v>
       </c>
       <c r="N66" t="n">
-        <v>56756</v>
+        <v>56758</v>
       </c>
       <c r="O66" t="n">
         <v>23094</v>
@@ -5192,7 +5192,7 @@
         <v>139713</v>
       </c>
       <c r="J67" t="n">
-        <v>90125</v>
+        <v>90136</v>
       </c>
       <c r="K67" t="n">
         <v>5738</v>
@@ -5204,10 +5204,10 @@
         <v>36436</v>
       </c>
       <c r="N67" t="n">
-        <v>53611</v>
+        <v>53614</v>
       </c>
       <c r="O67" t="n">
-        <v>19891</v>
+        <v>19894</v>
       </c>
       <c r="P67" t="n">
         <v>3763</v>
@@ -5216,10 +5216,10 @@
         <v>6232.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="S67" t="n">
-        <v>3535.9</v>
+        <v>3536.1</v>
       </c>
       <c r="T67" t="n">
         <v>856</v>
@@ -5266,7 +5266,7 @@
         <v>144599</v>
       </c>
       <c r="J68" t="n">
-        <v>93345</v>
+        <v>93356</v>
       </c>
       <c r="K68" t="n">
         <v>6269</v>
@@ -5278,10 +5278,10 @@
         <v>35774</v>
       </c>
       <c r="N68" t="n">
-        <v>51298</v>
+        <v>51301</v>
       </c>
       <c r="O68" t="n">
-        <v>18840</v>
+        <v>18843</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5293,7 +5293,7 @@
         <v>3220</v>
       </c>
       <c r="S68" t="n">
-        <v>3301.6</v>
+        <v>3302</v>
       </c>
       <c r="T68" t="n">
         <v>922</v>
@@ -5328,7 +5328,7 @@
         <v>4856</v>
       </c>
       <c r="F69" t="n">
-        <v>29173</v>
+        <v>29174</v>
       </c>
       <c r="G69" t="n">
         <v>3476</v>
@@ -5340,7 +5340,7 @@
         <v>149519</v>
       </c>
       <c r="J69" t="n">
-        <v>96418</v>
+        <v>96430</v>
       </c>
       <c r="K69" t="n">
         <v>6996</v>
@@ -5352,10 +5352,10 @@
         <v>32341</v>
       </c>
       <c r="N69" t="n">
-        <v>48837</v>
+        <v>48842</v>
       </c>
       <c r="O69" t="n">
-        <v>18081</v>
+        <v>18085</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5364,10 +5364,10 @@
         <v>5813.4</v>
       </c>
       <c r="R69" t="n">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="S69" t="n">
-        <v>3130.4</v>
+        <v>3131</v>
       </c>
       <c r="T69" t="n">
         <v>896</v>
@@ -5402,7 +5402,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>28075</v>
+        <v>28076</v>
       </c>
       <c r="G70" t="n">
         <v>3344</v>
@@ -5414,7 +5414,7 @@
         <v>154916</v>
       </c>
       <c r="J70" t="n">
-        <v>99542</v>
+        <v>99555</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
@@ -5426,10 +5426,10 @@
         <v>30964</v>
       </c>
       <c r="N70" t="n">
-        <v>45163</v>
+        <v>45168</v>
       </c>
       <c r="O70" t="n">
-        <v>17383</v>
+        <v>17386</v>
       </c>
       <c r="P70" t="n">
         <v>5397</v>
@@ -5438,10 +5438,10 @@
         <v>5391.1</v>
       </c>
       <c r="R70" t="n">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="S70" t="n">
-        <v>3029.3</v>
+        <v>3030</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5488,7 +5488,7 @@
         <v>159908</v>
       </c>
       <c r="J71" t="n">
-        <v>102167</v>
+        <v>102182</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
@@ -5500,10 +5500,10 @@
         <v>29269</v>
       </c>
       <c r="N71" t="n">
-        <v>42812</v>
+        <v>42818</v>
       </c>
       <c r="O71" t="n">
-        <v>16129</v>
+        <v>16135</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
@@ -5512,10 +5512,10 @@
         <v>5136.6</v>
       </c>
       <c r="R71" t="n">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="S71" t="n">
-        <v>2858.3</v>
+        <v>2859</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5562,7 +5562,7 @@
         <v>165063</v>
       </c>
       <c r="J72" t="n">
-        <v>104457</v>
+        <v>104472</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
@@ -5574,10 +5574,10 @@
         <v>29113</v>
       </c>
       <c r="N72" t="n">
-        <v>41756</v>
+        <v>41762</v>
       </c>
       <c r="O72" t="n">
-        <v>15989</v>
+        <v>15995</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
@@ -5589,7 +5589,7 @@
         <v>2290</v>
       </c>
       <c r="S72" t="n">
-        <v>2631.3</v>
+        <v>2632.1</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5618,7 +5618,7 @@
         <v>863</v>
       </c>
       <c r="D73" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E73" t="n">
         <v>5059</v>
@@ -5633,37 +5633,37 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168832</v>
+        <v>168831</v>
       </c>
       <c r="J73" t="n">
-        <v>106232</v>
+        <v>106247</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>72747</v>
+        <v>72746</v>
       </c>
       <c r="M73" t="n">
-        <v>29119</v>
+        <v>29118</v>
       </c>
       <c r="N73" t="n">
-        <v>40858</v>
+        <v>40864</v>
       </c>
       <c r="O73" t="n">
-        <v>16107</v>
+        <v>16111</v>
       </c>
       <c r="P73" t="n">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="Q73" t="n">
-        <v>4697.4</v>
+        <v>4697.3</v>
       </c>
       <c r="R73" t="n">
         <v>1775</v>
       </c>
       <c r="S73" t="n">
-        <v>2537.7</v>
+        <v>2538.6</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5707,37 +5707,37 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171875</v>
+        <v>171874</v>
       </c>
       <c r="J74" t="n">
-        <v>107479</v>
+        <v>107495</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
       </c>
       <c r="L74" t="n">
-        <v>68598</v>
+        <v>68597</v>
       </c>
       <c r="M74" t="n">
-        <v>27276</v>
+        <v>27275</v>
       </c>
       <c r="N74" t="n">
-        <v>37245</v>
+        <v>37253</v>
       </c>
       <c r="O74" t="n">
-        <v>14134</v>
+        <v>14139</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
       </c>
       <c r="Q74" t="n">
-        <v>4594.6</v>
+        <v>4594.4</v>
       </c>
       <c r="R74" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="S74" t="n">
-        <v>2479.1</v>
+        <v>2479.9</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5781,37 +5781,37 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175376</v>
+        <v>175375</v>
       </c>
       <c r="J75" t="n">
-        <v>109407</v>
+        <v>109426</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66551</v>
+        <v>66550</v>
       </c>
       <c r="M75" t="n">
-        <v>25857</v>
+        <v>25856</v>
       </c>
       <c r="N75" t="n">
-        <v>34902</v>
+        <v>34913</v>
       </c>
       <c r="O75" t="n">
-        <v>12989</v>
+        <v>12996</v>
       </c>
       <c r="P75" t="n">
         <v>3501</v>
       </c>
       <c r="Q75" t="n">
-        <v>4396.7</v>
+        <v>4396.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="S75" t="n">
-        <v>2294.6</v>
+        <v>2295.7</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5840,7 +5840,7 @@
         <v>1103</v>
       </c>
       <c r="D76" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E76" t="n">
         <v>5139</v>
@@ -5855,37 +5855,37 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179704</v>
+        <v>179702</v>
       </c>
       <c r="J76" t="n">
-        <v>111956</v>
+        <v>111973</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
       </c>
       <c r="L76" t="n">
-        <v>62526</v>
+        <v>62524</v>
       </c>
       <c r="M76" t="n">
-        <v>24788</v>
+        <v>24786</v>
       </c>
       <c r="N76" t="n">
-        <v>33619</v>
+        <v>33628</v>
       </c>
       <c r="O76" t="n">
-        <v>12414</v>
+        <v>12418</v>
       </c>
       <c r="P76" t="n">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="Q76" t="n">
-        <v>4312.1</v>
+        <v>4311.9</v>
       </c>
       <c r="R76" t="n">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="S76" t="n">
-        <v>2219.7</v>
+        <v>2220.4</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5929,37 +5929,37 @@
         <v>23565</v>
       </c>
       <c r="I77" t="n">
-        <v>184102</v>
+        <v>184100</v>
       </c>
       <c r="J77" t="n">
-        <v>116987</v>
+        <v>117006</v>
       </c>
       <c r="K77" t="n">
         <v>14225</v>
       </c>
       <c r="L77" t="n">
-        <v>60150</v>
+        <v>60148</v>
       </c>
       <c r="M77" t="n">
-        <v>24194</v>
+        <v>24192</v>
       </c>
       <c r="N77" t="n">
-        <v>34828</v>
+        <v>34837</v>
       </c>
       <c r="O77" t="n">
-        <v>14820</v>
+        <v>14824</v>
       </c>
       <c r="P77" t="n">
         <v>4398</v>
       </c>
       <c r="Q77" t="n">
-        <v>4169.4</v>
+        <v>4169.1</v>
       </c>
       <c r="R77" t="n">
-        <v>5031</v>
+        <v>5033</v>
       </c>
       <c r="S77" t="n">
-        <v>2492.1</v>
+        <v>2493</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -6003,37 +6003,37 @@
         <v>24244</v>
       </c>
       <c r="I78" t="n">
-        <v>188811</v>
+        <v>188809</v>
       </c>
       <c r="J78" t="n">
-        <v>119346</v>
+        <v>119368</v>
       </c>
       <c r="K78" t="n">
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58172</v>
+        <v>58170</v>
       </c>
       <c r="M78" t="n">
-        <v>23748</v>
+        <v>23746</v>
       </c>
       <c r="N78" t="n">
-        <v>33308</v>
+        <v>33321</v>
       </c>
       <c r="O78" t="n">
-        <v>14889</v>
+        <v>14896</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
       </c>
       <c r="Q78" t="n">
-        <v>4129</v>
+        <v>4128.7</v>
       </c>
       <c r="R78" t="n">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="S78" t="n">
-        <v>2454.1</v>
+        <v>2455.1</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6077,37 +6077,37 @@
         <v>24855</v>
       </c>
       <c r="I79" t="n">
-        <v>193909</v>
+        <v>193907</v>
       </c>
       <c r="J79" t="n">
-        <v>121642</v>
+        <v>121666</v>
       </c>
       <c r="K79" t="n">
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57959</v>
+        <v>57957</v>
       </c>
       <c r="M79" t="n">
-        <v>25077</v>
+        <v>25076</v>
       </c>
       <c r="N79" t="n">
-        <v>33174</v>
+        <v>33189</v>
       </c>
       <c r="O79" t="n">
-        <v>15410</v>
+        <v>15419</v>
       </c>
       <c r="P79" t="n">
         <v>5098</v>
       </c>
       <c r="Q79" t="n">
-        <v>4120.9</v>
+        <v>4120.6</v>
       </c>
       <c r="R79" t="n">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="S79" t="n">
-        <v>2455</v>
+        <v>2456.3</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6151,37 +6151,37 @@
         <v>25458</v>
       </c>
       <c r="I80" t="n">
-        <v>199790</v>
+        <v>199788</v>
       </c>
       <c r="J80" t="n">
-        <v>123124</v>
+        <v>123152</v>
       </c>
       <c r="K80" t="n">
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60077</v>
+        <v>60075</v>
       </c>
       <c r="M80" t="n">
-        <v>27915</v>
+        <v>27914</v>
       </c>
       <c r="N80" t="n">
-        <v>32999</v>
+        <v>33016</v>
       </c>
       <c r="O80" t="n">
-        <v>15645</v>
+        <v>15657</v>
       </c>
       <c r="P80" t="n">
         <v>5881</v>
       </c>
       <c r="Q80" t="n">
-        <v>4422.6</v>
+        <v>4422.4</v>
       </c>
       <c r="R80" t="n">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="S80" t="n">
-        <v>2413.1</v>
+        <v>2415</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6225,37 +6225,37 @@
         <v>25986</v>
       </c>
       <c r="I81" t="n">
-        <v>202017</v>
+        <v>202015</v>
       </c>
       <c r="J81" t="n">
-        <v>123999</v>
+        <v>124027</v>
       </c>
       <c r="K81" t="n">
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57418</v>
+        <v>57416</v>
       </c>
       <c r="M81" t="n">
-        <v>26641</v>
+        <v>26640</v>
       </c>
       <c r="N81" t="n">
-        <v>30654</v>
+        <v>30671</v>
       </c>
       <c r="O81" t="n">
-        <v>14592</v>
+        <v>14601</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4306</v>
+        <v>4305.9</v>
       </c>
       <c r="R81" t="n">
         <v>875</v>
       </c>
       <c r="S81" t="n">
-        <v>2360</v>
+        <v>2361.7</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6299,37 +6299,37 @@
         <v>26480</v>
       </c>
       <c r="I82" t="n">
-        <v>204940</v>
+        <v>204938</v>
       </c>
       <c r="J82" t="n">
-        <v>125729</v>
+        <v>125758</v>
       </c>
       <c r="K82" t="n">
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55421</v>
+        <v>55419</v>
       </c>
       <c r="M82" t="n">
         <v>25236</v>
       </c>
       <c r="N82" t="n">
-        <v>29311</v>
+        <v>29328</v>
       </c>
       <c r="O82" t="n">
-        <v>13773</v>
+        <v>13785</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4223.4</v>
+        <v>4223.3</v>
       </c>
       <c r="R82" t="n">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="S82" t="n">
-        <v>2331.7</v>
+        <v>2333.1</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6373,25 +6373,25 @@
         <v>26988</v>
       </c>
       <c r="I83" t="n">
-        <v>208714</v>
+        <v>208712</v>
       </c>
       <c r="J83" t="n">
-        <v>127564</v>
+        <v>127594</v>
       </c>
       <c r="K83" t="n">
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53798</v>
+        <v>53796</v>
       </c>
       <c r="M83" t="n">
         <v>24612</v>
       </c>
       <c r="N83" t="n">
-        <v>28022</v>
+        <v>28039</v>
       </c>
       <c r="O83" t="n">
-        <v>10577</v>
+        <v>10588</v>
       </c>
       <c r="P83" t="n">
         <v>3774</v>
@@ -6400,10 +6400,10 @@
         <v>4144.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="S83" t="n">
-        <v>2229.7</v>
+        <v>2231.6</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6438,34 +6438,34 @@
         <v>9642</v>
       </c>
       <c r="F84" t="n">
-        <v>18269</v>
+        <v>17881</v>
       </c>
       <c r="G84" t="n">
-        <v>2322</v>
+        <v>2279</v>
       </c>
       <c r="H84" t="n">
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213323</v>
+        <v>213321</v>
       </c>
       <c r="J84" t="n">
-        <v>129515</v>
+        <v>129545</v>
       </c>
       <c r="K84" t="n">
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53415</v>
+        <v>53413</v>
       </c>
       <c r="M84" t="n">
         <v>24512</v>
       </c>
       <c r="N84" t="n">
-        <v>27348</v>
+        <v>27363</v>
       </c>
       <c r="O84" t="n">
-        <v>10169</v>
+        <v>10177</v>
       </c>
       <c r="P84" t="n">
         <v>4609</v>
@@ -6477,7 +6477,7 @@
         <v>1951</v>
       </c>
       <c r="S84" t="n">
-        <v>1789.7</v>
+        <v>1791.3</v>
       </c>
       <c r="T84" t="n">
         <v>486</v>
@@ -6512,34 +6512,34 @@
         <v>9325</v>
       </c>
       <c r="F85" t="n">
-        <v>17338</v>
+        <v>16861</v>
       </c>
       <c r="G85" t="n">
-        <v>2256</v>
+        <v>2224</v>
       </c>
       <c r="H85" t="n">
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217044</v>
+        <v>217042</v>
       </c>
       <c r="J85" t="n">
-        <v>130879</v>
+        <v>130911</v>
       </c>
       <c r="K85" t="n">
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51981</v>
+        <v>51979</v>
       </c>
       <c r="M85" t="n">
         <v>23135</v>
       </c>
       <c r="N85" t="n">
-        <v>26422</v>
+        <v>26439</v>
       </c>
       <c r="O85" t="n">
-        <v>9237</v>
+        <v>9245</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
@@ -6548,10 +6548,10 @@
         <v>4033.3</v>
       </c>
       <c r="R85" t="n">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="S85" t="n">
-        <v>1647.6</v>
+        <v>1649</v>
       </c>
       <c r="T85" t="n">
         <v>432</v>
@@ -6586,34 +6586,34 @@
         <v>19892</v>
       </c>
       <c r="F86" t="n">
-        <v>16552</v>
+        <v>16993</v>
       </c>
       <c r="G86" t="n">
-        <v>2168</v>
+        <v>2317</v>
       </c>
       <c r="H86" t="n">
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220707</v>
+        <v>220705</v>
       </c>
       <c r="J86" t="n">
-        <v>132372</v>
+        <v>132406</v>
       </c>
       <c r="K86" t="n">
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51875</v>
+        <v>51874</v>
       </c>
       <c r="M86" t="n">
         <v>20917</v>
       </c>
       <c r="N86" t="n">
-        <v>26140</v>
+        <v>26159</v>
       </c>
       <c r="O86" t="n">
-        <v>9248</v>
+        <v>9254</v>
       </c>
       <c r="P86" t="n">
         <v>3663</v>
@@ -6622,10 +6622,10 @@
         <v>3828.3</v>
       </c>
       <c r="R86" t="n">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="S86" t="n">
-        <v>1532.9</v>
+        <v>1534.3</v>
       </c>
       <c r="T86" t="n">
         <v>439</v>
@@ -6660,34 +6660,34 @@
         <v>20059</v>
       </c>
       <c r="F87" t="n">
-        <v>16835</v>
+        <v>16479</v>
       </c>
       <c r="G87" t="n">
-        <v>2290</v>
+        <v>2260</v>
       </c>
       <c r="H87" t="n">
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223327</v>
+        <v>223325</v>
       </c>
       <c r="J87" t="n">
-        <v>133164</v>
+        <v>133198</v>
       </c>
       <c r="K87" t="n">
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51452</v>
+        <v>51451</v>
       </c>
       <c r="M87" t="n">
         <v>21310</v>
       </c>
       <c r="N87" t="n">
-        <v>25685</v>
+        <v>25703</v>
       </c>
       <c r="O87" t="n">
-        <v>9165</v>
+        <v>9171</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
@@ -6699,7 +6699,7 @@
         <v>792</v>
       </c>
       <c r="S87" t="n">
-        <v>1434.3</v>
+        <v>1435.1</v>
       </c>
       <c r="T87" t="n">
         <v>371</v>
@@ -6734,34 +6734,34 @@
         <v>20137</v>
       </c>
       <c r="F88" t="n">
-        <v>16345</v>
+        <v>16287</v>
       </c>
       <c r="G88" t="n">
-        <v>2219</v>
+        <v>2193</v>
       </c>
       <c r="H88" t="n">
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225701</v>
+        <v>225699</v>
       </c>
       <c r="J88" t="n">
-        <v>133676</v>
+        <v>133710</v>
       </c>
       <c r="K88" t="n">
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50325</v>
+        <v>50324</v>
       </c>
       <c r="M88" t="n">
         <v>20761</v>
       </c>
       <c r="N88" t="n">
-        <v>24269</v>
+        <v>24284</v>
       </c>
       <c r="O88" t="n">
-        <v>7947</v>
+        <v>7952</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
@@ -6773,7 +6773,7 @@
         <v>512</v>
       </c>
       <c r="S88" t="n">
-        <v>1382.4</v>
+        <v>1383.3</v>
       </c>
       <c r="T88" t="n">
         <v>323</v>
@@ -6808,19 +6808,19 @@
         <v>20114</v>
       </c>
       <c r="F89" t="n">
-        <v>16233</v>
+        <v>15891</v>
       </c>
       <c r="G89" t="n">
-        <v>2241</v>
+        <v>2197</v>
       </c>
       <c r="H89" t="n">
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228398</v>
+        <v>228396</v>
       </c>
       <c r="J89" t="n">
-        <v>134762</v>
+        <v>134796</v>
       </c>
       <c r="K89" t="n">
         <v>31464</v>
@@ -6832,10 +6832,10 @@
         <v>19684</v>
       </c>
       <c r="N89" t="n">
-        <v>22806</v>
+        <v>22823</v>
       </c>
       <c r="O89" t="n">
-        <v>7198</v>
+        <v>7202</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
@@ -6847,7 +6847,7 @@
         <v>1086</v>
       </c>
       <c r="S89" t="n">
-        <v>1290.4</v>
+        <v>1291.1</v>
       </c>
       <c r="T89" t="n">
         <v>304</v>
@@ -6882,19 +6882,19 @@
         <v>19056</v>
       </c>
       <c r="F90" t="n">
-        <v>15705</v>
+        <v>15337</v>
       </c>
       <c r="G90" t="n">
-        <v>2088</v>
+        <v>2035</v>
       </c>
       <c r="H90" t="n">
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228213</v>
+        <v>228211</v>
       </c>
       <c r="J90" t="n">
-        <v>136046</v>
+        <v>136085</v>
       </c>
       <c r="K90" t="n">
         <v>33093</v>
@@ -6906,10 +6906,10 @@
         <v>14890</v>
       </c>
       <c r="N90" t="n">
-        <v>19059</v>
+        <v>19079</v>
       </c>
       <c r="O90" t="n">
-        <v>6531</v>
+        <v>6540</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
@@ -6918,10 +6918,10 @@
         <v>2785.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="S90" t="n">
-        <v>1211.7</v>
+        <v>1213</v>
       </c>
       <c r="T90" t="n">
         <v>340</v>
@@ -6956,19 +6956,19 @@
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>15127</v>
+        <v>14856</v>
       </c>
       <c r="G91" t="n">
-        <v>2024</v>
+        <v>1972</v>
       </c>
       <c r="H91" t="n">
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231101</v>
+        <v>231099</v>
       </c>
       <c r="J91" t="n">
-        <v>137018</v>
+        <v>137058</v>
       </c>
       <c r="K91" t="n">
         <v>35180</v>
@@ -6980,10 +6980,10 @@
         <v>14057</v>
       </c>
       <c r="N91" t="n">
-        <v>17672</v>
+        <v>17690</v>
       </c>
       <c r="O91" t="n">
-        <v>6139</v>
+        <v>6147</v>
       </c>
       <c r="P91" t="n">
         <v>2888</v>
@@ -6992,10 +6992,10 @@
         <v>2539.7</v>
       </c>
       <c r="R91" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S91" t="n">
-        <v>1071.9</v>
+        <v>1073.3</v>
       </c>
       <c r="T91" t="n">
         <v>313</v>
@@ -7024,52 +7024,52 @@
         <v>315</v>
       </c>
       <c r="D92" t="n">
-        <v>9053</v>
+        <v>9052</v>
       </c>
       <c r="E92" t="n">
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14499</v>
+        <v>14070</v>
       </c>
       <c r="G92" t="n">
-        <v>1914</v>
+        <v>1885</v>
       </c>
       <c r="H92" t="n">
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234324</v>
+        <v>234321</v>
       </c>
       <c r="J92" t="n">
-        <v>137897</v>
+        <v>137939</v>
       </c>
       <c r="K92" t="n">
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40415</v>
+        <v>40414</v>
       </c>
       <c r="M92" t="n">
-        <v>13617</v>
+        <v>13616</v>
       </c>
       <c r="N92" t="n">
-        <v>16255</v>
+        <v>16273</v>
       </c>
       <c r="O92" t="n">
-        <v>5525</v>
+        <v>5533</v>
       </c>
       <c r="P92" t="n">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="Q92" t="n">
-        <v>2468.6</v>
+        <v>2468.4</v>
       </c>
       <c r="R92" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="S92" t="n">
-        <v>1002.6</v>
+        <v>1004</v>
       </c>
       <c r="T92" t="n">
         <v>277</v>
@@ -7104,46 +7104,46 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>15304</v>
+        <v>14967</v>
       </c>
       <c r="G93" t="n">
-        <v>2240</v>
+        <v>2206</v>
       </c>
       <c r="H93" t="n">
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236482</v>
+        <v>236479</v>
       </c>
       <c r="J93" t="n">
-        <v>138422</v>
+        <v>138464</v>
       </c>
       <c r="K93" t="n">
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36692</v>
+        <v>36691</v>
       </c>
       <c r="M93" t="n">
-        <v>13155</v>
+        <v>13154</v>
       </c>
       <c r="N93" t="n">
-        <v>15298</v>
+        <v>15312</v>
       </c>
       <c r="O93" t="n">
-        <v>5258</v>
+        <v>5266</v>
       </c>
       <c r="P93" t="n">
         <v>2158</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.6</v>
+        <v>2253.4</v>
       </c>
       <c r="R93" t="n">
         <v>525</v>
       </c>
       <c r="S93" t="n">
-        <v>864.3</v>
+        <v>865.4</v>
       </c>
       <c r="T93" t="n">
         <v>284</v>
@@ -7178,46 +7178,46 @@
         <v>20056</v>
       </c>
       <c r="F94" t="n">
-        <v>15046</v>
+        <v>14979</v>
       </c>
       <c r="G94" t="n">
-        <v>2246</v>
+        <v>2232</v>
       </c>
       <c r="H94" t="n">
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238140</v>
+        <v>238137</v>
       </c>
       <c r="J94" t="n">
-        <v>138765</v>
+        <v>138808</v>
       </c>
       <c r="K94" t="n">
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36123</v>
+        <v>36122</v>
       </c>
       <c r="M94" t="n">
-        <v>12439</v>
+        <v>12438</v>
       </c>
       <c r="N94" t="n">
-        <v>14766</v>
+        <v>14781</v>
       </c>
       <c r="O94" t="n">
-        <v>5089</v>
+        <v>5098</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2116.1</v>
+        <v>2116</v>
       </c>
       <c r="R94" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S94" t="n">
-        <v>800.1</v>
+        <v>801.4</v>
       </c>
       <c r="T94" t="n">
         <v>229</v>
@@ -7252,46 +7252,46 @@
         <v>20206</v>
       </c>
       <c r="F95" t="n">
-        <v>14946</v>
+        <v>14938</v>
       </c>
       <c r="G95" t="n">
-        <v>2197</v>
+        <v>2177</v>
       </c>
       <c r="H95" t="n">
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239235</v>
+        <v>239232</v>
       </c>
       <c r="J95" t="n">
-        <v>139027</v>
+        <v>139071</v>
       </c>
       <c r="K95" t="n">
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34295</v>
+        <v>34294</v>
       </c>
       <c r="M95" t="n">
-        <v>10837</v>
+        <v>10836</v>
       </c>
       <c r="N95" t="n">
-        <v>13298</v>
+        <v>13313</v>
       </c>
       <c r="O95" t="n">
-        <v>4265</v>
+        <v>4275</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.4</v>
+        <v>1933.3</v>
       </c>
       <c r="R95" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S95" t="n">
-        <v>764.4</v>
+        <v>765.9</v>
       </c>
       <c r="T95" t="n">
         <v>221</v>
@@ -7326,46 +7326,46 @@
         <v>20387</v>
       </c>
       <c r="F96" t="n">
-        <v>14674</v>
+        <v>14534</v>
       </c>
       <c r="G96" t="n">
-        <v>2099</v>
+        <v>2079</v>
       </c>
       <c r="H96" t="n">
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241008</v>
+        <v>241005</v>
       </c>
       <c r="J96" t="n">
-        <v>139845</v>
+        <v>139890</v>
       </c>
       <c r="K96" t="n">
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32294</v>
+        <v>32293</v>
       </c>
       <c r="M96" t="n">
-        <v>12795</v>
+        <v>12794</v>
       </c>
       <c r="N96" t="n">
-        <v>12281</v>
+        <v>12296</v>
       </c>
       <c r="O96" t="n">
-        <v>3799</v>
+        <v>3805</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.4</v>
+        <v>1801.3</v>
       </c>
       <c r="R96" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="S96" t="n">
-        <v>726.1</v>
+        <v>727.7</v>
       </c>
       <c r="T96" t="n">
         <v>203</v>
@@ -7400,46 +7400,46 @@
         <v>16370</v>
       </c>
       <c r="F97" t="n">
-        <v>14360</v>
+        <v>14136</v>
       </c>
       <c r="G97" t="n">
-        <v>2041</v>
+        <v>1995</v>
       </c>
       <c r="H97" t="n">
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243063</v>
+        <v>243060</v>
       </c>
       <c r="J97" t="n">
-        <v>152870</v>
+        <v>152918</v>
       </c>
       <c r="K97" t="n">
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29740</v>
+        <v>29739</v>
       </c>
       <c r="M97" t="n">
-        <v>11962</v>
+        <v>11961</v>
       </c>
       <c r="N97" t="n">
-        <v>23355</v>
+        <v>23373</v>
       </c>
       <c r="O97" t="n">
-        <v>15852</v>
+        <v>15860</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.4</v>
+        <v>2121.3</v>
       </c>
       <c r="R97" t="n">
-        <v>13025</v>
+        <v>13028</v>
       </c>
       <c r="S97" t="n">
-        <v>2403.4</v>
+        <v>2404.7</v>
       </c>
       <c r="T97" t="n">
         <v>231</v>
@@ -7474,46 +7474,46 @@
         <v>16806</v>
       </c>
       <c r="F98" t="n">
-        <v>13814</v>
+        <v>13434</v>
       </c>
       <c r="G98" t="n">
-        <v>1926</v>
+        <v>1883</v>
       </c>
       <c r="H98" t="n">
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246010</v>
+        <v>246007</v>
       </c>
       <c r="J98" t="n">
-        <v>153697</v>
+        <v>153749</v>
       </c>
       <c r="K98" t="n">
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28966</v>
+        <v>28965</v>
       </c>
       <c r="M98" t="n">
         <v>11686</v>
       </c>
       <c r="N98" t="n">
-        <v>22818</v>
+        <v>22838</v>
       </c>
       <c r="O98" t="n">
-        <v>15800</v>
+        <v>15810</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
       </c>
       <c r="Q98" t="n">
-        <v>2129.9</v>
+        <v>2129.7</v>
       </c>
       <c r="R98" t="n">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="S98" t="n">
-        <v>2382.7</v>
+        <v>2384.4</v>
       </c>
       <c r="T98" t="n">
         <v>244</v>
@@ -7548,34 +7548,34 @@
         <v>17160</v>
       </c>
       <c r="F99" t="n">
-        <v>13220</v>
+        <v>12969</v>
       </c>
       <c r="G99" t="n">
-        <v>1825</v>
+        <v>1783</v>
       </c>
       <c r="H99" t="n">
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246384</v>
+        <v>246381</v>
       </c>
       <c r="J99" t="n">
-        <v>154397</v>
+        <v>154449</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25677</v>
+        <v>25676</v>
       </c>
       <c r="M99" t="n">
         <v>9902</v>
       </c>
       <c r="N99" t="n">
-        <v>22025</v>
+        <v>22043</v>
       </c>
       <c r="O99" t="n">
-        <v>15975</v>
+        <v>15985</v>
       </c>
       <c r="P99" t="n">
         <v>374</v>
@@ -7587,7 +7587,7 @@
         <v>700</v>
       </c>
       <c r="S99" t="n">
-        <v>2357.1</v>
+        <v>2358.6</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7616,52 +7616,52 @@
         <v>260</v>
       </c>
       <c r="D100" t="n">
-        <v>10814</v>
+        <v>10813</v>
       </c>
       <c r="E100" t="n">
         <v>17322</v>
       </c>
       <c r="F100" t="n">
-        <v>12571</v>
+        <v>12332</v>
       </c>
       <c r="G100" t="n">
-        <v>1782</v>
+        <v>1741</v>
       </c>
       <c r="H100" t="n">
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250920</v>
+        <v>250916</v>
       </c>
       <c r="J100" t="n">
-        <v>155076</v>
+        <v>155131</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27593</v>
+        <v>27591</v>
       </c>
       <c r="M100" t="n">
-        <v>12780</v>
+        <v>12779</v>
       </c>
       <c r="N100" t="n">
-        <v>21912</v>
+        <v>21933</v>
       </c>
       <c r="O100" t="n">
-        <v>16311</v>
+        <v>16323</v>
       </c>
       <c r="P100" t="n">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="Q100" t="n">
-        <v>2062.6</v>
+        <v>2062.4</v>
       </c>
       <c r="R100" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="S100" t="n">
-        <v>2379.1</v>
+        <v>2381</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7696,46 +7696,46 @@
         <v>17603</v>
       </c>
       <c r="F101" t="n">
-        <v>12174</v>
+        <v>11907</v>
       </c>
       <c r="G101" t="n">
-        <v>1705</v>
+        <v>1663</v>
       </c>
       <c r="H101" t="n">
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252738</v>
+        <v>252734</v>
       </c>
       <c r="J101" t="n">
-        <v>155374</v>
+        <v>155429</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27037</v>
+        <v>27035</v>
       </c>
       <c r="M101" t="n">
-        <v>13503</v>
+        <v>13502</v>
       </c>
       <c r="N101" t="n">
-        <v>21698</v>
+        <v>21719</v>
       </c>
       <c r="O101" t="n">
-        <v>16347</v>
+        <v>16358</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2085.4</v>
+        <v>2085.3</v>
       </c>
       <c r="R101" t="n">
         <v>298</v>
       </c>
       <c r="S101" t="n">
-        <v>2372.7</v>
+        <v>2374.4</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7770,46 +7770,46 @@
         <v>17854</v>
       </c>
       <c r="F102" t="n">
-        <v>11798</v>
+        <v>11785</v>
       </c>
       <c r="G102" t="n">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="H102" t="n">
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251695</v>
+        <v>251691</v>
       </c>
       <c r="J102" t="n">
-        <v>155605</v>
+        <v>155660</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23297</v>
+        <v>23295</v>
       </c>
       <c r="M102" t="n">
-        <v>10687</v>
+        <v>10686</v>
       </c>
       <c r="N102" t="n">
-        <v>20843</v>
+        <v>20864</v>
       </c>
       <c r="O102" t="n">
-        <v>15760</v>
+        <v>15770</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
       </c>
       <c r="Q102" t="n">
-        <v>1780</v>
+        <v>1779.9</v>
       </c>
       <c r="R102" t="n">
         <v>231</v>
       </c>
       <c r="S102" t="n">
-        <v>2368.3</v>
+        <v>2369.9</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,46 +7844,46 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11705</v>
+        <v>11594</v>
       </c>
       <c r="G103" t="n">
-        <v>1589</v>
+        <v>1570</v>
       </c>
       <c r="H103" t="n">
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255320</v>
+        <v>255316</v>
       </c>
       <c r="J103" t="n">
-        <v>156177</v>
+        <v>156236</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27107</v>
+        <v>27105</v>
       </c>
       <c r="M103" t="n">
-        <v>12257</v>
+        <v>12256</v>
       </c>
       <c r="N103" t="n">
-        <v>20131</v>
+        <v>20151</v>
       </c>
       <c r="O103" t="n">
-        <v>3307</v>
+        <v>3318</v>
       </c>
       <c r="P103" t="n">
         <v>3625</v>
       </c>
       <c r="Q103" t="n">
-        <v>2044.6</v>
+        <v>2044.4</v>
       </c>
       <c r="R103" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="S103" t="n">
-        <v>2333.1</v>
+        <v>2335.1</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,46 +7918,46 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11357</v>
+        <v>11181</v>
       </c>
       <c r="G104" t="n">
-        <v>1517</v>
+        <v>1482</v>
       </c>
       <c r="H104" t="n">
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>257000</v>
+        <v>256996</v>
       </c>
       <c r="J104" t="n">
-        <v>156859</v>
+        <v>156920</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25899</v>
+        <v>25897</v>
       </c>
       <c r="M104" t="n">
-        <v>10990</v>
+        <v>10989</v>
       </c>
       <c r="N104" t="n">
-        <v>19841</v>
+        <v>19862</v>
       </c>
       <c r="O104" t="n">
-        <v>3162</v>
+        <v>3171</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
       </c>
       <c r="Q104" t="n">
-        <v>1991</v>
+        <v>1990.9</v>
       </c>
       <c r="R104" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="S104" t="n">
-        <v>569.9</v>
+        <v>571.7</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,46 +7992,46 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10952</v>
+        <v>10765</v>
       </c>
       <c r="G105" t="n">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="H105" t="n">
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258599</v>
+        <v>258595</v>
       </c>
       <c r="J105" t="n">
-        <v>157569</v>
+        <v>157634</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24275</v>
+        <v>24274</v>
       </c>
       <c r="M105" t="n">
-        <v>12215</v>
+        <v>12214</v>
       </c>
       <c r="N105" t="n">
-        <v>19672</v>
+        <v>19695</v>
       </c>
       <c r="O105" t="n">
-        <v>3172</v>
+        <v>3185</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
       </c>
       <c r="Q105" t="n">
-        <v>1798.4</v>
+        <v>1798.3</v>
       </c>
       <c r="R105" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="S105" t="n">
-        <v>553.1</v>
+        <v>555</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,46 +8066,46 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10530</v>
+        <v>10313</v>
       </c>
       <c r="G106" t="n">
-        <v>1397</v>
+        <v>1344</v>
       </c>
       <c r="H106" t="n">
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203383</v>
+        <v>203379</v>
       </c>
       <c r="J106" t="n">
-        <v>185513</v>
+        <v>185581</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33099</v>
+        <v>-33100</v>
       </c>
       <c r="M106" t="n">
         <v>-47537</v>
       </c>
       <c r="N106" t="n">
-        <v>47091</v>
+        <v>47117</v>
       </c>
       <c r="O106" t="n">
-        <v>30437</v>
+        <v>30450</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
       </c>
       <c r="Q106" t="n">
-        <v>-6143</v>
+        <v>-6143.1</v>
       </c>
       <c r="R106" t="n">
-        <v>27944</v>
+        <v>27947</v>
       </c>
       <c r="S106" t="n">
-        <v>4445.1</v>
+        <v>4447.4</v>
       </c>
       <c r="T106" t="n">
         <v>118</v>
@@ -8140,34 +8140,34 @@
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>10105</v>
+        <v>9961</v>
       </c>
       <c r="G107" t="n">
-        <v>1410</v>
+        <v>1393</v>
       </c>
       <c r="H107" t="n">
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204679</v>
+        <v>204675</v>
       </c>
       <c r="J107" t="n">
-        <v>198942</v>
+        <v>199013</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33461</v>
+        <v>-33462</v>
       </c>
       <c r="M107" t="n">
         <v>-48059</v>
       </c>
       <c r="N107" t="n">
-        <v>60177</v>
+        <v>60205</v>
       </c>
       <c r="O107" t="n">
-        <v>43568</v>
+        <v>43584</v>
       </c>
       <c r="P107" t="n">
         <v>1296</v>
@@ -8176,10 +8176,10 @@
         <v>-6605.9</v>
       </c>
       <c r="R107" t="n">
-        <v>13429</v>
+        <v>13432</v>
       </c>
       <c r="S107" t="n">
-        <v>6266.6</v>
+        <v>6268.9</v>
       </c>
       <c r="T107" t="n">
         <v>113</v>
@@ -8214,34 +8214,34 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9818</v>
+        <v>9735</v>
       </c>
       <c r="G108" t="n">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="H108" t="n">
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205292</v>
+        <v>205288</v>
       </c>
       <c r="J108" t="n">
-        <v>199262</v>
+        <v>199333</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33943</v>
+        <v>-33944</v>
       </c>
       <c r="M108" t="n">
         <v>-46403</v>
       </c>
       <c r="N108" t="n">
-        <v>60235</v>
+        <v>60262</v>
       </c>
       <c r="O108" t="n">
-        <v>43657</v>
+        <v>43673</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
@@ -8253,7 +8253,7 @@
         <v>320</v>
       </c>
       <c r="S108" t="n">
-        <v>6269.7</v>
+        <v>6272</v>
       </c>
       <c r="T108" t="n">
         <v>90</v>
@@ -8288,34 +8288,34 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9687</v>
+        <v>9679</v>
       </c>
       <c r="G109" t="n">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="H109" t="n">
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205640</v>
+        <v>205636</v>
       </c>
       <c r="J109" t="n">
-        <v>199514</v>
+        <v>199586</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35368</v>
+        <v>-35369</v>
       </c>
       <c r="M109" t="n">
         <v>-49680</v>
       </c>
       <c r="N109" t="n">
-        <v>59669</v>
+        <v>59696</v>
       </c>
       <c r="O109" t="n">
-        <v>43337</v>
+        <v>43350</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
@@ -8324,10 +8324,10 @@
         <v>-6579.3</v>
       </c>
       <c r="R109" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S109" t="n">
-        <v>6272.7</v>
+        <v>6275.1</v>
       </c>
       <c r="T109" t="n">
         <v>71</v>
@@ -8362,34 +8362,34 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9602</v>
+        <v>9524</v>
       </c>
       <c r="G110" t="n">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="H110" t="n">
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179123</v>
+        <v>179119</v>
       </c>
       <c r="J110" t="n">
-        <v>224844</v>
+        <v>224917</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63940</v>
+        <v>-63941</v>
       </c>
       <c r="M110" t="n">
         <v>-77877</v>
       </c>
       <c r="N110" t="n">
-        <v>71974</v>
+        <v>71999</v>
       </c>
       <c r="O110" t="n">
-        <v>67985</v>
+        <v>67997</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
@@ -8398,10 +8398,10 @@
         <v>-10885.3</v>
       </c>
       <c r="R110" t="n">
-        <v>25330</v>
+        <v>25331</v>
       </c>
       <c r="S110" t="n">
-        <v>9809.6</v>
+        <v>9811.6</v>
       </c>
       <c r="T110" t="n">
         <v>72</v>
@@ -8436,34 +8436,34 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9311</v>
+        <v>9154</v>
       </c>
       <c r="G111" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="H111" t="n">
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175027</v>
+        <v>175023</v>
       </c>
       <c r="J111" t="n">
-        <v>231112</v>
+        <v>231187</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70983</v>
+        <v>-70984</v>
       </c>
       <c r="M111" t="n">
         <v>-83572</v>
       </c>
       <c r="N111" t="n">
-        <v>77415</v>
+        <v>77438</v>
       </c>
       <c r="O111" t="n">
-        <v>73543</v>
+        <v>73553</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
@@ -8472,10 +8472,10 @@
         <v>-11710.4</v>
       </c>
       <c r="R111" t="n">
-        <v>6268</v>
+        <v>6270</v>
       </c>
       <c r="S111" t="n">
-        <v>10607.6</v>
+        <v>10609.6</v>
       </c>
       <c r="T111" t="n">
         <v>79</v>
@@ -8510,34 +8510,34 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8999</v>
+        <v>8842</v>
       </c>
       <c r="G112" t="n">
-        <v>1182</v>
+        <v>1159</v>
       </c>
       <c r="H112" t="n">
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175589</v>
+        <v>175585</v>
       </c>
       <c r="J112" t="n">
-        <v>231898</v>
+        <v>231976</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70795</v>
+        <v>-70796</v>
       </c>
       <c r="M112" t="n">
         <v>-27794</v>
       </c>
       <c r="N112" t="n">
-        <v>77501</v>
+        <v>77527</v>
       </c>
       <c r="O112" t="n">
-        <v>46385</v>
+        <v>46395</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
@@ -8546,10 +8546,10 @@
         <v>-11858.6</v>
       </c>
       <c r="R112" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="S112" t="n">
-        <v>10618.4</v>
+        <v>10620.3</v>
       </c>
       <c r="T112" t="n">
         <v>-1363</v>
@@ -8575,7 +8575,7 @@
         <v>62</v>
       </c>
       <c r="C113" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D113" t="n">
         <v>41</v>
@@ -8584,46 +8584,46 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8655</v>
+        <v>8524</v>
       </c>
       <c r="G113" t="n">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="H113" t="n">
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83761</v>
+        <v>83756</v>
       </c>
       <c r="J113" t="n">
-        <v>232770</v>
+        <v>232850</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167159</v>
+        <v>-167160</v>
       </c>
       <c r="M113" t="n">
-        <v>-120918</v>
+        <v>-120919</v>
       </c>
       <c r="N113" t="n">
-        <v>77694</v>
+        <v>77719</v>
       </c>
       <c r="O113" t="n">
-        <v>33828</v>
+        <v>33837</v>
       </c>
       <c r="P113" t="n">
-        <v>-91828</v>
+        <v>-91829</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17088.9</v>
+        <v>-17089</v>
       </c>
       <c r="R113" t="n">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="S113" t="n">
-        <v>6751</v>
+        <v>6752.7</v>
       </c>
       <c r="T113" t="n">
         <v>62</v>
@@ -8649,7 +8649,7 @@
         <v>69</v>
       </c>
       <c r="C114" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D114" t="n">
         <v>35</v>
@@ -8658,19 +8658,19 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8345</v>
+        <v>8214</v>
       </c>
       <c r="G114" t="n">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H114" t="n">
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84248</v>
+        <v>84244</v>
       </c>
       <c r="J114" t="n">
-        <v>233641</v>
+        <v>233727</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
@@ -8682,22 +8682,22 @@
         <v>-121044</v>
       </c>
       <c r="N114" t="n">
-        <v>78267</v>
+        <v>78298</v>
       </c>
       <c r="O114" t="n">
-        <v>34379</v>
+        <v>34394</v>
       </c>
       <c r="P114" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q114" t="n">
         <v>-17204.4</v>
       </c>
       <c r="R114" t="n">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="S114" t="n">
-        <v>4957</v>
+        <v>4959.1</v>
       </c>
       <c r="T114" t="n">
         <v>70</v>
@@ -8732,19 +8732,19 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8107</v>
+        <v>8010</v>
       </c>
       <c r="G115" t="n">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="H115" t="n">
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84462</v>
+        <v>84458</v>
       </c>
       <c r="J115" t="n">
-        <v>233977</v>
+        <v>234063</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
@@ -8756,10 +8756,10 @@
         <v>-121178</v>
       </c>
       <c r="N115" t="n">
-        <v>78372</v>
+        <v>78403</v>
       </c>
       <c r="O115" t="n">
-        <v>34463</v>
+        <v>34477</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8771,7 +8771,7 @@
         <v>336</v>
       </c>
       <c r="S115" t="n">
-        <v>4959.3</v>
+        <v>4961.4</v>
       </c>
       <c r="T115" t="n">
         <v>77</v>
@@ -8806,19 +8806,19 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7999</v>
+        <v>7971</v>
       </c>
       <c r="G116" t="n">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H116" t="n">
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84622</v>
+        <v>84618</v>
       </c>
       <c r="J116" t="n">
-        <v>234268</v>
+        <v>234356</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
@@ -8830,10 +8830,10 @@
         <v>-94501</v>
       </c>
       <c r="N116" t="n">
-        <v>78091</v>
+        <v>78120</v>
       </c>
       <c r="O116" t="n">
-        <v>9424</v>
+        <v>9439</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
@@ -8842,10 +8842,10 @@
         <v>-17288.3</v>
       </c>
       <c r="R116" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S116" t="n">
-        <v>4964.9</v>
+        <v>4967.1</v>
       </c>
       <c r="T116" t="n">
         <v>51</v>
@@ -8880,19 +8880,19 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7935</v>
+        <v>7885</v>
       </c>
       <c r="G117" t="n">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H117" t="n">
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84963</v>
+        <v>84959</v>
       </c>
       <c r="J117" t="n">
-        <v>234810</v>
+        <v>234900</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
@@ -8904,10 +8904,10 @@
         <v>-90064</v>
       </c>
       <c r="N117" t="n">
-        <v>77951</v>
+        <v>77980</v>
       </c>
       <c r="O117" t="n">
-        <v>3698</v>
+        <v>3713</v>
       </c>
       <c r="P117" t="n">
         <v>341</v>
@@ -8916,10 +8916,10 @@
         <v>-13451.4</v>
       </c>
       <c r="R117" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="S117" t="n">
-        <v>1423.7</v>
+        <v>1426.1</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8954,19 +8954,19 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7791</v>
+        <v>7711</v>
       </c>
       <c r="G118" t="n">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="H118" t="n">
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85342</v>
+        <v>85338</v>
       </c>
       <c r="J118" t="n">
-        <v>235514</v>
+        <v>235610</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
@@ -8978,10 +8978,10 @@
         <v>-90247</v>
       </c>
       <c r="N118" t="n">
-        <v>77945</v>
+        <v>77976</v>
       </c>
       <c r="O118" t="n">
-        <v>3616</v>
+        <v>3634</v>
       </c>
       <c r="P118" t="n">
         <v>379</v>
@@ -8990,10 +8990,10 @@
         <v>-12812.1</v>
       </c>
       <c r="R118" t="n">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="S118" t="n">
-        <v>628.9</v>
+        <v>631.9</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9028,19 +9028,19 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3302</v>
+        <v>3216</v>
       </c>
       <c r="G119" t="n">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="H119" t="n">
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85738</v>
+        <v>85734</v>
       </c>
       <c r="J119" t="n">
-        <v>236296</v>
+        <v>236395</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
@@ -9049,13 +9049,13 @@
         <v>-117645</v>
       </c>
       <c r="M119" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="N119" t="n">
-        <v>50783</v>
+        <v>50814</v>
       </c>
       <c r="O119" t="n">
-        <v>3526</v>
+        <v>3545</v>
       </c>
       <c r="P119" t="n">
         <v>396</v>
@@ -9064,10 +9064,10 @@
         <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="S119" t="n">
-        <v>628.3</v>
+        <v>631.3</v>
       </c>
       <c r="T119" t="n">
         <v>60</v>
@@ -9102,19 +9102,19 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3103</v>
+        <v>3012</v>
       </c>
       <c r="G120" t="n">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="H120" t="n">
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83954</v>
+        <v>83950</v>
       </c>
       <c r="J120" t="n">
-        <v>236989</v>
+        <v>237089</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
@@ -9126,22 +9126,22 @@
         <v>-294</v>
       </c>
       <c r="N120" t="n">
-        <v>38047</v>
+        <v>38076</v>
       </c>
       <c r="O120" t="n">
-        <v>3348</v>
+        <v>3362</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
       </c>
       <c r="Q120" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="R120" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="S120" t="n">
-        <v>602.7</v>
+        <v>605.6</v>
       </c>
       <c r="T120" t="n">
         <v>42</v>
@@ -9176,19 +9176,19 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2922</v>
+        <v>2830</v>
       </c>
       <c r="G121" t="n">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H121" t="n">
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86337</v>
+        <v>86333</v>
       </c>
       <c r="J121" t="n">
-        <v>237714</v>
+        <v>237822</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
@@ -9200,10 +9200,10 @@
         <v>1875</v>
       </c>
       <c r="N121" t="n">
-        <v>38452</v>
+        <v>38489</v>
       </c>
       <c r="O121" t="n">
-        <v>3737</v>
+        <v>3759</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9212,10 +9212,10 @@
         <v>298.4</v>
       </c>
       <c r="R121" t="n">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="S121" t="n">
-        <v>581.9</v>
+        <v>585</v>
       </c>
       <c r="T121" t="n">
         <v>214</v>
@@ -9250,19 +9250,19 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2779</v>
+        <v>2732</v>
       </c>
       <c r="G122" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H122" t="n">
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86478</v>
+        <v>86474</v>
       </c>
       <c r="J122" t="n">
-        <v>238076</v>
+        <v>238184</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
@@ -9274,10 +9274,10 @@
         <v>1856</v>
       </c>
       <c r="N122" t="n">
-        <v>38562</v>
+        <v>38598</v>
       </c>
       <c r="O122" t="n">
-        <v>3808</v>
+        <v>3828</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9289,7 +9289,7 @@
         <v>362</v>
       </c>
       <c r="S122" t="n">
-        <v>585.6</v>
+        <v>588.7</v>
       </c>
       <c r="T122" t="n">
         <v>41</v>
@@ -9324,19 +9324,19 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2721</v>
+        <v>2730</v>
       </c>
       <c r="G123" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H123" t="n">
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86525</v>
+        <v>86521</v>
       </c>
       <c r="J123" t="n">
-        <v>238352</v>
+        <v>238460</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
@@ -9348,10 +9348,10 @@
         <v>1562</v>
       </c>
       <c r="N123" t="n">
-        <v>13508</v>
+        <v>13543</v>
       </c>
       <c r="O123" t="n">
-        <v>3542</v>
+        <v>3560</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9363,7 +9363,7 @@
         <v>276</v>
       </c>
       <c r="S123" t="n">
-        <v>583.4</v>
+        <v>586.3</v>
       </c>
       <c r="T123" t="n">
         <v>34</v>
@@ -9398,19 +9398,19 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2752</v>
+        <v>2649</v>
       </c>
       <c r="G124" t="n">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H124" t="n">
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86602</v>
+        <v>86598</v>
       </c>
       <c r="J124" t="n">
-        <v>238728</v>
+        <v>238840</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
@@ -9422,10 +9422,10 @@
         <v>1260</v>
       </c>
       <c r="N124" t="n">
-        <v>7616</v>
+        <v>7653</v>
       </c>
       <c r="O124" t="n">
-        <v>3214</v>
+        <v>3230</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
@@ -9434,10 +9434,10 @@
         <v>234.1</v>
       </c>
       <c r="R124" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="S124" t="n">
-        <v>559.7</v>
+        <v>562.9</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,19 +9472,19 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2583</v>
+        <v>2487</v>
       </c>
       <c r="G125" t="n">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H125" t="n">
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84778</v>
+        <v>84774</v>
       </c>
       <c r="J125" t="n">
-        <v>239335</v>
+        <v>239454</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
@@ -9496,10 +9496,10 @@
         <v>-960</v>
       </c>
       <c r="N125" t="n">
-        <v>7437</v>
+        <v>7478</v>
       </c>
       <c r="O125" t="n">
-        <v>3039</v>
+        <v>3059</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
@@ -9508,10 +9508,10 @@
         <v>-80.6</v>
       </c>
       <c r="R125" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="S125" t="n">
-        <v>545.9</v>
+        <v>549.1</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,34 +9546,34 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2388</v>
+        <v>2240</v>
       </c>
       <c r="G126" t="n">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H126" t="n">
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87107</v>
+        <v>87103</v>
       </c>
       <c r="J126" t="n">
-        <v>239979</v>
+        <v>240103</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="M126" t="n">
         <v>3153</v>
       </c>
       <c r="N126" t="n">
-        <v>7209</v>
+        <v>7253</v>
       </c>
       <c r="O126" t="n">
-        <v>2990</v>
+        <v>3014</v>
       </c>
       <c r="P126" t="n">
         <v>2329</v>
@@ -9582,10 +9582,10 @@
         <v>195.6</v>
       </c>
       <c r="R126" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="S126" t="n">
-        <v>526.1</v>
+        <v>529.7</v>
       </c>
       <c r="T126" t="n">
         <v>70</v>
@@ -9620,19 +9620,19 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2157</v>
+        <v>2105</v>
       </c>
       <c r="G127" t="n">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="H127" t="n">
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94580</v>
+        <v>94576</v>
       </c>
       <c r="J127" t="n">
-        <v>240546</v>
+        <v>240676</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
@@ -9644,10 +9644,10 @@
         <v>8243</v>
       </c>
       <c r="N127" t="n">
-        <v>6905</v>
+        <v>6949</v>
       </c>
       <c r="O127" t="n">
-        <v>2832</v>
+        <v>2854</v>
       </c>
       <c r="P127" t="n">
         <v>7473</v>
@@ -9656,10 +9656,10 @@
         <v>1518</v>
       </c>
       <c r="R127" t="n">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="S127" t="n">
-        <v>508.1</v>
+        <v>512.4</v>
       </c>
       <c r="T127" t="n">
         <v>365</v>
@@ -9694,19 +9694,19 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1986</v>
+        <v>1934</v>
       </c>
       <c r="G128" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H128" t="n">
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97092</v>
+        <v>97088</v>
       </c>
       <c r="J128" t="n">
-        <v>243262</v>
+        <v>243398</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
@@ -9718,10 +9718,10 @@
         <v>10614</v>
       </c>
       <c r="N128" t="n">
-        <v>9285</v>
+        <v>9335</v>
       </c>
       <c r="O128" t="n">
-        <v>5186</v>
+        <v>5214</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
@@ -9730,10 +9730,10 @@
         <v>1536.4</v>
       </c>
       <c r="R128" t="n">
-        <v>2716</v>
+        <v>2722</v>
       </c>
       <c r="S128" t="n">
-        <v>792.6</v>
+        <v>796.6</v>
       </c>
       <c r="T128" t="n">
         <v>24</v>
@@ -9768,19 +9768,19 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="G129" t="n">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H129" t="n">
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97084</v>
+        <v>97080</v>
       </c>
       <c r="J129" t="n">
-        <v>243613</v>
+        <v>243752</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
@@ -9792,10 +9792,10 @@
         <v>10559</v>
       </c>
       <c r="N129" t="n">
-        <v>9345</v>
+        <v>9396</v>
       </c>
       <c r="O129" t="n">
-        <v>5261</v>
+        <v>5292</v>
       </c>
       <c r="P129" t="n">
         <v>-8</v>
@@ -9804,10 +9804,10 @@
         <v>1515.1</v>
       </c>
       <c r="R129" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="S129" t="n">
-        <v>791</v>
+        <v>795.4</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9842,19 +9842,19 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="G130" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H130" t="n">
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97241</v>
+        <v>97237</v>
       </c>
       <c r="J130" t="n">
-        <v>244210</v>
+        <v>244349</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
@@ -9866,10 +9866,10 @@
         <v>10639</v>
       </c>
       <c r="N130" t="n">
-        <v>9400</v>
+        <v>9449</v>
       </c>
       <c r="O130" t="n">
-        <v>5482</v>
+        <v>5509</v>
       </c>
       <c r="P130" t="n">
         <v>157</v>
@@ -9881,7 +9881,7 @@
         <v>597</v>
       </c>
       <c r="S130" t="n">
-        <v>836.9</v>
+        <v>841.3</v>
       </c>
       <c r="T130" t="n">
         <v>26</v>
@@ -9916,19 +9916,19 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="G131" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H131" t="n">
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97386</v>
+        <v>97382</v>
       </c>
       <c r="J131" t="n">
-        <v>244540</v>
+        <v>244679</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
@@ -9940,10 +9940,10 @@
         <v>12608</v>
       </c>
       <c r="N131" t="n">
-        <v>9026</v>
+        <v>9069</v>
       </c>
       <c r="O131" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="P131" t="n">
         <v>145</v>
@@ -9955,7 +9955,7 @@
         <v>330</v>
       </c>
       <c r="S131" t="n">
-        <v>830.3</v>
+        <v>834.1</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,19 +9990,19 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1798</v>
+        <v>1773</v>
       </c>
       <c r="G132" t="n">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="H132" t="n">
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97559</v>
+        <v>97555</v>
       </c>
       <c r="J132" t="n">
-        <v>244975</v>
+        <v>245119</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
@@ -10014,10 +10014,10 @@
         <v>10452</v>
       </c>
       <c r="N132" t="n">
-        <v>8679</v>
+        <v>8724</v>
       </c>
       <c r="O132" t="n">
-        <v>4996</v>
+        <v>5016</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
@@ -10026,10 +10026,10 @@
         <v>1825.9</v>
       </c>
       <c r="R132" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="S132" t="n">
-        <v>805.7</v>
+        <v>809.3</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,19 +10064,19 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1724</v>
+        <v>1673</v>
       </c>
       <c r="G133" t="n">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H133" t="n">
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97767</v>
+        <v>97763</v>
       </c>
       <c r="J133" t="n">
-        <v>245430</v>
+        <v>245578</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
@@ -10088,10 +10088,10 @@
         <v>3187</v>
       </c>
       <c r="N133" t="n">
-        <v>8441</v>
+        <v>8489</v>
       </c>
       <c r="O133" t="n">
-        <v>4884</v>
+        <v>4902</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
@@ -10100,10 +10100,10 @@
         <v>1522.9</v>
       </c>
       <c r="R133" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="S133" t="n">
-        <v>778.7</v>
+        <v>782.1</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,19 +10138,19 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="G134" t="n">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H134" t="n">
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97920</v>
+        <v>97916</v>
       </c>
       <c r="J134" t="n">
-        <v>245874</v>
+        <v>246024</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
@@ -10162,10 +10162,10 @@
         <v>828</v>
       </c>
       <c r="N134" t="n">
-        <v>8160</v>
+        <v>8202</v>
       </c>
       <c r="O134" t="n">
-        <v>2612</v>
+        <v>2626</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
@@ -10174,10 +10174,10 @@
         <v>477.1</v>
       </c>
       <c r="R134" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="S134" t="n">
-        <v>761.1</v>
+        <v>764</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,19 +10212,19 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1467</v>
+        <v>1428</v>
       </c>
       <c r="G135" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H135" t="n">
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98128</v>
+        <v>98124</v>
       </c>
       <c r="J135" t="n">
-        <v>246373</v>
+        <v>246526</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
@@ -10236,10 +10236,10 @@
         <v>1044</v>
       </c>
       <c r="N135" t="n">
-        <v>8297</v>
+        <v>8342</v>
       </c>
       <c r="O135" t="n">
-        <v>2760</v>
+        <v>2774</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
@@ -10248,10 +10248,10 @@
         <v>148</v>
       </c>
       <c r="R135" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="S135" t="n">
-        <v>444.4</v>
+        <v>446.9</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,19 +10286,19 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G136" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H136" t="n">
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98184</v>
+        <v>98180</v>
       </c>
       <c r="J136" t="n">
-        <v>246509</v>
+        <v>246664</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
@@ -10310,10 +10310,10 @@
         <v>943</v>
       </c>
       <c r="N136" t="n">
-        <v>8157</v>
+        <v>8204</v>
       </c>
       <c r="O136" t="n">
-        <v>2299</v>
+        <v>2315</v>
       </c>
       <c r="P136" t="n">
         <v>56</v>
@@ -10322,10 +10322,10 @@
         <v>157.1</v>
       </c>
       <c r="R136" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S136" t="n">
-        <v>413.7</v>
+        <v>416</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,19 +10360,19 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G137" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H137" t="n">
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98221</v>
+        <v>98217</v>
       </c>
       <c r="J137" t="n">
-        <v>246612</v>
+        <v>246767</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
@@ -10384,10 +10384,10 @@
         <v>835</v>
       </c>
       <c r="N137" t="n">
-        <v>7884</v>
+        <v>7927</v>
       </c>
       <c r="O137" t="n">
-        <v>2072</v>
+        <v>2088</v>
       </c>
       <c r="P137" t="n">
         <v>37</v>
@@ -10399,7 +10399,7 @@
         <v>103</v>
       </c>
       <c r="S137" t="n">
-        <v>343.1</v>
+        <v>345.4</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,19 +10434,19 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="G138" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H138" t="n">
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98333</v>
+        <v>98329</v>
       </c>
       <c r="J138" t="n">
-        <v>246969</v>
+        <v>247126</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
@@ -10458,10 +10458,10 @@
         <v>774</v>
       </c>
       <c r="N138" t="n">
-        <v>7634</v>
+        <v>7672</v>
       </c>
       <c r="O138" t="n">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10470,10 +10470,10 @@
         <v>135.3</v>
       </c>
       <c r="R138" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="S138" t="n">
-        <v>347</v>
+        <v>349.6</v>
       </c>
       <c r="T138" t="n">
         <v>20</v>
@@ -10508,19 +10508,19 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1393</v>
+        <v>1367</v>
       </c>
       <c r="G139" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H139" t="n">
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98510</v>
+        <v>98506</v>
       </c>
       <c r="J139" t="n">
-        <v>245162</v>
+        <v>245323</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
@@ -10532,10 +10532,10 @@
         <v>743</v>
       </c>
       <c r="N139" t="n">
-        <v>5183</v>
+        <v>5220</v>
       </c>
       <c r="O139" t="n">
-        <v>-268</v>
+        <v>-255</v>
       </c>
       <c r="P139" t="n">
         <v>177</v>
@@ -10544,10 +10544,10 @@
         <v>135.9</v>
       </c>
       <c r="R139" t="n">
-        <v>-1807</v>
+        <v>-1803</v>
       </c>
       <c r="S139" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,19 +10582,19 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1326</v>
+        <v>1306</v>
       </c>
       <c r="G140" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H140" t="n">
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98650</v>
+        <v>98646</v>
       </c>
       <c r="J140" t="n">
-        <v>245527</v>
+        <v>245692</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
@@ -10606,10 +10606,10 @@
         <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>4981</v>
+        <v>5016</v>
       </c>
       <c r="O140" t="n">
-        <v>-347</v>
+        <v>-332</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
@@ -10618,10 +10618,10 @@
         <v>126.1</v>
       </c>
       <c r="R140" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="S140" t="n">
-        <v>13.9</v>
+        <v>16.3</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10656,19 +10656,19 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1286</v>
+        <v>1267</v>
       </c>
       <c r="G141" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H141" t="n">
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98862</v>
+        <v>98858</v>
       </c>
       <c r="J141" t="n">
-        <v>246060</v>
+        <v>246226</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
@@ -10680,10 +10680,10 @@
         <v>734</v>
       </c>
       <c r="N141" t="n">
-        <v>2798</v>
+        <v>2828</v>
       </c>
       <c r="O141" t="n">
-        <v>-313</v>
+        <v>-300</v>
       </c>
       <c r="P141" t="n">
         <v>212</v>
@@ -10692,10 +10692,10 @@
         <v>134.6</v>
       </c>
       <c r="R141" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S141" t="n">
-        <v>26.6</v>
+        <v>28.9</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,19 +10730,19 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="G142" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H142" t="n">
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99048</v>
+        <v>99044</v>
       </c>
       <c r="J142" t="n">
-        <v>246463</v>
+        <v>246636</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
@@ -10754,10 +10754,10 @@
         <v>864</v>
       </c>
       <c r="N142" t="n">
-        <v>2850</v>
+        <v>2884</v>
       </c>
       <c r="O142" t="n">
-        <v>-46</v>
+        <v>-28</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
@@ -10766,10 +10766,10 @@
         <v>131.4</v>
       </c>
       <c r="R142" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="S142" t="n">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,19 +10804,19 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="G143" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H143" t="n">
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99131</v>
+        <v>99127</v>
       </c>
       <c r="J143" t="n">
-        <v>246700</v>
+        <v>246874</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
@@ -10828,10 +10828,10 @@
         <v>910</v>
       </c>
       <c r="N143" t="n">
-        <v>2490</v>
+        <v>2525</v>
       </c>
       <c r="O143" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
@@ -10840,10 +10840,10 @@
         <v>135.3</v>
       </c>
       <c r="R143" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S143" t="n">
-        <v>27.3</v>
+        <v>30</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,19 +10878,19 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="G144" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H144" t="n">
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99187</v>
+        <v>99183</v>
       </c>
       <c r="J144" t="n">
-        <v>246899</v>
+        <v>247073</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
@@ -10902,10 +10902,10 @@
         <v>854</v>
       </c>
       <c r="N144" t="n">
-        <v>2359</v>
+        <v>2394</v>
       </c>
       <c r="O144" t="n">
-        <v>-70</v>
+        <v>-53</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
@@ -10917,7 +10917,7 @@
         <v>199</v>
       </c>
       <c r="S144" t="n">
-        <v>41</v>
+        <v>43.7</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,19 +10952,19 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G145" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H145" t="n">
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99310</v>
+        <v>99306</v>
       </c>
       <c r="J145" t="n">
-        <v>247152</v>
+        <v>247329</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
@@ -10976,10 +10976,10 @@
         <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>2177</v>
+        <v>2210</v>
       </c>
       <c r="O145" t="n">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
@@ -10988,10 +10988,10 @@
         <v>139.6</v>
       </c>
       <c r="R145" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S145" t="n">
-        <v>26.1</v>
+        <v>29</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,7 +11026,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="G146" t="n">
         <v>207</v>
@@ -11035,10 +11035,10 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99379</v>
+        <v>99375</v>
       </c>
       <c r="J146" t="n">
-        <v>247544</v>
+        <v>247722</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
@@ -11050,10 +11050,10 @@
         <v>729</v>
       </c>
       <c r="N146" t="n">
-        <v>2114</v>
+        <v>2144</v>
       </c>
       <c r="O146" t="n">
-        <v>2017</v>
+        <v>2030</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11062,10 +11062,10 @@
         <v>124.1</v>
       </c>
       <c r="R146" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S146" t="n">
-        <v>340.3</v>
+        <v>342.7</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -11100,19 +11100,19 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1169</v>
+        <v>1144</v>
       </c>
       <c r="G147" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H147" t="n">
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97302</v>
+        <v>97298</v>
       </c>
       <c r="J147" t="n">
-        <v>247897</v>
+        <v>248077</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
@@ -11124,10 +11124,10 @@
         <v>-1560</v>
       </c>
       <c r="N147" t="n">
-        <v>2023</v>
+        <v>2053</v>
       </c>
       <c r="O147" t="n">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11136,10 +11136,10 @@
         <v>-192.6</v>
       </c>
       <c r="R147" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S147" t="n">
-        <v>338.6</v>
+        <v>340.7</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -11174,19 +11174,19 @@
         <v>884</v>
       </c>
       <c r="F148" t="n">
-        <v>1110</v>
+        <v>1079</v>
       </c>
       <c r="G148" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H148" t="n">
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>105803</v>
+        <v>105799</v>
       </c>
       <c r="J148" t="n">
-        <v>248305</v>
+        <v>248486</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
@@ -11198,10 +11198,10 @@
         <v>6755</v>
       </c>
       <c r="N148" t="n">
-        <v>1932</v>
+        <v>1960</v>
       </c>
       <c r="O148" t="n">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="P148" t="n">
         <v>8501</v>
@@ -11210,10 +11210,10 @@
         <v>991.6</v>
       </c>
       <c r="R148" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S148" t="n">
-        <v>320.7</v>
+        <v>322.9</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -11248,19 +11248,19 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="G149" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H149" t="n">
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>106178</v>
+        <v>106174</v>
       </c>
       <c r="J149" t="n">
-        <v>248869</v>
+        <v>249054</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
@@ -11272,10 +11272,10 @@
         <v>7047</v>
       </c>
       <c r="N149" t="n">
-        <v>2360</v>
+        <v>2390</v>
       </c>
       <c r="O149" t="n">
-        <v>2169</v>
+        <v>2180</v>
       </c>
       <c r="P149" t="n">
         <v>375</v>
@@ -11284,10 +11284,10 @@
         <v>1018.6</v>
       </c>
       <c r="R149" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="S149" t="n">
-        <v>343.7</v>
+        <v>345.4</v>
       </c>
       <c r="T149" t="n">
         <v>11</v>
@@ -11322,19 +11322,19 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="G150" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H150" t="n">
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>104039</v>
+        <v>104035</v>
       </c>
       <c r="J150" t="n">
-        <v>249136</v>
+        <v>249323</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
@@ -11346,10 +11346,10 @@
         <v>4852</v>
       </c>
       <c r="N150" t="n">
-        <v>2524</v>
+        <v>2556</v>
       </c>
       <c r="O150" t="n">
-        <v>2237</v>
+        <v>2250</v>
       </c>
       <c r="P150" t="n">
         <v>-2139</v>
@@ -11358,10 +11358,10 @@
         <v>701.1</v>
       </c>
       <c r="R150" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S150" t="n">
-        <v>348</v>
+        <v>349.9</v>
       </c>
       <c r="T150" t="n">
         <v>10</v>
@@ -11396,19 +11396,19 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="G151" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H151" t="n">
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>104182</v>
+        <v>104178</v>
       </c>
       <c r="J151" t="n">
-        <v>249333</v>
+        <v>249523</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
@@ -11420,10 +11420,10 @@
         <v>4872</v>
       </c>
       <c r="N151" t="n">
-        <v>2364</v>
+        <v>2397</v>
       </c>
       <c r="O151" t="n">
-        <v>2181</v>
+        <v>2194</v>
       </c>
       <c r="P151" t="n">
         <v>143</v>
@@ -11432,10 +11432,10 @@
         <v>713.6</v>
       </c>
       <c r="R151" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S151" t="n">
-        <v>347.7</v>
+        <v>350</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -11470,7 +11470,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="G152" t="n">
         <v>181</v>
@@ -11479,10 +11479,10 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>106690</v>
+        <v>106686</v>
       </c>
       <c r="J152" t="n">
-        <v>249593</v>
+        <v>249784</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
@@ -11494,10 +11494,10 @@
         <v>7311</v>
       </c>
       <c r="N152" t="n">
-        <v>4431</v>
+        <v>4461</v>
       </c>
       <c r="O152" t="n">
-        <v>2049</v>
+        <v>2062</v>
       </c>
       <c r="P152" t="n">
         <v>2508</v>
@@ -11506,10 +11506,10 @@
         <v>1054.3</v>
       </c>
       <c r="R152" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S152" t="n">
-        <v>348.7</v>
+        <v>350.7</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -11544,19 +11544,19 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="G153" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H153" t="n">
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>107008</v>
+        <v>107004</v>
       </c>
       <c r="J153" t="n">
-        <v>250046</v>
+        <v>250243</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
@@ -11568,10 +11568,10 @@
         <v>9706</v>
       </c>
       <c r="N153" t="n">
-        <v>4519</v>
+        <v>4551</v>
       </c>
       <c r="O153" t="n">
-        <v>2149</v>
+        <v>2166</v>
       </c>
       <c r="P153" t="n">
         <v>318</v>
@@ -11580,10 +11580,10 @@
         <v>1089.9</v>
       </c>
       <c r="R153" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="S153" t="n">
-        <v>357.4</v>
+        <v>360.1</v>
       </c>
       <c r="T153" t="n">
         <v>19</v>
@@ -11618,19 +11618,19 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="G154" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H154" t="n">
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>107429</v>
+        <v>107425</v>
       </c>
       <c r="J154" t="n">
-        <v>250488</v>
+        <v>250687</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
@@ -11642,10 +11642,10 @@
         <v>1626</v>
       </c>
       <c r="N154" t="n">
-        <v>4428</v>
+        <v>4461</v>
       </c>
       <c r="O154" t="n">
-        <v>2183</v>
+        <v>2201</v>
       </c>
       <c r="P154" t="n">
         <v>421</v>
@@ -11654,10 +11654,10 @@
         <v>1446.7</v>
       </c>
       <c r="R154" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="S154" t="n">
-        <v>370.1</v>
+        <v>372.9</v>
       </c>
       <c r="T154" t="n">
         <v>14</v>
@@ -11692,19 +11692,19 @@
         <v>991</v>
       </c>
       <c r="F155" t="n">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="G155" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H155" t="n">
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>107849</v>
+        <v>107845</v>
       </c>
       <c r="J155" t="n">
-        <v>250966</v>
+        <v>251167</v>
       </c>
       <c r="K155" t="n">
         <v>65793</v>
@@ -11716,10 +11716,10 @@
         <v>1671</v>
       </c>
       <c r="N155" t="n">
-        <v>4503</v>
+        <v>4531</v>
       </c>
       <c r="O155" t="n">
-        <v>2097</v>
+        <v>2113</v>
       </c>
       <c r="P155" t="n">
         <v>420</v>
@@ -11728,10 +11728,10 @@
         <v>292.3</v>
       </c>
       <c r="R155" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="S155" t="n">
-        <v>380.1</v>
+        <v>383</v>
       </c>
       <c r="T155" t="n">
         <v>11</v>
@@ -11766,19 +11766,19 @@
         <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G156" t="n">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="H156" t="n">
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102015</v>
+        <v>102011</v>
       </c>
       <c r="J156" t="n">
-        <v>251538</v>
+        <v>251740</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
@@ -11790,10 +11790,10 @@
         <v>-2024</v>
       </c>
       <c r="N156" t="n">
-        <v>4838</v>
+        <v>4866</v>
       </c>
       <c r="O156" t="n">
-        <v>2402</v>
+        <v>2417</v>
       </c>
       <c r="P156" t="n">
         <v>-5834</v>
@@ -11802,10 +11802,10 @@
         <v>-594.7</v>
       </c>
       <c r="R156" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S156" t="n">
-        <v>381.3</v>
+        <v>383.7</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -11849,10 +11849,10 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99845</v>
+        <v>99841</v>
       </c>
       <c r="J157" t="n">
-        <v>251755</v>
+        <v>251958</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
@@ -11864,10 +11864,10 @@
         <v>-4337</v>
       </c>
       <c r="N157" t="n">
-        <v>4856</v>
+        <v>4885</v>
       </c>
       <c r="O157" t="n">
-        <v>2422</v>
+        <v>2435</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
@@ -11876,10 +11876,10 @@
         <v>-599.1</v>
       </c>
       <c r="R157" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S157" t="n">
-        <v>374.1</v>
+        <v>376.4</v>
       </c>
       <c r="T157" t="n">
         <v>5</v>
@@ -11914,19 +11914,19 @@
         <v>882</v>
       </c>
       <c r="F158" t="n">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G158" t="n">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="H158" t="n">
         <v>33775</v>
       </c>
       <c r="I158" t="n">
-        <v>106377</v>
+        <v>106373</v>
       </c>
       <c r="J158" t="n">
-        <v>251954</v>
+        <v>252157</v>
       </c>
       <c r="K158" t="n">
         <v>40019</v>
@@ -11938,10 +11938,10 @@
         <v>-313</v>
       </c>
       <c r="N158" t="n">
-        <v>4802</v>
+        <v>4828</v>
       </c>
       <c r="O158" t="n">
-        <v>2361</v>
+        <v>2373</v>
       </c>
       <c r="P158" t="n">
         <v>6532</v>
@@ -11953,7 +11953,7 @@
         <v>199</v>
       </c>
       <c r="S158" t="n">
-        <v>374.4</v>
+        <v>376.3</v>
       </c>
       <c r="T158" t="n">
         <v>9</v>
@@ -11988,19 +11988,19 @@
         <v>1036</v>
       </c>
       <c r="F159" t="n">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G159" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H159" t="n">
         <v>33785</v>
       </c>
       <c r="I159" t="n">
-        <v>109042</v>
+        <v>109038</v>
       </c>
       <c r="J159" t="n">
-        <v>252319</v>
+        <v>252526</v>
       </c>
       <c r="K159" t="n">
         <v>66247</v>
@@ -12012,10 +12012,10 @@
         <v>2034</v>
       </c>
       <c r="N159" t="n">
-        <v>4775</v>
+        <v>4804</v>
       </c>
       <c r="O159" t="n">
-        <v>2273</v>
+        <v>2283</v>
       </c>
       <c r="P159" t="n">
         <v>2665</v>
@@ -12024,10 +12024,10 @@
         <v>336</v>
       </c>
       <c r="R159" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="S159" t="n">
-        <v>389.4</v>
+        <v>391.7</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -12062,19 +12062,19 @@
         <v>1056</v>
       </c>
       <c r="F160" t="n">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="G160" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H160" t="n">
         <v>33802</v>
       </c>
       <c r="I160" t="n">
-        <v>109658</v>
+        <v>109654</v>
       </c>
       <c r="J160" t="n">
-        <v>253007</v>
+        <v>253217</v>
       </c>
       <c r="K160" t="n">
         <v>66390</v>
@@ -12086,10 +12086,10 @@
         <v>2229</v>
       </c>
       <c r="N160" t="n">
-        <v>5110</v>
+        <v>5140</v>
       </c>
       <c r="O160" t="n">
-        <v>2519</v>
+        <v>2530</v>
       </c>
       <c r="P160" t="n">
         <v>616</v>
@@ -12098,10 +12098,10 @@
         <v>378.6</v>
       </c>
       <c r="R160" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="S160" t="n">
-        <v>423</v>
+        <v>424.9</v>
       </c>
       <c r="T160" t="n">
         <v>17</v>
@@ -12136,19 +12136,19 @@
         <v>1086</v>
       </c>
       <c r="F161" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G161" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H161" t="n">
         <v>33811</v>
       </c>
       <c r="I161" t="n">
-        <v>110394</v>
+        <v>110390</v>
       </c>
       <c r="J161" t="n">
-        <v>253659</v>
+        <v>253870</v>
       </c>
       <c r="K161" t="n">
         <v>66547</v>
@@ -12160,10 +12160,10 @@
         <v>2545</v>
       </c>
       <c r="N161" t="n">
-        <v>5354</v>
+        <v>5384</v>
       </c>
       <c r="O161" t="n">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="P161" t="n">
         <v>736</v>
@@ -12172,10 +12172,10 @@
         <v>423.6</v>
       </c>
       <c r="R161" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="S161" t="n">
-        <v>453</v>
+        <v>454.7</v>
       </c>
       <c r="T161" t="n">
         <v>9</v>
@@ -12210,19 +12210,19 @@
         <v>1142</v>
       </c>
       <c r="F162" t="n">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="G162" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H162" t="n">
         <v>33824</v>
       </c>
       <c r="I162" t="n">
-        <v>111236</v>
+        <v>111232</v>
       </c>
       <c r="J162" t="n">
-        <v>254539</v>
+        <v>254751</v>
       </c>
       <c r="K162" t="n">
         <v>66719</v>
@@ -12234,10 +12234,10 @@
         <v>9221</v>
       </c>
       <c r="N162" t="n">
-        <v>5670</v>
+        <v>5697</v>
       </c>
       <c r="O162" t="n">
-        <v>3001</v>
+        <v>3011</v>
       </c>
       <c r="P162" t="n">
         <v>842</v>
@@ -12246,10 +12246,10 @@
         <v>483.9</v>
       </c>
       <c r="R162" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="S162" t="n">
-        <v>510.4</v>
+        <v>512</v>
       </c>
       <c r="T162" t="n">
         <v>13</v>
@@ -12287,16 +12287,16 @@
         <v>850</v>
       </c>
       <c r="G163" t="n">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="H163" t="n">
         <v>33828</v>
       </c>
       <c r="I163" t="n">
-        <v>105695</v>
+        <v>105691</v>
       </c>
       <c r="J163" t="n">
-        <v>255649</v>
+        <v>255864</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
@@ -12308,10 +12308,10 @@
         <v>5850</v>
       </c>
       <c r="N163" t="n">
-        <v>6513</v>
+        <v>6541</v>
       </c>
       <c r="O163" t="n">
-        <v>3894</v>
+        <v>3906</v>
       </c>
       <c r="P163" t="n">
         <v>-5541</v>
@@ -12320,10 +12320,10 @@
         <v>525.7</v>
       </c>
       <c r="R163" t="n">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="S163" t="n">
-        <v>587.3</v>
+        <v>589.1</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12358,7 +12358,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G164" t="n">
         <v>66</v>
@@ -12367,10 +12367,10 @@
         <v>33832</v>
       </c>
       <c r="I164" t="n">
-        <v>103695</v>
+        <v>103691</v>
       </c>
       <c r="J164" t="n">
-        <v>256233</v>
+        <v>256449</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
@@ -12382,10 +12382,10 @@
         <v>-2682</v>
       </c>
       <c r="N164" t="n">
-        <v>6900</v>
+        <v>6926</v>
       </c>
       <c r="O164" t="n">
-        <v>4279</v>
+        <v>4292</v>
       </c>
       <c r="P164" t="n">
         <v>-2000</v>
@@ -12394,10 +12394,10 @@
         <v>550</v>
       </c>
       <c r="R164" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S164" t="n">
-        <v>639.7</v>
+        <v>641.6</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12432,19 +12432,19 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G165" t="n">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H165" t="n">
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110727</v>
+        <v>110723</v>
       </c>
       <c r="J165" t="n">
-        <v>256629</v>
+        <v>256845</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
@@ -12456,10 +12456,10 @@
         <v>1685</v>
       </c>
       <c r="N165" t="n">
-        <v>7036</v>
+        <v>7061</v>
       </c>
       <c r="O165" t="n">
-        <v>4310</v>
+        <v>4319</v>
       </c>
       <c r="P165" t="n">
         <v>7032</v>
@@ -12471,7 +12471,7 @@
         <v>396</v>
       </c>
       <c r="S165" t="n">
-        <v>667.9</v>
+        <v>669.7</v>
       </c>
       <c r="T165" t="n">
         <v>8</v>
@@ -12506,19 +12506,19 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G166" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H166" t="n">
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114176</v>
+        <v>114172</v>
       </c>
       <c r="J166" t="n">
-        <v>257486</v>
+        <v>257705</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
@@ -12530,10 +12530,10 @@
         <v>4518</v>
       </c>
       <c r="N166" t="n">
-        <v>7440</v>
+        <v>7462</v>
       </c>
       <c r="O166" t="n">
-        <v>4479</v>
+        <v>4488</v>
       </c>
       <c r="P166" t="n">
         <v>3449</v>
@@ -12542,10 +12542,10 @@
         <v>733.4</v>
       </c>
       <c r="R166" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="S166" t="n">
-        <v>738.1</v>
+        <v>739.9</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12580,7 +12580,7 @@
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,10 +12589,10 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115558</v>
+        <v>115554</v>
       </c>
       <c r="J167" t="n">
-        <v>258760</v>
+        <v>258983</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
@@ -12604,10 +12604,10 @@
         <v>5164</v>
       </c>
       <c r="N167" t="n">
-        <v>8272</v>
+        <v>8296</v>
       </c>
       <c r="O167" t="n">
-        <v>5101</v>
+        <v>5113</v>
       </c>
       <c r="P167" t="n">
         <v>1382</v>
@@ -12616,10 +12616,10 @@
         <v>842.9</v>
       </c>
       <c r="R167" t="n">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="S167" t="n">
-        <v>821.9</v>
+        <v>823.7</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12648,52 +12648,52 @@
         <v>1262</v>
       </c>
       <c r="D168" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E168" t="n">
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>996</v>
+        <v>959</v>
       </c>
       <c r="G168" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H168" t="n">
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>110030</v>
+        <v>110025</v>
       </c>
       <c r="J168" t="n">
-        <v>260237</v>
+        <v>260461</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M168" t="n">
-        <v>-1206</v>
+        <v>-1207</v>
       </c>
       <c r="N168" t="n">
-        <v>9271</v>
+        <v>9294</v>
       </c>
       <c r="O168" t="n">
-        <v>5698</v>
+        <v>5710</v>
       </c>
       <c r="P168" t="n">
-        <v>-5528</v>
+        <v>-5529</v>
       </c>
       <c r="Q168" t="n">
-        <v>-52</v>
+        <v>-52.1</v>
       </c>
       <c r="R168" t="n">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="S168" t="n">
-        <v>939.7</v>
+        <v>941.6</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12728,46 +12728,46 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G169" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H169" t="n">
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111452</v>
+        <v>111447</v>
       </c>
       <c r="J169" t="n">
-        <v>261904</v>
+        <v>262131</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="M169" t="n">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="N169" t="n">
-        <v>10366</v>
+        <v>10391</v>
       </c>
       <c r="O169" t="n">
-        <v>6255</v>
+        <v>6267</v>
       </c>
       <c r="P169" t="n">
         <v>1422</v>
       </c>
       <c r="Q169" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="R169" t="n">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="S169" t="n">
-        <v>1052.1</v>
+        <v>1054.3</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12793,7 +12793,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D170" t="n">
         <v>455</v>
@@ -12802,19 +12802,19 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="G170" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H170" t="n">
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116603</v>
+        <v>116599</v>
       </c>
       <c r="J170" t="n">
-        <v>263894</v>
+        <v>264124</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
@@ -12826,22 +12826,22 @@
         <v>12908</v>
       </c>
       <c r="N170" t="n">
-        <v>12139</v>
+        <v>12166</v>
       </c>
       <c r="O170" t="n">
-        <v>7661</v>
+        <v>7675</v>
       </c>
       <c r="P170" t="n">
-        <v>5151</v>
+        <v>5152</v>
       </c>
       <c r="Q170" t="n">
         <v>1558.3</v>
       </c>
       <c r="R170" t="n">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="S170" t="n">
-        <v>1177.9</v>
+        <v>1180</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12876,19 +12876,19 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="G171" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H171" t="n">
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114987</v>
+        <v>114983</v>
       </c>
       <c r="J171" t="n">
-        <v>265262</v>
+        <v>265492</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
@@ -12900,10 +12900,10 @@
         <v>4260</v>
       </c>
       <c r="N171" t="n">
-        <v>13308</v>
+        <v>13335</v>
       </c>
       <c r="O171" t="n">
-        <v>8633</v>
+        <v>8647</v>
       </c>
       <c r="P171" t="n">
         <v>-1616</v>
@@ -12915,7 +12915,7 @@
         <v>1368</v>
       </c>
       <c r="S171" t="n">
-        <v>1289.9</v>
+        <v>1291.9</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12950,19 +12950,19 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="G172" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="H172" t="n">
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123889</v>
+        <v>123885</v>
       </c>
       <c r="J172" t="n">
-        <v>266319</v>
+        <v>266550</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
@@ -12974,10 +12974,10 @@
         <v>9713</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>14024</v>
       </c>
       <c r="O172" t="n">
-        <v>8833</v>
+        <v>8845</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12986,10 +12986,10 @@
         <v>1880.3</v>
       </c>
       <c r="R172" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="S172" t="n">
-        <v>1384.3</v>
+        <v>1386.4</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,19 +13024,19 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G173" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H173" t="n">
-        <v>33900</v>
+        <v>33901</v>
       </c>
       <c r="I173" t="n">
-        <v>128042</v>
+        <v>128038</v>
       </c>
       <c r="J173" t="n">
-        <v>268054</v>
+        <v>268289</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
@@ -13048,10 +13048,10 @@
         <v>12484</v>
       </c>
       <c r="N173" t="n">
-        <v>15047</v>
+        <v>15072</v>
       </c>
       <c r="O173" t="n">
-        <v>9294</v>
+        <v>9306</v>
       </c>
       <c r="P173" t="n">
         <v>4153</v>
@@ -13060,25 +13060,25 @@
         <v>1980.9</v>
       </c>
       <c r="R173" t="n">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="S173" t="n">
-        <v>1509.7</v>
+        <v>1512</v>
       </c>
       <c r="T173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U173" t="n">
         <v>0</v>
       </c>
       <c r="V173" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="W173" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X173" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174">
@@ -13098,19 +13098,19 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G174" t="n">
         <v>146</v>
       </c>
       <c r="H174" t="n">
-        <v>33916</v>
+        <v>33918</v>
       </c>
       <c r="I174" t="n">
-        <v>129837</v>
+        <v>129833</v>
       </c>
       <c r="J174" t="n">
-        <v>270383</v>
+        <v>270622</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
@@ -13119,13 +13119,13 @@
         <v>19443</v>
       </c>
       <c r="M174" t="n">
-        <v>19807</v>
+        <v>19808</v>
       </c>
       <c r="N174" t="n">
-        <v>16724</v>
+        <v>16752</v>
       </c>
       <c r="O174" t="n">
-        <v>10146</v>
+        <v>10161</v>
       </c>
       <c r="P174" t="n">
         <v>1795</v>
@@ -13134,25 +13134,25 @@
         <v>2039.9</v>
       </c>
       <c r="R174" t="n">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="S174" t="n">
-        <v>1660.4</v>
+        <v>1662.7</v>
       </c>
       <c r="T174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U174" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V174" t="n">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="W174" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="X174" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175">
@@ -13172,19 +13172,19 @@
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="G175" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H175" t="n">
-        <v>33924</v>
+        <v>33926</v>
       </c>
       <c r="I175" t="n">
-        <v>132134</v>
+        <v>132130</v>
       </c>
       <c r="J175" t="n">
-        <v>272690</v>
+        <v>272931</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
@@ -13193,25 +13193,25 @@
         <v>20898</v>
       </c>
       <c r="M175" t="n">
-        <v>20682</v>
+        <v>20683</v>
       </c>
       <c r="N175" t="n">
-        <v>18151</v>
+        <v>18180</v>
       </c>
       <c r="O175" t="n">
-        <v>10786</v>
+        <v>10800</v>
       </c>
       <c r="P175" t="n">
         <v>2297</v>
       </c>
       <c r="Q175" t="n">
-        <v>3157.7</v>
+        <v>3157.9</v>
       </c>
       <c r="R175" t="n">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="S175" t="n">
-        <v>1779</v>
+        <v>1781.4</v>
       </c>
       <c r="T175" t="n">
         <v>8</v>
@@ -13220,13 +13220,13 @@
         <v>0</v>
       </c>
       <c r="V175" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="W175" t="n">
-        <v>8.4</v>
+        <v>8.7</v>
       </c>
       <c r="X175" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176">
@@ -13246,19 +13246,19 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G176" t="n">
         <v>159</v>
       </c>
       <c r="H176" t="n">
-        <v>33931</v>
+        <v>33932</v>
       </c>
       <c r="I176" t="n">
-        <v>134050</v>
+        <v>134046</v>
       </c>
       <c r="J176" t="n">
-        <v>274880</v>
+        <v>275122</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
@@ -13270,25 +13270,25 @@
         <v>17447</v>
       </c>
       <c r="N176" t="n">
-        <v>19231</v>
+        <v>19258</v>
       </c>
       <c r="O176" t="n">
-        <v>10986</v>
+        <v>10998</v>
       </c>
       <c r="P176" t="n">
         <v>1916</v>
       </c>
       <c r="Q176" t="n">
-        <v>3228.3</v>
+        <v>3228.4</v>
       </c>
       <c r="R176" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="S176" t="n">
-        <v>1853.7</v>
+        <v>1855.9</v>
       </c>
       <c r="T176" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U176" t="n">
         <v>0</v>
@@ -13297,10 +13297,10 @@
         <v>10.3</v>
       </c>
       <c r="W176" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X176" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
@@ -13320,19 +13320,19 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G177" t="n">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H177" t="n">
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>126055</v>
+        <v>126051</v>
       </c>
       <c r="J177" t="n">
-        <v>277534</v>
+        <v>277778</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
@@ -13344,10 +13344,10 @@
         <v>11068</v>
       </c>
       <c r="N177" t="n">
-        <v>21301</v>
+        <v>21329</v>
       </c>
       <c r="O177" t="n">
-        <v>12272</v>
+        <v>12286</v>
       </c>
       <c r="P177" t="n">
         <v>-7995</v>
@@ -13356,19 +13356,19 @@
         <v>1350.3</v>
       </c>
       <c r="R177" t="n">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="S177" t="n">
-        <v>1948.6</v>
+        <v>1950.6</v>
       </c>
       <c r="T177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U177" t="n">
         <v>0</v>
       </c>
       <c r="V177" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="W177" t="n">
         <v>8.7</v>
@@ -13394,19 +13394,19 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G178" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H178" t="n">
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>105066</v>
+        <v>105062</v>
       </c>
       <c r="J178" t="n">
-        <v>279030</v>
+        <v>279274</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
@@ -13418,10 +13418,10 @@
         <v>-18823</v>
       </c>
       <c r="N178" t="n">
-        <v>22401</v>
+        <v>22429</v>
       </c>
       <c r="O178" t="n">
-        <v>12711</v>
+        <v>12724</v>
       </c>
       <c r="P178" t="n">
         <v>-20989</v>
@@ -13433,7 +13433,7 @@
         <v>1496</v>
       </c>
       <c r="S178" t="n">
-        <v>1966.9</v>
+        <v>1968.9</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="V178" t="n">
-        <v>9.3</v>
+        <v>8.7</v>
       </c>
       <c r="W178" t="n">
         <v>9.9</v>
@@ -13468,19 +13468,19 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1332</v>
+        <v>1350</v>
       </c>
       <c r="G179" t="n">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H179" t="n">
-        <v>33967</v>
+        <v>33968</v>
       </c>
       <c r="I179" t="n">
-        <v>116403</v>
+        <v>116399</v>
       </c>
       <c r="J179" t="n">
-        <v>280372</v>
+        <v>280617</v>
       </c>
       <c r="K179" t="n">
         <v>41864</v>
@@ -13492,10 +13492,10 @@
         <v>-11639</v>
       </c>
       <c r="N179" t="n">
-        <v>22886</v>
+        <v>22912</v>
       </c>
       <c r="O179" t="n">
-        <v>12318</v>
+        <v>12328</v>
       </c>
       <c r="P179" t="n">
         <v>11337</v>
@@ -13504,13 +13504,13 @@
         <v>-1069.4</v>
       </c>
       <c r="R179" t="n">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="S179" t="n">
-        <v>2007.6</v>
+        <v>2009.6</v>
       </c>
       <c r="T179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
@@ -13519,10 +13519,10 @@
         <v>12</v>
       </c>
       <c r="W179" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="X179" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180">
@@ -13542,19 +13542,19 @@
         <v>5373</v>
       </c>
       <c r="F180" t="n">
-        <v>1444</v>
+        <v>1459</v>
       </c>
       <c r="G180" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H180" t="n">
         <v>33981</v>
       </c>
       <c r="I180" t="n">
-        <v>116396</v>
+        <v>116392</v>
       </c>
       <c r="J180" t="n">
-        <v>282474</v>
+        <v>282721</v>
       </c>
       <c r="K180" t="n">
         <v>71506</v>
@@ -13566,10 +13566,10 @@
         <v>-13441</v>
       </c>
       <c r="N180" t="n">
-        <v>23714</v>
+        <v>23738</v>
       </c>
       <c r="O180" t="n">
-        <v>12091</v>
+        <v>12099</v>
       </c>
       <c r="P180" t="n">
         <v>-7</v>
@@ -13578,13 +13578,13 @@
         <v>-1663.7</v>
       </c>
       <c r="R180" t="n">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="S180" t="n">
-        <v>2060</v>
+        <v>2061.7</v>
       </c>
       <c r="T180" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U180" t="n">
         <v>0</v>
@@ -13593,10 +13593,10 @@
         <v>13.7</v>
       </c>
       <c r="W180" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="X180" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181">
@@ -13616,34 +13616,34 @@
         <v>815</v>
       </c>
       <c r="F181" t="n">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="G181" t="n">
         <v>215</v>
       </c>
       <c r="H181" t="n">
-        <v>33994</v>
+        <v>33995</v>
       </c>
       <c r="I181" t="n">
-        <v>110718</v>
+        <v>110714</v>
       </c>
       <c r="J181" t="n">
-        <v>285256</v>
+        <v>285507</v>
       </c>
       <c r="K181" t="n">
         <v>69783</v>
       </c>
       <c r="L181" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M181" t="n">
         <v>-21416</v>
       </c>
       <c r="N181" t="n">
-        <v>25019</v>
+        <v>25046</v>
       </c>
       <c r="O181" t="n">
-        <v>12566</v>
+        <v>12576</v>
       </c>
       <c r="P181" t="n">
         <v>-5678</v>
@@ -13652,25 +13652,25 @@
         <v>-2731.3</v>
       </c>
       <c r="R181" t="n">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="S181" t="n">
-        <v>2124.7</v>
+        <v>2126.4</v>
       </c>
       <c r="T181" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U181" t="n">
         <v>0</v>
       </c>
       <c r="V181" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="W181" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="X181" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182">
@@ -13690,34 +13690,34 @@
         <v>6579</v>
       </c>
       <c r="F182" t="n">
-        <v>1574</v>
+        <v>1587</v>
       </c>
       <c r="G182" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H182" t="n">
-        <v>34013</v>
+        <v>34015</v>
       </c>
       <c r="I182" t="n">
-        <v>124279</v>
+        <v>124275</v>
       </c>
       <c r="J182" t="n">
-        <v>288061</v>
+        <v>288314</v>
       </c>
       <c r="K182" t="n">
         <v>75220</v>
       </c>
       <c r="L182" t="n">
-        <v>12827</v>
+        <v>12828</v>
       </c>
       <c r="M182" t="n">
         <v>-9771</v>
       </c>
       <c r="N182" t="n">
-        <v>26157</v>
+        <v>26183</v>
       </c>
       <c r="O182" t="n">
-        <v>13181</v>
+        <v>13192</v>
       </c>
       <c r="P182" t="n">
         <v>13561</v>
@@ -13726,19 +13726,19 @@
         <v>-1122.1</v>
       </c>
       <c r="R182" t="n">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="S182" t="n">
-        <v>2195.9</v>
+        <v>2197.6</v>
       </c>
       <c r="T182" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U182" t="n">
         <v>0.1</v>
       </c>
       <c r="V182" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="W182" t="n">
         <v>12.7</v>
@@ -13755,7 +13755,7 @@
         <v>136</v>
       </c>
       <c r="C183" t="n">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D183" t="n">
         <v>63819</v>
@@ -13764,46 +13764,46 @@
         <v>914</v>
       </c>
       <c r="F183" t="n">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="G183" t="n">
         <v>217</v>
       </c>
       <c r="H183" t="n">
-        <v>34030</v>
+        <v>34032</v>
       </c>
       <c r="I183" t="n">
-        <v>113818</v>
+        <v>113813</v>
       </c>
       <c r="J183" t="n">
-        <v>293813</v>
+        <v>294072</v>
       </c>
       <c r="K183" t="n">
         <v>70254</v>
       </c>
       <c r="L183" t="n">
-        <v>-2785</v>
+        <v>-2786</v>
       </c>
       <c r="M183" t="n">
-        <v>-12237</v>
+        <v>-12238</v>
       </c>
       <c r="N183" t="n">
-        <v>29919</v>
+        <v>29948</v>
       </c>
       <c r="O183" t="n">
-        <v>16279</v>
+        <v>16294</v>
       </c>
       <c r="P183" t="n">
-        <v>-10461</v>
+        <v>-10462</v>
       </c>
       <c r="Q183" t="n">
-        <v>-2890.3</v>
+        <v>-2890.4</v>
       </c>
       <c r="R183" t="n">
-        <v>5752</v>
+        <v>5758</v>
       </c>
       <c r="S183" t="n">
-        <v>2704.7</v>
+        <v>2707.1</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -13812,13 +13812,13 @@
         <v>0</v>
       </c>
       <c r="V183" t="n">
-        <v>16.3</v>
+        <v>17</v>
       </c>
       <c r="W183" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="X183" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184">
@@ -13829,7 +13829,7 @@
         <v>236</v>
       </c>
       <c r="C184" t="n">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D184" t="n">
         <v>135</v>
@@ -13838,19 +13838,19 @@
         <v>1063</v>
       </c>
       <c r="F184" t="n">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="G184" t="n">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="H184" t="n">
         <v>34043</v>
       </c>
       <c r="I184" t="n">
-        <v>115460</v>
+        <v>115456</v>
       </c>
       <c r="J184" t="n">
-        <v>297380</v>
+        <v>297647</v>
       </c>
       <c r="K184" t="n">
         <v>70418</v>
@@ -13862,31 +13862,31 @@
         <v>10394</v>
       </c>
       <c r="N184" t="n">
-        <v>32118</v>
+        <v>32155</v>
       </c>
       <c r="O184" t="n">
-        <v>18350</v>
+        <v>18373</v>
       </c>
       <c r="P184" t="n">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="Q184" t="n">
         <v>-1513.6</v>
       </c>
       <c r="R184" t="n">
-        <v>3567</v>
+        <v>3575</v>
       </c>
       <c r="S184" t="n">
-        <v>2835.1</v>
+        <v>2838.4</v>
       </c>
       <c r="T184" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U184" t="n">
         <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="W184" t="n">
         <v>14.7</v>
@@ -13912,19 +13912,19 @@
         <v>11</v>
       </c>
       <c r="F185" t="n">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="G185" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H185" t="n">
         <v>34054</v>
       </c>
       <c r="I185" t="n">
-        <v>110907</v>
+        <v>110903</v>
       </c>
       <c r="J185" t="n">
-        <v>300167</v>
+        <v>300438</v>
       </c>
       <c r="K185" t="n">
         <v>34807</v>
@@ -13936,10 +13936,10 @@
         <v>-5496</v>
       </c>
       <c r="N185" t="n">
-        <v>33848</v>
+        <v>33888</v>
       </c>
       <c r="O185" t="n">
-        <v>19795</v>
+        <v>19821</v>
       </c>
       <c r="P185" t="n">
         <v>-4553</v>
@@ -13948,10 +13948,10 @@
         <v>834.4</v>
       </c>
       <c r="R185" t="n">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="S185" t="n">
-        <v>3019.6</v>
+        <v>3023.4</v>
       </c>
       <c r="T185" t="n">
         <v>11</v>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
       <c r="V185" t="n">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="W185" t="n">
         <v>14.6</v>
@@ -13986,19 +13986,19 @@
         <v>8526</v>
       </c>
       <c r="F186" t="n">
-        <v>1837</v>
+        <v>1923</v>
       </c>
       <c r="G186" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="H186" t="n">
-        <v>34074</v>
+        <v>34079</v>
       </c>
       <c r="I186" t="n">
-        <v>124436</v>
+        <v>124432</v>
       </c>
       <c r="J186" t="n">
-        <v>301736</v>
+        <v>302011</v>
       </c>
       <c r="K186" t="n">
         <v>42576</v>
@@ -14010,10 +14010,10 @@
         <v>8040</v>
       </c>
       <c r="N186" t="n">
-        <v>33682</v>
+        <v>33722</v>
       </c>
       <c r="O186" t="n">
-        <v>19262</v>
+        <v>19290</v>
       </c>
       <c r="P186" t="n">
         <v>13529</v>
@@ -14022,25 +14022,25 @@
         <v>1147.6</v>
       </c>
       <c r="R186" t="n">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="S186" t="n">
-        <v>3052</v>
+        <v>3056.3</v>
       </c>
       <c r="T186" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U186" t="n">
         <v>0.1</v>
       </c>
       <c r="V186" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="W186" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="X186" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187">
@@ -14060,19 +14060,19 @@
         <v>9811</v>
       </c>
       <c r="F187" t="n">
-        <v>2117</v>
+        <v>2166</v>
       </c>
       <c r="G187" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H187" t="n">
-        <v>34095</v>
+        <v>34096</v>
       </c>
       <c r="I187" t="n">
-        <v>132883</v>
+        <v>132879</v>
       </c>
       <c r="J187" t="n">
-        <v>304670</v>
+        <v>304947</v>
       </c>
       <c r="K187" t="n">
         <v>76418</v>
@@ -14084,10 +14084,10 @@
         <v>22165</v>
       </c>
       <c r="N187" t="n">
-        <v>34287</v>
+        <v>34325</v>
       </c>
       <c r="O187" t="n">
-        <v>19414</v>
+        <v>19440</v>
       </c>
       <c r="P187" t="n">
         <v>8447</v>
@@ -14096,25 +14096,25 @@
         <v>2355.3</v>
       </c>
       <c r="R187" t="n">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="S187" t="n">
-        <v>3170.9</v>
+        <v>3175.1</v>
       </c>
       <c r="T187" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U187" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V187" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="W187" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="X187" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188">
@@ -14134,19 +14134,19 @@
         <v>10355</v>
       </c>
       <c r="F188" t="n">
-        <v>2180</v>
+        <v>2211</v>
       </c>
       <c r="G188" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H188" t="n">
-        <v>34123</v>
+        <v>34124</v>
       </c>
       <c r="I188" t="n">
-        <v>134797</v>
+        <v>134793</v>
       </c>
       <c r="J188" t="n">
-        <v>308659</v>
+        <v>308942</v>
       </c>
       <c r="K188" t="n">
         <v>76672</v>
@@ -14158,10 +14158,10 @@
         <v>10518</v>
       </c>
       <c r="N188" t="n">
-        <v>35969</v>
+        <v>36011</v>
       </c>
       <c r="O188" t="n">
-        <v>20598</v>
+        <v>20628</v>
       </c>
       <c r="P188" t="n">
         <v>1914</v>
@@ -14170,10 +14170,10 @@
         <v>3439.9</v>
       </c>
       <c r="R188" t="n">
-        <v>3989</v>
+        <v>3995</v>
       </c>
       <c r="S188" t="n">
-        <v>3343.3</v>
+        <v>3347.9</v>
       </c>
       <c r="T188" t="n">
         <v>28</v>
@@ -14182,7 +14182,7 @@
         <v>0.1</v>
       </c>
       <c r="V188" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="W188" t="n">
         <v>18.4</v>
@@ -14208,19 +14208,19 @@
         <v>10698</v>
       </c>
       <c r="F189" t="n">
-        <v>2190</v>
+        <v>2222</v>
       </c>
       <c r="G189" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H189" t="n">
-        <v>34136</v>
+        <v>34138</v>
       </c>
       <c r="I189" t="n">
-        <v>136800</v>
+        <v>136796</v>
       </c>
       <c r="J189" t="n">
-        <v>312528</v>
+        <v>312818</v>
       </c>
       <c r="K189" t="n">
         <v>77395</v>
@@ -14229,13 +14229,13 @@
         <v>2750</v>
       </c>
       <c r="M189" t="n">
-        <v>22982</v>
+        <v>22983</v>
       </c>
       <c r="N189" t="n">
-        <v>37648</v>
+        <v>37696</v>
       </c>
       <c r="O189" t="n">
-        <v>18715</v>
+        <v>18746</v>
       </c>
       <c r="P189" t="n">
         <v>2003</v>
@@ -14244,19 +14244,19 @@
         <v>1788.7</v>
       </c>
       <c r="R189" t="n">
-        <v>3869</v>
+        <v>3876</v>
       </c>
       <c r="S189" t="n">
-        <v>3495.3</v>
+        <v>3500.6</v>
       </c>
       <c r="T189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U189" t="n">
         <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>20.7</v>
+        <v>19.7</v>
       </c>
       <c r="W189" t="n">
         <v>17.6</v>
@@ -14282,19 +14282,19 @@
         <v>11367</v>
       </c>
       <c r="F190" t="n">
-        <v>2235</v>
+        <v>2260</v>
       </c>
       <c r="G190" t="n">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H190" t="n">
-        <v>34156</v>
+        <v>34159</v>
       </c>
       <c r="I190" t="n">
-        <v>138917</v>
+        <v>138913</v>
       </c>
       <c r="J190" t="n">
-        <v>317033</v>
+        <v>317325</v>
       </c>
       <c r="K190" t="n">
         <v>77748</v>
@@ -14306,37 +14306,37 @@
         <v>23457</v>
       </c>
       <c r="N190" t="n">
-        <v>39499</v>
+        <v>39547</v>
       </c>
       <c r="O190" t="n">
-        <v>19653</v>
+        <v>19678</v>
       </c>
       <c r="P190" t="n">
         <v>2117</v>
       </c>
       <c r="Q190" t="n">
-        <v>3585.6</v>
+        <v>3585.7</v>
       </c>
       <c r="R190" t="n">
-        <v>4505</v>
+        <v>4507</v>
       </c>
       <c r="S190" t="n">
-        <v>3317.1</v>
+        <v>3321.9</v>
       </c>
       <c r="T190" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U190" t="n">
         <v>0.1</v>
       </c>
       <c r="V190" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="W190" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="X190" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191">
@@ -14356,19 +14356,19 @@
         <v>1997</v>
       </c>
       <c r="F191" t="n">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="G191" t="n">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="H191" t="n">
         <v>34169</v>
       </c>
       <c r="I191" t="n">
-        <v>123502</v>
+        <v>123498</v>
       </c>
       <c r="J191" t="n">
-        <v>322315</v>
+        <v>322615</v>
       </c>
       <c r="K191" t="n">
         <v>71692</v>
@@ -14380,10 +14380,10 @@
         <v>12595</v>
       </c>
       <c r="N191" t="n">
-        <v>43285</v>
+        <v>43341</v>
       </c>
       <c r="O191" t="n">
-        <v>22148</v>
+        <v>22177</v>
       </c>
       <c r="P191" t="n">
         <v>-15415</v>
@@ -14392,19 +14392,19 @@
         <v>1148.9</v>
       </c>
       <c r="R191" t="n">
-        <v>5282</v>
+        <v>5290</v>
       </c>
       <c r="S191" t="n">
-        <v>3562.1</v>
+        <v>3566.9</v>
       </c>
       <c r="T191" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U191" t="n">
         <v>0</v>
       </c>
       <c r="V191" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="W191" t="n">
         <v>18</v>
@@ -14430,19 +14430,19 @@
         <v>344</v>
       </c>
       <c r="F192" t="n">
-        <v>2311</v>
+        <v>2318</v>
       </c>
       <c r="G192" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H192" t="n">
         <v>34179</v>
       </c>
       <c r="I192" t="n">
-        <v>121482</v>
+        <v>121478</v>
       </c>
       <c r="J192" t="n">
-        <v>325266</v>
+        <v>325570</v>
       </c>
       <c r="K192" t="n">
         <v>37640</v>
@@ -14454,10 +14454,10 @@
         <v>-2954</v>
       </c>
       <c r="N192" t="n">
-        <v>44894</v>
+        <v>44953</v>
       </c>
       <c r="O192" t="n">
-        <v>23530</v>
+        <v>23559</v>
       </c>
       <c r="P192" t="n">
         <v>-2020</v>
@@ -14466,10 +14466,10 @@
         <v>1510.7</v>
       </c>
       <c r="R192" t="n">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="S192" t="n">
-        <v>3585.6</v>
+        <v>3590.3</v>
       </c>
       <c r="T192" t="n">
         <v>10</v>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="W192" t="n">
         <v>17.9</v>
@@ -14504,19 +14504,19 @@
         <v>11209</v>
       </c>
       <c r="F193" t="n">
-        <v>2388</v>
+        <v>2537</v>
       </c>
       <c r="G193" t="n">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="H193" t="n">
-        <v>34221</v>
+        <v>34229</v>
       </c>
       <c r="I193" t="n">
-        <v>140303</v>
+        <v>140299</v>
       </c>
       <c r="J193" t="n">
-        <v>327334</v>
+        <v>327638</v>
       </c>
       <c r="K193" t="n">
         <v>44091</v>
@@ -14528,10 +14528,10 @@
         <v>7420</v>
       </c>
       <c r="N193" t="n">
-        <v>44860</v>
+        <v>44917</v>
       </c>
       <c r="O193" t="n">
-        <v>22664</v>
+        <v>22691</v>
       </c>
       <c r="P193" t="n">
         <v>18821</v>
@@ -14543,22 +14543,22 @@
         <v>2068</v>
       </c>
       <c r="S193" t="n">
-        <v>3656.9</v>
+        <v>3661</v>
       </c>
       <c r="T193" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U193" t="n">
         <v>0.1</v>
       </c>
       <c r="V193" t="n">
-        <v>21.7</v>
+        <v>23.3</v>
       </c>
       <c r="W193" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="X193" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194">
@@ -14578,19 +14578,19 @@
         <v>12286</v>
       </c>
       <c r="F194" t="n">
-        <v>2604</v>
+        <v>2662</v>
       </c>
       <c r="G194" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H194" t="n">
-        <v>34264</v>
+        <v>34268</v>
       </c>
       <c r="I194" t="n">
-        <v>140812</v>
+        <v>140808</v>
       </c>
       <c r="J194" t="n">
-        <v>331398</v>
+        <v>331705</v>
       </c>
       <c r="K194" t="n">
         <v>68618</v>
@@ -14602,10 +14602,10 @@
         <v>6015</v>
       </c>
       <c r="N194" t="n">
-        <v>46142</v>
+        <v>46198</v>
       </c>
       <c r="O194" t="n">
-        <v>22739</v>
+        <v>22763</v>
       </c>
       <c r="P194" t="n">
         <v>509</v>
@@ -14614,25 +14614,25 @@
         <v>1132.7</v>
       </c>
       <c r="R194" t="n">
-        <v>4064</v>
+        <v>4067</v>
       </c>
       <c r="S194" t="n">
-        <v>3818.3</v>
+        <v>3822.6</v>
       </c>
       <c r="T194" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U194" t="n">
         <v>0.1</v>
       </c>
       <c r="V194" t="n">
-        <v>31.7</v>
+        <v>33</v>
       </c>
       <c r="W194" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="X194" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195">
@@ -14652,19 +14652,19 @@
         <v>13771</v>
       </c>
       <c r="F195" t="n">
-        <v>2713</v>
+        <v>2746</v>
       </c>
       <c r="G195" t="n">
         <v>342</v>
       </c>
       <c r="H195" t="n">
-        <v>34296</v>
+        <v>34300</v>
       </c>
       <c r="I195" t="n">
-        <v>147565</v>
+        <v>147561</v>
       </c>
       <c r="J195" t="n">
-        <v>337119</v>
+        <v>337429</v>
       </c>
       <c r="K195" t="n">
         <v>72699</v>
@@ -14676,10 +14676,10 @@
         <v>10765</v>
       </c>
       <c r="N195" t="n">
-        <v>49058</v>
+        <v>49115</v>
       </c>
       <c r="O195" t="n">
-        <v>24591</v>
+        <v>24611</v>
       </c>
       <c r="P195" t="n">
         <v>6753</v>
@@ -14688,10 +14688,10 @@
         <v>1824</v>
       </c>
       <c r="R195" t="n">
-        <v>5721</v>
+        <v>5724</v>
       </c>
       <c r="S195" t="n">
-        <v>4065.7</v>
+        <v>4069.6</v>
       </c>
       <c r="T195" t="n">
         <v>32</v>
@@ -14700,13 +14700,13 @@
         <v>0.1</v>
       </c>
       <c r="V195" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="W195" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="X195" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196">
@@ -14726,34 +14726,34 @@
         <v>14167</v>
       </c>
       <c r="F196" t="n">
-        <v>2761</v>
+        <v>2870</v>
       </c>
       <c r="G196" t="n">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H196" t="n">
-        <v>34327</v>
+        <v>34331</v>
       </c>
       <c r="I196" t="n">
-        <v>149773</v>
+        <v>149769</v>
       </c>
       <c r="J196" t="n">
-        <v>342685</v>
+        <v>343004</v>
       </c>
       <c r="K196" t="n">
         <v>73628</v>
       </c>
       <c r="L196" t="n">
-        <v>35955</v>
+        <v>35956</v>
       </c>
       <c r="M196" t="n">
         <v>10856</v>
       </c>
       <c r="N196" t="n">
-        <v>48872</v>
+        <v>48932</v>
       </c>
       <c r="O196" t="n">
-        <v>25652</v>
+        <v>25679</v>
       </c>
       <c r="P196" t="n">
         <v>2208</v>
@@ -14762,10 +14762,10 @@
         <v>1853.3</v>
       </c>
       <c r="R196" t="n">
-        <v>5566</v>
+        <v>5575</v>
       </c>
       <c r="S196" t="n">
-        <v>4308.1</v>
+        <v>4312.3</v>
       </c>
       <c r="T196" t="n">
         <v>31</v>
@@ -14774,13 +14774,13 @@
         <v>0.1</v>
       </c>
       <c r="V196" t="n">
-        <v>35.3</v>
+        <v>34</v>
       </c>
       <c r="W196" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="X196" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197">
@@ -14791,7 +14791,7 @@
         <v>660</v>
       </c>
       <c r="C197" t="n">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="D197" t="n">
         <v>64224</v>
@@ -14800,61 +14800,61 @@
         <v>15048</v>
       </c>
       <c r="F197" t="n">
-        <v>2910</v>
+        <v>2976</v>
       </c>
       <c r="G197" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H197" t="n">
-        <v>34353</v>
+        <v>34361</v>
       </c>
       <c r="I197" t="n">
-        <v>152151</v>
+        <v>152148</v>
       </c>
       <c r="J197" t="n">
-        <v>348944</v>
+        <v>349271</v>
       </c>
       <c r="K197" t="n">
         <v>74281</v>
       </c>
       <c r="L197" t="n">
-        <v>36691</v>
+        <v>36692</v>
       </c>
       <c r="M197" t="n">
-        <v>28649</v>
+        <v>28650</v>
       </c>
       <c r="N197" t="n">
-        <v>51564</v>
+        <v>51624</v>
       </c>
       <c r="O197" t="n">
-        <v>26629</v>
+        <v>26656</v>
       </c>
       <c r="P197" t="n">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="Q197" t="n">
-        <v>1890.6</v>
+        <v>1890.7</v>
       </c>
       <c r="R197" t="n">
-        <v>6259</v>
+        <v>6267</v>
       </c>
       <c r="S197" t="n">
-        <v>4558.7</v>
+        <v>4563.7</v>
       </c>
       <c r="T197" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U197" t="n">
         <v>0.1</v>
       </c>
       <c r="V197" t="n">
-        <v>29.7</v>
+        <v>31</v>
       </c>
       <c r="W197" t="n">
-        <v>28.1</v>
+        <v>28.9</v>
       </c>
       <c r="X197" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198">
@@ -14874,55 +14874,55 @@
         <v>3952</v>
       </c>
       <c r="F198" t="n">
-        <v>3028</v>
+        <v>3044</v>
       </c>
       <c r="G198" t="n">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="H198" t="n">
         <v>34378</v>
       </c>
       <c r="I198" t="n">
-        <v>133855</v>
+        <v>133852</v>
       </c>
       <c r="J198" t="n">
-        <v>356094</v>
+        <v>356431</v>
       </c>
       <c r="K198" t="n">
         <v>67049</v>
       </c>
       <c r="L198" t="n">
-        <v>22948</v>
+        <v>22949</v>
       </c>
       <c r="M198" t="n">
-        <v>12373</v>
+        <v>12374</v>
       </c>
       <c r="N198" t="n">
-        <v>55927</v>
+        <v>55993</v>
       </c>
       <c r="O198" t="n">
-        <v>30828</v>
+        <v>30861</v>
       </c>
       <c r="P198" t="n">
         <v>-18296</v>
       </c>
       <c r="Q198" t="n">
-        <v>1479</v>
+        <v>1479.1</v>
       </c>
       <c r="R198" t="n">
-        <v>7150</v>
+        <v>7160</v>
       </c>
       <c r="S198" t="n">
-        <v>4825.6</v>
+        <v>4830.9</v>
       </c>
       <c r="T198" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U198" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V198" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="W198" t="n">
         <v>29.9</v>
@@ -14948,46 +14948,46 @@
         <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>3089</v>
+        <v>3102</v>
       </c>
       <c r="G199" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H199" t="n">
         <v>34393</v>
       </c>
       <c r="I199" t="n">
-        <v>130739</v>
+        <v>130736</v>
       </c>
       <c r="J199" t="n">
-        <v>360088</v>
+        <v>360428</v>
       </c>
       <c r="K199" t="n">
         <v>38239</v>
       </c>
       <c r="L199" t="n">
-        <v>6303</v>
+        <v>6304</v>
       </c>
       <c r="M199" t="n">
-        <v>-9564</v>
+        <v>-9563</v>
       </c>
       <c r="N199" t="n">
-        <v>58352</v>
+        <v>58417</v>
       </c>
       <c r="O199" t="n">
-        <v>32754</v>
+        <v>32790</v>
       </c>
       <c r="P199" t="n">
         <v>-3116</v>
       </c>
       <c r="Q199" t="n">
-        <v>1322.4</v>
+        <v>1322.6</v>
       </c>
       <c r="R199" t="n">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="S199" t="n">
-        <v>4974.6</v>
+        <v>4979.7</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="V199" t="n">
-        <v>22</v>
+        <v>20.7</v>
       </c>
       <c r="W199" t="n">
         <v>30.6</v>
@@ -15022,61 +15022,61 @@
         <v>1396</v>
       </c>
       <c r="F200" t="n">
-        <v>3206</v>
+        <v>3450</v>
       </c>
       <c r="G200" t="n">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="H200" t="n">
-        <v>34405</v>
+        <v>34423</v>
       </c>
       <c r="I200" t="n">
-        <v>131550</v>
+        <v>131547</v>
       </c>
       <c r="J200" t="n">
-        <v>362391</v>
+        <v>362731</v>
       </c>
       <c r="K200" t="n">
         <v>38411</v>
       </c>
       <c r="L200" t="n">
-        <v>-1333</v>
+        <v>-1332</v>
       </c>
       <c r="M200" t="n">
-        <v>-9262</v>
+        <v>-9261</v>
       </c>
       <c r="N200" t="n">
-        <v>57721</v>
+        <v>57784</v>
       </c>
       <c r="O200" t="n">
-        <v>30993</v>
+        <v>31026</v>
       </c>
       <c r="P200" t="n">
         <v>811</v>
       </c>
       <c r="Q200" t="n">
-        <v>-1250.4</v>
+        <v>-1250.3</v>
       </c>
       <c r="R200" t="n">
         <v>2303</v>
       </c>
       <c r="S200" t="n">
-        <v>5008.1</v>
+        <v>5013.3</v>
       </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="U200" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V200" t="n">
-        <v>17.3</v>
+        <v>20.7</v>
       </c>
       <c r="W200" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="X200" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201">
@@ -15096,61 +15096,61 @@
         <v>16780</v>
       </c>
       <c r="F201" t="n">
-        <v>3623</v>
+        <v>3711</v>
       </c>
       <c r="G201" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H201" t="n">
-        <v>34466</v>
+        <v>34475</v>
       </c>
       <c r="I201" t="n">
-        <v>159594</v>
+        <v>159591</v>
       </c>
       <c r="J201" t="n">
-        <v>367697</v>
+        <v>368041</v>
       </c>
       <c r="K201" t="n">
         <v>77273</v>
       </c>
       <c r="L201" t="n">
-        <v>24797</v>
+        <v>24798</v>
       </c>
       <c r="M201" t="n">
-        <v>12029</v>
+        <v>12030</v>
       </c>
       <c r="N201" t="n">
-        <v>59038</v>
+        <v>59099</v>
       </c>
       <c r="O201" t="n">
-        <v>30578</v>
+        <v>30612</v>
       </c>
       <c r="P201" t="n">
         <v>28044</v>
       </c>
       <c r="Q201" t="n">
-        <v>2683.1</v>
+        <v>2683.3</v>
       </c>
       <c r="R201" t="n">
-        <v>5306</v>
+        <v>5310</v>
       </c>
       <c r="S201" t="n">
-        <v>5185.6</v>
+        <v>5190.9</v>
       </c>
       <c r="T201" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="U201" t="n">
         <v>0.2</v>
       </c>
       <c r="V201" t="n">
-        <v>29.3</v>
+        <v>32.3</v>
       </c>
       <c r="W201" t="n">
-        <v>28.9</v>
+        <v>29.6</v>
       </c>
       <c r="X201" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202">
@@ -15170,61 +15170,61 @@
         <v>16980</v>
       </c>
       <c r="F202" t="n">
-        <v>3774</v>
+        <v>3881</v>
       </c>
       <c r="G202" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H202" t="n">
-        <v>34510</v>
+        <v>34518</v>
       </c>
       <c r="I202" t="n">
-        <v>162052</v>
+        <v>162049</v>
       </c>
       <c r="J202" t="n">
-        <v>375215</v>
+        <v>375571</v>
       </c>
       <c r="K202" t="n">
         <v>78391</v>
       </c>
       <c r="L202" t="n">
-        <v>25252</v>
+        <v>25253</v>
       </c>
       <c r="M202" t="n">
-        <v>12279</v>
+        <v>12280</v>
       </c>
       <c r="N202" t="n">
-        <v>62687</v>
+        <v>62753</v>
       </c>
       <c r="O202" t="n">
-        <v>32530</v>
+        <v>32567</v>
       </c>
       <c r="P202" t="n">
         <v>2458</v>
       </c>
       <c r="Q202" t="n">
-        <v>2069.6</v>
+        <v>2069.7</v>
       </c>
       <c r="R202" t="n">
-        <v>7518</v>
+        <v>7530</v>
       </c>
       <c r="S202" t="n">
-        <v>5442.3</v>
+        <v>5448.9</v>
       </c>
       <c r="T202" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U202" t="n">
         <v>0.1</v>
       </c>
       <c r="V202" t="n">
-        <v>39</v>
+        <v>41.7</v>
       </c>
       <c r="W202" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="X202" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203">
@@ -15244,61 +15244,61 @@
         <v>15371</v>
       </c>
       <c r="F203" t="n">
-        <v>3954</v>
+        <v>4038</v>
       </c>
       <c r="G203" t="n">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H203" t="n">
-        <v>34550</v>
+        <v>34557</v>
       </c>
       <c r="I203" t="n">
-        <v>164736</v>
+        <v>164733</v>
       </c>
       <c r="J203" t="n">
-        <v>382785</v>
+        <v>383154</v>
       </c>
       <c r="K203" t="n">
         <v>75978</v>
       </c>
       <c r="L203" t="n">
-        <v>25819</v>
+        <v>25820</v>
       </c>
       <c r="M203" t="n">
         <v>12585</v>
       </c>
       <c r="N203" t="n">
-        <v>65752</v>
+        <v>65829</v>
       </c>
       <c r="O203" t="n">
-        <v>33841</v>
+        <v>33883</v>
       </c>
       <c r="P203" t="n">
         <v>2684</v>
       </c>
       <c r="Q203" t="n">
-        <v>2137.6</v>
+        <v>2137.7</v>
       </c>
       <c r="R203" t="n">
-        <v>7570</v>
+        <v>7583</v>
       </c>
       <c r="S203" t="n">
-        <v>5728.6</v>
+        <v>5735.7</v>
       </c>
       <c r="T203" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U203" t="n">
         <v>0.1</v>
       </c>
       <c r="V203" t="n">
-        <v>48.3</v>
+        <v>44.7</v>
       </c>
       <c r="W203" t="n">
-        <v>31.9</v>
+        <v>32.3</v>
       </c>
       <c r="X203" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204">
@@ -15318,34 +15318,34 @@
         <v>3714</v>
       </c>
       <c r="F204" t="n">
-        <v>4088</v>
+        <v>4164</v>
       </c>
       <c r="G204" t="n">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H204" t="n">
-        <v>34572</v>
+        <v>34584</v>
       </c>
       <c r="I204" t="n">
-        <v>143676</v>
+        <v>143673</v>
       </c>
       <c r="J204" t="n">
-        <v>390419</v>
+        <v>390795</v>
       </c>
       <c r="K204" t="n">
         <v>66348</v>
       </c>
       <c r="L204" t="n">
-        <v>20174</v>
+        <v>20175</v>
       </c>
       <c r="M204" t="n">
         <v>9821</v>
       </c>
       <c r="N204" t="n">
-        <v>68104</v>
+        <v>68180</v>
       </c>
       <c r="O204" t="n">
-        <v>34325</v>
+        <v>34364</v>
       </c>
       <c r="P204" t="n">
         <v>-21060</v>
@@ -15354,25 +15354,25 @@
         <v>-1210.7</v>
       </c>
       <c r="R204" t="n">
-        <v>7634</v>
+        <v>7641</v>
       </c>
       <c r="S204" t="n">
-        <v>5925</v>
+        <v>5932</v>
       </c>
       <c r="T204" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="U204" t="n">
         <v>0.1</v>
       </c>
       <c r="V204" t="n">
-        <v>35.3</v>
+        <v>36.3</v>
       </c>
       <c r="W204" t="n">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="X204" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205">
@@ -15383,7 +15383,7 @@
         <v>921</v>
       </c>
       <c r="C205" t="n">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="D205" t="n">
         <v>64579</v>
@@ -15392,55 +15392,55 @@
         <v>3984</v>
       </c>
       <c r="F205" t="n">
-        <v>4163</v>
+        <v>4155</v>
       </c>
       <c r="G205" t="n">
-        <v>526</v>
+        <v>389</v>
       </c>
       <c r="H205" t="n">
         <v>34600</v>
       </c>
       <c r="I205" t="n">
-        <v>146084</v>
+        <v>146082</v>
       </c>
       <c r="J205" t="n">
-        <v>399322</v>
+        <v>399720</v>
       </c>
       <c r="K205" t="n">
         <v>66995</v>
       </c>
       <c r="L205" t="n">
-        <v>24602</v>
+        <v>24604</v>
       </c>
       <c r="M205" t="n">
-        <v>15345</v>
+        <v>15346</v>
       </c>
       <c r="N205" t="n">
-        <v>74056</v>
+        <v>74150</v>
       </c>
       <c r="O205" t="n">
-        <v>39234</v>
+        <v>39292</v>
       </c>
       <c r="P205" t="n">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="Q205" t="n">
-        <v>1747</v>
+        <v>1747.1</v>
       </c>
       <c r="R205" t="n">
-        <v>8903</v>
+        <v>8925</v>
       </c>
       <c r="S205" t="n">
-        <v>6175.4</v>
+        <v>6184.1</v>
       </c>
       <c r="T205" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U205" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V205" t="n">
-        <v>30</v>
+        <v>27.3</v>
       </c>
       <c r="W205" t="n">
         <v>31.7</v>
@@ -15466,46 +15466,46 @@
         <v>2562</v>
       </c>
       <c r="F206" t="n">
-        <v>4175</v>
+        <v>4194</v>
       </c>
       <c r="G206" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H206" t="n">
         <v>34614</v>
       </c>
       <c r="I206" t="n">
-        <v>142016</v>
+        <v>142014</v>
       </c>
       <c r="J206" t="n">
-        <v>404319</v>
+        <v>404723</v>
       </c>
       <c r="K206" t="n">
         <v>39258</v>
       </c>
       <c r="L206" t="n">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="M206" t="n">
-        <v>10466</v>
+        <v>10467</v>
       </c>
       <c r="N206" t="n">
-        <v>76985</v>
+        <v>77085</v>
       </c>
       <c r="O206" t="n">
-        <v>41928</v>
+        <v>41992</v>
       </c>
       <c r="P206" t="n">
         <v>-4068</v>
       </c>
       <c r="Q206" t="n">
-        <v>1611</v>
+        <v>1611.1</v>
       </c>
       <c r="R206" t="n">
-        <v>4997</v>
+        <v>5003</v>
       </c>
       <c r="S206" t="n">
-        <v>6318.7</v>
+        <v>6327.9</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -15514,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="V206" t="n">
-        <v>21.3</v>
+        <v>19</v>
       </c>
       <c r="W206" t="n">
         <v>31.6</v>
@@ -15540,61 +15540,61 @@
         <v>14504</v>
       </c>
       <c r="F207" t="n">
-        <v>4247</v>
+        <v>4545</v>
       </c>
       <c r="G207" t="n">
-        <v>338</v>
+        <v>507</v>
       </c>
       <c r="H207" t="n">
-        <v>34676</v>
+        <v>34705</v>
       </c>
       <c r="I207" t="n">
-        <v>167798</v>
+        <v>167796</v>
       </c>
       <c r="J207" t="n">
-        <v>407257</v>
+        <v>407662</v>
       </c>
       <c r="K207" t="n">
         <v>51133</v>
       </c>
       <c r="L207" t="n">
-        <v>26986</v>
+        <v>26988</v>
       </c>
       <c r="M207" t="n">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="N207" t="n">
-        <v>75859</v>
+        <v>75957</v>
       </c>
       <c r="O207" t="n">
-        <v>39560</v>
+        <v>39621</v>
       </c>
       <c r="P207" t="n">
         <v>25782</v>
       </c>
       <c r="Q207" t="n">
-        <v>5178.3</v>
+        <v>5178.4</v>
       </c>
       <c r="R207" t="n">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="S207" t="n">
-        <v>6409.4</v>
+        <v>6418.7</v>
       </c>
       <c r="T207" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="U207" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V207" t="n">
-        <v>34.7</v>
+        <v>40.3</v>
       </c>
       <c r="W207" t="n">
-        <v>38.7</v>
+        <v>40.3</v>
       </c>
       <c r="X207" t="n">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="208">
@@ -15605,7 +15605,7 @@
         <v>969</v>
       </c>
       <c r="C208" t="n">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="D208" t="n">
         <v>64682</v>
@@ -15614,61 +15614,61 @@
         <v>15874</v>
       </c>
       <c r="F208" t="n">
-        <v>4817</v>
+        <v>4939</v>
       </c>
       <c r="G208" t="n">
         <v>605</v>
       </c>
       <c r="H208" t="n">
-        <v>34748</v>
+        <v>34761</v>
       </c>
       <c r="I208" t="n">
-        <v>175586</v>
+        <v>175583</v>
       </c>
       <c r="J208" t="n">
-        <v>413354</v>
+        <v>413763</v>
       </c>
       <c r="K208" t="n">
         <v>80825</v>
       </c>
       <c r="L208" t="n">
-        <v>28021</v>
+        <v>28022</v>
       </c>
       <c r="M208" t="n">
         <v>13534</v>
       </c>
       <c r="N208" t="n">
-        <v>76235</v>
+        <v>76334</v>
       </c>
       <c r="O208" t="n">
-        <v>38139</v>
+        <v>38192</v>
       </c>
       <c r="P208" t="n">
-        <v>7788</v>
+        <v>7787</v>
       </c>
       <c r="Q208" t="n">
         <v>2284.6</v>
       </c>
       <c r="R208" t="n">
-        <v>6097</v>
+        <v>6101</v>
       </c>
       <c r="S208" t="n">
-        <v>6522.4</v>
+        <v>6531.7</v>
       </c>
       <c r="T208" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="U208" t="n">
         <v>0.2</v>
       </c>
       <c r="V208" t="n">
-        <v>49.3</v>
+        <v>53.7</v>
       </c>
       <c r="W208" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="X208" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="209">
@@ -15688,34 +15688,34 @@
         <v>16386</v>
       </c>
       <c r="F209" t="n">
-        <v>4997</v>
+        <v>5110</v>
       </c>
       <c r="G209" t="n">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="H209" t="n">
-        <v>34789</v>
+        <v>34799</v>
       </c>
       <c r="I209" t="n">
-        <v>179093</v>
+        <v>179090</v>
       </c>
       <c r="J209" t="n">
-        <v>423394</v>
+        <v>423818</v>
       </c>
       <c r="K209" t="n">
         <v>82442</v>
       </c>
       <c r="L209" t="n">
-        <v>29320</v>
+        <v>29321</v>
       </c>
       <c r="M209" t="n">
         <v>14357</v>
       </c>
       <c r="N209" t="n">
-        <v>80709</v>
+        <v>80814</v>
       </c>
       <c r="O209" t="n">
-        <v>40609</v>
+        <v>40664</v>
       </c>
       <c r="P209" t="n">
         <v>3507</v>
@@ -15724,25 +15724,25 @@
         <v>2434.4</v>
       </c>
       <c r="R209" t="n">
-        <v>10040</v>
+        <v>10055</v>
       </c>
       <c r="S209" t="n">
-        <v>6882.7</v>
+        <v>6892.4</v>
       </c>
       <c r="T209" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U209" t="n">
         <v>0.1</v>
       </c>
       <c r="V209" t="n">
-        <v>58.3</v>
+        <v>61.7</v>
       </c>
       <c r="W209" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="X209" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210">
@@ -15753,7 +15753,7 @@
         <v>1420</v>
       </c>
       <c r="C210" t="n">
-        <v>4697</v>
+        <v>4703</v>
       </c>
       <c r="D210" t="n">
         <v>64780</v>
@@ -15762,61 +15762,61 @@
         <v>16572</v>
       </c>
       <c r="F210" t="n">
-        <v>5110</v>
+        <v>5193</v>
       </c>
       <c r="G210" t="n">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="H210" t="n">
-        <v>34827</v>
+        <v>34842</v>
       </c>
       <c r="I210" t="n">
-        <v>182195</v>
+        <v>182198</v>
       </c>
       <c r="J210" t="n">
-        <v>432584</v>
+        <v>433033</v>
       </c>
       <c r="K210" t="n">
         <v>83830</v>
       </c>
       <c r="L210" t="n">
-        <v>30044</v>
+        <v>30050</v>
       </c>
       <c r="M210" t="n">
-        <v>38519</v>
+        <v>38525</v>
       </c>
       <c r="N210" t="n">
-        <v>83640</v>
+        <v>83762</v>
       </c>
       <c r="O210" t="n">
-        <v>42165</v>
+        <v>42238</v>
       </c>
       <c r="P210" t="n">
-        <v>3102</v>
+        <v>3108</v>
       </c>
       <c r="Q210" t="n">
-        <v>2494.1</v>
+        <v>2495</v>
       </c>
       <c r="R210" t="n">
-        <v>9190</v>
+        <v>9215</v>
       </c>
       <c r="S210" t="n">
-        <v>7114.1</v>
+        <v>7125.6</v>
       </c>
       <c r="T210" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U210" t="n">
         <v>0.1</v>
       </c>
       <c r="V210" t="n">
-        <v>50.3</v>
+        <v>45.7</v>
       </c>
       <c r="W210" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="X210" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="211">
@@ -15836,61 +15836,61 @@
         <v>6566</v>
       </c>
       <c r="F211" t="n">
-        <v>5239</v>
+        <v>5306</v>
       </c>
       <c r="G211" t="n">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="H211" t="n">
-        <v>34863</v>
+        <v>34880</v>
       </c>
       <c r="I211" t="n">
-        <v>159664</v>
+        <v>159667</v>
       </c>
       <c r="J211" t="n">
-        <v>441591</v>
+        <v>442072</v>
       </c>
       <c r="K211" t="n">
         <v>71219</v>
       </c>
       <c r="L211" t="n">
-        <v>25809</v>
+        <v>25815</v>
       </c>
       <c r="M211" t="n">
-        <v>13580</v>
+        <v>13585</v>
       </c>
       <c r="N211" t="n">
-        <v>85497</v>
+        <v>85641</v>
       </c>
       <c r="O211" t="n">
-        <v>42269</v>
+        <v>42352</v>
       </c>
       <c r="P211" t="n">
         <v>-22531</v>
       </c>
       <c r="Q211" t="n">
-        <v>2284</v>
+        <v>2284.9</v>
       </c>
       <c r="R211" t="n">
-        <v>9007</v>
+        <v>9039</v>
       </c>
       <c r="S211" t="n">
-        <v>7310.3</v>
+        <v>7325.3</v>
       </c>
       <c r="T211" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U211" t="n">
         <v>0.1</v>
       </c>
       <c r="V211" t="n">
-        <v>38.3</v>
+        <v>39.7</v>
       </c>
       <c r="W211" t="n">
-        <v>41.6</v>
+        <v>42.3</v>
       </c>
       <c r="X211" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212">
@@ -15910,55 +15910,55 @@
         <v>6856</v>
       </c>
       <c r="F212" t="n">
-        <v>5353</v>
+        <v>5378</v>
       </c>
       <c r="G212" t="n">
-        <v>697</v>
+        <v>506</v>
       </c>
       <c r="H212" t="n">
         <v>34908</v>
       </c>
       <c r="I212" t="n">
-        <v>162274</v>
+        <v>162277</v>
       </c>
       <c r="J212" t="n">
-        <v>451213</v>
+        <v>452017</v>
       </c>
       <c r="K212" t="n">
         <v>72209</v>
       </c>
       <c r="L212" t="n">
-        <v>31535</v>
+        <v>31541</v>
       </c>
       <c r="M212" t="n">
-        <v>20258</v>
+        <v>20263</v>
       </c>
       <c r="N212" t="n">
-        <v>91125</v>
+        <v>91589</v>
       </c>
       <c r="O212" t="n">
-        <v>46894</v>
+        <v>47294</v>
       </c>
       <c r="P212" t="n">
         <v>2610</v>
       </c>
       <c r="Q212" t="n">
-        <v>2312.9</v>
+        <v>2313.6</v>
       </c>
       <c r="R212" t="n">
-        <v>9622</v>
+        <v>9945</v>
       </c>
       <c r="S212" t="n">
-        <v>7413</v>
+        <v>7471</v>
       </c>
       <c r="T212" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="U212" t="n">
         <v>0.1</v>
       </c>
       <c r="V212" t="n">
-        <v>39.7</v>
+        <v>36.3</v>
       </c>
       <c r="W212" t="n">
         <v>44</v>
@@ -15975,7 +15975,7 @@
         <v>1169</v>
       </c>
       <c r="C213" t="n">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="D213" t="n">
         <v>64892</v>
@@ -15984,46 +15984,46 @@
         <v>4710</v>
       </c>
       <c r="F213" t="n">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="G213" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H213" t="n">
         <v>31827</v>
       </c>
       <c r="I213" t="n">
-        <v>156003</v>
+        <v>156007</v>
       </c>
       <c r="J213" t="n">
-        <v>431661</v>
+        <v>432471</v>
       </c>
       <c r="K213" t="n">
         <v>40644</v>
       </c>
       <c r="L213" t="n">
-        <v>24453</v>
+        <v>24460</v>
       </c>
       <c r="M213" t="n">
-        <v>-11795</v>
+        <v>-11789</v>
       </c>
       <c r="N213" t="n">
-        <v>69270</v>
+        <v>69740</v>
       </c>
       <c r="O213" t="n">
-        <v>24404</v>
+        <v>24809</v>
       </c>
       <c r="P213" t="n">
-        <v>-6271</v>
+        <v>-6270</v>
       </c>
       <c r="Q213" t="n">
-        <v>1998.1</v>
+        <v>1999</v>
       </c>
       <c r="R213" t="n">
-        <v>-19552</v>
+        <v>-19546</v>
       </c>
       <c r="S213" t="n">
-        <v>3906</v>
+        <v>3964</v>
       </c>
       <c r="T213" t="n">
         <v>-3081</v>
@@ -16032,7 +16032,7 @@
         <v>-8.8</v>
       </c>
       <c r="V213" t="n">
-        <v>-1000</v>
+        <v>-1005</v>
       </c>
       <c r="W213" t="n">
         <v>-398.1</v>
@@ -16049,7 +16049,7 @@
         <v>1300</v>
       </c>
       <c r="C214" t="n">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="D214" t="n">
         <v>64890</v>
@@ -16058,61 +16058,61 @@
         <v>14817</v>
       </c>
       <c r="F214" t="n">
-        <v>5330</v>
+        <v>5606</v>
       </c>
       <c r="G214" t="n">
-        <v>290</v>
+        <v>639</v>
       </c>
       <c r="H214" t="n">
-        <v>31854</v>
+        <v>31910</v>
       </c>
       <c r="I214" t="n">
-        <v>183811</v>
+        <v>183822</v>
       </c>
       <c r="J214" t="n">
-        <v>435543</v>
+        <v>436196</v>
       </c>
       <c r="K214" t="n">
         <v>56259</v>
       </c>
       <c r="L214" t="n">
-        <v>24217</v>
+        <v>24231</v>
       </c>
       <c r="M214" t="n">
-        <v>8225</v>
+        <v>8239</v>
       </c>
       <c r="N214" t="n">
-        <v>67846</v>
+        <v>68155</v>
       </c>
       <c r="O214" t="n">
-        <v>22189</v>
+        <v>22433</v>
       </c>
       <c r="P214" t="n">
-        <v>27808</v>
+        <v>27815</v>
       </c>
       <c r="Q214" t="n">
-        <v>2287.6</v>
+        <v>2289.4</v>
       </c>
       <c r="R214" t="n">
-        <v>3882</v>
+        <v>3725</v>
       </c>
       <c r="S214" t="n">
-        <v>4040.9</v>
+        <v>4076.3</v>
       </c>
       <c r="T214" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="U214" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V214" t="n">
-        <v>-1003</v>
+        <v>-990</v>
       </c>
       <c r="W214" t="n">
-        <v>-403.1</v>
+        <v>-399.3</v>
       </c>
       <c r="X214" t="n">
-        <v>-2822</v>
+        <v>-2795</v>
       </c>
     </row>
     <row r="215">
@@ -16123,70 +16123,70 @@
         <v>1463</v>
       </c>
       <c r="C215" t="n">
-        <v>4967</v>
+        <v>5447</v>
       </c>
       <c r="D215" t="n">
         <v>65084</v>
       </c>
       <c r="E215" t="n">
-        <v>8497</v>
+        <v>17745</v>
       </c>
       <c r="F215" t="n">
-        <v>5968</v>
+        <v>6063</v>
       </c>
       <c r="G215" t="n">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="H215" t="n">
-        <v>34280</v>
+        <v>34533</v>
       </c>
       <c r="I215" t="n">
-        <v>162357</v>
+        <v>194439</v>
       </c>
       <c r="J215" t="n">
-        <v>458229</v>
+        <v>463520</v>
       </c>
       <c r="K215" t="n">
-        <v>64924</v>
+        <v>84786</v>
       </c>
       <c r="L215" t="n">
-        <v>305</v>
+        <v>32390</v>
       </c>
       <c r="M215" t="n">
-        <v>-16736</v>
+        <v>15349</v>
       </c>
       <c r="N215" t="n">
-        <v>83014</v>
+        <v>87949</v>
       </c>
       <c r="O215" t="n">
-        <v>34835</v>
+        <v>39702</v>
       </c>
       <c r="P215" t="n">
-        <v>-21454</v>
+        <v>10617</v>
       </c>
       <c r="Q215" t="n">
-        <v>-1889.9</v>
+        <v>2693.7</v>
       </c>
       <c r="R215" t="n">
-        <v>22686</v>
+        <v>27324</v>
       </c>
       <c r="S215" t="n">
-        <v>6410.7</v>
+        <v>7108.1</v>
       </c>
       <c r="T215" t="n">
-        <v>2426</v>
+        <v>2623</v>
       </c>
       <c r="U215" t="n">
-        <v>7.6</v>
+        <v>8.2</v>
       </c>
       <c r="V215" t="n">
-        <v>-209.3</v>
+        <v>-125</v>
       </c>
       <c r="W215" t="n">
-        <v>-66.9</v>
+        <v>-32.6</v>
       </c>
       <c r="X215" t="n">
-        <v>-468</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="216">
@@ -16197,70 +16197,70 @@
         <v>1154</v>
       </c>
       <c r="C216" t="n">
-        <v>2561</v>
+        <v>3590</v>
       </c>
       <c r="D216" t="n">
-        <v>65179</v>
+        <v>65195</v>
       </c>
       <c r="E216" t="n">
-        <v>7868</v>
+        <v>16732</v>
       </c>
       <c r="F216" t="n">
-        <v>5475</v>
+        <v>6112</v>
       </c>
       <c r="G216" t="n">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="H216" t="n">
-        <v>33131</v>
+        <v>34603</v>
       </c>
       <c r="I216" t="n">
-        <v>163346</v>
+        <v>196475</v>
       </c>
       <c r="J216" t="n">
-        <v>435592</v>
+        <v>471007</v>
       </c>
       <c r="K216" t="n">
-        <v>48582</v>
+        <v>87182</v>
       </c>
       <c r="L216" t="n">
-        <v>-1390</v>
+        <v>31742</v>
       </c>
       <c r="M216" t="n">
-        <v>-18849</v>
+        <v>14277</v>
       </c>
       <c r="N216" t="n">
-        <v>52807</v>
+        <v>87853</v>
       </c>
       <c r="O216" t="n">
-        <v>3008</v>
+        <v>37974</v>
       </c>
       <c r="P216" t="n">
-        <v>989</v>
+        <v>2036</v>
       </c>
       <c r="Q216" t="n">
-        <v>-2249.6</v>
+        <v>2483.6</v>
       </c>
       <c r="R216" t="n">
-        <v>-22637</v>
+        <v>7487</v>
       </c>
       <c r="S216" t="n">
-        <v>1742.6</v>
+        <v>6741.3</v>
       </c>
       <c r="T216" t="n">
-        <v>-1149</v>
+        <v>70</v>
       </c>
       <c r="U216" t="n">
-        <v>-3.4</v>
+        <v>0.2</v>
       </c>
       <c r="V216" t="n">
-        <v>434.7</v>
+        <v>925.3</v>
       </c>
       <c r="W216" t="n">
-        <v>-236.9</v>
+        <v>-28</v>
       </c>
       <c r="X216" t="n">
-        <v>-1658</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="217">
@@ -16268,73 +16268,147 @@
         <v>44076</v>
       </c>
       <c r="B217" t="n">
-        <v>1021</v>
+        <v>1451</v>
       </c>
       <c r="C217" t="n">
-        <v>1182</v>
+        <v>2885</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>65246</v>
       </c>
       <c r="E217" t="n">
-        <v>8062</v>
+        <v>16825</v>
       </c>
       <c r="F217" t="n">
-        <v>3860</v>
+        <v>6174</v>
       </c>
       <c r="G217" t="n">
-        <v>496</v>
+        <v>714</v>
       </c>
       <c r="H217" t="n">
-        <v>16438</v>
+        <v>34642</v>
       </c>
       <c r="I217" t="n">
-        <v>34075</v>
+        <v>198124</v>
       </c>
       <c r="J217" t="n">
-        <v>252491</v>
+        <v>476586</v>
       </c>
       <c r="K217" t="n">
-        <v>24444</v>
+        <v>63559</v>
       </c>
       <c r="L217" t="n">
-        <v>-109601</v>
+        <v>54451</v>
       </c>
       <c r="M217" t="n">
-        <v>-125589</v>
+        <v>38457</v>
       </c>
       <c r="N217" t="n">
-        <v>-137928</v>
+        <v>85791</v>
       </c>
       <c r="O217" t="n">
-        <v>-189100</v>
+        <v>34514</v>
       </c>
       <c r="P217" t="n">
-        <v>-129271</v>
+        <v>1649</v>
       </c>
       <c r="Q217" t="n">
-        <v>-21160</v>
+        <v>2275.1</v>
       </c>
       <c r="R217" t="n">
-        <v>-183101</v>
+        <v>5579</v>
       </c>
       <c r="S217" t="n">
-        <v>-25727.6</v>
+        <v>6221.9</v>
       </c>
       <c r="T217" t="n">
-        <v>-16693</v>
+        <v>39</v>
       </c>
       <c r="U217" t="n">
-        <v>-50.4</v>
+        <v>0.1</v>
       </c>
       <c r="V217" t="n">
-        <v>-5138.7</v>
+        <v>910.7</v>
       </c>
       <c r="W217" t="n">
-        <v>-2627</v>
+        <v>-28.6</v>
       </c>
       <c r="X217" t="n">
-        <v>-18389</v>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>44077</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>8429</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1881</v>
+      </c>
+      <c r="G218" t="n">
+        <v>175</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6974</v>
+      </c>
+      <c r="I218" t="n">
+        <v>35065</v>
+      </c>
+      <c r="J218" t="n">
+        <v>122622</v>
+      </c>
+      <c r="K218" t="n">
+        <v>68851</v>
+      </c>
+      <c r="L218" t="n">
+        <v>-111017</v>
+      </c>
+      <c r="M218" t="n">
+        <v>-127212</v>
+      </c>
+      <c r="N218" t="n">
+        <v>-277098</v>
+      </c>
+      <c r="O218" t="n">
+        <v>-329395</v>
+      </c>
+      <c r="P218" t="n">
+        <v>-163059</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>-17800.3</v>
+      </c>
+      <c r="R218" t="n">
+        <v>-353964</v>
+      </c>
+      <c r="S218" t="n">
+        <v>-45635.7</v>
+      </c>
+      <c r="T218" t="n">
+        <v>-27668</v>
+      </c>
+      <c r="U218" t="n">
+        <v>-79.9</v>
+      </c>
+      <c r="V218" t="n">
+        <v>-9186.3</v>
+      </c>
+      <c r="W218" t="n">
+        <v>-3986.6</v>
+      </c>
+      <c r="X218" t="n">
+        <v>-27906</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/covid19-spain_consolidated.xlsx
+++ b/data/output/covid19-spain_consolidated.xlsx
@@ -866,13 +866,9 @@
         <v>0</v>
       </c>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M8"/>
       <c r="N8"/>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
+      <c r="O8"/>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -1349,15 +1345,11 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
+      <c r="L15"/>
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -1501,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1575,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2016,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2090,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -2315,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2685,13 +2677,13 @@
         <v>133</v>
       </c>
       <c r="M33" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N33" t="n">
         <v>118</v>
       </c>
       <c r="O33" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P33" t="n">
         <v>59</v>
@@ -2759,13 +2751,13 @@
         <v>195</v>
       </c>
       <c r="M34" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N34" t="n">
         <v>172</v>
       </c>
       <c r="O34" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P34" t="n">
         <v>62</v>
@@ -2830,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="N35" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P35" t="n">
         <v>71</v>
@@ -2907,13 +2899,13 @@
         <v>436</v>
       </c>
       <c r="M36" t="n">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="N36" t="n">
         <v>385</v>
       </c>
       <c r="O36" t="n">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P36" t="n">
         <v>171</v>
@@ -2981,13 +2973,13 @@
         <v>700</v>
       </c>
       <c r="M37" t="n">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="N37" t="n">
         <v>619</v>
       </c>
       <c r="O37" t="n">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="P37" t="n">
         <v>264</v>
@@ -3034,7 +3026,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G38" t="n">
         <v>16</v>
@@ -3055,13 +3047,13 @@
         <v>1002</v>
       </c>
       <c r="M38" t="n">
-        <v>929</v>
+        <v>960</v>
       </c>
       <c r="N38" t="n">
         <v>885</v>
       </c>
       <c r="O38" t="n">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="P38" t="n">
         <v>302</v>
@@ -3108,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G39" t="n">
         <v>18</v>
@@ -3129,13 +3121,13 @@
         <v>1373</v>
       </c>
       <c r="M39" t="n">
-        <v>1241</v>
+        <v>1300</v>
       </c>
       <c r="N39" t="n">
         <v>1202</v>
       </c>
       <c r="O39" t="n">
-        <v>1085</v>
+        <v>1143</v>
       </c>
       <c r="P39" t="n">
         <v>371</v>
@@ -3182,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -3200,16 +3192,16 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="M40" t="n">
-        <v>1837</v>
+        <v>1899</v>
       </c>
       <c r="N40" t="n">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="O40" t="n">
-        <v>1635</v>
+        <v>1689</v>
       </c>
       <c r="P40" t="n">
         <v>658</v>
@@ -3256,7 +3248,7 @@
         <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -3274,16 +3266,16 @@
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>2975</v>
+        <v>2980</v>
       </c>
       <c r="M41" t="n">
-        <v>2716</v>
+        <v>2787</v>
       </c>
       <c r="N41" t="n">
-        <v>2672</v>
+        <v>2677</v>
       </c>
       <c r="O41" t="n">
-        <v>2434</v>
+        <v>2507</v>
       </c>
       <c r="P41" t="n">
         <v>950</v>
@@ -3330,7 +3322,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -3348,16 +3340,16 @@
         <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>4024</v>
+        <v>4033</v>
       </c>
       <c r="M42" t="n">
-        <v>3603</v>
+        <v>3774</v>
       </c>
       <c r="N42" t="n">
-        <v>3618</v>
+        <v>3622</v>
       </c>
       <c r="O42" t="n">
-        <v>3243</v>
+        <v>3384</v>
       </c>
       <c r="P42" t="n">
         <v>1058</v>
@@ -3404,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -3422,16 +3414,16 @@
         <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>5300</v>
+        <v>5313</v>
       </c>
       <c r="M43" t="n">
-        <v>4628</v>
+        <v>4892</v>
       </c>
       <c r="N43" t="n">
-        <v>4769</v>
+        <v>4781</v>
       </c>
       <c r="O43" t="n">
-        <v>4172</v>
+        <v>4406</v>
       </c>
       <c r="P43" t="n">
         <v>1289</v>
@@ -3478,7 +3470,7 @@
         <v>68</v>
       </c>
       <c r="F44" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G44" t="n">
         <v>219</v>
@@ -3496,16 +3488,16 @@
         <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>7356</v>
+        <v>7370</v>
       </c>
       <c r="M44" t="n">
-        <v>6396</v>
+        <v>6698</v>
       </c>
       <c r="N44" t="n">
-        <v>6201</v>
+        <v>6211</v>
       </c>
       <c r="O44" t="n">
-        <v>5348</v>
+        <v>5614</v>
       </c>
       <c r="P44" t="n">
         <v>2070</v>
@@ -3552,7 +3544,7 @@
         <v>109</v>
       </c>
       <c r="F45" t="n">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="G45" t="n">
         <v>232</v>
@@ -3570,16 +3562,16 @@
         <v>14</v>
       </c>
       <c r="L45" t="n">
-        <v>9254</v>
+        <v>9285</v>
       </c>
       <c r="M45" t="n">
-        <v>7954</v>
+        <v>8325</v>
       </c>
       <c r="N45" t="n">
-        <v>7557</v>
+        <v>7584</v>
       </c>
       <c r="O45" t="n">
-        <v>6414</v>
+        <v>6731</v>
       </c>
       <c r="P45" t="n">
         <v>1929</v>
@@ -3626,7 +3618,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="G46" t="n">
         <v>318</v>
@@ -3644,16 +3636,16 @@
         <v>13</v>
       </c>
       <c r="L46" t="n">
-        <v>11258</v>
+        <v>11317</v>
       </c>
       <c r="M46" t="n">
-        <v>9359</v>
+        <v>10017</v>
       </c>
       <c r="N46" t="n">
-        <v>8962</v>
+        <v>9020</v>
       </c>
       <c r="O46" t="n">
-        <v>7273</v>
+        <v>7877</v>
       </c>
       <c r="P46" t="n">
         <v>2063</v>
@@ -3700,7 +3692,7 @@
         <v>134</v>
       </c>
       <c r="F47" t="n">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="G47" t="n">
         <v>346</v>
@@ -3718,16 +3710,16 @@
         <v>18</v>
       </c>
       <c r="L47" t="n">
-        <v>13639</v>
+        <v>13701</v>
       </c>
       <c r="M47" t="n">
-        <v>10852</v>
+        <v>11802</v>
       </c>
       <c r="N47" t="n">
-        <v>11074</v>
+        <v>11128</v>
       </c>
       <c r="O47" t="n">
-        <v>8567</v>
+        <v>9439</v>
       </c>
       <c r="P47" t="n">
         <v>2443</v>
@@ -3774,7 +3766,7 @@
         <v>152</v>
       </c>
       <c r="F48" t="n">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="G48" t="n">
         <v>482</v>
@@ -3792,16 +3784,16 @@
         <v>34</v>
       </c>
       <c r="L48" t="n">
-        <v>17316</v>
+        <v>17387</v>
       </c>
       <c r="M48" t="n">
-        <v>13542</v>
+        <v>14600</v>
       </c>
       <c r="N48" t="n">
-        <v>14052</v>
+        <v>14125</v>
       </c>
       <c r="O48" t="n">
-        <v>10668</v>
+        <v>11618</v>
       </c>
       <c r="P48" t="n">
         <v>3748</v>
@@ -3866,16 +3858,16 @@
         <v>43</v>
       </c>
       <c r="L49" t="n">
-        <v>20323</v>
+        <v>20494</v>
       </c>
       <c r="M49" t="n">
-        <v>15431</v>
+        <v>16720</v>
       </c>
       <c r="N49" t="n">
-        <v>16995</v>
+        <v>17136</v>
       </c>
       <c r="O49" t="n">
-        <v>12589</v>
+        <v>13752</v>
       </c>
       <c r="P49" t="n">
         <v>3178</v>
@@ -3940,16 +3932,16 @@
         <v>121</v>
       </c>
       <c r="L50" t="n">
-        <v>25736</v>
+        <v>26000</v>
       </c>
       <c r="M50" t="n">
-        <v>19038</v>
+        <v>21108</v>
       </c>
       <c r="N50" t="n">
-        <v>20519</v>
+        <v>20753</v>
       </c>
       <c r="O50" t="n">
-        <v>14905</v>
+        <v>16347</v>
       </c>
       <c r="P50" t="n">
         <v>5677</v>
@@ -4014,16 +4006,16 @@
         <v>84</v>
       </c>
       <c r="L51" t="n">
-        <v>31040</v>
+        <v>31342</v>
       </c>
       <c r="M51" t="n">
-        <v>22715</v>
+        <v>24644</v>
       </c>
       <c r="N51" t="n">
-        <v>24500</v>
+        <v>24766</v>
       </c>
       <c r="O51" t="n">
-        <v>17769</v>
+        <v>19152</v>
       </c>
       <c r="P51" t="n">
         <v>5606</v>
@@ -4088,16 +4080,16 @@
         <v>120</v>
       </c>
       <c r="L52" t="n">
-        <v>35365</v>
+        <v>35736</v>
       </c>
       <c r="M52" t="n">
-        <v>25348</v>
+        <v>27411</v>
       </c>
       <c r="N52" t="n">
-        <v>27558</v>
+        <v>27875</v>
       </c>
       <c r="O52" t="n">
-        <v>19681</v>
+        <v>21144</v>
       </c>
       <c r="P52" t="n">
         <v>4696</v>
@@ -4162,16 +4154,16 @@
         <v>204</v>
       </c>
       <c r="L53" t="n">
-        <v>38674</v>
+        <v>39332</v>
       </c>
       <c r="M53" t="n">
-        <v>26872</v>
+        <v>29315</v>
       </c>
       <c r="N53" t="n">
-        <v>29912</v>
+        <v>30516</v>
       </c>
       <c r="O53" t="n">
-        <v>20473</v>
+        <v>22639</v>
       </c>
       <c r="P53" t="n">
         <v>3967</v>
@@ -4236,16 +4228,16 @@
         <v>251</v>
       </c>
       <c r="L54" t="n">
-        <v>44119</v>
+        <v>45069</v>
       </c>
       <c r="M54" t="n">
-        <v>29519</v>
+        <v>33267</v>
       </c>
       <c r="N54" t="n">
-        <v>33843</v>
+        <v>34715</v>
       </c>
       <c r="O54" t="n">
-        <v>22225</v>
+        <v>25276</v>
       </c>
       <c r="P54" t="n">
         <v>6395</v>
@@ -4310,16 +4302,16 @@
         <v>342</v>
       </c>
       <c r="L55" t="n">
-        <v>48368</v>
+        <v>49426</v>
       </c>
       <c r="M55" t="n">
-        <v>31648</v>
+        <v>34826</v>
       </c>
       <c r="N55" t="n">
-        <v>38426</v>
+        <v>39376</v>
       </c>
       <c r="O55" t="n">
-        <v>24674</v>
+        <v>27758</v>
       </c>
       <c r="P55" t="n">
         <v>5307</v>
@@ -4366,7 +4358,7 @@
         <v>8924</v>
       </c>
       <c r="F56" t="n">
-        <v>17270</v>
+        <v>17271</v>
       </c>
       <c r="G56" t="n">
         <v>2049</v>
@@ -4384,16 +4376,16 @@
         <v>476</v>
       </c>
       <c r="L56" t="n">
-        <v>57771</v>
+        <v>59060</v>
       </c>
       <c r="M56" t="n">
-        <v>36663</v>
+        <v>42340</v>
       </c>
       <c r="N56" t="n">
-        <v>42796</v>
+        <v>43959</v>
       </c>
       <c r="O56" t="n">
-        <v>26449</v>
+        <v>30207</v>
       </c>
       <c r="P56" t="n">
         <v>10692</v>
@@ -4440,7 +4432,7 @@
         <v>10231</v>
       </c>
       <c r="F57" t="n">
-        <v>19400</v>
+        <v>19401</v>
       </c>
       <c r="G57" t="n">
         <v>2349</v>
@@ -4458,16 +4450,16 @@
         <v>762</v>
       </c>
       <c r="L57" t="n">
-        <v>65278</v>
+        <v>67348</v>
       </c>
       <c r="M57" t="n">
-        <v>40634</v>
+        <v>46240</v>
       </c>
       <c r="N57" t="n">
-        <v>48153</v>
+        <v>49595</v>
       </c>
       <c r="O57" t="n">
-        <v>29001</v>
+        <v>33248</v>
       </c>
       <c r="P57" t="n">
         <v>9577</v>
@@ -4532,16 +4524,16 @@
         <v>926</v>
       </c>
       <c r="L58" t="n">
-        <v>71861</v>
+        <v>73790</v>
       </c>
       <c r="M58" t="n">
-        <v>44450</v>
+        <v>49146</v>
       </c>
       <c r="N58" t="n">
-        <v>51747</v>
+        <v>53130</v>
       </c>
       <c r="O58" t="n">
-        <v>30603</v>
+        <v>33978</v>
       </c>
       <c r="P58" t="n">
         <v>8512</v>
@@ -4606,16 +4598,16 @@
         <v>1281</v>
       </c>
       <c r="L59" t="n">
-        <v>78390</v>
+        <v>80453</v>
       </c>
       <c r="M59" t="n">
-        <v>49075</v>
+        <v>53042</v>
       </c>
       <c r="N59" t="n">
-        <v>53630</v>
+        <v>55093</v>
       </c>
       <c r="O59" t="n">
-        <v>30991</v>
+        <v>33949</v>
       </c>
       <c r="P59" t="n">
         <v>8592</v>
@@ -4680,16 +4672,16 @@
         <v>1818</v>
       </c>
       <c r="L60" t="n">
-        <v>82251</v>
+        <v>84694</v>
       </c>
       <c r="M60" t="n">
-        <v>48984</v>
+        <v>55379</v>
       </c>
       <c r="N60" t="n">
-        <v>54137</v>
+        <v>56303</v>
       </c>
       <c r="O60" t="n">
-        <v>28861</v>
+        <v>33664</v>
       </c>
       <c r="P60" t="n">
         <v>6304</v>
@@ -4754,16 +4746,16 @@
         <v>1828</v>
       </c>
       <c r="L61" t="n">
-        <v>85695</v>
+        <v>89443</v>
       </c>
       <c r="M61" t="n">
-        <v>50869</v>
+        <v>56176</v>
       </c>
       <c r="N61" t="n">
-        <v>55945</v>
+        <v>58996</v>
       </c>
       <c r="O61" t="n">
-        <v>28187</v>
+        <v>33720</v>
       </c>
       <c r="P61" t="n">
         <v>7192</v>
@@ -4828,16 +4820,16 @@
         <v>2196</v>
       </c>
       <c r="L62" t="n">
-        <v>88065</v>
+        <v>91243</v>
       </c>
       <c r="M62" t="n">
-        <v>45725</v>
+        <v>56417</v>
       </c>
       <c r="N62" t="n">
-        <v>57132</v>
+        <v>60216</v>
       </c>
       <c r="O62" t="n">
-        <v>26925</v>
+        <v>32458</v>
       </c>
       <c r="P62" t="n">
         <v>5548</v>
@@ -4902,16 +4894,16 @@
         <v>2687</v>
       </c>
       <c r="L63" t="n">
-        <v>90741</v>
+        <v>96418</v>
       </c>
       <c r="M63" t="n">
-        <v>44501</v>
+        <v>54078</v>
       </c>
       <c r="N63" t="n">
-        <v>57206</v>
+        <v>60964</v>
       </c>
       <c r="O63" t="n">
-        <v>23958</v>
+        <v>30757</v>
       </c>
       <c r="P63" t="n">
         <v>8353</v>
@@ -4976,16 +4968,16 @@
         <v>3377</v>
       </c>
       <c r="L64" t="n">
-        <v>91909</v>
+        <v>97515</v>
       </c>
       <c r="M64" t="n">
-        <v>42763</v>
+        <v>51275</v>
       </c>
       <c r="N64" t="n">
-        <v>56783</v>
+        <v>61030</v>
       </c>
       <c r="O64" t="n">
-        <v>22805</v>
+        <v>27782</v>
       </c>
       <c r="P64" t="n">
         <v>6774</v>
@@ -5050,16 +5042,16 @@
         <v>4274</v>
       </c>
       <c r="L65" t="n">
-        <v>93900</v>
+        <v>98596</v>
       </c>
       <c r="M65" t="n">
-        <v>40858</v>
+        <v>49450</v>
       </c>
       <c r="N65" t="n">
-        <v>57286</v>
+        <v>60661</v>
       </c>
       <c r="O65" t="n">
-        <v>23337</v>
+        <v>26683</v>
       </c>
       <c r="P65" t="n">
         <v>6687</v>
@@ -5124,16 +5116,16 @@
         <v>5120</v>
       </c>
       <c r="L66" t="n">
-        <v>95244</v>
+        <v>99211</v>
       </c>
       <c r="M66" t="n">
-        <v>39865</v>
+        <v>46169</v>
       </c>
       <c r="N66" t="n">
-        <v>56758</v>
+        <v>59716</v>
       </c>
       <c r="O66" t="n">
-        <v>23094</v>
+        <v>25767</v>
       </c>
       <c r="P66" t="n">
         <v>5311</v>
@@ -5198,16 +5190,16 @@
         <v>5738</v>
       </c>
       <c r="L67" t="n">
-        <v>92612</v>
+        <v>99007</v>
       </c>
       <c r="M67" t="n">
-        <v>36436</v>
+        <v>43628</v>
       </c>
       <c r="N67" t="n">
-        <v>53614</v>
+        <v>58417</v>
       </c>
       <c r="O67" t="n">
-        <v>19894</v>
+        <v>24753</v>
       </c>
       <c r="P67" t="n">
         <v>3763</v>
@@ -5272,16 +5264,16 @@
         <v>6269</v>
       </c>
       <c r="L68" t="n">
-        <v>92191</v>
+        <v>97498</v>
       </c>
       <c r="M68" t="n">
-        <v>35774</v>
+        <v>41322</v>
       </c>
       <c r="N68" t="n">
-        <v>51301</v>
+        <v>56834</v>
       </c>
       <c r="O68" t="n">
-        <v>18843</v>
+        <v>23114</v>
       </c>
       <c r="P68" t="n">
         <v>4886</v>
@@ -5346,16 +5338,16 @@
         <v>6996</v>
       </c>
       <c r="L69" t="n">
-        <v>86419</v>
+        <v>97111</v>
       </c>
       <c r="M69" t="n">
-        <v>32341</v>
+        <v>40694</v>
       </c>
       <c r="N69" t="n">
-        <v>48842</v>
+        <v>54375</v>
       </c>
       <c r="O69" t="n">
-        <v>18085</v>
+        <v>21917</v>
       </c>
       <c r="P69" t="n">
         <v>4920</v>
@@ -5393,7 +5385,7 @@
         <v>2507</v>
       </c>
       <c r="C70" t="n">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D70" t="n">
         <v>119</v>
@@ -5402,7 +5394,7 @@
         <v>4806</v>
       </c>
       <c r="F70" t="n">
-        <v>28076</v>
+        <v>28078</v>
       </c>
       <c r="G70" t="n">
         <v>3344</v>
@@ -5411,37 +5403,37 @@
         <v>18293</v>
       </c>
       <c r="I70" t="n">
-        <v>154916</v>
+        <v>154917</v>
       </c>
       <c r="J70" t="n">
-        <v>99555</v>
+        <v>99556</v>
       </c>
       <c r="K70" t="n">
         <v>7921</v>
       </c>
       <c r="L70" t="n">
-        <v>82239</v>
+        <v>91817</v>
       </c>
       <c r="M70" t="n">
-        <v>30964</v>
+        <v>37739</v>
       </c>
       <c r="N70" t="n">
-        <v>45168</v>
+        <v>51968</v>
       </c>
       <c r="O70" t="n">
-        <v>17386</v>
+        <v>21211</v>
       </c>
       <c r="P70" t="n">
-        <v>5397</v>
+        <v>5398</v>
       </c>
       <c r="Q70" t="n">
-        <v>5391.1</v>
+        <v>5391.3</v>
       </c>
       <c r="R70" t="n">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="S70" t="n">
-        <v>3030</v>
+        <v>3030.1</v>
       </c>
       <c r="T70" t="n">
         <v>973</v>
@@ -5476,7 +5468,7 @@
         <v>4827</v>
       </c>
       <c r="F71" t="n">
-        <v>27237</v>
+        <v>27239</v>
       </c>
       <c r="G71" t="n">
         <v>3343</v>
@@ -5485,37 +5477,37 @@
         <v>19161</v>
       </c>
       <c r="I71" t="n">
-        <v>159908</v>
+        <v>159909</v>
       </c>
       <c r="J71" t="n">
-        <v>102182</v>
+        <v>102183</v>
       </c>
       <c r="K71" t="n">
         <v>9123</v>
       </c>
       <c r="L71" t="n">
-        <v>78719</v>
+        <v>87232</v>
       </c>
       <c r="M71" t="n">
-        <v>29269</v>
+        <v>35957</v>
       </c>
       <c r="N71" t="n">
-        <v>42818</v>
+        <v>47796</v>
       </c>
       <c r="O71" t="n">
-        <v>16135</v>
+        <v>20014</v>
       </c>
       <c r="P71" t="n">
         <v>4992</v>
       </c>
       <c r="Q71" t="n">
-        <v>5136.6</v>
+        <v>5136.7</v>
       </c>
       <c r="R71" t="n">
         <v>2627</v>
       </c>
       <c r="S71" t="n">
-        <v>2859</v>
+        <v>2859.1</v>
       </c>
       <c r="T71" t="n">
         <v>868</v>
@@ -5550,7 +5542,7 @@
         <v>4970</v>
       </c>
       <c r="F72" t="n">
-        <v>26325</v>
+        <v>26327</v>
       </c>
       <c r="G72" t="n">
         <v>3255</v>
@@ -5559,37 +5551,37 @@
         <v>19957</v>
       </c>
       <c r="I72" t="n">
-        <v>165063</v>
+        <v>165064</v>
       </c>
       <c r="J72" t="n">
-        <v>104472</v>
+        <v>104473</v>
       </c>
       <c r="K72" t="n">
         <v>10149</v>
       </c>
       <c r="L72" t="n">
-        <v>75282</v>
+        <v>83875</v>
       </c>
       <c r="M72" t="n">
-        <v>29113</v>
+        <v>34425</v>
       </c>
       <c r="N72" t="n">
-        <v>41762</v>
+        <v>45109</v>
       </c>
       <c r="O72" t="n">
-        <v>15995</v>
+        <v>18426</v>
       </c>
       <c r="P72" t="n">
         <v>5155</v>
       </c>
       <c r="Q72" t="n">
-        <v>4917.7</v>
+        <v>4917.9</v>
       </c>
       <c r="R72" t="n">
         <v>2290</v>
       </c>
       <c r="S72" t="n">
-        <v>2632.1</v>
+        <v>2632.3</v>
       </c>
       <c r="T72" t="n">
         <v>796</v>
@@ -5624,7 +5616,7 @@
         <v>5059</v>
       </c>
       <c r="F73" t="n">
-        <v>25501</v>
+        <v>25503</v>
       </c>
       <c r="G73" t="n">
         <v>3205</v>
@@ -5633,37 +5625,37 @@
         <v>20759</v>
       </c>
       <c r="I73" t="n">
-        <v>168831</v>
+        <v>168832</v>
       </c>
       <c r="J73" t="n">
-        <v>106247</v>
+        <v>106248</v>
       </c>
       <c r="K73" t="n">
         <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>72746</v>
+        <v>79051</v>
       </c>
       <c r="M73" t="n">
-        <v>29118</v>
+        <v>32882</v>
       </c>
       <c r="N73" t="n">
-        <v>40864</v>
+        <v>43538</v>
       </c>
       <c r="O73" t="n">
-        <v>16111</v>
+        <v>17771</v>
       </c>
       <c r="P73" t="n">
         <v>3768</v>
       </c>
       <c r="Q73" t="n">
-        <v>4697.3</v>
+        <v>4697.4</v>
       </c>
       <c r="R73" t="n">
         <v>1775</v>
       </c>
       <c r="S73" t="n">
-        <v>2538.6</v>
+        <v>2538.7</v>
       </c>
       <c r="T73" t="n">
         <v>802</v>
@@ -5698,7 +5690,7 @@
         <v>5050</v>
       </c>
       <c r="F74" t="n">
-        <v>24841</v>
+        <v>24843</v>
       </c>
       <c r="G74" t="n">
         <v>3140</v>
@@ -5707,37 +5699,37 @@
         <v>21448</v>
       </c>
       <c r="I74" t="n">
-        <v>171874</v>
+        <v>171875</v>
       </c>
       <c r="J74" t="n">
-        <v>107495</v>
+        <v>107496</v>
       </c>
       <c r="K74" t="n">
         <v>11810</v>
       </c>
       <c r="L74" t="n">
-        <v>68597</v>
+        <v>75790</v>
       </c>
       <c r="M74" t="n">
-        <v>27275</v>
+        <v>32162</v>
       </c>
       <c r="N74" t="n">
-        <v>37253</v>
+        <v>42113</v>
       </c>
       <c r="O74" t="n">
-        <v>14139</v>
+        <v>17360</v>
       </c>
       <c r="P74" t="n">
         <v>3043</v>
       </c>
       <c r="Q74" t="n">
-        <v>4594.4</v>
+        <v>4594.6</v>
       </c>
       <c r="R74" t="n">
         <v>1248</v>
       </c>
       <c r="S74" t="n">
-        <v>2479.9</v>
+        <v>2480</v>
       </c>
       <c r="T74" t="n">
         <v>689</v>
@@ -5772,7 +5764,7 @@
         <v>5082</v>
       </c>
       <c r="F75" t="n">
-        <v>24573</v>
+        <v>24575</v>
       </c>
       <c r="G75" t="n">
         <v>3094</v>
@@ -5781,37 +5773,37 @@
         <v>22136</v>
       </c>
       <c r="I75" t="n">
-        <v>175375</v>
+        <v>175376</v>
       </c>
       <c r="J75" t="n">
-        <v>109426</v>
+        <v>109427</v>
       </c>
       <c r="K75" t="n">
         <v>12310</v>
       </c>
       <c r="L75" t="n">
-        <v>66550</v>
+        <v>72099</v>
       </c>
       <c r="M75" t="n">
-        <v>25856</v>
+        <v>30777</v>
       </c>
       <c r="N75" t="n">
-        <v>34913</v>
+        <v>39185</v>
       </c>
       <c r="O75" t="n">
-        <v>12996</v>
+        <v>16071</v>
       </c>
       <c r="P75" t="n">
         <v>3501</v>
       </c>
       <c r="Q75" t="n">
-        <v>4396.6</v>
+        <v>4396.7</v>
       </c>
       <c r="R75" t="n">
         <v>1931</v>
       </c>
       <c r="S75" t="n">
-        <v>2295.7</v>
+        <v>2295.9</v>
       </c>
       <c r="T75" t="n">
         <v>688</v>
@@ -5846,7 +5838,7 @@
         <v>5139</v>
       </c>
       <c r="F76" t="n">
-        <v>23743</v>
+        <v>23746</v>
       </c>
       <c r="G76" t="n">
         <v>3037</v>
@@ -5855,37 +5847,37 @@
         <v>22863</v>
       </c>
       <c r="I76" t="n">
-        <v>179702</v>
+        <v>179703</v>
       </c>
       <c r="J76" t="n">
-        <v>111973</v>
+        <v>111974</v>
       </c>
       <c r="K76" t="n">
         <v>13129</v>
       </c>
       <c r="L76" t="n">
-        <v>62524</v>
+        <v>70878</v>
       </c>
       <c r="M76" t="n">
-        <v>24786</v>
+        <v>30184</v>
       </c>
       <c r="N76" t="n">
-        <v>33628</v>
+        <v>37461</v>
       </c>
       <c r="O76" t="n">
-        <v>12418</v>
+        <v>15544</v>
       </c>
       <c r="P76" t="n">
         <v>4327</v>
       </c>
       <c r="Q76" t="n">
-        <v>4311.9</v>
+        <v>4312</v>
       </c>
       <c r="R76" t="n">
         <v>2547</v>
       </c>
       <c r="S76" t="n">
-        <v>2220.4</v>
+        <v>2220.6</v>
       </c>
       <c r="T76" t="n">
         <v>727</v>
@@ -5911,7 +5903,7 @@
         <v>2828</v>
       </c>
       <c r="C77" t="n">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D77" t="n">
         <v>780</v>
@@ -5920,7 +5912,7 @@
         <v>5244</v>
       </c>
       <c r="F77" t="n">
-        <v>22679</v>
+        <v>22680</v>
       </c>
       <c r="G77" t="n">
         <v>2919</v>
@@ -5938,28 +5930,28 @@
         <v>14225</v>
       </c>
       <c r="L77" t="n">
-        <v>60148</v>
+        <v>66922</v>
       </c>
       <c r="M77" t="n">
-        <v>24192</v>
+        <v>29183</v>
       </c>
       <c r="N77" t="n">
-        <v>34837</v>
+        <v>38661</v>
       </c>
       <c r="O77" t="n">
-        <v>14824</v>
+        <v>17450</v>
       </c>
       <c r="P77" t="n">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="Q77" t="n">
-        <v>4169.1</v>
+        <v>4169</v>
       </c>
       <c r="R77" t="n">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="S77" t="n">
-        <v>2493</v>
+        <v>2492.9</v>
       </c>
       <c r="T77" t="n">
         <v>702</v>
@@ -5994,7 +5986,7 @@
         <v>5281</v>
       </c>
       <c r="F78" t="n">
-        <v>21886</v>
+        <v>21887</v>
       </c>
       <c r="G78" t="n">
         <v>2687</v>
@@ -6012,28 +6004,28 @@
         <v>15159</v>
       </c>
       <c r="L78" t="n">
-        <v>58170</v>
+        <v>64857</v>
       </c>
       <c r="M78" t="n">
-        <v>23746</v>
+        <v>28900</v>
       </c>
       <c r="N78" t="n">
-        <v>33321</v>
+        <v>37199</v>
       </c>
       <c r="O78" t="n">
-        <v>14896</v>
+        <v>17185</v>
       </c>
       <c r="P78" t="n">
         <v>4709</v>
       </c>
       <c r="Q78" t="n">
-        <v>4128.7</v>
+        <v>4128.6</v>
       </c>
       <c r="R78" t="n">
         <v>2362</v>
       </c>
       <c r="S78" t="n">
-        <v>2455.1</v>
+        <v>2455</v>
       </c>
       <c r="T78" t="n">
         <v>679</v>
@@ -6068,7 +6060,7 @@
         <v>5378</v>
       </c>
       <c r="F79" t="n">
-        <v>20980</v>
+        <v>20981</v>
       </c>
       <c r="G79" t="n">
         <v>2602</v>
@@ -6086,28 +6078,28 @@
         <v>17293</v>
       </c>
       <c r="L79" t="n">
-        <v>57957</v>
+        <v>63268</v>
       </c>
       <c r="M79" t="n">
-        <v>25076</v>
+        <v>28843</v>
       </c>
       <c r="N79" t="n">
-        <v>33189</v>
+        <v>35619</v>
       </c>
       <c r="O79" t="n">
-        <v>15419</v>
+        <v>17193</v>
       </c>
       <c r="P79" t="n">
         <v>5098</v>
       </c>
       <c r="Q79" t="n">
-        <v>4120.6</v>
+        <v>4120.4</v>
       </c>
       <c r="R79" t="n">
         <v>2298</v>
       </c>
       <c r="S79" t="n">
-        <v>2456.3</v>
+        <v>2456.1</v>
       </c>
       <c r="T79" t="n">
         <v>611</v>
@@ -6142,7 +6134,7 @@
         <v>10437</v>
       </c>
       <c r="F80" t="n">
-        <v>20254</v>
+        <v>20255</v>
       </c>
       <c r="G80" t="n">
         <v>2533</v>
@@ -6160,28 +6152,28 @@
         <v>17184</v>
       </c>
       <c r="L80" t="n">
-        <v>60075</v>
+        <v>63838</v>
       </c>
       <c r="M80" t="n">
-        <v>27914</v>
+        <v>30956</v>
       </c>
       <c r="N80" t="n">
-        <v>33016</v>
+        <v>34675</v>
       </c>
       <c r="O80" t="n">
-        <v>15657</v>
+        <v>16904</v>
       </c>
       <c r="P80" t="n">
         <v>5881</v>
       </c>
       <c r="Q80" t="n">
-        <v>4422.4</v>
+        <v>4422.3</v>
       </c>
       <c r="R80" t="n">
         <v>1486</v>
       </c>
       <c r="S80" t="n">
-        <v>2415</v>
+        <v>2414.9</v>
       </c>
       <c r="T80" t="n">
         <v>603</v>
@@ -6216,7 +6208,7 @@
         <v>10241</v>
       </c>
       <c r="F81" t="n">
-        <v>19803</v>
+        <v>19804</v>
       </c>
       <c r="G81" t="n">
         <v>2545</v>
@@ -6234,28 +6226,28 @@
         <v>17825</v>
       </c>
       <c r="L81" t="n">
-        <v>57416</v>
+        <v>62302</v>
       </c>
       <c r="M81" t="n">
-        <v>26640</v>
+        <v>30140</v>
       </c>
       <c r="N81" t="n">
-        <v>30671</v>
+        <v>33891</v>
       </c>
       <c r="O81" t="n">
-        <v>14601</v>
+        <v>16531</v>
       </c>
       <c r="P81" t="n">
         <v>2227</v>
       </c>
       <c r="Q81" t="n">
-        <v>4305.9</v>
+        <v>4305.7</v>
       </c>
       <c r="R81" t="n">
         <v>875</v>
       </c>
       <c r="S81" t="n">
-        <v>2361.7</v>
+        <v>2361.6</v>
       </c>
       <c r="T81" t="n">
         <v>528</v>
@@ -6308,28 +6300,28 @@
         <v>19791</v>
       </c>
       <c r="L82" t="n">
-        <v>55419</v>
+        <v>60339</v>
       </c>
       <c r="M82" t="n">
-        <v>25236</v>
+        <v>29562</v>
       </c>
       <c r="N82" t="n">
-        <v>29328</v>
+        <v>32402</v>
       </c>
       <c r="O82" t="n">
-        <v>13785</v>
+        <v>16331</v>
       </c>
       <c r="P82" t="n">
         <v>2923</v>
       </c>
       <c r="Q82" t="n">
-        <v>4223.3</v>
+        <v>4223.1</v>
       </c>
       <c r="R82" t="n">
         <v>1731</v>
       </c>
       <c r="S82" t="n">
-        <v>2333.1</v>
+        <v>2333</v>
       </c>
       <c r="T82" t="n">
         <v>494</v>
@@ -6382,28 +6374,28 @@
         <v>20567</v>
       </c>
       <c r="L83" t="n">
-        <v>53796</v>
+        <v>59193</v>
       </c>
       <c r="M83" t="n">
-        <v>24612</v>
+        <v>29009</v>
       </c>
       <c r="N83" t="n">
-        <v>28039</v>
+        <v>31164</v>
       </c>
       <c r="O83" t="n">
-        <v>10588</v>
+        <v>15620</v>
       </c>
       <c r="P83" t="n">
         <v>3774</v>
       </c>
       <c r="Q83" t="n">
-        <v>4144.3</v>
+        <v>4144.1</v>
       </c>
       <c r="R83" t="n">
         <v>1836</v>
       </c>
       <c r="S83" t="n">
-        <v>2231.6</v>
+        <v>2231.4</v>
       </c>
       <c r="T83" t="n">
         <v>508</v>
@@ -6432,7 +6424,7 @@
         <v>1006</v>
       </c>
       <c r="D84" t="n">
-        <v>5808</v>
+        <v>5807</v>
       </c>
       <c r="E84" t="n">
         <v>9642</v>
@@ -6447,7 +6439,7 @@
         <v>27474</v>
       </c>
       <c r="I84" t="n">
-        <v>213321</v>
+        <v>213320</v>
       </c>
       <c r="J84" t="n">
         <v>129545</v>
@@ -6456,22 +6448,22 @@
         <v>21163</v>
       </c>
       <c r="L84" t="n">
-        <v>53413</v>
+        <v>58403</v>
       </c>
       <c r="M84" t="n">
-        <v>24512</v>
+        <v>29220</v>
       </c>
       <c r="N84" t="n">
-        <v>27363</v>
+        <v>29989</v>
       </c>
       <c r="O84" t="n">
-        <v>10177</v>
+        <v>12539</v>
       </c>
       <c r="P84" t="n">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="Q84" t="n">
-        <v>4174.4</v>
+        <v>4174.3</v>
       </c>
       <c r="R84" t="n">
         <v>1951</v>
@@ -6521,7 +6513,7 @@
         <v>27906</v>
       </c>
       <c r="I85" t="n">
-        <v>217042</v>
+        <v>217041</v>
       </c>
       <c r="J85" t="n">
         <v>130911</v>
@@ -6530,22 +6522,22 @@
         <v>23466</v>
       </c>
       <c r="L85" t="n">
-        <v>51979</v>
+        <v>57132</v>
       </c>
       <c r="M85" t="n">
-        <v>23135</v>
+        <v>28232</v>
       </c>
       <c r="N85" t="n">
-        <v>26439</v>
+        <v>28728</v>
       </c>
       <c r="O85" t="n">
-        <v>9245</v>
+        <v>11543</v>
       </c>
       <c r="P85" t="n">
         <v>3721</v>
       </c>
       <c r="Q85" t="n">
-        <v>4033.3</v>
+        <v>4033.1</v>
       </c>
       <c r="R85" t="n">
         <v>1366</v>
@@ -6595,7 +6587,7 @@
         <v>28345</v>
       </c>
       <c r="I86" t="n">
-        <v>220705</v>
+        <v>220704</v>
       </c>
       <c r="J86" t="n">
         <v>132406</v>
@@ -6604,22 +6596,22 @@
         <v>26642.89</v>
       </c>
       <c r="L86" t="n">
-        <v>51874</v>
+        <v>55640</v>
       </c>
       <c r="M86" t="n">
-        <v>20917</v>
+        <v>26797</v>
       </c>
       <c r="N86" t="n">
-        <v>26159</v>
+        <v>27933</v>
       </c>
       <c r="O86" t="n">
-        <v>9254</v>
+        <v>10740</v>
       </c>
       <c r="P86" t="n">
         <v>3663</v>
       </c>
       <c r="Q86" t="n">
-        <v>3828.3</v>
+        <v>3828.1</v>
       </c>
       <c r="R86" t="n">
         <v>1495</v>
@@ -6669,7 +6661,7 @@
         <v>28716</v>
       </c>
       <c r="I87" t="n">
-        <v>223325</v>
+        <v>223324</v>
       </c>
       <c r="J87" t="n">
         <v>133198</v>
@@ -6678,22 +6670,22 @@
         <v>26800.966</v>
       </c>
       <c r="L87" t="n">
-        <v>51451</v>
+        <v>54492</v>
       </c>
       <c r="M87" t="n">
-        <v>21310</v>
+        <v>23536</v>
       </c>
       <c r="N87" t="n">
-        <v>25703</v>
+        <v>26950</v>
       </c>
       <c r="O87" t="n">
-        <v>9171</v>
+        <v>10046</v>
       </c>
       <c r="P87" t="n">
         <v>2620</v>
       </c>
       <c r="Q87" t="n">
-        <v>3362.4</v>
+        <v>3362.3</v>
       </c>
       <c r="R87" t="n">
         <v>792</v>
@@ -6743,7 +6735,7 @@
         <v>29039</v>
       </c>
       <c r="I88" t="n">
-        <v>225699</v>
+        <v>225698</v>
       </c>
       <c r="J88" t="n">
         <v>133710</v>
@@ -6752,22 +6744,22 @@
         <v>30332</v>
       </c>
       <c r="L88" t="n">
-        <v>50324</v>
+        <v>53823</v>
       </c>
       <c r="M88" t="n">
-        <v>20761</v>
+        <v>23683</v>
       </c>
       <c r="N88" t="n">
-        <v>24284</v>
+        <v>26214</v>
       </c>
       <c r="O88" t="n">
-        <v>7952</v>
+        <v>9683</v>
       </c>
       <c r="P88" t="n">
         <v>2374</v>
       </c>
       <c r="Q88" t="n">
-        <v>3383.4</v>
+        <v>3383.3</v>
       </c>
       <c r="R88" t="n">
         <v>512</v>
@@ -6817,7 +6809,7 @@
         <v>29343</v>
       </c>
       <c r="I89" t="n">
-        <v>228396</v>
+        <v>228395</v>
       </c>
       <c r="J89" t="n">
         <v>134796</v>
@@ -6826,22 +6818,22 @@
         <v>31464</v>
       </c>
       <c r="L89" t="n">
-        <v>48694</v>
+        <v>53019</v>
       </c>
       <c r="M89" t="n">
-        <v>19684</v>
+        <v>23457</v>
       </c>
       <c r="N89" t="n">
-        <v>22823</v>
+        <v>25369</v>
       </c>
       <c r="O89" t="n">
-        <v>7202</v>
+        <v>9038</v>
       </c>
       <c r="P89" t="n">
         <v>2697</v>
       </c>
       <c r="Q89" t="n">
-        <v>3351.1</v>
+        <v>3351</v>
       </c>
       <c r="R89" t="n">
         <v>1086</v>
@@ -6891,7 +6883,7 @@
         <v>29683</v>
       </c>
       <c r="I90" t="n">
-        <v>228211</v>
+        <v>228210</v>
       </c>
       <c r="J90" t="n">
         <v>136085</v>
@@ -6900,22 +6892,22 @@
         <v>33093</v>
       </c>
       <c r="L90" t="n">
-        <v>44111</v>
+        <v>48507</v>
       </c>
       <c r="M90" t="n">
-        <v>14890</v>
+        <v>19498</v>
       </c>
       <c r="N90" t="n">
-        <v>19079</v>
+        <v>24111</v>
       </c>
       <c r="O90" t="n">
-        <v>6540</v>
+        <v>8491</v>
       </c>
       <c r="P90" t="n">
         <v>-185</v>
       </c>
       <c r="Q90" t="n">
-        <v>2785.6</v>
+        <v>2785.4</v>
       </c>
       <c r="R90" t="n">
         <v>1289</v>
@@ -6950,13 +6942,13 @@
         <v>337</v>
       </c>
       <c r="D91" t="n">
-        <v>8626</v>
+        <v>8625</v>
       </c>
       <c r="E91" t="n">
         <v>20627</v>
       </c>
       <c r="F91" t="n">
-        <v>14856</v>
+        <v>14857</v>
       </c>
       <c r="G91" t="n">
         <v>1972</v>
@@ -6965,7 +6957,7 @@
         <v>29996</v>
       </c>
       <c r="I91" t="n">
-        <v>231099</v>
+        <v>231097</v>
       </c>
       <c r="J91" t="n">
         <v>137058</v>
@@ -6974,22 +6966,22 @@
         <v>35180</v>
       </c>
       <c r="L91" t="n">
-        <v>42290</v>
+        <v>46997</v>
       </c>
       <c r="M91" t="n">
-        <v>14057</v>
+        <v>17777</v>
       </c>
       <c r="N91" t="n">
-        <v>17690</v>
+        <v>20052</v>
       </c>
       <c r="O91" t="n">
-        <v>6147</v>
+        <v>7513</v>
       </c>
       <c r="P91" t="n">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="Q91" t="n">
-        <v>2539.7</v>
+        <v>2539.6</v>
       </c>
       <c r="R91" t="n">
         <v>973</v>
@@ -7030,7 +7022,7 @@
         <v>19386</v>
       </c>
       <c r="F92" t="n">
-        <v>14070</v>
+        <v>14071</v>
       </c>
       <c r="G92" t="n">
         <v>1885</v>
@@ -7039,7 +7031,7 @@
         <v>30273</v>
       </c>
       <c r="I92" t="n">
-        <v>234321</v>
+        <v>234319</v>
       </c>
       <c r="J92" t="n">
         <v>137939</v>
@@ -7048,22 +7040,22 @@
         <v>33061</v>
       </c>
       <c r="L92" t="n">
-        <v>40414</v>
+        <v>45510</v>
       </c>
       <c r="M92" t="n">
-        <v>13616</v>
+        <v>17278</v>
       </c>
       <c r="N92" t="n">
-        <v>16273</v>
+        <v>18571</v>
       </c>
       <c r="O92" t="n">
-        <v>5533</v>
+        <v>7028</v>
       </c>
       <c r="P92" t="n">
         <v>3222</v>
       </c>
       <c r="Q92" t="n">
-        <v>2468.4</v>
+        <v>2468.3</v>
       </c>
       <c r="R92" t="n">
         <v>881</v>
@@ -7104,7 +7096,7 @@
         <v>19654</v>
       </c>
       <c r="F93" t="n">
-        <v>14967</v>
+        <v>14968</v>
       </c>
       <c r="G93" t="n">
         <v>2206</v>
@@ -7113,7 +7105,7 @@
         <v>30557</v>
       </c>
       <c r="I93" t="n">
-        <v>236479</v>
+        <v>236477</v>
       </c>
       <c r="J93" t="n">
         <v>138464</v>
@@ -7122,22 +7114,22 @@
         <v>34222</v>
       </c>
       <c r="L93" t="n">
-        <v>36691</v>
+        <v>42570</v>
       </c>
       <c r="M93" t="n">
-        <v>13154</v>
+        <v>15773</v>
       </c>
       <c r="N93" t="n">
-        <v>15312</v>
+        <v>16798</v>
       </c>
       <c r="O93" t="n">
-        <v>5266</v>
+        <v>6058</v>
       </c>
       <c r="P93" t="n">
         <v>2158</v>
       </c>
       <c r="Q93" t="n">
-        <v>2253.4</v>
+        <v>2253.3</v>
       </c>
       <c r="R93" t="n">
         <v>525</v>
@@ -7187,7 +7179,7 @@
         <v>30786</v>
       </c>
       <c r="I94" t="n">
-        <v>238137</v>
+        <v>238135</v>
       </c>
       <c r="J94" t="n">
         <v>138808</v>
@@ -7196,22 +7188,22 @@
         <v>34923</v>
       </c>
       <c r="L94" t="n">
-        <v>36122</v>
+        <v>38347</v>
       </c>
       <c r="M94" t="n">
-        <v>12438</v>
+        <v>14811</v>
       </c>
       <c r="N94" t="n">
-        <v>14781</v>
+        <v>15656</v>
       </c>
       <c r="O94" t="n">
-        <v>5098</v>
+        <v>5610</v>
       </c>
       <c r="P94" t="n">
         <v>1658</v>
       </c>
       <c r="Q94" t="n">
-        <v>2116</v>
+        <v>2115.9</v>
       </c>
       <c r="R94" t="n">
         <v>344</v>
@@ -7261,7 +7253,7 @@
         <v>31007</v>
       </c>
       <c r="I95" t="n">
-        <v>239232</v>
+        <v>239230</v>
       </c>
       <c r="J95" t="n">
         <v>139071</v>
@@ -7270,22 +7262,22 @@
         <v>35437</v>
       </c>
       <c r="L95" t="n">
-        <v>34294</v>
+        <v>37215</v>
       </c>
       <c r="M95" t="n">
-        <v>10836</v>
+        <v>13532</v>
       </c>
       <c r="N95" t="n">
-        <v>13313</v>
+        <v>15044</v>
       </c>
       <c r="O95" t="n">
-        <v>4275</v>
+        <v>5361</v>
       </c>
       <c r="P95" t="n">
         <v>1095</v>
       </c>
       <c r="Q95" t="n">
-        <v>1933.3</v>
+        <v>1933.1</v>
       </c>
       <c r="R95" t="n">
         <v>263</v>
@@ -7335,7 +7327,7 @@
         <v>31210</v>
       </c>
       <c r="I96" t="n">
-        <v>241005</v>
+        <v>241003</v>
       </c>
       <c r="J96" t="n">
         <v>139890</v>
@@ -7344,22 +7336,22 @@
         <v>36006</v>
       </c>
       <c r="L96" t="n">
-        <v>32293</v>
+        <v>36065</v>
       </c>
       <c r="M96" t="n">
-        <v>12794</v>
+        <v>12608</v>
       </c>
       <c r="N96" t="n">
-        <v>12296</v>
+        <v>14132</v>
       </c>
       <c r="O96" t="n">
-        <v>3805</v>
+        <v>5094</v>
       </c>
       <c r="P96" t="n">
         <v>1773</v>
       </c>
       <c r="Q96" t="n">
-        <v>1801.3</v>
+        <v>1801.1</v>
       </c>
       <c r="R96" t="n">
         <v>819</v>
@@ -7409,7 +7401,7 @@
         <v>31441</v>
       </c>
       <c r="I97" t="n">
-        <v>243060</v>
+        <v>243058</v>
       </c>
       <c r="J97" t="n">
         <v>152918</v>
@@ -7418,22 +7410,22 @@
         <v>36965</v>
       </c>
       <c r="L97" t="n">
-        <v>29739</v>
+        <v>34346</v>
       </c>
       <c r="M97" t="n">
-        <v>11961</v>
+        <v>14848</v>
       </c>
       <c r="N97" t="n">
-        <v>23373</v>
+        <v>25324</v>
       </c>
       <c r="O97" t="n">
-        <v>15860</v>
+        <v>16833</v>
       </c>
       <c r="P97" t="n">
         <v>2055</v>
       </c>
       <c r="Q97" t="n">
-        <v>2121.3</v>
+        <v>2121.1</v>
       </c>
       <c r="R97" t="n">
         <v>13028</v>
@@ -7483,7 +7475,7 @@
         <v>31685</v>
       </c>
       <c r="I98" t="n">
-        <v>246007</v>
+        <v>246005</v>
       </c>
       <c r="J98" t="n">
         <v>153749</v>
@@ -7492,16 +7484,16 @@
         <v>37943</v>
       </c>
       <c r="L98" t="n">
-        <v>28965</v>
+        <v>32685</v>
       </c>
       <c r="M98" t="n">
-        <v>11686</v>
+        <v>14908</v>
       </c>
       <c r="N98" t="n">
-        <v>22838</v>
+        <v>24204</v>
       </c>
       <c r="O98" t="n">
-        <v>15810</v>
+        <v>16691</v>
       </c>
       <c r="P98" t="n">
         <v>2947</v>
@@ -7539,7 +7531,7 @@
         <v>1046</v>
       </c>
       <c r="C99" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" t="n">
         <v>10541</v>
@@ -7557,37 +7549,37 @@
         <v>31912</v>
       </c>
       <c r="I99" t="n">
-        <v>246381</v>
+        <v>246378</v>
       </c>
       <c r="J99" t="n">
-        <v>154449</v>
+        <v>154448</v>
       </c>
       <c r="K99" t="n">
         <v>38932</v>
       </c>
       <c r="L99" t="n">
-        <v>25676</v>
+        <v>29337</v>
       </c>
       <c r="M99" t="n">
-        <v>9902</v>
+        <v>12059</v>
       </c>
       <c r="N99" t="n">
-        <v>22043</v>
+        <v>23537</v>
       </c>
       <c r="O99" t="n">
-        <v>15985</v>
+        <v>16509</v>
       </c>
       <c r="P99" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q99" t="n">
-        <v>1722.9</v>
+        <v>1722.7</v>
       </c>
       <c r="R99" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S99" t="n">
-        <v>2358.6</v>
+        <v>2358.4</v>
       </c>
       <c r="T99" t="n">
         <v>227</v>
@@ -7631,37 +7623,37 @@
         <v>32122</v>
       </c>
       <c r="I100" t="n">
-        <v>250916</v>
+        <v>250913</v>
       </c>
       <c r="J100" t="n">
-        <v>155131</v>
+        <v>155130</v>
       </c>
       <c r="K100" t="n">
         <v>39875</v>
       </c>
       <c r="L100" t="n">
-        <v>27591</v>
+        <v>30209</v>
       </c>
       <c r="M100" t="n">
-        <v>12779</v>
+        <v>14436</v>
       </c>
       <c r="N100" t="n">
-        <v>21933</v>
+        <v>22724</v>
       </c>
       <c r="O100" t="n">
-        <v>16323</v>
+        <v>16666</v>
       </c>
       <c r="P100" t="n">
         <v>4535</v>
       </c>
       <c r="Q100" t="n">
-        <v>2062.4</v>
+        <v>2062.3</v>
       </c>
       <c r="R100" t="n">
         <v>682</v>
       </c>
       <c r="S100" t="n">
-        <v>2381</v>
+        <v>2380.9</v>
       </c>
       <c r="T100" t="n">
         <v>210</v>
@@ -7705,37 +7697,37 @@
         <v>32296</v>
       </c>
       <c r="I101" t="n">
-        <v>252734</v>
+        <v>252731</v>
       </c>
       <c r="J101" t="n">
-        <v>155429</v>
+        <v>155428</v>
       </c>
       <c r="K101" t="n">
         <v>41086</v>
       </c>
       <c r="L101" t="n">
-        <v>27035</v>
+        <v>29407</v>
       </c>
       <c r="M101" t="n">
-        <v>13502</v>
+        <v>14596</v>
       </c>
       <c r="N101" t="n">
-        <v>21719</v>
+        <v>22230</v>
       </c>
       <c r="O101" t="n">
-        <v>16358</v>
+        <v>16620</v>
       </c>
       <c r="P101" t="n">
         <v>1818</v>
       </c>
       <c r="Q101" t="n">
-        <v>2085.3</v>
+        <v>2085.1</v>
       </c>
       <c r="R101" t="n">
         <v>298</v>
       </c>
       <c r="S101" t="n">
-        <v>2374.4</v>
+        <v>2374.3</v>
       </c>
       <c r="T101" t="n">
         <v>174</v>
@@ -7779,37 +7771,37 @@
         <v>32442</v>
       </c>
       <c r="I102" t="n">
-        <v>251691</v>
+        <v>251688</v>
       </c>
       <c r="J102" t="n">
-        <v>155660</v>
+        <v>155659</v>
       </c>
       <c r="K102" t="n">
         <v>41579</v>
       </c>
       <c r="L102" t="n">
-        <v>23295</v>
+        <v>25990</v>
       </c>
       <c r="M102" t="n">
-        <v>10686</v>
+        <v>12458</v>
       </c>
       <c r="N102" t="n">
-        <v>20864</v>
+        <v>21949</v>
       </c>
       <c r="O102" t="n">
-        <v>15770</v>
+        <v>16588</v>
       </c>
       <c r="P102" t="n">
         <v>-1043</v>
       </c>
       <c r="Q102" t="n">
-        <v>1779.9</v>
+        <v>1779.7</v>
       </c>
       <c r="R102" t="n">
         <v>231</v>
       </c>
       <c r="S102" t="n">
-        <v>2369.9</v>
+        <v>2369.7</v>
       </c>
       <c r="T102" t="n">
         <v>146</v>
@@ -7844,7 +7836,7 @@
         <v>17973</v>
       </c>
       <c r="F103" t="n">
-        <v>11594</v>
+        <v>11595</v>
       </c>
       <c r="G103" t="n">
         <v>1570</v>
@@ -7853,37 +7845,37 @@
         <v>32603</v>
       </c>
       <c r="I103" t="n">
-        <v>255316</v>
+        <v>255313</v>
       </c>
       <c r="J103" t="n">
-        <v>156236</v>
+        <v>156235</v>
       </c>
       <c r="K103" t="n">
         <v>41920</v>
       </c>
       <c r="L103" t="n">
-        <v>27105</v>
+        <v>26918</v>
       </c>
       <c r="M103" t="n">
-        <v>12256</v>
+        <v>14310</v>
       </c>
       <c r="N103" t="n">
-        <v>20151</v>
+        <v>21439</v>
       </c>
       <c r="O103" t="n">
-        <v>3318</v>
+        <v>16345</v>
       </c>
       <c r="P103" t="n">
         <v>3625</v>
       </c>
       <c r="Q103" t="n">
-        <v>2044.4</v>
+        <v>2044.3</v>
       </c>
       <c r="R103" t="n">
         <v>576</v>
       </c>
       <c r="S103" t="n">
-        <v>2335.1</v>
+        <v>2335</v>
       </c>
       <c r="T103" t="n">
         <v>161</v>
@@ -7918,7 +7910,7 @@
         <v>18099</v>
       </c>
       <c r="F104" t="n">
-        <v>11181</v>
+        <v>11183</v>
       </c>
       <c r="G104" t="n">
         <v>1482</v>
@@ -7927,37 +7919,37 @@
         <v>32753</v>
       </c>
       <c r="I104" t="n">
-        <v>256996</v>
+        <v>256993</v>
       </c>
       <c r="J104" t="n">
-        <v>156920</v>
+        <v>156919</v>
       </c>
       <c r="K104" t="n">
         <v>42608</v>
       </c>
       <c r="L104" t="n">
-        <v>25897</v>
+        <v>28783</v>
       </c>
       <c r="M104" t="n">
-        <v>10989</v>
+        <v>13935</v>
       </c>
       <c r="N104" t="n">
-        <v>19862</v>
+        <v>20834</v>
       </c>
       <c r="O104" t="n">
-        <v>3171</v>
+        <v>4001</v>
       </c>
       <c r="P104" t="n">
         <v>1680</v>
       </c>
       <c r="Q104" t="n">
-        <v>1990.9</v>
+        <v>1990.7</v>
       </c>
       <c r="R104" t="n">
         <v>684</v>
       </c>
       <c r="S104" t="n">
-        <v>571.7</v>
+        <v>571.6</v>
       </c>
       <c r="T104" t="n">
         <v>150</v>
@@ -7992,7 +7984,7 @@
         <v>18076</v>
       </c>
       <c r="F105" t="n">
-        <v>10765</v>
+        <v>10767</v>
       </c>
       <c r="G105" t="n">
         <v>1428</v>
@@ -8001,37 +7993,37 @@
         <v>32872</v>
       </c>
       <c r="I105" t="n">
-        <v>258595</v>
+        <v>258592</v>
       </c>
       <c r="J105" t="n">
-        <v>157634</v>
+        <v>157633</v>
       </c>
       <c r="K105" t="n">
         <v>43586</v>
       </c>
       <c r="L105" t="n">
-        <v>24274</v>
+        <v>27495</v>
       </c>
       <c r="M105" t="n">
-        <v>12214</v>
+        <v>12587</v>
       </c>
       <c r="N105" t="n">
-        <v>19695</v>
+        <v>20575</v>
       </c>
       <c r="O105" t="n">
-        <v>3185</v>
+        <v>3884</v>
       </c>
       <c r="P105" t="n">
         <v>1599</v>
       </c>
       <c r="Q105" t="n">
-        <v>1798.3</v>
+        <v>1798.1</v>
       </c>
       <c r="R105" t="n">
         <v>714</v>
       </c>
       <c r="S105" t="n">
-        <v>555</v>
+        <v>554.9</v>
       </c>
       <c r="T105" t="n">
         <v>119</v>
@@ -8066,7 +8058,7 @@
         <v>2826</v>
       </c>
       <c r="F106" t="n">
-        <v>10313</v>
+        <v>10315</v>
       </c>
       <c r="G106" t="n">
         <v>1344</v>
@@ -8075,25 +8067,25 @@
         <v>32990</v>
       </c>
       <c r="I106" t="n">
-        <v>203379</v>
+        <v>203376</v>
       </c>
       <c r="J106" t="n">
-        <v>185581</v>
+        <v>185580</v>
       </c>
       <c r="K106" t="n">
         <v>44466</v>
       </c>
       <c r="L106" t="n">
-        <v>-33100</v>
+        <v>-30943</v>
       </c>
       <c r="M106" t="n">
-        <v>-47537</v>
+        <v>-43002</v>
       </c>
       <c r="N106" t="n">
-        <v>47117</v>
+        <v>47641</v>
       </c>
       <c r="O106" t="n">
-        <v>30450</v>
+        <v>31132</v>
       </c>
       <c r="P106" t="n">
         <v>-55216</v>
@@ -8134,13 +8126,13 @@
         <v>339</v>
       </c>
       <c r="D107" t="n">
-        <v>12359</v>
+        <v>12358</v>
       </c>
       <c r="E107" t="n">
         <v>2826</v>
       </c>
       <c r="F107" t="n">
-        <v>9961</v>
+        <v>9963</v>
       </c>
       <c r="G107" t="n">
         <v>1393</v>
@@ -8149,31 +8141,31 @@
         <v>33103</v>
       </c>
       <c r="I107" t="n">
-        <v>204675</v>
+        <v>204671</v>
       </c>
       <c r="J107" t="n">
-        <v>199013</v>
+        <v>199012</v>
       </c>
       <c r="K107" t="n">
         <v>45150</v>
       </c>
       <c r="L107" t="n">
-        <v>-33462</v>
+        <v>-31806</v>
       </c>
       <c r="M107" t="n">
-        <v>-48059</v>
+        <v>-46242</v>
       </c>
       <c r="N107" t="n">
-        <v>60205</v>
+        <v>60548</v>
       </c>
       <c r="O107" t="n">
-        <v>43584</v>
+        <v>43882</v>
       </c>
       <c r="P107" t="n">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q107" t="n">
-        <v>-6605.9</v>
+        <v>-6606</v>
       </c>
       <c r="R107" t="n">
         <v>13432</v>
@@ -8214,7 +8206,7 @@
         <v>2823</v>
       </c>
       <c r="F108" t="n">
-        <v>9735</v>
+        <v>9737</v>
       </c>
       <c r="G108" t="n">
         <v>1353</v>
@@ -8223,31 +8215,31 @@
         <v>33193</v>
       </c>
       <c r="I108" t="n">
-        <v>205288</v>
+        <v>205284</v>
       </c>
       <c r="J108" t="n">
-        <v>199333</v>
+        <v>199332</v>
       </c>
       <c r="K108" t="n">
         <v>45881</v>
       </c>
       <c r="L108" t="n">
-        <v>-33944</v>
+        <v>-32851</v>
       </c>
       <c r="M108" t="n">
-        <v>-46403</v>
+        <v>-47447</v>
       </c>
       <c r="N108" t="n">
-        <v>60262</v>
+        <v>60524</v>
       </c>
       <c r="O108" t="n">
-        <v>43673</v>
+        <v>43904</v>
       </c>
       <c r="P108" t="n">
         <v>613</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6778</v>
+        <v>-6778.1</v>
       </c>
       <c r="R108" t="n">
         <v>320</v>
@@ -8288,7 +8280,7 @@
         <v>2809</v>
       </c>
       <c r="F109" t="n">
-        <v>9679</v>
+        <v>9681</v>
       </c>
       <c r="G109" t="n">
         <v>1338</v>
@@ -8297,31 +8289,31 @@
         <v>33264</v>
       </c>
       <c r="I109" t="n">
-        <v>205636</v>
+        <v>205632</v>
       </c>
       <c r="J109" t="n">
-        <v>199586</v>
+        <v>199585</v>
       </c>
       <c r="K109" t="n">
         <v>46333</v>
       </c>
       <c r="L109" t="n">
-        <v>-35369</v>
+        <v>-33598</v>
       </c>
       <c r="M109" t="n">
-        <v>-49680</v>
+        <v>-46056</v>
       </c>
       <c r="N109" t="n">
-        <v>59696</v>
+        <v>60514</v>
       </c>
       <c r="O109" t="n">
-        <v>43350</v>
+        <v>43926</v>
       </c>
       <c r="P109" t="n">
         <v>348</v>
       </c>
       <c r="Q109" t="n">
-        <v>-6579.3</v>
+        <v>-6579.4</v>
       </c>
       <c r="R109" t="n">
         <v>253</v>
@@ -8362,7 +8354,7 @@
         <v>2784</v>
       </c>
       <c r="F110" t="n">
-        <v>9524</v>
+        <v>9526</v>
       </c>
       <c r="G110" t="n">
         <v>1281</v>
@@ -8371,31 +8363,31 @@
         <v>33336</v>
       </c>
       <c r="I110" t="n">
-        <v>179119</v>
+        <v>179115</v>
       </c>
       <c r="J110" t="n">
-        <v>224917</v>
+        <v>224916</v>
       </c>
       <c r="K110" t="n">
         <v>40246</v>
       </c>
       <c r="L110" t="n">
-        <v>-63941</v>
+        <v>-61888</v>
       </c>
       <c r="M110" t="n">
-        <v>-77877</v>
+        <v>-76198</v>
       </c>
       <c r="N110" t="n">
-        <v>71999</v>
+        <v>85026</v>
       </c>
       <c r="O110" t="n">
-        <v>67997</v>
+        <v>68681</v>
       </c>
       <c r="P110" t="n">
         <v>-26517</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10885.3</v>
+        <v>-10885.4</v>
       </c>
       <c r="R110" t="n">
         <v>25331</v>
@@ -8436,7 +8428,7 @@
         <v>1564</v>
       </c>
       <c r="F111" t="n">
-        <v>9154</v>
+        <v>9155</v>
       </c>
       <c r="G111" t="n">
         <v>1221</v>
@@ -8445,31 +8437,31 @@
         <v>33415</v>
       </c>
       <c r="I111" t="n">
-        <v>175023</v>
+        <v>175019</v>
       </c>
       <c r="J111" t="n">
-        <v>231187</v>
+        <v>231186</v>
       </c>
       <c r="K111" t="n">
         <v>40464</v>
       </c>
       <c r="L111" t="n">
-        <v>-70984</v>
+        <v>-68039</v>
       </c>
       <c r="M111" t="n">
-        <v>-83572</v>
+        <v>-81974</v>
       </c>
       <c r="N111" t="n">
-        <v>77438</v>
+        <v>78268</v>
       </c>
       <c r="O111" t="n">
-        <v>73553</v>
+        <v>74267</v>
       </c>
       <c r="P111" t="n">
         <v>-4096</v>
       </c>
       <c r="Q111" t="n">
-        <v>-11710.4</v>
+        <v>-11710.6</v>
       </c>
       <c r="R111" t="n">
         <v>6270</v>
@@ -8510,7 +8502,7 @@
         <v>1370</v>
       </c>
       <c r="F112" t="n">
-        <v>8842</v>
+        <v>8843</v>
       </c>
       <c r="G112" t="n">
         <v>1159</v>
@@ -8519,31 +8511,31 @@
         <v>32052</v>
       </c>
       <c r="I112" t="n">
-        <v>175585</v>
+        <v>175581</v>
       </c>
       <c r="J112" t="n">
-        <v>231976</v>
+        <v>231975</v>
       </c>
       <c r="K112" t="n">
         <v>46183</v>
       </c>
       <c r="L112" t="n">
-        <v>-70796</v>
+        <v>-70424</v>
       </c>
       <c r="M112" t="n">
-        <v>-27794</v>
+        <v>-83011</v>
       </c>
       <c r="N112" t="n">
-        <v>77527</v>
+        <v>78226</v>
       </c>
       <c r="O112" t="n">
-        <v>46395</v>
+        <v>74342</v>
       </c>
       <c r="P112" t="n">
         <v>562</v>
       </c>
       <c r="Q112" t="n">
-        <v>-11858.6</v>
+        <v>-11858.7</v>
       </c>
       <c r="R112" t="n">
         <v>789</v>
@@ -8584,7 +8576,7 @@
         <v>1344</v>
       </c>
       <c r="F113" t="n">
-        <v>8524</v>
+        <v>8525</v>
       </c>
       <c r="G113" t="n">
         <v>771</v>
@@ -8593,31 +8585,31 @@
         <v>32114</v>
       </c>
       <c r="I113" t="n">
-        <v>83756</v>
+        <v>83752</v>
       </c>
       <c r="J113" t="n">
-        <v>232850</v>
+        <v>232849</v>
       </c>
       <c r="K113" t="n">
         <v>49016</v>
       </c>
       <c r="L113" t="n">
-        <v>-167160</v>
+        <v>-162626</v>
       </c>
       <c r="M113" t="n">
-        <v>-120919</v>
+        <v>-119624</v>
       </c>
       <c r="N113" t="n">
-        <v>77719</v>
+        <v>78401</v>
       </c>
       <c r="O113" t="n">
-        <v>33837</v>
+        <v>47269</v>
       </c>
       <c r="P113" t="n">
         <v>-91829</v>
       </c>
       <c r="Q113" t="n">
-        <v>-17089</v>
+        <v>-17089.1</v>
       </c>
       <c r="R113" t="n">
         <v>874</v>
@@ -8658,7 +8650,7 @@
         <v>1338</v>
       </c>
       <c r="F114" t="n">
-        <v>8214</v>
+        <v>8215</v>
       </c>
       <c r="G114" t="n">
         <v>701</v>
@@ -8667,25 +8659,25 @@
         <v>32184</v>
       </c>
       <c r="I114" t="n">
-        <v>84244</v>
+        <v>84240</v>
       </c>
       <c r="J114" t="n">
-        <v>233727</v>
+        <v>233726</v>
       </c>
       <c r="K114" t="n">
         <v>49577</v>
       </c>
       <c r="L114" t="n">
-        <v>-168490</v>
+        <v>-166673</v>
       </c>
       <c r="M114" t="n">
-        <v>-121044</v>
+        <v>-120431</v>
       </c>
       <c r="N114" t="n">
-        <v>78298</v>
+        <v>78596</v>
       </c>
       <c r="O114" t="n">
-        <v>34394</v>
+        <v>34714</v>
       </c>
       <c r="P114" t="n">
         <v>488</v>
@@ -8732,7 +8724,7 @@
         <v>1322</v>
       </c>
       <c r="F115" t="n">
-        <v>8010</v>
+        <v>8011</v>
       </c>
       <c r="G115" t="n">
         <v>703</v>
@@ -8741,25 +8733,25 @@
         <v>32261</v>
       </c>
       <c r="I115" t="n">
-        <v>84458</v>
+        <v>84454</v>
       </c>
       <c r="J115" t="n">
-        <v>234063</v>
+        <v>234062</v>
       </c>
       <c r="K115" t="n">
         <v>39307</v>
       </c>
       <c r="L115" t="n">
-        <v>-167233</v>
+        <v>-168277</v>
       </c>
       <c r="M115" t="n">
-        <v>-121178</v>
+        <v>-120830</v>
       </c>
       <c r="N115" t="n">
-        <v>78403</v>
+        <v>78634</v>
       </c>
       <c r="O115" t="n">
-        <v>34477</v>
+        <v>34730</v>
       </c>
       <c r="P115" t="n">
         <v>214</v>
@@ -8806,7 +8798,7 @@
         <v>1322</v>
       </c>
       <c r="F116" t="n">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="G116" t="n">
         <v>686</v>
@@ -8815,25 +8807,25 @@
         <v>32312</v>
       </c>
       <c r="I116" t="n">
-        <v>84618</v>
+        <v>84614</v>
       </c>
       <c r="J116" t="n">
-        <v>234356</v>
+        <v>234355</v>
       </c>
       <c r="K116" t="n">
         <v>39504</v>
       </c>
       <c r="L116" t="n">
-        <v>-170698</v>
+        <v>-167074</v>
       </c>
       <c r="M116" t="n">
-        <v>-94501</v>
+        <v>-121018</v>
       </c>
       <c r="N116" t="n">
-        <v>78120</v>
+        <v>78696</v>
       </c>
       <c r="O116" t="n">
-        <v>9439</v>
+        <v>34770</v>
       </c>
       <c r="P116" t="n">
         <v>160</v>
@@ -8871,7 +8863,7 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D117" t="n">
         <v>22</v>
@@ -8880,7 +8872,7 @@
         <v>1647</v>
       </c>
       <c r="F117" t="n">
-        <v>7885</v>
+        <v>7887</v>
       </c>
       <c r="G117" t="n">
         <v>667</v>
@@ -8889,37 +8881,37 @@
         <v>32366</v>
       </c>
       <c r="I117" t="n">
-        <v>84959</v>
+        <v>84954</v>
       </c>
       <c r="J117" t="n">
-        <v>234900</v>
+        <v>234898</v>
       </c>
       <c r="K117" t="n">
         <v>41496</v>
       </c>
       <c r="L117" t="n">
-        <v>-172037</v>
+        <v>-170359</v>
       </c>
       <c r="M117" t="n">
-        <v>-90064</v>
+        <v>-94161</v>
       </c>
       <c r="N117" t="n">
-        <v>77980</v>
+        <v>78663</v>
       </c>
       <c r="O117" t="n">
-        <v>3713</v>
+        <v>9982</v>
       </c>
       <c r="P117" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q117" t="n">
-        <v>-13451.4</v>
+        <v>-13451.6</v>
       </c>
       <c r="R117" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S117" t="n">
-        <v>1426.1</v>
+        <v>1426</v>
       </c>
       <c r="T117" t="n">
         <v>54</v>
@@ -8945,7 +8937,7 @@
         <v>40</v>
       </c>
       <c r="C118" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D118" t="n">
         <v>29</v>
@@ -8954,7 +8946,7 @@
         <v>1213</v>
       </c>
       <c r="F118" t="n">
-        <v>7711</v>
+        <v>7713</v>
       </c>
       <c r="G118" t="n">
         <v>633</v>
@@ -8963,37 +8955,37 @@
         <v>32426</v>
       </c>
       <c r="I118" t="n">
-        <v>85338</v>
+        <v>85332</v>
       </c>
       <c r="J118" t="n">
-        <v>235610</v>
+        <v>235607</v>
       </c>
       <c r="K118" t="n">
         <v>53170</v>
       </c>
       <c r="L118" t="n">
-        <v>-173257</v>
+        <v>-171661</v>
       </c>
       <c r="M118" t="n">
-        <v>-90247</v>
+        <v>-89687</v>
       </c>
       <c r="N118" t="n">
-        <v>77976</v>
+        <v>78688</v>
       </c>
       <c r="O118" t="n">
-        <v>3634</v>
+        <v>4421</v>
       </c>
       <c r="P118" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q118" t="n">
-        <v>-12812.1</v>
+        <v>-12812.4</v>
       </c>
       <c r="R118" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S118" t="n">
-        <v>631.9</v>
+        <v>631.6</v>
       </c>
       <c r="T118" t="n">
         <v>60</v>
@@ -9019,7 +9011,7 @@
         <v>51</v>
       </c>
       <c r="C119" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D119" t="n">
         <v>54</v>
@@ -9028,7 +9020,7 @@
         <v>1143</v>
       </c>
       <c r="F119" t="n">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="G119" t="n">
         <v>591</v>
@@ -9037,34 +9029,34 @@
         <v>32486</v>
       </c>
       <c r="I119" t="n">
-        <v>85734</v>
+        <v>85730</v>
       </c>
       <c r="J119" t="n">
-        <v>236395</v>
+        <v>236394</v>
       </c>
       <c r="K119" t="n">
         <v>53883</v>
       </c>
       <c r="L119" t="n">
-        <v>-117645</v>
+        <v>-172862</v>
       </c>
       <c r="M119" t="n">
-        <v>1978</v>
+        <v>-89851</v>
       </c>
       <c r="N119" t="n">
-        <v>50814</v>
+        <v>78761</v>
       </c>
       <c r="O119" t="n">
-        <v>3545</v>
+        <v>4419</v>
       </c>
       <c r="P119" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q119" t="n">
         <v>-12835.9</v>
       </c>
       <c r="R119" t="n">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="S119" t="n">
         <v>631.3</v>
@@ -9102,7 +9094,7 @@
         <v>859</v>
       </c>
       <c r="F120" t="n">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="G120" t="n">
         <v>524</v>
@@ -9111,25 +9103,25 @@
         <v>32528</v>
       </c>
       <c r="I120" t="n">
-        <v>83950</v>
+        <v>83946</v>
       </c>
       <c r="J120" t="n">
-        <v>237089</v>
+        <v>237088</v>
       </c>
       <c r="K120" t="n">
         <v>52897</v>
       </c>
       <c r="L120" t="n">
-        <v>-120725</v>
+        <v>-119430</v>
       </c>
       <c r="M120" t="n">
-        <v>-294</v>
+        <v>194</v>
       </c>
       <c r="N120" t="n">
-        <v>38076</v>
+        <v>51508</v>
       </c>
       <c r="O120" t="n">
-        <v>3362</v>
+        <v>4239</v>
       </c>
       <c r="P120" t="n">
         <v>-1784</v>
@@ -9176,7 +9168,7 @@
         <v>1652</v>
       </c>
       <c r="F121" t="n">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="G121" t="n">
         <v>521</v>
@@ -9185,25 +9177,25 @@
         <v>32742</v>
       </c>
       <c r="I121" t="n">
-        <v>86333</v>
+        <v>86329</v>
       </c>
       <c r="J121" t="n">
-        <v>237822</v>
+        <v>237821</v>
       </c>
       <c r="K121" t="n">
         <v>60941</v>
       </c>
       <c r="L121" t="n">
-        <v>-118955</v>
+        <v>-118342</v>
       </c>
       <c r="M121" t="n">
-        <v>1875</v>
+        <v>2089</v>
       </c>
       <c r="N121" t="n">
-        <v>38489</v>
+        <v>38809</v>
       </c>
       <c r="O121" t="n">
-        <v>3759</v>
+        <v>4095</v>
       </c>
       <c r="P121" t="n">
         <v>2383</v>
@@ -9250,7 +9242,7 @@
         <v>1595</v>
       </c>
       <c r="F122" t="n">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="G122" t="n">
         <v>514</v>
@@ -9259,25 +9251,25 @@
         <v>32783</v>
       </c>
       <c r="I122" t="n">
-        <v>86474</v>
+        <v>86470</v>
       </c>
       <c r="J122" t="n">
-        <v>238184</v>
+        <v>238183</v>
       </c>
       <c r="K122" t="n">
         <v>61527</v>
       </c>
       <c r="L122" t="n">
-        <v>-119162</v>
+        <v>-118814</v>
       </c>
       <c r="M122" t="n">
-        <v>1856</v>
+        <v>2016</v>
       </c>
       <c r="N122" t="n">
-        <v>38598</v>
+        <v>38851</v>
       </c>
       <c r="O122" t="n">
-        <v>3828</v>
+        <v>4121</v>
       </c>
       <c r="P122" t="n">
         <v>141</v>
@@ -9324,7 +9316,7 @@
         <v>1565</v>
       </c>
       <c r="F123" t="n">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="G123" t="n">
         <v>520</v>
@@ -9333,25 +9325,25 @@
         <v>32817</v>
       </c>
       <c r="I123" t="n">
-        <v>86521</v>
+        <v>86517</v>
       </c>
       <c r="J123" t="n">
-        <v>238460</v>
+        <v>238459</v>
       </c>
       <c r="K123" t="n">
         <v>61840</v>
       </c>
       <c r="L123" t="n">
-        <v>-92598</v>
+        <v>-119115</v>
       </c>
       <c r="M123" t="n">
-        <v>1562</v>
+        <v>1903</v>
       </c>
       <c r="N123" t="n">
-        <v>13543</v>
+        <v>38874</v>
       </c>
       <c r="O123" t="n">
-        <v>3560</v>
+        <v>4104</v>
       </c>
       <c r="P123" t="n">
         <v>47</v>
@@ -9398,7 +9390,7 @@
         <v>1513</v>
       </c>
       <c r="F124" t="n">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="G124" t="n">
         <v>511</v>
@@ -9407,37 +9399,37 @@
         <v>32846</v>
       </c>
       <c r="I124" t="n">
-        <v>86598</v>
+        <v>86594</v>
       </c>
       <c r="J124" t="n">
-        <v>238840</v>
+        <v>238839</v>
       </c>
       <c r="K124" t="n">
         <v>62091</v>
       </c>
       <c r="L124" t="n">
-        <v>-88425</v>
+        <v>-92521</v>
       </c>
       <c r="M124" t="n">
-        <v>1260</v>
+        <v>1640</v>
       </c>
       <c r="N124" t="n">
-        <v>7653</v>
+        <v>13923</v>
       </c>
       <c r="O124" t="n">
-        <v>3230</v>
+        <v>3941</v>
       </c>
       <c r="P124" t="n">
         <v>77</v>
       </c>
       <c r="Q124" t="n">
-        <v>234.1</v>
+        <v>234.3</v>
       </c>
       <c r="R124" t="n">
         <v>380</v>
       </c>
       <c r="S124" t="n">
-        <v>562.9</v>
+        <v>563</v>
       </c>
       <c r="T124" t="n">
         <v>29</v>
@@ -9472,7 +9464,7 @@
         <v>1321</v>
       </c>
       <c r="F125" t="n">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="G125" t="n">
         <v>468</v>
@@ -9481,37 +9473,37 @@
         <v>32856</v>
       </c>
       <c r="I125" t="n">
-        <v>84774</v>
+        <v>84770</v>
       </c>
       <c r="J125" t="n">
-        <v>239454</v>
+        <v>239453</v>
       </c>
       <c r="K125" t="n">
         <v>60998</v>
       </c>
       <c r="L125" t="n">
-        <v>-90811</v>
+        <v>-90249</v>
       </c>
       <c r="M125" t="n">
-        <v>-960</v>
+        <v>-562</v>
       </c>
       <c r="N125" t="n">
-        <v>7478</v>
+        <v>8267</v>
       </c>
       <c r="O125" t="n">
-        <v>3059</v>
+        <v>3846</v>
       </c>
       <c r="P125" t="n">
         <v>-1824</v>
       </c>
       <c r="Q125" t="n">
-        <v>-80.6</v>
+        <v>-80.3</v>
       </c>
       <c r="R125" t="n">
         <v>614</v>
       </c>
       <c r="S125" t="n">
-        <v>549.1</v>
+        <v>549.4</v>
       </c>
       <c r="T125" t="n">
         <v>10</v>
@@ -9546,7 +9538,7 @@
         <v>1537</v>
       </c>
       <c r="F126" t="n">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="G126" t="n">
         <v>440</v>
@@ -9555,25 +9547,25 @@
         <v>32926</v>
       </c>
       <c r="I126" t="n">
-        <v>87103</v>
+        <v>87099</v>
       </c>
       <c r="J126" t="n">
-        <v>240103</v>
+        <v>240102</v>
       </c>
       <c r="K126" t="n">
         <v>63197</v>
       </c>
       <c r="L126" t="n">
-        <v>3347</v>
+        <v>-88482</v>
       </c>
       <c r="M126" t="n">
-        <v>3153</v>
+        <v>1369</v>
       </c>
       <c r="N126" t="n">
-        <v>7253</v>
+        <v>8127</v>
       </c>
       <c r="O126" t="n">
-        <v>3014</v>
+        <v>3708</v>
       </c>
       <c r="P126" t="n">
         <v>2329</v>
@@ -9620,7 +9612,7 @@
         <v>402</v>
       </c>
       <c r="F127" t="n">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="G127" t="n">
         <v>415</v>
@@ -9629,25 +9621,25 @@
         <v>33291</v>
       </c>
       <c r="I127" t="n">
-        <v>94576</v>
+        <v>94572</v>
       </c>
       <c r="J127" t="n">
-        <v>240676</v>
+        <v>240675</v>
       </c>
       <c r="K127" t="n">
         <v>56161</v>
       </c>
       <c r="L127" t="n">
-        <v>10332</v>
+        <v>10820</v>
       </c>
       <c r="M127" t="n">
-        <v>8243</v>
+        <v>10626</v>
       </c>
       <c r="N127" t="n">
-        <v>6949</v>
+        <v>7826</v>
       </c>
       <c r="O127" t="n">
-        <v>2854</v>
+        <v>3587</v>
       </c>
       <c r="P127" t="n">
         <v>7473</v>
@@ -9694,7 +9686,7 @@
         <v>357</v>
       </c>
       <c r="F128" t="n">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="G128" t="n">
         <v>405</v>
@@ -9703,25 +9695,25 @@
         <v>33315</v>
       </c>
       <c r="I128" t="n">
-        <v>97088</v>
+        <v>97084</v>
       </c>
       <c r="J128" t="n">
-        <v>243398</v>
+        <v>243397</v>
       </c>
       <c r="K128" t="n">
         <v>58166</v>
       </c>
       <c r="L128" t="n">
-        <v>12630</v>
+        <v>12844</v>
       </c>
       <c r="M128" t="n">
-        <v>10614</v>
+        <v>10755</v>
       </c>
       <c r="N128" t="n">
-        <v>9335</v>
+        <v>9671</v>
       </c>
       <c r="O128" t="n">
-        <v>5214</v>
+        <v>5576</v>
       </c>
       <c r="P128" t="n">
         <v>2512</v>
@@ -9759,7 +9751,7 @@
         <v>65</v>
       </c>
       <c r="C129" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D129" t="n">
         <v>4</v>
@@ -9768,7 +9760,7 @@
         <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G129" t="n">
         <v>399</v>
@@ -9777,37 +9769,37 @@
         <v>33343</v>
       </c>
       <c r="I129" t="n">
-        <v>97080</v>
+        <v>97075</v>
       </c>
       <c r="J129" t="n">
-        <v>243752</v>
+        <v>243750</v>
       </c>
       <c r="K129" t="n">
         <v>58388</v>
       </c>
       <c r="L129" t="n">
-        <v>12462</v>
+        <v>12621</v>
       </c>
       <c r="M129" t="n">
-        <v>10559</v>
+        <v>10605</v>
       </c>
       <c r="N129" t="n">
-        <v>9396</v>
+        <v>9688</v>
       </c>
       <c r="O129" t="n">
-        <v>5292</v>
+        <v>5567</v>
       </c>
       <c r="P129" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="Q129" t="n">
-        <v>1515.1</v>
+        <v>1515</v>
       </c>
       <c r="R129" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S129" t="n">
-        <v>795.4</v>
+        <v>795.3</v>
       </c>
       <c r="T129" t="n">
         <v>28</v>
@@ -9833,7 +9825,7 @@
         <v>62</v>
       </c>
       <c r="C130" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -9842,7 +9834,7 @@
         <v>360</v>
       </c>
       <c r="F130" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G130" t="n">
         <v>408</v>
@@ -9851,34 +9843,34 @@
         <v>33369</v>
       </c>
       <c r="I130" t="n">
-        <v>97237</v>
+        <v>97233</v>
       </c>
       <c r="J130" t="n">
-        <v>244349</v>
+        <v>244348</v>
       </c>
       <c r="K130" t="n">
         <v>58665</v>
       </c>
       <c r="L130" t="n">
-        <v>12278</v>
+        <v>12619</v>
       </c>
       <c r="M130" t="n">
-        <v>10639</v>
+        <v>10716</v>
       </c>
       <c r="N130" t="n">
-        <v>9449</v>
+        <v>9993</v>
       </c>
       <c r="O130" t="n">
-        <v>5509</v>
+        <v>5889</v>
       </c>
       <c r="P130" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q130" t="n">
         <v>1530.9</v>
       </c>
       <c r="R130" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="S130" t="n">
         <v>841.3</v>
@@ -9907,7 +9899,7 @@
         <v>22</v>
       </c>
       <c r="C131" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D131" t="n">
         <v>42</v>
@@ -9916,7 +9908,7 @@
         <v>1085</v>
       </c>
       <c r="F131" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="G131" t="n">
         <v>389</v>
@@ -9925,37 +9917,37 @@
         <v>33390</v>
       </c>
       <c r="I131" t="n">
-        <v>97382</v>
+        <v>97376</v>
       </c>
       <c r="J131" t="n">
-        <v>244679</v>
+        <v>244676</v>
       </c>
       <c r="K131" t="n">
         <v>58766</v>
       </c>
       <c r="L131" t="n">
-        <v>12044</v>
+        <v>12422</v>
       </c>
       <c r="M131" t="n">
-        <v>12608</v>
+        <v>10782</v>
       </c>
       <c r="N131" t="n">
-        <v>9069</v>
+        <v>9778</v>
       </c>
       <c r="O131" t="n">
-        <v>5225</v>
+        <v>5837</v>
       </c>
       <c r="P131" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q131" t="n">
-        <v>1540.6</v>
+        <v>1540.3</v>
       </c>
       <c r="R131" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S131" t="n">
-        <v>834.1</v>
+        <v>833.9</v>
       </c>
       <c r="T131" t="n">
         <v>21</v>
@@ -9990,7 +9982,7 @@
         <v>1022</v>
       </c>
       <c r="F132" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="G132" t="n">
         <v>343</v>
@@ -9999,37 +9991,37 @@
         <v>33413</v>
       </c>
       <c r="I132" t="n">
-        <v>97555</v>
+        <v>97549</v>
       </c>
       <c r="J132" t="n">
-        <v>245119</v>
+        <v>245116</v>
       </c>
       <c r="K132" t="n">
         <v>59174</v>
       </c>
       <c r="L132" t="n">
-        <v>11821</v>
+        <v>12217</v>
       </c>
       <c r="M132" t="n">
-        <v>10452</v>
+        <v>12779</v>
       </c>
       <c r="N132" t="n">
-        <v>8724</v>
+        <v>9509</v>
       </c>
       <c r="O132" t="n">
-        <v>5016</v>
+        <v>5663</v>
       </c>
       <c r="P132" t="n">
         <v>173</v>
       </c>
       <c r="Q132" t="n">
-        <v>1825.9</v>
+        <v>1825.6</v>
       </c>
       <c r="R132" t="n">
         <v>440</v>
       </c>
       <c r="S132" t="n">
-        <v>809.3</v>
+        <v>809</v>
       </c>
       <c r="T132" t="n">
         <v>23</v>
@@ -10064,7 +10056,7 @@
         <v>986</v>
       </c>
       <c r="F133" t="n">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G133" t="n">
         <v>348</v>
@@ -10073,37 +10065,37 @@
         <v>33433</v>
       </c>
       <c r="I133" t="n">
-        <v>97763</v>
+        <v>97757</v>
       </c>
       <c r="J133" t="n">
-        <v>245578</v>
+        <v>245575</v>
       </c>
       <c r="K133" t="n">
         <v>59613</v>
       </c>
       <c r="L133" t="n">
-        <v>13813</v>
+        <v>12027</v>
       </c>
       <c r="M133" t="n">
-        <v>3187</v>
+        <v>10658</v>
       </c>
       <c r="N133" t="n">
-        <v>8489</v>
+        <v>9181</v>
       </c>
       <c r="O133" t="n">
-        <v>4902</v>
+        <v>5473</v>
       </c>
       <c r="P133" t="n">
         <v>208</v>
       </c>
       <c r="Q133" t="n">
-        <v>1522.9</v>
+        <v>1522.6</v>
       </c>
       <c r="R133" t="n">
         <v>459</v>
       </c>
       <c r="S133" t="n">
-        <v>782.1</v>
+        <v>781.9</v>
       </c>
       <c r="T133" t="n">
         <v>20</v>
@@ -10138,7 +10130,7 @@
         <v>945</v>
       </c>
       <c r="F134" t="n">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="G134" t="n">
         <v>331</v>
@@ -10147,37 +10139,37 @@
         <v>33462</v>
       </c>
       <c r="I134" t="n">
-        <v>97916</v>
+        <v>97910</v>
       </c>
       <c r="J134" t="n">
-        <v>246024</v>
+        <v>246021</v>
       </c>
       <c r="K134" t="n">
         <v>59932</v>
       </c>
       <c r="L134" t="n">
-        <v>11583</v>
+        <v>13964</v>
       </c>
       <c r="M134" t="n">
-        <v>828</v>
+        <v>3338</v>
       </c>
       <c r="N134" t="n">
-        <v>8202</v>
+        <v>8933</v>
       </c>
       <c r="O134" t="n">
-        <v>2626</v>
+        <v>5346</v>
       </c>
       <c r="P134" t="n">
         <v>153</v>
       </c>
       <c r="Q134" t="n">
-        <v>477.1</v>
+        <v>476.9</v>
       </c>
       <c r="R134" t="n">
         <v>446</v>
       </c>
       <c r="S134" t="n">
-        <v>764</v>
+        <v>763.7</v>
       </c>
       <c r="T134" t="n">
         <v>29</v>
@@ -10212,7 +10204,7 @@
         <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G135" t="n">
         <v>322</v>
@@ -10221,37 +10213,37 @@
         <v>33477</v>
       </c>
       <c r="I135" t="n">
-        <v>98124</v>
+        <v>98118</v>
       </c>
       <c r="J135" t="n">
-        <v>246526</v>
+        <v>246523</v>
       </c>
       <c r="K135" t="n">
         <v>60275</v>
       </c>
       <c r="L135" t="n">
-        <v>11650</v>
+        <v>11789</v>
       </c>
       <c r="M135" t="n">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="N135" t="n">
-        <v>8342</v>
+        <v>8702</v>
       </c>
       <c r="O135" t="n">
-        <v>2774</v>
+        <v>3126</v>
       </c>
       <c r="P135" t="n">
         <v>208</v>
       </c>
       <c r="Q135" t="n">
-        <v>148</v>
+        <v>147.7</v>
       </c>
       <c r="R135" t="n">
         <v>502</v>
       </c>
       <c r="S135" t="n">
-        <v>446.9</v>
+        <v>446.6</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -10286,7 +10278,7 @@
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G136" t="n">
         <v>288</v>
@@ -10295,37 +10287,37 @@
         <v>33490</v>
       </c>
       <c r="I136" t="n">
-        <v>98180</v>
+        <v>98174</v>
       </c>
       <c r="J136" t="n">
-        <v>246664</v>
+        <v>246661</v>
       </c>
       <c r="K136" t="n">
         <v>52176</v>
       </c>
       <c r="L136" t="n">
-        <v>11659</v>
+        <v>11704</v>
       </c>
       <c r="M136" t="n">
-        <v>943</v>
+        <v>1099</v>
       </c>
       <c r="N136" t="n">
-        <v>8204</v>
+        <v>8478</v>
       </c>
       <c r="O136" t="n">
-        <v>2315</v>
+        <v>2911</v>
       </c>
       <c r="P136" t="n">
         <v>56</v>
       </c>
       <c r="Q136" t="n">
-        <v>157.1</v>
+        <v>157</v>
       </c>
       <c r="R136" t="n">
         <v>138</v>
       </c>
       <c r="S136" t="n">
-        <v>416</v>
+        <v>415.9</v>
       </c>
       <c r="T136" t="n">
         <v>13</v>
@@ -10360,7 +10352,7 @@
         <v>299</v>
       </c>
       <c r="F137" t="n">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G137" t="n">
         <v>285</v>
@@ -10369,37 +10361,37 @@
         <v>33509</v>
       </c>
       <c r="I137" t="n">
-        <v>98217</v>
+        <v>98211</v>
       </c>
       <c r="J137" t="n">
-        <v>246767</v>
+        <v>246764</v>
       </c>
       <c r="K137" t="n">
         <v>52241</v>
       </c>
       <c r="L137" t="n">
-        <v>11619</v>
+        <v>11694</v>
       </c>
       <c r="M137" t="n">
-        <v>835</v>
+        <v>978</v>
       </c>
       <c r="N137" t="n">
-        <v>7927</v>
+        <v>8305</v>
       </c>
       <c r="O137" t="n">
-        <v>2088</v>
+        <v>2416</v>
       </c>
       <c r="P137" t="n">
         <v>37</v>
       </c>
       <c r="Q137" t="n">
-        <v>140</v>
+        <v>139.7</v>
       </c>
       <c r="R137" t="n">
         <v>103</v>
       </c>
       <c r="S137" t="n">
-        <v>345.4</v>
+        <v>345.1</v>
       </c>
       <c r="T137" t="n">
         <v>19</v>
@@ -10434,7 +10426,7 @@
         <v>866</v>
       </c>
       <c r="F138" t="n">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G138" t="n">
         <v>300</v>
@@ -10443,25 +10435,25 @@
         <v>33529</v>
       </c>
       <c r="I138" t="n">
-        <v>98329</v>
+        <v>98323</v>
       </c>
       <c r="J138" t="n">
-        <v>247126</v>
+        <v>247123</v>
       </c>
       <c r="K138" t="n">
         <v>60802</v>
       </c>
       <c r="L138" t="n">
-        <v>13555</v>
+        <v>11729</v>
       </c>
       <c r="M138" t="n">
-        <v>774</v>
+        <v>947</v>
       </c>
       <c r="N138" t="n">
-        <v>7672</v>
+        <v>8284</v>
       </c>
       <c r="O138" t="n">
-        <v>2007</v>
+        <v>2447</v>
       </c>
       <c r="P138" t="n">
         <v>112</v>
@@ -10499,7 +10491,7 @@
         <v>16</v>
       </c>
       <c r="C139" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D139" t="n">
         <v>62</v>
@@ -10508,7 +10500,7 @@
         <v>267</v>
       </c>
       <c r="F139" t="n">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G139" t="n">
         <v>285</v>
@@ -10517,37 +10509,37 @@
         <v>33543</v>
       </c>
       <c r="I139" t="n">
-        <v>98506</v>
+        <v>98501</v>
       </c>
       <c r="J139" t="n">
-        <v>245323</v>
+        <v>245321</v>
       </c>
       <c r="K139" t="n">
         <v>61114</v>
       </c>
       <c r="L139" t="n">
-        <v>11403</v>
+        <v>13731</v>
       </c>
       <c r="M139" t="n">
-        <v>743</v>
+        <v>952</v>
       </c>
       <c r="N139" t="n">
-        <v>5220</v>
+        <v>5868</v>
       </c>
       <c r="O139" t="n">
-        <v>-255</v>
+        <v>205</v>
       </c>
       <c r="P139" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q139" t="n">
-        <v>135.9</v>
+        <v>136</v>
       </c>
       <c r="R139" t="n">
-        <v>-1803</v>
+        <v>-1802</v>
       </c>
       <c r="S139" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -10582,7 +10574,7 @@
         <v>237</v>
       </c>
       <c r="F140" t="n">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G140" t="n">
         <v>277</v>
@@ -10591,37 +10583,37 @@
         <v>33553</v>
       </c>
       <c r="I140" t="n">
-        <v>98646</v>
+        <v>98641</v>
       </c>
       <c r="J140" t="n">
-        <v>245692</v>
+        <v>245690</v>
       </c>
       <c r="K140" t="n">
         <v>61436</v>
       </c>
       <c r="L140" t="n">
-        <v>4070</v>
+        <v>11542</v>
       </c>
       <c r="M140" t="n">
-        <v>730</v>
+        <v>884</v>
       </c>
       <c r="N140" t="n">
-        <v>5016</v>
+        <v>5588</v>
       </c>
       <c r="O140" t="n">
-        <v>-332</v>
+        <v>115</v>
       </c>
       <c r="P140" t="n">
         <v>140</v>
       </c>
       <c r="Q140" t="n">
-        <v>126.1</v>
+        <v>126.3</v>
       </c>
       <c r="R140" t="n">
         <v>369</v>
       </c>
       <c r="S140" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="T140" t="n">
         <v>10</v>
@@ -10656,7 +10648,7 @@
         <v>775</v>
       </c>
       <c r="F141" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G141" t="n">
         <v>259</v>
@@ -10665,37 +10657,37 @@
         <v>33589</v>
       </c>
       <c r="I141" t="n">
-        <v>98858</v>
+        <v>98853</v>
       </c>
       <c r="J141" t="n">
-        <v>246226</v>
+        <v>246224</v>
       </c>
       <c r="K141" t="n">
         <v>61810</v>
       </c>
       <c r="L141" t="n">
-        <v>1770</v>
+        <v>4281</v>
       </c>
       <c r="M141" t="n">
-        <v>734</v>
+        <v>943</v>
       </c>
       <c r="N141" t="n">
-        <v>2828</v>
+        <v>5549</v>
       </c>
       <c r="O141" t="n">
-        <v>-300</v>
+        <v>203</v>
       </c>
       <c r="P141" t="n">
         <v>212</v>
       </c>
       <c r="Q141" t="n">
-        <v>134.6</v>
+        <v>134.7</v>
       </c>
       <c r="R141" t="n">
         <v>534</v>
       </c>
       <c r="S141" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T141" t="n">
         <v>36</v>
@@ -10730,7 +10722,7 @@
         <v>226</v>
       </c>
       <c r="F142" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G142" t="n">
         <v>234</v>
@@ -10739,37 +10731,37 @@
         <v>33596</v>
       </c>
       <c r="I142" t="n">
-        <v>99044</v>
+        <v>99039</v>
       </c>
       <c r="J142" t="n">
-        <v>246636</v>
+        <v>246634</v>
       </c>
       <c r="K142" t="n">
         <v>62041</v>
       </c>
       <c r="L142" t="n">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="M142" t="n">
-        <v>864</v>
+        <v>921</v>
       </c>
       <c r="N142" t="n">
-        <v>2884</v>
+        <v>3237</v>
       </c>
       <c r="O142" t="n">
-        <v>-28</v>
+        <v>111</v>
       </c>
       <c r="P142" t="n">
         <v>186</v>
       </c>
       <c r="Q142" t="n">
-        <v>131.4</v>
+        <v>131.6</v>
       </c>
       <c r="R142" t="n">
         <v>410</v>
       </c>
       <c r="S142" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -10804,7 +10796,7 @@
         <v>223</v>
       </c>
       <c r="F143" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G143" t="n">
         <v>227</v>
@@ -10813,37 +10805,37 @@
         <v>33610</v>
       </c>
       <c r="I143" t="n">
-        <v>99127</v>
+        <v>99122</v>
       </c>
       <c r="J143" t="n">
-        <v>246874</v>
+        <v>246872</v>
       </c>
       <c r="K143" t="n">
         <v>62244</v>
       </c>
       <c r="L143" t="n">
-        <v>1890</v>
+        <v>2047</v>
       </c>
       <c r="M143" t="n">
-        <v>910</v>
+        <v>948</v>
       </c>
       <c r="N143" t="n">
-        <v>2525</v>
+        <v>3122</v>
       </c>
       <c r="O143" t="n">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="P143" t="n">
         <v>83</v>
       </c>
       <c r="Q143" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="R143" t="n">
         <v>238</v>
       </c>
       <c r="S143" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -10878,7 +10870,7 @@
         <v>238</v>
       </c>
       <c r="F144" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G144" t="n">
         <v>233</v>
@@ -10887,37 +10879,37 @@
         <v>33619</v>
       </c>
       <c r="I144" t="n">
-        <v>99183</v>
+        <v>99178</v>
       </c>
       <c r="J144" t="n">
-        <v>247073</v>
+        <v>247071</v>
       </c>
       <c r="K144" t="n">
         <v>62289</v>
       </c>
       <c r="L144" t="n">
-        <v>1801</v>
+        <v>1945</v>
       </c>
       <c r="M144" t="n">
-        <v>854</v>
+        <v>967</v>
       </c>
       <c r="N144" t="n">
-        <v>2394</v>
+        <v>2723</v>
       </c>
       <c r="O144" t="n">
-        <v>-53</v>
+        <v>307</v>
       </c>
       <c r="P144" t="n">
         <v>56</v>
       </c>
       <c r="Q144" t="n">
-        <v>138</v>
+        <v>138.1</v>
       </c>
       <c r="R144" t="n">
         <v>199</v>
       </c>
       <c r="S144" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="T144" t="n">
         <v>9</v>
@@ -10952,7 +10944,7 @@
         <v>821</v>
       </c>
       <c r="F145" t="n">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G145" t="n">
         <v>212</v>
@@ -10961,37 +10953,37 @@
         <v>33640</v>
       </c>
       <c r="I145" t="n">
-        <v>99306</v>
+        <v>99301</v>
       </c>
       <c r="J145" t="n">
-        <v>247329</v>
+        <v>247327</v>
       </c>
       <c r="K145" t="n">
         <v>62351</v>
       </c>
       <c r="L145" t="n">
-        <v>1751</v>
+        <v>1925</v>
       </c>
       <c r="M145" t="n">
-        <v>800</v>
+        <v>978</v>
       </c>
       <c r="N145" t="n">
-        <v>2210</v>
+        <v>2651</v>
       </c>
       <c r="O145" t="n">
-        <v>2006</v>
+        <v>204</v>
       </c>
       <c r="P145" t="n">
         <v>123</v>
       </c>
       <c r="Q145" t="n">
-        <v>139.6</v>
+        <v>139.7</v>
       </c>
       <c r="R145" t="n">
         <v>256</v>
       </c>
       <c r="S145" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T145" t="n">
         <v>21</v>
@@ -11026,7 +11018,7 @@
         <v>838</v>
       </c>
       <c r="F146" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G146" t="n">
         <v>207</v>
@@ -11035,25 +11027,25 @@
         <v>33652</v>
       </c>
       <c r="I146" t="n">
-        <v>99375</v>
+        <v>99370</v>
       </c>
       <c r="J146" t="n">
-        <v>247722</v>
+        <v>247720</v>
       </c>
       <c r="K146" t="n">
         <v>62507</v>
       </c>
       <c r="L146" t="n">
-        <v>1612</v>
+        <v>1821</v>
       </c>
       <c r="M146" t="n">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="N146" t="n">
-        <v>2144</v>
+        <v>2604</v>
       </c>
       <c r="O146" t="n">
-        <v>2030</v>
+        <v>2399</v>
       </c>
       <c r="P146" t="n">
         <v>69</v>
@@ -11100,7 +11092,7 @@
         <v>78</v>
       </c>
       <c r="F147" t="n">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G147" t="n">
         <v>201</v>
@@ -11109,25 +11101,25 @@
         <v>33662</v>
       </c>
       <c r="I147" t="n">
-        <v>97298</v>
+        <v>97293</v>
       </c>
       <c r="J147" t="n">
-        <v>248077</v>
+        <v>248075</v>
       </c>
       <c r="K147" t="n">
         <v>60872</v>
       </c>
       <c r="L147" t="n">
-        <v>-618</v>
+        <v>-464</v>
       </c>
       <c r="M147" t="n">
-        <v>-1560</v>
+        <v>-1348</v>
       </c>
       <c r="N147" t="n">
-        <v>2053</v>
+        <v>2500</v>
       </c>
       <c r="O147" t="n">
-        <v>1851</v>
+        <v>2385</v>
       </c>
       <c r="P147" t="n">
         <v>-2077</v>
@@ -11174,7 +11166,7 @@
         <v>884</v>
       </c>
       <c r="F148" t="n">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G148" t="n">
         <v>202</v>
@@ -11183,25 +11175,25 @@
         <v>33675</v>
       </c>
       <c r="I148" t="n">
-        <v>105799</v>
+        <v>105794</v>
       </c>
       <c r="J148" t="n">
-        <v>248486</v>
+        <v>248484</v>
       </c>
       <c r="K148" t="n">
         <v>62979</v>
       </c>
       <c r="L148" t="n">
-        <v>7675</v>
+        <v>7884</v>
       </c>
       <c r="M148" t="n">
-        <v>6755</v>
+        <v>6941</v>
       </c>
       <c r="N148" t="n">
-        <v>1960</v>
+        <v>2463</v>
       </c>
       <c r="O148" t="n">
-        <v>1850</v>
+        <v>2260</v>
       </c>
       <c r="P148" t="n">
         <v>8501</v>
@@ -11248,7 +11240,7 @@
         <v>216</v>
       </c>
       <c r="F149" t="n">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G149" t="n">
         <v>189</v>
@@ -11257,25 +11249,25 @@
         <v>33686</v>
       </c>
       <c r="I149" t="n">
-        <v>106174</v>
+        <v>106169</v>
       </c>
       <c r="J149" t="n">
-        <v>249054</v>
+        <v>249052</v>
       </c>
       <c r="K149" t="n">
         <v>63184</v>
       </c>
       <c r="L149" t="n">
-        <v>7994</v>
+        <v>8051</v>
       </c>
       <c r="M149" t="n">
-        <v>7047</v>
+        <v>7130</v>
       </c>
       <c r="N149" t="n">
-        <v>2390</v>
+        <v>2529</v>
       </c>
       <c r="O149" t="n">
-        <v>2180</v>
+        <v>2418</v>
       </c>
       <c r="P149" t="n">
         <v>375</v>
@@ -11322,7 +11314,7 @@
         <v>76</v>
       </c>
       <c r="F150" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G150" t="n">
         <v>180</v>
@@ -11331,25 +11323,25 @@
         <v>33696</v>
       </c>
       <c r="I150" t="n">
-        <v>104035</v>
+        <v>104030</v>
       </c>
       <c r="J150" t="n">
-        <v>249323</v>
+        <v>249321</v>
       </c>
       <c r="K150" t="n">
         <v>61363</v>
       </c>
       <c r="L150" t="n">
-        <v>5818</v>
+        <v>5856</v>
       </c>
       <c r="M150" t="n">
-        <v>4852</v>
+        <v>4908</v>
       </c>
       <c r="N150" t="n">
-        <v>2556</v>
+        <v>2660</v>
       </c>
       <c r="O150" t="n">
-        <v>2250</v>
+        <v>2449</v>
       </c>
       <c r="P150" t="n">
         <v>-2139</v>
@@ -11396,7 +11388,7 @@
         <v>76</v>
       </c>
       <c r="F151" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G151" t="n">
         <v>151</v>
@@ -11405,25 +11397,25 @@
         <v>33703</v>
       </c>
       <c r="I151" t="n">
-        <v>104178</v>
+        <v>104173</v>
       </c>
       <c r="J151" t="n">
-        <v>249523</v>
+        <v>249521</v>
       </c>
       <c r="K151" t="n">
         <v>60427</v>
       </c>
       <c r="L151" t="n">
-        <v>5849</v>
+        <v>5962</v>
       </c>
       <c r="M151" t="n">
-        <v>4872</v>
+        <v>4995</v>
       </c>
       <c r="N151" t="n">
-        <v>2397</v>
+        <v>2757</v>
       </c>
       <c r="O151" t="n">
-        <v>2194</v>
+        <v>2450</v>
       </c>
       <c r="P151" t="n">
         <v>143</v>
@@ -11470,7 +11462,7 @@
         <v>211</v>
       </c>
       <c r="F152" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="G152" t="n">
         <v>181</v>
@@ -11479,25 +11471,25 @@
         <v>33709</v>
       </c>
       <c r="I152" t="n">
-        <v>106686</v>
+        <v>106681</v>
       </c>
       <c r="J152" t="n">
-        <v>249784</v>
+        <v>249782</v>
       </c>
       <c r="K152" t="n">
         <v>63416</v>
       </c>
       <c r="L152" t="n">
-        <v>8180</v>
+        <v>8358</v>
       </c>
       <c r="M152" t="n">
-        <v>7311</v>
+        <v>7380</v>
       </c>
       <c r="N152" t="n">
-        <v>4461</v>
+        <v>2659</v>
       </c>
       <c r="O152" t="n">
-        <v>2062</v>
+        <v>2455</v>
       </c>
       <c r="P152" t="n">
         <v>2508</v>
@@ -11544,7 +11536,7 @@
         <v>203</v>
       </c>
       <c r="F153" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G153" t="n">
         <v>176</v>
@@ -11553,25 +11545,25 @@
         <v>33728</v>
       </c>
       <c r="I153" t="n">
-        <v>107004</v>
+        <v>106999</v>
       </c>
       <c r="J153" t="n">
-        <v>250243</v>
+        <v>250241</v>
       </c>
       <c r="K153" t="n">
         <v>58247</v>
       </c>
       <c r="L153" t="n">
-        <v>8358</v>
+        <v>8498</v>
       </c>
       <c r="M153" t="n">
-        <v>9706</v>
+        <v>7629</v>
       </c>
       <c r="N153" t="n">
-        <v>4551</v>
+        <v>4920</v>
       </c>
       <c r="O153" t="n">
-        <v>2166</v>
+        <v>2521</v>
       </c>
       <c r="P153" t="n">
         <v>318</v>
@@ -11618,7 +11610,7 @@
         <v>207</v>
       </c>
       <c r="F154" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G154" t="n">
         <v>171</v>
@@ -11627,25 +11619,25 @@
         <v>33742</v>
       </c>
       <c r="I154" t="n">
-        <v>107425</v>
+        <v>107420</v>
       </c>
       <c r="J154" t="n">
-        <v>250687</v>
+        <v>250685</v>
       </c>
       <c r="K154" t="n">
         <v>65597</v>
       </c>
       <c r="L154" t="n">
-        <v>8567</v>
+        <v>8779</v>
       </c>
       <c r="M154" t="n">
-        <v>1626</v>
+        <v>10127</v>
       </c>
       <c r="N154" t="n">
-        <v>4461</v>
+        <v>4995</v>
       </c>
       <c r="O154" t="n">
-        <v>2201</v>
+        <v>2610</v>
       </c>
       <c r="P154" t="n">
         <v>421</v>
@@ -11692,7 +11684,7 @@
         <v>991</v>
       </c>
       <c r="F155" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G155" t="n">
         <v>162</v>
@@ -11701,25 +11693,25 @@
         <v>33753</v>
       </c>
       <c r="I155" t="n">
-        <v>107845</v>
+        <v>107840</v>
       </c>
       <c r="J155" t="n">
-        <v>251167</v>
+        <v>251165</v>
       </c>
       <c r="K155" t="n">
         <v>65793</v>
       </c>
       <c r="L155" t="n">
-        <v>8801</v>
+        <v>8987</v>
       </c>
       <c r="M155" t="n">
-        <v>1671</v>
+        <v>2046</v>
       </c>
       <c r="N155" t="n">
-        <v>4531</v>
+        <v>4941</v>
       </c>
       <c r="O155" t="n">
-        <v>2113</v>
+        <v>2681</v>
       </c>
       <c r="P155" t="n">
         <v>420</v>
@@ -11775,25 +11767,25 @@
         <v>33761</v>
       </c>
       <c r="I156" t="n">
-        <v>102011</v>
+        <v>102006</v>
       </c>
       <c r="J156" t="n">
-        <v>251740</v>
+        <v>251738</v>
       </c>
       <c r="K156" t="n">
         <v>61385</v>
       </c>
       <c r="L156" t="n">
-        <v>2884</v>
+        <v>2967</v>
       </c>
       <c r="M156" t="n">
-        <v>-2024</v>
+        <v>-4163</v>
       </c>
       <c r="N156" t="n">
-        <v>4866</v>
+        <v>5104</v>
       </c>
       <c r="O156" t="n">
-        <v>2417</v>
+        <v>2686</v>
       </c>
       <c r="P156" t="n">
         <v>-5834</v>
@@ -11849,25 +11841,25 @@
         <v>33766</v>
       </c>
       <c r="I157" t="n">
-        <v>99841</v>
+        <v>99836</v>
       </c>
       <c r="J157" t="n">
-        <v>251958</v>
+        <v>251956</v>
       </c>
       <c r="K157" t="n">
         <v>35399</v>
       </c>
       <c r="L157" t="n">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="M157" t="n">
-        <v>-4337</v>
+        <v>-4194</v>
       </c>
       <c r="N157" t="n">
-        <v>4885</v>
+        <v>5084</v>
       </c>
       <c r="O157" t="n">
-        <v>2435</v>
+        <v>2635</v>
       </c>
       <c r="P157" t="n">
         <v>-2170</v>
@@ -11923,25 +11915,25 @@
         <v>33775</v>
       </c>
       <c r="I158" t="n">
-        <v>106373</v>
+        <v>106368</v>
       </c>
       <c r="J158" t="n">
-        <v>252157</v>
+        <v>252155</v>
       </c>
       <c r="K158" t="n">
         <v>40019</v>
       </c>
       <c r="L158" t="n">
-        <v>7067</v>
+        <v>7190</v>
       </c>
       <c r="M158" t="n">
-        <v>-313</v>
+        <v>2195</v>
       </c>
       <c r="N158" t="n">
-        <v>4828</v>
+        <v>5084</v>
       </c>
       <c r="O158" t="n">
-        <v>2373</v>
+        <v>2634</v>
       </c>
       <c r="P158" t="n">
         <v>6532</v>
@@ -11997,25 +11989,25 @@
         <v>33785</v>
       </c>
       <c r="I159" t="n">
-        <v>109038</v>
+        <v>109033</v>
       </c>
       <c r="J159" t="n">
-        <v>252526</v>
+        <v>252524</v>
       </c>
       <c r="K159" t="n">
         <v>66247</v>
       </c>
       <c r="L159" t="n">
-        <v>9663</v>
+        <v>9732</v>
       </c>
       <c r="M159" t="n">
-        <v>2034</v>
+        <v>2352</v>
       </c>
       <c r="N159" t="n">
-        <v>4804</v>
+        <v>5197</v>
       </c>
       <c r="O159" t="n">
-        <v>2283</v>
+        <v>2742</v>
       </c>
       <c r="P159" t="n">
         <v>2665</v>
@@ -12062,7 +12054,7 @@
         <v>1056</v>
       </c>
       <c r="F160" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G160" t="n">
         <v>139</v>
@@ -12071,25 +12063,25 @@
         <v>33802</v>
       </c>
       <c r="I160" t="n">
-        <v>109654</v>
+        <v>109649</v>
       </c>
       <c r="J160" t="n">
-        <v>253217</v>
+        <v>253215</v>
       </c>
       <c r="K160" t="n">
         <v>66390</v>
       </c>
       <c r="L160" t="n">
-        <v>12356</v>
+        <v>10279</v>
       </c>
       <c r="M160" t="n">
-        <v>2229</v>
+        <v>2650</v>
       </c>
       <c r="N160" t="n">
-        <v>5140</v>
+        <v>5495</v>
       </c>
       <c r="O160" t="n">
-        <v>2530</v>
+        <v>2974</v>
       </c>
       <c r="P160" t="n">
         <v>616</v>
@@ -12136,7 +12128,7 @@
         <v>1086</v>
       </c>
       <c r="F161" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G161" t="n">
         <v>129</v>
@@ -12145,25 +12137,25 @@
         <v>33811</v>
       </c>
       <c r="I161" t="n">
-        <v>110390</v>
+        <v>110385</v>
       </c>
       <c r="J161" t="n">
-        <v>253870</v>
+        <v>253868</v>
       </c>
       <c r="K161" t="n">
         <v>66547</v>
       </c>
       <c r="L161" t="n">
-        <v>4591</v>
+        <v>13092</v>
       </c>
       <c r="M161" t="n">
-        <v>2545</v>
+        <v>2965</v>
       </c>
       <c r="N161" t="n">
-        <v>5384</v>
+        <v>5793</v>
       </c>
       <c r="O161" t="n">
-        <v>2703</v>
+        <v>3183</v>
       </c>
       <c r="P161" t="n">
         <v>736</v>
@@ -12210,7 +12202,7 @@
         <v>1142</v>
       </c>
       <c r="F162" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G162" t="n">
         <v>125</v>
@@ -12219,25 +12211,25 @@
         <v>33824</v>
       </c>
       <c r="I162" t="n">
-        <v>111232</v>
+        <v>111227</v>
       </c>
       <c r="J162" t="n">
-        <v>254751</v>
+        <v>254749</v>
       </c>
       <c r="K162" t="n">
         <v>66719</v>
       </c>
       <c r="L162" t="n">
-        <v>5058</v>
+        <v>5433</v>
       </c>
       <c r="M162" t="n">
-        <v>9221</v>
+        <v>3387</v>
       </c>
       <c r="N162" t="n">
-        <v>5697</v>
+        <v>6265</v>
       </c>
       <c r="O162" t="n">
-        <v>3011</v>
+        <v>3584</v>
       </c>
       <c r="P162" t="n">
         <v>842</v>
@@ -12275,7 +12267,7 @@
         <v>64</v>
       </c>
       <c r="C163" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D163" t="n">
         <v>220</v>
@@ -12284,7 +12276,7 @@
         <v>198</v>
       </c>
       <c r="F163" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="G163" t="n">
         <v>85</v>
@@ -12293,37 +12285,37 @@
         <v>33828</v>
       </c>
       <c r="I163" t="n">
-        <v>105691</v>
+        <v>105687</v>
       </c>
       <c r="J163" t="n">
-        <v>255864</v>
+        <v>255863</v>
       </c>
       <c r="K163" t="n">
         <v>62159</v>
       </c>
       <c r="L163" t="n">
-        <v>1656</v>
+        <v>-482</v>
       </c>
       <c r="M163" t="n">
-        <v>5850</v>
+        <v>3681</v>
       </c>
       <c r="N163" t="n">
-        <v>6541</v>
+        <v>6811</v>
       </c>
       <c r="O163" t="n">
-        <v>3906</v>
+        <v>4125</v>
       </c>
       <c r="P163" t="n">
-        <v>-5541</v>
+        <v>-5540</v>
       </c>
       <c r="Q163" t="n">
-        <v>525.7</v>
+        <v>525.9</v>
       </c>
       <c r="R163" t="n">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="S163" t="n">
-        <v>589.1</v>
+        <v>589.3</v>
       </c>
       <c r="T163" t="n">
         <v>4</v>
@@ -12349,7 +12341,7 @@
         <v>33</v>
       </c>
       <c r="C164" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D164" t="n">
         <v>7</v>
@@ -12358,7 +12350,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="n">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G164" t="n">
         <v>66</v>
@@ -12367,37 +12359,37 @@
         <v>33832</v>
       </c>
       <c r="I164" t="n">
-        <v>103691</v>
+        <v>103689</v>
       </c>
       <c r="J164" t="n">
-        <v>256449</v>
+        <v>256450</v>
       </c>
       <c r="K164" t="n">
         <v>35724</v>
       </c>
       <c r="L164" t="n">
-        <v>-487</v>
+        <v>-341</v>
       </c>
       <c r="M164" t="n">
-        <v>-2682</v>
+        <v>3853</v>
       </c>
       <c r="N164" t="n">
-        <v>6926</v>
+        <v>7129</v>
       </c>
       <c r="O164" t="n">
-        <v>4292</v>
+        <v>4494</v>
       </c>
       <c r="P164" t="n">
-        <v>-2000</v>
+        <v>-1998</v>
       </c>
       <c r="Q164" t="n">
-        <v>550</v>
+        <v>550.4</v>
       </c>
       <c r="R164" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="S164" t="n">
-        <v>641.6</v>
+        <v>642</v>
       </c>
       <c r="T164" t="n">
         <v>4</v>
@@ -12432,7 +12424,7 @@
         <v>1073</v>
       </c>
       <c r="F165" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="G165" t="n">
         <v>104</v>
@@ -12441,37 +12433,37 @@
         <v>33840</v>
       </c>
       <c r="I165" t="n">
-        <v>110723</v>
+        <v>110721</v>
       </c>
       <c r="J165" t="n">
-        <v>256845</v>
+        <v>256846</v>
       </c>
       <c r="K165" t="n">
         <v>31920</v>
       </c>
       <c r="L165" t="n">
-        <v>4037</v>
+        <v>6548</v>
       </c>
       <c r="M165" t="n">
-        <v>1685</v>
+        <v>4353</v>
       </c>
       <c r="N165" t="n">
-        <v>7061</v>
+        <v>7325</v>
       </c>
       <c r="O165" t="n">
-        <v>4319</v>
+        <v>4691</v>
       </c>
       <c r="P165" t="n">
         <v>7032</v>
       </c>
       <c r="Q165" t="n">
-        <v>621.4</v>
+        <v>621.9</v>
       </c>
       <c r="R165" t="n">
         <v>396</v>
       </c>
       <c r="S165" t="n">
-        <v>669.7</v>
+        <v>670.1</v>
       </c>
       <c r="T165" t="n">
         <v>8</v>
@@ -12506,7 +12498,7 @@
         <v>1250</v>
       </c>
       <c r="F166" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G166" t="n">
         <v>132</v>
@@ -12515,37 +12507,37 @@
         <v>33853</v>
       </c>
       <c r="I166" t="n">
-        <v>114172</v>
+        <v>114170</v>
       </c>
       <c r="J166" t="n">
-        <v>257705</v>
+        <v>257706</v>
       </c>
       <c r="K166" t="n">
         <v>67236</v>
       </c>
       <c r="L166" t="n">
-        <v>7168</v>
+        <v>7489</v>
       </c>
       <c r="M166" t="n">
-        <v>4518</v>
+        <v>5137</v>
       </c>
       <c r="N166" t="n">
-        <v>7462</v>
+        <v>7924</v>
       </c>
       <c r="O166" t="n">
-        <v>4488</v>
+        <v>5182</v>
       </c>
       <c r="P166" t="n">
         <v>3449</v>
       </c>
       <c r="Q166" t="n">
-        <v>733.4</v>
+        <v>733.9</v>
       </c>
       <c r="R166" t="n">
         <v>860</v>
       </c>
       <c r="S166" t="n">
-        <v>739.9</v>
+        <v>740.3</v>
       </c>
       <c r="T166" t="n">
         <v>13</v>
@@ -12574,13 +12566,13 @@
         <v>1003</v>
       </c>
       <c r="D167" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E167" t="n">
         <v>1355</v>
       </c>
       <c r="F167" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G167" t="n">
         <v>125</v>
@@ -12589,37 +12581,37 @@
         <v>33859</v>
       </c>
       <c r="I167" t="n">
-        <v>115554</v>
+        <v>115551</v>
       </c>
       <c r="J167" t="n">
-        <v>258983</v>
+        <v>258984</v>
       </c>
       <c r="K167" t="n">
         <v>67415</v>
       </c>
       <c r="L167" t="n">
-        <v>8129</v>
+        <v>8552</v>
       </c>
       <c r="M167" t="n">
-        <v>5164</v>
+        <v>5902</v>
       </c>
       <c r="N167" t="n">
-        <v>8296</v>
+        <v>8743</v>
       </c>
       <c r="O167" t="n">
-        <v>5113</v>
+        <v>5769</v>
       </c>
       <c r="P167" t="n">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q167" t="n">
-        <v>842.9</v>
+        <v>843.1</v>
       </c>
       <c r="R167" t="n">
         <v>1278</v>
       </c>
       <c r="S167" t="n">
-        <v>823.7</v>
+        <v>824.1</v>
       </c>
       <c r="T167" t="n">
         <v>6</v>
@@ -12645,7 +12637,7 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D168" t="n">
         <v>520</v>
@@ -12654,7 +12646,7 @@
         <v>1591</v>
       </c>
       <c r="F168" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G168" t="n">
         <v>128</v>
@@ -12663,37 +12655,37 @@
         <v>33865</v>
       </c>
       <c r="I168" t="n">
-        <v>110025</v>
+        <v>110023</v>
       </c>
       <c r="J168" t="n">
-        <v>260461</v>
+        <v>260463</v>
       </c>
       <c r="K168" t="n">
         <v>67567</v>
       </c>
       <c r="L168" t="n">
-        <v>2180</v>
+        <v>2603</v>
       </c>
       <c r="M168" t="n">
-        <v>-1207</v>
+        <v>-362</v>
       </c>
       <c r="N168" t="n">
-        <v>9294</v>
+        <v>9778</v>
       </c>
       <c r="O168" t="n">
-        <v>5710</v>
+        <v>6595</v>
       </c>
       <c r="P168" t="n">
-        <v>-5529</v>
+        <v>-5528</v>
       </c>
       <c r="Q168" t="n">
-        <v>-52.1</v>
+        <v>-51.7</v>
       </c>
       <c r="R168" t="n">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="S168" t="n">
-        <v>941.6</v>
+        <v>942.1</v>
       </c>
       <c r="T168" t="n">
         <v>6</v>
@@ -12728,7 +12720,7 @@
         <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G169" t="n">
         <v>127</v>
@@ -12737,37 +12729,37 @@
         <v>33872</v>
       </c>
       <c r="I169" t="n">
-        <v>111447</v>
+        <v>111445</v>
       </c>
       <c r="J169" t="n">
-        <v>262131</v>
+        <v>262133</v>
       </c>
       <c r="K169" t="n">
         <v>62774</v>
       </c>
       <c r="L169" t="n">
-        <v>9436</v>
+        <v>3605</v>
       </c>
       <c r="M169" t="n">
-        <v>5756</v>
+        <v>218</v>
       </c>
       <c r="N169" t="n">
-        <v>10391</v>
+        <v>10968</v>
       </c>
       <c r="O169" t="n">
-        <v>6267</v>
+        <v>7384</v>
       </c>
       <c r="P169" t="n">
         <v>1422</v>
       </c>
       <c r="Q169" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="R169" t="n">
         <v>1670</v>
       </c>
       <c r="S169" t="n">
-        <v>1054.3</v>
+        <v>1054.9</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -12802,7 +12794,7 @@
         <v>304</v>
       </c>
       <c r="F170" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G170" t="n">
         <v>102</v>
@@ -12811,37 +12803,37 @@
         <v>33879</v>
       </c>
       <c r="I170" t="n">
-        <v>116599</v>
+        <v>116597</v>
       </c>
       <c r="J170" t="n">
-        <v>264124</v>
+        <v>264126</v>
       </c>
       <c r="K170" t="n">
         <v>66142</v>
       </c>
       <c r="L170" t="n">
-        <v>16758</v>
+        <v>14591</v>
       </c>
       <c r="M170" t="n">
-        <v>12908</v>
+        <v>10910</v>
       </c>
       <c r="N170" t="n">
-        <v>12166</v>
+        <v>12388</v>
       </c>
       <c r="O170" t="n">
-        <v>7675</v>
+        <v>8263</v>
       </c>
       <c r="P170" t="n">
         <v>5152</v>
       </c>
       <c r="Q170" t="n">
-        <v>1558.3</v>
+        <v>1558.6</v>
       </c>
       <c r="R170" t="n">
         <v>1993</v>
       </c>
       <c r="S170" t="n">
-        <v>1180</v>
+        <v>1180.4</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -12876,7 +12868,7 @@
         <v>218</v>
       </c>
       <c r="F171" t="n">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G171" t="n">
         <v>75</v>
@@ -12885,25 +12877,25 @@
         <v>33883</v>
       </c>
       <c r="I171" t="n">
-        <v>114983</v>
+        <v>114981</v>
       </c>
       <c r="J171" t="n">
-        <v>265492</v>
+        <v>265494</v>
       </c>
       <c r="K171" t="n">
         <v>35666</v>
       </c>
       <c r="L171" t="n">
-        <v>8610</v>
+        <v>15145</v>
       </c>
       <c r="M171" t="n">
-        <v>4260</v>
+        <v>11292</v>
       </c>
       <c r="N171" t="n">
-        <v>13335</v>
+        <v>13538</v>
       </c>
       <c r="O171" t="n">
-        <v>8647</v>
+        <v>9044</v>
       </c>
       <c r="P171" t="n">
         <v>-1616</v>
@@ -12915,7 +12907,7 @@
         <v>1368</v>
       </c>
       <c r="S171" t="n">
-        <v>1291.9</v>
+        <v>1292</v>
       </c>
       <c r="T171" t="n">
         <v>4</v>
@@ -12950,7 +12942,7 @@
         <v>2675</v>
       </c>
       <c r="F172" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G172" t="n">
         <v>104</v>
@@ -12959,25 +12951,25 @@
         <v>33889</v>
       </c>
       <c r="I172" t="n">
-        <v>123885</v>
+        <v>123883</v>
       </c>
       <c r="J172" t="n">
-        <v>266550</v>
+        <v>266552</v>
       </c>
       <c r="K172" t="n">
         <v>32040</v>
       </c>
       <c r="L172" t="n">
-        <v>14847</v>
+        <v>17515</v>
       </c>
       <c r="M172" t="n">
-        <v>9713</v>
+        <v>13162</v>
       </c>
       <c r="N172" t="n">
-        <v>14024</v>
+        <v>14397</v>
       </c>
       <c r="O172" t="n">
-        <v>8845</v>
+        <v>9706</v>
       </c>
       <c r="P172" t="n">
         <v>8902</v>
@@ -12989,7 +12981,7 @@
         <v>1058</v>
       </c>
       <c r="S172" t="n">
-        <v>1386.4</v>
+        <v>1386.6</v>
       </c>
       <c r="T172" t="n">
         <v>6</v>
@@ -13024,7 +13016,7 @@
         <v>3040</v>
       </c>
       <c r="F173" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G173" t="n">
         <v>138</v>
@@ -13033,25 +13025,25 @@
         <v>33901</v>
       </c>
       <c r="I173" t="n">
-        <v>128038</v>
+        <v>128036</v>
       </c>
       <c r="J173" t="n">
-        <v>268289</v>
+        <v>268291</v>
       </c>
       <c r="K173" t="n">
         <v>68196</v>
       </c>
       <c r="L173" t="n">
-        <v>18384</v>
+        <v>19003</v>
       </c>
       <c r="M173" t="n">
-        <v>12484</v>
+        <v>13866</v>
       </c>
       <c r="N173" t="n">
-        <v>15072</v>
+        <v>15767</v>
       </c>
       <c r="O173" t="n">
-        <v>9306</v>
+        <v>10585</v>
       </c>
       <c r="P173" t="n">
         <v>4153</v>
@@ -13063,7 +13055,7 @@
         <v>1739</v>
       </c>
       <c r="S173" t="n">
-        <v>1512</v>
+        <v>1512.1</v>
       </c>
       <c r="T173" t="n">
         <v>12</v>
@@ -13098,7 +13090,7 @@
         <v>3339</v>
       </c>
       <c r="F174" t="n">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G174" t="n">
         <v>146</v>
@@ -13107,37 +13099,37 @@
         <v>33918</v>
       </c>
       <c r="I174" t="n">
-        <v>129833</v>
+        <v>129831</v>
       </c>
       <c r="J174" t="n">
-        <v>270622</v>
+        <v>270624</v>
       </c>
       <c r="K174" t="n">
         <v>66625</v>
       </c>
       <c r="L174" t="n">
-        <v>19443</v>
+        <v>20182</v>
       </c>
       <c r="M174" t="n">
-        <v>19808</v>
+        <v>14280</v>
       </c>
       <c r="N174" t="n">
-        <v>16752</v>
+        <v>17409</v>
       </c>
       <c r="O174" t="n">
-        <v>10161</v>
+        <v>11640</v>
       </c>
       <c r="P174" t="n">
         <v>1795</v>
       </c>
       <c r="Q174" t="n">
-        <v>2039.9</v>
+        <v>2040</v>
       </c>
       <c r="R174" t="n">
         <v>2333</v>
       </c>
       <c r="S174" t="n">
-        <v>1662.7</v>
+        <v>1662.9</v>
       </c>
       <c r="T174" t="n">
         <v>17</v>
@@ -13166,13 +13158,13 @@
         <v>1904</v>
       </c>
       <c r="D175" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E175" t="n">
         <v>3762</v>
       </c>
       <c r="F175" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G175" t="n">
         <v>160</v>
@@ -13181,31 +13173,31 @@
         <v>33926</v>
       </c>
       <c r="I175" t="n">
-        <v>132130</v>
+        <v>132127</v>
       </c>
       <c r="J175" t="n">
-        <v>272931</v>
+        <v>272933</v>
       </c>
       <c r="K175" t="n">
         <v>74111</v>
       </c>
       <c r="L175" t="n">
-        <v>20898</v>
+        <v>21742</v>
       </c>
       <c r="M175" t="n">
-        <v>20683</v>
+        <v>22104</v>
       </c>
       <c r="N175" t="n">
-        <v>18180</v>
+        <v>19065</v>
       </c>
       <c r="O175" t="n">
-        <v>10800</v>
+        <v>12470</v>
       </c>
       <c r="P175" t="n">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="Q175" t="n">
-        <v>3157.9</v>
+        <v>3157.7</v>
       </c>
       <c r="R175" t="n">
         <v>2309</v>
@@ -13246,7 +13238,7 @@
         <v>4087</v>
       </c>
       <c r="F176" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G176" t="n">
         <v>159</v>
@@ -13255,31 +13247,31 @@
         <v>33932</v>
       </c>
       <c r="I176" t="n">
-        <v>134046</v>
+        <v>134043</v>
       </c>
       <c r="J176" t="n">
-        <v>275122</v>
+        <v>275124</v>
       </c>
       <c r="K176" t="n">
         <v>66928</v>
       </c>
       <c r="L176" t="n">
-        <v>28355</v>
+        <v>22816</v>
       </c>
       <c r="M176" t="n">
-        <v>17447</v>
+        <v>22598</v>
       </c>
       <c r="N176" t="n">
-        <v>19258</v>
+        <v>20375</v>
       </c>
       <c r="O176" t="n">
-        <v>10998</v>
+        <v>12991</v>
       </c>
       <c r="P176" t="n">
         <v>1916</v>
       </c>
       <c r="Q176" t="n">
-        <v>3228.4</v>
+        <v>3228.3</v>
       </c>
       <c r="R176" t="n">
         <v>2191</v>
@@ -13320,7 +13312,7 @@
         <v>602</v>
       </c>
       <c r="F177" t="n">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G177" t="n">
         <v>151</v>
@@ -13329,31 +13321,31 @@
         <v>33940</v>
       </c>
       <c r="I177" t="n">
-        <v>126051</v>
+        <v>126048</v>
       </c>
       <c r="J177" t="n">
-        <v>277778</v>
+        <v>277780</v>
       </c>
       <c r="K177" t="n">
         <v>69332</v>
       </c>
       <c r="L177" t="n">
-        <v>22360</v>
+        <v>20361</v>
       </c>
       <c r="M177" t="n">
-        <v>11068</v>
+        <v>9451</v>
       </c>
       <c r="N177" t="n">
-        <v>21329</v>
+        <v>21917</v>
       </c>
       <c r="O177" t="n">
-        <v>12286</v>
+        <v>13654</v>
       </c>
       <c r="P177" t="n">
         <v>-7995</v>
       </c>
       <c r="Q177" t="n">
-        <v>1350.3</v>
+        <v>1350.1</v>
       </c>
       <c r="R177" t="n">
         <v>2656</v>
@@ -13385,7 +13377,7 @@
         <v>45</v>
       </c>
       <c r="C178" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D178" t="n">
         <v>63416</v>
@@ -13394,7 +13386,7 @@
         <v>601</v>
       </c>
       <c r="F178" t="n">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G178" t="n">
         <v>115</v>
@@ -13403,37 +13395,37 @@
         <v>33952</v>
       </c>
       <c r="I178" t="n">
-        <v>105062</v>
+        <v>105058</v>
       </c>
       <c r="J178" t="n">
-        <v>279274</v>
+        <v>279275</v>
       </c>
       <c r="K178" t="n">
         <v>39981</v>
       </c>
       <c r="L178" t="n">
-        <v>-5661</v>
+        <v>1369</v>
       </c>
       <c r="M178" t="n">
-        <v>-18823</v>
+        <v>-9923</v>
       </c>
       <c r="N178" t="n">
-        <v>22429</v>
+        <v>22825</v>
       </c>
       <c r="O178" t="n">
-        <v>12724</v>
+        <v>13781</v>
       </c>
       <c r="P178" t="n">
-        <v>-20989</v>
+        <v>-20990</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1417.3</v>
+        <v>-1417.6</v>
       </c>
       <c r="R178" t="n">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="S178" t="n">
-        <v>1968.9</v>
+        <v>1968.7</v>
       </c>
       <c r="T178" t="n">
         <v>12</v>
@@ -13468,7 +13460,7 @@
         <v>4916</v>
       </c>
       <c r="F179" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G179" t="n">
         <v>136</v>
@@ -13477,37 +13469,37 @@
         <v>33968</v>
      